--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yrc2\Code\bioindustrial-park\BioSTEAM 2.x.x\biorefineries\oilcane\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC56F1-4281-4316-A4E0-CD3140E91AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="2112" windowWidth="20532" windowHeight="10596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Element</t>
   </si>
@@ -94,6 +88,9 @@
     <t>Stream-pure glycerine</t>
   </si>
   <si>
+    <t>Saccharification</t>
+  </si>
+  <si>
     <t>cellulase</t>
   </si>
   <si>
@@ -109,6 +106,18 @@
     <t>Cofermentation</t>
   </si>
   <si>
+    <t>oilcane</t>
+  </si>
+  <si>
+    <t>oilsorghum</t>
+  </si>
+  <si>
+    <t>Oil retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse oil extraction efficiency [%]</t>
+  </si>
+  <si>
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
@@ -130,7 +139,7 @@
     <t>Price [USD/kg]</t>
   </si>
   <si>
-    <t>Tau</t>
+    <t>Reaction time [hr]</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -163,18 +172,9 @@
     <t>Productivity [g/L]</t>
   </si>
   <si>
-    <t>Bagasse oil extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>oilcane</t>
-  </si>
-  <si>
     <t>Cane  PL content [% oil]</t>
   </si>
   <si>
-    <t>oilsorghum</t>
-  </si>
-  <si>
     <t>Sorghum  PL content [% oil]</t>
   </si>
   <si>
@@ -191,16 +191,13 @@
   </si>
   <si>
     <t>TAG to  FFA conversion [% oil]</t>
-  </si>
-  <si>
-    <t>Oil retention [%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,11 +249,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -266,14 +260,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -320,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,27 +338,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,24 +372,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,41 +547,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -678,7 +622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,1315 +630,1315 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>-0.10632262716490511</v>
+        <v>-0.1065589570943583</v>
       </c>
       <c r="D4">
-        <v>-0.14039741198389649</v>
+        <v>-0.1403974119838965</v>
       </c>
       <c r="E4">
-        <v>1.278953427158137E-3</v>
+        <v>0.001278953427158137</v>
       </c>
       <c r="F4">
-        <v>0.1179798126871925</v>
+        <v>0.1179745326869813</v>
       </c>
       <c r="H4">
-        <v>5.9931559101262348E-2</v>
+        <v>0.05979917749596709</v>
       </c>
       <c r="I4">
-        <v>1.8244027737761109E-2</v>
+        <v>0.01824716780188671</v>
       </c>
       <c r="J4">
-        <v>-1.113894262893605E-2</v>
+        <v>-0.01115338246880313</v>
       </c>
       <c r="K4">
-        <v>-0.11425928684237149</v>
+        <v>-0.1147441986057679</v>
       </c>
       <c r="L4">
-        <v>-0.70154441398177647</v>
+        <v>-0.7015444139817765</v>
       </c>
       <c r="M4">
-        <v>1.461050055242002E-2</v>
+        <v>0.01460921338436853</v>
       </c>
       <c r="N4">
-        <v>0.4604579528503181</v>
+        <v>0.4604324219372968</v>
       </c>
       <c r="P4">
-        <v>0.21698567427942689</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+        <v>0.2176930628837225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>8.5205502672220101E-2</v>
+        <v>0.08549759679590385</v>
       </c>
       <c r="D5">
         <v>0.1304287884811515</v>
       </c>
       <c r="E5">
-        <v>-1.767137062685482E-3</v>
+        <v>-0.001767137062685482</v>
       </c>
       <c r="F5">
-        <v>-0.1003615874704635</v>
+        <v>-0.100360875918435</v>
       </c>
       <c r="H5">
-        <v>-8.1808737992349508E-3</v>
+        <v>-0.008251820394072814</v>
       </c>
       <c r="I5">
-        <v>2.0998334663933381E-2</v>
+        <v>0.02099920672796826</v>
       </c>
       <c r="J5">
-        <v>-4.77091472700861E-2</v>
+        <v>-0.04772453587536409</v>
       </c>
       <c r="K5">
-        <v>0.1030963379478535</v>
+        <v>0.1035211108928444</v>
       </c>
       <c r="L5">
-        <v>0.64449059141162357</v>
+        <v>0.6444905914116236</v>
       </c>
       <c r="M5">
-        <v>1.133860077354403E-2</v>
+        <v>0.01133984080559363</v>
       </c>
       <c r="N5">
-        <v>-0.42130848091633921</v>
+        <v>-0.4213002111880084</v>
       </c>
       <c r="P5">
-        <v>-0.14551028185241119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+        <v>-0.1457885873995435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0.27919265427170609</v>
+        <v>0.2793638924545557</v>
       </c>
       <c r="D6">
-        <v>2.2211794968471799E-2</v>
+        <v>0.0222117949684718</v>
       </c>
       <c r="E6">
-        <v>-2.1140285165611401E-2</v>
+        <v>-0.0211402851656114</v>
       </c>
       <c r="F6">
-        <v>0.163159576606383</v>
+        <v>0.163168901566756</v>
       </c>
       <c r="H6">
-        <v>0.92718395417535815</v>
+        <v>0.9270552558982101</v>
       </c>
       <c r="I6">
-        <v>0.95869128196365117</v>
+        <v>0.9586914095476562</v>
       </c>
       <c r="J6">
-        <v>-0.31849193860457392</v>
+        <v>-0.3184947966457749</v>
       </c>
       <c r="K6">
-        <v>5.176055899842235E-2</v>
+        <v>0.05176495637459825</v>
       </c>
       <c r="L6">
-        <v>6.1843581673743254E-3</v>
+        <v>0.006184358167374325</v>
       </c>
       <c r="M6">
-        <v>-2.632377878095115E-2</v>
+        <v>-0.0263237924129517</v>
       </c>
       <c r="N6">
-        <v>2.345602980224119E-2</v>
+        <v>0.02345645959425838</v>
       </c>
       <c r="P6">
-        <v>0.54200613934424546</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.5422692603787704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>0.4902480119299204</v>
+        <v>0.4901569074462763</v>
       </c>
       <c r="D7">
-        <v>-4.0672286106891433E-3</v>
+        <v>-0.004067228610689143</v>
       </c>
       <c r="E7">
-        <v>7.5000260280010398E-3</v>
+        <v>0.00750002602800104</v>
       </c>
       <c r="F7">
-        <v>-1.0666629354665169E-2</v>
+        <v>-0.01066713719468548</v>
       </c>
       <c r="H7">
-        <v>-6.5893202635728104E-3</v>
+        <v>-0.006544929477797178</v>
       </c>
       <c r="I7">
-        <v>2.4901951716078071E-3</v>
+        <v>0.002488744899549796</v>
       </c>
       <c r="J7">
-        <v>-1.7251261760596551E-2</v>
+        <v>-0.01726305223990079</v>
       </c>
       <c r="K7">
-        <v>-0.60932563381302529</v>
+        <v>-0.6092430488497219</v>
       </c>
       <c r="L7">
-        <v>1.010773134830925E-2</v>
+        <v>0.01010773134830925</v>
       </c>
       <c r="M7">
-        <v>2.7719510644780419E-2</v>
+        <v>0.02772037570081503</v>
       </c>
       <c r="N7">
-        <v>-2.699238059969522E-3</v>
+        <v>-0.002698565579942623</v>
       </c>
       <c r="P7">
-        <v>-9.5576841583073641E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.009576846143073844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>0.55320227054409077</v>
+        <v>0.5530966991478679</v>
       </c>
       <c r="D8">
-        <v>-4.1897458315898334E-3</v>
+        <v>-0.004189745831589833</v>
       </c>
       <c r="E8">
-        <v>4.9520103420804132E-3</v>
+        <v>0.004952010342080413</v>
       </c>
       <c r="F8">
-        <v>-2.4715978588639139E-3</v>
+        <v>-0.002472544898901796</v>
       </c>
       <c r="H8">
-        <v>1.175353592614144E-2</v>
+        <v>0.0117334925653397</v>
       </c>
       <c r="I8">
-        <v>1.8081683379267331E-2</v>
+        <v>0.01808265845130633</v>
       </c>
       <c r="J8">
-        <v>-2.8000336179439598E-3</v>
+        <v>-0.002797698417634154</v>
       </c>
       <c r="K8">
-        <v>0.72268782269951293</v>
+        <v>0.7225835396233413</v>
       </c>
       <c r="L8">
-        <v>-8.9537515901500619E-3</v>
+        <v>-0.008953751590150062</v>
       </c>
       <c r="M8">
-        <v>5.7545345661813808E-3</v>
+        <v>0.005753511782140471</v>
       </c>
       <c r="N8">
-        <v>1.118958198358328E-2</v>
+        <v>0.01119092924763717</v>
       </c>
       <c r="P8">
-        <v>6.7633364945334576E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.006939208405568336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C9">
-        <v>-3.386657127466284E-3</v>
+        <v>-0.003355489190219567</v>
       </c>
       <c r="D9">
-        <v>1.0258722938348921E-2</v>
+        <v>0.01025872293834892</v>
       </c>
       <c r="E9">
-        <v>-1.16738900989556E-2</v>
+        <v>-0.0116738900989556</v>
       </c>
       <c r="F9">
-        <v>1.13336025333441E-2</v>
+        <v>0.01133465786138631</v>
       </c>
       <c r="H9">
-        <v>-7.6233630889345223E-3</v>
+        <v>-0.00763469876938795</v>
       </c>
       <c r="I9">
-        <v>-1.664095468163819E-2</v>
+        <v>-0.0166405299776212</v>
       </c>
       <c r="J9">
-        <v>1.8989692289273639E-2</v>
+        <v>0.01897801033536509</v>
       </c>
       <c r="K9">
-        <v>-9.0714243628569747E-6</v>
+        <v>-3.423264136930565E-05</v>
       </c>
       <c r="L9">
-        <v>-1.241486315259452E-2</v>
+        <v>-0.01241486315259452</v>
       </c>
       <c r="M9">
-        <v>3.888485915539436E-3</v>
+        <v>0.003887862395514495</v>
       </c>
       <c r="N9">
-        <v>8.8071584322863352E-4</v>
+        <v>0.0008748040669921625</v>
       </c>
       <c r="P9">
-        <v>-2.074043516561741E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+        <v>-0.02059697314387892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C10">
-        <v>8.4936260869450428E-2</v>
+        <v>0.08493541203741647</v>
       </c>
       <c r="D10">
-        <v>-3.3973889678955579E-3</v>
+        <v>-0.003397388967895558</v>
       </c>
       <c r="E10">
-        <v>4.3957230558289212E-3</v>
+        <v>0.004395723055828921</v>
       </c>
       <c r="F10">
-        <v>-2.4936121957444871E-3</v>
+        <v>-0.002492875491715019</v>
       </c>
       <c r="H10">
-        <v>1.4390819327632771E-2</v>
+        <v>0.01440374476814979</v>
       </c>
       <c r="I10">
-        <v>1.4001921488076861E-2</v>
+        <v>0.01400161121606445</v>
       </c>
       <c r="J10">
-        <v>2.806619160649582E-2</v>
+        <v>0.02806126450024675</v>
       </c>
       <c r="K10">
-        <v>6.0999681543987258E-2</v>
+        <v>0.06103735357749413</v>
       </c>
       <c r="L10">
-        <v>6.4466656018666241E-3</v>
+        <v>0.006446665601866624</v>
       </c>
       <c r="M10">
-        <v>2.069007308360292E-2</v>
+        <v>0.02069125349965014</v>
       </c>
       <c r="N10">
-        <v>4.4100289764011587E-5</v>
+        <v>4.599926583997063E-05</v>
       </c>
       <c r="P10">
-        <v>1.7287924819516989E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+        <v>0.01705338269813531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11">
-        <v>0.17340696674427861</v>
+        <v>0.1733449645657986</v>
       </c>
       <c r="D11">
-        <v>-1.6740409725616391E-2</v>
+        <v>-0.01674040972561639</v>
       </c>
       <c r="E11">
-        <v>1.7034900873396031E-2</v>
+        <v>0.01703490087339603</v>
       </c>
       <c r="F11">
-        <v>-1.6408969712358789E-2</v>
+        <v>-0.01640946104037844</v>
       </c>
       <c r="H11">
-        <v>4.3390379335615168E-4</v>
+        <v>0.0004348457453938297</v>
       </c>
       <c r="I11">
-        <v>0.28337352192694082</v>
+        <v>0.283372950726918</v>
       </c>
       <c r="J11">
-        <v>-3.892130614225997E-2</v>
+        <v>-0.03892520652363837</v>
       </c>
       <c r="K11">
-        <v>3.1766777206671079E-2</v>
+        <v>0.03177410440696417</v>
       </c>
       <c r="L11">
-        <v>2.3116620444664812E-3</v>
+        <v>0.002311662044466481</v>
       </c>
       <c r="M11">
-        <v>8.8296212811848507E-3</v>
+        <v>0.008829073121162923</v>
       </c>
       <c r="N11">
-        <v>1.438674067146962E-2</v>
+        <v>0.0143886025915441</v>
       </c>
       <c r="P11">
-        <v>1.7124949932997999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+        <v>0.01710891438035657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>-0.26919052321562092</v>
+        <v>-0.2690748787309951</v>
       </c>
       <c r="D12">
-        <v>8.0844453473778131E-3</v>
+        <v>0.008084445347377813</v>
       </c>
       <c r="E12">
-        <v>-1.1306734436269381E-2</v>
+        <v>-0.01130673443626938</v>
       </c>
       <c r="F12">
-        <v>1.5850720282028809E-2</v>
+        <v>0.01585145026605801</v>
       </c>
       <c r="H12">
-        <v>2.0633738745349541E-2</v>
+        <v>0.02064652104986084</v>
       </c>
       <c r="I12">
-        <v>1.8423863968954551E-2</v>
+        <v>0.01842309193692368</v>
       </c>
       <c r="J12">
-        <v>-3.5937686627796159E-2</v>
+        <v>-0.03593466286506854</v>
       </c>
       <c r="K12">
-        <v>-5.943043111321724E-2</v>
+        <v>-0.05945587831423512</v>
       </c>
       <c r="L12">
-        <v>-9.6828854433154178E-3</v>
+        <v>-0.009682885443315418</v>
       </c>
       <c r="M12">
-        <v>-7.035093113403724E-3</v>
+        <v>-0.007035512345420492</v>
       </c>
       <c r="N12">
-        <v>2.0779923711196952E-3</v>
+        <v>0.002077467635098705</v>
       </c>
       <c r="P12">
-        <v>6.0397048815881947E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.0008809638112385523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>3.6936844357473769E-2</v>
+        <v>0.03694543222981728</v>
       </c>
       <c r="D13">
-        <v>-6.1784509991380382E-3</v>
+        <v>-0.006178450999138038</v>
       </c>
       <c r="E13">
-        <v>2.6308184732327391E-3</v>
+        <v>0.002630818473232739</v>
       </c>
       <c r="F13">
-        <v>-7.3894918155796715E-4</v>
+        <v>-0.0007383221095328842</v>
       </c>
       <c r="H13">
-        <v>-4.3340605253624209E-3</v>
+        <v>-0.004376761423070457</v>
       </c>
       <c r="I13">
-        <v>-4.8868908514756344E-3</v>
+        <v>-0.004888350915534036</v>
       </c>
       <c r="J13">
-        <v>2.5245316915584671E-2</v>
+        <v>0.02525820923436439</v>
       </c>
       <c r="K13">
-        <v>2.0198062215922481E-2</v>
+        <v>0.02019695523987821</v>
       </c>
       <c r="L13">
-        <v>-1.9737994581519779E-2</v>
+        <v>-0.01973799458151978</v>
       </c>
       <c r="M13">
-        <v>-1.003938606557544E-2</v>
+        <v>-0.01003870331354813</v>
       </c>
       <c r="N13">
-        <v>2.3448468457938729E-2</v>
+        <v>0.02345406737016269</v>
       </c>
       <c r="P13">
-        <v>4.4415792816631704E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.004396826095873043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14">
-        <v>-3.5853994170159761E-2</v>
+        <v>-0.03585051455402058</v>
       </c>
       <c r="D14">
-        <v>9.5288430691537213E-3</v>
+        <v>0.009528843069153721</v>
       </c>
       <c r="E14">
-        <v>-8.9316584372663363E-3</v>
+        <v>-0.008931658437266336</v>
       </c>
       <c r="F14">
-        <v>8.2970530998821221E-3</v>
+        <v>0.008298237163929486</v>
       </c>
       <c r="H14">
-        <v>4.2941694517667772E-3</v>
+        <v>0.004347722957908917</v>
       </c>
       <c r="I14">
-        <v>-9.9548856141954221E-3</v>
+        <v>-0.009953175374127014</v>
       </c>
       <c r="J14">
-        <v>-1.9069840340993151E-2</v>
+        <v>-0.01907184779571314</v>
       </c>
       <c r="K14">
-        <v>-4.893048387721935E-2</v>
+        <v>-0.04890379318815172</v>
       </c>
       <c r="L14">
-        <v>9.346858741874348E-3</v>
+        <v>0.009346858741874348</v>
       </c>
       <c r="M14">
-        <v>3.7206911568276459E-3</v>
+        <v>0.003721424884856995</v>
       </c>
       <c r="N14">
-        <v>-1.4256657306266291E-2</v>
+        <v>-0.01426053378642135</v>
       </c>
       <c r="P14">
-        <v>-1.3457165434286621E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.01373708406948336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15">
-        <v>-1.1174720126988801E-2</v>
+        <v>-0.01115423862216955</v>
       </c>
       <c r="D15">
-        <v>-1.3560962174438491E-2</v>
+        <v>-0.01356096217443849</v>
       </c>
       <c r="E15">
-        <v>1.59225350049014E-2</v>
+        <v>0.0159225350049014</v>
       </c>
       <c r="F15">
-        <v>-1.8319442364777689E-2</v>
+        <v>-0.01831902927676117</v>
       </c>
       <c r="H15">
-        <v>-1.156704593468183E-2</v>
+        <v>-0.01154691770987671</v>
       </c>
       <c r="I15">
-        <v>-7.8913678356547119E-3</v>
+        <v>-0.007891357275654291</v>
       </c>
       <c r="J15">
-        <v>5.5818277630414626E-3</v>
+        <v>0.005578323522477199</v>
       </c>
       <c r="K15">
-        <v>1.5346655557866219E-2</v>
+        <v>0.01534348352573934</v>
       </c>
       <c r="L15">
-        <v>1.5684236979369479E-2</v>
+        <v>0.01568423697936948</v>
       </c>
       <c r="M15">
-        <v>-1.9681537939261511E-2</v>
+        <v>-0.01968204539528181</v>
       </c>
       <c r="N15">
-        <v>9.7971719118868737E-3</v>
+        <v>0.009798834823953391</v>
       </c>
       <c r="P15">
-        <v>-6.8140133605605327E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>-0.006620548200821927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>-4.6013788720551544E-3</v>
+        <v>-0.004577540343101614</v>
       </c>
       <c r="D16">
-        <v>8.9551682622067297E-3</v>
+        <v>0.00895516826220673</v>
       </c>
       <c r="E16">
-        <v>-8.0557546902301873E-3</v>
+        <v>-0.008055754690230187</v>
       </c>
       <c r="F16">
-        <v>7.4988449399537973E-3</v>
+        <v>0.007499134955965396</v>
       </c>
       <c r="H16">
-        <v>8.7220047968801923E-3</v>
+        <v>0.008712729660509186</v>
       </c>
       <c r="I16">
-        <v>8.3038103481524114E-3</v>
+        <v>0.008303432108137283</v>
       </c>
       <c r="J16">
-        <v>2.1624409867545609E-2</v>
+        <v>0.02161822698570217</v>
       </c>
       <c r="K16">
-        <v>-1.4098816499952659E-2</v>
+        <v>-0.01410295381211815</v>
       </c>
       <c r="L16">
-        <v>2.9667149026685962E-3</v>
+        <v>0.002966714902668596</v>
       </c>
       <c r="M16">
-        <v>-2.864294140171765E-2</v>
+        <v>-0.02864337656973506</v>
       </c>
       <c r="N16">
-        <v>-1.3073130762925229E-3</v>
+        <v>-0.001310050612402024</v>
       </c>
       <c r="P16">
-        <v>-1.679253859170154E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+        <v>-0.001636229345449174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17">
-        <v>3.852873466114938E-3</v>
+        <v>0.003851350138054005</v>
       </c>
       <c r="D17">
-        <v>-2.6278752091150079E-3</v>
+        <v>-0.002627875209115008</v>
       </c>
       <c r="E17">
-        <v>-2.7882256475290248E-3</v>
+        <v>-0.002788225647529025</v>
       </c>
       <c r="F17">
-        <v>7.897666395906654E-3</v>
+        <v>0.007898601819944073</v>
       </c>
       <c r="H17">
-        <v>8.2073798802951934E-3</v>
+        <v>0.008219885704795427</v>
       </c>
       <c r="I17">
-        <v>5.8960242678409696E-3</v>
+        <v>0.005896042603841703</v>
       </c>
       <c r="J17">
-        <v>9.3082875359790061E-3</v>
+        <v>0.009324513840060673</v>
       </c>
       <c r="K17">
-        <v>-6.8481079539243163E-3</v>
+        <v>-0.006882166355286653</v>
       </c>
       <c r="L17">
-        <v>-2.1185549839421992E-2</v>
+        <v>-0.02118554983942199</v>
       </c>
       <c r="M17">
-        <v>-6.0689168187566724E-3</v>
+        <v>-0.006069029234761169</v>
       </c>
       <c r="N17">
-        <v>1.519025935961037E-2</v>
+        <v>0.01518840588753623</v>
       </c>
       <c r="P17">
-        <v>2.15131100125244E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.02170324138012966</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C18">
-        <v>3.665750546630021E-4</v>
+        <v>0.0003242292609691704</v>
       </c>
       <c r="D18">
-        <v>-1.7060065354402611E-2</v>
+        <v>-0.01706006535440261</v>
       </c>
       <c r="E18">
-        <v>1.5997748031909918E-2</v>
+        <v>0.01599774803190992</v>
       </c>
       <c r="F18">
-        <v>-1.5663736658549459E-2</v>
+        <v>-0.01566208670648347</v>
       </c>
       <c r="H18">
-        <v>-3.2435018257400729E-3</v>
+        <v>-0.003207296096291843</v>
       </c>
       <c r="I18">
-        <v>-2.3317172132686879E-4</v>
+        <v>-0.0002331010653240426</v>
       </c>
       <c r="J18">
-        <v>-1.722472111936486E-3</v>
+        <v>-0.001716865231552667</v>
       </c>
       <c r="K18">
-        <v>-6.2570217222808677E-3</v>
+        <v>-0.006239121465564858</v>
       </c>
       <c r="L18">
-        <v>-8.4812235392489402E-3</v>
+        <v>-0.00848122353924894</v>
       </c>
       <c r="M18">
-        <v>1.2976239879049591E-2</v>
+        <v>0.01297574202302968</v>
       </c>
       <c r="N18">
-        <v>9.6289310411572411E-3</v>
+        <v>0.00962928902517156</v>
       </c>
       <c r="P18">
-        <v>-1.528274845130994E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>-0.01542905802516232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>1.4783541327341649E-2</v>
+        <v>0.01479234884769395</v>
       </c>
       <c r="D19">
-        <v>9.3852300394091995E-3</v>
+        <v>0.009385230039409199</v>
       </c>
       <c r="E19">
-        <v>-8.471296850851873E-3</v>
+        <v>-0.008471296850851873</v>
       </c>
       <c r="F19">
-        <v>8.9101179564047162E-3</v>
+        <v>0.008911115108444603</v>
       </c>
       <c r="H19">
-        <v>3.179762719190508E-3</v>
+        <v>0.003179782111191284</v>
       </c>
       <c r="I19">
-        <v>2.8558850102354E-3</v>
+        <v>0.002854861554194462</v>
       </c>
       <c r="J19">
-        <v>2.8412800198581219E-3</v>
+        <v>0.002833752467304754</v>
       </c>
       <c r="K19">
-        <v>1.61794451271778E-3</v>
+        <v>0.001647173153886926</v>
       </c>
       <c r="L19">
-        <v>6.5708116548324653E-3</v>
+        <v>0.006570811654832465</v>
       </c>
       <c r="M19">
-        <v>-2.442564942502597E-2</v>
+        <v>-0.02442520331300813</v>
       </c>
       <c r="N19">
-        <v>-6.9406733656269346E-3</v>
+        <v>-0.006943534549741381</v>
       </c>
       <c r="P19">
-        <v>-3.9081536283261447E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+        <v>-0.004114368068574722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>5.1545099661803981E-4</v>
+        <v>0.0005249318609972744</v>
       </c>
       <c r="D20">
-        <v>2.6469925154797E-2</v>
+        <v>0.026469925154797</v>
       </c>
       <c r="E20">
-        <v>-2.186299335451973E-2</v>
+        <v>-0.02186299335451973</v>
       </c>
       <c r="F20">
-        <v>1.447453286698131E-2</v>
+        <v>0.01447247913889916</v>
       </c>
       <c r="H20">
-        <v>-9.2672317306892688E-4</v>
+        <v>-0.0008977311719092467</v>
       </c>
       <c r="I20">
-        <v>-2.0276535211061399E-3</v>
+        <v>-0.002026378833055153</v>
       </c>
       <c r="J20">
-        <v>-3.375264396639269E-3</v>
+        <v>-0.003382413612727518</v>
       </c>
       <c r="K20">
-        <v>1.0055175858207029E-2</v>
+        <v>0.0100732050429282</v>
       </c>
       <c r="L20">
-        <v>2.4395858415834332E-2</v>
+        <v>0.02439585841583433</v>
       </c>
       <c r="M20">
-        <v>-1.5982477791299111E-2</v>
+        <v>-0.01598213804728552</v>
       </c>
       <c r="N20">
-        <v>-2.8215347112613878E-2</v>
+        <v>-0.02821681053667242</v>
       </c>
       <c r="P20">
-        <v>-4.0770522238820883E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+        <v>-0.04082572569702902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>-1.8242607513704299E-2</v>
+        <v>-0.01825390306615612</v>
       </c>
       <c r="D21">
-        <v>-1.072038820481553E-2</v>
+        <v>-0.01072038820481553</v>
       </c>
       <c r="E21">
-        <v>7.3820844552833784E-3</v>
+        <v>0.007382084455283378</v>
       </c>
       <c r="F21">
-        <v>-4.7363149414525966E-3</v>
+        <v>-0.004737239901489595</v>
       </c>
       <c r="H21">
-        <v>1.104153068166123E-3</v>
+        <v>0.001108299884331995</v>
       </c>
       <c r="I21">
-        <v>3.5573918862956749E-3</v>
+        <v>0.003556671886266875</v>
       </c>
       <c r="J21">
-        <v>-1.8146261642131711E-4</v>
+        <v>-0.0001728754640103575</v>
       </c>
       <c r="K21">
-        <v>4.0306021132240841E-3</v>
+        <v>0.004026168641046745</v>
       </c>
       <c r="L21">
-        <v>-1.1006934104277361E-2</v>
+        <v>-0.01100693410427736</v>
       </c>
       <c r="M21">
-        <v>-6.1213471248538842E-3</v>
+        <v>-0.006121046068841843</v>
       </c>
       <c r="N21">
-        <v>2.123853569754143E-2</v>
+        <v>0.02123851313754052</v>
       </c>
       <c r="P21">
-        <v>9.0672390506895614E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+        <v>0.009124992076999681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>-3.0973249046929961E-2</v>
+        <v>-0.0309782301991292</v>
       </c>
       <c r="D22">
-        <v>-8.189237415569494E-3</v>
+        <v>-0.008189237415569494</v>
       </c>
       <c r="E22">
-        <v>2.9522391580895659E-3</v>
+        <v>0.002952239158089566</v>
       </c>
       <c r="F22">
-        <v>-2.0793665151746599E-3</v>
+        <v>-0.002077995731119829</v>
       </c>
       <c r="H22">
-        <v>-1.1268298530731941E-2</v>
+        <v>-0.01128895561955822</v>
       </c>
       <c r="I22">
-        <v>-1.0869633746785351E-2</v>
+        <v>-0.01086898229075929</v>
       </c>
       <c r="J22">
-        <v>-4.2176808517341326E-3</v>
+        <v>-0.004212183795175749</v>
       </c>
       <c r="K22">
-        <v>-2.198903799956152E-3</v>
+        <v>-0.002214279352571174</v>
       </c>
       <c r="L22">
-        <v>-8.7898413755936548E-3</v>
+        <v>-0.008789841375593655</v>
       </c>
       <c r="M22">
-        <v>6.9249581649983259E-3</v>
+        <v>0.006923856564954261</v>
       </c>
       <c r="N22">
-        <v>1.5281142563245699E-2</v>
+        <v>0.01528126640325065</v>
       </c>
       <c r="P22">
-        <v>-5.1315320772612819E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>-0.005081996651279866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C23">
-        <v>-9.0194951767798067E-3</v>
+        <v>-0.009043484713739386</v>
       </c>
       <c r="D23">
-        <v>6.9915890796635625E-4</v>
+        <v>0.0006991589079663563</v>
       </c>
       <c r="E23">
-        <v>-5.1333664453346566E-3</v>
+        <v>-0.005133366445334657</v>
       </c>
       <c r="F23">
-        <v>5.8226528089061116E-3</v>
+        <v>0.005823657352946292</v>
       </c>
       <c r="H23">
-        <v>-1.019417867976715E-2</v>
+        <v>-0.01020244706409788</v>
       </c>
       <c r="I23">
-        <v>-1.179171560766862E-2</v>
+        <v>-0.01179273109570924</v>
       </c>
       <c r="J23">
-        <v>-7.5017923321431777E-3</v>
+        <v>-0.007504593323732837</v>
       </c>
       <c r="K23">
-        <v>-1.182188456887538E-2</v>
+        <v>-0.01185078709803148</v>
       </c>
       <c r="L23">
-        <v>-2.049908165196326E-2</v>
+        <v>-0.02049908165196326</v>
       </c>
       <c r="M23">
-        <v>3.6216904808676191E-3</v>
+        <v>0.003621463824858552</v>
       </c>
       <c r="N23">
-        <v>1.407755317110213E-2</v>
+        <v>0.01407761413110456</v>
       </c>
       <c r="P23">
-        <v>2.2466529538661181E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+        <v>0.002295141403805656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>4.3875614235024561E-3</v>
+        <v>0.004391186095647443</v>
       </c>
       <c r="D24">
-        <v>7.4645187945807509E-3</v>
+        <v>0.007464518794580751</v>
       </c>
       <c r="E24">
-        <v>-8.6192792247711675E-3</v>
+        <v>-0.008619279224771167</v>
       </c>
       <c r="F24">
-        <v>7.9687349107493959E-3</v>
+        <v>0.007967777502711099</v>
       </c>
       <c r="H24">
-        <v>1.1245089473803579E-2</v>
+        <v>0.01121441785657671</v>
       </c>
       <c r="I24">
-        <v>1.3105148012205921E-2</v>
+        <v>0.01310582932423317</v>
       </c>
       <c r="J24">
-        <v>-2.8539346012453962E-2</v>
+        <v>-0.0285456254186901</v>
       </c>
       <c r="K24">
-        <v>1.8375157503006299E-2</v>
+        <v>0.01834896726195868</v>
       </c>
       <c r="L24">
-        <v>-9.0560413222416528E-4</v>
+        <v>-0.0009056041322241653</v>
       </c>
       <c r="M24">
-        <v>-1.352408271696331E-2</v>
+        <v>-0.01352506566100262</v>
       </c>
       <c r="N24">
-        <v>-6.2133080245323196E-3</v>
+        <v>-0.006214193144567725</v>
       </c>
       <c r="P24">
-        <v>8.6870374674814972E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>0.001202727984109119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>8.3593155343726199E-4</v>
+        <v>0.0008324955212998207</v>
       </c>
       <c r="D25">
-        <v>-1.6881863907274551E-2</v>
+        <v>-0.01688186390727455</v>
       </c>
       <c r="E25">
-        <v>1.380366544814661E-2</v>
+        <v>0.01380366544814661</v>
       </c>
       <c r="F25">
-        <v>-8.5079471563178858E-3</v>
+        <v>-0.008509986484399457</v>
       </c>
       <c r="H25">
-        <v>1.212173702886948E-2</v>
+        <v>0.01212569731702789</v>
       </c>
       <c r="I25">
-        <v>1.9852630970105239E-2</v>
+        <v>0.01985164889006595</v>
       </c>
       <c r="J25">
-        <v>-1.601272010311831E-2</v>
+        <v>-0.01603336639092207</v>
       </c>
       <c r="K25">
-        <v>-1.168534568341383E-2</v>
+        <v>-0.01168976149159046</v>
       </c>
       <c r="L25">
-        <v>-2.284800235392009E-2</v>
+        <v>-0.02284800235392009</v>
       </c>
       <c r="M25">
-        <v>-6.230248953209957E-3</v>
+        <v>-0.006229911801196471</v>
       </c>
       <c r="N25">
-        <v>3.1111879100475161E-2</v>
+        <v>0.03111012191640487</v>
       </c>
       <c r="P25">
-        <v>1.928951837158073E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+        <v>0.01923533808141352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>1.380561184822447E-2</v>
+        <v>0.0138064700882588</v>
       </c>
       <c r="D26">
-        <v>-4.9433752377350088E-4</v>
+        <v>-0.0004943375237735009</v>
       </c>
       <c r="E26">
-        <v>3.1228752289150091E-3</v>
+        <v>0.003122875228915009</v>
       </c>
       <c r="F26">
-        <v>-4.0865914274636561E-3</v>
+        <v>-0.004088100931524037</v>
       </c>
       <c r="H26">
-        <v>8.6740926349637044E-3</v>
+        <v>0.008681584187263367</v>
       </c>
       <c r="I26">
-        <v>1.161397486455899E-2</v>
+        <v>0.01161479844859194</v>
       </c>
       <c r="J26">
-        <v>-2.4049516380089959E-2</v>
+        <v>-0.02404477604213875</v>
       </c>
       <c r="K26">
-        <v>-1.8744486605779459E-2</v>
+        <v>-0.01873600682944027</v>
       </c>
       <c r="L26">
-        <v>1.1284098883363951E-2</v>
+        <v>0.01128409888336395</v>
       </c>
       <c r="M26">
-        <v>-3.3309375732375021E-3</v>
+        <v>-0.003331732741269309</v>
       </c>
       <c r="N26">
-        <v>-1.294910576596423E-2</v>
+        <v>-0.01295350707814028</v>
       </c>
       <c r="P26">
-        <v>2.9316104852644188E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.002994032375761295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>-2.455005064600202E-2</v>
+        <v>-0.02467871733914869</v>
       </c>
       <c r="D27">
-        <v>-5.559355873574235E-2</v>
+        <v>-0.05559355873574235</v>
       </c>
       <c r="E27">
-        <v>1.408764670750587E-2</v>
+        <v>0.01408764670750587</v>
       </c>
       <c r="F27">
-        <v>1.2821298656851939E-2</v>
+        <v>0.01281982083279283</v>
       </c>
       <c r="H27">
-        <v>-1.8852868786114751E-2</v>
+        <v>-0.01882148177685927</v>
       </c>
       <c r="I27">
-        <v>-2.171757840470313E-2</v>
+        <v>-0.0217181802287272</v>
       </c>
       <c r="J27">
-        <v>3.5563095234412118E-2</v>
+        <v>0.03555484014346907</v>
       </c>
       <c r="K27">
-        <v>-5.6147839909913587E-2</v>
+        <v>-0.05625916170636646</v>
       </c>
       <c r="L27">
-        <v>-0.25020811432832463</v>
+        <v>-0.2502081143283246</v>
       </c>
       <c r="M27">
-        <v>0.99159260574370411</v>
+        <v>0.9915924686556985</v>
       </c>
       <c r="N27">
-        <v>9.3515418140616702E-2</v>
+        <v>0.09351191318047652</v>
       </c>
       <c r="P27">
-        <v>1.661803420072136E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.01640506664020266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>-8.9502917500116682E-3</v>
+        <v>-0.008916101348644052</v>
       </c>
       <c r="D28">
-        <v>7.4201545048061786E-3</v>
+        <v>0.007420154504806179</v>
       </c>
       <c r="E28">
-        <v>-5.6805231712209261E-3</v>
+        <v>-0.005680523171220926</v>
       </c>
       <c r="F28">
-        <v>4.5767133990685356E-3</v>
+        <v>0.004576697847067913</v>
       </c>
       <c r="H28">
-        <v>1.403897038555881E-2</v>
+        <v>0.01400893976035759</v>
       </c>
       <c r="I28">
-        <v>8.259839754393589E-3</v>
+        <v>0.008258797386351895</v>
       </c>
       <c r="J28">
-        <v>-2.189426098406886E-2</v>
+        <v>-0.02189433375049585</v>
       </c>
       <c r="K28">
-        <v>6.8806671232266841E-3</v>
+        <v>0.006885669107426763</v>
       </c>
       <c r="L28">
-        <v>6.2707790028311604E-3</v>
+        <v>0.00627077900283116</v>
       </c>
       <c r="M28">
-        <v>1.6068043362721732E-2</v>
+        <v>0.0160673300826932</v>
       </c>
       <c r="N28">
-        <v>-1.267919426716777E-2</v>
+        <v>-0.01268237119529485</v>
       </c>
       <c r="P28">
-        <v>5.1640318225612721E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.00517502651100106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>6.6896642675865706E-4</v>
+        <v>0.0006762132750485309</v>
       </c>
       <c r="D29">
-        <v>7.6499705459988207E-3</v>
+        <v>0.007649970545998821</v>
       </c>
       <c r="E29">
-        <v>1.732371333294853E-3</v>
+        <v>0.001732371333294853</v>
       </c>
       <c r="F29">
-        <v>-3.8705907468236291E-3</v>
+        <v>-0.003870516538820661</v>
       </c>
       <c r="H29">
-        <v>-5.4575458823018343E-3</v>
+        <v>-0.005408218104328724</v>
       </c>
       <c r="I29">
-        <v>-8.0309789132391538E-3</v>
+        <v>-0.008030665089226603</v>
       </c>
       <c r="J29">
-        <v>-3.2346066253116243E-2</v>
+        <v>-0.03233488729026934</v>
       </c>
       <c r="K29">
-        <v>-1.0907498164299929E-2</v>
+        <v>-0.01085378635415145</v>
       </c>
       <c r="L29">
-        <v>3.9101820796072828E-2</v>
+        <v>0.03910182079607283</v>
       </c>
       <c r="M29">
-        <v>9.5764258934570357E-2</v>
+        <v>0.09576528440661136</v>
       </c>
       <c r="N29">
-        <v>6.3278431331137246E-4</v>
+        <v>0.0006328565053142602</v>
       </c>
       <c r="P29">
-        <v>-1.0119466004778639E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.001370497590819903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C30">
-        <v>1.148745300349812E-2</v>
+        <v>0.01150749290829971</v>
       </c>
       <c r="D30">
-        <v>8.151606374064254E-3</v>
+        <v>0.008151606374064254</v>
       </c>
       <c r="E30">
-        <v>-3.4148290005931599E-3</v>
+        <v>-0.00341482900059316</v>
       </c>
       <c r="F30">
-        <v>2.1519648860785951E-5</v>
+        <v>2.081673683266947E-05</v>
       </c>
       <c r="H30">
-        <v>2.5831799113271961E-3</v>
+        <v>0.002589154087566163</v>
       </c>
       <c r="I30">
-        <v>3.0673323146932921E-3</v>
+        <v>0.003067178618687144</v>
       </c>
       <c r="J30">
-        <v>7.9802147863458073E-3</v>
+        <v>0.007991948770314939</v>
       </c>
       <c r="K30">
-        <v>-6.7952299038091957E-3</v>
+        <v>-0.006802211696088466</v>
       </c>
       <c r="L30">
-        <v>2.4535758549430339E-2</v>
+        <v>0.02453575854943034</v>
       </c>
       <c r="M30">
-        <v>4.7624950064998001E-3</v>
+        <v>0.00476188799847552</v>
       </c>
       <c r="N30">
-        <v>-1.493500878940035E-2</v>
+        <v>-0.01493779864551194</v>
       </c>
       <c r="P30">
-        <v>-3.1996044799841778E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.002980543703221748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C31">
-        <v>0.39975291183011652</v>
+        <v>0.399878351963134</v>
       </c>
       <c r="D31">
-        <v>0.97815601330224045</v>
+        <v>0.9781560133022404</v>
       </c>
       <c r="E31">
-        <v>-0.99995760870230432</v>
+        <v>-0.9999576087023043</v>
       </c>
       <c r="F31">
-        <v>0.97453763462950527</v>
+        <v>0.9745370185014806</v>
       </c>
       <c r="H31">
-        <v>0.37972415243696611</v>
+        <v>0.3800416418256656</v>
       </c>
       <c r="I31">
-        <v>1.5054203930168149E-2</v>
+        <v>0.01505415967416639</v>
       </c>
       <c r="J31">
-        <v>-0.2189890863228455</v>
+        <v>-0.2189816936347358</v>
       </c>
       <c r="K31">
-        <v>-3.4074126546965053E-2</v>
+        <v>-0.03425489916219596</v>
       </c>
       <c r="L31">
-        <v>1.451330458053218E-3</v>
+        <v>0.001451330458053218</v>
       </c>
       <c r="M31">
-        <v>-7.1244737249789476E-3</v>
+        <v>-0.007125054141002164</v>
       </c>
       <c r="N31">
-        <v>-0.68793886374155444</v>
+        <v>-0.6879600039984001</v>
       </c>
       <c r="P31">
-        <v>-0.51110398242815924</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.5107201384128054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32">
-        <v>1.0276260795050431E-2</v>
+        <v>0.01025279820211193</v>
       </c>
       <c r="D32">
-        <v>8.3635380945415224E-3</v>
+        <v>0.008363538094541522</v>
       </c>
       <c r="E32">
-        <v>-8.2523945700957828E-3</v>
+        <v>-0.008252394570095783</v>
       </c>
       <c r="F32">
-        <v>7.5066386042655442E-3</v>
+        <v>0.007505972652238906</v>
       </c>
       <c r="H32">
-        <v>4.2223526168941039E-3</v>
+        <v>0.004253656970146279</v>
       </c>
       <c r="I32">
-        <v>3.754513590180543E-3</v>
+        <v>0.00375449650217986</v>
       </c>
       <c r="J32">
-        <v>-3.8717884676819588E-3</v>
+        <v>-0.003862847410988898</v>
       </c>
       <c r="K32">
-        <v>-1.368925811557032E-2</v>
+        <v>-0.01367304448292178</v>
       </c>
       <c r="L32">
-        <v>2.0569883382795329E-3</v>
+        <v>0.002056988338279533</v>
       </c>
       <c r="M32">
-        <v>6.494041123761644E-3</v>
+        <v>0.006495224419808976</v>
       </c>
       <c r="N32">
-        <v>-4.3102448444097934E-3</v>
+        <v>-0.004313150476526018</v>
       </c>
       <c r="P32">
-        <v>-8.47142078685683E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+        <v>-0.00878271951930878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C33">
-        <v>-3.4246479769859191E-3</v>
+        <v>-0.003431488841259553</v>
       </c>
       <c r="D33">
-        <v>-1.0618156264726251E-3</v>
+        <v>-0.001061815626472625</v>
       </c>
       <c r="E33">
-        <v>-1.30981176439247E-3</v>
+        <v>-0.00130981176439247</v>
       </c>
       <c r="F33">
-        <v>8.9648057985922298E-4</v>
+        <v>0.0008943875877755034</v>
       </c>
       <c r="H33">
-        <v>-6.135977909439116E-3</v>
+        <v>-0.006161856246474248</v>
       </c>
       <c r="I33">
-        <v>-4.6079513203180524E-3</v>
+        <v>-0.00460812575232503</v>
       </c>
       <c r="J33">
-        <v>-2.7694269301235641E-2</v>
+        <v>-0.02770187014759386</v>
       </c>
       <c r="K33">
-        <v>-1.1819959096798361E-2</v>
+        <v>-0.01182762863310514</v>
       </c>
       <c r="L33">
-        <v>-1.7869849194793969E-2</v>
+        <v>-0.01786984919479397</v>
       </c>
       <c r="M33">
-        <v>8.2117058324682312E-3</v>
+        <v>0.00821038775241551</v>
       </c>
       <c r="N33">
-        <v>6.7739443989577753E-3</v>
+        <v>0.006769624302784972</v>
       </c>
       <c r="P33">
-        <v>-8.5999958959998325E-3</v>
+        <v>-0.008461449746457989</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>-0.1065589570943583</v>
+        <v>-0.125485100091404</v>
       </c>
       <c r="D4">
         <v>-0.1403974119838965</v>
@@ -647,19 +647,19 @@
         <v>0.001278953427158137</v>
       </c>
       <c r="F4">
-        <v>0.1179745326869813</v>
+        <v>0.0307426301577052</v>
       </c>
       <c r="H4">
-        <v>0.05979917749596709</v>
+        <v>0.04597069230282769</v>
       </c>
       <c r="I4">
         <v>0.01824716780188671</v>
       </c>
       <c r="J4">
-        <v>-0.01115338246880313</v>
+        <v>0.5029095779767735</v>
       </c>
       <c r="K4">
-        <v>-0.1147441986057679</v>
+        <v>-0.08590434679617386</v>
       </c>
       <c r="L4">
         <v>-0.7015444139817765</v>
@@ -668,10 +668,10 @@
         <v>0.01460921338436853</v>
       </c>
       <c r="N4">
-        <v>0.4604324219372968</v>
+        <v>0.2752247044489881</v>
       </c>
       <c r="P4">
-        <v>0.2176930628837225</v>
+        <v>0.2139338166853526</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -680,7 +680,7 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>0.08549759679590385</v>
+        <v>0.07969028517161141</v>
       </c>
       <c r="D5">
         <v>0.1304287884811515</v>
@@ -689,19 +689,19 @@
         <v>-0.001767137062685482</v>
       </c>
       <c r="F5">
-        <v>-0.100360875918435</v>
+        <v>-0.08296410523856421</v>
       </c>
       <c r="H5">
-        <v>-0.008251820394072814</v>
+        <v>-0.008400868656034746</v>
       </c>
       <c r="I5">
         <v>0.02099920672796826</v>
       </c>
       <c r="J5">
-        <v>-0.04772453587536409</v>
+        <v>-0.01152320919768302</v>
       </c>
       <c r="K5">
-        <v>0.1035211108928444</v>
+        <v>0.1002549122661965</v>
       </c>
       <c r="L5">
         <v>0.6444905914116236</v>
@@ -710,10 +710,10 @@
         <v>0.01133984080559363</v>
       </c>
       <c r="N5">
-        <v>-0.4213002111880084</v>
+        <v>-0.3812154123686164</v>
       </c>
       <c r="P5">
-        <v>-0.1457885873995435</v>
+        <v>-0.09242342241693688</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -722,7 +722,7 @@
         <v>34</v>
       </c>
       <c r="C6">
-        <v>0.2793638924545557</v>
+        <v>0.2244935864197434</v>
       </c>
       <c r="D6">
         <v>0.0222117949684718</v>
@@ -731,19 +731,19 @@
         <v>-0.0211402851656114</v>
       </c>
       <c r="F6">
-        <v>0.163168901566756</v>
+        <v>0.02560340406413616</v>
       </c>
       <c r="H6">
-        <v>0.9270552558982101</v>
+        <v>0.9102963433238536</v>
       </c>
       <c r="I6">
         <v>0.9586914095476562</v>
       </c>
       <c r="J6">
-        <v>-0.3184947966457749</v>
+        <v>-0.3579291726975345</v>
       </c>
       <c r="K6">
-        <v>0.05176495637459825</v>
+        <v>0.03696446605457864</v>
       </c>
       <c r="L6">
         <v>0.006184358167374325</v>
@@ -752,10 +752,10 @@
         <v>-0.0263237924129517</v>
       </c>
       <c r="N6">
-        <v>0.02345645959425838</v>
+        <v>-0.03227897313115893</v>
       </c>
       <c r="P6">
-        <v>0.5422692603787704</v>
+        <v>0.3947835358553413</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -766,7 +766,7 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>0.4901569074462763</v>
+        <v>0.4665949312717972</v>
       </c>
       <c r="D7">
         <v>-0.004067228610689143</v>
@@ -775,19 +775,19 @@
         <v>0.00750002602800104</v>
       </c>
       <c r="F7">
-        <v>-0.01066713719468548</v>
+        <v>-0.007720219220808767</v>
       </c>
       <c r="H7">
-        <v>-0.006544929477797178</v>
+        <v>-0.006111749620469984</v>
       </c>
       <c r="I7">
         <v>0.002488744899549796</v>
       </c>
       <c r="J7">
-        <v>-0.01726305223990079</v>
+        <v>-0.01940564755222068</v>
       </c>
       <c r="K7">
-        <v>-0.6092430488497219</v>
+        <v>-0.5954585198503407</v>
       </c>
       <c r="L7">
         <v>0.01010773134830925</v>
@@ -796,10 +796,10 @@
         <v>0.02772037570081503</v>
       </c>
       <c r="N7">
-        <v>-0.002698565579942623</v>
+        <v>-0.002293028635721145</v>
       </c>
       <c r="P7">
-        <v>-0.009576846143073844</v>
+        <v>0.00184495101779804</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -810,7 +810,7 @@
         <v>35</v>
       </c>
       <c r="C8">
-        <v>0.5530966991478679</v>
+        <v>0.5261620811744833</v>
       </c>
       <c r="D8">
         <v>-0.004189745831589833</v>
@@ -819,19 +819,19 @@
         <v>0.004952010342080413</v>
       </c>
       <c r="F8">
-        <v>-0.002472544898901796</v>
+        <v>-0.0034963950198558</v>
       </c>
       <c r="H8">
-        <v>0.0117334925653397</v>
+        <v>0.01180404796016192</v>
       </c>
       <c r="I8">
         <v>0.01808265845130633</v>
       </c>
       <c r="J8">
-        <v>-0.002797698417634154</v>
+        <v>-0.018651421116766</v>
       </c>
       <c r="K8">
-        <v>0.7225835396233413</v>
+        <v>0.7020053676962147</v>
       </c>
       <c r="L8">
         <v>-0.008953751590150062</v>
@@ -840,10 +840,10 @@
         <v>0.005753511782140471</v>
       </c>
       <c r="N8">
-        <v>0.01119092924763717</v>
+        <v>0.01649178133167125</v>
       </c>
       <c r="P8">
-        <v>0.006939208405568336</v>
+        <v>0.01006598469063939</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -854,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="C9">
-        <v>-0.003355489190219567</v>
+        <v>-0.003646911217876448</v>
       </c>
       <c r="D9">
         <v>0.01025872293834892</v>
@@ -863,19 +863,19 @@
         <v>-0.0116738900989556</v>
       </c>
       <c r="F9">
-        <v>0.01133465786138631</v>
+        <v>0.01101761640870466</v>
       </c>
       <c r="H9">
-        <v>-0.00763469876938795</v>
+        <v>-0.006668192042727681</v>
       </c>
       <c r="I9">
         <v>-0.0166405299776212</v>
       </c>
       <c r="J9">
-        <v>0.01897801033536509</v>
+        <v>0.01812558382804744</v>
       </c>
       <c r="K9">
-        <v>-3.423264136930565E-05</v>
+        <v>0.003383507559340302</v>
       </c>
       <c r="L9">
         <v>-0.01241486315259452</v>
@@ -884,10 +884,10 @@
         <v>0.003887862395514495</v>
       </c>
       <c r="N9">
-        <v>0.0008748040669921625</v>
+        <v>0.006465777954631117</v>
       </c>
       <c r="P9">
-        <v>-0.02059697314387892</v>
+        <v>-0.01444509340980374</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -898,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>0.08493541203741647</v>
+        <v>0.08298121954324876</v>
       </c>
       <c r="D10">
         <v>-0.003397388967895558</v>
@@ -907,19 +907,19 @@
         <v>0.004395723055828921</v>
       </c>
       <c r="F10">
-        <v>-0.002492875491715019</v>
+        <v>-0.004907821540312862</v>
       </c>
       <c r="H10">
-        <v>0.01440374476814979</v>
+        <v>0.01408574552342982</v>
       </c>
       <c r="I10">
         <v>0.01400161121606445</v>
       </c>
       <c r="J10">
-        <v>0.02806126450024675</v>
+        <v>-0.00127679948401979</v>
       </c>
       <c r="K10">
-        <v>0.06103735357749413</v>
+        <v>0.08141698703267947</v>
       </c>
       <c r="L10">
         <v>0.006446665601866624</v>
@@ -928,10 +928,10 @@
         <v>0.02069125349965014</v>
       </c>
       <c r="N10">
-        <v>4.599926583997063E-05</v>
+        <v>0.001251204050048162</v>
       </c>
       <c r="P10">
-        <v>0.01705338269813531</v>
+        <v>0.01812776472511059</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -940,7 +940,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>0.1733449645657986</v>
+        <v>0.1645793562791742</v>
       </c>
       <c r="D11">
         <v>-0.01674040972561639</v>
@@ -949,19 +949,19 @@
         <v>0.01703490087339603</v>
       </c>
       <c r="F11">
-        <v>-0.01640946104037844</v>
+        <v>-0.01600474700818988</v>
       </c>
       <c r="H11">
-        <v>0.0004348457453938297</v>
+        <v>-0.0001518957180758287</v>
       </c>
       <c r="I11">
         <v>0.283372950726918</v>
       </c>
       <c r="J11">
-        <v>-0.03892520652363837</v>
+        <v>-0.007274918117979352</v>
       </c>
       <c r="K11">
-        <v>0.03177410440696417</v>
+        <v>0.03235159099006363</v>
       </c>
       <c r="L11">
         <v>0.002311662044466481</v>
@@ -970,10 +970,10 @@
         <v>0.008829073121162923</v>
       </c>
       <c r="N11">
-        <v>0.0143886025915441</v>
+        <v>0.01098977602359104</v>
       </c>
       <c r="P11">
-        <v>0.01710891438035657</v>
+        <v>0.01918819612752784</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -982,7 +982,7 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>-0.2690748787309951</v>
+        <v>-0.256385150959406</v>
       </c>
       <c r="D12">
         <v>0.008084445347377813</v>
@@ -991,19 +991,19 @@
         <v>-0.01130673443626938</v>
       </c>
       <c r="F12">
-        <v>0.01585145026605801</v>
+        <v>0.01346868063474722</v>
       </c>
       <c r="H12">
-        <v>0.02064652104986084</v>
+        <v>0.02053890590955623</v>
       </c>
       <c r="I12">
         <v>0.01842309193692368</v>
       </c>
       <c r="J12">
-        <v>-0.03593466286506854</v>
+        <v>0.003338067468915876</v>
       </c>
       <c r="K12">
-        <v>-0.05945587831423512</v>
+        <v>-0.06520807489632298</v>
       </c>
       <c r="L12">
         <v>-0.009682885443315418</v>
@@ -1012,10 +1012,10 @@
         <v>-0.007035512345420492</v>
       </c>
       <c r="N12">
-        <v>0.002077467635098705</v>
+        <v>0.0102928325077133</v>
       </c>
       <c r="P12">
-        <v>0.0008809638112385523</v>
+        <v>0.006134919701396787</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1026,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>0.03694543222981728</v>
+        <v>0.03429079625163185</v>
       </c>
       <c r="D13">
         <v>-0.006178450999138038</v>
@@ -1035,19 +1035,19 @@
         <v>0.002630818473232739</v>
       </c>
       <c r="F13">
-        <v>-0.0007383221095328842</v>
+        <v>-0.001882752939310117</v>
       </c>
       <c r="H13">
-        <v>-0.004376761423070457</v>
+        <v>-0.004678136155125445</v>
       </c>
       <c r="I13">
         <v>-0.004888350915534036</v>
       </c>
       <c r="J13">
-        <v>0.02525820923436439</v>
+        <v>0.003817273043442371</v>
       </c>
       <c r="K13">
-        <v>0.02019695523987821</v>
+        <v>0.02084205366568214</v>
       </c>
       <c r="L13">
         <v>-0.01973799458151978</v>
@@ -1056,10 +1056,10 @@
         <v>-0.01003870331354813</v>
       </c>
       <c r="N13">
-        <v>0.02345406737016269</v>
+        <v>0.01675726454229058</v>
       </c>
       <c r="P13">
-        <v>0.004396826095873043</v>
+        <v>0.008359625422385015</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1070,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>-0.03585051455402058</v>
+        <v>-0.03314768561390742</v>
       </c>
       <c r="D14">
         <v>0.009528843069153721</v>
@@ -1079,19 +1079,19 @@
         <v>-0.008931658437266336</v>
       </c>
       <c r="F14">
-        <v>0.008298237163929486</v>
+        <v>0.008844970049798801</v>
       </c>
       <c r="H14">
-        <v>0.004347722957908917</v>
+        <v>0.005078281931131277</v>
       </c>
       <c r="I14">
         <v>-0.009953175374127014</v>
       </c>
       <c r="J14">
-        <v>-0.01907184779571314</v>
+        <v>-0.01851554275837863</v>
       </c>
       <c r="K14">
-        <v>-0.04890379318815172</v>
+        <v>-0.04953738226949529</v>
       </c>
       <c r="L14">
         <v>0.009346858741874348</v>
@@ -1100,10 +1100,10 @@
         <v>0.003721424884856995</v>
       </c>
       <c r="N14">
-        <v>-0.01426053378642135</v>
+        <v>-0.01239709364788374</v>
       </c>
       <c r="P14">
-        <v>-0.01373708406948336</v>
+        <v>-0.008565392598615702</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1114,7 +1114,7 @@
         <v>41</v>
       </c>
       <c r="C15">
-        <v>-0.01115423862216955</v>
+        <v>-0.01273351356534054</v>
       </c>
       <c r="D15">
         <v>-0.01356096217443849</v>
@@ -1123,19 +1123,19 @@
         <v>0.0159225350049014</v>
       </c>
       <c r="F15">
-        <v>-0.01831902927676117</v>
+        <v>-0.01690679779627191</v>
       </c>
       <c r="H15">
-        <v>-0.01154691770987671</v>
+        <v>-0.01114052454162098</v>
       </c>
       <c r="I15">
         <v>-0.007891357275654291</v>
       </c>
       <c r="J15">
-        <v>0.005578323522477199</v>
+        <v>0.003098837713670163</v>
       </c>
       <c r="K15">
-        <v>0.01534348352573934</v>
+        <v>0.01672236873289475</v>
       </c>
       <c r="L15">
         <v>0.01568423697936948</v>
@@ -1144,10 +1144,10 @@
         <v>-0.01968204539528181</v>
       </c>
       <c r="N15">
-        <v>0.009798834823953391</v>
+        <v>0.01089342792373712</v>
       </c>
       <c r="P15">
-        <v>-0.006620548200821927</v>
+        <v>0.00869598476383939</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1158,7 +1158,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.004577540343101614</v>
+        <v>-0.003794975383799015</v>
       </c>
       <c r="D16">
         <v>0.00895516826220673</v>
@@ -1167,19 +1167,19 @@
         <v>-0.008055754690230187</v>
       </c>
       <c r="F16">
-        <v>0.007499134955965396</v>
+        <v>0.007534610221384408</v>
       </c>
       <c r="H16">
-        <v>0.008712729660509186</v>
+        <v>0.009300610548024422</v>
       </c>
       <c r="I16">
         <v>0.008303432108137283</v>
       </c>
       <c r="J16">
-        <v>0.02161822698570217</v>
+        <v>0.002848652101909438</v>
       </c>
       <c r="K16">
-        <v>-0.01410295381211815</v>
+        <v>-0.01344235282569411</v>
       </c>
       <c r="L16">
         <v>0.002966714902668596</v>
@@ -1188,10 +1188,10 @@
         <v>-0.02864337656973506</v>
       </c>
       <c r="N16">
-        <v>-0.001310050612402024</v>
+        <v>-0.001187699471507979</v>
       </c>
       <c r="P16">
-        <v>-0.001636229345449174</v>
+        <v>-0.004168176742727069</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1200,7 +1200,7 @@
         <v>42</v>
       </c>
       <c r="C17">
-        <v>0.003851350138054005</v>
+        <v>0.002837106161484246</v>
       </c>
       <c r="D17">
         <v>-0.002627875209115008</v>
@@ -1209,19 +1209,19 @@
         <v>-0.002788225647529025</v>
       </c>
       <c r="F17">
-        <v>0.007898601819944073</v>
+        <v>0.005552310942092437</v>
       </c>
       <c r="H17">
-        <v>0.008219885704795427</v>
+        <v>0.008214334024573359</v>
       </c>
       <c r="I17">
         <v>0.005896042603841703</v>
       </c>
       <c r="J17">
-        <v>0.009324513840060673</v>
+        <v>0.02384073836870543</v>
       </c>
       <c r="K17">
-        <v>-0.006882166355286653</v>
+        <v>-0.004641587129663484</v>
       </c>
       <c r="L17">
         <v>-0.02118554983942199</v>
@@ -1230,10 +1230,10 @@
         <v>-0.006069029234761169</v>
       </c>
       <c r="N17">
-        <v>0.01518840588753623</v>
+        <v>0.0225647949505918</v>
       </c>
       <c r="P17">
-        <v>0.02170324138012966</v>
+        <v>0.01141278218451129</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1244,7 +1244,7 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0.0003242292609691704</v>
+        <v>-0.0009705362308214491</v>
       </c>
       <c r="D18">
         <v>-0.01706006535440261</v>
@@ -1253,19 +1253,19 @@
         <v>0.01599774803190992</v>
       </c>
       <c r="F18">
-        <v>-0.01566208670648347</v>
+        <v>-0.01415759739830389</v>
       </c>
       <c r="H18">
-        <v>-0.003207296096291843</v>
+        <v>-0.003648961969958478</v>
       </c>
       <c r="I18">
         <v>-0.0002331010653240426</v>
       </c>
       <c r="J18">
-        <v>-0.001716865231552667</v>
+        <v>-0.0003549426886851459</v>
       </c>
       <c r="K18">
-        <v>-0.006239121465564858</v>
+        <v>-0.004633281881331274</v>
       </c>
       <c r="L18">
         <v>-0.00848122353924894</v>
@@ -1274,10 +1274,10 @@
         <v>0.01297574202302968</v>
       </c>
       <c r="N18">
-        <v>0.00962928902517156</v>
+        <v>0.009956057774242308</v>
       </c>
       <c r="P18">
-        <v>-0.01542905802516232</v>
+        <v>-0.002658360298334411</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1288,7 +1288,7 @@
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0.01479234884769395</v>
+        <v>0.01547259729090389</v>
       </c>
       <c r="D19">
         <v>0.009385230039409199</v>
@@ -1297,19 +1297,19 @@
         <v>-0.008471296850851873</v>
       </c>
       <c r="F19">
-        <v>0.008911115108444603</v>
+        <v>0.009305197332207893</v>
       </c>
       <c r="H19">
-        <v>0.003179782111191284</v>
+        <v>0.003473547978941919</v>
       </c>
       <c r="I19">
         <v>0.002854861554194462</v>
       </c>
       <c r="J19">
-        <v>0.002833752467304754</v>
+        <v>-0.007211158850982156</v>
       </c>
       <c r="K19">
-        <v>0.001647173153886926</v>
+        <v>0.003991592415663696</v>
       </c>
       <c r="L19">
         <v>0.006570811654832465</v>
@@ -1318,10 +1318,10 @@
         <v>-0.02442520331300813</v>
       </c>
       <c r="N19">
-        <v>-0.006943534549741381</v>
+        <v>0.003259469602378784</v>
       </c>
       <c r="P19">
-        <v>-0.004114368068574722</v>
+        <v>-0.007108352348334093</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1330,7 +1330,7 @@
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0.0005249318609972744</v>
+        <v>0.003792689623707584</v>
       </c>
       <c r="D20">
         <v>0.026469925154797</v>
@@ -1339,19 +1339,19 @@
         <v>-0.02186299335451973</v>
       </c>
       <c r="F20">
-        <v>0.01447247913889916</v>
+        <v>0.01796449070257963</v>
       </c>
       <c r="H20">
-        <v>-0.0008977311719092467</v>
+        <v>-0.0003876987035079481</v>
       </c>
       <c r="I20">
         <v>-0.002026378833055153</v>
       </c>
       <c r="J20">
-        <v>-0.003382413612727518</v>
+        <v>0.01407212782950258</v>
       </c>
       <c r="K20">
-        <v>0.0100732050429282</v>
+        <v>0.007644696113787844</v>
       </c>
       <c r="L20">
         <v>0.02439585841583433</v>
@@ -1360,10 +1360,10 @@
         <v>-0.01598213804728552</v>
       </c>
       <c r="N20">
-        <v>-0.02821681053667242</v>
+        <v>-0.01955452964618119</v>
       </c>
       <c r="P20">
-        <v>-0.04082572569702902</v>
+        <v>-0.02284600449784017</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1372,7 +1372,7 @@
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-0.01825390306615612</v>
+        <v>-0.01891059320442372</v>
       </c>
       <c r="D21">
         <v>-0.01072038820481553</v>
@@ -1381,19 +1381,19 @@
         <v>0.007382084455283378</v>
       </c>
       <c r="F21">
-        <v>-0.004737239901489595</v>
+        <v>-0.005726542885061714</v>
       </c>
       <c r="H21">
-        <v>0.001108299884331995</v>
+        <v>-5.145609805824391E-05</v>
       </c>
       <c r="I21">
         <v>0.003556671886266875</v>
       </c>
       <c r="J21">
-        <v>-0.0001728754640103575</v>
+        <v>-0.008706709609285006</v>
       </c>
       <c r="K21">
-        <v>0.004026168641046745</v>
+        <v>0.001835216233408649</v>
       </c>
       <c r="L21">
         <v>-0.01100693410427736</v>
@@ -1402,10 +1402,10 @@
         <v>-0.006121046068841843</v>
       </c>
       <c r="N21">
-        <v>0.02123851313754052</v>
+        <v>-0.0006395785215831407</v>
       </c>
       <c r="P21">
-        <v>0.009124992076999681</v>
+        <v>0.01718759300750372</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1414,7 +1414,7 @@
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-0.0309782301991292</v>
+        <v>-0.02893551360542054</v>
       </c>
       <c r="D22">
         <v>-0.008189237415569494</v>
@@ -1423,19 +1423,19 @@
         <v>0.002952239158089566</v>
       </c>
       <c r="F22">
-        <v>-0.002077995731119829</v>
+        <v>-0.001649700641988025</v>
       </c>
       <c r="H22">
-        <v>-0.01128895561955822</v>
+        <v>-0.0116810827072433</v>
       </c>
       <c r="I22">
         <v>-0.01086898229075929</v>
       </c>
       <c r="J22">
-        <v>-0.004212183795175749</v>
+        <v>-0.00579034184019239</v>
       </c>
       <c r="K22">
-        <v>-0.002214279352571174</v>
+        <v>-0.009569348638773945</v>
       </c>
       <c r="L22">
         <v>-0.008789841375593655</v>
@@ -1444,10 +1444,10 @@
         <v>0.006923856564954261</v>
       </c>
       <c r="N22">
-        <v>0.01528126640325065</v>
+        <v>-0.01792136654085466</v>
       </c>
       <c r="P22">
-        <v>-0.005081996651279866</v>
+        <v>0.0008676124187044968</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1458,7 +1458,7 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-0.009043484713739386</v>
+        <v>-0.007680597331223892</v>
       </c>
       <c r="D23">
         <v>0.0006991589079663563</v>
@@ -1467,19 +1467,19 @@
         <v>-0.005133366445334657</v>
       </c>
       <c r="F23">
-        <v>0.005823657352946292</v>
+        <v>0.007576976847079074</v>
       </c>
       <c r="H23">
-        <v>-0.01020244706409788</v>
+        <v>-0.009715356676614266</v>
       </c>
       <c r="I23">
         <v>-0.01179273109570924</v>
       </c>
       <c r="J23">
-        <v>-0.007504593323732837</v>
+        <v>0.0142969770720723</v>
       </c>
       <c r="K23">
-        <v>-0.01185078709803148</v>
+        <v>-0.01388777076351083</v>
       </c>
       <c r="L23">
         <v>-0.02049908165196326</v>
@@ -1488,10 +1488,10 @@
         <v>0.003621463824858552</v>
       </c>
       <c r="N23">
-        <v>0.01407761413110456</v>
+        <v>0.009216980624679223</v>
       </c>
       <c r="P23">
-        <v>0.002295141403805656</v>
+        <v>-0.005867042250681689</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1500,7 +1500,7 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>0.004391186095647443</v>
+        <v>0.004454653330186133</v>
       </c>
       <c r="D24">
         <v>0.007464518794580751</v>
@@ -1509,19 +1509,19 @@
         <v>-0.008619279224771167</v>
       </c>
       <c r="F24">
-        <v>0.007967777502711099</v>
+        <v>0.00885132649805306</v>
       </c>
       <c r="H24">
-        <v>0.01121441785657671</v>
+        <v>0.01133526880541075</v>
       </c>
       <c r="I24">
         <v>0.01310582932423317</v>
       </c>
       <c r="J24">
-        <v>-0.0285456254186901</v>
+        <v>0.002326457725362125</v>
       </c>
       <c r="K24">
-        <v>0.01834896726195868</v>
+        <v>0.01855403287016131</v>
       </c>
       <c r="L24">
         <v>-0.0009056041322241653</v>
@@ -1530,10 +1530,10 @@
         <v>-0.01352506566100262</v>
       </c>
       <c r="N24">
-        <v>-0.006214193144567725</v>
+        <v>-0.005045702793828112</v>
       </c>
       <c r="P24">
-        <v>0.001202727984109119</v>
+        <v>-0.009096925611877024</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1544,7 +1544,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>0.0008324955212998207</v>
+        <v>-0.00144888024995521</v>
       </c>
       <c r="D25">
         <v>-0.01688186390727455</v>
@@ -1553,19 +1553,19 @@
         <v>0.01380366544814661</v>
       </c>
       <c r="F25">
-        <v>-0.008509986484399457</v>
+        <v>-0.01243735220949409</v>
       </c>
       <c r="H25">
-        <v>0.01212569731702789</v>
+        <v>0.01092171576486863</v>
       </c>
       <c r="I25">
         <v>0.01985164889006595</v>
       </c>
       <c r="J25">
-        <v>-0.01603336639092207</v>
+        <v>-0.01212577732200854</v>
       </c>
       <c r="K25">
-        <v>-0.01168976149159046</v>
+        <v>-0.01482193652887746</v>
       </c>
       <c r="L25">
         <v>-0.02284800235392009</v>
@@ -1574,10 +1574,10 @@
         <v>-0.006229911801196471</v>
       </c>
       <c r="N25">
-        <v>0.03111012191640487</v>
+        <v>0.008652456250098249</v>
       </c>
       <c r="P25">
-        <v>0.01923533808141352</v>
+        <v>0.02304204994568199</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1586,7 +1586,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0.0138064700882588</v>
+        <v>0.01347383871495355</v>
       </c>
       <c r="D26">
         <v>-0.0004943375237735009</v>
@@ -1595,19 +1595,19 @@
         <v>0.003122875228915009</v>
       </c>
       <c r="F26">
-        <v>-0.004088100931524037</v>
+        <v>-0.003548037741921509</v>
       </c>
       <c r="H26">
-        <v>0.008681584187263367</v>
+        <v>0.008098681955947278</v>
       </c>
       <c r="I26">
         <v>0.01161479844859194</v>
       </c>
       <c r="J26">
-        <v>-0.02404477604213875</v>
+        <v>-0.01403494779575483</v>
       </c>
       <c r="K26">
-        <v>-0.01873600682944027</v>
+        <v>-0.02092814166912567</v>
       </c>
       <c r="L26">
         <v>0.01128409888336395</v>
@@ -1616,10 +1616,10 @@
         <v>-0.003331732741269309</v>
       </c>
       <c r="N26">
-        <v>-0.01295350707814028</v>
+        <v>-0.009361067510442697</v>
       </c>
       <c r="P26">
-        <v>0.002994032375761295</v>
+        <v>-0.003903241884129675</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1630,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-0.02467871733914869</v>
+        <v>-0.02238072655922906</v>
       </c>
       <c r="D27">
         <v>-0.05559355873574235</v>
@@ -1639,19 +1639,19 @@
         <v>0.01408764670750587</v>
       </c>
       <c r="F27">
-        <v>0.01281982083279283</v>
+        <v>0.01001646097665844</v>
       </c>
       <c r="H27">
-        <v>-0.01882148177685927</v>
+        <v>-0.01902192402487696</v>
       </c>
       <c r="I27">
         <v>-0.0217181802287272</v>
       </c>
       <c r="J27">
-        <v>0.03555484014346907</v>
+        <v>0.01836880391948074</v>
       </c>
       <c r="K27">
-        <v>-0.05625916170636646</v>
+        <v>-0.05241845595273823</v>
       </c>
       <c r="L27">
         <v>-0.2502081143283246</v>
@@ -1660,10 +1660,10 @@
         <v>0.9915924686556985</v>
       </c>
       <c r="N27">
-        <v>0.09351191318047652</v>
+        <v>0.07783277879331113</v>
       </c>
       <c r="P27">
-        <v>0.01640506664020266</v>
+        <v>0.008294863723794546</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1674,7 +1674,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-0.008916101348644052</v>
+        <v>-0.007313872132554885</v>
       </c>
       <c r="D28">
         <v>0.007420154504806179</v>
@@ -1683,19 +1683,19 @@
         <v>-0.005680523171220926</v>
       </c>
       <c r="F28">
-        <v>0.004576697847067913</v>
+        <v>0.005603795264151811</v>
       </c>
       <c r="H28">
-        <v>0.01400893976035759</v>
+        <v>0.01453919184556767</v>
       </c>
       <c r="I28">
         <v>0.008258797386351895</v>
       </c>
       <c r="J28">
-        <v>-0.02189433375049585</v>
+        <v>-0.02373492764373148</v>
       </c>
       <c r="K28">
-        <v>0.006885669107426763</v>
+        <v>0.004246670761866829</v>
       </c>
       <c r="L28">
         <v>0.00627077900283116</v>
@@ -1704,10 +1704,10 @@
         <v>0.0160673300826932</v>
       </c>
       <c r="N28">
-        <v>-0.01268237119529485</v>
+        <v>-0.007346856965874277</v>
       </c>
       <c r="P28">
-        <v>0.00517502651100106</v>
+        <v>-0.007701839252073569</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1718,7 +1718,7 @@
         <v>54</v>
       </c>
       <c r="C29">
-        <v>0.0006762132750485309</v>
+        <v>0.0003657182546287301</v>
       </c>
       <c r="D29">
         <v>0.007649970545998821</v>
@@ -1727,19 +1727,19 @@
         <v>0.001732371333294853</v>
       </c>
       <c r="F29">
-        <v>-0.003870516538820661</v>
+        <v>-0.003097271835890873</v>
       </c>
       <c r="H29">
-        <v>-0.005408218104328724</v>
+        <v>-0.005177095695083827</v>
       </c>
       <c r="I29">
         <v>-0.008030665089226603</v>
       </c>
       <c r="J29">
-        <v>-0.03233488729026934</v>
+        <v>-0.09275505244022951</v>
       </c>
       <c r="K29">
-        <v>-0.01085378635415145</v>
+        <v>-0.01157285537491421</v>
       </c>
       <c r="L29">
         <v>0.03910182079607283</v>
@@ -1748,10 +1748,10 @@
         <v>0.09576528440661136</v>
       </c>
       <c r="N29">
-        <v>0.0006328565053142602</v>
+        <v>-0.01248424581136983</v>
       </c>
       <c r="P29">
-        <v>-0.001370497590819903</v>
+        <v>-0.007668716754748669</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -1762,7 +1762,7 @@
         <v>55</v>
       </c>
       <c r="C30">
-        <v>0.01150749290829971</v>
+        <v>0.01138516048740642</v>
       </c>
       <c r="D30">
         <v>0.008151606374064254</v>
@@ -1771,19 +1771,19 @@
         <v>-0.00341482900059316</v>
       </c>
       <c r="F30">
-        <v>2.081673683266947E-05</v>
+        <v>0.0004628637305145491</v>
       </c>
       <c r="H30">
-        <v>0.002589154087566163</v>
+        <v>0.003151278846051153</v>
       </c>
       <c r="I30">
         <v>0.003067178618687144</v>
       </c>
       <c r="J30">
-        <v>0.007991948770314939</v>
+        <v>-0.001645692749360725</v>
       </c>
       <c r="K30">
-        <v>-0.006802211696088466</v>
+        <v>-0.003150114174004566</v>
       </c>
       <c r="L30">
         <v>0.02453575854943034</v>
@@ -1792,10 +1792,10 @@
         <v>0.00476188799847552</v>
       </c>
       <c r="N30">
-        <v>-0.01493779864551194</v>
+        <v>-0.00114505550180222</v>
       </c>
       <c r="P30">
-        <v>-0.002980543703221748</v>
+        <v>-0.00501311799252472</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -1806,7 +1806,7 @@
         <v>56</v>
       </c>
       <c r="C31">
-        <v>0.399878351963134</v>
+        <v>0.4985801340232052</v>
       </c>
       <c r="D31">
         <v>0.9781560133022404</v>
@@ -1815,19 +1815,19 @@
         <v>-0.9999576087023043</v>
       </c>
       <c r="F31">
-        <v>0.9745370185014806</v>
+        <v>0.9936801386912053</v>
       </c>
       <c r="H31">
-        <v>0.3800416418256656</v>
+        <v>0.4176805173152207</v>
       </c>
       <c r="I31">
         <v>0.01505415967416639</v>
       </c>
       <c r="J31">
-        <v>-0.2189816936347358</v>
+        <v>0.03407707753789526</v>
       </c>
       <c r="K31">
-        <v>-0.03425489916219596</v>
+        <v>-0.1049396579255863</v>
       </c>
       <c r="L31">
         <v>0.001451330458053218</v>
@@ -1836,10 +1836,10 @@
         <v>-0.007125054141002164</v>
       </c>
       <c r="N31">
-        <v>-0.6879600039984001</v>
+        <v>-0.5227084606843383</v>
       </c>
       <c r="P31">
-        <v>-0.5107201384128054</v>
+        <v>-0.7082123649684945</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -1850,7 +1850,7 @@
         <v>57</v>
       </c>
       <c r="C32">
-        <v>0.01025279820211193</v>
+        <v>0.01007833105913324</v>
       </c>
       <c r="D32">
         <v>0.008363538094541522</v>
@@ -1859,19 +1859,19 @@
         <v>-0.008252394570095783</v>
       </c>
       <c r="F32">
-        <v>0.007505972652238906</v>
+        <v>0.008222533192901326</v>
       </c>
       <c r="H32">
-        <v>0.004253656970146279</v>
+        <v>0.005052086698083467</v>
       </c>
       <c r="I32">
         <v>0.00375449650217986</v>
       </c>
       <c r="J32">
-        <v>-0.003862847410988898</v>
+        <v>-0.006654492024814362</v>
       </c>
       <c r="K32">
-        <v>-0.01367304448292178</v>
+        <v>-0.017998400015936</v>
       </c>
       <c r="L32">
         <v>0.002056988338279533</v>
@@ -1880,10 +1880,10 @@
         <v>0.006495224419808976</v>
       </c>
       <c r="N32">
-        <v>-0.004313150476526018</v>
+        <v>-0.02129723566788942</v>
       </c>
       <c r="P32">
-        <v>-0.00878271951930878</v>
+        <v>-0.01292116582884663</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -1894,7 +1894,7 @@
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-0.003431488841259553</v>
+        <v>-0.00458216149528646</v>
       </c>
       <c r="D33">
         <v>-0.001061815626472625</v>
@@ -1903,19 +1903,19 @@
         <v>-0.00130981176439247</v>
       </c>
       <c r="F33">
-        <v>0.0008943875877755034</v>
+        <v>0.0009598438463937537</v>
       </c>
       <c r="H33">
-        <v>-0.006161856246474248</v>
+        <v>-0.005968247086729883</v>
       </c>
       <c r="I33">
         <v>-0.00460812575232503</v>
       </c>
       <c r="J33">
-        <v>-0.02770187014759386</v>
+        <v>-0.1007979845143117</v>
       </c>
       <c r="K33">
-        <v>-0.01182762863310514</v>
+        <v>-0.01279766959990678</v>
       </c>
       <c r="L33">
         <v>-0.01786984919479397</v>
@@ -1924,10 +1924,10 @@
         <v>0.00821038775241551</v>
       </c>
       <c r="N33">
-        <v>0.006769624302784972</v>
+        <v>-0.006590162663606505</v>
       </c>
       <c r="P33">
-        <v>-0.008461449746457989</v>
+        <v>-0.01608536809941472</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Element</t>
   </si>
@@ -25,6 +25,24 @@
     <t>Biorefinery</t>
   </si>
   <si>
+    <t>Biofuel displacement</t>
+  </si>
+  <si>
+    <t>Ethanol displacement</t>
+  </si>
+  <si>
+    <t>Biodiesel displacement</t>
+  </si>
+  <si>
+    <t>Biofuel allocation</t>
+  </si>
+  <si>
+    <t>Ethanol allocation</t>
+  </si>
+  <si>
+    <t>Biodiesel allocation</t>
+  </si>
+  <si>
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
@@ -67,6 +85,15 @@
     <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
+    <t>GWP [kg*CO2*eq / GGE]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (ethanol*gal)]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -112,6 +139,9 @@
     <t>oilsorghum</t>
   </si>
   <si>
+    <t>Stream-oilcane</t>
+  </si>
+  <si>
     <t>Oil retention [%]</t>
   </si>
   <si>
@@ -172,16 +202,16 @@
     <t>Productivity [g/L]</t>
   </si>
   <si>
-    <t>Cane  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Cane  FFA content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA content [% oil]</t>
+    <t>Cane PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Cane FFA content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum FFA content [% oil]</t>
   </si>
   <si>
     <t>Cane oil content [dry wt. %]</t>
@@ -190,7 +220,10 @@
     <t>Relative sorghum oil content [dry wt. %]</t>
   </si>
   <si>
-    <t>TAG to  FFA conversion [% oil]</t>
+    <t>TAG to FFA conversion [% oil]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2-eq/kg]</t>
   </si>
 </sst>
 </file>
@@ -548,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,1360 +607,1998 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>-0.125485100091404</v>
+        <v>-0.3105910591059106</v>
       </c>
       <c r="D4">
-        <v>-0.1403974119838965</v>
+        <v>-0.2070807080708071</v>
       </c>
       <c r="E4">
-        <v>0.001278953427158137</v>
+        <v>0.05989798979897989</v>
       </c>
       <c r="F4">
-        <v>0.0307426301577052</v>
+        <v>-0.01152115211521152</v>
       </c>
       <c r="H4">
-        <v>0.04597069230282769</v>
+        <v>-0.01436543654365436</v>
       </c>
       <c r="I4">
-        <v>0.01824716780188671</v>
+        <v>-0.03924392439243924</v>
       </c>
       <c r="J4">
-        <v>0.5029095779767735</v>
+        <v>0.4199099909990999</v>
       </c>
       <c r="K4">
-        <v>-0.08590434679617386</v>
+        <v>-0.08304830483048305</v>
       </c>
       <c r="L4">
-        <v>-0.7015444139817765</v>
+        <v>-0.7050345034503449</v>
       </c>
       <c r="M4">
-        <v>0.01460921338436853</v>
+        <v>0.006924692469246924</v>
       </c>
       <c r="N4">
-        <v>0.2752247044489881</v>
+        <v>0.3414221422142213</v>
       </c>
       <c r="P4">
-        <v>0.2139338166853526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.2085688568856885</v>
+      </c>
+      <c r="Q4">
+        <v>-0.07067506750675066</v>
+      </c>
+      <c r="R4">
+        <v>-0.07067506750675066</v>
+      </c>
+      <c r="S4">
+        <v>-0.07067506750675066</v>
+      </c>
+      <c r="T4">
+        <v>0.1195199519951995</v>
+      </c>
+      <c r="U4">
+        <v>0.1195199519951995</v>
+      </c>
+      <c r="V4">
+        <v>0.1195199519951995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.07969028517161141</v>
+        <v>-0.1492109210921092</v>
       </c>
       <c r="D5">
-        <v>0.1304287884811515</v>
+        <v>0.05182118211821182</v>
       </c>
       <c r="E5">
-        <v>-0.001767137062685482</v>
+        <v>0.07823582358235823</v>
       </c>
       <c r="F5">
-        <v>-0.08296410523856421</v>
+        <v>-0.1642604260426042</v>
       </c>
       <c r="H5">
-        <v>-0.008400868656034746</v>
+        <v>-0.1569636963696369</v>
       </c>
       <c r="I5">
-        <v>0.02099920672796826</v>
+        <v>-0.1012421242124212</v>
       </c>
       <c r="J5">
-        <v>-0.01152320919768302</v>
+        <v>-0.06111011101110111</v>
       </c>
       <c r="K5">
-        <v>0.1002549122661965</v>
+        <v>0.03356735673567356</v>
       </c>
       <c r="L5">
-        <v>0.6444905914116236</v>
+        <v>0.6346114611461144</v>
       </c>
       <c r="M5">
-        <v>0.01133984080559363</v>
+        <v>0.1078667866786679</v>
       </c>
       <c r="N5">
-        <v>-0.3812154123686164</v>
+        <v>-0.4614461446144614</v>
       </c>
       <c r="P5">
-        <v>-0.09242342241693688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>-0.03137113711371137</v>
+      </c>
+      <c r="Q5">
+        <v>0.2203780378037803</v>
+      </c>
+      <c r="R5">
+        <v>0.2203780378037803</v>
+      </c>
+      <c r="S5">
+        <v>0.2203780378037803</v>
+      </c>
+      <c r="T5">
+        <v>-0.09585358535853583</v>
+      </c>
+      <c r="U5">
+        <v>-0.09585358535853583</v>
+      </c>
+      <c r="V5">
+        <v>-0.09585358535853583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0.2244935864197434</v>
+        <v>0.3323012301230123</v>
       </c>
       <c r="D6">
-        <v>0.0222117949684718</v>
+        <v>0.06522652265226522</v>
       </c>
       <c r="E6">
-        <v>-0.0211402851656114</v>
+        <v>-0.07683168316831683</v>
       </c>
       <c r="F6">
-        <v>0.02560340406413616</v>
+        <v>0.09053705370537053</v>
       </c>
       <c r="H6">
-        <v>0.9102963433238536</v>
+        <v>0.9097149714971496</v>
       </c>
       <c r="I6">
-        <v>0.9586914095476562</v>
+        <v>0.956111611161116</v>
       </c>
       <c r="J6">
-        <v>-0.3579291726975345</v>
+        <v>-0.1771857185718572</v>
       </c>
       <c r="K6">
-        <v>0.03696446605457864</v>
+        <v>0.05063306330633063</v>
       </c>
       <c r="L6">
-        <v>0.006184358167374325</v>
+        <v>-0.06077407740774077</v>
       </c>
       <c r="M6">
-        <v>-0.0263237924129517</v>
+        <v>-0.1569036903690369</v>
       </c>
       <c r="N6">
-        <v>-0.03227897313115893</v>
+        <v>-0.02689468946894689</v>
       </c>
       <c r="P6">
-        <v>0.3947835358553413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.2595859585958596</v>
+      </c>
+      <c r="Q6">
+        <v>-0.02841884188418841</v>
+      </c>
+      <c r="R6">
+        <v>-0.02841884188418841</v>
+      </c>
+      <c r="S6">
+        <v>-0.02841884188418841</v>
+      </c>
+      <c r="T6">
+        <v>0.2492289228922892</v>
+      </c>
+      <c r="U6">
+        <v>0.2492289228922892</v>
+      </c>
+      <c r="V6">
+        <v>0.2492289228922892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.4665949312717972</v>
+        <v>0.3492229222922292</v>
       </c>
       <c r="D7">
-        <v>-0.004067228610689143</v>
+        <v>-0.08734473447344733</v>
       </c>
       <c r="E7">
-        <v>0.00750002602800104</v>
+        <v>0.0857125712571257</v>
       </c>
       <c r="F7">
-        <v>-0.007720219220808767</v>
+        <v>-0.06551455145514551</v>
       </c>
       <c r="H7">
-        <v>-0.006111749620469984</v>
+        <v>-0.01936993699369937</v>
       </c>
       <c r="I7">
-        <v>0.002488744899549796</v>
+        <v>0.009672967296729673</v>
       </c>
       <c r="J7">
-        <v>-0.01940564755222068</v>
+        <v>-0.2029282928292829</v>
       </c>
       <c r="K7">
-        <v>-0.5954585198503407</v>
+        <v>-0.6664026402640263</v>
       </c>
       <c r="L7">
-        <v>0.01010773134830925</v>
+        <v>-0.03536753675367536</v>
       </c>
       <c r="M7">
-        <v>0.02772037570081503</v>
+        <v>-0.06124212421242123</v>
       </c>
       <c r="N7">
-        <v>-0.002293028635721145</v>
+        <v>0.07525952595259526</v>
       </c>
       <c r="P7">
-        <v>0.00184495101779804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.1265646564656465</v>
+      </c>
+      <c r="Q7">
+        <v>0.06665466546654665</v>
+      </c>
+      <c r="R7">
+        <v>0.06665466546654665</v>
+      </c>
+      <c r="S7">
+        <v>0.06665466546654665</v>
+      </c>
+      <c r="T7">
+        <v>0.09072907290729072</v>
+      </c>
+      <c r="U7">
+        <v>0.09072907290729072</v>
+      </c>
+      <c r="V7">
+        <v>0.09072907290729072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>0.5261620811744833</v>
+        <v>0.4502130213021302</v>
       </c>
       <c r="D8">
-        <v>-0.004189745831589833</v>
+        <v>-0.03119111911191119</v>
       </c>
       <c r="E8">
-        <v>0.004952010342080413</v>
+        <v>0.056009600960096</v>
       </c>
       <c r="F8">
-        <v>-0.0034963950198558</v>
+        <v>-0.05562556255625561</v>
       </c>
       <c r="H8">
-        <v>0.01180404796016192</v>
+        <v>0.04331233123312331</v>
       </c>
       <c r="I8">
-        <v>0.01808265845130633</v>
+        <v>0.1098109810981098</v>
       </c>
       <c r="J8">
-        <v>-0.018651421116766</v>
+        <v>-0.1158475847584758</v>
       </c>
       <c r="K8">
-        <v>0.7020053676962147</v>
+        <v>0.7612241224122411</v>
       </c>
       <c r="L8">
-        <v>-0.008953751590150062</v>
+        <v>0.002604260426042604</v>
       </c>
       <c r="M8">
-        <v>0.005753511782140471</v>
+        <v>-0.09381338133813381</v>
       </c>
       <c r="N8">
-        <v>0.01649178133167125</v>
+        <v>-0.03577557755775577</v>
       </c>
       <c r="P8">
-        <v>0.01006598469063939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.03362736273627362</v>
+      </c>
+      <c r="Q8">
+        <v>0.05207320732073207</v>
+      </c>
+      <c r="R8">
+        <v>0.05207320732073207</v>
+      </c>
+      <c r="S8">
+        <v>0.05207320732073207</v>
+      </c>
+      <c r="T8">
+        <v>0.06075007500750074</v>
+      </c>
+      <c r="U8">
+        <v>0.06075007500750074</v>
+      </c>
+      <c r="V8">
+        <v>0.06075007500750074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>-0.003646911217876448</v>
+        <v>0.1133513351335133</v>
       </c>
       <c r="D9">
-        <v>0.01025872293834892</v>
+        <v>0.1338853885388539</v>
       </c>
       <c r="E9">
-        <v>-0.0116738900989556</v>
+        <v>-0.1121392139213921</v>
       </c>
       <c r="F9">
-        <v>0.01101761640870466</v>
+        <v>0.1105070507050705</v>
       </c>
       <c r="H9">
-        <v>-0.006668192042727681</v>
+        <v>-0.05339333933393339</v>
       </c>
       <c r="I9">
-        <v>-0.0166405299776212</v>
+        <v>-0.07396339633963396</v>
       </c>
       <c r="J9">
-        <v>0.01812558382804744</v>
+        <v>-0.2218661866186619</v>
       </c>
       <c r="K9">
-        <v>0.003383507559340302</v>
+        <v>-0.001596159615961596</v>
       </c>
       <c r="L9">
-        <v>-0.01241486315259452</v>
+        <v>0.07378337833783377</v>
       </c>
       <c r="M9">
-        <v>0.003887862395514495</v>
+        <v>0.1075787578757876</v>
       </c>
       <c r="N9">
-        <v>0.006465777954631117</v>
+        <v>-0.1562796279627963</v>
       </c>
       <c r="P9">
-        <v>-0.01444509340980374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>-0.09734173417341734</v>
+      </c>
+      <c r="Q9">
+        <v>-0.098001800180018</v>
+      </c>
+      <c r="R9">
+        <v>-0.098001800180018</v>
+      </c>
+      <c r="S9">
+        <v>-0.098001800180018</v>
+      </c>
+      <c r="T9">
+        <v>-0.186054605460546</v>
+      </c>
+      <c r="U9">
+        <v>-0.186054605460546</v>
+      </c>
+      <c r="V9">
+        <v>-0.186054605460546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>0.08298121954324876</v>
+        <v>0.0303990399039904</v>
       </c>
       <c r="D10">
-        <v>-0.003397388967895558</v>
+        <v>-0.177005700570057</v>
       </c>
       <c r="E10">
-        <v>0.004395723055828921</v>
+        <v>0.1573237323732373</v>
       </c>
       <c r="F10">
-        <v>-0.004907821540312862</v>
+        <v>-0.1397779777977798</v>
       </c>
       <c r="H10">
-        <v>0.01408574552342982</v>
+        <v>0.02123012301230123</v>
       </c>
       <c r="I10">
-        <v>0.01400161121606445</v>
+        <v>0.09706570657065706</v>
       </c>
       <c r="J10">
-        <v>-0.00127679948401979</v>
+        <v>0.07812781278127812</v>
       </c>
       <c r="K10">
-        <v>0.08141698703267947</v>
+        <v>0.007776777677767775</v>
       </c>
       <c r="L10">
-        <v>0.006446665601866624</v>
+        <v>-0.1088148814881488</v>
       </c>
       <c r="M10">
-        <v>0.02069125349965014</v>
+        <v>0.08902490249024902</v>
       </c>
       <c r="N10">
-        <v>0.001251204050048162</v>
+        <v>0.2012001200120012</v>
       </c>
       <c r="P10">
-        <v>0.01812776472511059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.247992799279928</v>
+      </c>
+      <c r="Q10">
+        <v>0.131041104110411</v>
+      </c>
+      <c r="R10">
+        <v>0.131041104110411</v>
+      </c>
+      <c r="S10">
+        <v>0.131041104110411</v>
+      </c>
+      <c r="T10">
+        <v>0.08414041404140414</v>
+      </c>
+      <c r="U10">
+        <v>0.08414041404140414</v>
+      </c>
+      <c r="V10">
+        <v>0.08414041404140414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.1645793562791742</v>
+        <v>0.2797719771977197</v>
       </c>
       <c r="D11">
-        <v>-0.01674040972561639</v>
+        <v>0.1402220222022202</v>
       </c>
       <c r="E11">
-        <v>0.01703490087339603</v>
+        <v>-0.132049204920492</v>
       </c>
       <c r="F11">
-        <v>-0.01600474700818988</v>
+        <v>0.1286288628862886</v>
       </c>
       <c r="H11">
-        <v>-0.0001518957180758287</v>
+        <v>0.03071107110711071</v>
       </c>
       <c r="I11">
-        <v>0.283372950726918</v>
+        <v>0.2375037503750375</v>
       </c>
       <c r="J11">
-        <v>-0.007274918117979352</v>
+        <v>-0.07432343234323432</v>
       </c>
       <c r="K11">
-        <v>0.03235159099006363</v>
+        <v>0.142046204620462</v>
       </c>
       <c r="L11">
-        <v>0.002311662044466481</v>
+        <v>0.07726372637263725</v>
       </c>
       <c r="M11">
-        <v>0.008829073121162923</v>
+        <v>-0.03305130513051305</v>
       </c>
       <c r="N11">
-        <v>0.01098977602359104</v>
+        <v>-0.1631203120312031</v>
       </c>
       <c r="P11">
-        <v>0.01918819612752784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>-0.04027602760276028</v>
+      </c>
+      <c r="Q11">
+        <v>-0.1197239723972397</v>
+      </c>
+      <c r="R11">
+        <v>-0.1197239723972397</v>
+      </c>
+      <c r="S11">
+        <v>-0.1197239723972397</v>
+      </c>
+      <c r="T11">
+        <v>-0.1157515751575157</v>
+      </c>
+      <c r="U11">
+        <v>-0.1157515751575157</v>
+      </c>
+      <c r="V11">
+        <v>-0.1157515751575157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>-0.256385150959406</v>
+        <v>-0.2857245724572457</v>
       </c>
       <c r="D12">
-        <v>0.008084445347377813</v>
+        <v>-0.07804380438043804</v>
       </c>
       <c r="E12">
-        <v>-0.01130673443626938</v>
+        <v>0.07863186318631862</v>
       </c>
       <c r="F12">
-        <v>0.01346868063474722</v>
+        <v>-0.07495949594959495</v>
       </c>
       <c r="H12">
-        <v>0.02053890590955623</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="I12">
-        <v>0.01842309193692368</v>
+        <v>0.04852085208520851</v>
       </c>
       <c r="J12">
-        <v>0.003338067468915876</v>
+        <v>0.01681368136813681</v>
       </c>
       <c r="K12">
-        <v>-0.06520807489632298</v>
+        <v>-0.1037623762376237</v>
       </c>
       <c r="L12">
-        <v>-0.009682885443315418</v>
+        <v>-0.05588958895889588</v>
       </c>
       <c r="M12">
-        <v>-0.007035512345420492</v>
+        <v>0.08139213921392137</v>
       </c>
       <c r="N12">
-        <v>0.0102928325077133</v>
+        <v>0.03108310831083108</v>
       </c>
       <c r="P12">
-        <v>0.006134919701396787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>-0.08177617761776176</v>
+      </c>
+      <c r="Q12">
+        <v>0.03482748274827482</v>
+      </c>
+      <c r="R12">
+        <v>0.03482748274827482</v>
+      </c>
+      <c r="S12">
+        <v>0.03482748274827482</v>
+      </c>
+      <c r="T12">
+        <v>-0.08866486648664865</v>
+      </c>
+      <c r="U12">
+        <v>-0.08866486648664865</v>
+      </c>
+      <c r="V12">
+        <v>-0.08866486648664865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>0.03429079625163185</v>
+        <v>-0.09158115811581156</v>
       </c>
       <c r="D13">
-        <v>-0.006178450999138038</v>
+        <v>-0.07053105310531052</v>
       </c>
       <c r="E13">
-        <v>0.002630818473232739</v>
+        <v>0.05518151815181518</v>
       </c>
       <c r="F13">
-        <v>-0.001882752939310117</v>
+        <v>-0.02508250825082508</v>
       </c>
       <c r="H13">
-        <v>-0.004678136155125445</v>
+        <v>-0.006228622862286228</v>
       </c>
       <c r="I13">
-        <v>-0.004888350915534036</v>
+        <v>0.008148814881488147</v>
       </c>
       <c r="J13">
-        <v>0.003817273043442371</v>
+        <v>0.003048304830483048</v>
       </c>
       <c r="K13">
-        <v>0.02084205366568214</v>
+        <v>-0.1865946594659466</v>
       </c>
       <c r="L13">
-        <v>-0.01973799458151978</v>
+        <v>-0.04085208520852084</v>
       </c>
       <c r="M13">
-        <v>-0.01003870331354813</v>
+        <v>0.04466846684668466</v>
       </c>
       <c r="N13">
-        <v>0.01675726454229058</v>
+        <v>-0.04546054605460545</v>
       </c>
       <c r="P13">
-        <v>0.008359625422385015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>-0.07288328832883288</v>
+      </c>
+      <c r="Q13">
+        <v>0.008568856885688569</v>
+      </c>
+      <c r="R13">
+        <v>0.008568856885688569</v>
+      </c>
+      <c r="S13">
+        <v>0.008568856885688569</v>
+      </c>
+      <c r="T13">
+        <v>-0.07155115511551155</v>
+      </c>
+      <c r="U13">
+        <v>-0.07155115511551155</v>
+      </c>
+      <c r="V13">
+        <v>-0.07155115511551155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>-0.03314768561390742</v>
+        <v>-0.0135013501350135</v>
       </c>
       <c r="D14">
-        <v>0.009528843069153721</v>
+        <v>0.1707290729072907</v>
       </c>
       <c r="E14">
-        <v>-0.008931658437266336</v>
+        <v>-0.1792739273927393</v>
       </c>
       <c r="F14">
-        <v>0.008844970049798801</v>
+        <v>0.1815181518151815</v>
       </c>
       <c r="H14">
-        <v>0.005078281931131277</v>
+        <v>0.1818061806180618</v>
       </c>
       <c r="I14">
-        <v>-0.009953175374127014</v>
+        <v>0.1162676267626763</v>
       </c>
       <c r="J14">
-        <v>-0.01851554275837863</v>
+        <v>-0.1376417641764176</v>
       </c>
       <c r="K14">
-        <v>-0.04953738226949529</v>
+        <v>-0.1672727272727273</v>
       </c>
       <c r="L14">
-        <v>0.009346858741874348</v>
+        <v>-0.0168016801680168</v>
       </c>
       <c r="M14">
-        <v>0.003721424884856995</v>
+        <v>-0.246084608460846</v>
       </c>
       <c r="N14">
-        <v>-0.01239709364788374</v>
+        <v>-0.1323252325232523</v>
       </c>
       <c r="P14">
-        <v>-0.008565392598615702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>-0.0615061506150615</v>
+      </c>
+      <c r="Q14">
+        <v>-0.1246564656465646</v>
+      </c>
+      <c r="R14">
+        <v>-0.1246564656465646</v>
+      </c>
+      <c r="S14">
+        <v>-0.1246564656465646</v>
+      </c>
+      <c r="T14">
+        <v>0.1236963696369637</v>
+      </c>
+      <c r="U14">
+        <v>0.1236963696369637</v>
+      </c>
+      <c r="V14">
+        <v>0.1236963696369637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>-0.01273351356534054</v>
+        <v>-0.1078547854785478</v>
       </c>
       <c r="D15">
-        <v>-0.01356096217443849</v>
+        <v>-0.1850585058505851</v>
       </c>
       <c r="E15">
-        <v>0.0159225350049014</v>
+        <v>0.1861146114611461</v>
       </c>
       <c r="F15">
-        <v>-0.01690679779627191</v>
+        <v>-0.1864146414641464</v>
       </c>
       <c r="H15">
-        <v>-0.01114052454162098</v>
+        <v>-0.1361776177617761</v>
       </c>
       <c r="I15">
-        <v>-0.007891357275654291</v>
+        <v>-0.04128412841284127</v>
       </c>
       <c r="J15">
-        <v>0.003098837713670163</v>
+        <v>0.02347434743474347</v>
       </c>
       <c r="K15">
-        <v>0.01672236873289475</v>
+        <v>-0.01662166216621662</v>
       </c>
       <c r="L15">
-        <v>0.01568423697936948</v>
+        <v>0.0122052205220522</v>
       </c>
       <c r="M15">
-        <v>-0.01968204539528181</v>
+        <v>0.05029702970297029</v>
       </c>
       <c r="N15">
-        <v>0.01089342792373712</v>
+        <v>0.1973357335733573</v>
       </c>
       <c r="P15">
-        <v>0.00869598476383939</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0.1755055505550555</v>
+      </c>
+      <c r="Q15">
+        <v>0.117971797179718</v>
+      </c>
+      <c r="R15">
+        <v>0.117971797179718</v>
+      </c>
+      <c r="S15">
+        <v>0.117971797179718</v>
+      </c>
+      <c r="T15">
+        <v>-0.1914791479147915</v>
+      </c>
+      <c r="U15">
+        <v>-0.1914791479147915</v>
+      </c>
+      <c r="V15">
+        <v>-0.1914791479147915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>-0.003794975383799015</v>
+        <v>0.1398379837983798</v>
       </c>
       <c r="D16">
-        <v>0.00895516826220673</v>
+        <v>-0.08862886288628861</v>
       </c>
       <c r="E16">
-        <v>-0.008055754690230187</v>
+        <v>0.116003600360036</v>
       </c>
       <c r="F16">
-        <v>0.007534610221384408</v>
+        <v>-0.1057305730573057</v>
       </c>
       <c r="H16">
-        <v>0.009300610548024422</v>
+        <v>0.1446264626462646</v>
       </c>
       <c r="I16">
-        <v>0.008303432108137283</v>
+        <v>0.2248784878487848</v>
       </c>
       <c r="J16">
-        <v>0.002848652101909438</v>
+        <v>-0.08943294329432942</v>
       </c>
       <c r="K16">
-        <v>-0.01344235282569411</v>
+        <v>0.1552355235523552</v>
       </c>
       <c r="L16">
-        <v>0.002966714902668596</v>
+        <v>0.1159555955595559</v>
       </c>
       <c r="M16">
-        <v>-0.02864337656973506</v>
+        <v>-0.06773477347734773</v>
       </c>
       <c r="N16">
-        <v>-0.001187699471507979</v>
+        <v>0.02659465946594659</v>
       </c>
       <c r="P16">
-        <v>-0.004168176742727069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>0.1868946894689469</v>
+      </c>
+      <c r="Q16">
+        <v>0.1294209420942094</v>
+      </c>
+      <c r="R16">
+        <v>0.1294209420942094</v>
+      </c>
+      <c r="S16">
+        <v>0.1294209420942094</v>
+      </c>
+      <c r="T16">
+        <v>0.1226282628262826</v>
+      </c>
+      <c r="U16">
+        <v>0.1226282628262826</v>
+      </c>
+      <c r="V16">
+        <v>0.1226282628262826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>0.002837106161484246</v>
+        <v>-0.0318031803180318</v>
       </c>
       <c r="D17">
-        <v>-0.002627875209115008</v>
+        <v>0.1002340234023402</v>
       </c>
       <c r="E17">
-        <v>-0.002788225647529025</v>
+        <v>-0.1284248424842484</v>
       </c>
       <c r="F17">
-        <v>0.005552310942092437</v>
+        <v>0.1473147314731473</v>
       </c>
       <c r="H17">
-        <v>0.008214334024573359</v>
+        <v>0.1762736273627362</v>
       </c>
       <c r="I17">
-        <v>0.005896042603841703</v>
+        <v>0.09747374737473745</v>
       </c>
       <c r="J17">
-        <v>0.02384073836870543</v>
+        <v>0.02379837983798379</v>
       </c>
       <c r="K17">
-        <v>-0.004641587129663484</v>
+        <v>-0.327056705670567</v>
       </c>
       <c r="L17">
-        <v>-0.02118554983942199</v>
+        <v>-0.09261326132613261</v>
       </c>
       <c r="M17">
-        <v>-0.006069029234761169</v>
+        <v>-0.008748874887488748</v>
       </c>
       <c r="N17">
-        <v>0.0225647949505918</v>
+        <v>-0.03344734473447344</v>
       </c>
       <c r="P17">
-        <v>0.01141278218451129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>-0.002964296429642964</v>
+      </c>
+      <c r="Q17">
+        <v>-0.1407740774077408</v>
+      </c>
+      <c r="R17">
+        <v>-0.1407740774077408</v>
+      </c>
+      <c r="S17">
+        <v>-0.1407740774077408</v>
+      </c>
+      <c r="T17">
+        <v>0.03828382838283827</v>
+      </c>
+      <c r="U17">
+        <v>0.03828382838283827</v>
+      </c>
+      <c r="V17">
+        <v>0.03828382838283827</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>-0.0009705362308214491</v>
+        <v>-0.05344134413441344</v>
       </c>
       <c r="D18">
-        <v>-0.01706006535440261</v>
+        <v>-0.05052505250525052</v>
       </c>
       <c r="E18">
-        <v>0.01599774803190992</v>
+        <v>0.03581158115811581</v>
       </c>
       <c r="F18">
-        <v>-0.01415759739830389</v>
+        <v>-0.03948394839483947</v>
       </c>
       <c r="H18">
-        <v>-0.003648961969958478</v>
+        <v>-0.001212121212121212</v>
       </c>
       <c r="I18">
-        <v>-0.0002331010653240426</v>
+        <v>0.01243324332433243</v>
       </c>
       <c r="J18">
-        <v>-0.0003549426886851459</v>
+        <v>0.1097029702970297</v>
       </c>
       <c r="K18">
-        <v>-0.004633281881331274</v>
+        <v>0.1783258325832583</v>
       </c>
       <c r="L18">
-        <v>-0.00848122353924894</v>
+        <v>-0.08469246924692468</v>
       </c>
       <c r="M18">
-        <v>0.01297574202302968</v>
+        <v>0.07877587758775877</v>
       </c>
       <c r="N18">
-        <v>0.009956057774242308</v>
+        <v>0.07960396039603959</v>
       </c>
       <c r="P18">
-        <v>-0.002658360298334411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>0.06199819981998199</v>
+      </c>
+      <c r="Q18">
+        <v>0.009492949294929493</v>
+      </c>
+      <c r="R18">
+        <v>0.009492949294929493</v>
+      </c>
+      <c r="S18">
+        <v>0.009492949294929493</v>
+      </c>
+      <c r="T18">
+        <v>-0.09603360336033602</v>
+      </c>
+      <c r="U18">
+        <v>-0.09603360336033602</v>
+      </c>
+      <c r="V18">
+        <v>-0.09603360336033602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>0.01547259729090389</v>
+        <v>0.1285568556855685</v>
       </c>
       <c r="D19">
-        <v>0.009385230039409199</v>
+        <v>0.1282328232823282</v>
       </c>
       <c r="E19">
-        <v>-0.008471296850851873</v>
+        <v>-0.1055265526552655</v>
       </c>
       <c r="F19">
-        <v>0.009305197332207893</v>
+        <v>0.09375337533753375</v>
       </c>
       <c r="H19">
-        <v>0.003473547978941919</v>
+        <v>0.00822082208220822</v>
       </c>
       <c r="I19">
-        <v>0.002854861554194462</v>
+        <v>0.01947794779477947</v>
       </c>
       <c r="J19">
-        <v>-0.007211158850982156</v>
+        <v>-0.1369216921692169</v>
       </c>
       <c r="K19">
-        <v>0.003991592415663696</v>
+        <v>0.154071407140714</v>
       </c>
       <c r="L19">
-        <v>0.006570811654832465</v>
+        <v>0.1627002700270027</v>
       </c>
       <c r="M19">
-        <v>-0.02442520331300813</v>
+        <v>-0.1504830483048305</v>
       </c>
       <c r="N19">
-        <v>0.003259469602378784</v>
+        <v>-0.175013501350135</v>
       </c>
       <c r="P19">
-        <v>-0.007108352348334093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>-0.1326492649264926</v>
+      </c>
+      <c r="Q19">
+        <v>-0.08188418841884189</v>
+      </c>
+      <c r="R19">
+        <v>-0.08188418841884189</v>
+      </c>
+      <c r="S19">
+        <v>-0.08188418841884189</v>
+      </c>
+      <c r="T19">
+        <v>-0.01989798979897989</v>
+      </c>
+      <c r="U19">
+        <v>-0.01989798979897989</v>
+      </c>
+      <c r="V19">
+        <v>-0.01989798979897989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>0.003792689623707584</v>
+        <v>-0.05983798379837983</v>
       </c>
       <c r="D20">
-        <v>0.026469925154797</v>
+        <v>0.07804380438043804</v>
       </c>
       <c r="E20">
-        <v>-0.02186299335451973</v>
+        <v>-0.06091809180918091</v>
       </c>
       <c r="F20">
-        <v>0.01796449070257963</v>
+        <v>0.05444944494449444</v>
       </c>
       <c r="H20">
-        <v>-0.0003876987035079481</v>
+        <v>0.07498349834983498</v>
       </c>
       <c r="I20">
-        <v>-0.002026378833055153</v>
+        <v>0.07039903990399039</v>
       </c>
       <c r="J20">
-        <v>0.01407212782950258</v>
+        <v>-0.02976297629762976</v>
       </c>
       <c r="K20">
-        <v>0.007644696113787844</v>
+        <v>-0.1021902190219022</v>
       </c>
       <c r="L20">
-        <v>0.02439585841583433</v>
+        <v>0.05767776777677767</v>
       </c>
       <c r="M20">
-        <v>-0.01598213804728552</v>
+        <v>0.03788778877887788</v>
       </c>
       <c r="N20">
-        <v>-0.01955452964618119</v>
+        <v>0.01551755175517552</v>
       </c>
       <c r="P20">
-        <v>-0.02284600449784017</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>-0.06603060306030602</v>
+      </c>
+      <c r="Q20">
+        <v>-0.01993399339933993</v>
+      </c>
+      <c r="R20">
+        <v>-0.01993399339933993</v>
+      </c>
+      <c r="S20">
+        <v>-0.01993399339933993</v>
+      </c>
+      <c r="T20">
+        <v>0.05674167416741674</v>
+      </c>
+      <c r="U20">
+        <v>0.05674167416741674</v>
+      </c>
+      <c r="V20">
+        <v>0.05674167416741674</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>-0.01891059320442372</v>
+        <v>-0.00786078607860786</v>
       </c>
       <c r="D21">
-        <v>-0.01072038820481553</v>
+        <v>0.03029102910291029</v>
       </c>
       <c r="E21">
-        <v>0.007382084455283378</v>
+        <v>-0.02731473147314731</v>
       </c>
       <c r="F21">
-        <v>-0.005726542885061714</v>
+        <v>0.01686168616861686</v>
       </c>
       <c r="H21">
-        <v>-5.145609805824391E-05</v>
+        <v>0.1478787878787879</v>
       </c>
       <c r="I21">
-        <v>0.003556671886266875</v>
+        <v>0.1648244824482448</v>
       </c>
       <c r="J21">
-        <v>-0.008706709609285006</v>
+        <v>-0.01784578457845784</v>
       </c>
       <c r="K21">
-        <v>0.001835216233408649</v>
+        <v>0.072007200720072</v>
       </c>
       <c r="L21">
-        <v>-0.01100693410427736</v>
+        <v>0.005448544854485448</v>
       </c>
       <c r="M21">
-        <v>-0.006121046068841843</v>
+        <v>0.1023822382238224</v>
       </c>
       <c r="N21">
-        <v>-0.0006395785215831407</v>
+        <v>0.0294989498949895</v>
       </c>
       <c r="P21">
-        <v>0.01718759300750372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>-0.0654065406540654</v>
+      </c>
+      <c r="Q21">
+        <v>-0.02983498349834983</v>
+      </c>
+      <c r="R21">
+        <v>-0.02983498349834983</v>
+      </c>
+      <c r="S21">
+        <v>-0.02983498349834983</v>
+      </c>
+      <c r="T21">
+        <v>-0.01688568856885688</v>
+      </c>
+      <c r="U21">
+        <v>-0.01688568856885688</v>
+      </c>
+      <c r="V21">
+        <v>-0.01688568856885688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>-0.02893551360542054</v>
+        <v>-0.0485088508850885</v>
       </c>
       <c r="D22">
-        <v>-0.008189237415569494</v>
+        <v>0.008196819681968196</v>
       </c>
       <c r="E22">
-        <v>0.002952239158089566</v>
+        <v>-0.01526552655265526</v>
       </c>
       <c r="F22">
-        <v>-0.001649700641988025</v>
+        <v>0.001188118811881188</v>
       </c>
       <c r="H22">
-        <v>-0.0116810827072433</v>
+        <v>-0.04506450645064506</v>
       </c>
       <c r="I22">
-        <v>-0.01086898229075929</v>
+        <v>-0.01126912691269127</v>
       </c>
       <c r="J22">
-        <v>-0.00579034184019239</v>
+        <v>0.1338013801380138</v>
       </c>
       <c r="K22">
-        <v>-0.009569348638773945</v>
+        <v>-0.03804380438043804</v>
       </c>
       <c r="L22">
-        <v>-0.008789841375593655</v>
+        <v>0.0462046204620462</v>
       </c>
       <c r="M22">
-        <v>0.006923856564954261</v>
+        <v>-0.1096309630963096</v>
       </c>
       <c r="N22">
-        <v>-0.01792136654085466</v>
+        <v>0.02333033303330333</v>
       </c>
       <c r="P22">
-        <v>0.0008676124187044968</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>-0.03021902190219022</v>
+      </c>
+      <c r="Q22">
+        <v>-0.02661866186618661</v>
+      </c>
+      <c r="R22">
+        <v>-0.02661866186618661</v>
+      </c>
+      <c r="S22">
+        <v>-0.02661866186618661</v>
+      </c>
+      <c r="T22">
+        <v>-0.1092109210921092</v>
+      </c>
+      <c r="U22">
+        <v>-0.1092109210921092</v>
+      </c>
+      <c r="V22">
+        <v>-0.1092109210921092</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>-0.007680597331223892</v>
+        <v>-0.02144614461446144</v>
       </c>
       <c r="D23">
-        <v>0.0006991589079663563</v>
+        <v>-0.1038463846384638</v>
       </c>
       <c r="E23">
-        <v>-0.005133366445334657</v>
+        <v>0.1069306930693069</v>
       </c>
       <c r="F23">
-        <v>0.007576976847079074</v>
+        <v>-0.1161716171617162</v>
       </c>
       <c r="H23">
-        <v>-0.009715356676614266</v>
+        <v>-0.007620762076207619</v>
       </c>
       <c r="I23">
-        <v>-0.01179273109570924</v>
+        <v>0.03677167716771677</v>
       </c>
       <c r="J23">
-        <v>0.0142969770720723</v>
+        <v>-0.006012601260126013</v>
       </c>
       <c r="K23">
-        <v>-0.01388777076351083</v>
+        <v>-0.07102310231023101</v>
       </c>
       <c r="L23">
-        <v>-0.02049908165196326</v>
+        <v>-0.0008400840084008401</v>
       </c>
       <c r="M23">
-        <v>0.003621463824858552</v>
+        <v>-0.04516051605160516</v>
       </c>
       <c r="N23">
-        <v>0.009216980624679223</v>
+        <v>0.09795379537953795</v>
       </c>
       <c r="P23">
-        <v>-0.005867042250681689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>0.1513231323132313</v>
+      </c>
+      <c r="Q23">
+        <v>0.1381938193819382</v>
+      </c>
+      <c r="R23">
+        <v>0.1381938193819382</v>
+      </c>
+      <c r="S23">
+        <v>0.1381938193819382</v>
+      </c>
+      <c r="T23">
+        <v>0.1217281728172817</v>
+      </c>
+      <c r="U23">
+        <v>0.1217281728172817</v>
+      </c>
+      <c r="V23">
+        <v>0.1217281728172817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>0.004454653330186133</v>
+        <v>-0.163000300030003</v>
       </c>
       <c r="D24">
-        <v>0.007464518794580751</v>
+        <v>-0.16001200120012</v>
       </c>
       <c r="E24">
-        <v>-0.008619279224771167</v>
+        <v>0.1548514851485148</v>
       </c>
       <c r="F24">
-        <v>0.00885132649805306</v>
+        <v>-0.135061506150615</v>
       </c>
       <c r="H24">
-        <v>0.01133526880541075</v>
+        <v>-0.1907110711071107</v>
       </c>
       <c r="I24">
-        <v>0.01310582932423317</v>
+        <v>-0.1768616861686169</v>
       </c>
       <c r="J24">
-        <v>0.002326457725362125</v>
+        <v>0.05225322532253225</v>
       </c>
       <c r="K24">
-        <v>0.01855403287016131</v>
+        <v>-0.06303030303030302</v>
       </c>
       <c r="L24">
-        <v>-0.0009056041322241653</v>
+        <v>-0.07175517551755174</v>
       </c>
       <c r="M24">
-        <v>-0.01352506566100262</v>
+        <v>0.2248664866486648</v>
       </c>
       <c r="N24">
-        <v>-0.005045702793828112</v>
+        <v>0.07134713471347134</v>
       </c>
       <c r="P24">
-        <v>-0.009096925611877024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>0.01146114611461146</v>
+      </c>
+      <c r="Q24">
+        <v>0.1395019501950195</v>
+      </c>
+      <c r="R24">
+        <v>0.1395019501950195</v>
+      </c>
+      <c r="S24">
+        <v>0.1395019501950195</v>
+      </c>
+      <c r="T24">
+        <v>0.03177917791779178</v>
+      </c>
+      <c r="U24">
+        <v>0.03177917791779178</v>
+      </c>
+      <c r="V24">
+        <v>0.03177917791779178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>-0.00144888024995521</v>
+        <v>-0.09686168616861685</v>
       </c>
       <c r="D25">
-        <v>-0.01688186390727455</v>
+        <v>-0.1727452745274527</v>
       </c>
       <c r="E25">
-        <v>0.01380366544814661</v>
+        <v>0.1276807680768077</v>
       </c>
       <c r="F25">
-        <v>-0.01243735220949409</v>
+        <v>-0.1046864686468647</v>
       </c>
       <c r="H25">
-        <v>0.01092171576486863</v>
+        <v>-0.05648964896489648</v>
       </c>
       <c r="I25">
-        <v>0.01985164889006595</v>
+        <v>-0.03613561356135613</v>
       </c>
       <c r="J25">
-        <v>-0.01212577732200854</v>
+        <v>0.2248304830483048</v>
       </c>
       <c r="K25">
-        <v>-0.01482193652887746</v>
+        <v>0.03435943594359436</v>
       </c>
       <c r="L25">
-        <v>-0.02284800235392009</v>
+        <v>-0.1972277227722772</v>
       </c>
       <c r="M25">
-        <v>-0.006229911801196471</v>
+        <v>0.05576957695769576</v>
       </c>
       <c r="N25">
-        <v>0.008652456250098249</v>
+        <v>0.3052505250525052</v>
       </c>
       <c r="P25">
-        <v>0.02304204994568199</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>0.05706570657065705</v>
+      </c>
+      <c r="Q25">
+        <v>0.08298829882988298</v>
+      </c>
+      <c r="R25">
+        <v>0.08298829882988298</v>
+      </c>
+      <c r="S25">
+        <v>0.08298829882988298</v>
+      </c>
+      <c r="T25">
+        <v>0.09813381338133811</v>
+      </c>
+      <c r="U25">
+        <v>0.09813381338133811</v>
+      </c>
+      <c r="V25">
+        <v>0.09813381338133811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>0.01347383871495355</v>
+        <v>0.1468826882688269</v>
       </c>
       <c r="D26">
-        <v>-0.0004943375237735009</v>
+        <v>0.08117611761176118</v>
       </c>
       <c r="E26">
-        <v>0.003122875228915009</v>
+        <v>-0.05092109210921092</v>
       </c>
       <c r="F26">
-        <v>-0.003548037741921509</v>
+        <v>0.04717671767176718</v>
       </c>
       <c r="H26">
-        <v>0.008098681955947278</v>
+        <v>0.03525952595259525</v>
       </c>
       <c r="I26">
-        <v>0.01161479844859194</v>
+        <v>0.03127512751275127</v>
       </c>
       <c r="J26">
-        <v>-0.01403494779575483</v>
+        <v>-0.146018601860186</v>
       </c>
       <c r="K26">
-        <v>-0.02092814166912567</v>
+        <v>0.08366036603660365</v>
       </c>
       <c r="L26">
-        <v>0.01128409888336395</v>
+        <v>0.09791779177917791</v>
       </c>
       <c r="M26">
-        <v>-0.003331732741269309</v>
+        <v>-0.01284128412841284</v>
       </c>
       <c r="N26">
-        <v>-0.009361067510442697</v>
+        <v>-0.0814161416141614</v>
       </c>
       <c r="P26">
-        <v>-0.003903241884129675</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>-0.0527092709270927</v>
+      </c>
+      <c r="Q26">
+        <v>-0.04686468646864686</v>
+      </c>
+      <c r="R26">
+        <v>-0.04686468646864686</v>
+      </c>
+      <c r="S26">
+        <v>-0.04686468646864686</v>
+      </c>
+      <c r="T26">
+        <v>-0.0347074707470747</v>
+      </c>
+      <c r="U26">
+        <v>-0.0347074707470747</v>
+      </c>
+      <c r="V26">
+        <v>-0.0347074707470747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>-0.02238072655922906</v>
+        <v>-0.1802820282028203</v>
       </c>
       <c r="D27">
-        <v>-0.05559355873574235</v>
+        <v>-0.07331533153315331</v>
       </c>
       <c r="E27">
-        <v>0.01408764670750587</v>
+        <v>0.03079507950795079</v>
       </c>
       <c r="F27">
-        <v>0.01001646097665844</v>
+        <v>-0.02676267626762676</v>
       </c>
       <c r="H27">
-        <v>-0.01902192402487696</v>
+        <v>-0.1394779477947795</v>
       </c>
       <c r="I27">
-        <v>-0.0217181802287272</v>
+        <v>-0.1595679567956796</v>
       </c>
       <c r="J27">
-        <v>0.01836880391948074</v>
+        <v>0.1576957695769577</v>
       </c>
       <c r="K27">
-        <v>-0.05241845595273823</v>
+        <v>-0.06180618061806181</v>
       </c>
       <c r="L27">
-        <v>-0.2502081143283246</v>
+        <v>-0.1918031803180318</v>
       </c>
       <c r="M27">
-        <v>0.9915924686556985</v>
+        <v>0.9918991899189917</v>
       </c>
       <c r="N27">
-        <v>0.07783277879331113</v>
+        <v>0.007020702070207019</v>
       </c>
       <c r="P27">
-        <v>0.008294863723794546</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>-0.01555355535553555</v>
+      </c>
+      <c r="Q27">
+        <v>0.009036903690369035</v>
+      </c>
+      <c r="R27">
+        <v>0.009036903690369035</v>
+      </c>
+      <c r="S27">
+        <v>0.009036903690369035</v>
+      </c>
+      <c r="T27">
+        <v>0.03251125112511251</v>
+      </c>
+      <c r="U27">
+        <v>0.03251125112511251</v>
+      </c>
+      <c r="V27">
+        <v>0.03251125112511251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>-0.007313872132554885</v>
+        <v>-0.007356735673567355</v>
       </c>
       <c r="D28">
-        <v>0.007420154504806179</v>
+        <v>-0.0423042304230423</v>
       </c>
       <c r="E28">
-        <v>-0.005680523171220926</v>
+        <v>0.05362136213621362</v>
       </c>
       <c r="F28">
-        <v>0.005603795264151811</v>
+        <v>-0.07275127512751274</v>
       </c>
       <c r="H28">
-        <v>0.01453919184556767</v>
+        <v>0.05809780978097809</v>
       </c>
       <c r="I28">
-        <v>0.008258797386351895</v>
+        <v>0.07170717071707169</v>
       </c>
       <c r="J28">
-        <v>-0.02373492764373148</v>
+        <v>0.03132313231323132</v>
       </c>
       <c r="K28">
-        <v>0.004246670761866829</v>
+        <v>-0.2019681968196819</v>
       </c>
       <c r="L28">
-        <v>0.00627077900283116</v>
+        <v>0.1303570357035704</v>
       </c>
       <c r="M28">
-        <v>0.0160673300826932</v>
+        <v>-0.07336333633363336</v>
       </c>
       <c r="N28">
-        <v>-0.007346856965874277</v>
+        <v>0.01461746174617462</v>
       </c>
       <c r="P28">
-        <v>-0.007701839252073569</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>0.1664086408640864</v>
+      </c>
+      <c r="Q28">
+        <v>0.08235223522352234</v>
+      </c>
+      <c r="R28">
+        <v>0.08235223522352234</v>
+      </c>
+      <c r="S28">
+        <v>0.08235223522352234</v>
+      </c>
+      <c r="T28">
+        <v>-0.005592559255925592</v>
+      </c>
+      <c r="U28">
+        <v>-0.005592559255925592</v>
+      </c>
+      <c r="V28">
+        <v>-0.005592559255925592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>0.0003657182546287301</v>
+        <v>0.0294989498949895</v>
       </c>
       <c r="D29">
-        <v>0.007649970545998821</v>
+        <v>0.07201920192019201</v>
       </c>
       <c r="E29">
-        <v>0.001732371333294853</v>
+        <v>-0.07741974197419742</v>
       </c>
       <c r="F29">
-        <v>-0.003097271835890873</v>
+        <v>0.06887488748874887</v>
       </c>
       <c r="H29">
-        <v>-0.005177095695083827</v>
+        <v>-0.01852985298529853</v>
       </c>
       <c r="I29">
-        <v>-0.008030665089226603</v>
+        <v>-0.09708970897089708</v>
       </c>
       <c r="J29">
-        <v>-0.09275505244022951</v>
+        <v>-0.05702970297029702</v>
       </c>
       <c r="K29">
-        <v>-0.01157285537491421</v>
+        <v>0.04296429642964296</v>
       </c>
       <c r="L29">
-        <v>0.03910182079607283</v>
+        <v>0.05975397539753975</v>
       </c>
       <c r="M29">
-        <v>0.09576528440661136</v>
+        <v>0.3151395139513951</v>
       </c>
       <c r="N29">
-        <v>-0.01248424581136983</v>
+        <v>-0.05464146414641464</v>
       </c>
       <c r="P29">
-        <v>-0.007668716754748669</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>-0.1322532253225322</v>
+      </c>
+      <c r="Q29">
+        <v>-0.07809180918091808</v>
+      </c>
+      <c r="R29">
+        <v>-0.07809180918091808</v>
+      </c>
+      <c r="S29">
+        <v>-0.07809180918091808</v>
+      </c>
+      <c r="T29">
+        <v>-0.03077107710771076</v>
+      </c>
+      <c r="U29">
+        <v>-0.03077107710771076</v>
+      </c>
+      <c r="V29">
+        <v>-0.03077107710771076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>0.01138516048740642</v>
+        <v>0.05328532853285328</v>
       </c>
       <c r="D30">
-        <v>0.008151606374064254</v>
+        <v>-0.06390639063906389</v>
       </c>
       <c r="E30">
-        <v>-0.00341482900059316</v>
+        <v>0.1064866486648665</v>
       </c>
       <c r="F30">
-        <v>0.0004628637305145491</v>
+        <v>-0.1387938793879388</v>
       </c>
       <c r="H30">
-        <v>0.003151278846051153</v>
+        <v>0.01852985298529853</v>
       </c>
       <c r="I30">
-        <v>0.003067178618687144</v>
+        <v>0.04447644764476447</v>
       </c>
       <c r="J30">
-        <v>-0.001645692749360725</v>
+        <v>0.07865586558655864</v>
       </c>
       <c r="K30">
-        <v>-0.003150114174004566</v>
+        <v>0.1442184218421842</v>
       </c>
       <c r="L30">
-        <v>0.02453575854943034</v>
+        <v>0.1094389438943894</v>
       </c>
       <c r="M30">
-        <v>0.00476188799847552</v>
+        <v>-0.09652565256525653</v>
       </c>
       <c r="N30">
-        <v>-0.00114505550180222</v>
+        <v>0.01905790579057906</v>
       </c>
       <c r="P30">
-        <v>-0.00501311799252472</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>0.176045604560456</v>
+      </c>
+      <c r="Q30">
+        <v>0.1437503750375037</v>
+      </c>
+      <c r="R30">
+        <v>0.1437503750375037</v>
+      </c>
+      <c r="S30">
+        <v>0.1437503750375037</v>
+      </c>
+      <c r="T30">
+        <v>0.03899189918991899</v>
+      </c>
+      <c r="U30">
+        <v>0.03899189918991899</v>
+      </c>
+      <c r="V30">
+        <v>0.03899189918991899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>0.4985801340232052</v>
+        <v>0.5428022802280228</v>
       </c>
       <c r="D31">
-        <v>0.9781560133022404</v>
+        <v>0.9751935193519351</v>
       </c>
       <c r="E31">
-        <v>-0.9999576087023043</v>
+        <v>-0.9999759975997599</v>
       </c>
       <c r="F31">
-        <v>0.9936801386912053</v>
+        <v>0.9915511551155114</v>
       </c>
       <c r="H31">
-        <v>0.4176805173152207</v>
+        <v>0.4704110411041104</v>
       </c>
       <c r="I31">
-        <v>0.01505415967416639</v>
+        <v>0.1172757275727573</v>
       </c>
       <c r="J31">
-        <v>0.03407707753789526</v>
+        <v>-0.282040204020402</v>
       </c>
       <c r="K31">
-        <v>-0.1049396579255863</v>
+        <v>-0.08344434443444343</v>
       </c>
       <c r="L31">
-        <v>0.001451330458053218</v>
+        <v>-0.003156315631563156</v>
       </c>
       <c r="M31">
-        <v>-0.007125054141002164</v>
+        <v>-0.02418241824182418</v>
       </c>
       <c r="N31">
-        <v>-0.5227084606843383</v>
+        <v>-0.5494509450945094</v>
       </c>
       <c r="P31">
-        <v>-0.7082123649684945</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>-0.6887608760876087</v>
+      </c>
+      <c r="Q31">
+        <v>-0.9518871887188718</v>
+      </c>
+      <c r="R31">
+        <v>-0.9518871887188718</v>
+      </c>
+      <c r="S31">
+        <v>-0.9518871887188718</v>
+      </c>
+      <c r="T31">
+        <v>-0.2615421542154215</v>
+      </c>
+      <c r="U31">
+        <v>-0.2615421542154215</v>
+      </c>
+      <c r="V31">
+        <v>-0.2615421542154215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>0.01007833105913324</v>
+        <v>0.1072187218721872</v>
       </c>
       <c r="D32">
-        <v>0.008363538094541522</v>
+        <v>0.08027602760276026</v>
       </c>
       <c r="E32">
-        <v>-0.008252394570095783</v>
+        <v>-0.09377737773777377</v>
       </c>
       <c r="F32">
-        <v>0.008222533192901326</v>
+        <v>0.08703270327032701</v>
       </c>
       <c r="H32">
-        <v>0.005052086698083467</v>
+        <v>0.03261926192619262</v>
       </c>
       <c r="I32">
-        <v>0.00375449650217986</v>
+        <v>0.04094809480948094</v>
       </c>
       <c r="J32">
-        <v>-0.006654492024814362</v>
+        <v>0.09867386738673865</v>
       </c>
       <c r="K32">
-        <v>-0.017998400015936</v>
+        <v>0.1095589558955895</v>
       </c>
       <c r="L32">
-        <v>0.002056988338279533</v>
+        <v>0.05761776177617762</v>
       </c>
       <c r="M32">
-        <v>0.006495224419808976</v>
+        <v>0.03991599159915991</v>
       </c>
       <c r="N32">
-        <v>-0.02129723566788942</v>
+        <v>-0.08178817881788178</v>
       </c>
       <c r="P32">
-        <v>-0.01292116582884663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>-0.06567056705670567</v>
+      </c>
+      <c r="Q32">
+        <v>-0.08175217521752175</v>
+      </c>
+      <c r="R32">
+        <v>-0.08175217521752175</v>
+      </c>
+      <c r="S32">
+        <v>-0.08175217521752175</v>
+      </c>
+      <c r="T32">
+        <v>-0.08639663966396638</v>
+      </c>
+      <c r="U32">
+        <v>-0.08639663966396638</v>
+      </c>
+      <c r="V32">
+        <v>-0.08639663966396638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>-0.00458216149528646</v>
+        <v>-0.1412661266126613</v>
       </c>
       <c r="D33">
-        <v>-0.001061815626472625</v>
+        <v>-0.08043204320432043</v>
       </c>
       <c r="E33">
-        <v>-0.00130981176439247</v>
+        <v>0.1062706270627063</v>
       </c>
       <c r="F33">
-        <v>0.0009598438463937537</v>
+        <v>-0.1238163816381638</v>
       </c>
       <c r="H33">
-        <v>-0.005968247086729883</v>
+        <v>-0.2618541854185418</v>
       </c>
       <c r="I33">
-        <v>-0.00460812575232503</v>
+        <v>-0.1809780978097809</v>
       </c>
       <c r="J33">
-        <v>-0.1007979845143117</v>
+        <v>-0.05767776777677767</v>
       </c>
       <c r="K33">
-        <v>-0.01279766959990678</v>
+        <v>-0.01417341734173417</v>
       </c>
       <c r="L33">
-        <v>-0.01786984919479397</v>
+        <v>0.1447344734473447</v>
       </c>
       <c r="M33">
-        <v>0.00821038775241551</v>
+        <v>0.1550915091509151</v>
       </c>
       <c r="N33">
-        <v>-0.006590162663606505</v>
+        <v>-0.05248124812481247</v>
       </c>
       <c r="P33">
-        <v>-0.01608536809941472</v>
+        <v>0.06057005700570057</v>
+      </c>
+      <c r="Q33">
+        <v>0.09790579057905789</v>
+      </c>
+      <c r="R33">
+        <v>0.09790579057905789</v>
+      </c>
+      <c r="S33">
+        <v>0.09790579057905789</v>
+      </c>
+      <c r="T33">
+        <v>-0.1682448244824482</v>
+      </c>
+      <c r="U33">
+        <v>-0.1682448244824482</v>
+      </c>
+      <c r="V33">
+        <v>-0.1682448244824482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>0.1596399639963996</v>
+      </c>
+      <c r="D34">
+        <v>0.09278127812781277</v>
+      </c>
+      <c r="E34">
+        <v>-0.1223042304230423</v>
+      </c>
+      <c r="F34">
+        <v>0.1358055805580558</v>
+      </c>
+      <c r="H34">
+        <v>0.2821602160216021</v>
+      </c>
+      <c r="I34">
+        <v>0.2303030303030303</v>
+      </c>
+      <c r="J34">
+        <v>-0.01141314131413141</v>
+      </c>
+      <c r="K34">
+        <v>-0.06834683468346835</v>
+      </c>
+      <c r="L34">
+        <v>-0.1069546954695469</v>
+      </c>
+      <c r="M34">
+        <v>0.0144014401440144</v>
+      </c>
+      <c r="N34">
+        <v>-0.0529132913291329</v>
+      </c>
+      <c r="P34">
+        <v>0.06457845784578457</v>
+      </c>
+      <c r="Q34">
+        <v>0.05251725172517251</v>
+      </c>
+      <c r="R34">
+        <v>0.05251725172517251</v>
+      </c>
+      <c r="S34">
+        <v>0.05251725172517251</v>
+      </c>
+      <c r="T34">
+        <v>0.9159075907590758</v>
+      </c>
+      <c r="U34">
+        <v>0.9159075907590758</v>
+      </c>
+      <c r="V34">
+        <v>0.9159075907590758</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2489648964896489</v>
+        <v>-0.2474287428742874</v>
       </c>
       <c r="D4" t="n">
         <v>-0.06820282028202819</v>
@@ -757,7 +757,7 @@
         <v>-0.6195019501950195</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06058205820582058</v>
+        <v>-0.06125412541254125</v>
       </c>
       <c r="S4" t="n">
         <v>0.09882988298829883</v>
@@ -766,7 +766,7 @@
         <v>0.9934233423342332</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1951875187518751</v>
+        <v>0.1963876387638764</v>
       </c>
       <c r="V4" t="n">
         <v>0.1714971497149715</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0443084308430843</v>
+        <v>0.0453045304530453</v>
       </c>
       <c r="D5" t="n">
         <v>0.198043804380438</v>
@@ -837,7 +837,7 @@
         <v>0.6057245724572456</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0836003600360036</v>
+        <v>0.08278427842784276</v>
       </c>
       <c r="S5" t="n">
         <v>-0.276999699969997</v>
@@ -846,7 +846,7 @@
         <v>0.1455625562556256</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1703090309030903</v>
+        <v>-0.169072907290729</v>
       </c>
       <c r="V5" t="n">
         <v>-0.07893189318931894</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1823102310231023</v>
+        <v>0.1835103510351035</v>
       </c>
       <c r="D6" t="n">
         <v>-0.05508550855085508</v>
@@ -917,7 +917,7 @@
         <v>-0.1813381338133813</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.08192019201920191</v>
+        <v>-0.08226822682268227</v>
       </c>
       <c r="S6" t="n">
         <v>-0.04094809480948094</v>
@@ -926,7 +926,7 @@
         <v>0.09995799579957994</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4835043504350435</v>
+        <v>0.4840444044404439</v>
       </c>
       <c r="V6" t="n">
         <v>0.03285928592859286</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4732793279327932</v>
+        <v>0.4736033603360336</v>
       </c>
       <c r="D7" t="n">
         <v>0.04373237323732372</v>
@@ -1001,7 +1001,7 @@
         <v>0.1413501350135013</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.03836783678367837</v>
+        <v>-0.03859585958595859</v>
       </c>
       <c r="S7" t="n">
         <v>0.1483468346834683</v>
@@ -1010,7 +1010,7 @@
         <v>-0.1943474347434744</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.07609960996099609</v>
+        <v>-0.07536753675367537</v>
       </c>
       <c r="V7" t="n">
         <v>-0.1191719171917192</v>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6024722472247224</v>
+        <v>0.6033363336333633</v>
       </c>
       <c r="D8" t="n">
         <v>0.06487848784878487</v>
@@ -1085,7 +1085,7 @@
         <v>-0.01155715571557156</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02106210621062106</v>
+        <v>-0.01940594059405941</v>
       </c>
       <c r="S8" t="n">
         <v>-0.02413441344134413</v>
@@ -1094,7 +1094,7 @@
         <v>-0.0738913891389139</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.02531053105310531</v>
+        <v>-0.02607860786078607</v>
       </c>
       <c r="V8" t="n">
         <v>0.04441644164416441</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1537233723372337</v>
+        <v>0.1523432343234323</v>
       </c>
       <c r="D9" t="n">
         <v>-0.008100810081008099</v>
@@ -1169,7 +1169,7 @@
         <v>-0.01393339333933393</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1794179417941794</v>
+        <v>0.1798979897989799</v>
       </c>
       <c r="S9" t="n">
         <v>0.03614761476147614</v>
@@ -1178,7 +1178,7 @@
         <v>-0.1424422442244224</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08919291929192917</v>
+        <v>0.08855685568556854</v>
       </c>
       <c r="V9" t="n">
         <v>0.003060306030603061</v>
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01826582658265826</v>
+        <v>-0.01911791179117912</v>
       </c>
       <c r="D10" t="n">
         <v>-0.09930993099309929</v>
@@ -1253,7 +1253,7 @@
         <v>0.005928592859285928</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04775277527752775</v>
+        <v>0.04704470447044704</v>
       </c>
       <c r="S10" t="n">
         <v>0.1402940294029403</v>
@@ -1262,7 +1262,7 @@
         <v>0.1325412541254125</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05416141614161415</v>
+        <v>0.05489348934893489</v>
       </c>
       <c r="V10" t="n">
         <v>-0.1407500750075007</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2342754275427542</v>
+        <v>0.2336513651365136</v>
       </c>
       <c r="D11" t="n">
         <v>0.1386738673867387</v>
@@ -1333,7 +1333,7 @@
         <v>-0.00774077407740774</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001536153615361536</v>
+        <v>0.001068106810681068</v>
       </c>
       <c r="S11" t="n">
         <v>-0.05556555655565556</v>
@@ -1342,7 +1342,7 @@
         <v>-0.1449384938493849</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.09666966696669667</v>
+        <v>-0.09644164416441643</v>
       </c>
       <c r="V11" t="n">
         <v>0.09251725172517251</v>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3304890489048904</v>
+        <v>-0.3303810381038104</v>
       </c>
       <c r="D12" t="n">
         <v>0.1301650165016502</v>
@@ -1413,7 +1413,7 @@
         <v>-0.04861686168616861</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.04332433243324332</v>
+        <v>-0.04296429642964296</v>
       </c>
       <c r="S12" t="n">
         <v>-0.09902190219021902</v>
@@ -1422,7 +1422,7 @@
         <v>0.09936993699369936</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.06583858385838583</v>
+        <v>-0.06438643864386438</v>
       </c>
       <c r="V12" t="n">
         <v>0.1299369936993699</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02055805580558056</v>
+        <v>0.02112211221122112</v>
       </c>
       <c r="D13" t="n">
         <v>0.0554095409540954</v>
@@ -1506,7 +1506,7 @@
         <v>0.1738733873387338</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.09728172817281729</v>
+        <v>-0.09773777377737773</v>
       </c>
       <c r="V13" t="n">
         <v>0.2505370537053705</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01137713771377138</v>
+        <v>0.01172517251725172</v>
       </c>
       <c r="D14" t="n">
         <v>0.03223522352235223</v>
@@ -1581,7 +1581,7 @@
         <v>-0.04007200720072007</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.06045004500450044</v>
+        <v>-0.06172217221722172</v>
       </c>
       <c r="S14" t="n">
         <v>0.0515091509150915</v>
@@ -1590,7 +1590,7 @@
         <v>0.05226522652265226</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004776477647764776</v>
+        <v>0.006756675667566756</v>
       </c>
       <c r="V14" t="n">
         <v>0.01755775577557755</v>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1639723972397239</v>
+        <v>-0.1615361536153615</v>
       </c>
       <c r="D15" t="n">
         <v>0.04475247524752475</v>
@@ -1665,7 +1665,7 @@
         <v>-0.003048304830483048</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08385238523852384</v>
+        <v>0.08189618961896189</v>
       </c>
       <c r="S15" t="n">
         <v>-0.07806780678067807</v>
@@ -1674,7 +1674,7 @@
         <v>0.01352535253525352</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1277767776777678</v>
+        <v>-0.1275007500750075</v>
       </c>
       <c r="V15" t="n">
         <v>0.05434143414341434</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01828982898289829</v>
+        <v>0.01658565856585658</v>
       </c>
       <c r="D16" t="n">
         <v>0.05144914491449144</v>
@@ -1749,7 +1749,7 @@
         <v>0.03761176117611761</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.08277227722772276</v>
+        <v>-0.0836843684368437</v>
       </c>
       <c r="S16" t="n">
         <v>0.02886288628862886</v>
@@ -1758,7 +1758,7 @@
         <v>0.01707770777077708</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.03774377437743774</v>
+        <v>-0.036999699969997</v>
       </c>
       <c r="V16" t="n">
         <v>0.03302730273027302</v>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.002508250825082508</v>
+        <v>-0.00312031203120312</v>
       </c>
       <c r="D17" t="n">
         <v>-0.015001500150015</v>
@@ -1829,7 +1829,7 @@
         <v>-0.07663966396639663</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1023582358235823</v>
+        <v>0.1014941494149415</v>
       </c>
       <c r="S17" t="n">
         <v>-0.05782178217821781</v>
@@ -1838,7 +1838,7 @@
         <v>0.1010861086108611</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07031503150315031</v>
+        <v>0.07072307230723072</v>
       </c>
       <c r="V17" t="n">
         <v>0.01447344734473447</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0008880888088808879</v>
+        <v>0.0007080708070807079</v>
       </c>
       <c r="D18" t="n">
         <v>0.02678667866786678</v>
@@ -1913,7 +1913,7 @@
         <v>0.04210021002100209</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.08805280528052804</v>
+        <v>-0.08572457245724571</v>
       </c>
       <c r="S18" t="n">
         <v>0.05761776177617762</v>
@@ -1922,7 +1922,7 @@
         <v>-0.01108910891089109</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03099909990999099</v>
+        <v>0.03078307830783078</v>
       </c>
       <c r="V18" t="n">
         <v>-0.00378037803780378</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1241524152415241</v>
+        <v>-0.1249084908490849</v>
       </c>
       <c r="D19" t="n">
         <v>-0.04709270927092709</v>
@@ -1997,7 +1997,7 @@
         <v>0.002772277227722772</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.1493549354935493</v>
+        <v>-0.1482508250825083</v>
       </c>
       <c r="S19" t="n">
         <v>-0.006228622862286228</v>
@@ -2006,7 +2006,7 @@
         <v>-0.05704170417041704</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00636063606360636</v>
+        <v>0.005316531653165315</v>
       </c>
       <c r="V19" t="n">
         <v>0.01714971497149715</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0285028502850285</v>
+        <v>-0.02886288628862886</v>
       </c>
       <c r="D20" t="n">
         <v>0.04495649564956495</v>
@@ -2077,7 +2077,7 @@
         <v>-0.05615361536153615</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03859585958595859</v>
+        <v>0.03787578757875788</v>
       </c>
       <c r="S20" t="n">
         <v>0.03559555955595559</v>
@@ -2086,7 +2086,7 @@
         <v>0.1847224722472247</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.02303030303030303</v>
+        <v>-0.02241824182418242</v>
       </c>
       <c r="V20" t="n">
         <v>0.02649864986498649</v>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05316531653165316</v>
+        <v>0.05368136813681367</v>
       </c>
       <c r="D21" t="n">
         <v>0.1260726072607261</v>
@@ -2157,7 +2157,7 @@
         <v>0.02347434743474347</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.02675067506750674</v>
+        <v>-0.02603060306030602</v>
       </c>
       <c r="S21" t="n">
         <v>-0.09328532853285328</v>
@@ -2166,7 +2166,7 @@
         <v>0.06294629462946294</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.1177197719771977</v>
+        <v>-0.1188358835883588</v>
       </c>
       <c r="V21" t="n">
         <v>0.05809780978097809</v>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.01468946894689469</v>
+        <v>-0.01494149414941494</v>
       </c>
       <c r="D22" t="n">
         <v>0.03079507950795079</v>
@@ -2237,7 +2237,7 @@
         <v>0.1320852085208521</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01887788778877888</v>
+        <v>0.01968196819681968</v>
       </c>
       <c r="S22" t="n">
         <v>-0.063018301830183</v>
@@ -2246,7 +2246,7 @@
         <v>-0.2078247824782478</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01855385538553855</v>
+        <v>-0.01887788778877888</v>
       </c>
       <c r="V22" t="n">
         <v>-0.04049204920492049</v>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.2382598259825982</v>
+        <v>-0.2393879387938793</v>
       </c>
       <c r="D23" t="n">
         <v>-0.2174977497749774</v>
@@ -2321,7 +2321,7 @@
         <v>-0.1322052205220522</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2644944494449445</v>
+        <v>0.2648544854485448</v>
       </c>
       <c r="S23" t="n">
         <v>0.2057005700570057</v>
@@ -2330,7 +2330,7 @@
         <v>0.09053705370537053</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1502790279027903</v>
+        <v>0.151011101110111</v>
       </c>
       <c r="V23" t="n">
         <v>-0.168076807680768</v>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.008232823282328232</v>
+        <v>0.009288928892889289</v>
       </c>
       <c r="D24" t="n">
         <v>0.05858985898589859</v>
@@ -2401,7 +2401,7 @@
         <v>0.1351575157515751</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08577257725772576</v>
+        <v>0.08693669366936692</v>
       </c>
       <c r="S24" t="n">
         <v>-0.05004500450045003</v>
@@ -2410,7 +2410,7 @@
         <v>-0.1539393939393939</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.123024302430243</v>
+        <v>-0.1245604560456045</v>
       </c>
       <c r="V24" t="n">
         <v>0.02557455745574557</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1075307530753075</v>
+        <v>0.1084308430843084</v>
       </c>
       <c r="D25" t="n">
         <v>0.04058805880588059</v>
@@ -2485,7 +2485,7 @@
         <v>-0.105010501050105</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2219621962196219</v>
+        <v>-0.2208340834083408</v>
       </c>
       <c r="S25" t="n">
         <v>0.06013801380138013</v>
@@ -2494,7 +2494,7 @@
         <v>0.07907590759075905</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09428142814281427</v>
+        <v>0.09381338133813381</v>
       </c>
       <c r="V25" t="n">
         <v>0.02877887788778878</v>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.1461986198619862</v>
+        <v>-0.1478067806780678</v>
       </c>
       <c r="D26" t="n">
         <v>0.05342934293429343</v>
@@ -2565,7 +2565,7 @@
         <v>0.202076207620762</v>
       </c>
       <c r="R26" t="n">
-        <v>0.002964296429642964</v>
+        <v>0.003072307230723072</v>
       </c>
       <c r="S26" t="n">
         <v>0.04313231323132313</v>
@@ -2574,7 +2574,7 @@
         <v>-0.05627362736273626</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.09346534653465345</v>
+        <v>-0.09368136813681369</v>
       </c>
       <c r="V26" t="n">
         <v>-0.09898589858985897</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02108610861086108</v>
+        <v>0.02139813981398139</v>
       </c>
       <c r="D27" t="n">
         <v>-0.0377077707770777</v>
@@ -2649,7 +2649,7 @@
         <v>-0.2754155415541554</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2781158115811581</v>
+        <v>0.2773597359735973</v>
       </c>
       <c r="S27" t="n">
         <v>-0.02273027302730272</v>
@@ -2658,7 +2658,7 @@
         <v>-0.156975697569757</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1575397539753975</v>
+        <v>0.1586198619861986</v>
       </c>
       <c r="V27" t="n">
         <v>0.09278127812781277</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.1072427242724272</v>
+        <v>-0.1092229222922292</v>
       </c>
       <c r="D28" t="n">
         <v>0.08228022802280227</v>
@@ -2733,7 +2733,7 @@
         <v>-0.02024602460246024</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03973597359735974</v>
+        <v>0.04114011401140114</v>
       </c>
       <c r="S28" t="n">
         <v>0.03319531953195319</v>
@@ -2742,7 +2742,7 @@
         <v>-0.03083108310831083</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.1196999699969997</v>
+        <v>-0.12004800480048</v>
       </c>
       <c r="V28" t="n">
         <v>0.04937293729372937</v>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.1337293729372937</v>
+        <v>-0.1344254425442544</v>
       </c>
       <c r="D29" t="n">
         <v>0.003528352835283528</v>
@@ -2817,7 +2817,7 @@
         <v>0.08513651365136513</v>
       </c>
       <c r="R29" t="n">
-        <v>0.006132613261326131</v>
+        <v>0.007236723672367236</v>
       </c>
       <c r="S29" t="n">
         <v>-0.001392139213921392</v>
@@ -2826,7 +2826,7 @@
         <v>-0.03624362436243624</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.09713771377137713</v>
+        <v>-0.09717371737173718</v>
       </c>
       <c r="V29" t="n">
         <v>-0.03804380438043804</v>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1364176417641764</v>
+        <v>0.1362376237623762</v>
       </c>
       <c r="D30" t="n">
         <v>-0.04933693369336933</v>
@@ -2901,7 +2901,7 @@
         <v>-0.1025022502250225</v>
       </c>
       <c r="R30" t="n">
-        <v>0.158019801980198</v>
+        <v>0.1584638463846385</v>
       </c>
       <c r="S30" t="n">
         <v>0.09599759975997599</v>
@@ -2910,7 +2910,7 @@
         <v>-0.07817581758175818</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06523852385238524</v>
+        <v>0.06592259225922592</v>
       </c>
       <c r="V30" t="n">
         <v>-0.05423342334233423</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4801920192019202</v>
+        <v>0.4793879387938793</v>
       </c>
       <c r="D31" t="n">
         <v>0.9822502250225021</v>
@@ -2985,7 +2985,7 @@
         <v>0.0504050405040504</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6046684668466846</v>
+        <v>-0.6046804680468046</v>
       </c>
       <c r="S31" t="n">
         <v>-0.6383438343834383</v>
@@ -2994,7 +2994,7 @@
         <v>0.1243084308430843</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.7116471647164715</v>
+        <v>-0.710999099909991</v>
       </c>
       <c r="V31" t="n">
         <v>0.8286468646864684</v>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.1091269126912691</v>
+        <v>-0.1081908190819082</v>
       </c>
       <c r="D32" t="n">
         <v>-0.1404980498049805</v>
@@ -3069,7 +3069,7 @@
         <v>-0.08585658565856585</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1437863786378638</v>
+        <v>0.1431743174317432</v>
       </c>
       <c r="S32" t="n">
         <v>0.2063726372637264</v>
@@ -3078,7 +3078,7 @@
         <v>0.1807740774077408</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06805880588058806</v>
+        <v>0.06880288028802879</v>
       </c>
       <c r="V32" t="n">
         <v>-0.1558355835583558</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.0008640864086408639</v>
+        <v>-0.00138013801380138</v>
       </c>
       <c r="D33" t="n">
         <v>-0.1207560756075607</v>
@@ -3153,7 +3153,7 @@
         <v>0.09982598259825981</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1791779177917792</v>
+        <v>0.1808940894089409</v>
       </c>
       <c r="S33" t="n">
         <v>0.02357035703570357</v>
@@ -3162,7 +3162,7 @@
         <v>-0.2529372937293729</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01692169216921692</v>
+        <v>0.01600960096009601</v>
       </c>
       <c r="V33" t="n">
         <v>-0.1688208820882088</v>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.07867986798679868</v>
+        <v>-0.08004800480048005</v>
       </c>
       <c r="D34" t="n">
         <v>-0.001452145214521452</v>
@@ -3237,7 +3237,7 @@
         <v>-0.09720972097209721</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.1047584758475847</v>
+        <v>-0.1056585658565857</v>
       </c>
       <c r="S34" t="n">
         <v>0.02052205220522052</v>
@@ -3246,7 +3246,7 @@
         <v>0.1142634263426343</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.04694869486948694</v>
+        <v>-0.04609660966096609</v>
       </c>
       <c r="V34" t="n">
         <v>0.03284728472847284</v>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.03380738073807381</v>
+        <v>0.03396339633963396</v>
       </c>
       <c r="D35" t="n">
         <v>-0.1281488148814881</v>
@@ -3321,7 +3321,7 @@
         <v>-0.1196759675967597</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.06774677467746774</v>
+        <v>-0.06889888988898889</v>
       </c>
       <c r="S35" t="n">
         <v>0.1818661866186618</v>
@@ -3330,7 +3330,7 @@
         <v>0.02564656465646564</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05834983498349834</v>
+        <v>0.05854185418541853</v>
       </c>
       <c r="V35" t="n">
         <v>-0.1138673867386739</v>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03199519951995199</v>
+        <v>-0.03305130513051305</v>
       </c>
       <c r="D36" t="n">
         <v>0.07926792679267926</v>
@@ -3405,7 +3405,7 @@
         <v>-0.007296729672967297</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0565136513651365</v>
+        <v>-0.0576057605760576</v>
       </c>
       <c r="S36" t="n">
         <v>0.01752175217521752</v>
@@ -3414,7 +3414,7 @@
         <v>-0.05153315331533153</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.06712271227122713</v>
+        <v>-0.06655865586558656</v>
       </c>
       <c r="V36" t="n">
         <v>0.2268706870687069</v>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.07817581758175818</v>
+        <v>0.07753975397539753</v>
       </c>
       <c r="D37" t="n">
         <v>0.05526552655265525</v>
@@ -3489,7 +3489,7 @@
         <v>0.08303630363036305</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1043864386438644</v>
+        <v>-0.1044584458445845</v>
       </c>
       <c r="S37" t="n">
         <v>-0.04937293729372937</v>
@@ -3498,7 +3498,7 @@
         <v>-0.05797779777977797</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.08289228922892287</v>
+        <v>-0.0824002400240024</v>
       </c>
       <c r="V37" t="n">
         <v>0.01204920492049205</v>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -614,22 +614,22 @@
       </c>
       <c r="L2" s="1" t="inlineStr">
         <is>
-          <t>Ethanol GWP [kg*CO2*eq / (ethanol*gal)]</t>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / (crude-glycerol*gal)]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -669,22 +669,22 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>Ethanol GWP derivative [kg*CO2*eq / (ethanol*gal)]</t>
+          <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Biodiesel GWP derivative [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP derivative [kg*CO2*eq / (crude-glycerol*gal)]</t>
+          <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / (biodiesel*gal)]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2474287428742874</v>
+        <v>-0.2489648964896489</v>
       </c>
       <c r="D4" t="n">
         <v>-0.06820282028202819</v>
@@ -757,7 +757,7 @@
         <v>-0.6195019501950195</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06125412541254125</v>
+        <v>-0.06058205820582058</v>
       </c>
       <c r="S4" t="n">
         <v>0.09882988298829883</v>
@@ -766,7 +766,7 @@
         <v>0.9934233423342332</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1963876387638764</v>
+        <v>0.1951875187518751</v>
       </c>
       <c r="V4" t="n">
         <v>0.1714971497149715</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0453045304530453</v>
+        <v>0.0443084308430843</v>
       </c>
       <c r="D5" t="n">
         <v>0.198043804380438</v>
@@ -837,7 +837,7 @@
         <v>0.6057245724572456</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08278427842784276</v>
+        <v>0.0836003600360036</v>
       </c>
       <c r="S5" t="n">
         <v>-0.276999699969997</v>
@@ -846,7 +846,7 @@
         <v>0.1455625562556256</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.169072907290729</v>
+        <v>-0.1703090309030903</v>
       </c>
       <c r="V5" t="n">
         <v>-0.07893189318931894</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1835103510351035</v>
+        <v>0.1823102310231023</v>
       </c>
       <c r="D6" t="n">
         <v>-0.05508550855085508</v>
@@ -917,7 +917,7 @@
         <v>-0.1813381338133813</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.08226822682268227</v>
+        <v>-0.08192019201920191</v>
       </c>
       <c r="S6" t="n">
         <v>-0.04094809480948094</v>
@@ -926,7 +926,7 @@
         <v>0.09995799579957994</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4840444044404439</v>
+        <v>0.4835043504350435</v>
       </c>
       <c r="V6" t="n">
         <v>0.03285928592859286</v>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4736033603360336</v>
+        <v>0.4732793279327932</v>
       </c>
       <c r="D7" t="n">
         <v>0.04373237323732372</v>
@@ -1001,7 +1001,7 @@
         <v>0.1413501350135013</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.03859585958595859</v>
+        <v>-0.03836783678367837</v>
       </c>
       <c r="S7" t="n">
         <v>0.1483468346834683</v>
@@ -1010,7 +1010,7 @@
         <v>-0.1943474347434744</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.07536753675367537</v>
+        <v>-0.07609960996099609</v>
       </c>
       <c r="V7" t="n">
         <v>-0.1191719171917192</v>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6033363336333633</v>
+        <v>0.6024722472247224</v>
       </c>
       <c r="D8" t="n">
         <v>0.06487848784878487</v>
@@ -1085,7 +1085,7 @@
         <v>-0.01155715571557156</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01940594059405941</v>
+        <v>-0.02106210621062106</v>
       </c>
       <c r="S8" t="n">
         <v>-0.02413441344134413</v>
@@ -1094,7 +1094,7 @@
         <v>-0.0738913891389139</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.02607860786078607</v>
+        <v>-0.02531053105310531</v>
       </c>
       <c r="V8" t="n">
         <v>0.04441644164416441</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1523432343234323</v>
+        <v>0.1537233723372337</v>
       </c>
       <c r="D9" t="n">
         <v>-0.008100810081008099</v>
@@ -1169,7 +1169,7 @@
         <v>-0.01393339333933393</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1798979897989799</v>
+        <v>0.1794179417941794</v>
       </c>
       <c r="S9" t="n">
         <v>0.03614761476147614</v>
@@ -1178,7 +1178,7 @@
         <v>-0.1424422442244224</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08855685568556854</v>
+        <v>0.08919291929192917</v>
       </c>
       <c r="V9" t="n">
         <v>0.003060306030603061</v>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [USD/kWh]</t>
+          <t>Electricity price [USD/kWhr]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01911791179117912</v>
+        <v>-0.01826582658265826</v>
       </c>
       <c r="D10" t="n">
         <v>-0.09930993099309929</v>
@@ -1253,7 +1253,7 @@
         <v>0.005928592859285928</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04704470447044704</v>
+        <v>0.04775277527752775</v>
       </c>
       <c r="S10" t="n">
         <v>0.1402940294029403</v>
@@ -1262,7 +1262,7 @@
         <v>0.1325412541254125</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05489348934893489</v>
+        <v>0.05416141614161415</v>
       </c>
       <c r="V10" t="n">
         <v>-0.1407500750075007</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2336513651365136</v>
+        <v>0.2342754275427542</v>
       </c>
       <c r="D11" t="n">
         <v>0.1386738673867387</v>
@@ -1333,7 +1333,7 @@
         <v>-0.00774077407740774</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001068106810681068</v>
+        <v>0.001536153615361536</v>
       </c>
       <c r="S11" t="n">
         <v>-0.05556555655565556</v>
@@ -1342,7 +1342,7 @@
         <v>-0.1449384938493849</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.09644164416441643</v>
+        <v>-0.09666966696669667</v>
       </c>
       <c r="V11" t="n">
         <v>0.09251725172517251</v>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3303810381038104</v>
+        <v>-0.3304890489048904</v>
       </c>
       <c r="D12" t="n">
         <v>0.1301650165016502</v>
@@ -1413,7 +1413,7 @@
         <v>-0.04861686168616861</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.04296429642964296</v>
+        <v>-0.04332433243324332</v>
       </c>
       <c r="S12" t="n">
         <v>-0.09902190219021902</v>
@@ -1422,7 +1422,7 @@
         <v>0.09936993699369936</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.06438643864386438</v>
+        <v>-0.06583858385838583</v>
       </c>
       <c r="V12" t="n">
         <v>0.1299369936993699</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02112211221122112</v>
+        <v>0.02055805580558056</v>
       </c>
       <c r="D13" t="n">
         <v>0.0554095409540954</v>
@@ -1506,7 +1506,7 @@
         <v>0.1738733873387338</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.09773777377737773</v>
+        <v>-0.09728172817281729</v>
       </c>
       <c r="V13" t="n">
         <v>0.2505370537053705</v>
@@ -1536,7 +1536,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01172517251725172</v>
+        <v>0.01137713771377138</v>
       </c>
       <c r="D14" t="n">
         <v>0.03223522352235223</v>
@@ -1581,7 +1581,7 @@
         <v>-0.04007200720072007</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.06172217221722172</v>
+        <v>-0.06045004500450044</v>
       </c>
       <c r="S14" t="n">
         <v>0.0515091509150915</v>
@@ -1590,7 +1590,7 @@
         <v>0.05226522652265226</v>
       </c>
       <c r="U14" t="n">
-        <v>0.006756675667566756</v>
+        <v>0.004776477647764776</v>
       </c>
       <c r="V14" t="n">
         <v>0.01755775577557755</v>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1615361536153615</v>
+        <v>-0.1639723972397239</v>
       </c>
       <c r="D15" t="n">
         <v>0.04475247524752475</v>
@@ -1665,7 +1665,7 @@
         <v>-0.003048304830483048</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08189618961896189</v>
+        <v>0.08385238523852384</v>
       </c>
       <c r="S15" t="n">
         <v>-0.07806780678067807</v>
@@ -1674,7 +1674,7 @@
         <v>0.01352535253525352</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1275007500750075</v>
+        <v>-0.1277767776777678</v>
       </c>
       <c r="V15" t="n">
         <v>0.05434143414341434</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01658565856585658</v>
+        <v>0.01828982898289829</v>
       </c>
       <c r="D16" t="n">
         <v>0.05144914491449144</v>
@@ -1749,7 +1749,7 @@
         <v>0.03761176117611761</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.0836843684368437</v>
+        <v>-0.08277227722772276</v>
       </c>
       <c r="S16" t="n">
         <v>0.02886288628862886</v>
@@ -1758,7 +1758,7 @@
         <v>0.01707770777077708</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.036999699969997</v>
+        <v>-0.03774377437743774</v>
       </c>
       <c r="V16" t="n">
         <v>0.03302730273027302</v>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.00312031203120312</v>
+        <v>-0.002508250825082508</v>
       </c>
       <c r="D17" t="n">
         <v>-0.015001500150015</v>
@@ -1829,7 +1829,7 @@
         <v>-0.07663966396639663</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1014941494149415</v>
+        <v>0.1023582358235823</v>
       </c>
       <c r="S17" t="n">
         <v>-0.05782178217821781</v>
@@ -1838,7 +1838,7 @@
         <v>0.1010861086108611</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07072307230723072</v>
+        <v>0.07031503150315031</v>
       </c>
       <c r="V17" t="n">
         <v>0.01447344734473447</v>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0007080708070807079</v>
+        <v>0.0008880888088808879</v>
       </c>
       <c r="D18" t="n">
         <v>0.02678667866786678</v>
@@ -1913,7 +1913,7 @@
         <v>0.04210021002100209</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.08572457245724571</v>
+        <v>-0.08805280528052804</v>
       </c>
       <c r="S18" t="n">
         <v>0.05761776177617762</v>
@@ -1922,7 +1922,7 @@
         <v>-0.01108910891089109</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03078307830783078</v>
+        <v>0.03099909990999099</v>
       </c>
       <c r="V18" t="n">
         <v>-0.00378037803780378</v>
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1249084908490849</v>
+        <v>-0.1241524152415241</v>
       </c>
       <c r="D19" t="n">
         <v>-0.04709270927092709</v>
@@ -1997,7 +1997,7 @@
         <v>0.002772277227722772</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.1482508250825083</v>
+        <v>-0.1493549354935493</v>
       </c>
       <c r="S19" t="n">
         <v>-0.006228622862286228</v>
@@ -2006,7 +2006,7 @@
         <v>-0.05704170417041704</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005316531653165315</v>
+        <v>0.00636063606360636</v>
       </c>
       <c r="V19" t="n">
         <v>0.01714971497149715</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.02886288628862886</v>
+        <v>-0.0285028502850285</v>
       </c>
       <c r="D20" t="n">
         <v>0.04495649564956495</v>
@@ -2077,7 +2077,7 @@
         <v>-0.05615361536153615</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03787578757875788</v>
+        <v>0.03859585958595859</v>
       </c>
       <c r="S20" t="n">
         <v>0.03559555955595559</v>
@@ -2086,7 +2086,7 @@
         <v>0.1847224722472247</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.02241824182418242</v>
+        <v>-0.02303030303030303</v>
       </c>
       <c r="V20" t="n">
         <v>0.02649864986498649</v>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05368136813681367</v>
+        <v>0.05316531653165316</v>
       </c>
       <c r="D21" t="n">
         <v>0.1260726072607261</v>
@@ -2157,7 +2157,7 @@
         <v>0.02347434743474347</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.02603060306030602</v>
+        <v>-0.02675067506750674</v>
       </c>
       <c r="S21" t="n">
         <v>-0.09328532853285328</v>
@@ -2166,7 +2166,7 @@
         <v>0.06294629462946294</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.1188358835883588</v>
+        <v>-0.1177197719771977</v>
       </c>
       <c r="V21" t="n">
         <v>0.05809780978097809</v>
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.01494149414941494</v>
+        <v>-0.01468946894689469</v>
       </c>
       <c r="D22" t="n">
         <v>0.03079507950795079</v>
@@ -2237,7 +2237,7 @@
         <v>0.1320852085208521</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01968196819681968</v>
+        <v>0.01887788778877888</v>
       </c>
       <c r="S22" t="n">
         <v>-0.063018301830183</v>
@@ -2246,7 +2246,7 @@
         <v>-0.2078247824782478</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01887788778877888</v>
+        <v>-0.01855385538553855</v>
       </c>
       <c r="V22" t="n">
         <v>-0.04049204920492049</v>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.2393879387938793</v>
+        <v>-0.2382598259825982</v>
       </c>
       <c r="D23" t="n">
         <v>-0.2174977497749774</v>
@@ -2321,7 +2321,7 @@
         <v>-0.1322052205220522</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2648544854485448</v>
+        <v>0.2644944494449445</v>
       </c>
       <c r="S23" t="n">
         <v>0.2057005700570057</v>
@@ -2330,7 +2330,7 @@
         <v>0.09053705370537053</v>
       </c>
       <c r="U23" t="n">
-        <v>0.151011101110111</v>
+        <v>0.1502790279027903</v>
       </c>
       <c r="V23" t="n">
         <v>-0.168076807680768</v>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.009288928892889289</v>
+        <v>0.008232823282328232</v>
       </c>
       <c r="D24" t="n">
         <v>0.05858985898589859</v>
@@ -2401,7 +2401,7 @@
         <v>0.1351575157515751</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08693669366936692</v>
+        <v>0.08577257725772576</v>
       </c>
       <c r="S24" t="n">
         <v>-0.05004500450045003</v>
@@ -2410,7 +2410,7 @@
         <v>-0.1539393939393939</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.1245604560456045</v>
+        <v>-0.123024302430243</v>
       </c>
       <c r="V24" t="n">
         <v>0.02557455745574557</v>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1084308430843084</v>
+        <v>0.1075307530753075</v>
       </c>
       <c r="D25" t="n">
         <v>0.04058805880588059</v>
@@ -2485,7 +2485,7 @@
         <v>-0.105010501050105</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2208340834083408</v>
+        <v>-0.2219621962196219</v>
       </c>
       <c r="S25" t="n">
         <v>0.06013801380138013</v>
@@ -2494,7 +2494,7 @@
         <v>0.07907590759075905</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09381338133813381</v>
+        <v>0.09428142814281427</v>
       </c>
       <c r="V25" t="n">
         <v>0.02877887788778878</v>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.1478067806780678</v>
+        <v>-0.1461986198619862</v>
       </c>
       <c r="D26" t="n">
         <v>0.05342934293429343</v>
@@ -2565,7 +2565,7 @@
         <v>0.202076207620762</v>
       </c>
       <c r="R26" t="n">
-        <v>0.003072307230723072</v>
+        <v>0.002964296429642964</v>
       </c>
       <c r="S26" t="n">
         <v>0.04313231323132313</v>
@@ -2574,7 +2574,7 @@
         <v>-0.05627362736273626</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.09368136813681369</v>
+        <v>-0.09346534653465345</v>
       </c>
       <c r="V26" t="n">
         <v>-0.09898589858985897</v>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02139813981398139</v>
+        <v>0.02108610861086108</v>
       </c>
       <c r="D27" t="n">
         <v>-0.0377077707770777</v>
@@ -2649,7 +2649,7 @@
         <v>-0.2754155415541554</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2773597359735973</v>
+        <v>0.2781158115811581</v>
       </c>
       <c r="S27" t="n">
         <v>-0.02273027302730272</v>
@@ -2658,7 +2658,7 @@
         <v>-0.156975697569757</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1586198619861986</v>
+        <v>0.1575397539753975</v>
       </c>
       <c r="V27" t="n">
         <v>0.09278127812781277</v>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.1092229222922292</v>
+        <v>-0.1072427242724272</v>
       </c>
       <c r="D28" t="n">
         <v>0.08228022802280227</v>
@@ -2733,7 +2733,7 @@
         <v>-0.02024602460246024</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04114011401140114</v>
+        <v>0.03973597359735974</v>
       </c>
       <c r="S28" t="n">
         <v>0.03319531953195319</v>
@@ -2742,7 +2742,7 @@
         <v>-0.03083108310831083</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.12004800480048</v>
+        <v>-0.1196999699969997</v>
       </c>
       <c r="V28" t="n">
         <v>0.04937293729372937</v>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.1344254425442544</v>
+        <v>-0.1337293729372937</v>
       </c>
       <c r="D29" t="n">
         <v>0.003528352835283528</v>
@@ -2817,7 +2817,7 @@
         <v>0.08513651365136513</v>
       </c>
       <c r="R29" t="n">
-        <v>0.007236723672367236</v>
+        <v>0.006132613261326131</v>
       </c>
       <c r="S29" t="n">
         <v>-0.001392139213921392</v>
@@ -2826,7 +2826,7 @@
         <v>-0.03624362436243624</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.09717371737173718</v>
+        <v>-0.09713771377137713</v>
       </c>
       <c r="V29" t="n">
         <v>-0.03804380438043804</v>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1362376237623762</v>
+        <v>0.1364176417641764</v>
       </c>
       <c r="D30" t="n">
         <v>-0.04933693369336933</v>
@@ -2901,7 +2901,7 @@
         <v>-0.1025022502250225</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1584638463846385</v>
+        <v>0.158019801980198</v>
       </c>
       <c r="S30" t="n">
         <v>0.09599759975997599</v>
@@ -2910,7 +2910,7 @@
         <v>-0.07817581758175818</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06592259225922592</v>
+        <v>0.06523852385238524</v>
       </c>
       <c r="V30" t="n">
         <v>-0.05423342334233423</v>
@@ -2940,7 +2940,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4793879387938793</v>
+        <v>0.4801920192019202</v>
       </c>
       <c r="D31" t="n">
         <v>0.9822502250225021</v>
@@ -2985,7 +2985,7 @@
         <v>0.0504050405040504</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6046804680468046</v>
+        <v>-0.6046684668466846</v>
       </c>
       <c r="S31" t="n">
         <v>-0.6383438343834383</v>
@@ -2994,7 +2994,7 @@
         <v>0.1243084308430843</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.710999099909991</v>
+        <v>-0.7116471647164715</v>
       </c>
       <c r="V31" t="n">
         <v>0.8286468646864684</v>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.1081908190819082</v>
+        <v>-0.1091269126912691</v>
       </c>
       <c r="D32" t="n">
         <v>-0.1404980498049805</v>
@@ -3069,7 +3069,7 @@
         <v>-0.08585658565856585</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1431743174317432</v>
+        <v>0.1437863786378638</v>
       </c>
       <c r="S32" t="n">
         <v>0.2063726372637264</v>
@@ -3078,7 +3078,7 @@
         <v>0.1807740774077408</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06880288028802879</v>
+        <v>0.06805880588058806</v>
       </c>
       <c r="V32" t="n">
         <v>-0.1558355835583558</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.00138013801380138</v>
+        <v>-0.0008640864086408639</v>
       </c>
       <c r="D33" t="n">
         <v>-0.1207560756075607</v>
@@ -3153,7 +3153,7 @@
         <v>0.09982598259825981</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1808940894089409</v>
+        <v>0.1791779177917792</v>
       </c>
       <c r="S33" t="n">
         <v>0.02357035703570357</v>
@@ -3162,7 +3162,7 @@
         <v>-0.2529372937293729</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01600960096009601</v>
+        <v>0.01692169216921692</v>
       </c>
       <c r="V33" t="n">
         <v>-0.1688208820882088</v>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.08004800480048005</v>
+        <v>-0.07867986798679868</v>
       </c>
       <c r="D34" t="n">
         <v>-0.001452145214521452</v>
@@ -3237,7 +3237,7 @@
         <v>-0.09720972097209721</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.1056585658565857</v>
+        <v>-0.1047584758475847</v>
       </c>
       <c r="S34" t="n">
         <v>0.02052205220522052</v>
@@ -3246,7 +3246,7 @@
         <v>0.1142634263426343</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.04609660966096609</v>
+        <v>-0.04694869486948694</v>
       </c>
       <c r="V34" t="n">
         <v>0.03284728472847284</v>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.03396339633963396</v>
+        <v>0.03380738073807381</v>
       </c>
       <c r="D35" t="n">
         <v>-0.1281488148814881</v>
@@ -3321,7 +3321,7 @@
         <v>-0.1196759675967597</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.06889888988898889</v>
+        <v>-0.06774677467746774</v>
       </c>
       <c r="S35" t="n">
         <v>0.1818661866186618</v>
@@ -3330,7 +3330,7 @@
         <v>0.02564656465646564</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05854185418541853</v>
+        <v>0.05834983498349834</v>
       </c>
       <c r="V35" t="n">
         <v>-0.1138673867386739</v>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03305130513051305</v>
+        <v>-0.03199519951995199</v>
       </c>
       <c r="D36" t="n">
         <v>0.07926792679267926</v>
@@ -3405,7 +3405,7 @@
         <v>-0.007296729672967297</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0576057605760576</v>
+        <v>-0.0565136513651365</v>
       </c>
       <c r="S36" t="n">
         <v>0.01752175217521752</v>
@@ -3414,7 +3414,7 @@
         <v>-0.05153315331533153</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.06655865586558656</v>
+        <v>-0.06712271227122713</v>
       </c>
       <c r="V36" t="n">
         <v>0.2268706870687069</v>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.07753975397539753</v>
+        <v>0.07817581758175818</v>
       </c>
       <c r="D37" t="n">
         <v>0.05526552655265525</v>
@@ -3489,7 +3489,7 @@
         <v>0.08303630363036305</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1044584458445845</v>
+        <v>-0.1043864386438644</v>
       </c>
       <c r="S37" t="n">
         <v>-0.04937293729372937</v>
@@ -3498,7 +3498,7 @@
         <v>-0.05797779777977797</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.0824002400240024</v>
+        <v>-0.08289228922892287</v>
       </c>
       <c r="V37" t="n">
         <v>0.01204920492049205</v>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
@@ -712,76 +712,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2489648964896489</v>
+        <v>-0.4571428571428571</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06820282028202819</v>
+        <v>-0.4631578947368421</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04454845484548454</v>
+        <v>0.3593984962406014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06214221422142213</v>
+        <v>-0.3052631578947368</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1713891389138914</v>
+        <v>-0.2135338345864662</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1264326432643264</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06405040504050405</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2847284728472847</v>
+        <v>0.6060150375939849</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2756075607560756</v>
+        <v>0.6360902255639098</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2756075607560756</v>
+        <v>0.6360902255639098</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2756075607560756</v>
+        <v>0.6360902255639098</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2756075607560756</v>
+        <v>0.6360902255639098</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2756075607560756</v>
+        <v>0.6360902255639098</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01418541854185418</v>
+        <v>-0.2992481203007519</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6195019501950195</v>
+        <v>-0.7954887218045112</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.06058205820582058</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09882988298829883</v>
+        <v>0.5744360902255639</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9934233423342332</v>
+        <v>0.9954887218045112</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1951875187518751</v>
+        <v>0.393984962406015</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1714971497149715</v>
+        <v>-0.162406015037594</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1714971497149715</v>
+        <v>-0.162406015037594</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1714971497149715</v>
+        <v>-0.162406015037594</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1714971497149715</v>
+        <v>-0.162406015037594</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1714971497149715</v>
+        <v>-0.162406015037594</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +792,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0443084308430843</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.198043804380438</v>
+        <v>0.306766917293233</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.09530153015301529</v>
+        <v>-0.1954887218045113</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03654365436543654</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1172757275727573</v>
+        <v>0.1218045112781955</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.08105610561056104</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1119111911191119</v>
+        <v>0.2255639097744361</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04494449444944494</v>
+        <v>-0.5097744360902255</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1876747674767477</v>
+        <v>-0.4390977443609023</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1876747674767477</v>
+        <v>-0.4390977443609023</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1876747674767477</v>
+        <v>-0.4390977443609023</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1876747674767477</v>
+        <v>-0.4390977443609023</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1876747674767477</v>
+        <v>-0.4390977443609023</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1924032403240324</v>
+        <v>0.4225563909774436</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6057245724572456</v>
+        <v>0.8872180451127819</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0836003600360036</v>
+        <v>-0.2842105263157895</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.276999699969997</v>
+        <v>-0.5774436090225563</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1455625562556256</v>
+        <v>-0.5684210526315789</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1703090309030903</v>
+        <v>-0.2766917293233083</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.07893189318931894</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.07893189318931894</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.07893189318931894</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.07893189318931894</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.07893189318931894</v>
+        <v>-0.03458646616541353</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +872,76 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1823102310231023</v>
+        <v>-0.1894736842105263</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05508550855085508</v>
+        <v>-0.1338345864661654</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03282328232823282</v>
+        <v>0.1593984962406015</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02313831383138314</v>
+        <v>-0.1413533834586466</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02641464146414641</v>
+        <v>-0.1037593984962406</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9121392139213921</v>
+        <v>0.9022556390977443</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9561716171617161</v>
+        <v>0.9368421052631578</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3606720672067206</v>
+        <v>-0.1112781954887218</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1523192319231923</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1523192319231923</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1523192319231923</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1523192319231923</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1523192319231923</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0758115811581158</v>
+        <v>0.1669172932330827</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1813381338133813</v>
+        <v>0.05413533834586466</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.08192019201920191</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.04094809480948094</v>
+        <v>-0.1037593984962406</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09995799579957994</v>
+        <v>0.263157894736842</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4835043504350435</v>
+        <v>0.4330827067669173</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03285928592859286</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03285928592859286</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03285928592859286</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03285928592859286</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03285928592859286</v>
+        <v>-0.1097744360902256</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +956,76 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4732793279327932</v>
+        <v>0.3894736842105262</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04373237323732372</v>
+        <v>0.006015037593984962</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02802280228022802</v>
+        <v>0.02105263157894736</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02408640864086408</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.002844284428442844</v>
+        <v>-0.03157894736842105</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0105010501050105</v>
+        <v>-0.3684210526315789</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004668466846684667</v>
+        <v>-0.2947368421052631</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.008724872487248724</v>
+        <v>0.318796992481203</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.07480348034803479</v>
+        <v>-0.01954887218045112</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.07480348034803479</v>
+        <v>-0.01954887218045112</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.07480348034803479</v>
+        <v>-0.01954887218045112</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.07480348034803479</v>
+        <v>-0.01954887218045112</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.07480348034803479</v>
+        <v>-0.01954887218045112</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.4802040204020401</v>
+        <v>-0.3909774436090225</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1413501350135013</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.03836783678367837</v>
+        <v>0.2691729323308271</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1483468346834683</v>
+        <v>0.2075187969924812</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.1943474347434744</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.07609960996099609</v>
+        <v>-0.1759398496240602</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.1191719171917192</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1191719171917192</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.1191719171917192</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.1191719171917192</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.1191719171917192</v>
+        <v>-0.05864661654135337</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1040,76 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6024722472247224</v>
+        <v>0.6992481203007518</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06487848784878487</v>
+        <v>0.4270676691729323</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08208820882088208</v>
+        <v>-0.350375939849624</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08718871887188719</v>
+        <v>0.2962406015037594</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07965196519651963</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="H8" t="n">
-        <v>0.04249624962496249</v>
+        <v>-0.1413533834586466</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001404140414041404</v>
+        <v>-0.3849624060150376</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0116051605160516</v>
+        <v>-0.1323308270676692</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.07227122712271226</v>
+        <v>-0.4571428571428571</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.07227122712271226</v>
+        <v>-0.4571428571428571</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.07227122712271226</v>
+        <v>-0.4571428571428571</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.07227122712271226</v>
+        <v>-0.4571428571428571</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.07227122712271226</v>
+        <v>-0.4571428571428571</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7157155715571556</v>
+        <v>0.6375939849624059</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01155715571557156</v>
+        <v>0.3473684210526315</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02106210621062106</v>
+        <v>-0.01203007518796992</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.02413441344134413</v>
+        <v>-0.1157894736842105</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0738913891389139</v>
+        <v>-0.3714285714285714</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.02531053105310531</v>
+        <v>-0.4451127819548871</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04441644164416441</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04441644164416441</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04441644164416441</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.04441644164416441</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.04441644164416441</v>
+        <v>0.1443609022556391</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1124,76 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1537233723372337</v>
+        <v>-0.05864661654135337</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.008100810081008099</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01344134413441344</v>
+        <v>-0.112781954887218</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02923492349234923</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003204320432043204</v>
+        <v>0.03458646616541353</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01840984098409841</v>
+        <v>-0.2165413533834586</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04094809480948094</v>
+        <v>-0.3969924812030075</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.07959195919591958</v>
+        <v>-0.5278195488721804</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05233723372337233</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05233723372337233</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05233723372337233</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="N9" t="n">
-        <v>0.05233723372337233</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="O9" t="n">
-        <v>0.05233723372337233</v>
+        <v>-0.1744360902255639</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1173717371737173</v>
+        <v>-0.05563909774436089</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01393339333933393</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1794179417941794</v>
+        <v>-0.3218045112781954</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03614761476147614</v>
+        <v>-0.312781954887218</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1424422442244224</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08919291929192917</v>
+        <v>-0.1729323308270676</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003060306030603061</v>
+        <v>0.1699248120300751</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003060306030603061</v>
+        <v>0.1699248120300751</v>
       </c>
       <c r="X9" t="n">
-        <v>0.003060306030603061</v>
+        <v>0.1699248120300751</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.003060306030603061</v>
+        <v>0.1699248120300751</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.003060306030603061</v>
+        <v>0.1699248120300751</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1208,76 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.01826582658265826</v>
+        <v>0.2766917293233083</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.09930993099309929</v>
+        <v>0.2390977443609023</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1017581758175817</v>
+        <v>-0.2466165413533834</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1097869786978698</v>
+        <v>0.2646616541353383</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07990399039903991</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1158835883588359</v>
+        <v>0.3293233082706767</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0417041704170417</v>
+        <v>0.1759398496240602</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1205160516051605</v>
+        <v>-0.1022556390977443</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1787458745874587</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1787458745874587</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1787458745874587</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1787458745874587</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1787458745874587</v>
+        <v>-0.09323308270676692</v>
       </c>
       <c r="P10" t="n">
-        <v>0.215037503750375</v>
+        <v>0.2601503759398496</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005928592859285928</v>
+        <v>-0.06315789473684209</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04775277527752775</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1402940294029403</v>
+        <v>-0.150375939849624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1325412541254125</v>
+        <v>-0.06015037593984961</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05416141614161415</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.1407500750075007</v>
+        <v>0.393984962406015</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1407500750075007</v>
+        <v>0.393984962406015</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.1407500750075007</v>
+        <v>0.393984962406015</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.1407500750075007</v>
+        <v>0.393984962406015</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.1407500750075007</v>
+        <v>0.393984962406015</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2342754275427542</v>
+        <v>0.1037593984962406</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1386738673867387</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1289408940894089</v>
+        <v>-0.2150375939849624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1321452145214521</v>
+        <v>0.2706766917293233</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1011341134113411</v>
+        <v>0.3097744360902255</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03209120912091209</v>
+        <v>-0.2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2451005100510051</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.09094509450945093</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1618121812181218</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1618121812181218</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.1618121812181218</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1618121812181218</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1618121812181218</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.03733573357335733</v>
+        <v>-0.4631578947368421</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.00774077407740774</v>
+        <v>-0.3804511278195489</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001536153615361536</v>
+        <v>-0.124812030075188</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.05556555655565556</v>
+        <v>-0.01654135338345865</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1449384938493849</v>
+        <v>0.4721804511278195</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.09666966696669667</v>
+        <v>-0.2466165413533834</v>
       </c>
       <c r="V11" t="n">
-        <v>0.09251725172517251</v>
+        <v>0.3203007518796992</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09251725172517251</v>
+        <v>0.3203007518796992</v>
       </c>
       <c r="X11" t="n">
-        <v>0.09251725172517251</v>
+        <v>0.3203007518796992</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.09251725172517251</v>
+        <v>0.3203007518796992</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.09251725172517251</v>
+        <v>0.3203007518796992</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1368,76 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3304890489048904</v>
+        <v>-0.3533834586466165</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1301650165016502</v>
+        <v>-0.3097744360902255</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1417101710171017</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1379417941794179</v>
+        <v>-0.2872180451127819</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1393939393939394</v>
+        <v>-0.2781954887218045</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.03769576957695769</v>
+        <v>-0.5067669172932331</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1068946894689469</v>
+        <v>-0.3714285714285714</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.08961296129612961</v>
+        <v>0.3669172932330827</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0911131113111311</v>
+        <v>0.2030075187969924</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0911131113111311</v>
+        <v>0.2030075187969924</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0911131113111311</v>
+        <v>0.2030075187969924</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0911131113111311</v>
+        <v>0.2030075187969924</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0911131113111311</v>
+        <v>0.2030075187969924</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.1954275427542754</v>
+        <v>-0.3548872180451128</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.04861686168616861</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.04332433243324332</v>
+        <v>0.03609022556390977</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.09902190219021902</v>
+        <v>0.1338345864661654</v>
       </c>
       <c r="T12" t="n">
-        <v>0.09936993699369936</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.06583858385838583</v>
+        <v>0.004511278195488721</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1299369936993699</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1299369936993699</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1299369936993699</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1299369936993699</v>
+        <v>-0.08571428571428572</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1299369936993699</v>
+        <v>-0.08571428571428572</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1452,76 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.02055805580558056</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0554095409540954</v>
+        <v>0.2406015037593985</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.07509150915091509</v>
+        <v>-0.1969924812030075</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07703570357035702</v>
+        <v>0.1849624060150376</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09398139813981396</v>
+        <v>0.1413533834586466</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02346234623462346</v>
+        <v>0.3593984962406014</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01854185418541854</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.03931593159315931</v>
+        <v>-0.6120300751879698</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04466846684668466</v>
+        <v>-0.2691729323308271</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04466846684668466</v>
+        <v>-0.2691729323308271</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04466846684668466</v>
+        <v>-0.2691729323308271</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04466846684668466</v>
+        <v>-0.2691729323308271</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04466846684668466</v>
+        <v>-0.2691729323308271</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.03461146114611461</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.07591959195919591</v>
+        <v>0.5338345864661653</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.2173657365736573</v>
+        <v>-0.2390977443609023</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0937053705370537</v>
+        <v>-0.5413533834586466</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1738733873387338</v>
+        <v>-0.3819548872180452</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.09728172817281729</v>
+        <v>-0.1067669172932331</v>
       </c>
       <c r="V13" t="n">
-        <v>0.2505370537053705</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2505370537053705</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="X13" t="n">
-        <v>0.2505370537053705</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2505370537053705</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2505370537053705</v>
+        <v>0.1954887218045113</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1536,76 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01137713771377138</v>
+        <v>0.150375939849624</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03223522352235223</v>
+        <v>0.2541353383458646</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.02239423942394239</v>
+        <v>-0.2240601503759398</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02408640864086408</v>
+        <v>0.2270676691729323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03513951395139513</v>
+        <v>0.1954887218045113</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05122112211221121</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01683768376837684</v>
+        <v>0.1729323308270676</v>
       </c>
       <c r="J14" t="n">
-        <v>0.06478247824782478</v>
+        <v>-0.3639097744360902</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01468946894689469</v>
+        <v>-0.1714285714285714</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01468946894689469</v>
+        <v>-0.1714285714285714</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01468946894689469</v>
+        <v>-0.1714285714285714</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01468946894689469</v>
+        <v>-0.1714285714285714</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.01468946894689469</v>
+        <v>-0.1714285714285714</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0489048904890489</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.04007200720072007</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.06045004500450044</v>
+        <v>-0.05563909774436089</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0515091509150915</v>
+        <v>-0.1308270676691729</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05226522652265226</v>
+        <v>-0.2842105263157895</v>
       </c>
       <c r="U14" t="n">
-        <v>0.004776477647764776</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01755775577557755</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01755775577557755</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01755775577557755</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01755775577557755</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01755775577557755</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1620,76 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1639723972397239</v>
+        <v>-0.1684210526315789</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04475247524752475</v>
+        <v>-0.3172932330827067</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0422082208220822</v>
+        <v>0.3248120300751879</v>
       </c>
       <c r="F15" t="n">
-        <v>0.04859285928592859</v>
+        <v>-0.2977443609022556</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04579657965796579</v>
+        <v>-0.3278195488721804</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.007812781278127812</v>
+        <v>-0.2165413533834586</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04474047404740474</v>
+        <v>-0.01052631578947368</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07098709870987098</v>
+        <v>0.0706766917293233</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.07253525352535253</v>
+        <v>0.09473684210526315</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.07253525352535253</v>
+        <v>0.09473684210526315</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07253525352535253</v>
+        <v>0.09473684210526315</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.07253525352535253</v>
+        <v>0.09473684210526315</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.07253525352535253</v>
+        <v>0.09473684210526315</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.03606360636063606</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.003048304830483048</v>
+        <v>0.009022556390977442</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08385238523852384</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.07806780678067807</v>
+        <v>-0.01052631578947368</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01352535253525352</v>
+        <v>-0.05413533834586466</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1277767776777678</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="V15" t="n">
-        <v>0.05434143414341434</v>
+        <v>-0.2586466165413533</v>
       </c>
       <c r="W15" t="n">
-        <v>0.05434143414341434</v>
+        <v>-0.2586466165413533</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05434143414341434</v>
+        <v>-0.2586466165413533</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.05434143414341434</v>
+        <v>-0.2586466165413533</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.05434143414341434</v>
+        <v>-0.2586466165413533</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1704,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01828982898289829</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05144914491449144</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.04084008400840083</v>
+        <v>-0.07969924812030074</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03771977197719772</v>
+        <v>0.01954887218045112</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04578457845784577</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06418241824182418</v>
+        <v>-0.0781954887218045</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03991599159915991</v>
+        <v>-0.263157894736842</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.01904590459045905</v>
+        <v>-0.3398496240601503</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.03408340834083408</v>
+        <v>-0.2616541353383459</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.03408340834083408</v>
+        <v>-0.2616541353383459</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.03408340834083408</v>
+        <v>-0.2616541353383459</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.03408340834083408</v>
+        <v>-0.2616541353383459</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.03408340834083408</v>
+        <v>-0.2616541353383459</v>
       </c>
       <c r="P16" t="n">
-        <v>0.03218721872187218</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.03761176117611761</v>
+        <v>0.4240601503759398</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.08277227722772276</v>
+        <v>-0.03609022556390977</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02886288628862886</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01707770777077708</v>
+        <v>-0.5338345864661653</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.03774377437743774</v>
+        <v>-0.1233082706766917</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03302730273027302</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="W16" t="n">
-        <v>0.03302730273027302</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="X16" t="n">
-        <v>0.03302730273027302</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.03302730273027302</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03302730273027302</v>
+        <v>-0.04661654135338346</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +1784,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.002508250825082508</v>
+        <v>-0.1293233082706767</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.015001500150015</v>
+        <v>0.07669172932330826</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005064506450645064</v>
+        <v>-0.06917293233082707</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01418541854185418</v>
+        <v>0.0781954887218045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002844284428442844</v>
+        <v>0.09323308270676692</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.07825982598259826</v>
+        <v>0.3082706766917293</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0794119411941194</v>
+        <v>0.3248120300751879</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.005532553255325532</v>
+        <v>-0.2270676691729323</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04801680168016801</v>
+        <v>0.09624060150375939</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04801680168016801</v>
+        <v>0.09624060150375939</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04801680168016801</v>
+        <v>0.09624060150375939</v>
       </c>
       <c r="N17" t="n">
-        <v>0.04801680168016801</v>
+        <v>0.09624060150375939</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04801680168016801</v>
+        <v>0.09624060150375939</v>
       </c>
       <c r="P17" t="n">
-        <v>0.05506150615061506</v>
+        <v>-0.3428571428571429</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.07663966396639663</v>
+        <v>0.07518796992481201</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1023582358235823</v>
+        <v>-0.2511278195488721</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.05782178217821781</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1010861086108611</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07031503150315031</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01447344734473447</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01447344734473447</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01447344734473447</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01447344734473447</v>
+        <v>0.09774436090225563</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01447344734473447</v>
+        <v>0.09774436090225563</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +1868,76 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0008880888088808879</v>
+        <v>0.08721804511278194</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02678667866786678</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02352235223522352</v>
+        <v>-0.2045112781954887</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02118211821182118</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02311431143114311</v>
+        <v>0.1609022556390977</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01352535253525352</v>
+        <v>-0.03909774436090225</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04709270927092709</v>
+        <v>-0.1819548872180451</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08945694569456945</v>
+        <v>-0.2406015037593985</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.04951695169516952</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.04951695169516952</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.04951695169516952</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.04951695169516952</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.04951695169516952</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.02412241224122412</v>
+        <v>-0.1353383458646616</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04210021002100209</v>
+        <v>0.1398496240601504</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.08805280528052804</v>
+        <v>0.2902255639097744</v>
       </c>
       <c r="S18" t="n">
-        <v>0.05761776177617762</v>
+        <v>-0.02857142857142857</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.01108910891089109</v>
+        <v>-0.4240601503759398</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03099909990999099</v>
+        <v>-0.009022556390977442</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.00378037803780378</v>
+        <v>0.06917293233082707</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.00378037803780378</v>
+        <v>0.06917293233082707</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.00378037803780378</v>
+        <v>0.06917293233082707</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.00378037803780378</v>
+        <v>0.06917293233082707</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.00378037803780378</v>
+        <v>0.06917293233082707</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +1952,76 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1241524152415241</v>
+        <v>-0.1293233082706767</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04709270927092709</v>
+        <v>-0.3609022556390977</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05527752775277527</v>
+        <v>0.3233082706766917</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.05908190819081908</v>
+        <v>-0.356390977443609</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.05528952895289528</v>
+        <v>-0.3248120300751879</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.03639963996399639</v>
+        <v>-0.09774436090225563</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001716171617161716</v>
+        <v>-0.004511278195488721</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.02372637263726373</v>
+        <v>0.4345864661654135</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03375937593759375</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03375937593759375</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03375937593759375</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03375937593759375</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03375937593759375</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1295049504950495</v>
+        <v>0.04962406015037594</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002772277227722772</v>
+        <v>-0.3368421052631578</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.1493549354935493</v>
+        <v>0.206015037593985</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.006228622862286228</v>
+        <v>0.4</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.05704170417041704</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00636063606360636</v>
+        <v>0.362406015037594</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01714971497149715</v>
+        <v>-0.1864661654135338</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01714971497149715</v>
+        <v>-0.1864661654135338</v>
       </c>
       <c r="X19" t="n">
-        <v>0.01714971497149715</v>
+        <v>-0.1864661654135338</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01714971497149715</v>
+        <v>-0.1864661654135338</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01714971497149715</v>
+        <v>-0.1864661654135338</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2032,76 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0285028502850285</v>
+        <v>-0.150375939849624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04495649564956495</v>
+        <v>0.01203007518796992</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06701470147014701</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06676267626762676</v>
+        <v>-0.07368421052631578</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08831683168316831</v>
+        <v>-0.1353383458646616</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03347134713471347</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02013801380138014</v>
+        <v>0.03759398496240601</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01819381938193819</v>
+        <v>-0.2345864661654135</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01005700570057006</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01005700570057006</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01005700570057006</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01005700570057006</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01005700570057006</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.09465346534653464</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.05615361536153615</v>
+        <v>0.1353383458646616</v>
       </c>
       <c r="R20" t="n">
-        <v>0.03859585958595859</v>
+        <v>0.1172932330827067</v>
       </c>
       <c r="S20" t="n">
-        <v>0.03559555955595559</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1847224722472247</v>
+        <v>-0.3533834586466165</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.02303030303030303</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02649864986498649</v>
+        <v>-0.06766917293233082</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02649864986498649</v>
+        <v>-0.06766917293233082</v>
       </c>
       <c r="X20" t="n">
-        <v>0.02649864986498649</v>
+        <v>-0.06766917293233082</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02649864986498649</v>
+        <v>-0.06766917293233082</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02649864986498649</v>
+        <v>-0.06766917293233082</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2112,76 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05316531653165316</v>
+        <v>-0.09924812030075188</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1260726072607261</v>
+        <v>-0.2406015037593985</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1414701470147015</v>
+        <v>0.2526315789473684</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1385418541854185</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1446024602460246</v>
+        <v>-0.2120300751879699</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1306690669066907</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1197239723972397</v>
+        <v>0.3398496240601503</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.08578457845784578</v>
+        <v>0.1639097744360902</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1106870687068707</v>
+        <v>0.4796992481203006</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1106870687068707</v>
+        <v>0.4796992481203006</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1106870687068707</v>
+        <v>0.4796992481203006</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.1106870687068707</v>
+        <v>0.4796992481203006</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1106870687068707</v>
+        <v>0.4796992481203006</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.05269726972697269</v>
+        <v>-0.362406015037594</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02347434743474347</v>
+        <v>-0.1954887218045113</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.02675067506750674</v>
+        <v>0.1609022556390977</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.09328532853285328</v>
+        <v>0.124812030075188</v>
       </c>
       <c r="T21" t="n">
-        <v>0.06294629462946294</v>
+        <v>0.3699248120300751</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.1177197719771977</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="V21" t="n">
-        <v>0.05809780978097809</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="W21" t="n">
-        <v>0.05809780978097809</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="X21" t="n">
-        <v>0.05809780978097809</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.05809780978097809</v>
+        <v>-0.1278195488721804</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.05809780978097809</v>
+        <v>-0.1278195488721804</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2192,76 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.01468946894689469</v>
+        <v>0.07218045112781954</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03079507950795079</v>
+        <v>0.01804511278195488</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01086108610861086</v>
+        <v>-0.01203007518796992</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006828682868286829</v>
+        <v>0.02105263157894736</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01854185418541854</v>
+        <v>-0.03157894736842105</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1063666366636663</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1012901290129013</v>
+        <v>-0.1849624060150376</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1462826282628263</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.05326132613261326</v>
+        <v>-0.07518796992481201</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.05326132613261326</v>
+        <v>-0.07518796992481201</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.05326132613261326</v>
+        <v>-0.07518796992481201</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.05326132613261326</v>
+        <v>-0.07518796992481201</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.05326132613261326</v>
+        <v>-0.07518796992481201</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.003972397239723972</v>
+        <v>0.1067669172932331</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1320852085208521</v>
+        <v>-0.03007518796992481</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01887788778877888</v>
+        <v>-0.2736842105263158</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.063018301830183</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.2078247824782478</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01855385538553855</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.04049204920492049</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.04049204920492049</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.04049204920492049</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.04049204920492049</v>
+        <v>0.1488721804511278</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.04049204920492049</v>
+        <v>0.1488721804511278</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.2382598259825982</v>
+        <v>0.2902255639097744</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2174977497749774</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1962916291629163</v>
+        <v>-0.237593984962406</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1894269426942694</v>
+        <v>0.2240601503759398</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1890909090909091</v>
+        <v>0.1774436090225564</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1039543954395439</v>
+        <v>0.2661654135338345</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.08976897689768974</v>
+        <v>0.08872180451127819</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1755055505550555</v>
+        <v>-0.4390977443609023</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2212541254125412</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2212541254125412</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2212541254125412</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2212541254125412</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2212541254125412</v>
+        <v>-0.1593984962406015</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.04876087608760876</v>
+        <v>0.4045112781954887</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.1322052205220522</v>
+        <v>0.04661654135338346</v>
       </c>
       <c r="R23" t="n">
-        <v>0.2644944494449445</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2057005700570057</v>
+        <v>-0.06466165413533834</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09053705370537053</v>
+        <v>-0.2526315789473684</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1502790279027903</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.168076807680768</v>
+        <v>0.193984962406015</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.168076807680768</v>
+        <v>0.193984962406015</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.168076807680768</v>
+        <v>0.193984962406015</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.168076807680768</v>
+        <v>0.193984962406015</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.168076807680768</v>
+        <v>0.193984962406015</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2356,76 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.008232823282328232</v>
+        <v>-0.2887218045112782</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05858985898589859</v>
+        <v>-0.3533834586466165</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.03597959795979597</v>
+        <v>0.3052631578947368</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03483948394839484</v>
+        <v>-0.2932330827067668</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02028202820282028</v>
+        <v>-0.3157894736842105</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.07277527752775277</v>
+        <v>-0.07218045112781954</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.07839183918391837</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02397839783978398</v>
+        <v>0.3218045112781954</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.09327332733273326</v>
+        <v>0.3669172932330827</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.09327332733273326</v>
+        <v>0.3669172932330827</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.09327332733273326</v>
+        <v>0.3669172932330827</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.09327332733273326</v>
+        <v>0.3669172932330827</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.09327332733273326</v>
+        <v>0.3669172932330827</v>
       </c>
       <c r="P24" t="n">
-        <v>0.03385538553855385</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1351575157515751</v>
+        <v>-0.3112781954887218</v>
       </c>
       <c r="R24" t="n">
-        <v>0.08577257725772576</v>
+        <v>0.02406015037593985</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.05004500450045003</v>
+        <v>0.3413533834586466</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.1539393939393939</v>
+        <v>0.1383458646616541</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.123024302430243</v>
+        <v>0.3894736842105262</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02557455745574557</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02557455745574557</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02557455745574557</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.02557455745574557</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.02557455745574557</v>
+        <v>-0.2571428571428572</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2440,76 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1075307530753075</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04058805880588059</v>
+        <v>-0.06466165413533834</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.07621962196219621</v>
+        <v>0.04661654135338346</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08019201920192016</v>
+        <v>-0.03458646616541353</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08996099609960995</v>
+        <v>-0.1052631578947368</v>
       </c>
       <c r="H25" t="n">
-        <v>0.281980198019802</v>
+        <v>-0.6360902255639098</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2316951695169517</v>
+        <v>-0.6285714285714286</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.082028202820282</v>
+        <v>0.1639097744360902</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.04326432643264326</v>
+        <v>-0.03759398496240601</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.04326432643264326</v>
+        <v>-0.03759398496240601</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.04326432643264326</v>
+        <v>-0.03759398496240601</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.04326432643264326</v>
+        <v>-0.03759398496240601</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.04326432643264326</v>
+        <v>-0.03759398496240601</v>
       </c>
       <c r="P25" t="n">
-        <v>0.03906390639063906</v>
+        <v>-0.156390977443609</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.105010501050105</v>
+        <v>-0.1097744360902256</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.2219621962196219</v>
+        <v>0.4481203007518797</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06013801380138013</v>
+        <v>0.1458646616541353</v>
       </c>
       <c r="T25" t="n">
-        <v>0.07907590759075905</v>
+        <v>-0.1413533834586466</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09428142814281427</v>
+        <v>-0.2406015037593985</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02877887788778878</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02877887788778878</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02877887788778878</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02877887788778878</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02877887788778878</v>
+        <v>-0.007518796992481202</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2520,76 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.1461986198619862</v>
+        <v>-0.18796992481203</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05342934293429343</v>
+        <v>-0.2691729323308271</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.008820882088208819</v>
+        <v>0.2766917293233083</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01911791179117912</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001128112811281128</v>
+        <v>-0.2691729323308271</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.04141614161416141</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.06897089708970895</v>
+        <v>-0.0706766917293233</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03582358235823582</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.07726372637263725</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.07726372637263725</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.07726372637263725</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.07726372637263725</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.07726372637263725</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01533753375337533</v>
+        <v>-0.1413533834586466</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.202076207620762</v>
+        <v>-0.0781954887218045</v>
       </c>
       <c r="R26" t="n">
-        <v>0.002964296429642964</v>
+        <v>0.6105263157894737</v>
       </c>
       <c r="S26" t="n">
-        <v>0.04313231323132313</v>
+        <v>0.393984962406015</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.05627362736273626</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.09346534653465345</v>
+        <v>0.1654135338345864</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.09898589858985897</v>
+        <v>-0.3759398496240601</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.09898589858985897</v>
+        <v>-0.3759398496240601</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.09898589858985897</v>
+        <v>-0.3759398496240601</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.09898589858985897</v>
+        <v>-0.3759398496240601</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.09898589858985897</v>
+        <v>-0.3759398496240601</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2604,76 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.02108610861086108</v>
+        <v>0.07518796992481201</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0377077707770777</v>
+        <v>-0.1413533834586466</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004152415241524152</v>
+        <v>0.1082706766917293</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01012901290129013</v>
+        <v>-0.1037593984962406</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.03065106510651065</v>
+        <v>-0.1112781954887218</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1009180918091809</v>
+        <v>-0.4240601503759398</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1291689168916892</v>
+        <v>-0.4406015037593984</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.07643564356435643</v>
+        <v>0.5067669172932331</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06775877587758776</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06775877587758776</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06775877587758776</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06775877587758776</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06775877587758776</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="P27" t="n">
-        <v>0.05562556255625561</v>
+        <v>-0.04661654135338346</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2754155415541554</v>
+        <v>-0.4345864661654135</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2781158115811581</v>
+        <v>0.356390977443609</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.02273027302730272</v>
+        <v>0.3699248120300751</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.156975697569757</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1575397539753975</v>
+        <v>0.09924812030075188</v>
       </c>
       <c r="V27" t="n">
-        <v>0.09278127812781277</v>
+        <v>-0.1172932330827067</v>
       </c>
       <c r="W27" t="n">
-        <v>0.09278127812781277</v>
+        <v>-0.1172932330827067</v>
       </c>
       <c r="X27" t="n">
-        <v>0.09278127812781277</v>
+        <v>-0.1172932330827067</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.09278127812781277</v>
+        <v>-0.1172932330827067</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.09278127812781277</v>
+        <v>-0.1172932330827067</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +2688,76 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.1072427242724272</v>
+        <v>0.05563909774436089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08228022802280227</v>
+        <v>-0.0481203007518797</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.08277227722772276</v>
+        <v>-0.04210526315789473</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08698469846984698</v>
+        <v>0.06165413533834586</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07240324032403239</v>
+        <v>0.1172932330827067</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.03593159315931593</v>
+        <v>-0.009022556390977442</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05515751575157515</v>
+        <v>0.1398496240601504</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.04228022802280228</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.08380438043804379</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.08380438043804379</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.08380438043804379</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.08380438043804379</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.08380438043804379</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="P28" t="n">
-        <v>0.003648364836483648</v>
+        <v>-0.09473684210526315</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.02024602460246024</v>
+        <v>-0.2601503759398496</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03973597359735974</v>
+        <v>-0.07669172932330826</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03319531953195319</v>
+        <v>-0.0150375939849624</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.03083108310831083</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.1196999699969997</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="V28" t="n">
-        <v>0.04937293729372937</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04937293729372937</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="X28" t="n">
-        <v>0.04937293729372937</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.04937293729372937</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04937293729372937</v>
+        <v>0.09172932330827067</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +2772,76 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.1337293729372937</v>
+        <v>0.1323308270676692</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003528352835283528</v>
+        <v>0.2330827067669173</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01520552055205521</v>
+        <v>-0.2766917293233083</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.01657365736573657</v>
+        <v>0.3097744360902255</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01064506450645064</v>
+        <v>0.350375939849624</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.09744974497449743</v>
+        <v>0.2015037593984962</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1674407440744074</v>
+        <v>0.2135338345864662</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.1136153615361536</v>
+        <v>-0.206015037593985</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0696069606960696</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0696069606960696</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0696069606960696</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0696069606960696</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0696069606960696</v>
+        <v>-0.1533834586466165</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.08877287728772876</v>
+        <v>0.06616541353383458</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.08513651365136513</v>
+        <v>-0.2045112781954887</v>
       </c>
       <c r="R29" t="n">
-        <v>0.006132613261326131</v>
+        <v>0.004511278195488721</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.001392139213921392</v>
+        <v>0.04210526315789473</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.03624362436243624</v>
+        <v>0.2586466165413533</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.09713771377137713</v>
+        <v>-0.05112781954887217</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.03804380438043804</v>
+        <v>0.1654135338345864</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.03804380438043804</v>
+        <v>0.1654135338345864</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.03804380438043804</v>
+        <v>0.1654135338345864</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.03804380438043804</v>
+        <v>0.1654135338345864</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.03804380438043804</v>
+        <v>0.1654135338345864</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +2856,76 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1364176417641764</v>
+        <v>-0.1819548872180451</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04933693369336933</v>
+        <v>0.07518796992481201</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02375037503750375</v>
+        <v>-0.0481203007518797</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.01654965496549655</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.04393639363936393</v>
+        <v>-0.01804511278195488</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.003516351635163516</v>
+        <v>-0.3609022556390977</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03482748274827482</v>
+        <v>-0.5263157894736841</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0774077407740774</v>
+        <v>-0.2150375939849624</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03572757275727572</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03572757275727572</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03572757275727572</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03572757275727572</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03572757275727572</v>
+        <v>-0.1789473684210526</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.01542154215421542</v>
+        <v>0.2090225563909774</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.1025022502250225</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="R30" t="n">
-        <v>0.158019801980198</v>
+        <v>-0.1007518796992481</v>
       </c>
       <c r="S30" t="n">
-        <v>0.09599759975997599</v>
+        <v>-0.1443609022556391</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.07817581758175818</v>
+        <v>-0.3684210526315789</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06523852385238524</v>
+        <v>-0.1323308270676692</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.05423342334233423</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.05423342334233423</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.05423342334233423</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.05423342334233423</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.05423342334233423</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +2940,76 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4801920192019202</v>
+        <v>0.7353383458646616</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9822502250225021</v>
+        <v>0.9804511278195487</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.99996399639964</v>
+        <v>-1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9952715271527151</v>
+        <v>0.993984962406015</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9897989798979897</v>
+        <v>0.9834586466165413</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3638403840384039</v>
+        <v>0.2691729323308271</v>
       </c>
       <c r="I31" t="n">
-        <v>0.015997599759976</v>
+        <v>-0.09924812030075188</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4967656765676567</v>
+        <v>-0.6721804511278194</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8811041104110411</v>
+        <v>-0.8706766917293233</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8811041104110411</v>
+        <v>-0.8706766917293233</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8811041104110411</v>
+        <v>-0.8706766917293233</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8811041104110411</v>
+        <v>-0.8706766917293233</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8811041104110411</v>
+        <v>-0.8706766917293233</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.09570957095709569</v>
+        <v>0.156390977443609</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0504050405040504</v>
+        <v>0.318796992481203</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6046684668466846</v>
+        <v>-0.4887218045112782</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.6383438343834383</v>
+        <v>-0.6646616541353383</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1243084308430843</v>
+        <v>-0.3368421052631578</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.7116471647164715</v>
+        <v>-0.8075187969924811</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8286468646864684</v>
+        <v>0.8781954887218045</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8286468646864684</v>
+        <v>0.8781954887218045</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8286468646864684</v>
+        <v>0.8781954887218045</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8286468646864684</v>
+        <v>0.8781954887218045</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8286468646864684</v>
+        <v>0.8781954887218045</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3024,76 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.1091269126912691</v>
+        <v>0.4150375939849624</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1404980498049805</v>
+        <v>0.6045112781954887</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1229162916291629</v>
+        <v>-0.5609022556390978</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.118043804380438</v>
+        <v>0.5458646616541353</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.09977797779777978</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.171029102910291</v>
+        <v>-0.1172932330827067</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1639483948394839</v>
+        <v>-0.3894736842105262</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2559375937593759</v>
+        <v>-0.7022556390977444</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1795259525952595</v>
+        <v>-0.6631578947368421</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1795259525952595</v>
+        <v>-0.6631578947368421</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1795259525952595</v>
+        <v>-0.6631578947368421</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1795259525952595</v>
+        <v>-0.6631578947368421</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1795259525952595</v>
+        <v>-0.6631578947368421</v>
       </c>
       <c r="P32" t="n">
-        <v>0.07542754275427542</v>
+        <v>0.02706766917293233</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.08585658565856585</v>
+        <v>0.4225563909774436</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1437863786378638</v>
+        <v>-0.3308270676691729</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2063726372637264</v>
+        <v>-0.5954887218045113</v>
       </c>
       <c r="T32" t="n">
-        <v>0.1807740774077408</v>
+        <v>-0.6375939849624059</v>
       </c>
       <c r="U32" t="n">
-        <v>0.06805880588058806</v>
+        <v>-0.5308270676691729</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.1558355835583558</v>
+        <v>0.5203007518796992</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.1558355835583558</v>
+        <v>0.5203007518796992</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.1558355835583558</v>
+        <v>0.5203007518796992</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.1558355835583558</v>
+        <v>0.5203007518796992</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.1558355835583558</v>
+        <v>0.5203007518796992</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3108,76 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.0008640864086408639</v>
+        <v>0.2827067669172932</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1207560756075607</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="E33" t="n">
-        <v>0.136045604560456</v>
+        <v>-0.2571428571428572</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1295169516951695</v>
+        <v>0.2616541353383459</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1652685268526852</v>
+        <v>0.3097744360902255</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.09393339333933393</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.03914791479147915</v>
+        <v>0.09172932330827067</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.2538493849384938</v>
+        <v>-0.01804511278195488</v>
       </c>
       <c r="K33" t="n">
-        <v>0.02177017701770177</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="L33" t="n">
-        <v>0.02177017701770177</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="M33" t="n">
-        <v>0.02177017701770177</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="N33" t="n">
-        <v>0.02177017701770177</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02177017701770177</v>
+        <v>-0.003007518796992481</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01760576057605761</v>
+        <v>-0.2661654135338345</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.09982598259825981</v>
+        <v>-0.2210526315789474</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1791779177917792</v>
+        <v>0.1112781954887218</v>
       </c>
       <c r="S33" t="n">
-        <v>0.02357035703570357</v>
+        <v>0.0781954887218045</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.2529372937293729</v>
+        <v>0.2090225563909774</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01692169216921692</v>
+        <v>-0.2285714285714286</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.1688208820882088</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.1688208820882088</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.1688208820882088</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.1688208820882088</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.1688208820882088</v>
+        <v>0.2225563909774436</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3192,76 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.07867986798679868</v>
+        <v>-0.02105263157894736</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.001452145214521452</v>
+        <v>-0.1323308270676692</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.004992499249924992</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01372937293729373</v>
+        <v>-0.1157894736842105</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02329432943294329</v>
+        <v>-0.08421052631578946</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.05195319531953196</v>
+        <v>0.4496240601503759</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.0833123312331233</v>
+        <v>0.4406015037593984</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04705670567056705</v>
+        <v>0.1037593984962406</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01897389738973897</v>
+        <v>0.1819548872180451</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01897389738973897</v>
+        <v>0.1819548872180451</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01897389738973897</v>
+        <v>0.1819548872180451</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01897389738973897</v>
+        <v>0.1819548872180451</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01897389738973897</v>
+        <v>0.1819548872180451</v>
       </c>
       <c r="P34" t="n">
-        <v>0.07355535553555355</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.09720972097209721</v>
+        <v>-0.1022556390977443</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.1047584758475847</v>
+        <v>0.05864661654135337</v>
       </c>
       <c r="S34" t="n">
-        <v>0.02052205220522052</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1142634263426343</v>
+        <v>0.118796992481203</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.04694869486948694</v>
+        <v>0.3248120300751879</v>
       </c>
       <c r="V34" t="n">
-        <v>0.03284728472847284</v>
+        <v>-0.2556390977443609</v>
       </c>
       <c r="W34" t="n">
-        <v>0.03284728472847284</v>
+        <v>-0.2556390977443609</v>
       </c>
       <c r="X34" t="n">
-        <v>0.03284728472847284</v>
+        <v>-0.2556390977443609</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03284728472847284</v>
+        <v>-0.2556390977443609</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.03284728472847284</v>
+        <v>-0.2556390977443609</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3276,76 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.03380738073807381</v>
+        <v>-0.01203007518796992</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1281488148814881</v>
+        <v>-0.01203007518796992</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1081308130813081</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.09372937293729372</v>
+        <v>-0.05714285714285714</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.09848184818481848</v>
+        <v>-0.02706766917293233</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.05146114611461145</v>
+        <v>0.2165413533834586</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01956195619561956</v>
+        <v>0.1984962406015038</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1558475847584758</v>
+        <v>0.1669172932330827</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1341494149414942</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1341494149414942</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1341494149414942</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1341494149414942</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1341494149414942</v>
+        <v>0.05112781954887217</v>
       </c>
       <c r="P35" t="n">
-        <v>0.124020402040204</v>
+        <v>0.1909774436090226</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.1196759675967597</v>
+        <v>0.04060150375939849</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.06774677467746774</v>
+        <v>-0.1203007518796992</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1818661866186618</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02564656465646564</v>
+        <v>0.04360902255639097</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05834983498349834</v>
+        <v>0.2225563909774436</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.1138673867386739</v>
+        <v>-0.04360902255639097</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.1138673867386739</v>
+        <v>-0.04360902255639097</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.1138673867386739</v>
+        <v>-0.04360902255639097</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.1138673867386739</v>
+        <v>-0.04360902255639097</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.1138673867386739</v>
+        <v>-0.04360902255639097</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3360,76 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03199519951995199</v>
+        <v>-0.3774436090225564</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07926792679267926</v>
+        <v>-0.2781954887218045</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.08122412241224122</v>
+        <v>0.2496240601503759</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08962496249624961</v>
+        <v>-0.2556390977443609</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07404740474047403</v>
+        <v>-0.2195488721804511</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.063018301830183</v>
+        <v>0.09473684210526315</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.07501950195019501</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.06623462346234622</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1409660966096609</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1409660966096609</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1409660966096609</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1409660966096609</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1409660966096609</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.07035103510351035</v>
+        <v>-0.08721804511278194</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.007296729672967297</v>
+        <v>-0.3203007518796992</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0565136513651365</v>
+        <v>0.09323308270676692</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01752175217521752</v>
+        <v>0.2180451127819548</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.05153315331533153</v>
+        <v>0.2872180451127819</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.06712271227122713</v>
+        <v>0.4060150375939849</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2268706870687069</v>
+        <v>0.05413533834586466</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2268706870687069</v>
+        <v>0.05413533834586466</v>
       </c>
       <c r="X36" t="n">
-        <v>0.2268706870687069</v>
+        <v>0.05413533834586466</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.2268706870687069</v>
+        <v>0.05413533834586466</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.2268706870687069</v>
+        <v>0.05413533834586466</v>
       </c>
     </row>
     <row r="37">
@@ -3444,76 +3444,76 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.07817581758175818</v>
+        <v>-0.1293233082706767</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05526552655265525</v>
+        <v>-0.00150375939849624</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.05417341734173416</v>
+        <v>-0.007518796992481202</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05448544854485448</v>
+        <v>0.00150375939849624</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04991299129912991</v>
+        <v>-0.01203007518796992</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01842184218421842</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03245124512451245</v>
+        <v>0.08120300751879699</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.03161116111611161</v>
+        <v>-0.009022556390977442</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0324032403240324</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0324032403240324</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0324032403240324</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.0324032403240324</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.0324032403240324</v>
+        <v>-0.02556390977443609</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1598919891989199</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08303630363036305</v>
+        <v>0.2180451127819548</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.1043864386438644</v>
+        <v>-0.02255639097744361</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.04937293729372937</v>
+        <v>-0.2526315789473684</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.05797779777977797</v>
+        <v>-0.1699248120300751</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.08289228922892287</v>
+        <v>0.02556390977443609</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01204920492049205</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01204920492049205</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01204920492049205</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01204920492049205</v>
+        <v>0.1443609022556391</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01204920492049205</v>
+        <v>0.1443609022556391</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
     </row>
@@ -712,76 +712,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4571428571428571</v>
+        <v>-0.1317034173001367</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4631578947368421</v>
+        <v>-0.1402826869873074</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3593984962406014</v>
+        <v>-0.001001227432049097</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3052631578947368</v>
+        <v>0.02951177983647119</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2135338345864662</v>
+        <v>0.1541268489810739</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1278195488721804</v>
+        <v>0.02565755613030224</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4135338345864661</v>
+        <v>-0.006983176887327074</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6060150375939849</v>
+        <v>0.4346364309835606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6360902255639098</v>
+        <v>0.3245295416851817</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6360902255639098</v>
+        <v>0.3245295416851817</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6360902255639098</v>
+        <v>0.3245295416851817</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6360902255639098</v>
+        <v>0.3245295416851817</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6360902255639098</v>
+        <v>0.3245295416851817</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.2992481203007519</v>
+        <v>-0.08002375404895015</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.7954887218045112</v>
+        <v>-0.6985449895737995</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.01190651327626053</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5744360902255639</v>
+        <v>0.3054996926679877</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9954887218045112</v>
+        <v>0.9925735855269433</v>
       </c>
       <c r="U4" t="n">
-        <v>0.393984962406015</v>
+        <v>0.174959925494397</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.162406015037594</v>
+        <v>0.08855693922227754</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.162406015037594</v>
+        <v>0.08855693922227754</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.162406015037594</v>
+        <v>0.08855693922227754</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.162406015037594</v>
+        <v>0.08855693922227754</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.162406015037594</v>
+        <v>0.08855693922227754</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +792,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.08489262185970485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.306766917293233</v>
+        <v>0.1241312155892486</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1954887218045113</v>
+        <v>0.007364272806570911</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1473684210526316</v>
+        <v>-0.08867101007484039</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1218045112781955</v>
+        <v>-0.007556744654269785</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3684210526315789</v>
+        <v>-0.03263958399358335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2255639097744361</v>
+        <v>-0.0005059528522381141</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5097744360902255</v>
+        <v>0.006275141456692545</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4390977443609023</v>
+        <v>-0.1338837329073493</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4390977443609023</v>
+        <v>-0.1338837329073493</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4390977443609023</v>
+        <v>-0.1338837329073493</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4390977443609023</v>
+        <v>-0.1338837329073493</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4390977443609023</v>
+        <v>-0.1338837329073493</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4225563909774436</v>
+        <v>0.09894362843774512</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8872180451127819</v>
+        <v>0.6494538299141531</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2842105263157895</v>
+        <v>0.005129470765178829</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.5774436090225563</v>
+        <v>-0.3289147982445919</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.5684210526315789</v>
+        <v>2.39816649592666e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.2766917293233083</v>
+        <v>-0.1014845304273812</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.09671401567656061</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.09671401567656061</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.09671401567656061</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.09671401567656061</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.09671401567656061</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +872,76 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1894736842105263</v>
+        <v>0.1815457591338303</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1338345864661654</v>
+        <v>-0.02040055425602217</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1593984962406015</v>
+        <v>0.01999732217589288</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1413533834586466</v>
+        <v>-0.01306697889067915</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1037593984962406</v>
+        <v>-0.0212143575205743</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9022556390977443</v>
+        <v>0.9099230977089237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9368421052631578</v>
+        <v>0.9579628848145153</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1112781954887218</v>
+        <v>-0.3312569084591002</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2781954887218045</v>
+        <v>0.1198836463633458</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2781954887218045</v>
+        <v>0.1198836463633458</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2781954887218045</v>
+        <v>0.1198836463633458</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2781954887218045</v>
+        <v>0.1198836463633458</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2781954887218045</v>
+        <v>0.1198836463633458</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1669172932330827</v>
+        <v>-0.002903518388140735</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05413533834586466</v>
+        <v>0.0006872728594909143</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.1294561331462453</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1037593984962406</v>
+        <v>-0.04695660917426436</v>
       </c>
       <c r="T6" t="n">
-        <v>0.263157894736842</v>
+        <v>-0.001401301112052044</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4330827067669173</v>
+        <v>0.4393058232042329</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.001386181303447252</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.001386181303447252</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.001386181303447252</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.001386181303447252</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.001386181303447252</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +956,76 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3894736842105262</v>
+        <v>0.4675761112150443</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006015037593984962</v>
+        <v>0.0274789525871581</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02105263157894736</v>
+        <v>-0.02385588153023526</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02706766917293233</v>
+        <v>0.02288354107534164</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03157894736842105</v>
+        <v>0.02094356426174257</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3684210526315789</v>
+        <v>0.01437051023882041</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2947368421052631</v>
+        <v>0.001493300027732001</v>
       </c>
       <c r="J7" t="n">
-        <v>0.318796992481203</v>
+        <v>-0.02024412174372855</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01954887218045112</v>
+        <v>-0.02479206358368254</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01954887218045112</v>
+        <v>-0.02479206358368254</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01954887218045112</v>
+        <v>-0.02479206358368254</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01954887218045112</v>
+        <v>-0.02479206358368254</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.01954887218045112</v>
+        <v>-0.02479206358368254</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3909774436090225</v>
+        <v>-0.583944402461776</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.02023842560953702</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2691729323308271</v>
+        <v>-0.01691520634060825</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2075187969924812</v>
+        <v>-0.0193642602305704</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.004511278195488721</v>
+        <v>-0.01916301974252079</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1759398496240602</v>
+        <v>-0.008557507542300301</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.02455959544638381</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.02455959544638381</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.02455959544638381</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.02455959544638381</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.02455959544638381</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1040,76 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6992481203007518</v>
+        <v>0.5127304643172185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4270676691729323</v>
+        <v>0.01340577826423113</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.350375939849624</v>
+        <v>-0.01174409086976363</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2962406015037594</v>
+        <v>0.01096373400654936</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2496240601503759</v>
+        <v>0.009768676614747063</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1413533834586466</v>
+        <v>-0.008404227792169112</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3849624060150376</v>
+        <v>-0.009443602841744113</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1323308270676692</v>
+        <v>-0.009801731225944032</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.4571428571428571</v>
+        <v>-0.007311140356445613</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.4571428571428571</v>
+        <v>-0.007311140356445613</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.4571428571428571</v>
+        <v>-0.007311140356445613</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.4571428571428571</v>
+        <v>-0.007311140356445613</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.4571428571428571</v>
+        <v>-0.007311140356445613</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6375939849624059</v>
+        <v>0.7058263244250529</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3473684210526315</v>
+        <v>0.003537992685519707</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01203007518796992</v>
+        <v>-0.008662196410487854</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.1157894736842105</v>
+        <v>0.01044493337779733</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.3714285714285714</v>
+        <v>-0.01206801581072063</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.4451127819548871</v>
+        <v>-0.007428337161133485</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.002811506416460257</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.002811506416460257</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.002811506416460257</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.002811506416460257</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.002811506416460257</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1124,76 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.05864661654135337</v>
+        <v>0.01674344860573794</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1714285714285714</v>
+        <v>-0.01148534148341366</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.112781954887218</v>
+        <v>0.01227088061883522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05714285714285714</v>
+        <v>-0.01068498407539936</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03458646616541353</v>
+        <v>-0.009820237256809488</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2165413533834586</v>
+        <v>0.02176584845463394</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.3969924812030075</v>
+        <v>0.02935640968625638</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.5278195488721804</v>
+        <v>-0.005365911545181052</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.1744360902255639</v>
+        <v>0.01054422051776882</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.1744360902255639</v>
+        <v>0.01054422051776882</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.1744360902255639</v>
+        <v>0.01054422051776882</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1744360902255639</v>
+        <v>0.01054422051776882</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.1744360902255639</v>
+        <v>0.01054422051776882</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.05563909774436089</v>
+        <v>-0.0001865768714630748</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4135338345864661</v>
+        <v>0.0100798300031932</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.3218045112781954</v>
+        <v>-0.01987692453907698</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.312781954887218</v>
+        <v>-0.01862575140103005</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.5714285714285714</v>
+        <v>0.01135147965405918</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1729323308270676</v>
+        <v>0.01444959974598399</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1699248120300751</v>
+        <v>-0.003560044750401789</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1699248120300751</v>
+        <v>-0.003560044750401789</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1699248120300751</v>
+        <v>-0.003560044750401789</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1699248120300751</v>
+        <v>-0.003560044750401789</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1699248120300751</v>
+        <v>-0.003560044750401789</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1208,76 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2766917293233083</v>
+        <v>0.06419600848784032</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2390977443609023</v>
+        <v>0.007942009565680381</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2466165413533834</v>
+        <v>-0.008917172996686918</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2646616541353383</v>
+        <v>0.009592128191685126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2526315789473684</v>
+        <v>0.00949832927593317</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3293233082706767</v>
+        <v>0.00403931824157273</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1759398496240602</v>
+        <v>-0.0009429528377181134</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.1022556390977443</v>
+        <v>0.003619931149307727</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.009590604863624192</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.009590604863624192</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.009590604863624192</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.009590604863624192</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.09323308270676692</v>
+        <v>-0.009590604863624192</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2601503759398496</v>
+        <v>0.06919696318387852</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06315789473684209</v>
+        <v>-0.005571040542841621</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.04661654135338346</v>
+        <v>-0.02041216440048657</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.150375939849624</v>
+        <v>0.008204046472161858</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.06015037593984961</v>
+        <v>0.005329964373198574</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1488721804511278</v>
+        <v>-0.009100137580005501</v>
       </c>
       <c r="V10" t="n">
-        <v>0.393984962406015</v>
+        <v>0.002237200985488039</v>
       </c>
       <c r="W10" t="n">
-        <v>0.393984962406015</v>
+        <v>0.002237200985488039</v>
       </c>
       <c r="X10" t="n">
-        <v>0.393984962406015</v>
+        <v>0.002237200985488039</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.393984962406015</v>
+        <v>0.002237200985488039</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.393984962406015</v>
+        <v>0.002237200985488039</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1037593984962406</v>
+        <v>0.1544839815713592</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1142857142857143</v>
+        <v>-0.002367201694688067</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2150375939849624</v>
+        <v>-0.001190113679604547</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2706766917293233</v>
+        <v>0.003558046318321852</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3097744360902255</v>
+        <v>0.000518332628733305</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.2</v>
+        <v>-0.004261776746471069</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004511278195488721</v>
+        <v>0.2739322870212915</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2526315789473684</v>
+        <v>-0.01774321718704925</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.002032551921302077</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.002032551921302077</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.002032551921302077</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.002032551921302077</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.002032551921302077</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.4631578947368421</v>
+        <v>0.03378788151151526</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.3804511278195489</v>
+        <v>-0.01363675091347004</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.124812030075188</v>
+        <v>-0.001833099913323996</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.01654135338345865</v>
+        <v>-0.009717133060685321</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4721804511278195</v>
+        <v>-0.000226323177052927</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.2466165413533834</v>
+        <v>-0.000998032071921283</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3203007518796992</v>
+        <v>0.01188204585128183</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3203007518796992</v>
+        <v>0.01188204585128183</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3203007518796992</v>
+        <v>0.01188204585128183</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3203007518796992</v>
+        <v>0.01188204585128183</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3203007518796992</v>
+        <v>0.01188204585128183</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1368,76 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3533834586466165</v>
+        <v>-0.2743957159038286</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3097744360902255</v>
+        <v>0.002924792660991706</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3052631578947368</v>
+        <v>-0.002384787647391506</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2872180451127819</v>
+        <v>0.0005848192553927701</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2781954887218045</v>
+        <v>0.003527352717094108</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5067669172932331</v>
+        <v>0.006393325503733019</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.3714285714285714</v>
+        <v>0.00596510827060433</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3669172932330827</v>
+        <v>-0.003969044236478786</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2030075187969924</v>
+        <v>-0.003628844689153787</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2030075187969924</v>
+        <v>-0.003628844689153787</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2030075187969924</v>
+        <v>-0.003628844689153787</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2030075187969924</v>
+        <v>-0.003628844689153787</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2030075187969924</v>
+        <v>-0.003628844689153787</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.3548872180451128</v>
+        <v>-0.04702237743289508</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.1278195488721804</v>
+        <v>0.00207476600299064</v>
       </c>
       <c r="R12" t="n">
-        <v>0.03609022556390977</v>
+        <v>0.001571230238849209</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1338345864661654</v>
+        <v>-0.01580640092025603</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1278195488721804</v>
+        <v>0.01344579087383163</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004511278195488721</v>
+        <v>0.00342953101718124</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.00377946101517844</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.00377946101517844</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.00377946101517844</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.00377946101517844</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.08571428571428572</v>
+        <v>0.00377946101517844</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1452,76 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.04511278195488722</v>
+        <v>0.0320475225939009</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.001134855981394239</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1969924812030075</v>
+        <v>0.0004488032819521311</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1849624060150376</v>
+        <v>-7.839926713597067e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1413533834586466</v>
+        <v>0.0003850928794037151</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3593984962406014</v>
+        <v>0.01191500735660029</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2225563909774436</v>
+        <v>0.008566614198664566</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6120300751879698</v>
+        <v>-0.007540212327667466</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.2691729323308271</v>
+        <v>-0.00337713776708551</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.2691729323308271</v>
+        <v>-0.00337713776708551</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.2691729323308271</v>
+        <v>-0.00337713776708551</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.2691729323308271</v>
+        <v>-0.00337713776708551</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.2691729323308271</v>
+        <v>-0.00337713776708551</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.03618836592753463</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.5338345864661653</v>
+        <v>0.01221443444057737</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.2390977443609023</v>
+        <v>-0.003461485194459407</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.5413533834586466</v>
+        <v>0.005515291228611648</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.3819548872180452</v>
+        <v>-0.0004202670888106835</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.1067669172932331</v>
+        <v>0.001418702456748098</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1954887218045113</v>
+        <v>-0.008331391917255676</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1954887218045113</v>
+        <v>-0.008331391917255676</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1954887218045113</v>
+        <v>-0.008331391917255676</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.1954887218045113</v>
+        <v>-0.008331391917255676</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1954887218045113</v>
+        <v>-0.008331391917255676</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1536,76 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.150375939849624</v>
+        <v>-0.02875560652622425</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2541353383458646</v>
+        <v>0.007946668733866749</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2240601503759398</v>
+        <v>-0.009209962064398482</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2270676691729323</v>
+        <v>0.008476801875072073</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1954887218045113</v>
+        <v>0.009399557655982304</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3684210526315789</v>
+        <v>-0.00143835951353438</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1729323308270676</v>
+        <v>-0.007119685916787436</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.3639097744360902</v>
+        <v>-0.003804234117316797</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.1714285714285714</v>
+        <v>-0.008811972064478882</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.1714285714285714</v>
+        <v>-0.008811972064478882</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.1714285714285714</v>
+        <v>-0.008811972064478882</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.1714285714285714</v>
+        <v>-0.008811972064478882</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1714285714285714</v>
+        <v>-0.008811972064478882</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02556390977443609</v>
+        <v>-0.04143123477724939</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2421052631578947</v>
+        <v>-0.01022902898516116</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.05563909774436089</v>
+        <v>-0.0190480874819235</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.1308270676691729</v>
+        <v>-0.009205959824238391</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.2842105263157895</v>
+        <v>0.01122066630482665</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.1142857142857143</v>
+        <v>-0.01180109548004382</v>
       </c>
       <c r="V14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.01345325593013024</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.01345325593013024</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.01345325593013024</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.01345325593013024</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1142857142857143</v>
+        <v>0.01345325593013024</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1620,76 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1684210526315789</v>
+        <v>-0.001999421167976846</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3172932330827067</v>
+        <v>0.01583074652122986</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3248120300751879</v>
+        <v>-0.01740816405632656</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2977443609022556</v>
+        <v>0.01637293438291737</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.3278195488721804</v>
+        <v>0.0178597549863902</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2165413533834586</v>
+        <v>-0.0004775252351010094</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01052631578947368</v>
+        <v>-0.01063130442525218</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0706766917293233</v>
+        <v>-0.001434545918339627</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09473684210526315</v>
+        <v>-0.0140011524320461</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09473684210526315</v>
+        <v>-0.0140011524320461</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09473684210526315</v>
+        <v>-0.0140011524320461</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09473684210526315</v>
+        <v>-0.0140011524320461</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09473684210526315</v>
+        <v>-0.0140011524320461</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.02119529076781163</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.009022556390977442</v>
+        <v>-0.00189081549963262</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.003337592773503711</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01052631578947368</v>
+        <v>-0.01148035361121414</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.05413533834586466</v>
+        <v>0.009039735529589419</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1142857142857143</v>
+        <v>-0.0273694076547763</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.2586466165413533</v>
+        <v>0.01898016680720667</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.2586466165413533</v>
+        <v>0.01898016680720667</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.2586466165413533</v>
+        <v>0.01898016680720667</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.2586466165413533</v>
+        <v>0.01898016680720667</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.2586466165413533</v>
+        <v>0.01898016680720667</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1704,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.003588668975546759</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.00246724800268992</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.07969924812030074</v>
+        <v>-0.0079447900137916</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01954887218045112</v>
+        <v>0.01179515327180613</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02105263157894736</v>
+        <v>0.009754184070167361</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0781954887218045</v>
+        <v>0.01367787520311501</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.263157894736842</v>
+        <v>0.01187364479494579</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.3398496240601503</v>
+        <v>-0.006531803563846055</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.2616541353383459</v>
+        <v>-0.006639983017599319</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.2616541353383459</v>
+        <v>-0.006639983017599319</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.2616541353383459</v>
+        <v>-0.006639983017599319</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.2616541353383459</v>
+        <v>-0.006639983017599319</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.2616541353383459</v>
+        <v>-0.006639983017599319</v>
       </c>
       <c r="P16" t="n">
-        <v>0.443609022556391</v>
+        <v>-0.03510954044438162</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4240601503759398</v>
+        <v>-0.02933120286924811</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.03609022556390977</v>
+        <v>-0.01460104522404181</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.1533834586466165</v>
+        <v>0.01731351544454062</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.5338345864661653</v>
+        <v>0.008146904869876194</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.1233082706766917</v>
+        <v>0.005486083803443351</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.005368903894756155</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.005368903894756155</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.005368903894756155</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.005368903894756155</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.04661654135338346</v>
+        <v>0.005368903894756155</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +1784,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.1293233082706767</v>
+        <v>0.01572666139706645</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07669172932330826</v>
+        <v>0.0155771051030842</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.06917293233082707</v>
+        <v>-0.01770827235633089</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0781954887218045</v>
+        <v>0.01893345723733829</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09323308270676692</v>
+        <v>0.01609284496371379</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3082706766917293</v>
+        <v>-9.647625985905038e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3248120300751879</v>
+        <v>-0.006570467302818691</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.2270676691729323</v>
+        <v>-0.02207653022335769</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09624060150375939</v>
+        <v>-0.01917454463898178</v>
       </c>
       <c r="L17" t="n">
-        <v>0.09624060150375939</v>
+        <v>-0.01917454463898178</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09624060150375939</v>
+        <v>-0.01917454463898178</v>
       </c>
       <c r="N17" t="n">
-        <v>0.09624060150375939</v>
+        <v>-0.01917454463898178</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09624060150375939</v>
+        <v>-0.01917454463898178</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.3428571428571429</v>
+        <v>-0.004490001491600059</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07518796992481201</v>
+        <v>-0.00731710550868422</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.2511278195488721</v>
+        <v>-0.01110264111610564</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.1203007518796992</v>
+        <v>-0.02161036694441467</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1368421052631579</v>
+        <v>-0.002133691669347666</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.02019862679194507</v>
       </c>
       <c r="V17" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.02103727600949104</v>
       </c>
       <c r="W17" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.02103727600949104</v>
       </c>
       <c r="X17" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.02103727600949104</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.02103727600949104</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.09774436090225563</v>
+        <v>0.02103727600949104</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +1868,76 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08721804511278194</v>
+        <v>-0.01536319347852774</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2285714285714286</v>
+        <v>-0.007663759218550368</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2045112781954887</v>
+        <v>0.003963231998529279</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2285714285714286</v>
+        <v>-0.003013484664539386</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1609022556390977</v>
+        <v>-0.005521941724877669</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.03909774436090225</v>
+        <v>-0.007281983619279344</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1819548872180451</v>
+        <v>-0.004741255389650215</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.2406015037593985</v>
+        <v>0.01525683128700086</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.2601503759398496</v>
+        <v>0.0003880586075223442</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.2601503759398496</v>
+        <v>0.0003880586075223442</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.2601503759398496</v>
+        <v>0.0003880586075223442</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.2601503759398496</v>
+        <v>0.0003880586075223442</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.2601503759398496</v>
+        <v>0.0003880586075223442</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.1353383458646616</v>
+        <v>0.01161651579266063</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1398496240601504</v>
+        <v>-0.01004261060970442</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2902255639097744</v>
+        <v>0.009035678857427152</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.02857142857142857</v>
+        <v>0.01925708957028358</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.4240601503759398</v>
+        <v>-0.00574618227784729</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.009022556390977442</v>
+        <v>-0.0006683015307320611</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06917293233082707</v>
+        <v>-0.01636089943843598</v>
       </c>
       <c r="W18" t="n">
-        <v>0.06917293233082707</v>
+        <v>-0.01636089943843598</v>
       </c>
       <c r="X18" t="n">
-        <v>0.06917293233082707</v>
+        <v>-0.01636089943843598</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.06917293233082707</v>
+        <v>-0.01636089943843598</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.06917293233082707</v>
+        <v>-0.01636089943843598</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +1952,76 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1293233082706767</v>
+        <v>-0.03954852820594112</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3609022556390977</v>
+        <v>-0.01146364961054598</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3233082706766917</v>
+        <v>0.01258251170330047</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.356390977443609</v>
+        <v>-0.01225667050626682</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3248120300751879</v>
+        <v>-0.01492321960492878</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.09774436090225563</v>
+        <v>-0.009982460367298412</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.004511278195488721</v>
+        <v>-0.005024797256991891</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4345864661654135</v>
+        <v>-0.003956328027926189</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.004633997945359918</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.004633997945359918</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.004633997945359918</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.004633997945359918</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5894736842105263</v>
+        <v>0.004633997945359918</v>
       </c>
       <c r="P19" t="n">
-        <v>0.04962406015037594</v>
+        <v>-0.01948318810732752</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.3368421052631578</v>
+        <v>0.003901894236075769</v>
       </c>
       <c r="R19" t="n">
-        <v>0.206015037593985</v>
+        <v>0.0302666126986645</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4</v>
+        <v>-0.001516400796656032</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3052631578947368</v>
+        <v>-0.01490607371624295</v>
       </c>
       <c r="U19" t="n">
-        <v>0.362406015037594</v>
+        <v>0.01060098714403948</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.1864661654135338</v>
+        <v>-0.005243022065720882</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.1864661654135338</v>
+        <v>-0.005243022065720882</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.1864661654135338</v>
+        <v>-0.005243022065720882</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.1864661654135338</v>
+        <v>-0.005243022065720882</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.1864661654135338</v>
+        <v>-0.005243022065720882</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2032,76 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.150375939849624</v>
+        <v>0.01862332682493307</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01203007518796992</v>
+        <v>0.01053221648528866</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06766917293233082</v>
+        <v>-0.008103082308123292</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07368421052631578</v>
+        <v>0.00581853776874151</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1353383458646616</v>
+        <v>0.006088184115527364</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1714285714285714</v>
+        <v>-0.003966758270670331</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03759398496240601</v>
+        <v>-0.006169556118782244</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.2345864661654135</v>
+        <v>0.0003207159979370343</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.01459291104771644</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.01459291104771644</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.01459291104771644</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.01459291104771644</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.01459291104771644</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2210526315789474</v>
+        <v>0.00895089328603573</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1353383458646616</v>
+        <v>0.02005838787433551</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1172932330827067</v>
+        <v>0.007916796220671847</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.1533834586466165</v>
+        <v>-0.02129638385985536</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.3533834586466165</v>
+        <v>-0.01393497799739912</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1052631578947368</v>
+        <v>-0.01852822614912904</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.06766917293233082</v>
+        <v>0.003161565438462617</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.06766917293233082</v>
+        <v>0.003161565438462617</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.06766917293233082</v>
+        <v>0.003161565438462617</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.06766917293233082</v>
+        <v>0.003161565438462617</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.06766917293233082</v>
+        <v>0.003161565438462617</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2112,76 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.09924812030075188</v>
+        <v>-0.004052095554083822</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2406015037593985</v>
+        <v>0.01321321320052853</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2526315789473684</v>
+        <v>-0.01007474795498992</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2571428571428572</v>
+        <v>0.007275816579032663</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2120300751879699</v>
+        <v>0.005873782122951284</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.007388885575555421</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3398496240601503</v>
+        <v>-0.01017601365504055</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1639097744360902</v>
+        <v>-0.009005139847327355</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4796992481203006</v>
+        <v>-0.01033586230143449</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4796992481203006</v>
+        <v>-0.01033586230143449</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4796992481203006</v>
+        <v>-0.01033586230143449</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4796992481203006</v>
+        <v>-0.01033586230143449</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4796992481203006</v>
+        <v>-0.01033586230143449</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.362406015037594</v>
+        <v>-0.003364049414561976</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.1954887218045113</v>
+        <v>0.01849341981173679</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1609022556390977</v>
+        <v>-0.001511014524440581</v>
       </c>
       <c r="S21" t="n">
-        <v>0.124812030075188</v>
+        <v>-0.006047675953907037</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3699248120300751</v>
+        <v>-0.01690647485225899</v>
       </c>
       <c r="U21" t="n">
-        <v>0.2105263157894737</v>
+        <v>-0.01700962215238488</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.1278195488721804</v>
+        <v>0.000862511554500462</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.1278195488721804</v>
+        <v>0.000862511554500462</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.1278195488721804</v>
+        <v>0.000862511554500462</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.1278195488721804</v>
+        <v>0.000862511554500462</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.1278195488721804</v>
+        <v>0.000862511554500462</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2192,76 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.07218045112781954</v>
+        <v>-0.0009621738624869543</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01804511278195488</v>
+        <v>-0.02655094119003764</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01203007518796992</v>
+        <v>0.02713095871723835</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02105263157894736</v>
+        <v>-0.02739336195973448</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.03157894736842105</v>
+        <v>-0.02464871848994874</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.02858851083954043</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1849624060150376</v>
+        <v>-0.01713025143721005</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03308270676691729</v>
+        <v>0.0276345981608891</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.07518796992481201</v>
+        <v>0.02437448929497957</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.07518796992481201</v>
+        <v>0.02437448929497957</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.07518796992481201</v>
+        <v>0.02437448929497957</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.07518796992481201</v>
+        <v>0.02437448929497957</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.07518796992481201</v>
+        <v>0.02437448929497957</v>
       </c>
       <c r="P22" t="n">
-        <v>0.1067669172932331</v>
+        <v>0.01073184033327361</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03007518796992481</v>
+        <v>0.001544736445789458</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.2736842105263158</v>
+        <v>0.04124611566584462</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.07669172932330826</v>
+        <v>0.02395918137436725</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.1142857142857143</v>
+        <v>0.007843353433734136</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.01141028724041149</v>
       </c>
       <c r="V22" t="n">
-        <v>0.1488721804511278</v>
+        <v>-0.03540104224804169</v>
       </c>
       <c r="W22" t="n">
-        <v>0.1488721804511278</v>
+        <v>-0.03540104224804169</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1488721804511278</v>
+        <v>-0.03540104224804169</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.1488721804511278</v>
+        <v>-0.03540104224804169</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.1488721804511278</v>
+        <v>-0.03540104224804169</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2902255639097744</v>
+        <v>-0.01572809294912372</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2556390977443609</v>
+        <v>-0.0169170199726808</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.237593984962406</v>
+        <v>0.01291084534843381</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2240601503759398</v>
+        <v>-0.01019669119186765</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1774436090225564</v>
+        <v>-0.009586041023441641</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2661654135338345</v>
+        <v>-0.01327131355485254</v>
       </c>
       <c r="I23" t="n">
-        <v>0.08872180451127819</v>
+        <v>-0.01255258629410345</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.4390977443609023</v>
+        <v>0.01024408633316701</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1593984962406015</v>
+        <v>0.01996702428668097</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.1593984962406015</v>
+        <v>0.01996702428668097</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.1593984962406015</v>
+        <v>0.01996702428668097</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.1593984962406015</v>
+        <v>0.01996702428668097</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.1593984962406015</v>
+        <v>0.01996702428668097</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4045112781954887</v>
+        <v>-0.009295470035818801</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04661654135338346</v>
+        <v>-0.01932033120481325</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00150375939849624</v>
+        <v>0.009089882475595296</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.06466165413533834</v>
+        <v>0.02158870531154821</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.2526315789473684</v>
+        <v>0.01363850233754009</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.01221427296857092</v>
       </c>
       <c r="V23" t="n">
-        <v>0.193984962406015</v>
+        <v>-0.01255735384629415</v>
       </c>
       <c r="W23" t="n">
-        <v>0.193984962406015</v>
+        <v>-0.01255735384629415</v>
       </c>
       <c r="X23" t="n">
-        <v>0.193984962406015</v>
+        <v>-0.01255735384629415</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.193984962406015</v>
+        <v>-0.01255735384629415</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.193984962406015</v>
+        <v>-0.01255735384629415</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2356,76 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.2887218045112782</v>
+        <v>0.01722771102510844</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3533834586466165</v>
+        <v>-0.002310135836405433</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3052631578947368</v>
+        <v>0.001002417832096713</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2932330827067668</v>
+        <v>-0.001766213830648553</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3157894736842105</v>
+        <v>2.522832100913284e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.07218045112781954</v>
+        <v>0.01982801186512047</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.02556390977443609</v>
+        <v>0.02253726483749059</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3218045112781954</v>
+        <v>-0.001373786171699252</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3669172932330827</v>
+        <v>0.005347266165890646</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3669172932330827</v>
+        <v>0.005347266165890646</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3669172932330827</v>
+        <v>0.005347266165890646</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3669172932330827</v>
+        <v>0.005347266165890646</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3669172932330827</v>
+        <v>0.005347266165890646</v>
       </c>
       <c r="P24" t="n">
-        <v>0.09172932330827067</v>
+        <v>0.02410329168413166</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.3112781954887218</v>
+        <v>-0.009298375667935024</v>
       </c>
       <c r="R24" t="n">
-        <v>0.02406015037593985</v>
+        <v>-0.01608239574729583</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3413533834586466</v>
+        <v>-0.0004928181317127252</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1383458646616541</v>
+        <v>0.01771466355658654</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3894736842105262</v>
+        <v>0.01392450228498009</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.2571428571428572</v>
+        <v>3.056611322264452e-05</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.2571428571428572</v>
+        <v>3.056611322264452e-05</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.2571428571428572</v>
+        <v>3.056611322264452e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.2571428571428572</v>
+        <v>3.056611322264452e-05</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.2571428571428572</v>
+        <v>3.056611322264452e-05</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2440,76 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.1142857142857143</v>
+        <v>-0.002080850387234015</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.06466165413533834</v>
+        <v>-0.009323862036954478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04661654135338346</v>
+        <v>0.01067586877903475</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.03458646616541353</v>
+        <v>-0.01069472241178889</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1052631578947368</v>
+        <v>-0.01113871033354841</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.6360902255639098</v>
+        <v>0.009282541523301661</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.6285714285714286</v>
+        <v>0.0109187299727492</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1639097744360902</v>
+        <v>0.004470285506260727</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.03759398496240601</v>
+        <v>0.003885135995405439</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.03759398496240601</v>
+        <v>0.003885135995405439</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.03759398496240601</v>
+        <v>0.003885135995405439</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.03759398496240601</v>
+        <v>0.003885135995405439</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.03759398496240601</v>
+        <v>0.003885135995405439</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.156390977443609</v>
+        <v>-0.02816179293447171</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.1097744360902256</v>
+        <v>0.009193148431725936</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4481203007518797</v>
+        <v>0.0056583625303345</v>
       </c>
       <c r="S25" t="n">
-        <v>0.1458646616541353</v>
+        <v>0.005230041233201648</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.1413533834586466</v>
+        <v>-0.002738414221536568</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.2406015037593985</v>
+        <v>0.01164394587375783</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.007247121793884871</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.007247121793884871</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.007247121793884871</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.007247121793884871</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.007247121793884871</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2520,76 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.18796992481203</v>
+        <v>-0.009019127784765111</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2691729323308271</v>
+        <v>0.001107987788319511</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2766917293233083</v>
+        <v>0.0004224411048976441</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.0008387806415512255</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2691729323308271</v>
+        <v>-0.001721942660877706</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.1428571428571428</v>
+        <v>-0.005873157642926305</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0706766917293233</v>
+        <v>-0.01001658673666347</v>
       </c>
       <c r="J26" t="n">
-        <v>0.07368421052631578</v>
+        <v>-0.01060105726067954</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.004689635803585432</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.004689635803585432</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.004689635803585432</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.004689635803585432</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2616541353383459</v>
+        <v>-0.004689635803585432</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.1413533834586466</v>
+        <v>-0.0009595696703827868</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.0781954887218045</v>
+        <v>0.01026008901840356</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6105263157894737</v>
+        <v>0.001484809691392387</v>
       </c>
       <c r="S26" t="n">
-        <v>0.393984962406015</v>
+        <v>-0.006722192140887684</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1052631578947368</v>
+        <v>-0.005691209315648371</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1654135338345864</v>
+        <v>0.006109823668392945</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.3759398496240601</v>
+        <v>0.003676192563047702</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.3759398496240601</v>
+        <v>0.003676192563047702</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.3759398496240601</v>
+        <v>0.003676192563047702</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.3759398496240601</v>
+        <v>0.003676192563047702</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.3759398496240601</v>
+        <v>0.003676192563047702</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2604,76 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.07518796992481201</v>
+        <v>-0.0241942677197707</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1413533834586466</v>
+        <v>-0.04449360312374411</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1082706766917293</v>
+        <v>0.003802033208081328</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1037593984962406</v>
+        <v>0.01879413924776557</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1112781954887218</v>
+        <v>-0.006109206580368262</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.4240601503759398</v>
+        <v>0.02966789830671593</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.4406015037593984</v>
+        <v>0.01890344744413789</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5067669172932331</v>
+        <v>-0.006945799597836666</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.04642510601700423</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.04642510601700423</v>
       </c>
       <c r="M27" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.04642510601700423</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.04642510601700423</v>
       </c>
       <c r="O27" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.04642510601700423</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.04661654135338346</v>
+        <v>-0.05708343233133729</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.4345864661654135</v>
+        <v>-0.2407278695331148</v>
       </c>
       <c r="R27" t="n">
-        <v>0.356390977443609</v>
+        <v>0.1578656946986278</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3699248120300751</v>
+        <v>0.04732158083686323</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02857142857142857</v>
+        <v>-0.0675117579964703</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09924812030075188</v>
+        <v>0.02712315650892626</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.1172932330827067</v>
+        <v>0.03015124066204962</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.1172932330827067</v>
+        <v>0.03015124066204962</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.1172932330827067</v>
+        <v>0.03015124066204962</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.1172932330827067</v>
+        <v>0.03015124066204962</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.1172932330827067</v>
+        <v>0.03015124066204962</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +2688,76 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.05563909774436089</v>
+        <v>-0.006718603468744137</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.0481203007518797</v>
+        <v>-0.002940847797633912</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.04210526315789473</v>
+        <v>0.001508488668339547</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06165413533834586</v>
+        <v>-0.0002372004574880183</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1172932330827067</v>
+        <v>0.00134245550969822</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.009022556390977442</v>
+        <v>-0.008024573312982931</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1398496240601504</v>
+        <v>-0.008152086854083472</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2616541353383459</v>
+        <v>0.005648815973474945</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.002614898600595944</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.002614898600595944</v>
       </c>
       <c r="M28" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.002614898600595944</v>
       </c>
       <c r="N28" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.002614898600595944</v>
       </c>
       <c r="O28" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.002614898600595944</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.09473684210526315</v>
+        <v>-0.005715528900621155</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.2601503759398496</v>
+        <v>-0.01036030457441218</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.07669172932330826</v>
+        <v>0.003425916713036668</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.0150375939849624</v>
+        <v>0.00231800274872011</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.009975629679025185</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1052631578947368</v>
+        <v>-0.004756892926275716</v>
       </c>
       <c r="V28" t="n">
-        <v>0.09172932330827067</v>
+        <v>0.004234959817398392</v>
       </c>
       <c r="W28" t="n">
-        <v>0.09172932330827067</v>
+        <v>0.004234959817398392</v>
       </c>
       <c r="X28" t="n">
-        <v>0.09172932330827067</v>
+        <v>0.004234959817398392</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.09172932330827067</v>
+        <v>0.004234959817398392</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.09172932330827067</v>
+        <v>0.004234959817398392</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +2772,76 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1323308270676692</v>
+        <v>0.009152900334116011</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2330827067669173</v>
+        <v>0.02418573111142924</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.2766917293233083</v>
+        <v>-0.02158197225527889</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3097744360902255</v>
+        <v>0.02389287551571501</v>
       </c>
       <c r="G29" t="n">
-        <v>0.350375939849624</v>
+        <v>0.02443150811326032</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2015037593984962</v>
+        <v>0.02585234609009384</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2135338345864662</v>
+        <v>0.01661224492048979</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.206015037593985</v>
+        <v>-0.08895563392965603</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1533834586466165</v>
+        <v>-0.005952011662080466</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.1533834586466165</v>
+        <v>-0.005952011662080466</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.1533834586466165</v>
+        <v>-0.005952011662080466</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.1533834586466165</v>
+        <v>-0.005952011662080466</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.1533834586466165</v>
+        <v>-0.005952011662080466</v>
       </c>
       <c r="P29" t="n">
-        <v>0.06616541353383458</v>
+        <v>-0.0002509548580381943</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.2045112781954887</v>
+        <v>0.01275377887815115</v>
       </c>
       <c r="R29" t="n">
-        <v>0.004511278195488721</v>
+        <v>-0.02081559203262368</v>
       </c>
       <c r="S29" t="n">
-        <v>0.04210526315789473</v>
+        <v>-0.004130680677227226</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2586466165413533</v>
+        <v>0.008773574078942963</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.05112781954887217</v>
+        <v>0.001279932147197286</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1654135338345864</v>
+        <v>0.034531525189261</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1654135338345864</v>
+        <v>0.034531525189261</v>
       </c>
       <c r="X29" t="n">
-        <v>0.1654135338345864</v>
+        <v>0.034531525189261</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1654135338345864</v>
+        <v>0.034531525189261</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.1654135338345864</v>
+        <v>0.034531525189261</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +2856,76 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.1819548872180451</v>
+        <v>-0.004296712971868518</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07518796992481201</v>
+        <v>-0.007107859868314394</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0481203007518797</v>
+        <v>0.002350516126020645</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03308270676691729</v>
+        <v>-0.0004892449155697965</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01804511278195488</v>
+        <v>-0.0007478874539154981</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.3609022556390977</v>
+        <v>-0.01858669907946796</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5263157894736841</v>
+        <v>-0.01542497485699899</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.2150375939849624</v>
+        <v>0.03176862963653757</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.1789473684210526</v>
+        <v>0.006427467617098705</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.1789473684210526</v>
+        <v>0.006427467617098705</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.1789473684210526</v>
+        <v>0.006427467617098705</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.1789473684210526</v>
+        <v>0.006427467617098705</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.1789473684210526</v>
+        <v>0.006427467617098705</v>
       </c>
       <c r="P30" t="n">
-        <v>0.2090225563909774</v>
+        <v>0.01641836494473459</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03157894736842105</v>
+        <v>-0.0217911151756446</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.1007518796992481</v>
+        <v>-0.001848986089959443</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.1443609022556391</v>
+        <v>0.02719084908763396</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.3684210526315789</v>
+        <v>0.008784605439384216</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.1323308270676692</v>
+        <v>0.001749625605985024</v>
       </c>
       <c r="V30" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.01451651894866075</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.01451651894866075</v>
       </c>
       <c r="X30" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.01451651894866075</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.01451651894866075</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.01451651894866075</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +2940,76 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7353383458646616</v>
+        <v>0.5276163644006545</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9804511278195487</v>
+        <v>0.9774717035788681</v>
       </c>
       <c r="E31" t="n">
-        <v>-1</v>
+        <v>-0.9999458626218344</v>
       </c>
       <c r="F31" t="n">
-        <v>0.993984962406015</v>
+        <v>0.994243676377747</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9834586466165413</v>
+        <v>0.9870102030004079</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2691729323308271</v>
+        <v>0.3794372315614892</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.09924812030075188</v>
+        <v>-0.02025557121022284</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.6721804511278194</v>
+        <v>-0.3983312392618823</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8706766917293233</v>
+        <v>-0.8801443844857751</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8706766917293233</v>
+        <v>-0.8801443844857751</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8706766917293233</v>
+        <v>-0.8801443844857751</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8706766917293233</v>
+        <v>-0.8801443844857751</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8706766917293233</v>
+        <v>-0.8801443844857751</v>
       </c>
       <c r="P31" t="n">
-        <v>0.156390977443609</v>
+        <v>-0.1084215609768624</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.318796992481203</v>
+        <v>-0.005522112700884507</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.4887218045112782</v>
+        <v>-0.6138035897041435</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.6646616541353383</v>
+        <v>-0.4629363594134543</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.3368421052631578</v>
+        <v>0.09235967831838712</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.8075187969924811</v>
+        <v>-0.7149120166924806</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8781954887218045</v>
+        <v>0.8040613071384523</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8781954887218045</v>
+        <v>0.8040613071384523</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8781954887218045</v>
+        <v>0.8040613071384523</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8781954887218045</v>
+        <v>0.8040613071384523</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8781954887218045</v>
+        <v>0.8040613071384523</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3024,76 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4150375939849624</v>
+        <v>0.004946039141841565</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6045112781954887</v>
+        <v>0.02859078066363122</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.5609022556390978</v>
+        <v>-0.02691984203679368</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5458646616541353</v>
+        <v>0.02572949334917973</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.02768677915547116</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.1172932330827067</v>
+        <v>0.002003707088148283</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.3894736842105262</v>
+        <v>-0.01117334454293378</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.7022556390977444</v>
+        <v>0.0008577044532724046</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.6631578947368421</v>
+        <v>-0.02842196523287861</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.6631578947368421</v>
+        <v>-0.02842196523287861</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.6631578947368421</v>
+        <v>-0.02842196523287861</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.6631578947368421</v>
+        <v>-0.02842196523287861</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.6631578947368421</v>
+        <v>-0.02842196523287861</v>
       </c>
       <c r="P32" t="n">
-        <v>0.02706766917293233</v>
+        <v>-0.009622069344882772</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.4225563909774436</v>
+        <v>0.006737123981484958</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.3308270676691729</v>
+        <v>-0.03370949299637972</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.5954887218045113</v>
+        <v>-0.003280529219221168</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.6375939849624059</v>
+        <v>0.005300636084025443</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.5308270676691729</v>
+        <v>-0.03597158620686345</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5203007518796992</v>
+        <v>0.01038467887938715</v>
       </c>
       <c r="W32" t="n">
-        <v>0.5203007518796992</v>
+        <v>0.01038467887938715</v>
       </c>
       <c r="X32" t="n">
-        <v>0.5203007518796992</v>
+        <v>0.01038467887938715</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.5203007518796992</v>
+        <v>0.01038467887938715</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.5203007518796992</v>
+        <v>0.01038467887938715</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3108,76 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.2827067669172932</v>
+        <v>-0.03114991996599679</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.01966057317042293</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.2571428571428572</v>
+        <v>-0.02418933523957341</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2616541353383459</v>
+        <v>0.02304431804177272</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3097744360902255</v>
+        <v>0.02341184666447386</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1804511278195489</v>
+        <v>0.01442363952094558</v>
       </c>
       <c r="I33" t="n">
-        <v>0.09172932330827067</v>
+        <v>-0.001813062024522481</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.01804511278195488</v>
+        <v>-0.06400961082960163</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.003007518796992481</v>
+        <v>0.01198251215930048</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.003007518796992481</v>
+        <v>0.01198251215930048</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.003007518796992481</v>
+        <v>0.01198251215930048</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.003007518796992481</v>
+        <v>0.01198251215930048</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.003007518796992481</v>
+        <v>0.01198251215930048</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.2661654135338345</v>
+        <v>-0.014241225113649</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.2210526315789474</v>
+        <v>-0.0156788451391538</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1112781954887218</v>
+        <v>-0.004948438373937535</v>
       </c>
       <c r="S33" t="n">
-        <v>0.0781954887218045</v>
+        <v>-0.003932201629288065</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2090225563909774</v>
+        <v>0.001812430056497202</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.2285714285714286</v>
+        <v>-0.007238751745550069</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2225563909774436</v>
+        <v>0.03536152077446083</v>
       </c>
       <c r="W33" t="n">
-        <v>0.2225563909774436</v>
+        <v>0.03536152077446083</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2225563909774436</v>
+        <v>0.03536152077446083</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2225563909774436</v>
+        <v>0.03536152077446083</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.2225563909774436</v>
+        <v>0.03536152077446083</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3192,76 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.02105263157894736</v>
+        <v>-0.002366472286658891</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1323308270676692</v>
+        <v>-0.008784592383383694</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1157894736842105</v>
+        <v>0.005053887658155506</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1157894736842105</v>
+        <v>-0.004937913605516544</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.08421052631578946</v>
+        <v>-0.000295192427807697</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4496240601503759</v>
+        <v>0.007040085785603431</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4406015037593984</v>
+        <v>0.01138237082329483</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1037593984962406</v>
+        <v>0.009981201169743078</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1819548872180451</v>
+        <v>0.008100590244023608</v>
       </c>
       <c r="L34" t="n">
-        <v>0.1819548872180451</v>
+        <v>0.008100590244023608</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1819548872180451</v>
+        <v>0.008100590244023608</v>
       </c>
       <c r="N34" t="n">
-        <v>0.1819548872180451</v>
+        <v>0.008100590244023608</v>
       </c>
       <c r="O34" t="n">
-        <v>0.1819548872180451</v>
+        <v>0.008100590244023608</v>
       </c>
       <c r="P34" t="n">
-        <v>0.3789473684210526</v>
+        <v>0.005044336809773471</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.1022556390977443</v>
+        <v>-0.01936514679060587</v>
       </c>
       <c r="R34" t="n">
-        <v>0.05864661654135337</v>
+        <v>-0.009947711629908464</v>
       </c>
       <c r="S34" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.007684034899361395</v>
       </c>
       <c r="T34" t="n">
-        <v>0.118796992481203</v>
+        <v>0.03205445869017835</v>
       </c>
       <c r="U34" t="n">
-        <v>0.3248120300751879</v>
+        <v>0.01065214583408583</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.2556390977443609</v>
+        <v>-0.00554866226994649</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.2556390977443609</v>
+        <v>-0.00554866226994649</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.2556390977443609</v>
+        <v>-0.00554866226994649</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.2556390977443609</v>
+        <v>-0.00554866226994649</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.2556390977443609</v>
+        <v>-0.00554866226994649</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3276,76 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01203007518796992</v>
+        <v>0.02250756742830269</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.01203007518796992</v>
+        <v>0.01495070296602812</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05263157894736842</v>
+        <v>-0.01160785928031437</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05714285714285714</v>
+        <v>0.009451748922069955</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02706766917293233</v>
+        <v>0.009128354669134186</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2165413533834586</v>
+        <v>0.01768466134738645</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1984962406015038</v>
+        <v>0.02218259157530366</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1669172932330827</v>
+        <v>-0.02058481596653376</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05112781954887217</v>
+        <v>-0.003722087476883498</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05112781954887217</v>
+        <v>-0.003722087476883498</v>
       </c>
       <c r="M35" t="n">
-        <v>0.05112781954887217</v>
+        <v>-0.003722087476883498</v>
       </c>
       <c r="N35" t="n">
-        <v>0.05112781954887217</v>
+        <v>-0.003722087476883498</v>
       </c>
       <c r="O35" t="n">
-        <v>0.05112781954887217</v>
+        <v>-0.003722087476883498</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1909774436090226</v>
+        <v>-0.009266422258656889</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.04060150375939849</v>
+        <v>0.01692822432512897</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.1203007518796992</v>
+        <v>0.002007364400294576</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01052631578947368</v>
+        <v>-0.02559868883194755</v>
       </c>
       <c r="T35" t="n">
-        <v>0.04360902255639097</v>
+        <v>-0.004225285129011404</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225563909774436</v>
+        <v>-0.01769699590787983</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.04360902255639097</v>
+        <v>0.01337983157519326</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.04360902255639097</v>
+        <v>0.01337983157519326</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.04360902255639097</v>
+        <v>0.01337983157519326</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.04360902255639097</v>
+        <v>0.01337983157519326</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.04360902255639097</v>
+        <v>0.01337983157519326</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3360,76 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.3774436090225564</v>
+        <v>0.04406110246644409</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2781954887218045</v>
+        <v>0.03050474627618985</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2496240601503759</v>
+        <v>-0.03077982055919282</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.2556390977443609</v>
+        <v>0.03010457726818309</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2195488721804511</v>
+        <v>0.02947128444285137</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09473684210526315</v>
+        <v>0.008244073961762959</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1263157894736842</v>
+        <v>-0.002515635364625415</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1473684210526316</v>
+        <v>-0.01616059299027473</v>
       </c>
       <c r="K36" t="n">
-        <v>0.5037593984962406</v>
+        <v>0.2062432820097312</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5037593984962406</v>
+        <v>0.2062432820097312</v>
       </c>
       <c r="M36" t="n">
-        <v>0.5037593984962406</v>
+        <v>0.2062432820097312</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5037593984962406</v>
+        <v>0.2062432820097312</v>
       </c>
       <c r="O36" t="n">
-        <v>0.5037593984962406</v>
+        <v>0.2062432820097312</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.08721804511278194</v>
+        <v>0.004161222694448907</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.3203007518796992</v>
+        <v>-0.0008840598113623923</v>
       </c>
       <c r="R36" t="n">
-        <v>0.09323308270676692</v>
+        <v>-0.01235119489404779</v>
       </c>
       <c r="S36" t="n">
-        <v>0.2180451127819548</v>
+        <v>-0.01750282946811317</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2872180451127819</v>
+        <v>0.005173199822927992</v>
       </c>
       <c r="U36" t="n">
-        <v>0.4060150375939849</v>
+        <v>-0.02868065097122604</v>
       </c>
       <c r="V36" t="n">
-        <v>0.05413533834586466</v>
+        <v>0.2049515838140633</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05413533834586466</v>
+        <v>0.2049515838140633</v>
       </c>
       <c r="X36" t="n">
-        <v>0.05413533834586466</v>
+        <v>0.2049515838140633</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.05413533834586466</v>
+        <v>0.2049515838140633</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.05413533834586466</v>
+        <v>0.2049515838140633</v>
       </c>
     </row>
     <row r="37">
@@ -3444,76 +3444,76 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.1293233082706767</v>
+        <v>0.01393089934123597</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.00150375939849624</v>
+        <v>0.01629612737184509</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.007518796992481202</v>
+        <v>-0.02006692544267702</v>
       </c>
       <c r="F37" t="n">
-        <v>0.00150375939849624</v>
+        <v>0.02145276556211062</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01203007518796992</v>
+        <v>0.02259485379979415</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1473684210526316</v>
+        <v>-0.00162838576113543</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08120300751879699</v>
+        <v>-0.01464582970583318</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.009022556390977442</v>
+        <v>-0.005175260432896117</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.01012042648481706</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.01012042648481706</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.01012042648481706</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.01012042648481706</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.02556390977443609</v>
+        <v>-0.01012042648481706</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1157894736842105</v>
+        <v>-0.02888590944343638</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2180451127819548</v>
+        <v>-0.01445227737809109</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.02255639097744361</v>
+        <v>0.002445410785816431</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.2526315789473684</v>
+        <v>-0.01769468393978735</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.1699248120300751</v>
+        <v>0.01785150829806033</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02556390977443609</v>
+        <v>-0.01517512678300507</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.02810133808405352</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.02810133808405352</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.02810133808405352</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.02810133808405352</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.1443609022556391</v>
+        <v>0.02810133808405352</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -712,76 +712,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1317034173001367</v>
+        <v>-0.1316785476351419</v>
       </c>
       <c r="D4" t="n">
         <v>-0.1402826869873074</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.001001227432049097</v>
+        <v>-0.001000500808020032</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02951177983647119</v>
+        <v>0.02948873119554924</v>
       </c>
       <c r="G4" t="n">
         <v>0.1541268489810739</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02565755613030224</v>
+        <v>0.02557545529501821</v>
       </c>
       <c r="I4" t="n">
         <v>-0.006983176887327074</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4346364309835606</v>
+        <v>0.4354396257120138</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3245295416851817</v>
+        <v>0.32456225099849</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3245295416851817</v>
+        <v>0.32456225099849</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3245295416851817</v>
+        <v>0.32456225099849</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3245295416851817</v>
+        <v>0.32456225099849</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3245295416851817</v>
+        <v>0.32456225099849</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.08002375404895015</v>
+        <v>-0.0800462827538513</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.6985449895737995</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01190651327626053</v>
+        <v>0.01166167323446693</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3054996926679877</v>
+        <v>0.3054150322806013</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9925735855269433</v>
+        <v>0.9925737988389518</v>
       </c>
       <c r="U4" t="n">
-        <v>0.174959925494397</v>
+        <v>0.1749899965355998</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08855693922227754</v>
+        <v>0.08857244504689779</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08855693922227754</v>
+        <v>0.08857244504689779</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08855693922227754</v>
+        <v>0.08857244504689779</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08855693922227754</v>
+        <v>0.08857244504689779</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08855693922227754</v>
+        <v>0.08857244504689779</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +792,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08489262185970485</v>
+        <v>0.08489829075593162</v>
       </c>
       <c r="D5" t="n">
         <v>0.1241312155892486</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007364272806570911</v>
+        <v>0.00736250727050029</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08867101007484039</v>
+        <v>-0.08866316466652657</v>
       </c>
       <c r="G5" t="n">
         <v>-0.007556744654269785</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03263958399358335</v>
+        <v>-0.03264529551381182</v>
       </c>
       <c r="I5" t="n">
         <v>-0.0005059528522381141</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006275141456692545</v>
+        <v>0.006045570838571233</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1338837329073493</v>
+        <v>-0.1338958416758337</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1338837329073493</v>
+        <v>-0.1338958416758337</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1338837329073493</v>
+        <v>-0.1338958416758337</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1338837329073493</v>
+        <v>-0.1338958416758337</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1338837329073493</v>
+        <v>-0.1338958416758337</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09894362843774512</v>
+        <v>0.09894915630996626</v>
       </c>
       <c r="Q5" t="n">
         <v>0.6494538299141531</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005129470765178829</v>
+        <v>0.005293355539734221</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.3289147982445919</v>
+        <v>-0.3288995688039827</v>
       </c>
       <c r="T5" t="n">
-        <v>2.39816649592666e-05</v>
+        <v>2.138083285523331e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1014845304273812</v>
+        <v>-0.1015131089565244</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.09671401567656061</v>
+        <v>-0.09671304367652173</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.09671401567656061</v>
+        <v>-0.09671304367652173</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.09671401567656061</v>
+        <v>-0.09671304367652173</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.09671401567656061</v>
+        <v>-0.09671304367652173</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.09671401567656061</v>
+        <v>-0.09671304367652173</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +872,76 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1815457591338303</v>
+        <v>0.1815443171177726</v>
       </c>
       <c r="D6" t="n">
         <v>-0.02040055425602217</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01999732217589288</v>
+        <v>0.01999811023992441</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01306697889067915</v>
+        <v>-0.01306122119444885</v>
       </c>
       <c r="G6" t="n">
         <v>-0.0212143575205743</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9099230977089237</v>
+        <v>0.9099242126529684</v>
       </c>
       <c r="I6" t="n">
         <v>0.9579628848145153</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3312569084591002</v>
+        <v>-0.3314698729883994</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1198836463633458</v>
+        <v>0.1198727065869082</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1198836463633458</v>
+        <v>0.1198727065869082</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1198836463633458</v>
+        <v>0.1198727065869082</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1198836463633458</v>
+        <v>0.1198727065869082</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1198836463633458</v>
+        <v>0.1198727065869082</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.002903518388140735</v>
+        <v>-0.002895789907831596</v>
       </c>
       <c r="Q6" t="n">
         <v>0.0006872728594909143</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1294561331462453</v>
+        <v>-0.1294852822034113</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.04695660917426436</v>
+        <v>-0.04691730485269219</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.001401301112052044</v>
+        <v>-0.001400715320028613</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4393058232042329</v>
+        <v>0.4393028165801126</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001386181303447252</v>
+        <v>0.00137436600697464</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001386181303447252</v>
+        <v>0.00137436600697464</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001386181303447252</v>
+        <v>0.00137436600697464</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001386181303447252</v>
+        <v>0.00137436600697464</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001386181303447252</v>
+        <v>0.00137436600697464</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +956,76 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4675761112150443</v>
+        <v>0.4675759962070398</v>
       </c>
       <c r="D7" t="n">
         <v>0.0274789525871581</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02385588153023526</v>
+        <v>-0.02385658703426348</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02288354107534164</v>
+        <v>0.02289450360378014</v>
       </c>
       <c r="G7" t="n">
         <v>0.02094356426174257</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01437051023882041</v>
+        <v>0.01438659724746389</v>
       </c>
       <c r="I7" t="n">
         <v>0.001493300027732001</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02024412174372855</v>
+        <v>-0.02046116325666924</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02479206358368254</v>
+        <v>-0.02480338937613557</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02479206358368254</v>
+        <v>-0.02480338937613557</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02479206358368254</v>
+        <v>-0.02480338937613557</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02479206358368254</v>
+        <v>-0.02480338937613557</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02479206358368254</v>
+        <v>-0.02480338937613557</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.583944402461776</v>
+        <v>-0.5839392373735695</v>
       </c>
       <c r="Q7" t="n">
         <v>0.02023842560953702</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01691520634060825</v>
+        <v>-0.01673604230144169</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0193642602305704</v>
+        <v>-0.01938311779932471</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01916301974252079</v>
+        <v>-0.01916569286262771</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.008557507542300301</v>
+        <v>-0.008584955191398206</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02455959544638381</v>
+        <v>0.02455879816635192</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02455959544638381</v>
+        <v>0.02455879816635192</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02455959544638381</v>
+        <v>0.02455879816635192</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02455959544638381</v>
+        <v>0.02455879816635192</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02455959544638381</v>
+        <v>0.02455879816635192</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1040,76 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5127304643172185</v>
+        <v>0.5127323210532928</v>
       </c>
       <c r="D8" t="n">
         <v>0.01340577826423113</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01174409086976363</v>
+        <v>-0.0117439849817594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01096373400654936</v>
+        <v>0.01095934719037389</v>
       </c>
       <c r="G8" t="n">
         <v>0.009768676614747063</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.008404227792169112</v>
+        <v>-0.008390580719623227</v>
       </c>
       <c r="I8" t="n">
         <v>-0.009443602841744113</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.009801731225944032</v>
+        <v>-0.009699828901282967</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.007311140356445613</v>
+        <v>-0.007305670564226822</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.007311140356445613</v>
+        <v>-0.007305670564226822</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.007311140356445613</v>
+        <v>-0.007305670564226822</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.007311140356445613</v>
+        <v>-0.007305670564226822</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.007311140356445613</v>
+        <v>-0.007305670564226822</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7058263244250529</v>
+        <v>0.7058264061210561</v>
       </c>
       <c r="Q8" t="n">
         <v>0.003537992685519707</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.008662196410487854</v>
+        <v>-0.008671465498858617</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01044493337779733</v>
+        <v>0.01043034300921372</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01206801581072063</v>
+        <v>-0.01206754915470197</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.007428337161133485</v>
+        <v>-0.00742772352910894</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002811506416460257</v>
+        <v>0.002814171184566847</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002811506416460257</v>
+        <v>0.002814171184566847</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002811506416460257</v>
+        <v>0.002814171184566847</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002811506416460257</v>
+        <v>0.002814171184566847</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.002811506416460257</v>
+        <v>0.002814171184566847</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1124,76 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01674344860573794</v>
+        <v>0.0167426924137077</v>
       </c>
       <c r="D9" t="n">
         <v>-0.01148534148341366</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01227088061883522</v>
+        <v>0.01227054826682193</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01068498407539936</v>
+        <v>-0.01068650538746021</v>
       </c>
       <c r="G9" t="n">
         <v>-0.009820237256809488</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02176584845463394</v>
+        <v>0.02177033779881351</v>
       </c>
       <c r="I9" t="n">
         <v>0.02935640968625638</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.005365911545181052</v>
+        <v>-0.005366097065060328</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01054422051776882</v>
+        <v>0.0105460625658425</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01054422051776882</v>
+        <v>0.0105460625658425</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01054422051776882</v>
+        <v>0.0105460625658425</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01054422051776882</v>
+        <v>0.0105460625658425</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01054422051776882</v>
+        <v>0.0105460625658425</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0001865768714630748</v>
+        <v>-0.0001862861834514473</v>
       </c>
       <c r="Q9" t="n">
         <v>0.0100798300031932</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01987692453907698</v>
+        <v>-0.01990803276432131</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01862575140103005</v>
+        <v>-0.01861120864844834</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01135147965405918</v>
+        <v>0.0113518725820749</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01444959974598399</v>
+        <v>0.01445725641829025</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.003560044750401789</v>
+        <v>-0.003563752942550117</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.003560044750401789</v>
+        <v>-0.003563752942550117</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.003560044750401789</v>
+        <v>-0.003563752942550117</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.003560044750401789</v>
+        <v>-0.003563752942550117</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.003560044750401789</v>
+        <v>-0.003563752942550117</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1208,76 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06419600848784032</v>
+        <v>0.06419296893571874</v>
       </c>
       <c r="D10" t="n">
         <v>0.007942009565680381</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.008917172996686918</v>
+        <v>-0.008916208100648323</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009592128191685126</v>
+        <v>0.009577290335091613</v>
       </c>
       <c r="G10" t="n">
         <v>0.00949832927593317</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00403931824157273</v>
+        <v>0.004037539073501562</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0009429528377181134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.003619931149307727</v>
+        <v>0.004138704707752222</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.009590604863624192</v>
+        <v>-0.009567982078719284</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009590604863624192</v>
+        <v>-0.009567982078719284</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009590604863624192</v>
+        <v>-0.009567982078719284</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.009590604863624192</v>
+        <v>-0.009567982078719284</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.009590604863624192</v>
+        <v>-0.009567982078719284</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06919696318387852</v>
+        <v>0.06918484318339373</v>
       </c>
       <c r="Q10" t="n">
         <v>-0.005571040542841621</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02041216440048657</v>
+        <v>-0.02059835103193404</v>
       </c>
       <c r="S10" t="n">
-        <v>0.008204046472161858</v>
+        <v>0.008169304262772169</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005329964373198574</v>
+        <v>0.005332821621312864</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.009100137580005501</v>
+        <v>-0.009075726603029063</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002237200985488039</v>
+        <v>0.002248048409921936</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002237200985488039</v>
+        <v>0.002248048409921936</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002237200985488039</v>
+        <v>0.002248048409921936</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002237200985488039</v>
+        <v>0.002248048409921936</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.002237200985488039</v>
+        <v>0.002248048409921936</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1544839815713592</v>
+        <v>0.1544797633311905</v>
       </c>
       <c r="D11" t="n">
         <v>-0.002367201694688067</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001190113679604547</v>
+        <v>-0.001191094703643788</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003558046318321852</v>
+        <v>0.003554948302197931</v>
       </c>
       <c r="G11" t="n">
         <v>0.000518332628733305</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.004261776746471069</v>
+        <v>-0.004260866282434651</v>
       </c>
       <c r="I11" t="n">
         <v>0.2739322870212915</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01774321718704925</v>
+        <v>-0.0175286516573044</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002032551921302077</v>
+        <v>0.002039127441565097</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002032551921302077</v>
+        <v>0.002039127441565097</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002032551921302077</v>
+        <v>0.002039127441565097</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002032551921302077</v>
+        <v>0.002039127441565097</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002032551921302077</v>
+        <v>0.002039127441565097</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03378788151151526</v>
+        <v>0.03378284871131394</v>
       </c>
       <c r="Q11" t="n">
         <v>-0.01363675091347004</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.001833099913323996</v>
+        <v>-0.001781392103255684</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.009717133060685321</v>
+        <v>-0.009779584327183373</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.000226323177052927</v>
+        <v>-0.0002262739290509571</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.000998032071921283</v>
+        <v>-0.001009803592392143</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01188204585128183</v>
+        <v>0.01189616629984665</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01188204585128183</v>
+        <v>0.01189616629984665</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01188204585128183</v>
+        <v>0.01189616629984665</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01188204585128183</v>
+        <v>0.01189616629984665</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01188204585128183</v>
+        <v>0.01189616629984665</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1368,76 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2743957159038286</v>
+        <v>-0.2744053231042129</v>
       </c>
       <c r="D12" t="n">
         <v>0.002924792660991706</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002384787647391506</v>
+        <v>-0.002383272287330891</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005848192553927701</v>
+        <v>0.0005694111587764462</v>
       </c>
       <c r="G12" t="n">
         <v>0.003527352717094108</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006393325503733019</v>
+        <v>0.006386483967459358</v>
       </c>
       <c r="I12" t="n">
         <v>0.00596510827060433</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.003969044236478786</v>
+        <v>-0.003347089297370782</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.003628844689153787</v>
+        <v>-0.003603305328132213</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.003628844689153787</v>
+        <v>-0.003603305328132213</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.003628844689153787</v>
+        <v>-0.003603305328132213</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.003628844689153787</v>
+        <v>-0.003603305328132213</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.003628844689153787</v>
+        <v>-0.003603305328132213</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04702237743289508</v>
+        <v>-0.04703789218551568</v>
       </c>
       <c r="Q12" t="n">
         <v>0.00207476600299064</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001571230238849209</v>
+        <v>0.00138506175140247</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.01580640092025603</v>
+        <v>-0.01586041196241648</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01344579087383163</v>
+        <v>0.01345055324202213</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00342953101718124</v>
+        <v>0.003455167722206709</v>
       </c>
       <c r="V12" t="n">
-        <v>0.00377946101517844</v>
+        <v>0.003800361560014462</v>
       </c>
       <c r="W12" t="n">
-        <v>0.00377946101517844</v>
+        <v>0.003800361560014462</v>
       </c>
       <c r="X12" t="n">
-        <v>0.00377946101517844</v>
+        <v>0.003800361560014462</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.00377946101517844</v>
+        <v>0.003800361560014462</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.00377946101517844</v>
+        <v>0.003800361560014462</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1452,76 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0320475225939009</v>
+        <v>0.03204501612980065</v>
       </c>
       <c r="D13" t="n">
         <v>0.001134855981394239</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004488032819521311</v>
+        <v>0.0004490938739637549</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.839926713597067e-05</v>
+        <v>-9.234989169399565e-05</v>
       </c>
       <c r="G13" t="n">
         <v>0.0003850928794037151</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01191500735660029</v>
+        <v>0.01190584559623382</v>
       </c>
       <c r="I13" t="n">
         <v>0.008566614198664566</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.007540212327667466</v>
+        <v>-0.007015615792702224</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.00337713776708551</v>
+        <v>-0.003357507110300284</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00337713776708551</v>
+        <v>-0.003357507110300284</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.00337713776708551</v>
+        <v>-0.003357507110300284</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.00337713776708551</v>
+        <v>-0.003357507110300284</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00337713776708551</v>
+        <v>-0.003357507110300284</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03618836592753463</v>
+        <v>0.03617403063096122</v>
       </c>
       <c r="Q13" t="n">
         <v>0.01221443444057737</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.003461485194459407</v>
+        <v>-0.003540605709624228</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005515291228611648</v>
+        <v>0.005440242073609682</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0004202670888106835</v>
+        <v>-0.0004194741287789651</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001418702456748098</v>
+        <v>0.001424423096976924</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.008331391917255676</v>
+        <v>-0.008309882444395296</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.008331391917255676</v>
+        <v>-0.008309882444395296</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.008331391917255676</v>
+        <v>-0.008309882444395296</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.008331391917255676</v>
+        <v>-0.008309882444395296</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.008331391917255676</v>
+        <v>-0.008309882444395296</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1536,76 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02875560652622425</v>
+        <v>-0.02875680172627207</v>
       </c>
       <c r="D14" t="n">
         <v>0.007946668733866749</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.009209962064398482</v>
+        <v>-0.009208439216337568</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008476801875072073</v>
+        <v>0.008472474386898974</v>
       </c>
       <c r="G14" t="n">
         <v>0.009399557655982304</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.00143835951353438</v>
+        <v>-0.001440231705609268</v>
       </c>
       <c r="I14" t="n">
         <v>-0.007119685916787436</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.003804234117316797</v>
+        <v>-0.003720811505602285</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.008811972064478882</v>
+        <v>-0.008808762880350514</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.008811972064478882</v>
+        <v>-0.008808762880350514</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008811972064478882</v>
+        <v>-0.008808762880350514</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.008811972064478882</v>
+        <v>-0.008808762880350514</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.008811972064478882</v>
+        <v>-0.008808762880350514</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.04143123477724939</v>
+        <v>-0.04143259778530391</v>
       </c>
       <c r="Q14" t="n">
         <v>-0.01022902898516116</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0190480874819235</v>
+        <v>-0.01924705161788206</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.009205959824238391</v>
+        <v>-0.009147468365898732</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01122066630482665</v>
+        <v>0.01122580211303208</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.01180109548004382</v>
+        <v>-0.0117605924064237</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01345325593013024</v>
+        <v>0.01344261106570444</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01345325593013024</v>
+        <v>0.01344261106570444</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01345325593013024</v>
+        <v>0.01344261106570444</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01345325593013024</v>
+        <v>0.01344261106570444</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01345325593013024</v>
+        <v>0.01344261106570444</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1620,76 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.001999421167976846</v>
+        <v>-0.002002743632109745</v>
       </c>
       <c r="D15" t="n">
         <v>0.01583074652122986</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01740816405632656</v>
+        <v>-0.01740667778426711</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01637293438291737</v>
+        <v>0.0163642601105704</v>
       </c>
       <c r="G15" t="n">
         <v>0.0178597549863902</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0004775252351010094</v>
+        <v>-0.0004844726593789062</v>
       </c>
       <c r="I15" t="n">
         <v>-0.01063130442525218</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.001434545918339627</v>
+        <v>-0.001203032164250093</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0140011524320461</v>
+        <v>-0.01398924161556966</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0140011524320461</v>
+        <v>-0.01398924161556966</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0140011524320461</v>
+        <v>-0.01398924161556966</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0140011524320461</v>
+        <v>-0.01398924161556966</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0140011524320461</v>
+        <v>-0.01398924161556966</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.02119529076781163</v>
+        <v>-0.02119963198398528</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.00189081549963262</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003337592773503711</v>
+        <v>-0.003503046380121855</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01148035361121414</v>
+        <v>-0.01146144775445791</v>
       </c>
       <c r="T15" t="n">
-        <v>0.009039735529589419</v>
+        <v>0.009042297865691913</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0273694076547763</v>
+        <v>-0.02734268710970748</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01898016680720667</v>
+        <v>0.01897771400710856</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01898016680720667</v>
+        <v>0.01897771400710856</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01898016680720667</v>
+        <v>0.01897771400710856</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01898016680720667</v>
+        <v>0.01897771400710856</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01898016680720667</v>
+        <v>0.01897771400710856</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1704,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.003588668975546759</v>
+        <v>0.003580065167202606</v>
       </c>
       <c r="D16" t="n">
         <v>0.00246724800268992</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0079447900137916</v>
+        <v>-0.007943447453737897</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01179515327180613</v>
+        <v>0.0117902124396085</v>
       </c>
       <c r="G16" t="n">
         <v>0.009754184070167361</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01367787520311501</v>
+        <v>0.01368039769921591</v>
       </c>
       <c r="I16" t="n">
         <v>0.01187364479494579</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.006531803563846055</v>
+        <v>-0.006466139224837359</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.006639983017599319</v>
+        <v>-0.00663195328927813</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.006639983017599319</v>
+        <v>-0.00663195328927813</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.006639983017599319</v>
+        <v>-0.00663195328927813</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.006639983017599319</v>
+        <v>-0.00663195328927813</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.006639983017599319</v>
+        <v>-0.00663195328927813</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.03510954044438162</v>
+        <v>-0.0351069550682782</v>
       </c>
       <c r="Q16" t="n">
         <v>-0.02933120286924811</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.01460104522404181</v>
+        <v>-0.01481596273663851</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01731351544454062</v>
+        <v>0.01738686674347467</v>
       </c>
       <c r="T16" t="n">
-        <v>0.008146904869876194</v>
+        <v>0.008150971814038871</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005486083803443351</v>
+        <v>0.005526113885044554</v>
       </c>
       <c r="V16" t="n">
-        <v>0.005368903894756155</v>
+        <v>0.005355117142204684</v>
       </c>
       <c r="W16" t="n">
-        <v>0.005368903894756155</v>
+        <v>0.005355117142204684</v>
       </c>
       <c r="X16" t="n">
-        <v>0.005368903894756155</v>
+        <v>0.005355117142204684</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.005368903894756155</v>
+        <v>0.005355117142204684</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.005368903894756155</v>
+        <v>0.005355117142204684</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +1784,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01572666139706645</v>
+        <v>0.01572916094916644</v>
       </c>
       <c r="D17" t="n">
         <v>0.0155771051030842</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01770827235633089</v>
+        <v>-0.01770900272436011</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01893345723733829</v>
+        <v>0.01894366098174644</v>
       </c>
       <c r="G17" t="n">
         <v>0.01609284496371379</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.647625985905038e-05</v>
+        <v>-8.604057944162316e-05</v>
       </c>
       <c r="I17" t="n">
         <v>-0.006570467302818691</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02207653022335769</v>
+        <v>-0.02254542453119288</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01917454463898178</v>
+        <v>-0.01919267567970703</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01917454463898178</v>
+        <v>-0.01919267567970703</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01917454463898178</v>
+        <v>-0.01919267567970703</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01917454463898178</v>
+        <v>-0.01919267567970703</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01917454463898178</v>
+        <v>-0.01919267567970703</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.004490001491600059</v>
+        <v>-0.004476061715042468</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.00731710550868422</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.01110264111610564</v>
+        <v>-0.01097678175107127</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.02161036694441467</v>
+        <v>-0.02156627942265117</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.002133691669347666</v>
+        <v>-0.002137173397486935</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.02019862679194507</v>
+        <v>-0.02021396692055867</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02103727600949104</v>
+        <v>0.02102358112894324</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02103727600949104</v>
+        <v>0.02102358112894324</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02103727600949104</v>
+        <v>0.02102358112894324</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02103727600949104</v>
+        <v>0.02102358112894324</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02103727600949104</v>
+        <v>0.02102358112894324</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +1868,76 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01536319347852774</v>
+        <v>-0.01536143235845729</v>
       </c>
       <c r="D18" t="n">
         <v>-0.007663759218550368</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003963231998529279</v>
+        <v>0.003963413534536541</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.003013484664539386</v>
+        <v>-0.003027761689110467</v>
       </c>
       <c r="G18" t="n">
         <v>-0.005521941724877669</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.007281983619279344</v>
+        <v>-0.007279884387195375</v>
       </c>
       <c r="I18" t="n">
         <v>-0.004741255389650215</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01525683128700086</v>
+        <v>0.01581013148666563</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003880586075223442</v>
+        <v>0.0004129118565164742</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003880586075223442</v>
+        <v>0.0004129118565164742</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0003880586075223442</v>
+        <v>0.0004129118565164742</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0003880586075223442</v>
+        <v>0.0004129118565164742</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0003880586075223442</v>
+        <v>0.0004129118565164742</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01161651579266063</v>
+        <v>0.01160420600016824</v>
       </c>
       <c r="Q18" t="n">
         <v>-0.01004261060970442</v>
       </c>
       <c r="R18" t="n">
-        <v>0.009035678857427152</v>
+        <v>0.008984586599383464</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01925708957028358</v>
+        <v>0.01916555481462219</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.00574618227784729</v>
+        <v>-0.005744164069766562</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0006683015307320611</v>
+        <v>-0.0006660580106423203</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.01636089943843598</v>
+        <v>-0.01633784791751391</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01636089943843598</v>
+        <v>-0.01633784791751391</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01636089943843598</v>
+        <v>-0.01633784791751391</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01636089943843598</v>
+        <v>-0.01633784791751391</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.01636089943843598</v>
+        <v>-0.01633784791751391</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +1952,76 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03954852820594112</v>
+        <v>-0.0395520800140832</v>
       </c>
       <c r="D19" t="n">
         <v>-0.01146364961054598</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01258251170330047</v>
+        <v>0.01258407803936312</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01225667050626682</v>
+        <v>-0.01225382660215306</v>
       </c>
       <c r="G19" t="n">
         <v>-0.01492321960492878</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.009982460367298412</v>
+        <v>-0.009982654575306182</v>
       </c>
       <c r="I19" t="n">
         <v>-0.005024797256991891</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.003956328027926189</v>
+        <v>-0.004160030772678456</v>
       </c>
       <c r="K19" t="n">
-        <v>0.004633997945359918</v>
+        <v>0.004629334553173382</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004633997945359918</v>
+        <v>0.004629334553173382</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004633997945359918</v>
+        <v>0.004629334553173382</v>
       </c>
       <c r="N19" t="n">
-        <v>0.004633997945359918</v>
+        <v>0.004629334553173382</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004633997945359918</v>
+        <v>0.004629334553173382</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01948318810732752</v>
+        <v>-0.01947692852307714</v>
       </c>
       <c r="Q19" t="n">
         <v>0.003901894236075769</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0302666126986645</v>
+        <v>0.03012818453312738</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.001516400796656032</v>
+        <v>-0.001425161433006457</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01490607371624295</v>
+        <v>-0.01490456910818276</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01060098714403948</v>
+        <v>0.01063492208939688</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.005243022065720882</v>
+        <v>-0.005263909074556362</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.005243022065720882</v>
+        <v>-0.005263909074556362</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.005243022065720882</v>
+        <v>-0.005263909074556362</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.005243022065720882</v>
+        <v>-0.005263909074556362</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.005243022065720882</v>
+        <v>-0.005263909074556362</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2032,76 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01862332682493307</v>
+        <v>0.01862615978504639</v>
       </c>
       <c r="D20" t="n">
         <v>0.01053221648528866</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008103082308123292</v>
+        <v>-0.008104350372174014</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00581853776874151</v>
+        <v>0.005825747081029883</v>
       </c>
       <c r="G20" t="n">
         <v>0.006088184115527364</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.003966758270670331</v>
+        <v>-0.00395933199837328</v>
       </c>
       <c r="I20" t="n">
         <v>-0.006169556118782244</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003207159979370343</v>
+        <v>0.000111291604833617</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01459291104771644</v>
+        <v>-0.01460357904814316</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01459291104771644</v>
+        <v>-0.01460357904814316</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01459291104771644</v>
+        <v>-0.01460357904814316</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01459291104771644</v>
+        <v>-0.01460357904814316</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01459291104771644</v>
+        <v>-0.01460357904814316</v>
       </c>
       <c r="P20" t="n">
-        <v>0.00895089328603573</v>
+        <v>0.008955666502226659</v>
       </c>
       <c r="Q20" t="n">
         <v>0.02005838787433551</v>
       </c>
       <c r="R20" t="n">
-        <v>0.007916796220671847</v>
+        <v>0.00811443728457749</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.02129638385985536</v>
+        <v>-0.02132305477292219</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01393497799739912</v>
+        <v>-0.01393907153356286</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.01852822614912904</v>
+        <v>-0.01856005427840217</v>
       </c>
       <c r="V20" t="n">
-        <v>0.003161565438462617</v>
+        <v>0.003165488670619547</v>
       </c>
       <c r="W20" t="n">
-        <v>0.003161565438462617</v>
+        <v>0.003165488670619547</v>
       </c>
       <c r="X20" t="n">
-        <v>0.003161565438462617</v>
+        <v>0.003165488670619547</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.003161565438462617</v>
+        <v>0.003165488670619547</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.003161565438462617</v>
+        <v>0.003165488670619547</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2112,76 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.004052095554083822</v>
+        <v>-0.004055385186215407</v>
       </c>
       <c r="D21" t="n">
         <v>0.01321321320052853</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01007474795498992</v>
+        <v>-0.01007471339498853</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007275816579032663</v>
+        <v>0.007271195618847825</v>
       </c>
       <c r="G21" t="n">
         <v>0.005873782122951284</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.007388885575555421</v>
+        <v>-0.007389528775581151</v>
       </c>
       <c r="I21" t="n">
         <v>-0.01017601365504055</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.009005139847327355</v>
+        <v>-0.008881473409740151</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01033586230143449</v>
+        <v>-0.01032741823709673</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01033586230143449</v>
+        <v>-0.01032741823709673</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01033586230143449</v>
+        <v>-0.01032741823709673</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01033586230143449</v>
+        <v>-0.01032741823709673</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.01033586230143449</v>
+        <v>-0.01032741823709673</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.003364049414561976</v>
+        <v>-0.003369290054771602</v>
       </c>
       <c r="Q21" t="n">
         <v>0.01849341981173679</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.001511014524440581</v>
+        <v>-0.001524480732979229</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.006047675953907037</v>
+        <v>-0.006064995314599812</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01690647485225899</v>
+        <v>-0.01690644826025793</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.01700962215238488</v>
+        <v>-0.01701251664850066</v>
       </c>
       <c r="V21" t="n">
-        <v>0.000862511554500462</v>
+        <v>0.0008682384347295372</v>
       </c>
       <c r="W21" t="n">
-        <v>0.000862511554500462</v>
+        <v>0.0008682384347295372</v>
       </c>
       <c r="X21" t="n">
-        <v>0.000862511554500462</v>
+        <v>0.0008682384347295372</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.000862511554500462</v>
+        <v>0.0008682384347295372</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.000862511554500462</v>
+        <v>0.0008682384347295372</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2192,76 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0009621738624869543</v>
+        <v>-0.000967840550713622</v>
       </c>
       <c r="D22" t="n">
         <v>-0.02655094119003764</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02713095871723835</v>
+        <v>0.02713169810926792</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02739336195973448</v>
+        <v>-0.02740099933603997</v>
       </c>
       <c r="G22" t="n">
         <v>-0.02464871848994874</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02858851083954043</v>
+        <v>-0.02858860904754435</v>
       </c>
       <c r="I22" t="n">
         <v>-0.01713025143721005</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0276345981608891</v>
+        <v>0.02791140294024805</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02437448929497957</v>
+        <v>0.02438719047948762</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02437448929497957</v>
+        <v>0.02438719047948762</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02437448929497957</v>
+        <v>0.02438719047948762</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02437448929497957</v>
+        <v>0.02438719047948762</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02437448929497957</v>
+        <v>0.02438719047948762</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01073184033327361</v>
+        <v>0.01072418193296728</v>
       </c>
       <c r="Q22" t="n">
         <v>0.001544736445789458</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04124611566584462</v>
+        <v>0.04114759815790392</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02395918137436725</v>
+        <v>0.02394391372575655</v>
       </c>
       <c r="T22" t="n">
-        <v>0.007843353433734136</v>
+        <v>0.007845435385817414</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01141028724041149</v>
+        <v>0.01142067136882685</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.03540104224804169</v>
+        <v>-0.03539432435977297</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.03540104224804169</v>
+        <v>-0.03539432435977297</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.03540104224804169</v>
+        <v>-0.03539432435977297</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.03540104224804169</v>
+        <v>-0.03539432435977297</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.03540104224804169</v>
+        <v>-0.03539432435977297</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01572809294912372</v>
+        <v>-0.01573504939740197</v>
       </c>
       <c r="D23" t="n">
         <v>-0.0169170199726808</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01291084534843381</v>
+        <v>0.01291083661243346</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01019669119186765</v>
+        <v>-0.01020044623201785</v>
       </c>
       <c r="G23" t="n">
         <v>-0.009586041023441641</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01327131355485254</v>
+        <v>-0.01328207793928311</v>
       </c>
       <c r="I23" t="n">
         <v>-0.01255258629410345</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01024408633316701</v>
+        <v>0.01042301891669256</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01996702428668097</v>
+        <v>0.01997427670297107</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01996702428668097</v>
+        <v>0.01997427670297107</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01996702428668097</v>
+        <v>0.01997427670297107</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01996702428668097</v>
+        <v>0.01997427670297107</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01996702428668097</v>
+        <v>0.01997427670297107</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.009295470035818801</v>
+        <v>-0.009298939955957597</v>
       </c>
       <c r="Q23" t="n">
         <v>-0.01932033120481325</v>
       </c>
       <c r="R23" t="n">
-        <v>0.009089882475595296</v>
+        <v>0.009175153423006135</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02158870531154821</v>
+        <v>0.02152170854086834</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01363850233754009</v>
+        <v>0.01363593846543754</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01221427296857092</v>
+        <v>0.01218763392750536</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.01255735384629415</v>
+        <v>-0.01254165544566622</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.01255735384629415</v>
+        <v>-0.01254165544566622</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.01255735384629415</v>
+        <v>-0.01254165544566622</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.01255735384629415</v>
+        <v>-0.01254165544566622</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.01255735384629415</v>
+        <v>-0.01254165544566622</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2356,76 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01722771102510844</v>
+        <v>0.01723510667340427</v>
       </c>
       <c r="D24" t="n">
         <v>-0.002310135836405433</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001002417832096713</v>
+        <v>0.00100196874407875</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.001766213830648553</v>
+        <v>-0.001759734790389392</v>
       </c>
       <c r="G24" t="n">
         <v>2.522832100913284e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01982801186512047</v>
+        <v>0.019828424953137</v>
       </c>
       <c r="I24" t="n">
         <v>0.02253726483749059</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.001373786171699252</v>
+        <v>-0.001596343461332389</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005347266165890646</v>
+        <v>0.005336796309471851</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005347266165890646</v>
+        <v>0.005336796309471851</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005347266165890646</v>
+        <v>0.005336796309471851</v>
       </c>
       <c r="N24" t="n">
-        <v>0.005347266165890646</v>
+        <v>0.005336796309471851</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005347266165890646</v>
+        <v>0.005336796309471851</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02410329168413166</v>
+        <v>0.02411092733243709</v>
       </c>
       <c r="Q24" t="n">
         <v>-0.009298375667935024</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01608239574729583</v>
+        <v>-0.01611334451653378</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0004928181317127252</v>
+        <v>-0.0004362920814516832</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01771466355658654</v>
+        <v>0.01771437142857486</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01392450228498009</v>
+        <v>0.01393495678139827</v>
       </c>
       <c r="V24" t="n">
-        <v>3.056611322264452e-05</v>
+        <v>1.893628875745155e-05</v>
       </c>
       <c r="W24" t="n">
-        <v>3.056611322264452e-05</v>
+        <v>1.893628875745155e-05</v>
       </c>
       <c r="X24" t="n">
-        <v>3.056611322264452e-05</v>
+        <v>1.893628875745155e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.056611322264452e-05</v>
+        <v>1.893628875745155e-05</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.056611322264452e-05</v>
+        <v>1.893628875745155e-05</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2440,76 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.002080850387234015</v>
+        <v>-0.002086701779468071</v>
       </c>
       <c r="D25" t="n">
         <v>-0.009323862036954478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01067586877903475</v>
+        <v>0.01067797233111889</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01069472241178889</v>
+        <v>-0.01071330138853205</v>
       </c>
       <c r="G25" t="n">
         <v>-0.01113871033354841</v>
       </c>
       <c r="H25" t="n">
-        <v>0.009282541523301661</v>
+        <v>0.009279825683193027</v>
       </c>
       <c r="I25" t="n">
         <v>0.0109187299727492</v>
       </c>
       <c r="J25" t="n">
-        <v>0.004470285506260727</v>
+        <v>0.005085963196893553</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003885135995405439</v>
+        <v>0.003906883548275342</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003885135995405439</v>
+        <v>0.003906883548275342</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003885135995405439</v>
+        <v>0.003906883548275342</v>
       </c>
       <c r="N25" t="n">
-        <v>0.003885135995405439</v>
+        <v>0.003906883548275342</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003885135995405439</v>
+        <v>0.003906883548275342</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02816179293447171</v>
+        <v>-0.02817763850310554</v>
       </c>
       <c r="Q25" t="n">
         <v>0.009193148431725936</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0056583625303345</v>
+        <v>0.005395108055804321</v>
       </c>
       <c r="S25" t="n">
-        <v>0.005230041233201648</v>
+        <v>0.005200381840015273</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.002738414221536568</v>
+        <v>-0.00273386151735446</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01164394587375783</v>
+        <v>0.01167744853109794</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.007247121793884871</v>
+        <v>-0.007235928865437154</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.007247121793884871</v>
+        <v>-0.007235928865437154</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.007247121793884871</v>
+        <v>-0.007235928865437154</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.007247121793884871</v>
+        <v>-0.007235928865437154</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.007247121793884871</v>
+        <v>-0.007235928865437154</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2520,76 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.009019127784765111</v>
+        <v>-0.009026508361060333</v>
       </c>
       <c r="D26" t="n">
         <v>0.001107987788319511</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004224411048976441</v>
+        <v>0.0004224662568986502</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0008387806415512255</v>
+        <v>-0.000843075777723031</v>
       </c>
       <c r="G26" t="n">
         <v>-0.001721942660877706</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.005873157642926305</v>
+        <v>-0.0058590225063609</v>
       </c>
       <c r="I26" t="n">
         <v>-0.01001658673666347</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01060105726067954</v>
+        <v>-0.01041827032448631</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.004689635803585432</v>
+        <v>-0.004683466843338673</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.004689635803585432</v>
+        <v>-0.004683466843338673</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.004689635803585432</v>
+        <v>-0.004683466843338673</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.004689635803585432</v>
+        <v>-0.004683466843338673</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.004689635803585432</v>
+        <v>-0.004683466843338673</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.0009595696703827868</v>
+        <v>-0.0009653477186139087</v>
       </c>
       <c r="Q26" t="n">
         <v>0.01026008901840356</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001484809691392387</v>
+        <v>0.001446474777858991</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.006722192140887684</v>
+        <v>-0.006747371981894878</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.005691209315648371</v>
+        <v>-0.005691166979646679</v>
       </c>
       <c r="U26" t="n">
-        <v>0.006109823668392945</v>
+        <v>0.006115646740625869</v>
       </c>
       <c r="V26" t="n">
-        <v>0.003676192563047702</v>
+        <v>0.003681568851262754</v>
       </c>
       <c r="W26" t="n">
-        <v>0.003676192563047702</v>
+        <v>0.003681568851262754</v>
       </c>
       <c r="X26" t="n">
-        <v>0.003676192563047702</v>
+        <v>0.003681568851262754</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.003676192563047702</v>
+        <v>0.003681568851262754</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.003676192563047702</v>
+        <v>0.003681568851262754</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2604,76 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.0241942677197707</v>
+        <v>-0.02419155802366232</v>
       </c>
       <c r="D27" t="n">
         <v>-0.04449360312374411</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003802033208081328</v>
+        <v>0.00380299224811969</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01879413924776557</v>
+        <v>0.01879320852772834</v>
       </c>
       <c r="G27" t="n">
         <v>-0.006109206580368262</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02966789830671593</v>
+        <v>0.0296526425621057</v>
       </c>
       <c r="I27" t="n">
         <v>0.01890344744413789</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.006945799597836666</v>
+        <v>-0.007098549524304202</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04642510601700423</v>
+        <v>0.04642050857682033</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04642510601700423</v>
+        <v>0.04642050857682033</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04642510601700423</v>
+        <v>0.04642050857682033</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04642510601700423</v>
+        <v>0.04642050857682033</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04642510601700423</v>
+        <v>0.04642050857682033</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.05708343233133729</v>
+        <v>-0.05707887962715518</v>
       </c>
       <c r="Q27" t="n">
         <v>-0.2407278695331148</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1578656946986278</v>
+        <v>0.1577476035579041</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04732158083686323</v>
+        <v>0.0473986451279458</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0675117579964703</v>
+        <v>-0.06750890670035627</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02712315650892626</v>
+        <v>0.02715701695828067</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03015124066204962</v>
+        <v>0.03013492958939718</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03015124066204962</v>
+        <v>0.03013492958939718</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03015124066204962</v>
+        <v>0.03013492958939718</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03015124066204962</v>
+        <v>0.03013492958939718</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03015124066204962</v>
+        <v>0.03013492958939718</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +2688,76 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.006718603468744137</v>
+        <v>-0.006712831564513261</v>
       </c>
       <c r="D28" t="n">
         <v>-0.002940847797633912</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001508488668339547</v>
+        <v>0.001509913884396555</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0002372004574880183</v>
+        <v>-0.0002419911456796458</v>
       </c>
       <c r="G28" t="n">
         <v>0.00134245550969822</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.008024573312982931</v>
+        <v>-0.008027717409108695</v>
       </c>
       <c r="I28" t="n">
         <v>-0.008152086854083472</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005648815973474945</v>
+        <v>0.0058733906070931</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002614898600595944</v>
+        <v>0.002627091561083662</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002614898600595944</v>
+        <v>0.002627091561083662</v>
       </c>
       <c r="M28" t="n">
-        <v>0.002614898600595944</v>
+        <v>0.002627091561083662</v>
       </c>
       <c r="N28" t="n">
-        <v>0.002614898600595944</v>
+        <v>0.002627091561083662</v>
       </c>
       <c r="O28" t="n">
-        <v>0.002614898600595944</v>
+        <v>0.002627091561083662</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.005715528900621155</v>
+        <v>-0.005723061924922476</v>
       </c>
       <c r="Q28" t="n">
         <v>-0.01036030457441218</v>
       </c>
       <c r="R28" t="n">
-        <v>0.003425916713036668</v>
+        <v>0.00331744650069786</v>
       </c>
       <c r="S28" t="n">
-        <v>0.00231800274872011</v>
+        <v>0.002318532956741318</v>
       </c>
       <c r="T28" t="n">
-        <v>0.009975629679025185</v>
+        <v>0.009978050703122026</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.004756892926275716</v>
+        <v>-0.004737415485496619</v>
       </c>
       <c r="V28" t="n">
-        <v>0.004234959817398392</v>
+        <v>0.004237267081490683</v>
       </c>
       <c r="W28" t="n">
-        <v>0.004234959817398392</v>
+        <v>0.004237267081490683</v>
       </c>
       <c r="X28" t="n">
-        <v>0.004234959817398392</v>
+        <v>0.004237267081490683</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.004234959817398392</v>
+        <v>0.004237267081490683</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.004234959817398392</v>
+        <v>0.004237267081490683</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +2772,76 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.009152900334116011</v>
+        <v>0.009154466190178645</v>
       </c>
       <c r="D29" t="n">
         <v>0.02418573111142924</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02158197225527889</v>
+        <v>-0.02158253366330135</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02389287551571501</v>
+        <v>0.0239032826841313</v>
       </c>
       <c r="G29" t="n">
         <v>0.02443150811326032</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02585234609009384</v>
+        <v>0.02585160708206428</v>
       </c>
       <c r="I29" t="n">
         <v>0.01661224492048979</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.08895563392965603</v>
+        <v>-0.08928327675775126</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.005952011662080466</v>
+        <v>-0.005966956846678272</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.005952011662080466</v>
+        <v>-0.005966956846678272</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.005952011662080466</v>
+        <v>-0.005966956846678272</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.005952011662080466</v>
+        <v>-0.005966956846678272</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.005952011662080466</v>
+        <v>-0.005966956846678272</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.0002509548580381943</v>
+        <v>-0.0002412725856509034</v>
       </c>
       <c r="Q29" t="n">
         <v>0.01275377887815115</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.02081559203262368</v>
+        <v>-0.02070548972421958</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.004130680677227226</v>
+        <v>-0.004095309955812397</v>
       </c>
       <c r="T29" t="n">
-        <v>0.008773574078942963</v>
+        <v>0.008770611806824471</v>
       </c>
       <c r="U29" t="n">
-        <v>0.001279932147197286</v>
+        <v>0.00126711125068445</v>
       </c>
       <c r="V29" t="n">
-        <v>0.034531525189261</v>
+        <v>0.03452101347684054</v>
       </c>
       <c r="W29" t="n">
-        <v>0.034531525189261</v>
+        <v>0.03452101347684054</v>
       </c>
       <c r="X29" t="n">
-        <v>0.034531525189261</v>
+        <v>0.03452101347684054</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.034531525189261</v>
+        <v>0.03452101347684054</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.034531525189261</v>
+        <v>0.03452101347684054</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +2856,76 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.004296712971868518</v>
+        <v>-0.004299686859987474</v>
       </c>
       <c r="D30" t="n">
         <v>-0.007107859868314394</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002350516126020645</v>
+        <v>0.002351946046077841</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0004892449155697965</v>
+        <v>-0.0004951967238078689</v>
       </c>
       <c r="G30" t="n">
         <v>-0.0007478874539154981</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01858669907946796</v>
+        <v>-0.0185885150155406</v>
       </c>
       <c r="I30" t="n">
         <v>-0.01542497485699899</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03176862963653757</v>
+        <v>0.03191024471392575</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006427467617098705</v>
+        <v>0.006432439457297576</v>
       </c>
       <c r="L30" t="n">
-        <v>0.006427467617098705</v>
+        <v>0.006432439457297576</v>
       </c>
       <c r="M30" t="n">
-        <v>0.006427467617098705</v>
+        <v>0.006432439457297576</v>
       </c>
       <c r="N30" t="n">
-        <v>0.006427467617098705</v>
+        <v>0.006432439457297576</v>
       </c>
       <c r="O30" t="n">
-        <v>0.006427467617098705</v>
+        <v>0.006432439457297576</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01641836494473459</v>
+        <v>0.01641514481660579</v>
       </c>
       <c r="Q30" t="n">
         <v>-0.0217911151756446</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.001848986089959443</v>
+        <v>-0.002012793104511724</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02719084908763396</v>
+        <v>0.02721667289666691</v>
       </c>
       <c r="T30" t="n">
-        <v>0.008784605439384216</v>
+        <v>0.008786865567474622</v>
       </c>
       <c r="U30" t="n">
-        <v>0.001749625605985024</v>
+        <v>0.001779923879196955</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.01451651894866075</v>
+        <v>-0.01452086102883444</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01451651894866075</v>
+        <v>-0.01452086102883444</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01451651894866075</v>
+        <v>-0.01452086102883444</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.01451651894866075</v>
+        <v>-0.01452086102883444</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01451651894866075</v>
+        <v>-0.01452086102883444</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +2940,76 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5276163644006545</v>
+        <v>0.5276166684326666</v>
       </c>
       <c r="D31" t="n">
         <v>0.9774717035788681</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9999458626218344</v>
+        <v>-0.9999458528298341</v>
       </c>
       <c r="F31" t="n">
-        <v>0.994243676377747</v>
+        <v>0.9942444658817785</v>
       </c>
       <c r="G31" t="n">
         <v>0.9870102030004079</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3794372315614892</v>
+        <v>0.3794406167136246</v>
       </c>
       <c r="I31" t="n">
         <v>-0.02025557121022284</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.3983312392618823</v>
+        <v>-0.3980589055764943</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8801443844857751</v>
+        <v>-0.8801324451572978</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8801443844857751</v>
+        <v>-0.8801324451572978</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8801443844857751</v>
+        <v>-0.8801324451572978</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8801443844857751</v>
+        <v>-0.8801324451572978</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8801443844857751</v>
+        <v>-0.8801324451572978</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1084215609768624</v>
+        <v>-0.1084213400808536</v>
       </c>
       <c r="Q31" t="n">
         <v>-0.005522112700884507</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6138035897041435</v>
+        <v>-0.6137633813505351</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.4629363594134543</v>
+        <v>-0.4629501678620067</v>
       </c>
       <c r="T31" t="n">
-        <v>0.09235967831838712</v>
+        <v>0.09235849790233991</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.7149120166924806</v>
+        <v>-0.7148922571076901</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8040613071384523</v>
+        <v>0.8040588041303521</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8040613071384523</v>
+        <v>0.8040588041303521</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8040613071384523</v>
+        <v>0.8040588041303521</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8040613071384523</v>
+        <v>0.8040588041303521</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8040613071384523</v>
+        <v>0.8040588041303521</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3024,76 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.004946039141841565</v>
+        <v>0.00494505600580224</v>
       </c>
       <c r="D32" t="n">
         <v>0.02859078066363122</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.02691984203679368</v>
+        <v>-0.02691973854878954</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02572949334917973</v>
+        <v>0.02571807894872316</v>
       </c>
       <c r="G32" t="n">
         <v>0.02768677915547116</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002003707088148283</v>
+        <v>0.00200819201632768</v>
       </c>
       <c r="I32" t="n">
         <v>-0.01117334454293378</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0008577044532724046</v>
+        <v>0.001318053897245717</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02842196523287861</v>
+        <v>-0.02840633182425327</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.02842196523287861</v>
+        <v>-0.02840633182425327</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.02842196523287861</v>
+        <v>-0.02840633182425327</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.02842196523287861</v>
+        <v>-0.02840633182425327</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.02842196523287861</v>
+        <v>-0.02840633182425327</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.009622069344882772</v>
+        <v>-0.00963201177728047</v>
       </c>
       <c r="Q32" t="n">
         <v>0.006737123981484958</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.03370949299637972</v>
+        <v>-0.03371731680469266</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.003280529219221168</v>
+        <v>-0.00337222151088886</v>
       </c>
       <c r="T32" t="n">
-        <v>0.005300636084025443</v>
+        <v>0.005300903828036153</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.03597158620686345</v>
+        <v>-0.03598571183942846</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01038467887938715</v>
+        <v>0.01040390892815636</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01038467887938715</v>
+        <v>0.01040390892815636</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01038467887938715</v>
+        <v>0.01040390892815636</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01038467887938715</v>
+        <v>0.01040390892815636</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01038467887938715</v>
+        <v>0.01040390892815636</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3108,76 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03114991996599679</v>
+        <v>-0.0311422701096908</v>
       </c>
       <c r="D33" t="n">
         <v>0.01966057317042293</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02418933523957341</v>
+        <v>-0.02418957485558299</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02304431804177272</v>
+        <v>0.02305959865038395</v>
       </c>
       <c r="G33" t="n">
         <v>0.02341184666447386</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01442363952094558</v>
+        <v>0.01440646454425858</v>
       </c>
       <c r="I33" t="n">
         <v>-0.001813062024522481</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.06400961082960163</v>
+        <v>-0.06457980165282994</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01198251215930048</v>
+        <v>0.01195693084627723</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01198251215930048</v>
+        <v>0.01195693084627723</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01198251215930048</v>
+        <v>0.01195693084627723</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01198251215930048</v>
+        <v>0.01195693084627723</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01198251215930048</v>
+        <v>0.01195693084627723</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.014241225113649</v>
+        <v>-0.01422562204102488</v>
       </c>
       <c r="Q33" t="n">
         <v>-0.0156788451391538</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.004948438373937535</v>
+        <v>-0.004829579617183184</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.003932201629288065</v>
+        <v>-0.003853684282147371</v>
       </c>
       <c r="T33" t="n">
-        <v>0.001812430056497202</v>
+        <v>0.001809530568381222</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.007238751745550069</v>
+        <v>-0.007249062721962507</v>
       </c>
       <c r="V33" t="n">
-        <v>0.03536152077446083</v>
+        <v>0.0353372275894891</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03536152077446083</v>
+        <v>0.0353372275894891</v>
       </c>
       <c r="X33" t="n">
-        <v>0.03536152077446083</v>
+        <v>0.0353372275894891</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.03536152077446083</v>
+        <v>0.0353372275894891</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.03536152077446083</v>
+        <v>0.0353372275894891</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3192,76 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.002366472286658891</v>
+        <v>-0.00236332550253302</v>
       </c>
       <c r="D34" t="n">
         <v>-0.008784592383383694</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005053887658155506</v>
+        <v>0.005054093386163735</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.004937913605516544</v>
+        <v>-0.004941671717666868</v>
       </c>
       <c r="G34" t="n">
         <v>-0.000295192427807697</v>
       </c>
       <c r="H34" t="n">
-        <v>0.007040085785603431</v>
+        <v>0.007040575961623038</v>
       </c>
       <c r="I34" t="n">
         <v>0.01138237082329483</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009981201169743078</v>
+        <v>0.01005368722065174</v>
       </c>
       <c r="K34" t="n">
-        <v>0.008100590244023608</v>
+        <v>0.008105500164220006</v>
       </c>
       <c r="L34" t="n">
-        <v>0.008100590244023608</v>
+        <v>0.008105500164220006</v>
       </c>
       <c r="M34" t="n">
-        <v>0.008100590244023608</v>
+        <v>0.008105500164220006</v>
       </c>
       <c r="N34" t="n">
-        <v>0.008100590244023608</v>
+        <v>0.008105500164220006</v>
       </c>
       <c r="O34" t="n">
-        <v>0.008100590244023608</v>
+        <v>0.008105500164220006</v>
       </c>
       <c r="P34" t="n">
-        <v>0.005044336809773471</v>
+        <v>0.005042312841692513</v>
       </c>
       <c r="Q34" t="n">
         <v>-0.01936514679060587</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.009947711629908464</v>
+        <v>-0.009974446382977854</v>
       </c>
       <c r="S34" t="n">
-        <v>0.007684034899361395</v>
+        <v>0.007681225555249021</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03205445869017835</v>
+        <v>0.03205571600222864</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01065214583408583</v>
+        <v>0.0106543651621746</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.00554866226994649</v>
+        <v>-0.0055467775018711</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.00554866226994649</v>
+        <v>-0.0055467775018711</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.00554866226994649</v>
+        <v>-0.0055467775018711</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.00554866226994649</v>
+        <v>-0.0055467775018711</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.00554866226994649</v>
+        <v>-0.0055467775018711</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3276,76 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02250756742830269</v>
+        <v>0.02250712141228485</v>
       </c>
       <c r="D35" t="n">
         <v>0.01495070296602812</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.01160785928031437</v>
+        <v>-0.01160828052833122</v>
       </c>
       <c r="F35" t="n">
-        <v>0.009451748922069955</v>
+        <v>0.009454561338182451</v>
       </c>
       <c r="G35" t="n">
         <v>0.009128354669134186</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01768466134738645</v>
+        <v>0.01768479536339181</v>
       </c>
       <c r="I35" t="n">
         <v>0.02218259157530366</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.02058481596653376</v>
+        <v>-0.02059194022234915</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.003722087476883498</v>
+        <v>-0.003726127061045082</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.003722087476883498</v>
+        <v>-0.003726127061045082</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.003722087476883498</v>
+        <v>-0.003726127061045082</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.003722087476883498</v>
+        <v>-0.003726127061045082</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.003722087476883498</v>
+        <v>-0.003726127061045082</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.009266422258656889</v>
+        <v>-0.009266343250653728</v>
       </c>
       <c r="Q35" t="n">
         <v>0.01692822432512897</v>
       </c>
       <c r="R35" t="n">
-        <v>0.002007364400294576</v>
+        <v>0.00206519326660773</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.02559868883194755</v>
+        <v>-0.02561815993672639</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.004225285129011404</v>
+        <v>-0.004225881673035266</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.01769699590787983</v>
+        <v>-0.01771246064449842</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01337983157519326</v>
+        <v>0.01338401592736064</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01337983157519326</v>
+        <v>0.01338401592736064</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01337983157519326</v>
+        <v>0.01338401592736064</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01337983157519326</v>
+        <v>0.01338401592736064</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01337983157519326</v>
+        <v>0.01338401592736064</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3360,76 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04406110246644409</v>
+        <v>0.04406459561858382</v>
       </c>
       <c r="D36" t="n">
         <v>0.03050474627618985</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03077982055919282</v>
+        <v>-0.03077977591919103</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03010457726818309</v>
+        <v>0.03010363109214524</v>
       </c>
       <c r="G36" t="n">
         <v>0.02947128444285137</v>
       </c>
       <c r="H36" t="n">
-        <v>0.008244073961762959</v>
+        <v>0.008238736457549457</v>
       </c>
       <c r="I36" t="n">
         <v>-0.002515635364625415</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01616059299027473</v>
+        <v>-0.01615927462182961</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2062432820097312</v>
+        <v>0.2062423938176957</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2062432820097312</v>
+        <v>0.2062423938176957</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2062432820097312</v>
+        <v>0.2062423938176957</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2062432820097312</v>
+        <v>0.2062423938176957</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2062432820097312</v>
+        <v>0.2062423938176957</v>
       </c>
       <c r="P36" t="n">
-        <v>0.004161222694448907</v>
+        <v>0.004159140934365636</v>
       </c>
       <c r="Q36" t="n">
         <v>-0.0008840598113623923</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01235119489404779</v>
+        <v>-0.01239189860767594</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.01750282946811317</v>
+        <v>-0.01748833740353349</v>
       </c>
       <c r="T36" t="n">
-        <v>0.005173199822927992</v>
+        <v>0.005174428334977133</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.02868065097122604</v>
+        <v>-0.02866637941865517</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2049515838140633</v>
+        <v>0.204944451781778</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2049515838140633</v>
+        <v>0.204944451781778</v>
       </c>
       <c r="X36" t="n">
-        <v>0.2049515838140633</v>
+        <v>0.204944451781778</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.2049515838140633</v>
+        <v>0.204944451781778</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.2049515838140633</v>
+        <v>0.204944451781778</v>
       </c>
     </row>
     <row r="37">
@@ -3444,76 +3444,76 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01393089934123597</v>
+        <v>0.01392406529296261</v>
       </c>
       <c r="D37" t="n">
         <v>0.01629612737184509</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02006692544267702</v>
+        <v>-0.02006672595466904</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02145276556211062</v>
+        <v>0.02144470914578836</v>
       </c>
       <c r="G37" t="n">
         <v>0.02259485379979415</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.00162838576113543</v>
+        <v>-0.001630371041214842</v>
       </c>
       <c r="I37" t="n">
         <v>-0.01464582970583318</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.005175260432896117</v>
+        <v>-0.004761680654809313</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01012042648481706</v>
+        <v>-0.01010436136417445</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01012042648481706</v>
+        <v>-0.01010436136417445</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.01012042648481706</v>
+        <v>-0.01010436136417445</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.01012042648481706</v>
+        <v>-0.01010436136417445</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.01012042648481706</v>
+        <v>-0.01010436136417445</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.02888590944343638</v>
+        <v>-0.02889564057982562</v>
       </c>
       <c r="Q37" t="n">
         <v>-0.01445227737809109</v>
       </c>
       <c r="R37" t="n">
-        <v>0.002445410785816431</v>
+        <v>0.00242512800100512</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.01769468393978735</v>
+        <v>-0.01777136595885464</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01785150829806033</v>
+        <v>0.01785076900203076</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.01517512678300507</v>
+        <v>-0.0151745274549811</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02810133808405352</v>
+        <v>0.02811852083674083</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02810133808405352</v>
+        <v>0.02811852083674083</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02810133808405352</v>
+        <v>0.02811852083674083</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02810133808405352</v>
+        <v>0.02811852083674083</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.02810133808405352</v>
+        <v>0.02811852083674083</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -712,76 +712,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1316785476351419</v>
+        <v>-0.129873024970921</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1402826869873074</v>
+        <v>-0.1402827117553085</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.001000500808020032</v>
+        <v>-0.0009656321666252865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02948873119554924</v>
+        <v>0.04263335181733406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1541268489810739</v>
+        <v>0.1816877531235101</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02557545529501821</v>
+        <v>0.0276797652991906</v>
       </c>
       <c r="I4" t="n">
         <v>-0.006983176887327074</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4354396257120138</v>
+        <v>0.3235089260640962</v>
       </c>
       <c r="K4" t="n">
-        <v>0.32456225099849</v>
+        <v>0.3822992746839709</v>
       </c>
       <c r="L4" t="n">
-        <v>0.32456225099849</v>
+        <v>0.3822992746839709</v>
       </c>
       <c r="M4" t="n">
-        <v>0.32456225099849</v>
+        <v>0.3822992746839709</v>
       </c>
       <c r="N4" t="n">
-        <v>0.32456225099849</v>
+        <v>0.3822992746839709</v>
       </c>
       <c r="O4" t="n">
-        <v>0.32456225099849</v>
+        <v>0.3822992746839709</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0800462827538513</v>
+        <v>-0.09162847345713891</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6985449895737995</v>
+        <v>-0.6985455240058208</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01166167323446693</v>
+        <v>0.009606585792263431</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3054150322806013</v>
+        <v>0.2626927297397091</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9925737988389518</v>
+        <v>0.9977765824070631</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1749899965355998</v>
+        <v>0.150950174102007</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08857244504689779</v>
+        <v>0.06896231594249264</v>
       </c>
       <c r="W4" t="n">
-        <v>0.08857244504689779</v>
+        <v>0.06896231594249264</v>
       </c>
       <c r="X4" t="n">
-        <v>0.08857244504689779</v>
+        <v>0.06896231594249264</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.08857244504689779</v>
+        <v>0.06896231594249264</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08857244504689779</v>
+        <v>0.06896231594249264</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +792,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08489829075593162</v>
+        <v>0.08736832746273308</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1241312155892486</v>
+        <v>0.1241310184052407</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00736250727050029</v>
+        <v>0.007372658214906328</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08866316466652657</v>
+        <v>-0.09278525852741033</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.007556744654269785</v>
+        <v>-0.005800146376005854</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03264529551381182</v>
+        <v>-0.03202123145684926</v>
       </c>
       <c r="I5" t="n">
         <v>-0.0005059528522381141</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006045570838571233</v>
+        <v>0.0208894781736492</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1338958416758337</v>
+        <v>-0.1582003296880132</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1338958416758337</v>
+        <v>-0.1582003296880132</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1338958416758337</v>
+        <v>-0.1582003296880132</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1338958416758337</v>
+        <v>-0.1582003296880132</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1338958416758337</v>
+        <v>-0.1582003296880132</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09894915630996626</v>
+        <v>0.09987431084297242</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6494538299141531</v>
+        <v>0.6494539212101568</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005293355539734221</v>
+        <v>0.005456581178263246</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.3288995688039827</v>
+        <v>-0.1951535188141407</v>
       </c>
       <c r="T5" t="n">
-        <v>2.138083285523331e-05</v>
+        <v>-0.0001890579915623196</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1015131089565244</v>
+        <v>-0.1006373318334933</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.09671304367652173</v>
+        <v>-0.1005068642762746</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.09671304367652173</v>
+        <v>-0.1005068642762746</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.09671304367652173</v>
+        <v>-0.1005068642762746</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.09671304367652173</v>
+        <v>-0.1005068642762746</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.09671304367652173</v>
+        <v>-0.1005068642762746</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +872,76 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1815443171177726</v>
+        <v>0.2159673072946923</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02040055425602217</v>
+        <v>-0.02040081998403279</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01999811023992441</v>
+        <v>0.01999140675165627</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01306122119444885</v>
+        <v>0.00684118827364753</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0212143575205743</v>
+        <v>-0.02552497177299887</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9099242126529684</v>
+        <v>0.9096522192020886</v>
       </c>
       <c r="I6" t="n">
         <v>0.9579628848145153</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3314698729883994</v>
+        <v>-0.1891728703950026</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1198727065869082</v>
+        <v>-0.04425296385011854</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1198727065869082</v>
+        <v>-0.04425296385011854</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1198727065869082</v>
+        <v>-0.04425296385011854</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1198727065869082</v>
+        <v>-0.04425296385011854</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1198727065869082</v>
+        <v>-0.04425296385011854</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.002895789907831596</v>
+        <v>-0.0004339037933561517</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0006872728594909143</v>
+        <v>0.0006893624915744996</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1294852822034113</v>
+        <v>-0.1277832827753313</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.04691730485269219</v>
+        <v>-0.02182319549692781</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.001400715320028613</v>
+        <v>-0.01557689073507563</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4393028165801126</v>
+        <v>0.4414196857847874</v>
       </c>
       <c r="V6" t="n">
-        <v>0.00137436600697464</v>
+        <v>0.046233025369321</v>
       </c>
       <c r="W6" t="n">
-        <v>0.00137436600697464</v>
+        <v>0.046233025369321</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00137436600697464</v>
+        <v>0.046233025369321</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.00137436600697464</v>
+        <v>0.046233025369321</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00137436600697464</v>
+        <v>0.046233025369321</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +956,76 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4675759962070398</v>
+        <v>0.47378725040749</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0274789525871581</v>
+        <v>0.02747880301915212</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02385658703426348</v>
+        <v>-0.02387506741900269</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02289450360378014</v>
+        <v>0.02380795199231808</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02094356426174257</v>
+        <v>0.01394399614175984</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01438659724746389</v>
+        <v>0.0146503574500143</v>
       </c>
       <c r="I7" t="n">
         <v>0.001493300027732001</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.02046116325666924</v>
+        <v>-0.01470615180659935</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02480338937613557</v>
+        <v>-0.02965991734639669</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02480338937613557</v>
+        <v>-0.02965991734639669</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02480338937613557</v>
+        <v>-0.02965991734639669</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02480338937613557</v>
+        <v>-0.02965991734639669</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02480338937613557</v>
+        <v>-0.02965991734639669</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5839392373735695</v>
+        <v>-0.5677672651746906</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02023842560953702</v>
+        <v>0.02024082704963308</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01673604230144169</v>
+        <v>-0.0167370099814804</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01938311779932471</v>
+        <v>-0.02677119294284772</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01916569286262771</v>
+        <v>-0.02148180613927225</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.008584955191398206</v>
+        <v>-0.01604284854571394</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02455879816635192</v>
+        <v>0.02546170325846813</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02455879816635192</v>
+        <v>0.02546170325846813</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02455879816635192</v>
+        <v>0.02546170325846813</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02455879816635192</v>
+        <v>0.02546170325846813</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02455879816635192</v>
+        <v>0.02546170325846813</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1040,76 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5127323210532928</v>
+        <v>0.5184359210894368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01340577826423113</v>
+        <v>0.01340589308023572</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0117439849817594</v>
+        <v>-0.01179671701586868</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01095934719037389</v>
+        <v>0.01042631139305245</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009768676614747063</v>
+        <v>0.007743391317735652</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.008390580719623227</v>
+        <v>-0.008286436267457448</v>
       </c>
       <c r="I8" t="n">
         <v>-0.009443602841744113</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.009699828901282967</v>
+        <v>-0.001019618922057241</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.007305670564226822</v>
+        <v>-0.007252976738119069</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.007305670564226822</v>
+        <v>-0.007252976738119069</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.007305670564226822</v>
+        <v>-0.007252976738119069</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.007305670564226822</v>
+        <v>-0.007252976738119069</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.007305670564226822</v>
+        <v>-0.007252976738119069</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7058264061210561</v>
+        <v>0.6882091110483644</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003537992685519707</v>
+        <v>0.003535149741405989</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.008671465498858617</v>
+        <v>-0.006396366879854674</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01043034300921372</v>
+        <v>0.01098129125525165</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01206754915470197</v>
+        <v>-0.01386756957870278</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.00742772352910894</v>
+        <v>-0.002650750858030034</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002814171184566847</v>
+        <v>-0.006741779501671179</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002814171184566847</v>
+        <v>-0.006741779501671179</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002814171184566847</v>
+        <v>-0.006741779501671179</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.002814171184566847</v>
+        <v>-0.006741779501671179</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.002814171184566847</v>
+        <v>-0.006741779501671179</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1124,76 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0167426924137077</v>
+        <v>0.01806823838672953</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01148534148341366</v>
+        <v>-0.01148542951541718</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01227054826682193</v>
+        <v>0.01225149226605969</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01068650538746021</v>
+        <v>-0.010661524938461</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.009820237256809488</v>
+        <v>-0.00787159327486373</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02177033779881351</v>
+        <v>0.02159639587185583</v>
       </c>
       <c r="I9" t="n">
         <v>0.02935640968625638</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.005366097065060328</v>
+        <v>-0.009567544186642064</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0105460625658425</v>
+        <v>0.006385796799431871</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0105460625658425</v>
+        <v>0.006385796799431871</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0105460625658425</v>
+        <v>0.006385796799431871</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0105460625658425</v>
+        <v>0.006385796799431871</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0105460625658425</v>
+        <v>0.006385796799431871</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0001862861834514473</v>
+        <v>0.0006146013365840534</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0100798300031932</v>
+        <v>0.01008166830726673</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01990803276432131</v>
+        <v>-0.01901673848866954</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01861120864844834</v>
+        <v>-0.01245607662624306</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0113518725820749</v>
+        <v>0.01143843088953723</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01445725641829025</v>
+        <v>0.01107826201113048</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.003563752942550117</v>
+        <v>0.002018465840738633</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.003563752942550117</v>
+        <v>0.002018465840738633</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.003563752942550117</v>
+        <v>0.002018465840738633</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.003563752942550117</v>
+        <v>0.002018465840738633</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.003563752942550117</v>
+        <v>0.002018465840738633</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1208,76 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06419296893571874</v>
+        <v>0.06743917181756687</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007942009565680381</v>
+        <v>0.007941940637677624</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.008916208100648323</v>
+        <v>-0.008930000997200038</v>
       </c>
       <c r="F10" t="n">
-        <v>0.009577290335091613</v>
+        <v>0.007309053700362146</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00949832927593317</v>
+        <v>0.01150300337212013</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004037539073501562</v>
+        <v>0.003407259880290395</v>
       </c>
       <c r="I10" t="n">
         <v>-0.0009429528377181134</v>
       </c>
       <c r="J10" t="n">
-        <v>0.004138704707752222</v>
+        <v>-0.007979007449118098</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.009567982078719284</v>
+        <v>-0.006120358036814321</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009567982078719284</v>
+        <v>-0.006120358036814321</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009567982078719284</v>
+        <v>-0.006120358036814321</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.009567982078719284</v>
+        <v>-0.006120358036814321</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.009567982078719284</v>
+        <v>-0.006120358036814321</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06918484318339373</v>
+        <v>0.06478150492726019</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.005571040542841621</v>
+        <v>-0.005573525406941016</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02059835103193404</v>
+        <v>-0.02044961140998446</v>
       </c>
       <c r="S10" t="n">
-        <v>0.008169304262772169</v>
+        <v>0.02029371153174846</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005332821621312864</v>
+        <v>0.005354017654160705</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.009075726603029063</v>
+        <v>0.002358896350355854</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002248048409921936</v>
+        <v>-0.01049626390785056</v>
       </c>
       <c r="W10" t="n">
-        <v>0.002248048409921936</v>
+        <v>-0.01049626390785056</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002248048409921936</v>
+        <v>-0.01049626390785056</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.002248048409921936</v>
+        <v>-0.01049626390785056</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.002248048409921936</v>
+        <v>-0.01049626390785056</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1544797633311905</v>
+        <v>0.1557230829009233</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002367201694688067</v>
+        <v>-0.00236704924668197</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001191094703643788</v>
+        <v>-0.001167358702694348</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003554948302197931</v>
+        <v>0.003477295627091825</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000518332628733305</v>
+        <v>-0.001271799026871961</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.004260866282434651</v>
+        <v>-0.004097720227908808</v>
       </c>
       <c r="I11" t="n">
         <v>0.2739322870212915</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0175286516573044</v>
+        <v>-0.009015816899884415</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002039127441565097</v>
+        <v>0.003520711724828469</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002039127441565097</v>
+        <v>0.003520711724828469</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002039127441565097</v>
+        <v>0.003520711724828469</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002039127441565097</v>
+        <v>0.003520711724828469</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002039127441565097</v>
+        <v>0.003520711724828469</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03378284871131394</v>
+        <v>0.03541231898449276</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01363675091347004</v>
+        <v>-0.01363805593752224</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.001781392103255684</v>
+        <v>-0.001069825578793023</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.009779584327183373</v>
+        <v>-0.004732829085313163</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0002262739290509571</v>
+        <v>0.0004692038587681543</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.001009803592392143</v>
+        <v>0.002215610680624427</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01189616629984665</v>
+        <v>0.009772735302909412</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01189616629984665</v>
+        <v>0.009772735302909412</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01189616629984665</v>
+        <v>0.009772735302909412</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01189616629984665</v>
+        <v>0.009772735302909412</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01189616629984665</v>
+        <v>0.009772735302909412</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1368,76 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2744053231042129</v>
+        <v>-0.2774528232581129</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002924792660991706</v>
+        <v>0.002925181653007265</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002383272287330891</v>
+        <v>-0.002388953183558127</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005694111587764462</v>
+        <v>0.001082668939306757</v>
       </c>
       <c r="G12" t="n">
-        <v>0.003527352717094108</v>
+        <v>0.006132476501299059</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006386483967459358</v>
+        <v>0.006183981463359258</v>
       </c>
       <c r="I12" t="n">
         <v>0.00596510827060433</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.003347089297370782</v>
+        <v>6.678600275478904e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.003603305328132213</v>
+        <v>-0.003948841789953671</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.003603305328132213</v>
+        <v>-0.003948841789953671</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.003603305328132213</v>
+        <v>-0.003948841789953671</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.003603305328132213</v>
+        <v>-0.003948841789953671</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.003603305328132213</v>
+        <v>-0.003948841789953671</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04703789218551568</v>
+        <v>-0.04489234864369394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00207476600299064</v>
+        <v>0.002070126322805052</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00138506175140247</v>
+        <v>0.002176040823041633</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.01586041196241648</v>
+        <v>-0.01658894293555772</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01345055324202213</v>
+        <v>0.01241769371270775</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003455167722206709</v>
+        <v>-0.007579064559162582</v>
       </c>
       <c r="V12" t="n">
-        <v>0.003800361560014462</v>
+        <v>0.008318281292731249</v>
       </c>
       <c r="W12" t="n">
-        <v>0.003800361560014462</v>
+        <v>0.008318281292731249</v>
       </c>
       <c r="X12" t="n">
-        <v>0.003800361560014462</v>
+        <v>0.008318281292731249</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.003800361560014462</v>
+        <v>0.008318281292731249</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.003800361560014462</v>
+        <v>0.008318281292731249</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1452,76 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03204501612980065</v>
+        <v>0.03277435187097407</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001134855981394239</v>
+        <v>0.001134517965380719</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004490938739637549</v>
+        <v>0.0004096365283854611</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.234989169399565e-05</v>
+        <v>-0.0004648533305941332</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003850928794037151</v>
+        <v>0.003832817337312693</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01190584559623382</v>
+        <v>0.0112707201308288</v>
       </c>
       <c r="I13" t="n">
         <v>0.008566614198664566</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.007015615792702224</v>
+        <v>-0.01068382772068652</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.003357507110300284</v>
+        <v>-0.002374741054989642</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.003357507110300284</v>
+        <v>-0.002374741054989642</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.003357507110300284</v>
+        <v>-0.002374741054989642</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.003357507110300284</v>
+        <v>-0.002374741054989642</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.003357507110300284</v>
+        <v>-0.002374741054989642</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03617403063096122</v>
+        <v>0.03535394781415791</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01221443444057737</v>
+        <v>0.01221826724073069</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.003540605709624228</v>
+        <v>-0.001703949476157979</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005440242073609682</v>
+        <v>0.003129492029179681</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0004194741287789651</v>
+        <v>-0.0005012895560515822</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001424423096976924</v>
+        <v>0.005826482441059297</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.008309882444395296</v>
+        <v>-0.009232389105295565</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.008309882444395296</v>
+        <v>-0.009232389105295565</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.008309882444395296</v>
+        <v>-0.009232389105295565</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.008309882444395296</v>
+        <v>-0.009232389105295565</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.008309882444395296</v>
+        <v>-0.009232389105295565</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1536,76 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02875680172627207</v>
+        <v>-0.02921696123267844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007946668733866749</v>
+        <v>0.007946896445875857</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.009208439216337568</v>
+        <v>-0.009192666223706647</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008472474386898974</v>
+        <v>0.009396196215847849</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009399557655982304</v>
+        <v>0.008394491759779668</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.001440231705609268</v>
+        <v>-0.0009184604527384181</v>
       </c>
       <c r="I14" t="n">
         <v>-0.007119685916787436</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.003720811505602285</v>
+        <v>-0.006029065592686898</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.008808762880350514</v>
+        <v>-0.009189292111571682</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.008808762880350514</v>
+        <v>-0.009189292111571682</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008808762880350514</v>
+        <v>-0.009189292111571682</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.008808762880350514</v>
+        <v>-0.009189292111571682</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.008808762880350514</v>
+        <v>-0.009189292111571682</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.04143259778530391</v>
+        <v>-0.04035384948615397</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01022902898516116</v>
+        <v>-0.01023087679323507</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.01924705161788206</v>
+        <v>-0.0198454025538161</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.009147468365898732</v>
+        <v>-0.01013088107723524</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01122580211303208</v>
+        <v>0.0116139600805584</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.0117605924064237</v>
+        <v>-0.01001966852878674</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01344261106570444</v>
+        <v>0.01586429909857196</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01344261106570444</v>
+        <v>0.01586429909857196</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01344261106570444</v>
+        <v>0.01586429909857196</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01344261106570444</v>
+        <v>0.01586429909857196</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01344261106570444</v>
+        <v>0.01586429909857196</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1620,76 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.002002743632109745</v>
+        <v>-0.002312807996512319</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01583074652122986</v>
+        <v>0.01583054712922188</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01740667778426711</v>
+        <v>-0.01742181948087277</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0163642601105704</v>
+        <v>0.01682586844903474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0178597549863902</v>
+        <v>0.01672840838113633</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0004844726593789062</v>
+        <v>-0.0006996257559850302</v>
       </c>
       <c r="I15" t="n">
         <v>-0.01063130442525218</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.001203032164250093</v>
+        <v>-0.004294619745144475</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01398924161556966</v>
+        <v>-0.01168307595532304</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01398924161556966</v>
+        <v>-0.01168307595532304</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01398924161556966</v>
+        <v>-0.01168307595532304</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01398924161556966</v>
+        <v>-0.01168307595532304</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.01398924161556966</v>
+        <v>-0.01168307595532304</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.02119963198398528</v>
+        <v>-0.02371794958871798</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.00189081549963262</v>
+        <v>-0.001889486859579474</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003503046380121855</v>
+        <v>-0.003238254081530163</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01146144775445791</v>
+        <v>-0.01902222690488907</v>
       </c>
       <c r="T15" t="n">
-        <v>0.009042297865691913</v>
+        <v>0.008036832225473288</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02734268710970748</v>
+        <v>-0.023100550044022</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01897771400710856</v>
+        <v>0.01772936576517463</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01897771400710856</v>
+        <v>0.01772936576517463</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01897771400710856</v>
+        <v>0.01772936576517463</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01897771400710856</v>
+        <v>0.01772936576517463</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01897771400710856</v>
+        <v>0.01772936576517463</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1704,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.003580065167202606</v>
+        <v>0.004037659841506393</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00246724800268992</v>
+        <v>0.002467383650695346</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007943447453737897</v>
+        <v>-0.007962954366518173</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0117902124396085</v>
+        <v>0.01286891273875651</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009754184070167361</v>
+        <v>0.005713630884545235</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01368039769921591</v>
+        <v>0.01350764914830596</v>
       </c>
       <c r="I16" t="n">
         <v>0.01187364479494579</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.006466139224837359</v>
+        <v>-0.008364721593028037</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00663195328927813</v>
+        <v>-0.009962142926485715</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.00663195328927813</v>
+        <v>-0.009962142926485715</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.00663195328927813</v>
+        <v>-0.009962142926485715</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.00663195328927813</v>
+        <v>-0.009962142926485715</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.00663195328927813</v>
+        <v>-0.009962142926485715</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.0351069550682782</v>
+        <v>-0.03555015310200612</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.02933120286924811</v>
+        <v>-0.02933268050130721</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.01481596273663851</v>
+        <v>-0.01509118121164725</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01738686674347467</v>
+        <v>0.009841901865676073</v>
       </c>
       <c r="T16" t="n">
-        <v>0.008150971814038871</v>
+        <v>0.007276770915070837</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005526113885044554</v>
+        <v>0.001690336963613478</v>
       </c>
       <c r="V16" t="n">
-        <v>0.005355117142204684</v>
+        <v>0.004641552281662091</v>
       </c>
       <c r="W16" t="n">
-        <v>0.005355117142204684</v>
+        <v>0.004641552281662091</v>
       </c>
       <c r="X16" t="n">
-        <v>0.005355117142204684</v>
+        <v>0.004641552281662091</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.005355117142204684</v>
+        <v>0.004641552281662091</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.005355117142204684</v>
+        <v>0.004641552281662091</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +1784,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01572916094916644</v>
+        <v>0.01558263067130523</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0155771051030842</v>
+        <v>0.01557716116708644</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01770900272436011</v>
+        <v>-0.0177290026931601</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01894366098174644</v>
+        <v>0.01955983067039322</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01609284496371379</v>
+        <v>0.01349797714791908</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.604057944162316e-05</v>
+        <v>0.0007727886069115442</v>
       </c>
       <c r="I17" t="n">
         <v>-0.006570467302818691</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.02254542453119288</v>
+        <v>-0.008745750264744707</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01919267567970703</v>
+        <v>-0.02261039572041583</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01919267567970703</v>
+        <v>-0.02261039572041583</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01919267567970703</v>
+        <v>-0.02261039572041583</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01919267567970703</v>
+        <v>-0.02261039572041583</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01919267567970703</v>
+        <v>-0.02261039572041583</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.004476061715042468</v>
+        <v>-0.00286707227468289</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.00731710550868422</v>
+        <v>-0.007321692676867706</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.01097678175107127</v>
+        <v>-0.009461891130475644</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.02156627942265117</v>
+        <v>-0.01483470116938805</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.002137173397486935</v>
+        <v>-0.003834958329398333</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.02021396692055867</v>
+        <v>-0.01516004902240196</v>
       </c>
       <c r="V17" t="n">
-        <v>0.02102358112894324</v>
+        <v>0.01937814787912591</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02102358112894324</v>
+        <v>0.01937814787912591</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02102358112894324</v>
+        <v>0.01937814787912591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02102358112894324</v>
+        <v>0.01937814787912591</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02102358112894324</v>
+        <v>0.01937814787912591</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +1868,76 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01536143235845729</v>
+        <v>-0.01621515453660618</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007663759218550368</v>
+        <v>-0.007663712370548494</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003963413534536541</v>
+        <v>0.003984658911386356</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.003027761689110467</v>
+        <v>-0.004722905372916214</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005521941724877669</v>
+        <v>-0.009260746930429876</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.007279884387195375</v>
+        <v>-0.007559828078393122</v>
       </c>
       <c r="I18" t="n">
         <v>-0.004741255389650215</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01581013148666563</v>
+        <v>0.0132014474085333</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004129118565164742</v>
+        <v>0.005741847205673887</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004129118565164742</v>
+        <v>0.005741847205673887</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0004129118565164742</v>
+        <v>0.005741847205673887</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0004129118565164742</v>
+        <v>0.005741847205673887</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0004129118565164742</v>
+        <v>0.005741847205673887</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01160420600016824</v>
+        <v>0.01342406127296245</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01004261060970442</v>
+        <v>-0.01004191019367641</v>
       </c>
       <c r="R18" t="n">
-        <v>0.008984586599383464</v>
+        <v>0.007384847431393897</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01916555481462219</v>
+        <v>0.01327758609910344</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.005744164069766562</v>
+        <v>-0.004434839409393576</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0006660580106423203</v>
+        <v>0.002643900393756015</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.01633784791751391</v>
+        <v>-0.01300956157638246</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01633784791751391</v>
+        <v>-0.01300956157638246</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01633784791751391</v>
+        <v>-0.01300956157638246</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01633784791751391</v>
+        <v>-0.01300956157638246</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.01633784791751391</v>
+        <v>-0.01300956157638246</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +1952,76 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.0395520800140832</v>
+        <v>-0.03916961091078443</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01146364961054598</v>
+        <v>-0.01146398868255954</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01258407803936312</v>
+        <v>0.01257165784686631</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01225382660215306</v>
+        <v>-0.01223891117755645</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01492321960492878</v>
+        <v>-0.01585696940227877</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.009982654575306182</v>
+        <v>-0.0101012175560487</v>
       </c>
       <c r="I19" t="n">
         <v>-0.005024797256991891</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.004160030772678456</v>
+        <v>0.003818838589519454</v>
       </c>
       <c r="K19" t="n">
-        <v>0.004629334553173382</v>
+        <v>0.002052250546090022</v>
       </c>
       <c r="L19" t="n">
-        <v>0.004629334553173382</v>
+        <v>0.002052250546090022</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004629334553173382</v>
+        <v>0.002052250546090022</v>
       </c>
       <c r="N19" t="n">
-        <v>0.004629334553173382</v>
+        <v>0.002052250546090022</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004629334553173382</v>
+        <v>0.002052250546090022</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01947692852307714</v>
+        <v>-0.01991512476460499</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.003901894236075769</v>
+        <v>0.003904083228163329</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03012818453312738</v>
+        <v>0.03034817209392688</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.001425161433006457</v>
+        <v>-0.004697296411891855</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01490456910818276</v>
+        <v>-0.01348323788332951</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01063492208939688</v>
+        <v>0.01389364346774574</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.005263909074556362</v>
+        <v>-0.003308830212353208</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.005263909074556362</v>
+        <v>-0.003308830212353208</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.005263909074556362</v>
+        <v>-0.003308830212353208</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.005263909074556362</v>
+        <v>-0.003308830212353208</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.005263909074556362</v>
+        <v>-0.003308830212353208</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2032,76 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01862615978504639</v>
+        <v>0.01861294106451764</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01053221648528866</v>
+        <v>0.01053223539728941</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008104350372174014</v>
+        <v>-0.008143822981752919</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005825747081029883</v>
+        <v>0.005126473933058957</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006088184115527364</v>
+        <v>0.003957759518310381</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.00395933199837328</v>
+        <v>-0.004370699886827994</v>
       </c>
       <c r="I20" t="n">
         <v>-0.006169556118782244</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000111291604833617</v>
+        <v>-0.01503013650796307</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01460357904814316</v>
+        <v>-0.01458489293539571</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01460357904814316</v>
+        <v>-0.01458489293539571</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01460357904814316</v>
+        <v>-0.01458489293539571</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01460357904814316</v>
+        <v>-0.01458489293539571</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01460357904814316</v>
+        <v>-0.01458489293539571</v>
       </c>
       <c r="P20" t="n">
-        <v>0.008955666502226659</v>
+        <v>0.005937031437481257</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02005838787433551</v>
+        <v>0.02006111590644464</v>
       </c>
       <c r="R20" t="n">
-        <v>0.00811443728457749</v>
+        <v>0.008449253905970155</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.02132305477292219</v>
+        <v>-0.01295309159012366</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01393907153356286</v>
+        <v>-0.01442598057703922</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.01856005427840217</v>
+        <v>-0.01549197681167907</v>
       </c>
       <c r="V20" t="n">
-        <v>0.003165488670619547</v>
+        <v>0.006097267539890702</v>
       </c>
       <c r="W20" t="n">
-        <v>0.003165488670619547</v>
+        <v>0.006097267539890702</v>
       </c>
       <c r="X20" t="n">
-        <v>0.003165488670619547</v>
+        <v>0.006097267539890702</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.003165488670619547</v>
+        <v>0.006097267539890702</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.003165488670619547</v>
+        <v>0.006097267539890702</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2112,76 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.004055385186215407</v>
+        <v>-0.004451216146048645</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01321321320052853</v>
+        <v>0.01321344878453795</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01007471339498853</v>
+        <v>-0.01007912286716491</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007271195618847825</v>
+        <v>0.007032226361289052</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005873782122951284</v>
+        <v>0.003692757747710309</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.007389528775581151</v>
+        <v>-0.007189810559592421</v>
       </c>
       <c r="I21" t="n">
         <v>-0.01017601365504055</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.008881473409740151</v>
+        <v>-0.009679436703257405</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01032741823709673</v>
+        <v>-0.008434704913388194</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01032741823709673</v>
+        <v>-0.008434704913388194</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01032741823709673</v>
+        <v>-0.008434704913388194</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01032741823709673</v>
+        <v>-0.008434704913388194</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.01032741823709673</v>
+        <v>-0.008434704913388194</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.003369290054771602</v>
+        <v>-0.001041006665640267</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01849341981173679</v>
+        <v>0.01849203165168126</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.001524480732979229</v>
+        <v>-0.003040224985608999</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.006064995314599812</v>
+        <v>-0.007055743674229746</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01690644826025793</v>
+        <v>-0.01751625881265035</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.01701251664850066</v>
+        <v>-0.01195689206227568</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0008682384347295372</v>
+        <v>-0.002011691408467656</v>
       </c>
       <c r="W21" t="n">
-        <v>0.0008682384347295372</v>
+        <v>-0.002011691408467656</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0008682384347295372</v>
+        <v>-0.002011691408467656</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0008682384347295372</v>
+        <v>-0.002011691408467656</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.0008682384347295372</v>
+        <v>-0.002011691408467656</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2192,76 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.000967840550713622</v>
+        <v>-0.0007918574716742988</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02655094119003764</v>
+        <v>-0.0265510050300402</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02713169810926792</v>
+        <v>0.02719571935982877</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02740099933603997</v>
+        <v>-0.02697415691896627</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02464871848994874</v>
+        <v>-0.02396328412653136</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02858860904754435</v>
+        <v>-0.02856266965450678</v>
       </c>
       <c r="I22" t="n">
         <v>-0.01713025143721005</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02791140294024805</v>
+        <v>0.03250663919683385</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02438719047948762</v>
+        <v>0.02522172686486907</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02438719047948762</v>
+        <v>0.02522172686486907</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02438719047948762</v>
+        <v>0.02522172686486907</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02438719047948762</v>
+        <v>0.02522172686486907</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02438719047948762</v>
+        <v>0.02522172686486907</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01072418193296728</v>
+        <v>0.01137854042314161</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.001544736445789458</v>
+        <v>0.001545360637814425</v>
       </c>
       <c r="R22" t="n">
-        <v>0.04114759815790392</v>
+        <v>0.03870977847639114</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02394391372575655</v>
+        <v>0.02921175476847019</v>
       </c>
       <c r="T22" t="n">
-        <v>0.007845435385817414</v>
+        <v>0.01027936380317455</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01142067136882685</v>
+        <v>0.008831510849260434</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.03539432435977297</v>
+        <v>-0.03575209131808365</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.03539432435977297</v>
+        <v>-0.03575209131808365</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.03539432435977297</v>
+        <v>-0.03575209131808365</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.03539432435977297</v>
+        <v>-0.03575209131808365</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.03539432435977297</v>
+        <v>-0.03575209131808365</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01573504939740197</v>
+        <v>-0.0161273901810956</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0169170199726808</v>
+        <v>-0.01691677450067098</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01291083661243346</v>
+        <v>0.01292461117298444</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01020044623201785</v>
+        <v>-0.01174906712596268</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009586041023441641</v>
+        <v>-0.004768338814733552</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01328207793928311</v>
+        <v>-0.01351635567665422</v>
       </c>
       <c r="I23" t="n">
         <v>-0.01255258629410345</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01042301891669256</v>
+        <v>0.03017308386857936</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01997427670297107</v>
+        <v>0.02804522329780893</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01997427670297107</v>
+        <v>0.02804522329780893</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01997427670297107</v>
+        <v>0.02804522329780893</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01997427670297107</v>
+        <v>0.02804522329780893</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01997427670297107</v>
+        <v>0.02804522329780893</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.009298939955957597</v>
+        <v>-0.002627316585092663</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01932033120481325</v>
+        <v>-0.019325125061005</v>
       </c>
       <c r="R23" t="n">
-        <v>0.009175153423006135</v>
+        <v>0.008705157756206309</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02152170854086834</v>
+        <v>0.03326103541044141</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01363593846543754</v>
+        <v>0.01553108414124336</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01218763392750536</v>
+        <v>0.009323940756957628</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.01254165544566622</v>
+        <v>-0.02070144543605782</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.01254165544566622</v>
+        <v>-0.02070144543605782</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.01254165544566622</v>
+        <v>-0.02070144543605782</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.01254165544566622</v>
+        <v>-0.02070144543605782</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.01254165544566622</v>
+        <v>-0.02070144543605782</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2356,76 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01723510667340427</v>
+        <v>0.01865444292217771</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002310135836405433</v>
+        <v>-0.002310112220404489</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00100196874407875</v>
+        <v>0.0009915728076629121</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.001759734790389392</v>
+        <v>-0.0003058128122325124</v>
       </c>
       <c r="G24" t="n">
-        <v>2.522832100913284e-05</v>
+        <v>0.001128370413134816</v>
       </c>
       <c r="H24" t="n">
-        <v>0.019828424953137</v>
+        <v>0.02017989949519598</v>
       </c>
       <c r="I24" t="n">
         <v>0.02253726483749059</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.001596343461332389</v>
+        <v>-0.0135599471353207</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005336796309471851</v>
+        <v>0.002469742466789699</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005336796309471851</v>
+        <v>0.002469742466789699</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005336796309471851</v>
+        <v>0.002469742466789699</v>
       </c>
       <c r="N24" t="n">
-        <v>0.005336796309471851</v>
+        <v>0.002469742466789699</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005336796309471851</v>
+        <v>0.002469742466789699</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02411092733243709</v>
+        <v>0.02040550123222004</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.009298375667935024</v>
+        <v>-0.009297317651892704</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01611334451653378</v>
+        <v>-0.01516711443068457</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0004362920814516832</v>
+        <v>-0.01621920266476811</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01771437142857486</v>
+        <v>0.01662389212095568</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01393495678139827</v>
+        <v>-0.003445797929831917</v>
       </c>
       <c r="V24" t="n">
-        <v>1.893628875745155e-05</v>
+        <v>0.01605381606615264</v>
       </c>
       <c r="W24" t="n">
-        <v>1.893628875745155e-05</v>
+        <v>0.01605381606615264</v>
       </c>
       <c r="X24" t="n">
-        <v>1.893628875745155e-05</v>
+        <v>0.01605381606615264</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.893628875745155e-05</v>
+        <v>0.01605381606615264</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.893628875745155e-05</v>
+        <v>0.01605381606615264</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2440,76 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.002086701779468071</v>
+        <v>-0.0004561435382457415</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.009323862036954478</v>
+        <v>-0.009323920596956822</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01067797233111889</v>
+        <v>0.01065084791403392</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01071330138853205</v>
+        <v>-0.009160152942406116</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01113871033354841</v>
+        <v>-0.01109119676364787</v>
       </c>
       <c r="H25" t="n">
-        <v>0.009279825683193027</v>
+        <v>0.009704451748178069</v>
       </c>
       <c r="I25" t="n">
         <v>0.0109187299727492</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005085963196893553</v>
+        <v>0.01413381187899147</v>
       </c>
       <c r="K25" t="n">
-        <v>0.003906883548275342</v>
+        <v>-0.003400929928037197</v>
       </c>
       <c r="L25" t="n">
-        <v>0.003906883548275342</v>
+        <v>-0.003400929928037197</v>
       </c>
       <c r="M25" t="n">
-        <v>0.003906883548275342</v>
+        <v>-0.003400929928037197</v>
       </c>
       <c r="N25" t="n">
-        <v>0.003906883548275342</v>
+        <v>-0.003400929928037197</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003906883548275342</v>
+        <v>-0.003400929928037197</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02817763850310554</v>
+        <v>-0.03002630952105238</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.009193148431725936</v>
+        <v>0.009189780079591202</v>
       </c>
       <c r="R25" t="n">
-        <v>0.005395108055804321</v>
+        <v>0.007469495818779832</v>
       </c>
       <c r="S25" t="n">
-        <v>0.005200381840015273</v>
+        <v>-0.003891225179649007</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.00273386151735446</v>
+        <v>-0.002869365138774605</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01167744853109794</v>
+        <v>-0.0002276202331048093</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.007235928865437154</v>
+        <v>0.004058837634353505</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.007235928865437154</v>
+        <v>0.004058837634353505</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.007235928865437154</v>
+        <v>0.004058837634353505</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.007235928865437154</v>
+        <v>0.004058837634353505</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.007235928865437154</v>
+        <v>0.004058837634353505</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2520,76 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.009026508361060333</v>
+        <v>-0.01003300792132032</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001107987788319511</v>
+        <v>0.00110819524432781</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0004224662568986502</v>
+        <v>0.000406899376275975</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.000843075777723031</v>
+        <v>-0.002266990650679626</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.001721942660877706</v>
+        <v>-0.0008408963856358553</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0058590225063609</v>
+        <v>-0.005963722318548892</v>
       </c>
       <c r="I26" t="n">
         <v>-0.01001658673666347</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01041827032448631</v>
+        <v>-0.01256204691815931</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.004683466843338673</v>
+        <v>-0.007565614670624585</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.004683466843338673</v>
+        <v>-0.007565614670624585</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.004683466843338673</v>
+        <v>-0.007565614670624585</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.004683466843338673</v>
+        <v>-0.007565614670624585</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.004683466843338673</v>
+        <v>-0.007565614670624585</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.0009653477186139087</v>
+        <v>0.002884740883389635</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01026008901840356</v>
+        <v>0.01026000329040013</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001446474777858991</v>
+        <v>0.001869023882760955</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.006747371981894878</v>
+        <v>-0.002212794712511788</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.005691166979646679</v>
+        <v>-0.006356075678243027</v>
       </c>
       <c r="U26" t="n">
-        <v>0.006115646740625869</v>
+        <v>0.002058058834322353</v>
       </c>
       <c r="V26" t="n">
-        <v>0.003681568851262754</v>
+        <v>0.00203338299333532</v>
       </c>
       <c r="W26" t="n">
-        <v>0.003681568851262754</v>
+        <v>0.00203338299333532</v>
       </c>
       <c r="X26" t="n">
-        <v>0.003681568851262754</v>
+        <v>0.00203338299333532</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.003681568851262754</v>
+        <v>0.00203338299333532</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.003681568851262754</v>
+        <v>0.00203338299333532</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2604,76 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02419155802366232</v>
+        <v>-0.02353870836554833</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04449360312374411</v>
+        <v>-0.04449331128373245</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00380299224811969</v>
+        <v>0.003759493206379728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01879320852772834</v>
+        <v>0.02241573977662959</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.006109206580368262</v>
+        <v>-0.0009483041659321665</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0296526425621057</v>
+        <v>0.02932618475704738</v>
       </c>
       <c r="I27" t="n">
         <v>0.01890344744413789</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.007098549524304202</v>
+        <v>-0.006552854622292148</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04642050857682033</v>
+        <v>0.04474144690965787</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04642050857682033</v>
+        <v>0.04474144690965787</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04642050857682033</v>
+        <v>0.04474144690965787</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04642050857682033</v>
+        <v>0.04474144690965787</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04642050857682033</v>
+        <v>0.04474144690965787</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.05707887962715518</v>
+        <v>-0.05283287078531482</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2407278695331148</v>
+        <v>-0.2407276897251076</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1577476035579041</v>
+        <v>0.1564331145773246</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0473986451279458</v>
+        <v>0.03992749398109976</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.06750890670035627</v>
+        <v>-0.06412326506093059</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02715701695828067</v>
+        <v>0.03008992862759714</v>
       </c>
       <c r="V27" t="n">
-        <v>0.03013492958939718</v>
+        <v>0.0273611674944467</v>
       </c>
       <c r="W27" t="n">
-        <v>0.03013492958939718</v>
+        <v>0.0273611674944467</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03013492958939718</v>
+        <v>0.0273611674944467</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.03013492958939718</v>
+        <v>0.0273611674944467</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03013492958939718</v>
+        <v>0.0273611674944467</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +2688,76 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.006712831564513261</v>
+        <v>-0.007434255273370211</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002940847797633912</v>
+        <v>-0.002940843381633735</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001509913884396555</v>
+        <v>0.00150312524412501</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0002419911456796458</v>
+        <v>-7.124841884993674e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00134245550969822</v>
+        <v>0.0003233631489345259</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.008027717409108695</v>
+        <v>-0.008150432870017314</v>
       </c>
       <c r="I28" t="n">
         <v>-0.008152086854083472</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0058733906070931</v>
+        <v>0.006211878352227558</v>
       </c>
       <c r="K28" t="n">
-        <v>0.002627091561083662</v>
+        <v>0.00723320054532802</v>
       </c>
       <c r="L28" t="n">
-        <v>0.002627091561083662</v>
+        <v>0.00723320054532802</v>
       </c>
       <c r="M28" t="n">
-        <v>0.002627091561083662</v>
+        <v>0.00723320054532802</v>
       </c>
       <c r="N28" t="n">
-        <v>0.002627091561083662</v>
+        <v>0.00723320054532802</v>
       </c>
       <c r="O28" t="n">
-        <v>0.002627091561083662</v>
+        <v>0.00723320054532802</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.005723061924922476</v>
+        <v>-0.002818725136749005</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.01036030457441218</v>
+        <v>-0.01035986134239445</v>
       </c>
       <c r="R28" t="n">
-        <v>0.00331744650069786</v>
+        <v>0.003105733852229353</v>
       </c>
       <c r="S28" t="n">
-        <v>0.002318532956741318</v>
+        <v>0.01253094299723772</v>
       </c>
       <c r="T28" t="n">
-        <v>0.009978050703122026</v>
+        <v>0.01070681428427257</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.004737415485496619</v>
+        <v>0.002433855937354237</v>
       </c>
       <c r="V28" t="n">
-        <v>0.004237267081490683</v>
+        <v>-0.004684415419376616</v>
       </c>
       <c r="W28" t="n">
-        <v>0.004237267081490683</v>
+        <v>-0.004684415419376616</v>
       </c>
       <c r="X28" t="n">
-        <v>0.004237267081490683</v>
+        <v>-0.004684415419376616</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.004237267081490683</v>
+        <v>-0.004684415419376616</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.004237267081490683</v>
+        <v>-0.004684415419376616</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +2772,76 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.009154466190178645</v>
+        <v>0.0086632925385317</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02418573111142924</v>
+        <v>0.0241859351114374</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02158253366330135</v>
+        <v>-0.02159446454377858</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0239032826841313</v>
+        <v>0.02317368630294745</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02443150811326032</v>
+        <v>0.02084079971363199</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02585160708206428</v>
+        <v>0.0255461126058445</v>
       </c>
       <c r="I29" t="n">
         <v>0.01661224492048979</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.08928327675775126</v>
+        <v>-0.0626589434805561</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.005966956846678272</v>
+        <v>-9.740736389629455e-06</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.005966956846678272</v>
+        <v>-9.740736389629455e-06</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.005966956846678272</v>
+        <v>-9.740736389629455e-06</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.005966956846678272</v>
+        <v>-9.740736389629455e-06</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.005966956846678272</v>
+        <v>-9.740736389629455e-06</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.0002412725856509034</v>
+        <v>-0.006335128669405146</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01275377887815115</v>
+        <v>0.01274875164595006</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.02070548972421958</v>
+        <v>-0.01958449595137984</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.004095309955812397</v>
+        <v>-0.02128676667547066</v>
       </c>
       <c r="T29" t="n">
-        <v>0.008770611806824471</v>
+        <v>0.007565498606619943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.00126711125068445</v>
+        <v>-0.007693500115740004</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03452101347684054</v>
+        <v>0.04052073118882924</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03452101347684054</v>
+        <v>0.04052073118882924</v>
       </c>
       <c r="X29" t="n">
-        <v>0.03452101347684054</v>
+        <v>0.04052073118882924</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03452101347684054</v>
+        <v>0.04052073118882924</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03452101347684054</v>
+        <v>0.04052073118882924</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +2856,76 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.004299686859987474</v>
+        <v>-0.004916827684673107</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.007107859868314394</v>
+        <v>-0.007107490940299637</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002351946046077841</v>
+        <v>0.002298648859945954</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0004951967238078689</v>
+        <v>-0.0008260400010416001</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0007478874539154981</v>
+        <v>-0.00273670599746824</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0185885150155406</v>
+        <v>-0.01829927410797096</v>
       </c>
       <c r="I30" t="n">
         <v>-0.01542497485699899</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03191024471392575</v>
+        <v>0.02653991192671828</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006432439457297576</v>
+        <v>0.009467340378693612</v>
       </c>
       <c r="L30" t="n">
-        <v>0.006432439457297576</v>
+        <v>0.009467340378693612</v>
       </c>
       <c r="M30" t="n">
-        <v>0.006432439457297576</v>
+        <v>0.009467340378693612</v>
       </c>
       <c r="N30" t="n">
-        <v>0.006432439457297576</v>
+        <v>0.009467340378693612</v>
       </c>
       <c r="O30" t="n">
-        <v>0.006432439457297576</v>
+        <v>0.009467340378693612</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01641514481660579</v>
+        <v>0.01910066111602644</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.0217911151756446</v>
+        <v>-0.02179502851980114</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.002012793104511724</v>
+        <v>-0.001872585962903438</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02721667289666691</v>
+        <v>0.02834146942165877</v>
       </c>
       <c r="T30" t="n">
-        <v>0.008786865567474622</v>
+        <v>0.008598345655933825</v>
       </c>
       <c r="U30" t="n">
-        <v>0.001779923879196955</v>
+        <v>0.006100193620007744</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.01452086102883444</v>
+        <v>-0.0171636025105441</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01452086102883444</v>
+        <v>-0.0171636025105441</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01452086102883444</v>
+        <v>-0.0171636025105441</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.01452086102883444</v>
+        <v>-0.0171636025105441</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01452086102883444</v>
+        <v>-0.0171636025105441</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +2940,76 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5276166684326666</v>
+        <v>0.4958221970488878</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9774717035788681</v>
+        <v>0.9774717478348697</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9999458528298341</v>
+        <v>-0.9999453659178145</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9942444658817785</v>
+        <v>0.9907261552130461</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9870102030004079</v>
+        <v>0.9665448318457932</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3794406167136246</v>
+        <v>0.3802267905050716</v>
       </c>
       <c r="I31" t="n">
         <v>-0.02025557121022284</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.3980589055764943</v>
+        <v>-0.602759987758644</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8801324451572978</v>
+        <v>-0.8138586903463475</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8801324451572978</v>
+        <v>-0.8138586903463475</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8801324451572978</v>
+        <v>-0.8138586903463475</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8801324451572978</v>
+        <v>-0.8138586903463475</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8801324451572978</v>
+        <v>-0.8138586903463475</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1084213400808536</v>
+        <v>-0.1142129275765171</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.005522112700884507</v>
+        <v>-0.005518754332750172</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6137633813505351</v>
+        <v>-0.6157448440857937</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.4629501678620067</v>
+        <v>-0.5180020783520831</v>
       </c>
       <c r="T31" t="n">
-        <v>0.09235849790233991</v>
+        <v>0.01700119373604775</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.7148922571076901</v>
+        <v>-0.6799661569266462</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8040588041303521</v>
+        <v>0.6847325087333002</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8040588041303521</v>
+        <v>0.6847325087333002</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8040588041303521</v>
+        <v>0.6847325087333002</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8040588041303521</v>
+        <v>0.6847325087333002</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8040588041303521</v>
+        <v>0.6847325087333002</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3024,76 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.00494505600580224</v>
+        <v>0.003084795483391819</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02859078066363122</v>
+        <v>0.02859071048762842</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.02691973854878954</v>
+        <v>-0.02691969986078799</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02571807894872316</v>
+        <v>0.02315304831812193</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02768677915547116</v>
+        <v>0.0284663926906557</v>
       </c>
       <c r="H32" t="n">
-        <v>0.00200819201632768</v>
+        <v>0.001458710074348403</v>
       </c>
       <c r="I32" t="n">
         <v>-0.01117334454293378</v>
       </c>
       <c r="J32" t="n">
-        <v>0.001318053897245717</v>
+        <v>-0.01316771391914186</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02840633182425327</v>
+        <v>-0.0258486727459469</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.02840633182425327</v>
+        <v>-0.0258486727459469</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.02840633182425327</v>
+        <v>-0.0258486727459469</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.02840633182425327</v>
+        <v>-0.0258486727459469</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.02840633182425327</v>
+        <v>-0.0258486727459469</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.00963201177728047</v>
+        <v>-0.00615198927007957</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.006737123981484958</v>
+        <v>0.006740287373611494</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.03371731680469266</v>
+        <v>-0.03300159837606393</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.00337222151088886</v>
+        <v>0.007372125702885026</v>
       </c>
       <c r="T32" t="n">
-        <v>0.005300903828036153</v>
+        <v>0.002026836849073474</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.03598571183942846</v>
+        <v>-0.02278211438328457</v>
       </c>
       <c r="V32" t="n">
-        <v>0.01040390892815636</v>
+        <v>-0.0007623730864949234</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01040390892815636</v>
+        <v>-0.0007623730864949234</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01040390892815636</v>
+        <v>-0.0007623730864949234</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.01040390892815636</v>
+        <v>-0.0007623730864949234</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01040390892815636</v>
+        <v>-0.0007623730864949234</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3108,76 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.0311422701096908</v>
+        <v>-0.03132027830881113</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01966057317042293</v>
+        <v>0.01966062923442517</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02418957485558299</v>
+        <v>-0.0241551300542052</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02305959865038395</v>
+        <v>0.0250069375122775</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02341184666447386</v>
+        <v>0.02865564220222568</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01440646454425858</v>
+        <v>0.01468966205958648</v>
       </c>
       <c r="I33" t="n">
         <v>-0.001813062024522481</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.06457980165282994</v>
+        <v>-0.04096683778580013</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01195693084627723</v>
+        <v>0.01542767965710718</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01195693084627723</v>
+        <v>0.01542767965710718</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01195693084627723</v>
+        <v>0.01542767965710718</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01195693084627723</v>
+        <v>0.01542767965710718</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01195693084627723</v>
+        <v>0.01542767965710718</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01422562204102488</v>
+        <v>-0.01870945236437809</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.0156788451391538</v>
+        <v>-0.01567908945916358</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.004829579617183184</v>
+        <v>-0.006512925572517022</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.003853684282147371</v>
+        <v>-0.01475652827026113</v>
       </c>
       <c r="T33" t="n">
-        <v>0.001809530568381222</v>
+        <v>0.0009635672065426883</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.007249062721962507</v>
+        <v>-0.008418406896736275</v>
       </c>
       <c r="V33" t="n">
-        <v>0.0353372275894891</v>
+        <v>0.04138113467924538</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0353372275894891</v>
+        <v>0.04138113467924538</v>
       </c>
       <c r="X33" t="n">
-        <v>0.0353372275894891</v>
+        <v>0.04138113467924538</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0353372275894891</v>
+        <v>0.04138113467924538</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0353372275894891</v>
+        <v>0.04138113467924538</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3192,76 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.00236332550253302</v>
+        <v>-0.002589239911569596</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.008784592383383694</v>
+        <v>-0.008785042239401688</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005054093386163735</v>
+        <v>0.005028030057121201</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.004941671717666868</v>
+        <v>-0.005172525038901</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.000295192427807697</v>
+        <v>0.001630869857234794</v>
       </c>
       <c r="H34" t="n">
-        <v>0.007040575961623038</v>
+        <v>0.006808984400359375</v>
       </c>
       <c r="I34" t="n">
         <v>0.01138237082329483</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01005368722065174</v>
+        <v>0.01848845010661159</v>
       </c>
       <c r="K34" t="n">
-        <v>0.008105500164220006</v>
+        <v>0.007647303473892138</v>
       </c>
       <c r="L34" t="n">
-        <v>0.008105500164220006</v>
+        <v>0.007647303473892138</v>
       </c>
       <c r="M34" t="n">
-        <v>0.008105500164220006</v>
+        <v>0.007647303473892138</v>
       </c>
       <c r="N34" t="n">
-        <v>0.008105500164220006</v>
+        <v>0.007647303473892138</v>
       </c>
       <c r="O34" t="n">
-        <v>0.008105500164220006</v>
+        <v>0.007647303473892138</v>
       </c>
       <c r="P34" t="n">
-        <v>0.005042312841692513</v>
+        <v>0.003281070371242814</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01936514679060587</v>
+        <v>-0.01936101984644079</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.009974446382977854</v>
+        <v>-0.007367294406691774</v>
       </c>
       <c r="S34" t="n">
-        <v>0.007681225555249021</v>
+        <v>0.009716299108651962</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03205571600222864</v>
+        <v>0.03178659458346378</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0106543651621746</v>
+        <v>0.01071354945254198</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.0055467775018711</v>
+        <v>-0.005671573474862938</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.0055467775018711</v>
+        <v>-0.005671573474862938</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.0055467775018711</v>
+        <v>-0.005671573474862938</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.0055467775018711</v>
+        <v>-0.005671573474862938</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.0055467775018711</v>
+        <v>-0.005671573474862938</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3276,76 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02250712141228485</v>
+        <v>0.02257106547884262</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01495070296602812</v>
+        <v>0.01495069701402788</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.01160828052833122</v>
+        <v>-0.01163282936131317</v>
       </c>
       <c r="F35" t="n">
-        <v>0.009454561338182451</v>
+        <v>0.009589912223596488</v>
       </c>
       <c r="G35" t="n">
-        <v>0.009128354669134186</v>
+        <v>0.007379199943167997</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01768479536339181</v>
+        <v>0.01786421313056853</v>
       </c>
       <c r="I35" t="n">
         <v>0.02218259157530366</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.02059194022234915</v>
+        <v>-0.02249997361607891</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.003726127061045082</v>
+        <v>-0.005052329866093194</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.003726127061045082</v>
+        <v>-0.005052329866093194</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.003726127061045082</v>
+        <v>-0.005052329866093194</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.003726127061045082</v>
+        <v>-0.005052329866093194</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.003726127061045082</v>
+        <v>-0.005052329866093194</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.009266343250653728</v>
+        <v>-0.00724056576162263</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01692822432512897</v>
+        <v>0.01693169290126771</v>
       </c>
       <c r="R35" t="n">
-        <v>0.00206519326660773</v>
+        <v>0.003831218841248753</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.02561815993672639</v>
+        <v>-0.02034762206190488</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.004225881673035266</v>
+        <v>-0.005630833953233358</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.01771246064449842</v>
+        <v>-0.01705421665016867</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01338401592736064</v>
+        <v>0.01102507580100303</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01338401592736064</v>
+        <v>0.01102507580100303</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01338401592736064</v>
+        <v>0.01102507580100303</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01338401592736064</v>
+        <v>0.01102507580100303</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01338401592736064</v>
+        <v>0.01102507580100303</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3360,76 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04406459561858382</v>
+        <v>0.04303743868149754</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03050474627618985</v>
+        <v>0.03050462166818486</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03077977591919103</v>
+        <v>-0.03080282868811314</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03010363109214524</v>
+        <v>0.02948024114720964</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02947128444285137</v>
+        <v>0.02724587888183515</v>
       </c>
       <c r="H36" t="n">
-        <v>0.008238736457549457</v>
+        <v>0.00808519405140776</v>
       </c>
       <c r="I36" t="n">
         <v>-0.002515635364625415</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01615927462182961</v>
+        <v>-0.02850748360787669</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2062423938176957</v>
+        <v>0.258002225904089</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2062423938176957</v>
+        <v>0.258002225904089</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2062423938176957</v>
+        <v>0.258002225904089</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2062423938176957</v>
+        <v>0.258002225904089</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2062423938176957</v>
+        <v>0.258002225904089</v>
       </c>
       <c r="P36" t="n">
-        <v>0.004159140934365636</v>
+        <v>0.0005132329165293166</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.0008840598113623923</v>
+        <v>-0.0008823175072927002</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01239189860767594</v>
+        <v>-0.01157403291096131</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.01748833740353349</v>
+        <v>-0.02980528602421144</v>
       </c>
       <c r="T36" t="n">
-        <v>0.005174428334977133</v>
+        <v>0.002740184173607366</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.02866637941865517</v>
+        <v>-0.03022956735318269</v>
       </c>
       <c r="V36" t="n">
-        <v>0.204944451781778</v>
+        <v>0.1996080815203232</v>
       </c>
       <c r="W36" t="n">
-        <v>0.204944451781778</v>
+        <v>0.1996080815203232</v>
       </c>
       <c r="X36" t="n">
-        <v>0.204944451781778</v>
+        <v>0.1996080815203232</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.204944451781778</v>
+        <v>0.1996080815203232</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.204944451781778</v>
+        <v>0.1996080815203232</v>
       </c>
     </row>
     <row r="37">
@@ -3444,76 +3444,76 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01392406529296261</v>
+        <v>0.01288637542745501</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01629612737184509</v>
+        <v>0.01629591847583674</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02006672595466904</v>
+        <v>-0.02004365340974613</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02144470914578836</v>
+        <v>0.02119561611182464</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02259485379979415</v>
+        <v>0.02364122273764891</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.001630371041214842</v>
+        <v>-0.001554034622161385</v>
       </c>
       <c r="I37" t="n">
         <v>-0.01464582970583318</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.004761680654809313</v>
+        <v>-0.002979562010900974</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01010436136417445</v>
+        <v>-0.00383188325727533</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01010436136417445</v>
+        <v>-0.00383188325727533</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.01010436136417445</v>
+        <v>-0.00383188325727533</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.01010436136417445</v>
+        <v>-0.00383188325727533</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.01010436136417445</v>
+        <v>-0.00383188325727533</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.02889564057982562</v>
+        <v>-0.02607981320319252</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01445227737809109</v>
+        <v>-0.01444895635395825</v>
       </c>
       <c r="R37" t="n">
-        <v>0.00242512800100512</v>
+        <v>0.001208441328337653</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.01777136595885464</v>
+        <v>-0.01439657107186284</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01785076900203076</v>
+        <v>0.01755272988610919</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.0151745274549811</v>
+        <v>-0.01727036353881454</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02811852083674083</v>
+        <v>0.02226660185066407</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02811852083674083</v>
+        <v>0.02226660185066407</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02811852083674083</v>
+        <v>0.02226660185066407</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02811852083674083</v>
+        <v>0.02226660185066407</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.02811852083674083</v>
+        <v>0.02226660185066407</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,57 +505,54 @@
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ethanol</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Biodiesel</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Crude glycerol</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Biorefinery</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
+          <t>Displacement allocation</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Energy allocation</t>
+        </is>
+      </c>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Biorefinery</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Ethanol</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Biodiesel</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Electricity</t>
         </is>
@@ -574,34 +571,34 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Feedstock consumption [ton/yr]</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>Biodiesel production [Gal/ton]</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production [Gal/ton]</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Electricity production [kWhr/ton]</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption [cf/ton]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>TCI [10^6*USD]</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Feedstock consumption [ton/yr]</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Heat exchanger network error [%]</t>
@@ -634,55 +631,80 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>Ethanol GWP [kg*CO2*eq / ga;]</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Biofuel GWP [kg*CO2*eq / GGE]</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
           <t>MFPP derivative [USD/ton]</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Electricity production derivative [kWhr/ton]</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption derivative [cf/ton]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>TCI derivative [10^6*USD]</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>GWP derivative [kg*CO2*eq / USD]</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
@@ -712,76 +734,91 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.129873024970921</v>
+        <v>-0.2487488748874887</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1402827117553085</v>
+        <v>0.06405040504050405</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0009656321666252865</v>
+        <v>-0.06820282028202819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04263335181733406</v>
+        <v>-0.04454845484548454</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1816877531235101</v>
+        <v>0.0586138613861386</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0276797652991906</v>
+        <v>0.1719651965196519</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.006983176887327074</v>
+        <v>0.124992499249925</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3235089260640962</v>
+        <v>0.2017281728172817</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3822992746839709</v>
+        <v>0.3853825382538253</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3822992746839709</v>
+        <v>0.3853825382538253</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3822992746839709</v>
+        <v>0.3853825382538253</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3822992746839709</v>
+        <v>0.3853825382538253</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3822992746839709</v>
+        <v>0.3853825382538253</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.09162847345713891</v>
+        <v>-0.03221122112211221</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6985455240058208</v>
+        <v>0.1383018301830183</v>
       </c>
       <c r="R4" t="n">
-        <v>0.009606585792263431</v>
+        <v>0.1383018301830183</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2626927297397091</v>
+        <v>0.1383018301830183</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9977765824070631</v>
+        <v>0.1383018301830183</v>
       </c>
       <c r="U4" t="n">
-        <v>0.150950174102007</v>
+        <v>0.0007320732073207321</v>
       </c>
       <c r="V4" t="n">
-        <v>0.06896231594249264</v>
+        <v>-0.6195019501950195</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06896231594249264</v>
+        <v>-0.06883888388838882</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06896231594249264</v>
+        <v>0.07264326432643263</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.06896231594249264</v>
+        <v>0.9977917791779177</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.06896231594249264</v>
+        <v>0.147986798679868</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1648124812481248</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1648124812481248</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1648124812481248</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1648124812481248</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1648124812481248</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +829,91 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08736832746273308</v>
+        <v>0.04279627962796279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1241310184052407</v>
+        <v>-0.1119111911191119</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007372658214906328</v>
+        <v>0.198043804380438</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09278525852741033</v>
+        <v>-0.09530153015301529</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.005800146376005854</v>
+        <v>0.03696369636963696</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.03202123145684926</v>
+        <v>0.1181638163816382</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0005059528522381141</v>
+        <v>-0.08040804080408039</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0208894781736492</v>
+        <v>0.03989198919891989</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1582003296880132</v>
+        <v>-0.216009600960096</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1582003296880132</v>
+        <v>-0.216009600960096</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1582003296880132</v>
+        <v>-0.216009600960096</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1582003296880132</v>
+        <v>-0.216009600960096</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1582003296880132</v>
+        <v>-0.216009600960096</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09987431084297242</v>
+        <v>-0.0762076207620762</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6494539212101568</v>
+        <v>-0.1946234623462346</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005456581178263246</v>
+        <v>-0.1946234623462346</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1951535188141407</v>
+        <v>-0.1946234623462346</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.0001890579915623196</v>
+        <v>-0.1946234623462346</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1006373318334933</v>
+        <v>0.1981638163816382</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1005068642762746</v>
+        <v>0.6057245724572456</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1005068642762746</v>
+        <v>0.09149714971497147</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1005068642762746</v>
+        <v>-0.1962316231623162</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.1005068642762746</v>
+        <v>0.1422022202220222</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1005068642762746</v>
+        <v>-0.1409420942094209</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.08313231323132311</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.08313231323132311</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.08313231323132311</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.08313231323132311</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.08313231323132311</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +924,91 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2159673072946923</v>
+        <v>0.2195739573957396</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02040081998403279</v>
+        <v>0.9561716171617161</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01999140675165627</v>
+        <v>-0.05508550855085508</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00684118827364753</v>
+        <v>0.03282328232823282</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02552497177299887</v>
+        <v>-0.01446144614461446</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9096522192020886</v>
+        <v>-0.02694269426942694</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9579628848145153</v>
+        <v>0.9098349834983497</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1891728703950026</v>
+        <v>-0.2163336333633363</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.04425296385011854</v>
+        <v>0.036999699969997</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.04425296385011854</v>
+        <v>0.036999699969997</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.04425296385011854</v>
+        <v>0.036999699969997</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.04425296385011854</v>
+        <v>0.036999699969997</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.04425296385011854</v>
+        <v>0.036999699969997</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0004339037933561517</v>
+        <v>0.02251425142514251</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0006893624915744996</v>
+        <v>0.03114311431143114</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1277832827753313</v>
+        <v>0.03114311431143114</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.02182319549692781</v>
+        <v>0.03114311431143114</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01557689073507563</v>
+        <v>0.03114311431143114</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4414196857847874</v>
+        <v>-0.06549054905490548</v>
       </c>
       <c r="V6" t="n">
-        <v>0.046233025369321</v>
+        <v>-0.1813381338133813</v>
       </c>
       <c r="W6" t="n">
-        <v>0.046233025369321</v>
+        <v>-0.07063906390639063</v>
       </c>
       <c r="X6" t="n">
-        <v>0.046233025369321</v>
+        <v>-0.03302730273027302</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.046233025369321</v>
+        <v>0.08824482448244825</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.046233025369321</v>
+        <v>0.5403420342034202</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.07649564956495648</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.07649564956495648</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.07649564956495648</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.07649564956495648</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.07649564956495648</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +1023,91 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.47378725040749</v>
+        <v>0.4729792979297929</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02747880301915212</v>
+        <v>0.004668466846684667</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02387506741900269</v>
+        <v>0.04373237323732372</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02380795199231808</v>
+        <v>-0.02802280228022802</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01394399614175984</v>
+        <v>0.01107710771077107</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0146503574500143</v>
+        <v>-0.003588358835883588</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001493300027732001</v>
+        <v>0.00336033603360336</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01470615180659935</v>
+        <v>-0.09556555655565556</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02965991734639669</v>
+        <v>-0.08135613561356134</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02965991734639669</v>
+        <v>-0.08135613561356134</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02965991734639669</v>
+        <v>-0.08135613561356134</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02965991734639669</v>
+        <v>-0.08135613561356134</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02965991734639669</v>
+        <v>-0.08135613561356134</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5677672651746906</v>
+        <v>-0.02273027302730272</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02024082704963308</v>
+        <v>-0.05645364536453645</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0167370099814804</v>
+        <v>-0.05645364536453645</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.02677119294284772</v>
+        <v>-0.05645364536453645</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.02148180613927225</v>
+        <v>-0.05645364536453645</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.01604284854571394</v>
+        <v>-0.4591779177917791</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02546170325846813</v>
+        <v>0.1413501350135013</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02546170325846813</v>
+        <v>-0.04228022802280228</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02546170325846813</v>
+        <v>0.2113291329132913</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02546170325846813</v>
+        <v>-0.207056705670567</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02546170325846813</v>
+        <v>0.07905190519051904</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.1930993099309931</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.1930993099309931</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.1930993099309931</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.1930993099309931</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.1930993099309931</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1122,91 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5184359210894368</v>
+        <v>0.6028562856285629</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01340589308023572</v>
+        <v>0.001404140414041404</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01179671701586868</v>
+        <v>0.06487848784878487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01042631139305245</v>
+        <v>-0.08208820882088208</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007743391317735652</v>
+        <v>0.08086408640864086</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.008286436267457448</v>
+        <v>0.07859585958595859</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.009443602841744113</v>
+        <v>0.03915991599159916</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.001019618922057241</v>
+        <v>-0.04219621962196219</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.007252976738119069</v>
+        <v>-0.08058805880588057</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.007252976738119069</v>
+        <v>-0.08058805880588057</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.007252976738119069</v>
+        <v>-0.08058805880588057</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.007252976738119069</v>
+        <v>-0.08058805880588057</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.007252976738119069</v>
+        <v>-0.08058805880588057</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6882091110483644</v>
+        <v>-0.08006000600060005</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003535149741405989</v>
+        <v>-0.06743474347434743</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.006396366879854674</v>
+        <v>-0.06743474347434743</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01098129125525165</v>
+        <v>-0.06743474347434743</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01386756957870278</v>
+        <v>-0.06743474347434743</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.002650750858030034</v>
+        <v>0.7067386738673865</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.006741779501671179</v>
+        <v>-0.01155715571557156</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.006741779501671179</v>
+        <v>-0.01634563456345635</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.006741779501671179</v>
+        <v>-0.04396039603960395</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.006741779501671179</v>
+        <v>-0.08747674767476746</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.006741779501671179</v>
+        <v>0.004800480048004799</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.04656465646564656</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.04656465646564656</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.04656465646564656</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.04656465646564656</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.04656465646564656</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1221,91 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01806823838672953</v>
+        <v>0.1548274827482748</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01148542951541718</v>
+        <v>0.04094809480948094</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01225149226605969</v>
+        <v>-0.008100810081008099</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.010661524938461</v>
+        <v>-0.01344134413441344</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.00787159327486373</v>
+        <v>0.03006300630063006</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02159639587185583</v>
+        <v>0.002604260426042604</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02935640968625638</v>
+        <v>0.02207020702070207</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.009567544186642064</v>
+        <v>-0.0945094509450945</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006385796799431871</v>
+        <v>0.01548154815481548</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006385796799431871</v>
+        <v>0.01548154815481548</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006385796799431871</v>
+        <v>0.01548154815481548</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006385796799431871</v>
+        <v>0.01548154815481548</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006385796799431871</v>
+        <v>0.01548154815481548</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0006146013365840534</v>
+        <v>-0.02138613861386138</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01008166830726673</v>
+        <v>0.01897389738973897</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01901673848866954</v>
+        <v>0.01897389738973897</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01245607662624306</v>
+        <v>0.01897389738973897</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01143843088953723</v>
+        <v>0.01897389738973897</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01107826201113048</v>
+        <v>0.09255325532553255</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002018465840738633</v>
+        <v>-0.01393339333933393</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002018465840738633</v>
+        <v>0.1692649264926492</v>
       </c>
       <c r="X9" t="n">
-        <v>0.002018465840738633</v>
+        <v>-0.02736273627362736</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002018465840738633</v>
+        <v>-0.1462106210621062</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.002018465840738633</v>
+        <v>0.05800180018001799</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.05052505250525052</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.05052505250525052</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.05052505250525052</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.05052505250525052</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.05052505250525052</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1320,91 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06743917181756687</v>
+        <v>-0.01411341134113411</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007941940637677624</v>
+        <v>-0.0417041704170417</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.008930000997200038</v>
+        <v>-0.09930993099309929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007309053700362146</v>
+        <v>0.1017581758175817</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01150300337212013</v>
+        <v>-0.1115631563156316</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003407259880290395</v>
+        <v>-0.07900390039003898</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0009429528377181134</v>
+        <v>-0.1147794779477948</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.007979007449118098</v>
+        <v>0.1033663366336634</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.006120358036814321</v>
+        <v>0.1973837383738374</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.006120358036814321</v>
+        <v>0.1973837383738374</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.006120358036814321</v>
+        <v>0.1973837383738374</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.006120358036814321</v>
+        <v>0.1973837383738374</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.006120358036814321</v>
+        <v>0.1973837383738374</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06478150492726019</v>
+        <v>0.1052265226522652</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.005573525406941016</v>
+        <v>0.127008700870087</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02044961140998446</v>
+        <v>0.127008700870087</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02029371153174846</v>
+        <v>0.127008700870087</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005354017654160705</v>
+        <v>0.127008700870087</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002358896350355854</v>
+        <v>0.2258025802580258</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01049626390785056</v>
+        <v>0.005928592859285928</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01049626390785056</v>
+        <v>0.04853285328532853</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01049626390785056</v>
+        <v>0.1711491149114911</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01049626390785056</v>
+        <v>0.1442784278427842</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01049626390785056</v>
+        <v>0.03738373837383738</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.1382298229822982</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.1382298229822982</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.1382298229822982</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.1382298229822982</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.1382298229822982</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1415,91 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1557230829009233</v>
+        <v>0.2356555655565556</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00236704924668197</v>
+        <v>0.2451005100510051</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.001167358702694348</v>
+        <v>0.1386738673867387</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003477295627091825</v>
+        <v>-0.1289408940894089</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.001271799026871961</v>
+        <v>0.1324332433243324</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.004097720227908808</v>
+        <v>0.1009420942094209</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2739322870212915</v>
+        <v>0.03397539753975398</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.009015816899884415</v>
+        <v>-0.1468226822682268</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003520711724828469</v>
+        <v>-0.1633483348334833</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003520711724828469</v>
+        <v>-0.1633483348334833</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003520711724828469</v>
+        <v>-0.1633483348334833</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003520711724828469</v>
+        <v>-0.1633483348334833</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003520711724828469</v>
+        <v>-0.1633483348334833</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03541231898449276</v>
+        <v>-0.1324092409240924</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01363805593752224</v>
+        <v>-0.1405820582058206</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.001069825578793023</v>
+        <v>-0.1405820582058206</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.004732829085313163</v>
+        <v>-0.1405820582058206</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0004692038587681543</v>
+        <v>-0.1405820582058206</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002215610680624427</v>
+        <v>-0.04644464446444644</v>
       </c>
       <c r="V11" t="n">
-        <v>0.009772735302909412</v>
+        <v>-0.00774077407740774</v>
       </c>
       <c r="W11" t="n">
-        <v>0.009772735302909412</v>
+        <v>0.008628862886288629</v>
       </c>
       <c r="X11" t="n">
-        <v>0.009772735302909412</v>
+        <v>-0.06679867986798679</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.009772735302909412</v>
+        <v>-0.15001500150015</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.009772735302909412</v>
+        <v>-0.09983798379837981</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.08189618961896189</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.08189618961896189</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.08189618961896189</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.08189618961896189</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.08189618961896189</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1510,91 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2774528232581129</v>
+        <v>-0.3416621662166217</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002925181653007265</v>
+        <v>-0.1068946894689469</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.002388953183558127</v>
+        <v>0.1301650165016502</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001082668939306757</v>
+        <v>-0.1417101710171017</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006132476501299059</v>
+        <v>0.1535553555355536</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006183981463359258</v>
+        <v>0.1401620162016201</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00596510827060433</v>
+        <v>-0.03829582958295828</v>
       </c>
       <c r="J12" t="n">
-        <v>6.678600275478904e-05</v>
+        <v>-0.1523912391239124</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.003948841789953671</v>
+        <v>-0.05515751575157515</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.003948841789953671</v>
+        <v>-0.05515751575157515</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.003948841789953671</v>
+        <v>-0.05515751575157515</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.003948841789953671</v>
+        <v>-0.05515751575157515</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.003948841789953671</v>
+        <v>-0.05515751575157515</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04489234864369394</v>
+        <v>-0.1463306330633063</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002070126322805052</v>
+        <v>-0.1193039303930393</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002176040823041633</v>
+        <v>-0.1193039303930393</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.01658894293555772</v>
+        <v>-0.1193039303930393</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01241769371270775</v>
+        <v>-0.1193039303930393</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.007579064559162582</v>
+        <v>-0.2215061506150615</v>
       </c>
       <c r="V12" t="n">
-        <v>0.008318281292731249</v>
+        <v>-0.04861686168616861</v>
       </c>
       <c r="W12" t="n">
-        <v>0.008318281292731249</v>
+        <v>-0.05618961896189618</v>
       </c>
       <c r="X12" t="n">
-        <v>0.008318281292731249</v>
+        <v>-0.1245844584458446</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.008318281292731249</v>
+        <v>0.0964056405640564</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.008318281292731249</v>
+        <v>-0.1086108610861086</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.1536393639363936</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.1536393639363936</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.1536393639363936</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.1536393639363936</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1536393639363936</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1609,91 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03277435187097407</v>
+        <v>0.01315331533153315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001134517965380719</v>
+        <v>-0.01854185418541854</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004096365283854611</v>
+        <v>0.0554095409540954</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004648533305941332</v>
+        <v>-0.07509150915091509</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003832817337312693</v>
+        <v>0.07624362436243623</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0112707201308288</v>
+        <v>0.09400540054005399</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008566614198664566</v>
+        <v>0.02965496549654965</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01068382772068652</v>
+        <v>0.0107050705070507</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.002374741054989642</v>
+        <v>0.09478547854785478</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.002374741054989642</v>
+        <v>0.09478547854785478</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.002374741054989642</v>
+        <v>0.09478547854785478</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.002374741054989642</v>
+        <v>0.09478547854785478</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.002374741054989642</v>
+        <v>0.09478547854785478</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03535394781415791</v>
+        <v>-0.06887488748874887</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01221826724073069</v>
+        <v>-0.01014101410141014</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.001703949476157979</v>
+        <v>-0.01014101410141014</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003129492029179681</v>
+        <v>-0.01014101410141014</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0005012895560515822</v>
+        <v>-0.01014101410141014</v>
       </c>
       <c r="U13" t="n">
-        <v>0.005826482441059297</v>
+        <v>-0.04429642964296429</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.009232389105295565</v>
+        <v>-0.07591959195919591</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009232389105295565</v>
+        <v>-0.2128052805280528</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.009232389105295565</v>
+        <v>-0.08566456645664565</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.009232389105295565</v>
+        <v>0.1816141614161416</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.009232389105295565</v>
+        <v>-0.02504650465046504</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.204020402040204</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.204020402040204</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.204020402040204</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.204020402040204</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.204020402040204</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1708,91 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02921696123267844</v>
+        <v>0.009936993699369937</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007946896445875857</v>
+        <v>0.01683768376837684</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.009192666223706647</v>
+        <v>0.03223522352235223</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009396196215847849</v>
+        <v>-0.02239423942394239</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008394491759779668</v>
+        <v>0.02271827182718272</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0009184604527384181</v>
+        <v>0.03449144914491448</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.007119685916787436</v>
+        <v>0.04537653765376538</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.006029065592686898</v>
+        <v>0.03847584758475848</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.009189292111571682</v>
+        <v>0.01376537653765376</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.009189292111571682</v>
+        <v>0.01376537653765376</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.009189292111571682</v>
+        <v>0.01376537653765376</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.009189292111571682</v>
+        <v>0.01376537653765376</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.009189292111571682</v>
+        <v>0.01376537653765376</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.04035384948615397</v>
+        <v>-0.02041404140414041</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01023087679323507</v>
+        <v>-0.02834683468346835</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.0198454025538161</v>
+        <v>-0.02834683468346835</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.01013088107723524</v>
+        <v>-0.02834683468346835</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0116139600805584</v>
+        <v>-0.02834683468346835</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.01001966852878674</v>
+        <v>0.05593759375937593</v>
       </c>
       <c r="V14" t="n">
-        <v>0.01586429909857196</v>
+        <v>-0.04007200720072007</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01586429909857196</v>
+        <v>-0.0434083408340834</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01586429909857196</v>
+        <v>0.03795979597959796</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01586429909857196</v>
+        <v>0.04228022802280228</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01586429909857196</v>
+        <v>0.04477647764776477</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.007728772877287727</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-0.007728772877287727</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.007728772877287727</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.007728772877287727</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.007728772877287727</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1807,91 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.002312807996512319</v>
+        <v>-0.1621122112211221</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01583054712922188</v>
+        <v>-0.04474047404740474</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01742181948087277</v>
+        <v>0.04475247524752475</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01682586844903474</v>
+        <v>-0.0422082208220822</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01672840838113633</v>
+        <v>0.04584458445844584</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.0006996257559850302</v>
+        <v>0.04718871887188719</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01063130442525218</v>
+        <v>-0.008544854485448544</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.004294619745144475</v>
+        <v>0.006636663666366636</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01168307595532304</v>
+        <v>-0.0604980498049805</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01168307595532304</v>
+        <v>-0.0604980498049805</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01168307595532304</v>
+        <v>-0.0604980498049805</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01168307595532304</v>
+        <v>-0.0604980498049805</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.01168307595532304</v>
+        <v>-0.0604980498049805</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.02371794958871798</v>
+        <v>-0.04567656765676567</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.001889486859579474</v>
+        <v>-0.05768976897689768</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.003238254081530163</v>
+        <v>-0.05768976897689768</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01902222690488907</v>
+        <v>-0.05768976897689768</v>
       </c>
       <c r="T15" t="n">
-        <v>0.008036832225473288</v>
+        <v>-0.05768976897689768</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.023100550044022</v>
+        <v>-0.04487248724872486</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01772936576517463</v>
+        <v>-0.003048304830483048</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01772936576517463</v>
+        <v>0.07687968796879688</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01772936576517463</v>
+        <v>-0.07985598559855984</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01772936576517463</v>
+        <v>0.007224722472247224</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01772936576517463</v>
+        <v>-0.1731773177317732</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.0627182718271827</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.0627182718271827</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.0627182718271827</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.0627182718271827</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.0627182718271827</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1906,91 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.004037659841506393</v>
+        <v>0.01584158415841584</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002467383650695346</v>
+        <v>0.03991599159915991</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007962954366518173</v>
+        <v>0.05144914491449144</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01286891273875651</v>
+        <v>-0.04084008400840083</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005713630884545235</v>
+        <v>0.04129612961296129</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01350764914830596</v>
+        <v>0.04646864686468646</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01187364479494579</v>
+        <v>0.07056705670567055</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.008364721593028037</v>
+        <v>0.01707770777077708</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.009962142926485715</v>
+        <v>-0.01904590459045905</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.009962142926485715</v>
+        <v>-0.01904590459045905</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.009962142926485715</v>
+        <v>-0.01904590459045905</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.009962142926485715</v>
+        <v>-0.01904590459045905</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.009962142926485715</v>
+        <v>-0.01904590459045905</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.03555015310200612</v>
+        <v>-0.04008400840084007</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.02933268050130721</v>
+        <v>-0.05057305730573056</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.01509118121164725</v>
+        <v>-0.05057305730573056</v>
       </c>
       <c r="S16" t="n">
-        <v>0.009841901865676073</v>
+        <v>-0.05057305730573056</v>
       </c>
       <c r="T16" t="n">
-        <v>0.007276770915070837</v>
+        <v>-0.05057305730573056</v>
       </c>
       <c r="U16" t="n">
-        <v>0.001690336963613478</v>
+        <v>0.04816081608160815</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004641552281662091</v>
+        <v>0.03761176117611761</v>
       </c>
       <c r="W16" t="n">
-        <v>0.004641552281662091</v>
+        <v>-0.08614461446144613</v>
       </c>
       <c r="X16" t="n">
-        <v>0.004641552281662091</v>
+        <v>0.04092409240924093</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.004641552281662091</v>
+        <v>0.0146054605460546</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004641552281662091</v>
+        <v>-0.0637023702370237</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.01357335733573357</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.01357335733573357</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.01357335733573357</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.01357335733573357</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.01357335733573357</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +2001,91 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01558263067130523</v>
+        <v>-0.01214521452145215</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01557716116708644</v>
+        <v>-0.0794119411941194</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0177290026931601</v>
+        <v>-0.015001500150015</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01955983067039322</v>
+        <v>0.005064506450645064</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01349797714791908</v>
+        <v>-0.02257425742574257</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007727886069115442</v>
+        <v>0.002628262826282628</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.006570467302818691</v>
+        <v>-0.08442844284428441</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.008745750264744707</v>
+        <v>-0.04712871287128713</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02261039572041583</v>
+        <v>0.08752475247524752</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02261039572041583</v>
+        <v>0.08752475247524752</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02261039572041583</v>
+        <v>0.08752475247524752</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.02261039572041583</v>
+        <v>0.08752475247524752</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.02261039572041583</v>
+        <v>0.08752475247524752</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.00286707227468289</v>
+        <v>0.01351335133513351</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.007321692676867706</v>
+        <v>0.03428742874287428</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.009461891130475644</v>
+        <v>0.03428742874287428</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.01483470116938805</v>
+        <v>0.03428742874287428</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.003834958329398333</v>
+        <v>0.03428742874287428</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01516004902240196</v>
+        <v>0.07686768676867686</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01937814787912591</v>
+        <v>-0.07663966396639663</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01937814787912591</v>
+        <v>0.1059585958595859</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01937814787912591</v>
+        <v>-0.005748574857485748</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01937814787912591</v>
+        <v>0.1061626162616262</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01937814787912591</v>
+        <v>0.0294029402940294</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.008676867686768676</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.008676867686768676</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.008676867686768676</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.008676867686768676</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>-0.008676867686768676</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +2100,91 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01621515453660618</v>
+        <v>-0.003804380438043804</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007663712370548494</v>
+        <v>-0.04709270927092709</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003984658911386356</v>
+        <v>0.02678667866786678</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.004722905372916214</v>
+        <v>-0.02352235223522352</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.009260746930429876</v>
+        <v>0.02951095109510951</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.007559828078393122</v>
+        <v>0.02393039303930393</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.004741255389650215</v>
+        <v>-0.00852085208520852</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0132014474085333</v>
+        <v>0.05844584458445844</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005741847205673887</v>
+        <v>-0.06916291629162916</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005741847205673887</v>
+        <v>-0.06916291629162916</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005741847205673887</v>
+        <v>-0.06916291629162916</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005741847205673887</v>
+        <v>-0.06916291629162916</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005741847205673887</v>
+        <v>-0.06916291629162916</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01342406127296245</v>
+        <v>-0.02952295229522952</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01004191019367641</v>
+        <v>-0.02991899189918992</v>
       </c>
       <c r="R18" t="n">
-        <v>0.007384847431393897</v>
+        <v>-0.02991899189918992</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01327758609910344</v>
+        <v>-0.02991899189918992</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.004434839409393576</v>
+        <v>-0.02991899189918992</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002643900393756015</v>
+        <v>-0.01854185418541854</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.01300956157638246</v>
+        <v>0.04210021002100209</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01300956157638246</v>
+        <v>-0.0774077407740774</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01300956157638246</v>
+        <v>0.03168316831683168</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01300956157638246</v>
+        <v>-0.005664566456645663</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.01300956157638246</v>
+        <v>-0.03984398439843984</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.01464146414641464</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.01464146414641464</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.01464146414641464</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.01464146414641464</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.01464146414641464</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +2199,91 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03916961091078443</v>
+        <v>-0.1253165316531653</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01146398868255954</v>
+        <v>0.001716171617161716</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01257165784686631</v>
+        <v>-0.04709270927092709</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01223891117755645</v>
+        <v>0.05527752775277527</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01585696940227877</v>
+        <v>-0.0584098409840984</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0101012175560487</v>
+        <v>-0.05424542454245424</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005024797256991891</v>
+        <v>-0.03231923192319232</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003818838589519454</v>
+        <v>-0.06193819381938193</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002052250546090022</v>
+        <v>0.05126912691269127</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002052250546090022</v>
+        <v>0.05126912691269127</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002052250546090022</v>
+        <v>0.05126912691269127</v>
       </c>
       <c r="N19" t="n">
-        <v>0.002052250546090022</v>
+        <v>0.05126912691269127</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002052250546090022</v>
+        <v>0.05126912691269127</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01991512476460499</v>
+        <v>0.05605760576057605</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.003904083228163329</v>
+        <v>0.04434443444344434</v>
       </c>
       <c r="R19" t="n">
-        <v>0.03034817209392688</v>
+        <v>0.04434443444344434</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.004697296411891855</v>
+        <v>0.04434443444344434</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01348323788332951</v>
+        <v>0.04434443444344434</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01389364346774574</v>
+        <v>0.1206360636063606</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.003308830212353208</v>
+        <v>0.002772277227722772</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.003308830212353208</v>
+        <v>-0.1587998799879988</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.003308830212353208</v>
+        <v>-0.01092109210921092</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.003308830212353208</v>
+        <v>-0.05436543654365436</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.003308830212353208</v>
+        <v>-0.05938193819381938</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.0201980198019802</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.0201980198019802</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.0201980198019802</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.0201980198019802</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.0201980198019802</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2294,91 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01861294106451764</v>
+        <v>-0.03458745874587459</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01053223539728941</v>
+        <v>0.02013801380138014</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.008143822981752919</v>
+        <v>0.04495649564956495</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005126473933058957</v>
+        <v>-0.06701470147014701</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003957759518310381</v>
+        <v>0.06255025502550254</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.004370699886827994</v>
+        <v>0.08945694569456945</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.006169556118782244</v>
+        <v>0.03302730273027302</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.01503013650796307</v>
+        <v>-0.00774077407740774</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01458489293539571</v>
+        <v>0.02157815781578157</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01458489293539571</v>
+        <v>0.02157815781578157</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01458489293539571</v>
+        <v>0.02157815781578157</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01458489293539571</v>
+        <v>0.02157815781578157</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01458489293539571</v>
+        <v>0.02157815781578157</v>
       </c>
       <c r="P20" t="n">
-        <v>0.005937031437481257</v>
+        <v>-0.05584158415841584</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02006111590644464</v>
+        <v>-0.03117911791179118</v>
       </c>
       <c r="R20" t="n">
-        <v>0.008449253905970155</v>
+        <v>-0.03117911791179118</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01295309159012366</v>
+        <v>-0.03117911791179118</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01442598057703922</v>
+        <v>-0.03117911791179118</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.01549197681167907</v>
+        <v>-0.0942094209420942</v>
       </c>
       <c r="V20" t="n">
-        <v>0.006097267539890702</v>
+        <v>-0.05615361536153615</v>
       </c>
       <c r="W20" t="n">
-        <v>0.006097267539890702</v>
+        <v>0.02727872787278728</v>
       </c>
       <c r="X20" t="n">
-        <v>0.006097267539890702</v>
+        <v>0.02118211821182118</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.006097267539890702</v>
+        <v>0.1865586558655865</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.006097267539890702</v>
+        <v>0.008448844884488448</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.008316831683168317</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.008316831683168317</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.008316831683168317</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.008316831683168317</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.008316831683168317</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2389,91 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.004451216146048645</v>
+        <v>0.05183318331833182</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01321344878453795</v>
+        <v>0.1197239723972397</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.01007912286716491</v>
+        <v>0.1260726072607261</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007032226361289052</v>
+        <v>-0.1414701470147015</v>
       </c>
       <c r="G21" t="n">
-        <v>0.003692757747710309</v>
+        <v>0.1379057905790579</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.007189810559592421</v>
+        <v>0.1441224122412241</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01017601365504055</v>
+        <v>0.1362496249624962</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.009679436703257405</v>
+        <v>-0.134989498949895</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.008434704913388194</v>
+        <v>-0.1322652265226522</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.008434704913388194</v>
+        <v>-0.1322652265226522</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.008434704913388194</v>
+        <v>-0.1322652265226522</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.008434704913388194</v>
+        <v>-0.1322652265226522</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.008434704913388194</v>
+        <v>-0.1322652265226522</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.001041006665640267</v>
+        <v>-0.1409060906090609</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01849203165168126</v>
+        <v>-0.1167236723672367</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.003040224985608999</v>
+        <v>-0.1167236723672367</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.007055743674229746</v>
+        <v>-0.1167236723672367</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01751625881265035</v>
+        <v>-0.1167236723672367</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.01195689206227568</v>
+        <v>-0.0531053105310531</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.002011691408467656</v>
+        <v>0.02347434743474347</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.002011691408467656</v>
+        <v>-0.03509150915091509</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.002011691408467656</v>
+        <v>-0.06491449144914491</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.002011691408467656</v>
+        <v>0.0599099909990999</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.002011691408467656</v>
+        <v>-0.06832283228322832</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.04987698769876987</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.04987698769876987</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.04987698769876987</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.04987698769876987</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.04987698769876987</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2484,91 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0007918574716742988</v>
+        <v>-0.02215421542154215</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0265510050300402</v>
+        <v>-0.1012901290129013</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02719571935982877</v>
+        <v>0.03079507950795079</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02697415691896627</v>
+        <v>-0.01086108610861086</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02396328412653136</v>
+        <v>-0.008532853285328532</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02856266965450678</v>
+        <v>-0.0182058205820582</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01713025143721005</v>
+        <v>-0.1126432643264326</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03250663919683385</v>
+        <v>-0.04307230723072306</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02522172686486907</v>
+        <v>-0.05569756975697569</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02522172686486907</v>
+        <v>-0.05569756975697569</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02522172686486907</v>
+        <v>-0.05569756975697569</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02522172686486907</v>
+        <v>-0.05569756975697569</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02522172686486907</v>
+        <v>-0.05569756975697569</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01137854042314161</v>
+        <v>-0.00234023402340234</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.001545360637814425</v>
+        <v>-0.04808880888088808</v>
       </c>
       <c r="R22" t="n">
-        <v>0.03870977847639114</v>
+        <v>-0.04808880888088808</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02921175476847019</v>
+        <v>-0.04808880888088808</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01027936380317455</v>
+        <v>-0.04808880888088808</v>
       </c>
       <c r="U22" t="n">
-        <v>0.008831510849260434</v>
+        <v>0.009636963696369637</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.03575209131808365</v>
+        <v>0.1320852085208521</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.03575209131808365</v>
+        <v>0.02497449744974497</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.03575209131808365</v>
+        <v>-0.05602160216021601</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.03575209131808365</v>
+        <v>-0.2118691869186918</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.03575209131808365</v>
+        <v>-0.06864686468646865</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.04123612361236123</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-0.04123612361236123</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.04123612361236123</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.04123612361236123</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>-0.04123612361236123</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2583,91 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.0161273901810956</v>
+        <v>-0.227038703870387</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01691677450067098</v>
+        <v>-0.08976897689768974</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01292461117298444</v>
+        <v>-0.2174977497749774</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01174906712596268</v>
+        <v>0.1962916291629163</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004768338814733552</v>
+        <v>-0.1772577257725772</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01351635567665422</v>
+        <v>-0.1894509450945094</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01255258629410345</v>
+        <v>-0.1035223522352235</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03017308386857936</v>
+        <v>0.227050705070507</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02804522329780893</v>
+        <v>0.1995319531953195</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02804522329780893</v>
+        <v>0.1995319531953195</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02804522329780893</v>
+        <v>0.1995319531953195</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02804522329780893</v>
+        <v>0.1995319531953195</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02804522329780893</v>
+        <v>0.1995319531953195</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.002627316585092663</v>
+        <v>0.189030903090309</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.019325125061005</v>
+        <v>0.2138133813381338</v>
       </c>
       <c r="R23" t="n">
-        <v>0.008705157756206309</v>
+        <v>0.2138133813381338</v>
       </c>
       <c r="S23" t="n">
-        <v>0.03326103541044141</v>
+        <v>0.2138133813381338</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01553108414124336</v>
+        <v>0.2138133813381338</v>
       </c>
       <c r="U23" t="n">
-        <v>0.009323940756957628</v>
+        <v>-0.03103510351035103</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.02070144543605782</v>
+        <v>-0.1322052205220522</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.02070144543605782</v>
+        <v>0.2535733573357336</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.02070144543605782</v>
+        <v>0.20998499849985</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.02070144543605782</v>
+        <v>0.1062466246624662</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.02070144543605782</v>
+        <v>0.167980798079808</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1800660066006601</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1800660066006601</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1800660066006601</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1800660066006601</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1800660066006601</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2678,91 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01865444292217771</v>
+        <v>0.006648664866486647</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002310112220404489</v>
+        <v>-0.07839183918391837</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0009915728076629121</v>
+        <v>0.05858985898589859</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0003058128122325124</v>
+        <v>-0.03597959795979597</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001128370413134816</v>
+        <v>0.02238223822382238</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02017989949519598</v>
+        <v>0.02049804980498049</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02253726483749059</v>
+        <v>-0.07653165316531653</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0135599471353207</v>
+        <v>-0.07241524152415241</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002469742466789699</v>
+        <v>-0.09531353135313529</v>
       </c>
       <c r="L24" t="n">
-        <v>0.002469742466789699</v>
+        <v>-0.09531353135313529</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002469742466789699</v>
+        <v>-0.09531353135313529</v>
       </c>
       <c r="N24" t="n">
-        <v>0.002469742466789699</v>
+        <v>-0.09531353135313529</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002469742466789699</v>
+        <v>-0.09531353135313529</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02040550123222004</v>
+        <v>-0.03564356435643564</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.009297317651892704</v>
+        <v>-0.06783078307830782</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01516711443068457</v>
+        <v>-0.06783078307830782</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.01621920266476811</v>
+        <v>-0.06783078307830782</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01662389212095568</v>
+        <v>-0.06783078307830782</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.003445797929831917</v>
+        <v>0.02594659465946594</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01605381606615264</v>
+        <v>0.1351575157515751</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01605381606615264</v>
+        <v>0.08896489648964896</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01605381606615264</v>
+        <v>-0.09033303330333033</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01605381606615264</v>
+        <v>-0.1574317431743174</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01605381606615264</v>
+        <v>-0.1340894089408941</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.0403000300030003</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.0403000300030003</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.0403000300030003</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.0403000300030003</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.0403000300030003</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2777,91 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.0004561435382457415</v>
+        <v>0.1162436243624362</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.009323920596956822</v>
+        <v>0.2316951695169517</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01065084791403392</v>
+        <v>0.04058805880588059</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.009160152942406116</v>
+        <v>-0.07621962196219621</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01109119676364787</v>
+        <v>0.08308430843084308</v>
       </c>
       <c r="H25" t="n">
-        <v>0.009704451748178069</v>
+        <v>0.08854485448544852</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0109187299727492</v>
+        <v>0.2817641764176417</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01413381187899147</v>
+        <v>-0.08739273927392738</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.003400929928037197</v>
+        <v>-0.06335433543354334</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.003400929928037197</v>
+        <v>-0.06335433543354334</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.003400929928037197</v>
+        <v>-0.06335433543354334</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.003400929928037197</v>
+        <v>-0.06335433543354334</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.003400929928037197</v>
+        <v>-0.06335433543354334</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.03002630952105238</v>
+        <v>-0.07425142514251425</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.009189780079591202</v>
+        <v>-0.06755475547554754</v>
       </c>
       <c r="R25" t="n">
-        <v>0.007469495818779832</v>
+        <v>-0.06755475547554754</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.003891225179649007</v>
+        <v>-0.06755475547554754</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.002869365138774605</v>
+        <v>-0.06755475547554754</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.0002276202331048093</v>
+        <v>0.06933093309330932</v>
       </c>
       <c r="V25" t="n">
-        <v>0.004058837634353505</v>
+        <v>-0.105010501050105</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004058837634353505</v>
+        <v>-0.2297629762976297</v>
       </c>
       <c r="X25" t="n">
-        <v>0.004058837634353505</v>
+        <v>0.08507650765076506</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.004058837634353505</v>
+        <v>0.06885088508850884</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.004058837634353505</v>
+        <v>0.1186798679867987</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.01242124212421242</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-0.01242124212421242</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.01242124212421242</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>-0.01242124212421242</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>-0.01242124212421242</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2872,91 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.01003300792132032</v>
+        <v>-0.1473147314731473</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00110819524432781</v>
+        <v>-0.06897089708970895</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000406899376275975</v>
+        <v>0.05342934293429343</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.002266990650679626</v>
+        <v>-0.008820882088208819</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0008408963856358553</v>
+        <v>-0.0108970897089709</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.005963722318548892</v>
+        <v>0.00156015601560156</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01001658673666347</v>
+        <v>-0.03411941194119412</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01256204691815931</v>
+        <v>0.08484848484848484</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.007565614670624585</v>
+        <v>-0.1033303330333033</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.007565614670624585</v>
+        <v>-0.1033303330333033</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.007565614670624585</v>
+        <v>-0.1033303330333033</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.007565614670624585</v>
+        <v>-0.1033303330333033</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.007565614670624585</v>
+        <v>-0.1033303330333033</v>
       </c>
       <c r="P26" t="n">
-        <v>0.002884740883389635</v>
+        <v>-0.01152115211521152</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01026000329040013</v>
+        <v>-0.07128712871287128</v>
       </c>
       <c r="R26" t="n">
-        <v>0.001869023882760955</v>
+        <v>-0.07128712871287128</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.002212794712511788</v>
+        <v>-0.07128712871287128</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.006356075678243027</v>
+        <v>-0.07128712871287128</v>
       </c>
       <c r="U26" t="n">
-        <v>0.002058058834322353</v>
+        <v>-0.01147314731473147</v>
       </c>
       <c r="V26" t="n">
-        <v>0.00203338299333532</v>
+        <v>0.202076207620762</v>
       </c>
       <c r="W26" t="n">
-        <v>0.00203338299333532</v>
+        <v>-0.008112811281128111</v>
       </c>
       <c r="X26" t="n">
-        <v>0.00203338299333532</v>
+        <v>-0.02183018301830182</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.00203338299333532</v>
+        <v>-0.05642964296429643</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.00203338299333532</v>
+        <v>-0.1168436843684368</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.06125412541254125</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.06125412541254125</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.06125412541254125</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-0.06125412541254125</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-0.06125412541254125</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2971,91 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02353870836554833</v>
+        <v>0.02394239423942394</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04449331128373245</v>
+        <v>0.1291689168916892</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003759493206379728</v>
+        <v>-0.0377077707770777</v>
       </c>
       <c r="F27" t="n">
-        <v>0.02241573977662959</v>
+        <v>0.004152415241524152</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0009483041659321665</v>
+        <v>0.005748574857485748</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02932618475704738</v>
+        <v>-0.03179117911791179</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01890344744413789</v>
+        <v>0.09689768976897688</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.006552854622292148</v>
+        <v>-0.06915091509150914</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04474144690965787</v>
+        <v>0.09100510051005099</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04474144690965787</v>
+        <v>0.09100510051005099</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04474144690965787</v>
+        <v>0.09100510051005099</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04474144690965787</v>
+        <v>0.09100510051005099</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04474144690965787</v>
+        <v>0.09100510051005099</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.05283287078531482</v>
+        <v>0.005436543654365436</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2407276897251076</v>
+        <v>0.05023702370237023</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1564331145773246</v>
+        <v>0.05023702370237023</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03992749398109976</v>
+        <v>0.05023702370237023</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.06412326506093059</v>
+        <v>0.05023702370237023</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03008992862759714</v>
+        <v>0.0696189618961896</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0273611674944467</v>
+        <v>-0.2754155415541554</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0273611674944467</v>
+        <v>0.2737953795379537</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0273611674944467</v>
+        <v>-0.0210981098109811</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0273611674944467</v>
+        <v>-0.1477587758775877</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0273611674944467</v>
+        <v>0.166996699669967</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.06909090909090908</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.06909090909090908</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.06909090909090908</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.06909090909090908</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.06909090909090908</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +3070,91 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.007434255273370211</v>
+        <v>-0.1084308430843084</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.002940843381633735</v>
+        <v>-0.05515751575157515</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00150312524412501</v>
+        <v>0.08228022802280227</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.124841884993674e-05</v>
+        <v>-0.08277227722772276</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0003233631489345259</v>
+        <v>0.09952595259525951</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.008150432870017314</v>
+        <v>0.07255925592559255</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.008152086854083472</v>
+        <v>-0.02802280228022802</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006211878352227558</v>
+        <v>-0.04105610561056105</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00723320054532802</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00723320054532802</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="M28" t="n">
-        <v>0.00723320054532802</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="N28" t="n">
-        <v>0.00723320054532802</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="O28" t="n">
-        <v>0.00723320054532802</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.002818725136749005</v>
+        <v>-0.09459345934593458</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.01035986134239445</v>
+        <v>-0.08205220522052205</v>
       </c>
       <c r="R28" t="n">
-        <v>0.003105733852229353</v>
+        <v>-0.08205220522052205</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01253094299723772</v>
+        <v>-0.08205220522052205</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01070681428427257</v>
+        <v>-0.08205220522052205</v>
       </c>
       <c r="U28" t="n">
-        <v>0.002433855937354237</v>
+        <v>0.02777077707770777</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.004684415419376616</v>
+        <v>-0.02024602460246024</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.004684415419376616</v>
+        <v>0.05891389138913891</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.004684415419376616</v>
+        <v>0.0393039303930393</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.004684415419376616</v>
+        <v>-0.02839483948394839</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.004684415419376616</v>
+        <v>-0.1074827482748275</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.01923792379237924</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.01923792379237924</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.01923792379237924</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.01923792379237924</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.01923792379237924</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +3169,91 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0086632925385317</v>
+        <v>-0.1333933393339334</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0241859351114374</v>
+        <v>-0.1674407440744074</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02159446454377858</v>
+        <v>0.003528352835283528</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02317368630294745</v>
+        <v>0.01520552055205521</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02084079971363199</v>
+        <v>-0.005268526852685268</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0255461126058445</v>
+        <v>-0.009972997299729973</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01661224492048979</v>
+        <v>-0.09963396339633962</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0626589434805561</v>
+        <v>-0.0769036903690369</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.740736389629455e-06</v>
+        <v>-0.05650165016501649</v>
       </c>
       <c r="L29" t="n">
-        <v>-9.740736389629455e-06</v>
+        <v>-0.05650165016501649</v>
       </c>
       <c r="M29" t="n">
-        <v>-9.740736389629455e-06</v>
+        <v>-0.05650165016501649</v>
       </c>
       <c r="N29" t="n">
-        <v>-9.740736389629455e-06</v>
+        <v>-0.05650165016501649</v>
       </c>
       <c r="O29" t="n">
-        <v>-9.740736389629455e-06</v>
+        <v>-0.05650165016501649</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.006335128669405146</v>
+        <v>0.01682568256825683</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01274875164595006</v>
+        <v>-0.01964596459645964</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01958449595137984</v>
+        <v>-0.01964596459645964</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.02128676667547066</v>
+        <v>-0.01964596459645964</v>
       </c>
       <c r="T29" t="n">
-        <v>0.007565498606619943</v>
+        <v>-0.01964596459645964</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.007693500115740004</v>
+        <v>-0.06688268826882687</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04052073118882924</v>
+        <v>0.08513651365136513</v>
       </c>
       <c r="W29" t="n">
-        <v>0.04052073118882924</v>
+        <v>0.01164116411641164</v>
       </c>
       <c r="X29" t="n">
-        <v>0.04052073118882924</v>
+        <v>0.04336033603360335</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.04052073118882924</v>
+        <v>-0.02952295229522952</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.04052073118882924</v>
+        <v>-0.01862586258625862</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.06004200420042003</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-0.06004200420042003</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.06004200420042003</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-0.06004200420042003</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.06004200420042003</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +3268,91 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.004916827684673107</v>
+        <v>0.1278727872787279</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.007107490940299637</v>
+        <v>0.03482748274827482</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002298648859945954</v>
+        <v>-0.04933693369336933</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0008260400010416001</v>
+        <v>0.02375037503750375</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.00273670599746824</v>
+        <v>-0.01935793579357935</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01829927410797096</v>
+        <v>-0.04553255325532552</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01542497485699899</v>
+        <v>-0.006660666066606659</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02653991192671828</v>
+        <v>0.07956795679567956</v>
       </c>
       <c r="K30" t="n">
-        <v>0.009467340378693612</v>
+        <v>0.02213021302130213</v>
       </c>
       <c r="L30" t="n">
-        <v>0.009467340378693612</v>
+        <v>0.02213021302130213</v>
       </c>
       <c r="M30" t="n">
-        <v>0.009467340378693612</v>
+        <v>0.02213021302130213</v>
       </c>
       <c r="N30" t="n">
-        <v>0.009467340378693612</v>
+        <v>0.02213021302130213</v>
       </c>
       <c r="O30" t="n">
-        <v>0.009467340378693612</v>
+        <v>0.02213021302130213</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01910066111602644</v>
+        <v>0.02033003300330033</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.02179502851980114</v>
+        <v>0.04663666366636663</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.001872585962903438</v>
+        <v>0.04663666366636663</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02834146942165877</v>
+        <v>0.04663666366636663</v>
       </c>
       <c r="T30" t="n">
-        <v>0.008598345655933825</v>
+        <v>0.04663666366636663</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006100193620007744</v>
+        <v>-0.02408640864086408</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.0171636025105441</v>
+        <v>-0.1025022502250225</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.0171636025105441</v>
+        <v>0.1528352835283528</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.0171636025105441</v>
+        <v>0.0384998499849985</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.0171636025105441</v>
+        <v>-0.07456345634563456</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.0171636025105441</v>
+        <v>0.02103810381038104</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-0.0120972097209721</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-0.0120972097209721</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0.0120972097209721</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-0.0120972097209721</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.0120972097209721</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +3367,91 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4958221970488878</v>
+        <v>0.4562136213621362</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9774717478348697</v>
+        <v>0.015997599759976</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9999453659178145</v>
+        <v>0.9822502250225021</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9907261552130461</v>
+        <v>-0.99996399639964</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9665448318457932</v>
+        <v>0.993159315931593</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3802267905050716</v>
+        <v>0.9897029702970296</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.02025557121022284</v>
+        <v>0.3688328832883288</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.602759987758644</v>
+        <v>-0.7267566756675666</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8138586903463475</v>
+        <v>-0.7972757275727572</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8138586903463475</v>
+        <v>-0.7972757275727572</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8138586903463475</v>
+        <v>-0.7972757275727572</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8138586903463475</v>
+        <v>-0.7972757275727572</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8138586903463475</v>
+        <v>-0.7972757275727572</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1142129275765171</v>
+        <v>-0.9984398439843983</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.005518754332750172</v>
+        <v>-0.9618721872187217</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6157448440857937</v>
+        <v>-0.9618721872187217</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.5180020783520831</v>
+        <v>-0.9618721872187217</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01700119373604775</v>
+        <v>-0.9618721872187217</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.6799661569266462</v>
+        <v>-0.1076387638763876</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6847325087333002</v>
+        <v>0.0504050405040504</v>
       </c>
       <c r="W31" t="n">
-        <v>0.6847325087333002</v>
+        <v>-0.6109450945094509</v>
       </c>
       <c r="X31" t="n">
-        <v>0.6847325087333002</v>
+        <v>-0.6451965196519651</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.6847325087333002</v>
+        <v>0.06599459945994599</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.6847325087333002</v>
+        <v>-0.6542574257425743</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.7702610261026102</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.7702610261026102</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.7702610261026102</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.7702610261026102</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.7702610261026102</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3466,91 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.003084795483391819</v>
+        <v>-0.1042784278427843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02859071048762842</v>
+        <v>-0.1639483948394839</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.02691969986078799</v>
+        <v>-0.1404980498049805</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02315304831812193</v>
+        <v>0.1229162916291629</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0284663926906557</v>
+        <v>-0.1038343834383438</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001458710074348403</v>
+        <v>-0.09951395139513951</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01117334454293378</v>
+        <v>-0.1712331233123312</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.01316771391914186</v>
+        <v>0.1581998199819982</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0258486727459469</v>
+        <v>0.1828262826282628</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0258486727459469</v>
+        <v>0.1828262826282628</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0258486727459469</v>
+        <v>0.1828262826282628</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0258486727459469</v>
+        <v>0.1828262826282628</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.0258486727459469</v>
+        <v>0.1828262826282628</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.00615198927007957</v>
+        <v>0.1187278727872787</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.006740287373611494</v>
+        <v>0.1515631563156316</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.03300159837606393</v>
+        <v>0.1515631563156316</v>
       </c>
       <c r="S32" t="n">
-        <v>0.007372125702885026</v>
+        <v>0.1515631563156316</v>
       </c>
       <c r="T32" t="n">
-        <v>0.002026836849073474</v>
+        <v>0.1515631563156316</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.02278211438328457</v>
+        <v>0.05413741374137413</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.0007623730864949234</v>
+        <v>-0.08585658565856585</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.0007623730864949234</v>
+        <v>0.1264566456645664</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.0007623730864949234</v>
+        <v>0.1767416741674167</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.0007623730864949234</v>
+        <v>0.1839183918391839</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.0007623730864949234</v>
+        <v>0.05818181818181817</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.1146714671467147</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.1146714671467147</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.1146714671467147</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.1146714671467147</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>-0.1146714671467147</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3565,91 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03132027830881113</v>
+        <v>-0.00042004200420042</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01966062923442517</v>
+        <v>-0.03914791479147915</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0241551300542052</v>
+        <v>-0.1207560756075607</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0250069375122775</v>
+        <v>0.136045604560456</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02865564220222568</v>
+        <v>-0.1265886588658866</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01468966205958648</v>
+        <v>-0.1655085508550855</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.001813062024522481</v>
+        <v>-0.09508550855085507</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.04096683778580013</v>
+        <v>-0.06036603660366036</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01542767965710718</v>
+        <v>-0.0207020702070207</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01542767965710718</v>
+        <v>-0.0207020702070207</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01542767965710718</v>
+        <v>-0.0207020702070207</v>
       </c>
       <c r="N33" t="n">
-        <v>0.01542767965710718</v>
+        <v>-0.0207020702070207</v>
       </c>
       <c r="O33" t="n">
-        <v>0.01542767965710718</v>
+        <v>-0.0207020702070207</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01870945236437809</v>
+        <v>0.1357095709570957</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01567908945916358</v>
+        <v>0.09676567656765676</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.006512925572517022</v>
+        <v>0.09676567656765676</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01475652827026113</v>
+        <v>0.09676567656765676</v>
       </c>
       <c r="T33" t="n">
-        <v>0.0009635672065426883</v>
+        <v>0.09676567656765676</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.008418406896736275</v>
+        <v>0.003588358835883588</v>
       </c>
       <c r="V33" t="n">
-        <v>0.04138113467924538</v>
+        <v>0.09982598259825981</v>
       </c>
       <c r="W33" t="n">
-        <v>0.04138113467924538</v>
+        <v>0.1856345634563456</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04138113467924538</v>
+        <v>0.08184818481848186</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.04138113467924538</v>
+        <v>-0.2467326732673267</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.04138113467924538</v>
+        <v>0.05854185418541853</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.1613561356135613</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-0.1613561356135613</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.1613561356135613</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-0.1613561356135613</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>-0.1613561356135613</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3664,91 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.002589239911569596</v>
+        <v>-0.08649264926492647</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.008785042239401688</v>
+        <v>-0.0833123312331233</v>
       </c>
       <c r="E34" t="n">
-        <v>0.005028030057121201</v>
+        <v>-0.001452145214521452</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.005172525038901</v>
+        <v>-0.004992499249924992</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001630869857234794</v>
+        <v>0.006696669666966695</v>
       </c>
       <c r="H34" t="n">
-        <v>0.006808984400359375</v>
+        <v>0.02256225622562256</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01138237082329483</v>
+        <v>-0.05112511251125111</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01848845010661159</v>
+        <v>0.05278127812781278</v>
       </c>
       <c r="K34" t="n">
-        <v>0.007647303473892138</v>
+        <v>0.06348634863486348</v>
       </c>
       <c r="L34" t="n">
-        <v>0.007647303473892138</v>
+        <v>0.06348634863486348</v>
       </c>
       <c r="M34" t="n">
-        <v>0.007647303473892138</v>
+        <v>0.06348634863486348</v>
       </c>
       <c r="N34" t="n">
-        <v>0.007647303473892138</v>
+        <v>0.06348634863486348</v>
       </c>
       <c r="O34" t="n">
-        <v>0.007647303473892138</v>
+        <v>0.06348634863486348</v>
       </c>
       <c r="P34" t="n">
-        <v>0.003281070371242814</v>
+        <v>-0.002652265226522653</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01936101984644079</v>
+        <v>0.01972997299729973</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.007367294406691774</v>
+        <v>0.01972997299729973</v>
       </c>
       <c r="S34" t="n">
-        <v>0.009716299108651962</v>
+        <v>0.01972997299729973</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03178659458346378</v>
+        <v>0.01972997299729973</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01071354945254198</v>
+        <v>0.0831203120312031</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.005671573474862938</v>
+        <v>-0.09720972097209721</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.005671573474862938</v>
+        <v>-0.0836003600360036</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.005671573474862938</v>
+        <v>0.01045304530453045</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.005671573474862938</v>
+        <v>0.1133633363336334</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.005671573474862938</v>
+        <v>-0.00786078607860786</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.03074707470747074</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.03074707470747074</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.03074707470747074</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.03074707470747074</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.03074707470747074</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3763,91 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02257106547884262</v>
+        <v>0.02815481548154815</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01495069701402788</v>
+        <v>0.01956195619561956</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.01163282936131317</v>
+        <v>-0.1281488148814881</v>
       </c>
       <c r="F35" t="n">
-        <v>0.009589912223596488</v>
+        <v>0.1081308130813081</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007379199943167997</v>
+        <v>-0.1034383438343834</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01786421313056853</v>
+        <v>-0.0984098409840984</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02218259157530366</v>
+        <v>-0.04843684368436843</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.02249997361607891</v>
+        <v>0.07270327032703271</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.005052329866093194</v>
+        <v>0.119051905190519</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.005052329866093194</v>
+        <v>0.119051905190519</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.005052329866093194</v>
+        <v>0.119051905190519</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.005052329866093194</v>
+        <v>0.119051905190519</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.005052329866093194</v>
+        <v>0.119051905190519</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.00724056576162263</v>
+        <v>0.102982298229823</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01693169290126771</v>
+        <v>0.13999399939994</v>
       </c>
       <c r="R35" t="n">
-        <v>0.003831218841248753</v>
+        <v>0.13999399939994</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.02034762206190488</v>
+        <v>0.13999399939994</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.005630833953233358</v>
+        <v>0.13999399939994</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.01705421665016867</v>
+        <v>0.129036903690369</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01102507580100303</v>
+        <v>-0.1196759675967597</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01102507580100303</v>
+        <v>-0.06283828382838283</v>
       </c>
       <c r="X35" t="n">
-        <v>0.01102507580100303</v>
+        <v>0.1578037803780378</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01102507580100303</v>
+        <v>0.03348334833483348</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01102507580100303</v>
+        <v>-0.01958595859585958</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.0918091809180918</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.0918091809180918</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.0918091809180918</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-0.0918091809180918</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-0.0918091809180918</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3862,91 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04303743868149754</v>
+        <v>-0.04229222922292229</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03050462166818486</v>
+        <v>-0.07501950195019501</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03080282868811314</v>
+        <v>0.07926792679267926</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02948024114720964</v>
+        <v>-0.08122412241224122</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02724587888183515</v>
+        <v>0.09336933693369336</v>
       </c>
       <c r="H36" t="n">
-        <v>0.00808519405140776</v>
+        <v>0.07405940594059406</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.002515635364625415</v>
+        <v>-0.05622562256225622</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.02850748360787669</v>
+        <v>-0.06777077707770776</v>
       </c>
       <c r="K36" t="n">
-        <v>0.258002225904089</v>
+        <v>0.1785058505850585</v>
       </c>
       <c r="L36" t="n">
-        <v>0.258002225904089</v>
+        <v>0.1785058505850585</v>
       </c>
       <c r="M36" t="n">
-        <v>0.258002225904089</v>
+        <v>0.1785058505850585</v>
       </c>
       <c r="N36" t="n">
-        <v>0.258002225904089</v>
+        <v>0.1785058505850585</v>
       </c>
       <c r="O36" t="n">
-        <v>0.258002225904089</v>
+        <v>0.1785058505850585</v>
       </c>
       <c r="P36" t="n">
-        <v>0.0005132329165293166</v>
+        <v>-0.07860786078607861</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.0008823175072927002</v>
+        <v>-0.0007560756075607561</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01157403291096131</v>
+        <v>-0.0007560756075607561</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.02980528602421144</v>
+        <v>-0.0007560756075607561</v>
       </c>
       <c r="T36" t="n">
-        <v>0.002740184173607366</v>
+        <v>-0.0007560756075607561</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.03022956735318269</v>
+        <v>-0.1108670867086709</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1996080815203232</v>
+        <v>-0.007296729672967297</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1996080815203232</v>
+        <v>-0.05407740774077407</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1996080815203232</v>
+        <v>-0.09275727572757274</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1996080815203232</v>
+        <v>-0.05407740774077407</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1996080815203232</v>
+        <v>-0.08699669966996698</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.2531173117311731</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.2531173117311731</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.2531173117311731</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.2531173117311731</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.2531173117311731</v>
       </c>
     </row>
     <row r="37">
@@ -3444,82 +3961,99 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01288637542745501</v>
+        <v>0.07349534953495349</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01629591847583674</v>
+        <v>0.03245124512451245</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02004365340974613</v>
+        <v>0.05526552655265525</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02119561611182464</v>
+        <v>-0.05417341734173416</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02364122273764891</v>
+        <v>0.0496129612961296</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.001554034622161385</v>
+        <v>0.04882088208820882</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01464582970583318</v>
+        <v>0.02449444944494449</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.002979562010900974</v>
+        <v>-0.1024662466246624</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.00383188325727533</v>
+        <v>-0.04849684968496849</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.00383188325727533</v>
+        <v>-0.04849684968496849</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.00383188325727533</v>
+        <v>-0.04849684968496849</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.00383188325727533</v>
+        <v>-0.04849684968496849</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.00383188325727533</v>
+        <v>-0.04849684968496849</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.02607981320319252</v>
+        <v>-0.0586138613861386</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01444895635395825</v>
+        <v>-0.06000600060006001</v>
       </c>
       <c r="R37" t="n">
-        <v>0.001208441328337653</v>
+        <v>-0.06000600060006001</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.01439657107186284</v>
+        <v>-0.06000600060006001</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01755272988610919</v>
+        <v>-0.06000600060006001</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.01727036353881454</v>
+        <v>0.1469186918691869</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02226660185066407</v>
+        <v>0.08303630363036305</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02226660185066407</v>
+        <v>-0.08855685568556854</v>
       </c>
       <c r="X37" t="n">
-        <v>0.02226660185066407</v>
+        <v>-0.07191119111911191</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.02226660185066407</v>
+        <v>-0.0693069306930693</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.02226660185066407</v>
+        <v>-0.1562556255625562</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.04112811281128112</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.04112811281128112</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.04112811281128112</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.04112811281128112</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.04112811281128112</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A16:A17"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1304144337925773</v>
+        <v>-0.1304925126117005</v>
       </c>
       <c r="D4" t="n">
         <v>-0.006983176887327074</v>
@@ -746,79 +746,79 @@
         <v>-0.0009319498932779957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04040396734415869</v>
+        <v>0.04040429384017175</v>
       </c>
       <c r="H4" t="n">
         <v>0.1569397492215899</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02483110899324436</v>
+        <v>0.02515442241417689</v>
       </c>
       <c r="J4" t="n">
-        <v>0.358111059513581</v>
+        <v>0.3572328694997604</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4308811248512449</v>
+        <v>0.2027413483656539</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4308811248512449</v>
+        <v>0.2027413483656539</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4308811248512449</v>
+        <v>0.2027413483656539</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4308811248512449</v>
+        <v>0.2027413483656539</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4308811248512449</v>
+        <v>0.2027413483656539</v>
       </c>
       <c r="P4" t="n">
-        <v>0.006197271703890867</v>
+        <v>0.008892453283698131</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2019338775493551</v>
+        <v>0.1849573781822951</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2019338775493551</v>
+        <v>0.1849573781822951</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2019338775493551</v>
+        <v>0.1849573781822951</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2019338775493551</v>
+        <v>0.1849573781822951</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.07929377462775097</v>
+        <v>-0.07926304195452168</v>
       </c>
       <c r="V4" t="n">
         <v>-0.6985461087418442</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.00145170850606834</v>
+        <v>-0.001453123162124926</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2043617088144683</v>
+        <v>0.2043617816784712</v>
       </c>
       <c r="Y4" t="n">
         <v>0.9980752059710081</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1333571908382876</v>
+        <v>0.1334010568880423</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05632499946899998</v>
+        <v>0.02386641666665666</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.05632499946899998</v>
+        <v>0.02386641666665666</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05632499946899998</v>
+        <v>0.02386641666665666</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.05632499946899998</v>
+        <v>0.02386641666665666</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05632499946899998</v>
+        <v>0.02386641666665666</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08751003191640126</v>
+        <v>0.08750749415629976</v>
       </c>
       <c r="D5" t="n">
         <v>-0.0005059528522381141</v>
@@ -841,79 +841,79 @@
         <v>0.007442291337691653</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0927535176621407</v>
+        <v>-0.09275319087812761</v>
       </c>
       <c r="H5" t="n">
         <v>-0.007557608750304349</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0314605598504224</v>
+        <v>-0.03149860167594406</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01555388363244671</v>
+        <v>0.01476774877693747</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1783261470050459</v>
+        <v>-0.05427416290696651</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1783261470050459</v>
+        <v>-0.05427416290696651</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1783261470050459</v>
+        <v>-0.05427416290696651</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1783261470050459</v>
+        <v>-0.05427416290696651</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1783261470050459</v>
+        <v>-0.05427416290696651</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02934415077376602</v>
+        <v>0.0309628374625135</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1228959032838361</v>
+        <v>-0.09038812470352499</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1228959032838361</v>
+        <v>-0.09038812470352499</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1228959032838361</v>
+        <v>-0.09038812470352499</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.1228959032838361</v>
+        <v>-0.09038812470352499</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08792990943719636</v>
+        <v>0.08791041874841674</v>
       </c>
       <c r="V5" t="n">
         <v>0.6494536938821477</v>
       </c>
       <c r="W5" t="n">
-        <v>0.003099321723972869</v>
+        <v>0.00309863426794537</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1488095743683829</v>
+        <v>-0.1488094079043763</v>
       </c>
       <c r="Y5" t="n">
         <v>-0.0003607808784312351</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.08921481198459247</v>
+        <v>-0.08903257440930297</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.07498515285540611</v>
+        <v>-0.06878231603129263</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.07498515285540611</v>
+        <v>-0.06878231603129263</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.07498515285540611</v>
+        <v>-0.06878231603129263</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.07498515285540611</v>
+        <v>-0.06878231603129263</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.07498515285540611</v>
+        <v>-0.06878231603129263</v>
       </c>
     </row>
     <row r="6">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2096388536015541</v>
+        <v>0.2096535558101422</v>
       </c>
       <c r="D6" t="n">
         <v>0.9579628848145153</v>
@@ -936,79 +936,79 @@
         <v>0.02074190137367605</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.004640998937639957</v>
+        <v>-0.004640835353633414</v>
       </c>
       <c r="H6" t="n">
         <v>-0.0210553376422135</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9105516352700652</v>
+        <v>0.9105359745014389</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1784454950916717</v>
+        <v>-0.1792069637265501</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01507945855517834</v>
+        <v>-0.0004290222891608915</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.01507945855517834</v>
+        <v>-0.0004290222891608915</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.01507945855517834</v>
+        <v>-0.0004290222891608915</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01507945855517834</v>
+        <v>-0.0004290222891608915</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01507945855517834</v>
+        <v>-0.0004290222891608915</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01186293733851749</v>
+        <v>0.01328820725152829</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01114219369368774</v>
+        <v>0.01481230340849213</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01114219369368774</v>
+        <v>0.01481230340849213</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01114219369368774</v>
+        <v>0.01481230340849213</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01114219369368774</v>
+        <v>0.01481230340849213</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0009129969005198759</v>
+        <v>0.0008974494118979764</v>
       </c>
       <c r="V6" t="n">
         <v>0.0006903616596144663</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02499176125567045</v>
+        <v>0.02499272874370915</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.02990583594823343</v>
+        <v>-0.02990856330834253</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.00930846901233876</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3008042411841696</v>
+        <v>0.3009131431085257</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.05302283223291328</v>
+        <v>0.04603405950536237</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.05302283223291328</v>
+        <v>0.04603405950536237</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05302283223291328</v>
+        <v>0.04603405950536237</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05302283223291328</v>
+        <v>0.04603405950536237</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.05302283223291328</v>
+        <v>0.04603405950536237</v>
       </c>
     </row>
     <row r="7">
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4742833735313349</v>
+        <v>0.4742883386515335</v>
       </c>
       <c r="D7" t="n">
         <v>0.001493300027732001</v>
@@ -1035,79 +1035,79 @@
         <v>-0.02376722984668919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02531693448467737</v>
+        <v>0.0253171176526847</v>
       </c>
       <c r="H7" t="n">
         <v>0.02089995155599806</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01540868346434734</v>
+        <v>0.01536951143078046</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01628920324672423</v>
+        <v>-0.01647793139238206</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.03160303547212141</v>
+        <v>-0.02894841283793652</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03160303547212141</v>
+        <v>-0.02894841283793652</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03160303547212141</v>
+        <v>-0.02894841283793652</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.03160303547212141</v>
+        <v>-0.02894841283793652</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.03160303547212141</v>
+        <v>-0.02894841283793652</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.02499027181561087</v>
+        <v>-0.02596660078266403</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.02829025332361013</v>
+        <v>-0.03394260606170424</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.02829025332361013</v>
+        <v>-0.03394260606170424</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.02829025332361013</v>
+        <v>-0.03394260606170424</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.02829025332361013</v>
+        <v>-0.03394260606170424</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.5644133602725343</v>
+        <v>-0.5644336490093459</v>
       </c>
       <c r="V7" t="n">
         <v>0.02024035818561432</v>
       </c>
       <c r="W7" t="n">
-        <v>0.009486977947479117</v>
+        <v>0.009487690843507634</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.03417533522301341</v>
+        <v>-0.03418148114325924</v>
       </c>
       <c r="Y7" t="n">
         <v>-0.02165144957005798</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02407149619485984</v>
+        <v>-0.02384080828163233</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03155476081419042</v>
+        <v>0.0369078176043127</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.03155476081419042</v>
+        <v>0.0369078176043127</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.03155476081419042</v>
+        <v>0.0369078176043127</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.03155476081419042</v>
+        <v>0.0369078176043127</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.03155476081419042</v>
+        <v>0.0369078176043127</v>
       </c>
     </row>
     <row r="8">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5190032646961305</v>
+        <v>0.5190148800245951</v>
       </c>
       <c r="D8" t="n">
         <v>-0.009443602841744113</v>
@@ -1134,79 +1134,79 @@
         <v>-0.01173461288538451</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009965621966624878</v>
+        <v>0.009965773166630923</v>
       </c>
       <c r="H8" t="n">
         <v>0.009729175493167019</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.00870311775612471</v>
+        <v>-0.008744475421779016</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.00617867737441322</v>
+        <v>-0.006548917185587564</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.004917619300704771</v>
+        <v>-0.002795285199811408</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.004917619300704771</v>
+        <v>-0.002795285199811408</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.004917619300704771</v>
+        <v>-0.002795285199811408</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.004917619300704771</v>
+        <v>-0.002795285199811408</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.004917619300704771</v>
+        <v>-0.002795285199811408</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0107941625757665</v>
+        <v>-0.0106110125204405</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.011246300129852</v>
+        <v>-0.008121920196876806</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.011246300129852</v>
+        <v>-0.008121920196876806</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.011246300129852</v>
+        <v>-0.008121920196876806</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.011246300129852</v>
+        <v>-0.008121920196876806</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6565887760875511</v>
+        <v>0.6565761310630452</v>
       </c>
       <c r="V8" t="n">
         <v>0.003534986061399442</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.01466756900270276</v>
+        <v>-0.01466622212264888</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0223501875180075</v>
+        <v>0.02235018579000743</v>
       </c>
       <c r="Y8" t="n">
         <v>-0.0137138349805534</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01954405047776202</v>
+        <v>0.01948847578753903</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.0201475200379008</v>
+        <v>-0.01920860880034435</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.0201475200379008</v>
+        <v>-0.01920860880034435</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.0201475200379008</v>
+        <v>-0.01920860880034435</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.0201475200379008</v>
+        <v>-0.01920860880034435</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.0201475200379008</v>
+        <v>-0.01920860880034435</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0187947025757881</v>
+        <v>0.01880188299207532</v>
       </c>
       <c r="D9" t="n">
         <v>0.02935640968625638</v>
@@ -1233,79 +1233,79 @@
         <v>0.01226541207461648</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.00885802278632091</v>
+        <v>-0.008857972674318907</v>
       </c>
       <c r="H9" t="n">
         <v>-0.009739886885595473</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02187698938707957</v>
+        <v>0.02187622369104894</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0004196461612793503</v>
+        <v>-0.0001769353033916493</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006080892435235697</v>
+        <v>0.009728747237149888</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006080892435235697</v>
+        <v>0.009728747237149888</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006080892435235697</v>
+        <v>0.009728747237149888</v>
       </c>
       <c r="N9" t="n">
-        <v>0.006080892435235697</v>
+        <v>0.009728747237149888</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006080892435235697</v>
+        <v>0.009728747237149888</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01147977453919098</v>
+        <v>0.01226659431466377</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.009947735629909424</v>
+        <v>0.01270564927622597</v>
       </c>
       <c r="R9" t="n">
-        <v>0.009947735629909424</v>
+        <v>0.01270564927622597</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009947735629909424</v>
+        <v>0.01270564927622597</v>
       </c>
       <c r="T9" t="n">
-        <v>0.009947735629909424</v>
+        <v>0.01270564927622597</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001486497563459902</v>
+        <v>0.001513283292531331</v>
       </c>
       <c r="V9" t="n">
         <v>0.01008248142729926</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01503771237750849</v>
+        <v>-0.01503888655355546</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.003307496484299859</v>
+        <v>-0.0033043375081735</v>
       </c>
       <c r="Y9" t="n">
         <v>0.0114918274356731</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.008711337852453512</v>
+        <v>0.008479006131160243</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.000127607525104301</v>
+        <v>-0.002657999626319985</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.000127607525104301</v>
+        <v>-0.002657999626319985</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.000127607525104301</v>
+        <v>-0.002657999626319985</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.000127607525104301</v>
+        <v>-0.002657999626319985</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.000127607525104301</v>
+        <v>-0.002657999626319985</v>
       </c>
     </row>
     <row r="10">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06793265206130607</v>
+        <v>0.06793405250936209</v>
       </c>
       <c r="D10" t="n">
         <v>-0.0009429528377181134</v>
@@ -1332,79 +1332,79 @@
         <v>-0.00899081901563276</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008694083963763357</v>
+        <v>0.008694158939766357</v>
       </c>
       <c r="H10" t="n">
         <v>0.009487848667513945</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003474302634972105</v>
+        <v>0.003493966123758645</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.005670677417495813</v>
+        <v>-0.005406378465856867</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.007820831256833249</v>
+        <v>-0.01590507298820292</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.007820831256833249</v>
+        <v>-0.01590507298820292</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.007820831256833249</v>
+        <v>-0.01590507298820292</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.007820831256833249</v>
+        <v>-0.01590507298820292</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.007820831256833249</v>
+        <v>-0.01590507298820292</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.008757804830312192</v>
+        <v>-0.01003837844953514</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.008472029522881178</v>
+        <v>-0.0156722350588894</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.008472029522881178</v>
+        <v>-0.0156722350588894</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.008472029522881178</v>
+        <v>-0.0156722350588894</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.008472029522881178</v>
+        <v>-0.0156722350588894</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06500410157616404</v>
+        <v>0.06496334122253364</v>
       </c>
       <c r="V10" t="n">
         <v>-0.005573894910955795</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.002946408885856355</v>
+        <v>-0.002946754677870186</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01390045198001808</v>
+        <v>0.01390463652418546</v>
       </c>
       <c r="Y10" t="n">
         <v>0.005369976598799063</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.005600718848028753</v>
+        <v>0.005986437935457517</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.00884323379372935</v>
+        <v>-0.008231081033243239</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.00884323379372935</v>
+        <v>-0.008231081033243239</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.00884323379372935</v>
+        <v>-0.008231081033243239</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.00884323379372935</v>
+        <v>-0.008231081033243239</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.00884323379372935</v>
+        <v>-0.008231081033243239</v>
       </c>
     </row>
     <row r="11">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1556036817441472</v>
+        <v>0.1556083294883332</v>
       </c>
       <c r="D11" t="n">
         <v>0.2739322870212915</v>
@@ -1427,79 +1427,79 @@
         <v>-0.00115258574210343</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003232328097293123</v>
+        <v>0.003232147905285916</v>
       </c>
       <c r="H11" t="n">
         <v>0.0004981172359246894</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004134914661396586</v>
+        <v>-0.004123338980933559</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01122006478199739</v>
+        <v>-0.01109784617562362</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005581443199257728</v>
+        <v>0.00612064680482587</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005581443199257728</v>
+        <v>0.00612064680482587</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005581443199257728</v>
+        <v>0.00612064680482587</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005581443199257728</v>
+        <v>0.00612064680482587</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005581443199257728</v>
+        <v>0.00612064680482587</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001394267671770707</v>
+        <v>3.765436950617478e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.002917575476703019</v>
+        <v>0.003635796049431841</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002917575476703019</v>
+        <v>0.003635796049431841</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002917575476703019</v>
+        <v>0.003635796049431841</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002917575476703019</v>
+        <v>0.003635796049431841</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03581718488868739</v>
+        <v>0.0358190426807617</v>
       </c>
       <c r="V11" t="n">
         <v>-0.01363826444953058</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.002545951589838063</v>
+        <v>-0.002544678437787137</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0114838050033522</v>
+        <v>0.01148722682748907</v>
       </c>
       <c r="Y11" t="n">
         <v>0.0004630551545222061</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01120140976005639</v>
+        <v>0.01113628134145125</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.005403148632125944</v>
+        <v>-0.00732070176482807</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.005403148632125944</v>
+        <v>-0.00732070176482807</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.005403148632125944</v>
+        <v>-0.00732070176482807</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.005403148632125944</v>
+        <v>-0.00732070176482807</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.005403148632125944</v>
+        <v>-0.00732070176482807</v>
       </c>
     </row>
     <row r="12">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.277960524654421</v>
+        <v>-0.2779589221263568</v>
       </c>
       <c r="D12" t="n">
         <v>0.00596510827060433</v>
@@ -1522,79 +1522,79 @@
         <v>-0.002427315457092618</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0010758175150327</v>
+        <v>0.001075671691026868</v>
       </c>
       <c r="H12" t="n">
         <v>0.003546004461840178</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006743385197735407</v>
+        <v>0.006736576301463051</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.00754548448669287</v>
+        <v>-0.007020700085296766</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.004422072752882909</v>
+        <v>-0.02114070775762831</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.004422072752882909</v>
+        <v>-0.02114070775762831</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.004422072752882909</v>
+        <v>-0.02114070775762831</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.004422072752882909</v>
+        <v>-0.02114070775762831</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.004422072752882909</v>
+        <v>-0.02114070775762831</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.002310469436418777</v>
+        <v>-0.004170422662816906</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.003192587935703517</v>
+        <v>-0.01587752645910106</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.003192587935703517</v>
+        <v>-0.01587752645910106</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.003192587935703517</v>
+        <v>-0.01587752645910106</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.003192587935703517</v>
+        <v>-0.01587752645910106</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.04390731554829261</v>
+        <v>-0.04391862482874499</v>
       </c>
       <c r="V12" t="n">
         <v>0.002068597522743901</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01060577447223098</v>
+        <v>-0.01060585914423436</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.02172128707685148</v>
+        <v>-0.02172307939692317</v>
       </c>
       <c r="Y12" t="n">
         <v>0.01261590818463632</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.01970714853228594</v>
+        <v>-0.01964870804994832</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01609363581174543</v>
+        <v>0.01988845807553832</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01609363581174543</v>
+        <v>0.01988845807553832</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01609363581174543</v>
+        <v>0.01988845807553832</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01609363581174543</v>
+        <v>0.01988845807553832</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01609363581174543</v>
+        <v>0.01988845807553832</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03300117588004703</v>
+        <v>0.03299340784773631</v>
       </c>
       <c r="D13" t="n">
         <v>0.008566614198664566</v>
@@ -1621,79 +1621,79 @@
         <v>0.0004245209449808377</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002883188275327531</v>
+        <v>0.0002881691635267665</v>
       </c>
       <c r="H13" t="n">
         <v>0.0003968549918741996</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01185593289023731</v>
+        <v>0.01186119340244773</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.006104112203342924</v>
+        <v>-0.006385798202773106</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.006020690064827601</v>
+        <v>0.01443265804930632</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.006020690064827601</v>
+        <v>0.01443265804930632</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.006020690064827601</v>
+        <v>0.01443265804930632</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.006020690064827601</v>
+        <v>0.01443265804930632</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.006020690064827601</v>
+        <v>0.01443265804930632</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0003507486860299474</v>
+        <v>0.001869413162776527</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.002066624146664966</v>
+        <v>0.005577475711099028</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.002066624146664966</v>
+        <v>0.005577475711099028</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.002066624146664966</v>
+        <v>0.005577475711099028</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.002066624146664966</v>
+        <v>0.005577475711099028</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03519659199986368</v>
+        <v>0.03523513264140531</v>
       </c>
       <c r="V13" t="n">
         <v>0.01221857194474288</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.01560343540813741</v>
+        <v>-0.01560367214414688</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01045480640219225</v>
+        <v>0.01045741328229653</v>
       </c>
       <c r="Y13" t="n">
         <v>-0.0003000131640005266</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01410321781212871</v>
+        <v>0.01375589776623591</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.01275319875012795</v>
+        <v>-0.01572666302906652</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.01275319875012795</v>
+        <v>-0.01572666302906652</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.01275319875012795</v>
+        <v>-0.01572666302906652</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.01275319875012795</v>
+        <v>-0.01572666302906652</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.01275319875012795</v>
+        <v>-0.01572666302906652</v>
       </c>
     </row>
     <row r="14">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.0297665724866629</v>
+        <v>-0.02977057559082302</v>
       </c>
       <c r="D14" t="n">
         <v>-0.007119685916787436</v>
@@ -1720,79 +1720,79 @@
         <v>-0.009246409425856375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008410156848406274</v>
+        <v>0.008410101744404068</v>
       </c>
       <c r="H14" t="n">
         <v>0.009368558390742335</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.001431977625279105</v>
+        <v>-0.001428941817157672</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.008279181604903582</v>
+        <v>-0.008813954048211744</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.006607090920283636</v>
+        <v>-0.01652877714115108</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.006607090920283636</v>
+        <v>-0.01652877714115108</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.006607090920283636</v>
+        <v>-0.01652877714115108</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.006607090920283636</v>
+        <v>-0.01652877714115108</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.006607090920283636</v>
+        <v>-0.01652877714115108</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.008900467940018716</v>
+        <v>-0.01072841073313643</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.008446189201847566</v>
+        <v>-0.01452362534894501</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.008446189201847566</v>
+        <v>-0.01452362534894501</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.008446189201847566</v>
+        <v>-0.01452362534894501</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.008446189201847566</v>
+        <v>-0.01452362534894501</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.03756644886265795</v>
+        <v>-0.03758924924756997</v>
       </c>
       <c r="V14" t="n">
         <v>-0.01023091903323676</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0009166274286650971</v>
+        <v>-0.0009165371886614874</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.01037969110318764</v>
+        <v>-0.01038141353525654</v>
       </c>
       <c r="Y14" t="n">
         <v>0.01157249959889998</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.006962455574498222</v>
+        <v>-0.006703059436122376</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01310771985230879</v>
+        <v>0.01856160976646439</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01310771985230879</v>
+        <v>0.01856160976646439</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01310771985230879</v>
+        <v>0.01856160976646439</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01310771985230879</v>
+        <v>0.01856160976646439</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01310771985230879</v>
+        <v>0.01856160976646439</v>
       </c>
     </row>
     <row r="15">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.001993477135739085</v>
+        <v>-0.001993553935742157</v>
       </c>
       <c r="D15" t="n">
         <v>-0.01063130442525218</v>
@@ -1819,79 +1819,79 @@
         <v>-0.01749456079578243</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01710960606038424</v>
+        <v>0.01710964167638566</v>
       </c>
       <c r="H15" t="n">
         <v>0.01783614973744599</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.001191276623651065</v>
+        <v>-0.001189527887581115</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01286916950590092</v>
+        <v>-0.01314648568520759</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01117776889511076</v>
+        <v>0.004767438910697555</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01117776889511076</v>
+        <v>0.004767438910697555</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01117776889511076</v>
+        <v>0.004767438910697555</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01117776889511076</v>
+        <v>0.004767438910697555</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.01117776889511076</v>
+        <v>0.004767438910697555</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01724442673777707</v>
+        <v>-0.01573280530131221</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01542077831283113</v>
+        <v>-0.006562304230492168</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01542077831283113</v>
+        <v>-0.006562304230492168</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01542077831283113</v>
+        <v>-0.006562304230492168</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.01542077831283113</v>
+        <v>-0.006562304230492168</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02574890080595603</v>
+        <v>-0.02572778128511125</v>
       </c>
       <c r="V15" t="n">
         <v>-0.001893033675721347</v>
       </c>
       <c r="W15" t="n">
-        <v>0.008793528063741122</v>
+        <v>0.008792232351689291</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.014705525004221</v>
+        <v>-0.01471183057247322</v>
       </c>
       <c r="Y15" t="n">
         <v>0.007909432060377282</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.01181248300049932</v>
+        <v>-0.01205289936211597</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01518037721521509</v>
+        <v>0.0114661474346459</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01518037721521509</v>
+        <v>0.0114661474346459</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01518037721521509</v>
+        <v>0.0114661474346459</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.01518037721521509</v>
+        <v>0.0114661474346459</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01518037721521509</v>
+        <v>0.0114661474346459</v>
       </c>
     </row>
     <row r="16">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.003750048726001949</v>
+        <v>0.003751480662059226</v>
       </c>
       <c r="D16" t="n">
         <v>0.01187364479494579</v>
@@ -1918,79 +1918,79 @@
         <v>-0.008066034850641394</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01208644233945769</v>
+        <v>0.01208666582746663</v>
       </c>
       <c r="H16" t="n">
         <v>0.009797464039898561</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01324332446573298</v>
+        <v>0.01324164043366562</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.00103871236277002</v>
+        <v>-0.001244007219969645</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.006909416820376672</v>
+        <v>-0.0002724042348961693</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.006909416820376672</v>
+        <v>-0.0002724042348961693</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.006909416820376672</v>
+        <v>-0.0002724042348961693</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.006909416820376672</v>
+        <v>-0.0002724042348961693</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.006909416820376672</v>
+        <v>-0.0002724042348961693</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.009252537970101516</v>
+        <v>-0.00915008475000339</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.00402045078481803</v>
+        <v>-0.001715382404615296</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.00402045078481803</v>
+        <v>-0.001715382404615296</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.00402045078481803</v>
+        <v>-0.001715382404615296</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.00402045078481803</v>
+        <v>-0.001715382404615296</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.04008643158745726</v>
+        <v>-0.04008503200340128</v>
       </c>
       <c r="V16" t="n">
         <v>-0.02933400414936016</v>
       </c>
       <c r="W16" t="n">
-        <v>0.006825483729019349</v>
+        <v>0.006826271313050853</v>
       </c>
       <c r="X16" t="n">
-        <v>0.001264839122593565</v>
+        <v>0.001271202098848084</v>
       </c>
       <c r="Y16" t="n">
         <v>0.007160440990417639</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.0005341925973677039</v>
+        <v>-0.0005380143575205742</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.00778312427932497</v>
+        <v>0.007876128603045143</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.00778312427932497</v>
+        <v>0.007876128603045143</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.00778312427932497</v>
+        <v>0.007876128603045143</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.00778312427932497</v>
+        <v>0.007876128603045143</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.00778312427932497</v>
+        <v>0.007876128603045143</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01555569019022761</v>
+        <v>0.01555436443017457</v>
       </c>
       <c r="D17" t="n">
         <v>-0.006570467302818691</v>
@@ -2013,79 +2013,79 @@
         <v>-0.01776617226264689</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01985300181812007</v>
+        <v>0.01985266447410658</v>
       </c>
       <c r="H17" t="n">
         <v>0.0160214951688598</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005749068709962747</v>
+        <v>0.0005729134309165371</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01489398315727465</v>
+        <v>-0.01432904915861036</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02133091774923671</v>
+        <v>-0.007162327102493084</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02133091774923671</v>
+        <v>-0.007162327102493084</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02133091774923671</v>
+        <v>-0.007162327102493084</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.02133091774923671</v>
+        <v>-0.007162327102493084</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.02133091774923671</v>
+        <v>-0.007162327102493084</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.01914532406181296</v>
+        <v>-0.01941493460059738</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0177067350122694</v>
+        <v>-0.01582453560898142</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0177067350122694</v>
+        <v>-0.01582453560898142</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0177067350122694</v>
+        <v>-0.01582453560898142</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0177067350122694</v>
+        <v>-0.01582453560898142</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.007409144552365781</v>
+        <v>-0.007366160838646432</v>
       </c>
       <c r="V17" t="n">
         <v>-0.007322720740908829</v>
       </c>
       <c r="W17" t="n">
-        <v>0.008387337647493503</v>
+        <v>0.008387909039516361</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.01393405063736202</v>
+        <v>-0.01393448446137938</v>
       </c>
       <c r="Y17" t="n">
         <v>-0.003868931290757251</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.01520184656007386</v>
+        <v>-0.01553385700535428</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01990375289215011</v>
+        <v>0.01765530953821238</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01990375289215011</v>
+        <v>0.01765530953821238</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.01990375289215011</v>
+        <v>0.01765530953821238</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.01990375289215011</v>
+        <v>0.01765530953821238</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01990375289215011</v>
+        <v>0.01765530953821238</v>
       </c>
     </row>
     <row r="18">
@@ -2100,7 +2100,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.0158863174674527</v>
+        <v>-0.0158852399634096</v>
       </c>
       <c r="D18" t="n">
         <v>-0.004741255389650215</v>
@@ -2112,79 +2112,79 @@
         <v>0.004004380288175211</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00403897878555915</v>
+        <v>-0.004039330337573213</v>
       </c>
       <c r="H18" t="n">
         <v>-0.005595411967816478</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.00771467176458687</v>
+        <v>-0.00768793105951724</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01864240641561973</v>
+        <v>0.01946044996497976</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005055156586206263</v>
+        <v>0.01456531911061276</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005055156586206263</v>
+        <v>0.01456531911061276</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005055156586206263</v>
+        <v>0.01456531911061276</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005055156586206263</v>
+        <v>0.01456531911061276</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005055156586206263</v>
+        <v>0.01456531911061276</v>
       </c>
       <c r="P18" t="n">
-        <v>0.003678910899156436</v>
+        <v>0.004953342822133712</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.006172579542903181</v>
+        <v>0.01196315385452615</v>
       </c>
       <c r="R18" t="n">
-        <v>0.006172579542903181</v>
+        <v>0.01196315385452615</v>
       </c>
       <c r="S18" t="n">
-        <v>0.006172579542903181</v>
+        <v>0.01196315385452615</v>
       </c>
       <c r="T18" t="n">
-        <v>0.006172579542903181</v>
+        <v>0.01196315385452615</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01745687196227488</v>
+        <v>0.01741933384877335</v>
       </c>
       <c r="V18" t="n">
         <v>-0.01004119902564796</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01744695775387831</v>
+        <v>-0.01744644933785797</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01407349995494</v>
+        <v>0.01407165176286607</v>
       </c>
       <c r="Y18" t="n">
         <v>-0.004277911275116451</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01104346882573875</v>
+        <v>0.01139938730397549</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.01588082300323292</v>
+        <v>-0.01715317239812689</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.01588082300323292</v>
+        <v>-0.01715317239812689</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.01588082300323292</v>
+        <v>-0.01715317239812689</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.01588082300323292</v>
+        <v>-0.01715317239812689</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.01588082300323292</v>
+        <v>-0.01715317239812689</v>
       </c>
     </row>
     <row r="19">
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03902419231296769</v>
+        <v>-0.03901537576861503</v>
       </c>
       <c r="D19" t="n">
         <v>-0.005024797256991891</v>
@@ -2211,79 +2211,79 @@
         <v>0.01265202473008099</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0121405323896213</v>
+        <v>-0.01214075952563038</v>
       </c>
       <c r="H19" t="n">
         <v>-0.01492228552489142</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.009978938031157519</v>
+        <v>-0.009990729903629194</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.003051885245664427</v>
+        <v>-0.003085726160909296</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001523130108925204</v>
+        <v>0.002364115582564623</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001523130108925204</v>
+        <v>0.002364115582564623</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001523130108925204</v>
+        <v>0.002364115582564623</v>
       </c>
       <c r="N19" t="n">
-        <v>0.001523130108925204</v>
+        <v>0.002364115582564623</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001523130108925204</v>
+        <v>0.002364115582564623</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01223116215324649</v>
+        <v>0.01217429971897199</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.009895883531835341</v>
+        <v>0.009940928077637121</v>
       </c>
       <c r="R19" t="n">
-        <v>0.009895883531835341</v>
+        <v>0.009940928077637121</v>
       </c>
       <c r="S19" t="n">
-        <v>0.009895883531835341</v>
+        <v>0.009940928077637121</v>
       </c>
       <c r="T19" t="n">
-        <v>0.009895883531835341</v>
+        <v>0.009940928077637121</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.01805461790618471</v>
+        <v>-0.01807713038708521</v>
       </c>
       <c r="V19" t="n">
         <v>0.003903905244156209</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01321573915262956</v>
+        <v>0.013216575120663</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.00937222904688916</v>
+        <v>-0.009373157558926301</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.01330842302833692</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.009001196808047871</v>
+        <v>0.009239670609586822</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.00260467824818713</v>
+        <v>-0.004265832554633302</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.00260467824818713</v>
+        <v>-0.004265832554633302</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.00260467824818713</v>
+        <v>-0.004265832554633302</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.00260467824818713</v>
+        <v>-0.004265832554633302</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.00260467824818713</v>
+        <v>-0.004265832554633302</v>
       </c>
     </row>
     <row r="20">
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01921231689649268</v>
+        <v>0.01921528656061146</v>
       </c>
       <c r="D20" t="n">
         <v>-0.006169556118782244</v>
@@ -2306,79 +2306,79 @@
         <v>-0.008085116195404645</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006297789275911571</v>
+        <v>0.00629765650790626</v>
       </c>
       <c r="H20" t="n">
         <v>0.006093610035744402</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.004491036179641447</v>
+        <v>-0.004497549491901979</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.007871707812125442</v>
+        <v>-0.007749426467740041</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01575560607022424</v>
+        <v>-0.01235386129415445</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01575560607022424</v>
+        <v>-0.01235386129415445</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01575560607022424</v>
+        <v>-0.01235386129415445</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01575560607022424</v>
+        <v>-0.01235386129415445</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01575560607022424</v>
+        <v>-0.01235386129415445</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.008259339498373578</v>
+        <v>-0.008751224702048987</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01221480768859231</v>
+        <v>-0.01430575574023023</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01221480768859231</v>
+        <v>-0.01430575574023023</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01221480768859231</v>
+        <v>-0.01430575574023023</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01221480768859231</v>
+        <v>-0.01430575574023023</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008405326416213055</v>
+        <v>0.008408029680321187</v>
       </c>
       <c r="V20" t="n">
         <v>0.02006072557042902</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01471209879648395</v>
+        <v>0.01471122644444906</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.008073287554931502</v>
+        <v>-0.008073972514958901</v>
       </c>
       <c r="Y20" t="n">
         <v>-0.0143706526068261</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.009345641749825669</v>
+        <v>-0.009376130295045212</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.002003901968156079</v>
+        <v>0.00454549477381979</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.002003901968156079</v>
+        <v>0.00454549477381979</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.002003901968156079</v>
+        <v>0.00454549477381979</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.002003901968156079</v>
+        <v>0.00454549477381979</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.002003901968156079</v>
+        <v>0.00454549477381979</v>
       </c>
     </row>
     <row r="21">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.004721057660842305</v>
+        <v>-0.004720993820839752</v>
       </c>
       <c r="D21" t="n">
         <v>-0.01017601365504055</v>
@@ -2401,79 +2401,79 @@
         <v>-0.01009437025977481</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006099200595968023</v>
+        <v>0.00609907473996299</v>
       </c>
       <c r="H21" t="n">
         <v>0.005823191944927677</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.007054094586163782</v>
+        <v>-0.007058576634343064</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.006355925829711602</v>
+        <v>-0.005848743508337109</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.008336370669454826</v>
+        <v>-0.001305878356235134</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.008336370669454826</v>
+        <v>-0.001305878356235134</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.008336370669454826</v>
+        <v>-0.001305878356235134</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.008336370669454826</v>
+        <v>-0.001305878356235134</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.008336370669454826</v>
+        <v>-0.001305878356235134</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.009334688053387521</v>
+        <v>-0.009330513973220558</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01224674295386972</v>
+        <v>-0.008331441165257645</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01224674295386972</v>
+        <v>-0.008331441165257645</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01224674295386972</v>
+        <v>-0.008331441165257645</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01224674295386972</v>
+        <v>-0.008331441165257645</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.0005538862301554491</v>
+        <v>-0.0005601513824060552</v>
       </c>
       <c r="V21" t="n">
         <v>0.01849270422770817</v>
       </c>
       <c r="W21" t="n">
-        <v>0.004230028297201131</v>
+        <v>0.004230826921233077</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.0005517252700690106</v>
+        <v>-0.0005463783578551342</v>
       </c>
       <c r="Y21" t="n">
         <v>-0.01805642606625704</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.006227350329094012</v>
+        <v>-0.006203197208127887</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.009484015867360633</v>
+        <v>-0.008166038150641526</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.009484015867360633</v>
+        <v>-0.008166038150641526</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.009484015867360633</v>
+        <v>-0.008166038150641526</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.009484015867360633</v>
+        <v>-0.008166038150641526</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.009484015867360633</v>
+        <v>-0.008166038150641526</v>
       </c>
     </row>
     <row r="22">
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0004710826748433069</v>
+        <v>-0.0004620861304834452</v>
       </c>
       <c r="D22" t="n">
         <v>-0.01713025143721005</v>
@@ -2496,79 +2496,79 @@
         <v>0.02719278204771128</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02745097127403885</v>
+        <v>-0.02745089130603565</v>
       </c>
       <c r="H22" t="n">
         <v>-0.02460165324006613</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.02881865712074628</v>
+        <v>-0.02880754780830191</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03631391544726179</v>
+        <v>0.03656593155957836</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02553978534159141</v>
+        <v>-0.001216328688653147</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02553978534159141</v>
+        <v>-0.001216328688653147</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02553978534159141</v>
+        <v>-0.001216328688653147</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02553978534159141</v>
+        <v>-0.001216328688653147</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02553978534159141</v>
+        <v>-0.001216328688653147</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02797645619105824</v>
+        <v>0.02680692040027681</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.02742298573691943</v>
+        <v>0.01735375058215002</v>
       </c>
       <c r="R22" t="n">
-        <v>0.02742298573691943</v>
+        <v>0.01735375058215002</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02742298573691943</v>
+        <v>0.01735375058215002</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02742298573691943</v>
+        <v>0.01735375058215002</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01548820410752816</v>
+        <v>0.01550238974009559</v>
       </c>
       <c r="V22" t="n">
         <v>0.001543964989758599</v>
       </c>
       <c r="W22" t="n">
-        <v>7.10659228426369e-06</v>
+        <v>7.558272302330892e-06</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0272129125765165</v>
+        <v>0.02721392921655717</v>
       </c>
       <c r="Y22" t="n">
         <v>0.009851964586078583</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01629847169193887</v>
+        <v>0.01621262714450509</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.03262560936902437</v>
+        <v>-0.02661750548070022</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.03262560936902437</v>
+        <v>-0.02661750548070022</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.03262560936902437</v>
+        <v>-0.02661750548070022</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.03262560936902437</v>
+        <v>-0.02661750548070022</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.03262560936902437</v>
+        <v>-0.02661750548070022</v>
       </c>
     </row>
     <row r="23">
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01605421869016875</v>
+        <v>-0.01605513933020557</v>
       </c>
       <c r="D23" t="n">
         <v>-0.01255258629410345</v>
@@ -2595,79 +2595,79 @@
         <v>0.01285939654637586</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01157817665512706</v>
+        <v>-0.01157838843113554</v>
       </c>
       <c r="H23" t="n">
         <v>-0.009545882301835291</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01381992112879684</v>
+        <v>-0.01380220058408802</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0191935302943128</v>
+        <v>0.01965915912528103</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02751207450848298</v>
+        <v>0.01589599215583968</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02751207450848298</v>
+        <v>0.01589599215583968</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02751207450848298</v>
+        <v>0.01589599215583968</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02751207450848298</v>
+        <v>0.01589599215583968</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02751207450848298</v>
+        <v>0.01589599215583968</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01366750931470037</v>
+        <v>0.01365532941021317</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.02003128793725151</v>
+        <v>0.0198591050183642</v>
       </c>
       <c r="R23" t="n">
-        <v>0.02003128793725151</v>
+        <v>0.0198591050183642</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02003128793725151</v>
+        <v>0.0198591050183642</v>
       </c>
       <c r="T23" t="n">
-        <v>0.02003128793725151</v>
+        <v>0.0198591050183642</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0009280328051213121</v>
+        <v>-0.0008825981153039245</v>
       </c>
       <c r="V23" t="n">
         <v>-0.01932179078887163</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01362984544119382</v>
+        <v>0.01363028598521144</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03924992576199703</v>
+        <v>0.03924327305773091</v>
       </c>
       <c r="Y23" t="n">
         <v>0.01562144059285762</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02250230048409202</v>
+        <v>0.02203982814559312</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.02383495400939815</v>
+        <v>-0.02638470335938813</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.02383495400939815</v>
+        <v>-0.02638470335938813</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.02383495400939815</v>
+        <v>-0.02638470335938813</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.02383495400939815</v>
+        <v>-0.02638470335938813</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.02383495400939815</v>
+        <v>-0.02638470335938813</v>
       </c>
     </row>
     <row r="24">
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01895662981426519</v>
+        <v>0.01893625554145022</v>
       </c>
       <c r="D24" t="n">
         <v>0.02253726483749059</v>
@@ -2690,79 +2690,79 @@
         <v>0.0008928255717130228</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001118957900758316</v>
+        <v>0.001118734028749361</v>
       </c>
       <c r="H24" t="n">
         <v>9.757075590283023e-05</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02053363445334537</v>
+        <v>0.02053750805350032</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001155655247585261</v>
+        <v>8.724614764479506e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001314101812564072</v>
+        <v>-0.0203716376148655</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001314101812564072</v>
+        <v>-0.0203716376148655</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0001314101812564072</v>
+        <v>-0.0203716376148655</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0001314101812564072</v>
+        <v>-0.0203716376148655</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0001314101812564072</v>
+        <v>-0.0203716376148655</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0003198699967947998</v>
+        <v>-0.002087733395509335</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.001084060651362426</v>
+        <v>-0.01131082701243308</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001084060651362426</v>
+        <v>-0.01131082701243308</v>
       </c>
       <c r="S24" t="n">
-        <v>0.001084060651362426</v>
+        <v>-0.01131082701243308</v>
       </c>
       <c r="T24" t="n">
-        <v>0.001084060651362426</v>
+        <v>-0.01131082701243308</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0191263025250521</v>
+        <v>0.01910384418815377</v>
       </c>
       <c r="V24" t="n">
         <v>-0.009297761939910477</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.01430677055627082</v>
+        <v>-0.01430713535628541</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.01306932474677299</v>
+        <v>-0.01306615914664636</v>
       </c>
       <c r="Y24" t="n">
         <v>0.01663220111328804</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.00331116925244677</v>
+        <v>-0.003095924571836982</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01454205446968218</v>
+        <v>0.01755180300607212</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01454205446968218</v>
+        <v>0.01755180300607212</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01454205446968218</v>
+        <v>0.01755180300607212</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01454205446968218</v>
+        <v>0.01755180300607212</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01454205446968218</v>
+        <v>0.01755180300607212</v>
       </c>
     </row>
     <row r="25">
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.0009693556227742249</v>
+        <v>-0.0009798170311926813</v>
       </c>
       <c r="D25" t="n">
         <v>0.0109187299727492</v>
@@ -2789,79 +2789,79 @@
         <v>0.01064734852189394</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.009249688113987523</v>
+        <v>-0.009249494001979759</v>
       </c>
       <c r="H25" t="n">
         <v>-0.01109573881182955</v>
       </c>
       <c r="I25" t="n">
-        <v>0.009777679207107167</v>
+        <v>0.009771261510850459</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001524106910756626</v>
+        <v>0.001497769550570821</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.002911776020471041</v>
+        <v>0.01430948850837954</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.002911776020471041</v>
+        <v>0.01430948850837954</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.002911776020471041</v>
+        <v>0.01430948850837954</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.002911776020471041</v>
+        <v>0.01430948850837954</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.002911776020471041</v>
+        <v>0.01430948850837954</v>
       </c>
       <c r="P25" t="n">
-        <v>0.009553337470133497</v>
+        <v>0.01120602544024102</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.006879821171192846</v>
+        <v>0.0115335175493407</v>
       </c>
       <c r="R25" t="n">
-        <v>0.006879821171192846</v>
+        <v>0.0115335175493407</v>
       </c>
       <c r="S25" t="n">
-        <v>0.006879821171192846</v>
+        <v>0.0115335175493407</v>
       </c>
       <c r="T25" t="n">
-        <v>0.006879821171192846</v>
+        <v>0.0115335175493407</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.03447922899516916</v>
+        <v>-0.03449650889986035</v>
       </c>
       <c r="V25" t="n">
         <v>0.009190432111617283</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.01034234460569378</v>
+        <v>-0.01034250233370009</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01818730114349204</v>
+        <v>-0.01818523935140957</v>
       </c>
       <c r="Y25" t="n">
         <v>-0.002636931945477277</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.01741656991266279</v>
+        <v>-0.01726288062651522</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01413732968549319</v>
+        <v>0.008571740598869624</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01413732968549319</v>
+        <v>0.008571740598869624</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01413732968549319</v>
+        <v>0.008571740598869624</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01413732968549319</v>
+        <v>0.008571740598869624</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01413732968549319</v>
+        <v>0.008571740598869624</v>
       </c>
     </row>
     <row r="26">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.009846384489855378</v>
+        <v>-0.009845103849804153</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01001658673666347</v>
@@ -2884,79 +2884,79 @@
         <v>0.0004467351538694061</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.001768032454721298</v>
+        <v>-0.001768045990721839</v>
       </c>
       <c r="H26" t="n">
         <v>-0.001747847973913919</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.005966033134641325</v>
+        <v>-0.005984720495388818</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01997378165444043</v>
+        <v>-0.02100186630137396</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.003470411370816454</v>
+        <v>-0.01639973326398933</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.003470411370816454</v>
+        <v>-0.01639973326398933</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.003470411370816454</v>
+        <v>-0.01639973326398933</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.003470411370816454</v>
+        <v>-0.01639973326398933</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.003470411370816454</v>
+        <v>-0.01639973326398933</v>
       </c>
       <c r="P26" t="n">
-        <v>0.0009317985972719438</v>
+        <v>-0.0003986222559448901</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.001829682121187284</v>
+        <v>-0.01303031735321269</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.001829682121187284</v>
+        <v>-0.01303031735321269</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.001829682121187284</v>
+        <v>-0.01303031735321269</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.001829682121187284</v>
+        <v>-0.01303031735321269</v>
       </c>
       <c r="U26" t="n">
-        <v>0.001324413940976558</v>
+        <v>0.00129716299588652</v>
       </c>
       <c r="V26" t="n">
         <v>0.01025919141836766</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.02378156399126256</v>
+        <v>-0.02378240043929601</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.0004322384812895391</v>
+        <v>-0.0004329139373165574</v>
       </c>
       <c r="Y26" t="n">
         <v>-0.006328827421153095</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.005280973747238949</v>
+        <v>-0.005056865674274626</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0005688060707522428</v>
+        <v>0.00602935051317402</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0005688060707522428</v>
+        <v>0.00602935051317402</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0005688060707522428</v>
+        <v>0.00602935051317402</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0005688060707522428</v>
+        <v>0.00602935051317402</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0005688060707522428</v>
+        <v>0.00602935051317402</v>
       </c>
     </row>
     <row r="27">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02352763207710528</v>
+        <v>-0.02351559358062374</v>
       </c>
       <c r="D27" t="n">
         <v>0.01890344744413789</v>
@@ -2983,79 +2983,79 @@
         <v>0.003793820215752808</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02141376930455077</v>
+        <v>0.02141374194454967</v>
       </c>
       <c r="H27" t="n">
         <v>-0.005762388422495537</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02913977578959103</v>
+        <v>0.02912930410917216</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.00829240066144789</v>
+        <v>-0.008419694463741157</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05045403878616154</v>
+        <v>0.04377685634307425</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05045403878616154</v>
+        <v>0.04377685634307425</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05045403878616154</v>
+        <v>0.04377685634307425</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05045403878616154</v>
+        <v>0.04377685634307425</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05045403878616154</v>
+        <v>0.04377685634307425</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.002821333168853326</v>
+        <v>-0.0006929975317199013</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04154618134184725</v>
+        <v>0.04854795938191837</v>
       </c>
       <c r="R27" t="n">
-        <v>0.04154618134184725</v>
+        <v>0.04854795938191837</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04154618134184725</v>
+        <v>0.04854795938191837</v>
       </c>
       <c r="T27" t="n">
-        <v>0.04154618134184725</v>
+        <v>0.04854795938191837</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.04688276894731075</v>
+        <v>-0.0468679151547166</v>
       </c>
       <c r="V27" t="n">
         <v>-0.2407262669090507</v>
       </c>
       <c r="W27" t="n">
-        <v>0.9916528404661135</v>
+        <v>0.9916527858421114</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03827839708313589</v>
+        <v>0.03827723125908924</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.06436975764679029</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02942821644112865</v>
+        <v>0.02935049311001972</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.01710637335625493</v>
+        <v>0.004620073720802948</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.01710637335625493</v>
+        <v>0.004620073720802948</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.01710637335625493</v>
+        <v>0.004620073720802948</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.01710637335625493</v>
+        <v>0.004620073720802948</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.01710637335625493</v>
+        <v>0.004620073720802948</v>
       </c>
     </row>
     <row r="28">
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.006993071511722859</v>
+        <v>-0.007008992728359709</v>
       </c>
       <c r="D28" t="n">
         <v>-0.008152086854083472</v>
@@ -3082,79 +3082,79 @@
         <v>0.001561438046457521</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0002037729681509187</v>
+        <v>0.0002038813521552541</v>
       </c>
       <c r="H28" t="n">
         <v>0.001382082199283288</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.007828105561124222</v>
+        <v>-0.007819993752799749</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009853224645716379</v>
+        <v>0.00880146617569005</v>
       </c>
       <c r="K28" t="n">
-        <v>0.001907634988305399</v>
+        <v>0.01404666766586671</v>
       </c>
       <c r="L28" t="n">
-        <v>0.001907634988305399</v>
+        <v>0.01404666766586671</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001907634988305399</v>
+        <v>0.01404666766586671</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001907634988305399</v>
+        <v>0.01404666766586671</v>
       </c>
       <c r="O28" t="n">
-        <v>0.001907634988305399</v>
+        <v>0.01404666766586671</v>
       </c>
       <c r="P28" t="n">
-        <v>0.001615352896614115</v>
+        <v>0.002977141655085665</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.003562341742493669</v>
+        <v>0.009542341149693646</v>
       </c>
       <c r="R28" t="n">
-        <v>0.003562341742493669</v>
+        <v>0.009542341149693646</v>
       </c>
       <c r="S28" t="n">
-        <v>0.003562341742493669</v>
+        <v>0.009542341149693646</v>
       </c>
       <c r="T28" t="n">
-        <v>0.003562341742493669</v>
+        <v>0.009542341149693646</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.004741650909666036</v>
+        <v>-0.004791684959667398</v>
       </c>
       <c r="V28" t="n">
         <v>-0.01035864579034583</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01207957661118306</v>
+        <v>0.01207927209917088</v>
       </c>
       <c r="X28" t="n">
-        <v>0.004745535357821414</v>
+        <v>0.00474211900568476</v>
       </c>
       <c r="Y28" t="n">
         <v>0.01080725457629018</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.001915044652601786</v>
+        <v>-0.001441282329651293</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.003794505847780233</v>
+        <v>0.0004809581952383278</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.003794505847780233</v>
+        <v>0.0004809581952383278</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.003794505847780233</v>
+        <v>0.0004809581952383278</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.003794505847780233</v>
+        <v>0.0004809581952383278</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.003794505847780233</v>
+        <v>0.0004809581952383278</v>
       </c>
     </row>
     <row r="29">
@@ -3169,7 +3169,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.009210923888436954</v>
+        <v>0.009217309136692364</v>
       </c>
       <c r="D29" t="n">
         <v>0.01661224492048979</v>
@@ -3181,79 +3181,79 @@
         <v>-0.02176001789440071</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02500894967235798</v>
+        <v>0.02500891636035665</v>
       </c>
       <c r="H29" t="n">
         <v>0.02448300213132008</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02611430677257227</v>
+        <v>0.02606282177851287</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.08442504808428578</v>
+        <v>-0.08420289294166006</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.003983923071356922</v>
+        <v>0.02220227196009087</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.003983923071356922</v>
+        <v>0.02220227196009087</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.003983923071356922</v>
+        <v>0.02220227196009087</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.003983923071356922</v>
+        <v>0.02220227196009087</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.003983923071356922</v>
+        <v>0.02220227196009087</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.02260037783201511</v>
+        <v>-0.01962733672109346</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.01874837316593492</v>
+        <v>-0.002892370483694819</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01874837316593492</v>
+        <v>-0.002892370483694819</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.01874837316593492</v>
+        <v>-0.002892370483694819</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.01874837316593492</v>
+        <v>-0.002892370483694819</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.01544812890592515</v>
+        <v>-0.01548121636324865</v>
       </c>
       <c r="V29" t="n">
         <v>0.01274973804598952</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1306126068885043</v>
+        <v>0.1306130205525208</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.03289818553992741</v>
+        <v>-0.03289998285199931</v>
       </c>
       <c r="Y29" t="n">
         <v>0.007299384579975382</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.01355772121430884</v>
+        <v>-0.01325905099436204</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.04425503389820135</v>
+        <v>0.03186129314645172</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.04425503389820135</v>
+        <v>0.03186129314645172</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.04425503389820135</v>
+        <v>0.03186129314645172</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.04425503389820135</v>
+        <v>0.03186129314645172</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.04425503389820135</v>
+        <v>0.03186129314645172</v>
       </c>
     </row>
     <row r="30">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005295288595811544</v>
+        <v>-0.005307454964298198</v>
       </c>
       <c r="D30" t="n">
         <v>-0.01542497485699899</v>
@@ -3280,79 +3280,79 @@
         <v>0.002351465662058626</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.001895791947831677</v>
+        <v>-0.001895809323832373</v>
       </c>
       <c r="H30" t="n">
         <v>-0.0007095833563833342</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01932901344516054</v>
+        <v>-0.01930139914005597</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01562003281917047</v>
+        <v>0.01577898449918286</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01236940523077621</v>
+        <v>0.02049292661171706</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01236940523077621</v>
+        <v>0.02049292661171706</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01236940523077621</v>
+        <v>0.02049292661171706</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01236940523077621</v>
+        <v>0.02049292661171706</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01236940523077621</v>
+        <v>0.02049292661171706</v>
       </c>
       <c r="P30" t="n">
-        <v>0.003094344987773799</v>
+        <v>0.004941311717652468</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.008977564295102571</v>
+        <v>0.01370144291605772</v>
       </c>
       <c r="R30" t="n">
-        <v>0.008977564295102571</v>
+        <v>0.01370144291605772</v>
       </c>
       <c r="S30" t="n">
-        <v>0.008977564295102571</v>
+        <v>0.01370144291605772</v>
       </c>
       <c r="T30" t="n">
-        <v>0.008977564295102571</v>
+        <v>0.01370144291605772</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02467647737105909</v>
+        <v>0.02470655906826236</v>
       </c>
       <c r="V30" t="n">
         <v>-0.0217936400717456</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01281354876854195</v>
+        <v>-0.01281493990459759</v>
       </c>
       <c r="X30" t="n">
-        <v>0.02996840366273614</v>
+        <v>0.02996553076662123</v>
       </c>
       <c r="Y30" t="n">
         <v>0.008859451746378068</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01331131205245248</v>
+        <v>0.01311404826856193</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.02019344432773777</v>
+        <v>-0.02559472460778898</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.02019344432773777</v>
+        <v>-0.02559472460778898</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.02019344432773777</v>
+        <v>-0.02559472460778898</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.02019344432773777</v>
+        <v>-0.02559472460778898</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.02019344432773777</v>
+        <v>-0.02559472460778898</v>
       </c>
     </row>
     <row r="31">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4973775108711004</v>
+        <v>0.4973303725652148</v>
       </c>
       <c r="D31" t="n">
         <v>-0.02025557121022284</v>
@@ -3379,79 +3379,79 @@
         <v>-0.9999571538542861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9915449942537996</v>
+        <v>0.9915449903177994</v>
       </c>
       <c r="H31" t="n">
         <v>0.986521855012874</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3790229966329198</v>
+        <v>0.3790263997370559</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.5043761605281928</v>
+        <v>-0.5044739135069023</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.79655625119025</v>
+        <v>-0.3014652584266103</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.79655625119025</v>
+        <v>-0.3014652584266103</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.79655625119025</v>
+        <v>-0.3014652584266103</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.79655625119025</v>
+        <v>-0.3014652584266103</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.79655625119025</v>
+        <v>-0.3014652584266103</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.9988880891715235</v>
+        <v>-0.994245954553838</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.9605882159275285</v>
+        <v>-0.808925152805006</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.9605882159275285</v>
+        <v>-0.808925152805006</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.9605882159275285</v>
+        <v>-0.808925152805006</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.9605882159275285</v>
+        <v>-0.808925152805006</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1280950321318013</v>
+        <v>-0.1281064438442577</v>
       </c>
       <c r="V31" t="n">
         <v>-0.005516132956645317</v>
       </c>
       <c r="W31" t="n">
-        <v>0.006118446580737862</v>
+        <v>0.006118873492754938</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.4121343537333741</v>
+        <v>-0.4121335171893407</v>
       </c>
       <c r="Y31" t="n">
         <v>0.004067990850719633</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.4864116549764661</v>
+        <v>-0.48640125232005</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5272385632015424</v>
+        <v>0.5065029048041161</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.5272385632015424</v>
+        <v>0.5065029048041161</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5272385632015424</v>
+        <v>0.5065029048041161</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.5272385632015424</v>
+        <v>0.5065029048041161</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.5272385632015424</v>
+        <v>0.5065029048041161</v>
       </c>
     </row>
     <row r="32">
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.003744595445783817</v>
+        <v>0.003748434101937363</v>
       </c>
       <c r="D32" t="n">
         <v>-0.01117334454293378</v>
@@ -3478,79 +3478,79 @@
         <v>-0.02709254642770185</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02444281086571243</v>
+        <v>0.02444242331369693</v>
       </c>
       <c r="H32" t="n">
         <v>0.02768605598744224</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001215286704611468</v>
+        <v>0.001222073712882948</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.002818072052036935</v>
+        <v>-0.002411816308756038</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.02421549792861992</v>
+        <v>-0.002058335602333424</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.02421549792861992</v>
+        <v>-0.002058335602333424</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.02421549792861992</v>
+        <v>-0.002058335602333424</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.02421549792861992</v>
+        <v>-0.002058335602333424</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.02421549792861992</v>
+        <v>-0.002058335602333424</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.02591999796479991</v>
+        <v>-0.02482273884890955</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.02795937471837498</v>
+        <v>-0.02088803718752149</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.02795937471837498</v>
+        <v>-0.02088803718752149</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.02795937471837498</v>
+        <v>-0.02088803718752149</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.02795937471837498</v>
+        <v>-0.02088803718752149</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.01254051957362078</v>
+        <v>-0.01253932053357282</v>
       </c>
       <c r="V32" t="n">
         <v>0.006739304237572169</v>
       </c>
       <c r="W32" t="n">
-        <v>0.00440712152028486</v>
+        <v>0.004407681200307247</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.001191004655640186</v>
+        <v>-0.001190355887614235</v>
       </c>
       <c r="Y32" t="n">
         <v>0.001241462737658509</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.007457047018281879</v>
+        <v>-0.007472142154885684</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.00323660825746433</v>
+        <v>0.001720714724828589</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.00323660825746433</v>
+        <v>0.001720714724828589</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.00323660825746433</v>
+        <v>0.001720714724828589</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.00323660825746433</v>
+        <v>0.001720714724828589</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.00323660825746433</v>
+        <v>0.001720714724828589</v>
       </c>
     </row>
     <row r="33">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03210589568423582</v>
+        <v>-0.03211283168451327</v>
       </c>
       <c r="D33" t="n">
         <v>-0.001813062024522481</v>
@@ -3577,79 +3577,79 @@
         <v>-0.02417522631100905</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02399404627176185</v>
+        <v>0.02399428684777147</v>
       </c>
       <c r="H33" t="n">
         <v>0.02335090048603602</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01468599073143963</v>
+        <v>0.01468776874751075</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0585770448599684</v>
+        <v>-0.0590261488498764</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0167171301086852</v>
+        <v>0.004146969381878775</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0167171301086852</v>
+        <v>0.004146969381878775</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0167171301086852</v>
+        <v>0.004146969381878775</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0167171301086852</v>
+        <v>0.004146969381878775</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0167171301086852</v>
+        <v>0.004146969381878775</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.02280676056027042</v>
+        <v>-0.02365378318615132</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.0106609376104375</v>
+        <v>-0.01162267659290706</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.0106609376104375</v>
+        <v>-0.01162267659290706</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.0106609376104375</v>
+        <v>-0.01162267659290706</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.0106609376104375</v>
+        <v>-0.01162267659290706</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.02320236582409463</v>
+        <v>-0.02318750454350018</v>
       </c>
       <c r="V33" t="n">
         <v>-0.01567911029116441</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02237992995119719</v>
+        <v>0.02238013942320557</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.01699915411996616</v>
+        <v>-0.01699841626393665</v>
       </c>
       <c r="Y33" t="n">
         <v>0.0006461822658472905</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.0201530024061201</v>
+        <v>-0.02027913306716532</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.03900982591239303</v>
+        <v>0.03353416050936642</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.03900982591239303</v>
+        <v>0.03353416050936642</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.03900982591239303</v>
+        <v>0.03353416050936642</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.03900982591239303</v>
+        <v>0.03353416050936642</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.03900982591239303</v>
+        <v>0.03353416050936642</v>
       </c>
     </row>
     <row r="34">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.002443638625745545</v>
+        <v>-0.002444554177782167</v>
       </c>
       <c r="D34" t="n">
         <v>0.01138237082329483</v>
@@ -3676,79 +3676,79 @@
         <v>0.004982926087317043</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.005139760429590416</v>
+        <v>-0.005139517453580697</v>
       </c>
       <c r="H34" t="n">
         <v>-0.0001791087431643497</v>
       </c>
       <c r="I34" t="n">
-        <v>0.006501060260042409</v>
+        <v>0.006530188389207534</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009344848224783471</v>
+        <v>0.009444458890551715</v>
       </c>
       <c r="K34" t="n">
-        <v>0.01041866768074671</v>
+        <v>0.9201883739915349</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01041866768074671</v>
+        <v>0.9201883739915349</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01041866768074671</v>
+        <v>0.9201883739915349</v>
       </c>
       <c r="N34" t="n">
-        <v>0.01041866768074671</v>
+        <v>0.9201883739915349</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01041866768074671</v>
+        <v>0.9201883739915349</v>
       </c>
       <c r="P34" t="n">
-        <v>0.005684744675389786</v>
+        <v>0.0976338853133554</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.008811348640453943</v>
+        <v>0.5299280937411237</v>
       </c>
       <c r="R34" t="n">
-        <v>0.008811348640453943</v>
+        <v>0.5299280937411237</v>
       </c>
       <c r="S34" t="n">
-        <v>0.008811348640453943</v>
+        <v>0.5299280937411237</v>
       </c>
       <c r="T34" t="n">
-        <v>0.008811348640453943</v>
+        <v>0.5299280937411237</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01096701413468056</v>
+        <v>0.01097320719092829</v>
       </c>
       <c r="V34" t="n">
         <v>-0.01936147488645899</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02621600322464012</v>
+        <v>0.02621589685663588</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02158349155133966</v>
+        <v>0.02158084377523375</v>
       </c>
       <c r="Y34" t="n">
         <v>0.03202135779285431</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.02210870411634816</v>
+        <v>0.02207927521917101</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.01730340702813628</v>
+        <v>-0.2769149887085995</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.01730340702813628</v>
+        <v>-0.2769149887085995</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.01730340702813628</v>
+        <v>-0.2769149887085995</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.01730340702813628</v>
+        <v>-0.2769149887085995</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.01730340702813628</v>
+        <v>-0.2769149887085995</v>
       </c>
     </row>
     <row r="35">
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02273296218931848</v>
+        <v>0.02273426231737049</v>
       </c>
       <c r="D35" t="n">
         <v>0.02218259157530366</v>
@@ -3775,79 +3775,79 @@
         <v>-0.01147808061912322</v>
       </c>
       <c r="G35" t="n">
-        <v>0.009363640406545616</v>
+        <v>0.009363490550539621</v>
       </c>
       <c r="H35" t="n">
         <v>0.009095099403803975</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01784609543384381</v>
+        <v>0.01784798068191923</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.02032061219672153</v>
+        <v>-0.0200613293500821</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01304908544996342</v>
+        <v>-0.003154868478194739</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01304908544996342</v>
+        <v>-0.003154868478194739</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.01304908544996342</v>
+        <v>-0.003154868478194739</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.01304908544996342</v>
+        <v>-0.003154868478194739</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.01304908544996342</v>
+        <v>-0.003154868478194739</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.01095659947826398</v>
+        <v>-0.01044453968178159</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01426838351473534</v>
+        <v>-0.01094251790970071</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01426838351473534</v>
+        <v>-0.01094251790970071</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.01426838351473534</v>
+        <v>-0.01094251790970071</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.01426838351473534</v>
+        <v>-0.01094251790970071</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.01683305174532207</v>
+        <v>-0.01684139107365564</v>
       </c>
       <c r="V35" t="n">
         <v>0.01693082122123285</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.004210715112428604</v>
+        <v>-0.004210911432436457</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.02909041988361679</v>
+        <v>-0.02909373821974953</v>
       </c>
       <c r="Y35" t="n">
         <v>-0.005420779992831199</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.02808919437156777</v>
+        <v>-0.02806639533065581</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.024913400004536</v>
+        <v>0.02310082124403285</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.024913400004536</v>
+        <v>0.02310082124403285</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.024913400004536</v>
+        <v>0.02310082124403285</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.024913400004536</v>
+        <v>0.02310082124403285</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.024913400004536</v>
+        <v>0.02310082124403285</v>
       </c>
     </row>
     <row r="36">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04354365582174623</v>
+        <v>0.04352945934117837</v>
       </c>
       <c r="D36" t="n">
         <v>-0.002515635364625415</v>
@@ -3874,79 +3874,79 @@
         <v>-0.03067577633103105</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03049929865997194</v>
+        <v>0.03049941894797675</v>
       </c>
       <c r="H36" t="n">
         <v>0.02943817711352708</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00835192353407694</v>
+        <v>0.008361885166475406</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01926560527328056</v>
+        <v>-0.0194495213245232</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2476104161444166</v>
+        <v>0.07459743053589721</v>
       </c>
       <c r="L36" t="n">
-        <v>0.2476104161444166</v>
+        <v>0.07459743053589721</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2476104161444166</v>
+        <v>0.07459743053589721</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2476104161444166</v>
+        <v>0.07459743053589721</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2476104161444166</v>
+        <v>0.07459743053589721</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01955149537405981</v>
+        <v>-0.02183987156159486</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.05071372772454911</v>
+        <v>0.02359831409593256</v>
       </c>
       <c r="R36" t="n">
-        <v>0.05071372772454911</v>
+        <v>0.02359831409593256</v>
       </c>
       <c r="S36" t="n">
-        <v>0.05071372772454911</v>
+        <v>0.02359831409593256</v>
       </c>
       <c r="T36" t="n">
-        <v>0.05071372772454911</v>
+        <v>0.02359831409593256</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007239642721585707</v>
+        <v>0.00727767177910687</v>
       </c>
       <c r="V36" t="n">
         <v>-0.0008818497952739917</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.02650916477236659</v>
+        <v>-0.02650900416436016</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.006300162396006495</v>
+        <v>-0.006303913308156532</v>
       </c>
       <c r="Y36" t="n">
         <v>0.002575499815019992</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01464210682568427</v>
+        <v>-0.01497865979914639</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.1349936177517447</v>
+        <v>0.1232792794911712</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.1349936177517447</v>
+        <v>0.1232792794911712</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.1349936177517447</v>
+        <v>0.1232792794911712</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.1349936177517447</v>
+        <v>0.1232792794911712</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.1349936177517447</v>
+        <v>0.1232792794911712</v>
       </c>
     </row>
     <row r="37">
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0128545901141836</v>
+        <v>0.01284706332988253</v>
       </c>
       <c r="D37" t="n">
         <v>-0.01464582970583318</v>
@@ -3973,79 +3973,79 @@
         <v>-0.01999151897566076</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02122357851294314</v>
+        <v>0.02122339649693586</v>
       </c>
       <c r="H37" t="n">
         <v>0.02265021402600856</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.001623945568957823</v>
+        <v>-0.001597213407888536</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.004710341617953026</v>
+        <v>-0.003734189915999518</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.001689639043585562</v>
+        <v>-0.01505527567421103</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.001689639043585562</v>
+        <v>-0.01505527567421103</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.001689639043585562</v>
+        <v>-0.01505527567421103</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.001689639043585562</v>
+        <v>-0.01505527567421103</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.001689639043585562</v>
+        <v>-0.01505527567421103</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.01984733205789328</v>
+        <v>-0.02132136037285441</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01386722321068893</v>
+        <v>-0.02145098370603934</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.01386722321068893</v>
+        <v>-0.02145098370603934</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.01386722321068893</v>
+        <v>-0.02145098370603934</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.01386722321068893</v>
+        <v>-0.02145098370603934</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.02047925390717015</v>
+        <v>-0.02045462453018498</v>
       </c>
       <c r="V37" t="n">
         <v>-0.01445076163403046</v>
       </c>
       <c r="W37" t="n">
-        <v>0.009300339540013582</v>
+        <v>0.009301338132053524</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.003962256542490261</v>
+        <v>-0.003955690910227636</v>
       </c>
       <c r="Y37" t="n">
         <v>0.01697723290308931</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.01338772863150914</v>
+        <v>-0.01352238054089522</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.009854064970162599</v>
+        <v>0.01346501938660078</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.009854064970162599</v>
+        <v>0.01346501938660078</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.009854064970162599</v>
+        <v>0.01346501938660078</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.009854064970162599</v>
+        <v>0.01346501938660078</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.009854064970162599</v>
+        <v>0.01346501938660078</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,91 +734,91 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1304925126117005</v>
+        <v>-0.117411775576471</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.006983176887327074</v>
+        <v>0.002440304641612186</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1402829223793169</v>
+        <v>-0.1447466148778646</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0009319498932779957</v>
+        <v>0.007201860096074403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04040429384017175</v>
+        <v>0.03226269143450765</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1569397492215899</v>
+        <v>0.1464456463698258</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02515442241417689</v>
+        <v>0.02962982144119285</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3572328694997604</v>
+        <v>0.3664371487851554</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2027413483656539</v>
+        <v>0.3331667119506684</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2027413483656539</v>
+        <v>0.3331667119506684</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2027413483656539</v>
+        <v>0.3331667119506684</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2027413483656539</v>
+        <v>0.3331667119506684</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2027413483656539</v>
+        <v>0.3331667119506684</v>
       </c>
       <c r="P4" t="n">
-        <v>0.008892453283698131</v>
+        <v>0.01385950423438017</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1849573781822951</v>
+        <v>0.2349632413345296</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1849573781822951</v>
+        <v>0.2349632413345296</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1849573781822951</v>
+        <v>0.2349632413345296</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1849573781822951</v>
+        <v>0.2349632413345296</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.07926304195452168</v>
+        <v>-0.1026587771303511</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.6985461087418442</v>
+        <v>-0.6947723303508931</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.001453123162124926</v>
+        <v>0.001696016035840641</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2043617816784712</v>
+        <v>0.1782153804726152</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9980752059710081</v>
+        <v>0.9980736932029476</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1334010568880423</v>
+        <v>0.1133983290479331</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02386641666665666</v>
+        <v>0.07635104302204171</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02386641666665666</v>
+        <v>0.07635104302204171</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.02386641666665666</v>
+        <v>0.07635104302204171</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02386641666665666</v>
+        <v>0.07635104302204171</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02386641666665666</v>
+        <v>0.07635104302204171</v>
       </c>
     </row>
     <row r="5">
@@ -829,91 +829,91 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08750749415629976</v>
+        <v>0.06617757317510292</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0005059528522381141</v>
+        <v>-0.01886649176265967</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1241312015732481</v>
+        <v>0.1181464551578582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007442291337691653</v>
+        <v>0.01068294407531776</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09275319087812761</v>
+        <v>-0.09689268809970751</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.007557608750304349</v>
+        <v>-0.008679857435194298</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03149860167594406</v>
+        <v>-0.05328823393952935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01476774877693747</v>
+        <v>0.007355635312817527</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.05427416290696651</v>
+        <v>-0.110275626043025</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.05427416290696651</v>
+        <v>-0.110275626043025</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.05427416290696651</v>
+        <v>-0.110275626043025</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.05427416290696651</v>
+        <v>-0.110275626043025</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.05427416290696651</v>
+        <v>-0.110275626043025</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0309628374625135</v>
+        <v>0.03487319467492778</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.09038812470352499</v>
+        <v>-0.005952322126092884</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.09038812470352499</v>
+        <v>-0.005952322126092884</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.09038812470352499</v>
+        <v>-0.005952322126092884</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.09038812470352499</v>
+        <v>-0.005952322126092884</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08791041874841674</v>
+        <v>0.1040952692518108</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6494536938821477</v>
+        <v>0.6421477866779114</v>
       </c>
       <c r="W5" t="n">
-        <v>0.00309863426794537</v>
+        <v>0.01549613149984526</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1488094079043763</v>
+        <v>-0.1400922642596905</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.0003607808784312351</v>
+        <v>0.0124590124983605</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.08903257440930297</v>
+        <v>-0.0801561950782478</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.06878231603129263</v>
+        <v>-0.07915869878234794</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.06878231603129263</v>
+        <v>-0.07915869878234794</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.06878231603129263</v>
+        <v>-0.07915869878234794</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.06878231603129263</v>
+        <v>-0.07915869878234794</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.06878231603129263</v>
+        <v>-0.07915869878234794</v>
       </c>
     </row>
     <row r="6">
@@ -924,91 +924,91 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2096535558101422</v>
+        <v>0.2159320491812819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9579628848145153</v>
+        <v>0.9579101443324056</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02040103579204143</v>
+        <v>-0.02501624922464996</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02074190137367605</v>
+        <v>0.02441125124845005</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.004640835353633414</v>
+        <v>-0.005419568568782742</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0210553376422135</v>
+        <v>-0.02321033171241326</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9105359745014389</v>
+        <v>0.9106769908270795</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1792069637265501</v>
+        <v>-0.1559614125910409</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0004290222891608915</v>
+        <v>-0.0211006525240261</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0004290222891608915</v>
+        <v>-0.0211006525240261</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004290222891608915</v>
+        <v>-0.0211006525240261</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0004290222891608915</v>
+        <v>-0.0211006525240261</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0004290222891608915</v>
+        <v>-0.0211006525240261</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01328820725152829</v>
+        <v>0.0136840624993625</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01481230340849213</v>
+        <v>-0.02295262527010501</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01481230340849213</v>
+        <v>-0.02295262527010501</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01481230340849213</v>
+        <v>-0.02295262527010501</v>
       </c>
       <c r="T6" t="n">
-        <v>0.01481230340849213</v>
+        <v>-0.02295262527010501</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0008974494118979764</v>
+        <v>-0.02196560401462416</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0006903616596144663</v>
+        <v>-0.01423349394533976</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02499272874370915</v>
+        <v>0.01112279775691191</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.02990856330834253</v>
+        <v>-0.04576994736679789</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.00930846901233876</v>
+        <v>-0.0005150965646038625</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3009131431085257</v>
+        <v>0.2939167375166695</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04603405950536237</v>
+        <v>0.07262543608901743</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04603405950536237</v>
+        <v>0.07262543608901743</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04603405950536237</v>
+        <v>0.07262543608901743</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.04603405950536237</v>
+        <v>0.07262543608901743</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.04603405950536237</v>
+        <v>0.07262543608901743</v>
       </c>
     </row>
     <row r="7">
@@ -1023,91 +1023,91 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4742883386515335</v>
+        <v>0.4475290304131612</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001493300027732001</v>
+        <v>0.02428762417150496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02747920497116819</v>
+        <v>-0.003784808311392332</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02376722984668919</v>
+        <v>0.002509347940373917</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0253171176526847</v>
+        <v>-0.0003439651337586053</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02089995155599806</v>
+        <v>-0.001843476649739066</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01536951143078046</v>
+        <v>0.0207518474540739</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01647793139238206</v>
+        <v>-0.01884492418893366</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02894841283793652</v>
+        <v>0.0112230924169237</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02894841283793652</v>
+        <v>0.0112230924169237</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02894841283793652</v>
+        <v>0.0112230924169237</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02894841283793652</v>
+        <v>0.0112230924169237</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02894841283793652</v>
+        <v>0.0112230924169237</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.02596660078266403</v>
+        <v>0.001761852358474094</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.03394260606170424</v>
+        <v>0.00906024477840979</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.03394260606170424</v>
+        <v>0.00906024477840979</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.03394260606170424</v>
+        <v>0.00906024477840979</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.03394260606170424</v>
+        <v>0.00906024477840979</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.5644336490093459</v>
+        <v>-0.5795931418077256</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02024035818561432</v>
+        <v>-0.001597375551895022</v>
       </c>
       <c r="W7" t="n">
-        <v>0.009487690843507634</v>
+        <v>-0.003583922639356905</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.03418148114325924</v>
+        <v>-0.01594087830163513</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.02165144957005798</v>
+        <v>0.00114104874964195</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02384080828163233</v>
+        <v>0.001969188558767542</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0369078176043127</v>
+        <v>0.01647301275492051</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0369078176043127</v>
+        <v>0.01647301275492051</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0369078176043127</v>
+        <v>0.01647301275492051</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0369078176043127</v>
+        <v>0.01647301275492051</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0369078176043127</v>
+        <v>0.01647301275492051</v>
       </c>
     </row>
     <row r="8">
@@ -1122,91 +1122,91 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5190148800245951</v>
+        <v>0.5214147662645906</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.009443602841744113</v>
+        <v>-0.01683367161734686</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01340563916022556</v>
+        <v>0.006706015084240603</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01173461288538451</v>
+        <v>-0.001371344406853776</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009965773166630923</v>
+        <v>-0.0001764944710597788</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009729175493167019</v>
+        <v>-0.00197617851104714</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.008744475421779016</v>
+        <v>-0.01151981086079243</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.006548917185587564</v>
+        <v>-0.02147596965796418</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.002795285199811408</v>
+        <v>-0.01364507459380298</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.002795285199811408</v>
+        <v>-0.01364507459380298</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.002795285199811408</v>
+        <v>-0.01364507459380298</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.002795285199811408</v>
+        <v>-0.01364507459380298</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.002795285199811408</v>
+        <v>-0.01364507459380298</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0106110125204405</v>
+        <v>-0.001626225473049019</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.008121920196876806</v>
+        <v>-0.00876095833443833</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.008121920196876806</v>
+        <v>-0.00876095833443833</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.008121920196876806</v>
+        <v>-0.00876095833443833</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.008121920196876806</v>
+        <v>-0.00876095833443833</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6565761310630452</v>
+        <v>0.6564366976814677</v>
       </c>
       <c r="V8" t="n">
-        <v>0.003534986061399442</v>
+        <v>0.02097320234292809</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.01466622212264888</v>
+        <v>0.001454624314184972</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02235018579000743</v>
+        <v>-0.01439084822363393</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.0137138349805534</v>
+        <v>-0.02242444102497764</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01948847578753903</v>
+        <v>-0.01537462141498486</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.01920860880034435</v>
+        <v>0.009856164106246562</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.01920860880034435</v>
+        <v>0.009856164106246562</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.01920860880034435</v>
+        <v>0.009856164106246562</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.01920860880034435</v>
+        <v>0.009856164106246562</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.01920860880034435</v>
+        <v>0.009856164106246562</v>
       </c>
     </row>
     <row r="9">
@@ -1221,91 +1221,91 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01880188299207532</v>
+        <v>0.006069559346782374</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02935640968625638</v>
+        <v>0.01662563970502559</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01148571290742851</v>
+        <v>-0.007657822962312918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01226541207461648</v>
+        <v>0.007594412559776501</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.008857972674318907</v>
+        <v>-0.007157941342317653</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.009739886885595473</v>
+        <v>-0.006328166365126654</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02187622369104894</v>
+        <v>0.01565781451431258</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0001769353033916493</v>
+        <v>0.01578569297415911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009728747237149888</v>
+        <v>-0.006782909647316386</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009728747237149888</v>
+        <v>-0.006782909647316386</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009728747237149888</v>
+        <v>-0.006782909647316386</v>
       </c>
       <c r="N9" t="n">
-        <v>0.009728747237149888</v>
+        <v>-0.006782909647316386</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009728747237149888</v>
+        <v>-0.006782909647316386</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01226659431466377</v>
+        <v>0.006443405729736228</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01270564927622597</v>
+        <v>-0.004307367340294693</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01270564927622597</v>
+        <v>-0.004307367340294693</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01270564927622597</v>
+        <v>-0.004307367340294693</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01270564927622597</v>
+        <v>-0.004307367340294693</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001513283292531331</v>
+        <v>0.01896404850256194</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01008248142729926</v>
+        <v>0.008628550617142024</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.01503888655355546</v>
+        <v>-0.00430811201232448</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.0033043375081735</v>
+        <v>0.02342121424884857</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0114918274356731</v>
+        <v>0.001866023306640932</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.008479006131160243</v>
+        <v>0.01704451796178072</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.002657999626319985</v>
+        <v>-0.01112496486099859</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.002657999626319985</v>
+        <v>-0.01112496486099859</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.002657999626319985</v>
+        <v>-0.01112496486099859</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.002657999626319985</v>
+        <v>-0.01112496486099859</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.002657999626319985</v>
+        <v>-0.01112496486099859</v>
       </c>
     </row>
     <row r="10">
@@ -1320,91 +1320,91 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.06793405250936209</v>
+        <v>0.09287223942688956</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0009429528377181134</v>
+        <v>-0.00196987025479481</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007941789245671568</v>
+        <v>-0.007382638855305552</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.00899081901563276</v>
+        <v>0.01371976038879041</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008694158939766357</v>
+        <v>-0.01591508550060342</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009487848667513945</v>
+        <v>-0.01564167787366711</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003493966123758645</v>
+        <v>-0.003776089207043568</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.005406378465856867</v>
+        <v>-0.02270076334071963</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01590507298820292</v>
+        <v>0.002503632388145295</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01590507298820292</v>
+        <v>0.002503632388145295</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.01590507298820292</v>
+        <v>0.002503632388145295</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.01590507298820292</v>
+        <v>0.002503632388145295</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.01590507298820292</v>
+        <v>0.002503632388145295</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.01003837844953514</v>
+        <v>0.01427705529108221</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0156722350588894</v>
+        <v>0.007417001480680059</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0156722350588894</v>
+        <v>0.007417001480680059</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0156722350588894</v>
+        <v>0.007417001480680059</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.0156722350588894</v>
+        <v>0.007417001480680059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06496334122253364</v>
+        <v>0.08005251133010045</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.005573894910955795</v>
+        <v>0.03381340935253636</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.002946754677870186</v>
+        <v>-0.005880048331201933</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01390463652418546</v>
+        <v>-0.01899172664766906</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.005369976598799063</v>
+        <v>-0.01899747637589905</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.005986437935457517</v>
+        <v>-0.009268010194720407</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.008231081033243239</v>
+        <v>0.002107752948310118</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.008231081033243239</v>
+        <v>0.002107752948310118</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.008231081033243239</v>
+        <v>0.002107752948310118</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.008231081033243239</v>
+        <v>0.002107752948310118</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.008231081033243239</v>
+        <v>0.002107752948310118</v>
       </c>
     </row>
     <row r="11">
@@ -1415,91 +1415,91 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1556083294883332</v>
+        <v>0.1352616688664668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2739322870212915</v>
+        <v>0.2654456043458241</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.002366894974675799</v>
+        <v>-0.00290625275625011</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00115258574210343</v>
+        <v>-0.002379306431172257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003232147905285916</v>
+        <v>0.00419724477588979</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004981172359246894</v>
+        <v>0.006245798361831933</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.004123338980933559</v>
+        <v>-0.008754655550186221</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01109784617562362</v>
+        <v>0.01159473955248601</v>
       </c>
       <c r="K11" t="n">
-        <v>0.00612064680482587</v>
+        <v>0.0005475117339004692</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00612064680482587</v>
+        <v>0.0005475117339004692</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00612064680482587</v>
+        <v>0.0005475117339004692</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00612064680482587</v>
+        <v>0.0005475117339004692</v>
       </c>
       <c r="O11" t="n">
-        <v>0.00612064680482587</v>
+        <v>0.0005475117339004692</v>
       </c>
       <c r="P11" t="n">
-        <v>3.765436950617478e-05</v>
+        <v>-0.002719709292788371</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.003635796049431841</v>
+        <v>-0.003676564371062575</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003635796049431841</v>
+        <v>-0.003676564371062575</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003635796049431841</v>
+        <v>-0.003676564371062575</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003635796049431841</v>
+        <v>-0.003676564371062575</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0358190426807617</v>
+        <v>-0.0007191935327677412</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01363826444953058</v>
+        <v>-0.01903824066552963</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.002544678437787137</v>
+        <v>-0.00243140649725626</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01148722682748907</v>
+        <v>0.004653363930134557</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0004630551545222061</v>
+        <v>0.01424953237798129</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01113628134145125</v>
+        <v>-0.004502526996101079</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.00732070176482807</v>
+        <v>0.003543338061733522</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.00732070176482807</v>
+        <v>0.003543338061733522</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.00732070176482807</v>
+        <v>0.003543338061733522</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.00732070176482807</v>
+        <v>0.003543338061733522</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.00732070176482807</v>
+        <v>0.003543338061733522</v>
       </c>
     </row>
     <row r="12">
@@ -1510,91 +1510,91 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2779589221263568</v>
+        <v>-0.3012623281464931</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00596510827060433</v>
+        <v>0.0006189252727570108</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002925265557010622</v>
+        <v>-0.004991878183675127</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.002427315457092618</v>
+        <v>0.006878762195150486</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001075671691026868</v>
+        <v>-0.006614494728579789</v>
       </c>
       <c r="H12" t="n">
-        <v>0.003546004461840178</v>
+        <v>-0.007512838956513557</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006736576301463051</v>
+        <v>-0.004665603162624126</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.007020700085296766</v>
+        <v>0.01149502622035389</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.02114070775762831</v>
+        <v>0.01127275197091008</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.02114070775762831</v>
+        <v>0.01127275197091008</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.02114070775762831</v>
+        <v>0.01127275197091008</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02114070775762831</v>
+        <v>0.01127275197091008</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.02114070775762831</v>
+        <v>0.01127275197091008</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.004170422662816906</v>
+        <v>0.007157811550312461</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.01587752645910106</v>
+        <v>0.01235616433424657</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.01587752645910106</v>
+        <v>0.01235616433424657</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.01587752645910106</v>
+        <v>0.01235616433424657</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.01587752645910106</v>
+        <v>0.01235616433424657</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.04391862482874499</v>
+        <v>-0.05975524405420975</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002068597522743901</v>
+        <v>0.01035360780614431</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01060585914423436</v>
+        <v>-0.002337832989513319</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.02172307939692317</v>
+        <v>0.005261246802449872</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01261590818463632</v>
+        <v>-0.006810371216414848</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.01964870804994832</v>
+        <v>0.005641588545663542</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01988845807553832</v>
+        <v>-0.009472420890896834</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01988845807553832</v>
+        <v>-0.009472420890896834</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01988845807553832</v>
+        <v>-0.009472420890896834</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01988845807553832</v>
+        <v>-0.009472420890896834</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01988845807553832</v>
+        <v>-0.009472420890896834</v>
       </c>
     </row>
     <row r="13">
@@ -1609,91 +1609,91 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03299340784773631</v>
+        <v>-0.005393219351728773</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008566614198664566</v>
+        <v>-0.01166114235444569</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001134203565368142</v>
+        <v>-0.007661127378445094</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0004245209449808377</v>
+        <v>0.005477021691080866</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002881691635267665</v>
+        <v>-0.004585692663427706</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0003968549918741996</v>
+        <v>-0.00409932726797309</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01186119340244773</v>
+        <v>-0.01209705792388232</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.006385798202773106</v>
+        <v>0.01326178686956845</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01443265804930632</v>
+        <v>0.004853342114133683</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01443265804930632</v>
+        <v>0.004853342114133683</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01443265804930632</v>
+        <v>0.004853342114133683</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01443265804930632</v>
+        <v>0.004853342114133683</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01443265804930632</v>
+        <v>0.004853342114133683</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001869413162776527</v>
+        <v>0.005242673969706958</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.005577475711099028</v>
+        <v>0.003670531346821253</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005577475711099028</v>
+        <v>0.003670531346821253</v>
       </c>
       <c r="S13" t="n">
-        <v>0.005577475711099028</v>
+        <v>0.003670531346821253</v>
       </c>
       <c r="T13" t="n">
-        <v>0.005577475711099028</v>
+        <v>0.003670531346821253</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03523513264140531</v>
+        <v>0.02433767482950699</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01221857194474288</v>
+        <v>-0.008300752844030113</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.01560367214414688</v>
+        <v>0.008450043890001754</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01045741328229653</v>
+        <v>0.02183964576958583</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.0003000131640005266</v>
+        <v>0.002480621667224866</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01375589776623591</v>
+        <v>0.01712218695688748</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.01572666302906652</v>
+        <v>-0.02148924037956961</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.01572666302906652</v>
+        <v>-0.02148924037956961</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.01572666302906652</v>
+        <v>-0.02148924037956961</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.01572666302906652</v>
+        <v>-0.02148924037956961</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.01572666302906652</v>
+        <v>-0.02148924037956961</v>
       </c>
     </row>
     <row r="14">
@@ -1708,91 +1708,91 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02977057559082302</v>
+        <v>-0.02214849150993966</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.007119685916787436</v>
+        <v>-0.0008059194562367781</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007946968829878753</v>
+        <v>-0.002935915317436612</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.009246409425856375</v>
+        <v>0.003408293896331756</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008410101744404068</v>
+        <v>-0.0039779625271185</v>
       </c>
       <c r="H14" t="n">
-        <v>0.009368558390742335</v>
+        <v>-0.002498331747933269</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.001428941817157672</v>
+        <v>-0.004756365790254631</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.008813954048211744</v>
+        <v>-0.0185623939692256</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01652877714115108</v>
+        <v>0.004133503173340126</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01652877714115108</v>
+        <v>0.004133503173340126</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01652877714115108</v>
+        <v>0.004133503173340126</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01652877714115108</v>
+        <v>0.004133503173340126</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.01652877714115108</v>
+        <v>0.004133503173340126</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.01072841073313643</v>
+        <v>0.003779827927193116</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01452362534894501</v>
+        <v>0.004511982228479289</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.01452362534894501</v>
+        <v>0.004511982228479289</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.01452362534894501</v>
+        <v>0.004511982228479289</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01452362534894501</v>
+        <v>0.004511982228479289</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.03758924924756997</v>
+        <v>-0.05622993690519747</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.01023091903323676</v>
+        <v>-0.001013062792522511</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0009165371886614874</v>
+        <v>-0.007892669307706773</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.01038141353525654</v>
+        <v>-0.01705734615429385</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.01157249959889998</v>
+        <v>0.006229156377166254</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.006703059436122376</v>
+        <v>-0.001907085100283404</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01856160976646439</v>
+        <v>0.01602777184111087</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01856160976646439</v>
+        <v>0.01602777184111087</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01856160976646439</v>
+        <v>0.01602777184111087</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01856160976646439</v>
+        <v>0.01602777184111087</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01856160976646439</v>
+        <v>0.01602777184111087</v>
       </c>
     </row>
     <row r="15">
@@ -1807,91 +1807,91 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.001993553935742157</v>
+        <v>0.004809214176368566</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01063130442525218</v>
+        <v>-0.009508359644334384</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0158310577532423</v>
+        <v>0.01252308808492352</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01749456079578243</v>
+        <v>-0.01487274213090968</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01710964167638566</v>
+        <v>0.01262217554488702</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01783614973744599</v>
+        <v>0.01677649641505985</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.001189527887581115</v>
+        <v>-0.002159465942378637</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01314648568520759</v>
+        <v>-0.01511432371433757</v>
       </c>
       <c r="K15" t="n">
-        <v>0.004767438910697555</v>
+        <v>-0.01035048838201953</v>
       </c>
       <c r="L15" t="n">
-        <v>0.004767438910697555</v>
+        <v>-0.01035048838201953</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004767438910697555</v>
+        <v>-0.01035048838201953</v>
       </c>
       <c r="N15" t="n">
-        <v>0.004767438910697555</v>
+        <v>-0.01035048838201953</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004767438910697555</v>
+        <v>-0.01035048838201953</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01573280530131221</v>
+        <v>-0.01397911620716465</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.006562304230492168</v>
+        <v>-0.01094082898163316</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.006562304230492168</v>
+        <v>-0.01094082898163316</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.006562304230492168</v>
+        <v>-0.01094082898163316</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.006562304230492168</v>
+        <v>-0.01094082898163316</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02572778128511125</v>
+        <v>0.02482554675302187</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.001893033675721347</v>
+        <v>-0.01214515219780609</v>
       </c>
       <c r="W15" t="n">
-        <v>0.008792232351689291</v>
+        <v>-0.01931393270855731</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.01471183057247322</v>
+        <v>0.01561038340841533</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.007909432060377282</v>
+        <v>0.0208857950114318</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.01205289936211597</v>
+        <v>0.001812212520488501</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0114661474346459</v>
+        <v>-0.00782193228087729</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0114661474346459</v>
+        <v>-0.00782193228087729</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.0114661474346459</v>
+        <v>-0.00782193228087729</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.0114661474346459</v>
+        <v>-0.00782193228087729</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.0114661474346459</v>
+        <v>-0.00782193228087729</v>
       </c>
     </row>
     <row r="16">
@@ -1906,91 +1906,91 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.003751480662059226</v>
+        <v>0.005411202360448094</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01187364479494579</v>
+        <v>0.001442512665700506</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002467578242703129</v>
+        <v>-0.003754568406182736</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.008066034850641394</v>
+        <v>0.004596049911841996</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01208666582746663</v>
+        <v>-0.00555531103821244</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009797464039898561</v>
+        <v>-0.00335993024639721</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01324164043366562</v>
+        <v>-0.003277478531099141</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.001244007219969645</v>
+        <v>0.009436542823050334</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0002724042348961693</v>
+        <v>0.01190695583627823</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0002724042348961693</v>
+        <v>0.01190695583627823</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0002724042348961693</v>
+        <v>0.01190695583627823</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0002724042348961693</v>
+        <v>0.01190695583627823</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0002724042348961693</v>
+        <v>0.01190695583627823</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.00915008475000339</v>
+        <v>0.005346376533855061</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.001715382404615296</v>
+        <v>0.01257898821515953</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.001715382404615296</v>
+        <v>0.01257898821515953</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.001715382404615296</v>
+        <v>0.01257898821515953</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.001715382404615296</v>
+        <v>0.01257898821515953</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.04008503200340128</v>
+        <v>-0.002231229401249176</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.02933400414936016</v>
+        <v>0.00423182301727292</v>
       </c>
       <c r="W16" t="n">
-        <v>0.006826271313050853</v>
+        <v>0.002111381460455258</v>
       </c>
       <c r="X16" t="n">
-        <v>0.001271202098848084</v>
+        <v>0.01081280961651238</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.007160440990417639</v>
+        <v>0.0009591608063664322</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.0005380143575205742</v>
+        <v>-0.001940112845604514</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.007876128603045143</v>
+        <v>-0.01623085120923405</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.007876128603045143</v>
+        <v>-0.01623085120923405</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.007876128603045143</v>
+        <v>-0.01623085120923405</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.007876128603045143</v>
+        <v>-0.01623085120923405</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.007876128603045143</v>
+        <v>-0.01623085120923405</v>
       </c>
     </row>
     <row r="17">
@@ -2001,91 +2001,91 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01555436443017457</v>
+        <v>-0.00559300678372027</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.006570467302818691</v>
+        <v>0.02845959675438387</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01557672407906896</v>
+        <v>-0.02913028302121132</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01776617226264689</v>
+        <v>0.03075380283015211</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01985266447410658</v>
+        <v>-0.03016047451841897</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0160214951688598</v>
+        <v>-0.03103155349726213</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005729134309165371</v>
+        <v>0.01339220232768809</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01432904915861036</v>
+        <v>0.01732695057402883</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.007162327102493084</v>
+        <v>0.02840005889600235</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.007162327102493084</v>
+        <v>0.02840005889600235</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.007162327102493084</v>
+        <v>0.02840005889600235</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.007162327102493084</v>
+        <v>0.02840005889600235</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.007162327102493084</v>
+        <v>0.02840005889600235</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.01941493460059738</v>
+        <v>0.03078168075126722</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.01582453560898142</v>
+        <v>0.02987557060302282</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.01582453560898142</v>
+        <v>0.02987557060302282</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.01582453560898142</v>
+        <v>0.02987557060302282</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.01582453560898142</v>
+        <v>0.02987557060302282</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.007366160838646432</v>
+        <v>-0.006366132350645293</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.007322720740908829</v>
+        <v>-0.000632004601280184</v>
       </c>
       <c r="W17" t="n">
-        <v>0.008387909039516361</v>
+        <v>-9.372288374891532e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.01393448446137938</v>
+        <v>0.01512565375702615</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.003868931290757251</v>
+        <v>-0.001344441173777647</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.01553385700535428</v>
+        <v>0.02865799036231961</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01765530953821238</v>
+        <v>-0.02182827495313099</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01765530953821238</v>
+        <v>-0.02182827495313099</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.01765530953821238</v>
+        <v>-0.02182827495313099</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.01765530953821238</v>
+        <v>-0.02182827495313099</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01765530953821238</v>
+        <v>-0.02182827495313099</v>
       </c>
     </row>
     <row r="18">
@@ -2100,91 +2100,91 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.0158852399634096</v>
+        <v>0.005314631444585257</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.004741255389650215</v>
+        <v>0.004848441889937675</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.007663817970552718</v>
+        <v>-0.01593735318149413</v>
       </c>
       <c r="F18" t="n">
-        <v>0.004004380288175211</v>
+        <v>0.01737057851882314</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.004039330337573213</v>
+        <v>-0.01854850902994036</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.005595411967816478</v>
+        <v>-0.01743965858558634</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.00768793105951724</v>
+        <v>-0.002799289167971567</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01946044996497976</v>
+        <v>-0.002941030729876313</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01456531911061276</v>
+        <v>0.02331470954058838</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01456531911061276</v>
+        <v>0.02331470954058838</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01456531911061276</v>
+        <v>0.02331470954058838</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01456531911061276</v>
+        <v>0.02331470954058838</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01456531911061276</v>
+        <v>0.02331470954058838</v>
       </c>
       <c r="P18" t="n">
-        <v>0.004953342822133712</v>
+        <v>0.01833404943736197</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01196315385452615</v>
+        <v>0.02557580665503226</v>
       </c>
       <c r="R18" t="n">
-        <v>0.01196315385452615</v>
+        <v>0.02557580665503226</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01196315385452615</v>
+        <v>0.02557580665503226</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01196315385452615</v>
+        <v>0.02557580665503226</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01741933384877335</v>
+        <v>0.002117515572700623</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.01004119902564796</v>
+        <v>0.009961109294444369</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01744644933785797</v>
+        <v>-0.008230252649210104</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01407165176286607</v>
+        <v>0.01830093702003748</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.004277911275116451</v>
+        <v>0.001023923944956958</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01139938730397549</v>
+        <v>0.0251725426069017</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.01715317239812689</v>
+        <v>-0.02542168469686738</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.01715317239812689</v>
+        <v>-0.02542168469686738</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.01715317239812689</v>
+        <v>-0.02542168469686738</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.01715317239812689</v>
+        <v>-0.02542168469686738</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.01715317239812689</v>
+        <v>-0.02542168469686738</v>
       </c>
     </row>
     <row r="19">
@@ -2199,91 +2199,91 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.03901537576861503</v>
+        <v>-0.0100558348982334</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.005024797256991891</v>
+        <v>0.003681679443267178</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01146395882655835</v>
+        <v>-0.002832331313293252</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01265202473008099</v>
+        <v>0.004497958643918346</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01214075952563038</v>
+        <v>-0.006728934509157379</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01492228552489142</v>
+        <v>-0.006037178545487141</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.009990729903629194</v>
+        <v>0.0006433757057350281</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.003085726160909296</v>
+        <v>-0.005041654672926168</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002364115582564623</v>
+        <v>0.005939690349587613</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002364115582564623</v>
+        <v>0.005939690349587613</v>
       </c>
       <c r="M19" t="n">
-        <v>0.002364115582564623</v>
+        <v>0.005939690349587613</v>
       </c>
       <c r="N19" t="n">
-        <v>0.002364115582564623</v>
+        <v>0.005939690349587613</v>
       </c>
       <c r="O19" t="n">
-        <v>0.002364115582564623</v>
+        <v>0.005939690349587613</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01217429971897199</v>
+        <v>0.005711451972458079</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.009940928077637121</v>
+        <v>0.00732649104505964</v>
       </c>
       <c r="R19" t="n">
-        <v>0.009940928077637121</v>
+        <v>0.00732649104505964</v>
       </c>
       <c r="S19" t="n">
-        <v>0.009940928077637121</v>
+        <v>0.00732649104505964</v>
       </c>
       <c r="T19" t="n">
-        <v>0.009940928077637121</v>
+        <v>0.00732649104505964</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.01807713038708521</v>
+        <v>-0.0004002734560109382</v>
       </c>
       <c r="V19" t="n">
-        <v>0.003903905244156209</v>
+        <v>0.007187922143516885</v>
       </c>
       <c r="W19" t="n">
-        <v>0.013216575120663</v>
+        <v>0.002930584149223365</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.009373157558926301</v>
+        <v>0.007867024250680969</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.01330842302833692</v>
+        <v>-0.007840122937604915</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.009239670609586822</v>
+        <v>0.01665905394636216</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.004265832554633302</v>
+        <v>-0.01086271685050867</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.004265832554633302</v>
+        <v>-0.01086271685050867</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.004265832554633302</v>
+        <v>-0.01086271685050867</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.004265832554633302</v>
+        <v>-0.01086271685050867</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.004265832554633302</v>
+        <v>-0.01086271685050867</v>
       </c>
     </row>
     <row r="20">
@@ -2294,91 +2294,91 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01921528656061146</v>
+        <v>0.0008353422094136882</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.006169556118782244</v>
+        <v>0.0001811943432477737</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01053198531727941</v>
+        <v>-0.009808004936320195</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.008085116195404645</v>
+        <v>0.01035554681422187</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00629765650790626</v>
+        <v>-0.01061981956079278</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006093610035744402</v>
+        <v>-0.01020865884034635</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.004497549491901979</v>
+        <v>-0.002429085697163427</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.007749426467740041</v>
+        <v>0.02193541617300365</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01235386129415445</v>
+        <v>0.01122369721694789</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01235386129415445</v>
+        <v>0.01122369721694789</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01235386129415445</v>
+        <v>0.01122369721694789</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01235386129415445</v>
+        <v>0.01122369721694789</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01235386129415445</v>
+        <v>0.01122369721694789</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.008751224702048987</v>
+        <v>0.01043286905731476</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01430575574023023</v>
+        <v>0.0114745074029803</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01430575574023023</v>
+        <v>0.0114745074029803</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01430575574023023</v>
+        <v>0.0114745074029803</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01430575574023023</v>
+        <v>0.0114745074029803</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008408029680321187</v>
+        <v>0.01706417031456681</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02006072557042902</v>
+        <v>-0.002254702842188113</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01471122644444906</v>
+        <v>0.02555681737427269</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.008073972514958901</v>
+        <v>-0.001947301805892072</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.0143706526068261</v>
+        <v>0.001428171705126868</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.009376130295045212</v>
+        <v>-0.002586812551472502</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.00454549477381979</v>
+        <v>-0.0001767446470697859</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.00454549477381979</v>
+        <v>-0.0001767446470697859</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.00454549477381979</v>
+        <v>-0.0001767446470697859</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.00454549477381979</v>
+        <v>-0.0001767446470697859</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.00454549477381979</v>
+        <v>-0.0001767446470697859</v>
       </c>
     </row>
     <row r="21">
@@ -2389,91 +2389,91 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.004720993820839752</v>
+        <v>0.01142714820108593</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01017601365504055</v>
+        <v>-0.003839358873574354</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01321317451252698</v>
+        <v>-0.007559766158390644</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01009437025977481</v>
+        <v>0.007413912776556511</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00609907473996299</v>
+        <v>-0.005520048508801939</v>
       </c>
       <c r="H21" t="n">
-        <v>0.005823191944927677</v>
+        <v>-0.004615055704602228</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.007058576634343064</v>
+        <v>-0.005069239498769579</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.005848743508337109</v>
+        <v>0.01229794250962674</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.001305878356235134</v>
+        <v>0.02219772165590887</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.001305878356235134</v>
+        <v>0.02219772165590887</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.001305878356235134</v>
+        <v>0.02219772165590887</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.001305878356235134</v>
+        <v>0.02219772165590887</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.001305878356235134</v>
+        <v>0.02219772165590887</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.009330513973220558</v>
+        <v>0.007553348558133941</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.008331441165257645</v>
+        <v>0.02157097775883911</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.008331441165257645</v>
+        <v>0.02157097775883911</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.008331441165257645</v>
+        <v>0.02157097775883911</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.008331441165257645</v>
+        <v>0.02157097775883911</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.0005601513824060552</v>
+        <v>-0.02272004366080174</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01849270422770817</v>
+        <v>-0.002443987105759484</v>
       </c>
       <c r="W21" t="n">
-        <v>0.004230826921233077</v>
+        <v>-0.01008311704332468</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.0005463783578551342</v>
+        <v>-0.00569667152386686</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.01805642606625704</v>
+        <v>0.01517112175884487</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.006203197208127887</v>
+        <v>-0.01203159532926381</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.008166038150641526</v>
+        <v>0.003471584298863371</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.008166038150641526</v>
+        <v>0.003471584298863371</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.008166038150641526</v>
+        <v>0.003471584298863371</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.008166038150641526</v>
+        <v>0.003471584298863371</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.008166038150641526</v>
+        <v>0.003471584298863371</v>
       </c>
     </row>
     <row r="22">
@@ -2484,91 +2484,91 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0004620861304834452</v>
+        <v>-0.0003071263802850552</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01713025143721005</v>
+        <v>0.01242534222501369</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.02655100282204011</v>
+        <v>-0.02579030522361221</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02719278204771128</v>
+        <v>0.02656138714245548</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02745089130603565</v>
+        <v>-0.02789095609163824</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02460165324006613</v>
+        <v>-0.02654215219768608</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.02880754780830191</v>
+        <v>0.003814963832598552</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03656593155957836</v>
+        <v>0.003888351905133303</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.001216328688653147</v>
+        <v>0.01009535281981411</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.001216328688653147</v>
+        <v>0.01009535281981411</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.001216328688653147</v>
+        <v>0.01009535281981411</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.001216328688653147</v>
+        <v>0.01009535281981411</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.001216328688653147</v>
+        <v>0.01009535281981411</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02680692040027681</v>
+        <v>0.02659842586393703</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01735375058215002</v>
+        <v>0.01226733677869347</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01735375058215002</v>
+        <v>0.01226733677869347</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01735375058215002</v>
+        <v>0.01226733677869347</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01735375058215002</v>
+        <v>0.01226733677869347</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01550238974009559</v>
+        <v>-0.01196021606240864</v>
       </c>
       <c r="V22" t="n">
-        <v>0.001543964989758599</v>
+        <v>-0.00049737649989506</v>
       </c>
       <c r="W22" t="n">
-        <v>7.558272302330892e-06</v>
+        <v>0.01400234561609382</v>
       </c>
       <c r="X22" t="n">
-        <v>0.02721392921655717</v>
+        <v>0.00666654804266192</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.009851964586078583</v>
+        <v>-0.001111641644465666</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01621262714450509</v>
+        <v>0.01936168378246735</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.02661750548070022</v>
+        <v>-0.01003693691347748</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.02661750548070022</v>
+        <v>-0.01003693691347748</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.02661750548070022</v>
+        <v>-0.01003693691347748</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.02661750548070022</v>
+        <v>-0.01003693691347748</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.02661750548070022</v>
+        <v>-0.01003693691347748</v>
       </c>
     </row>
     <row r="23">
@@ -2583,91 +2583,91 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01605513933020557</v>
+        <v>0.001883896875355875</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01255258629410345</v>
+        <v>-0.004003539328141572</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0169171549486862</v>
+        <v>0.004385203951408158</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01285939654637586</v>
+        <v>-0.002113632948545318</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01157838843113554</v>
+        <v>-0.00102124026484961</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.009545882301835291</v>
+        <v>0.001156780942271238</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01380220058408802</v>
+        <v>-0.001862115434484617</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01965915912528103</v>
+        <v>0.006336292198575949</v>
       </c>
       <c r="K23" t="n">
-        <v>0.01589599215583968</v>
+        <v>-0.02804969238598769</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01589599215583968</v>
+        <v>-0.02804969238598769</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01589599215583968</v>
+        <v>-0.02804969238598769</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01589599215583968</v>
+        <v>-0.02804969238598769</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01589599215583968</v>
+        <v>-0.02804969238598769</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01365532941021317</v>
+        <v>-0.002238331481533259</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0198591050183642</v>
+        <v>-0.02453442952537718</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0198591050183642</v>
+        <v>-0.02453442952537718</v>
       </c>
       <c r="S23" t="n">
-        <v>0.0198591050183642</v>
+        <v>-0.02453442952537718</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0198591050183642</v>
+        <v>-0.02453442952537718</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0008825981153039245</v>
+        <v>0.01595701590228064</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.01932179078887163</v>
+        <v>0.01227122573884903</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01363028598521144</v>
+        <v>-0.001461445690457827</v>
       </c>
       <c r="X23" t="n">
-        <v>0.03924327305773091</v>
+        <v>-0.002953495990139839</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.01562144059285762</v>
+        <v>-0.0008183458887338354</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02203982814559312</v>
+        <v>-0.0137075401643016</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.02638470335938813</v>
+        <v>0.0009186852847474112</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.02638470335938813</v>
+        <v>0.0009186852847474112</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.02638470335938813</v>
+        <v>0.0009186852847474112</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.02638470335938813</v>
+        <v>0.0009186852847474112</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.02638470335938813</v>
+        <v>0.0009186852847474112</v>
       </c>
     </row>
     <row r="24">
@@ -2678,91 +2678,91 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01893625554145022</v>
+        <v>0.008664468442578736</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02253726483749059</v>
+        <v>-0.0008729135389165415</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.002309666972386679</v>
+        <v>0.01034786537391461</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0008928255717130228</v>
+        <v>-0.008310687212427488</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001118734028749361</v>
+        <v>0.004213275912531036</v>
       </c>
       <c r="H24" t="n">
-        <v>9.757075590283023e-05</v>
+        <v>0.006927661237106448</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02053750805350032</v>
+        <v>-0.003979983327199333</v>
       </c>
       <c r="J24" t="n">
-        <v>8.724614764479506e-05</v>
+        <v>0.003061236558857643</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0203716376148655</v>
+        <v>-0.019572150158886</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0203716376148655</v>
+        <v>-0.019572150158886</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0203716376148655</v>
+        <v>-0.019572150158886</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0203716376148655</v>
+        <v>-0.019572150158886</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.0203716376148655</v>
+        <v>-0.019572150158886</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.002087733395509335</v>
+        <v>-0.007671500754860028</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.01131082701243308</v>
+        <v>-0.01766126989045079</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01131082701243308</v>
+        <v>-0.01766126989045079</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.01131082701243308</v>
+        <v>-0.01766126989045079</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.01131082701243308</v>
+        <v>-0.01766126989045079</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01910384418815377</v>
+        <v>0.01253485518939421</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.009297761939910477</v>
+        <v>-0.0001219924848796994</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.01430713535628541</v>
+        <v>0.007374667974986719</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.01306615914664636</v>
+        <v>0.0115905100636204</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01663220111328804</v>
+        <v>-0.002032565649302626</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.003095924571836982</v>
+        <v>0.01715249492609979</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01755180300607212</v>
+        <v>-0.008607412184296484</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01755180300607212</v>
+        <v>-0.008607412184296484</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01755180300607212</v>
+        <v>-0.008607412184296484</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01755180300607212</v>
+        <v>-0.008607412184296484</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01755180300607212</v>
+        <v>-0.008607412184296484</v>
       </c>
     </row>
     <row r="25">
@@ -2777,91 +2777,91 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.0009798170311926813</v>
+        <v>0.01472275210891008</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0109187299727492</v>
+        <v>0.01570372123614885</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.009323845428953816</v>
+        <v>0.006818230544729222</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01064734852189394</v>
+        <v>-0.007544665453786617</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.009249494001979759</v>
+        <v>0.009181676719267068</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.01109573881182955</v>
+        <v>0.004407878096315123</v>
       </c>
       <c r="I25" t="n">
-        <v>0.009771261510850459</v>
+        <v>0.01744352479374099</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001497769550570821</v>
+        <v>0.002178807066289765</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01430948850837954</v>
+        <v>-0.02696594219863768</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01430948850837954</v>
+        <v>-0.02696594219863768</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01430948850837954</v>
+        <v>-0.02696594219863768</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01430948850837954</v>
+        <v>-0.02696594219863768</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01430948850837954</v>
+        <v>-0.02696594219863768</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01120602544024102</v>
+        <v>-0.009485696731427868</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0115335175493407</v>
+        <v>-0.02823480832939233</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0115335175493407</v>
+        <v>-0.02823480832939233</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0115335175493407</v>
+        <v>-0.02823480832939233</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0115335175493407</v>
+        <v>-0.02823480832939233</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.03449650889986035</v>
+        <v>-0.01711770548470822</v>
       </c>
       <c r="V25" t="n">
-        <v>0.009190432111617283</v>
+        <v>-0.0006858849874353994</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.01034250233370009</v>
+        <v>0.03548642791545711</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01818523935140957</v>
+        <v>-0.01005508350620334</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.002636931945477277</v>
+        <v>-0.02408105222724208</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.01726288062651522</v>
+        <v>-0.01076133230245329</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.008571740598869624</v>
+        <v>0.01726235867449435</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.008571740598869624</v>
+        <v>0.01726235867449435</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.008571740598869624</v>
+        <v>0.01726235867449435</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.008571740598869624</v>
+        <v>0.01726235867449435</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.008571740598869624</v>
+        <v>0.01726235867449435</v>
       </c>
     </row>
     <row r="26">
@@ -2872,91 +2872,91 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.009845103849804153</v>
+        <v>0.01236151796646072</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01001658673666347</v>
+        <v>-0.009466703898668154</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001108027628321105</v>
+        <v>-0.001954542990181719</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0004467351538694061</v>
+        <v>0.001010333416413337</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.001768045990721839</v>
+        <v>-0.001737350853494034</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.001747847973913919</v>
+        <v>-0.0008247502409900095</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.005984720495388818</v>
+        <v>-0.01969548328381933</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02100186630137396</v>
+        <v>0.01165604899502667</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.01639973326398933</v>
+        <v>0.01621758852070354</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.01639973326398933</v>
+        <v>0.01621758852070354</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.01639973326398933</v>
+        <v>0.01621758852070354</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.01639973326398933</v>
+        <v>0.01621758852070354</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.01639973326398933</v>
+        <v>0.01621758852070354</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.0003986222559448901</v>
+        <v>0.002451532898061316</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.01303031735321269</v>
+        <v>0.0155670526546821</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.01303031735321269</v>
+        <v>0.0155670526546821</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.01303031735321269</v>
+        <v>0.0155670526546821</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.01303031735321269</v>
+        <v>0.0155670526546821</v>
       </c>
       <c r="U26" t="n">
-        <v>0.00129716299588652</v>
+        <v>0.02653070112522804</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01025919141836766</v>
+        <v>-0.00251569651662786</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.02378240043929601</v>
+        <v>-0.0008475582099023284</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.0004329139373165574</v>
+        <v>0.02244295462571818</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.006328827421153095</v>
+        <v>-0.004036035041441401</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.005056865674274626</v>
+        <v>0.004027860833114434</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.00602935051317402</v>
+        <v>-0.02652058694882348</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.00602935051317402</v>
+        <v>-0.02652058694882348</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.00602935051317402</v>
+        <v>-0.02652058694882348</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.00602935051317402</v>
+        <v>-0.02652058694882348</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.00602935051317402</v>
+        <v>-0.02652058694882348</v>
       </c>
     </row>
     <row r="27">
@@ -2971,91 +2971,91 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.02351559358062374</v>
+        <v>-0.03996903231876129</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01890344744413789</v>
+        <v>0.007169562910782515</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.04449328565173142</v>
+        <v>-0.05871824356472973</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003793820215752808</v>
+        <v>0.01884980273799211</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02141374194454967</v>
+        <v>0.003963049598521983</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.005762388422495537</v>
+        <v>-0.02000384144015365</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02912930410917216</v>
+        <v>0.01029051017162041</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.008419694463741157</v>
+        <v>0.01371163333621008</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04377685634307425</v>
+        <v>0.06822173332086932</v>
       </c>
       <c r="L27" t="n">
-        <v>0.04377685634307425</v>
+        <v>0.06822173332086932</v>
       </c>
       <c r="M27" t="n">
-        <v>0.04377685634307425</v>
+        <v>0.06822173332086932</v>
       </c>
       <c r="N27" t="n">
-        <v>0.04377685634307425</v>
+        <v>0.06822173332086932</v>
       </c>
       <c r="O27" t="n">
-        <v>0.04377685634307425</v>
+        <v>0.06822173332086932</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.0006929975317199013</v>
+        <v>0.01405930577837223</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04854795938191837</v>
+        <v>0.03732518146100725</v>
       </c>
       <c r="R27" t="n">
-        <v>0.04854795938191837</v>
+        <v>0.03732518146100725</v>
       </c>
       <c r="S27" t="n">
-        <v>0.04854795938191837</v>
+        <v>0.03732518146100725</v>
       </c>
       <c r="T27" t="n">
-        <v>0.04854795938191837</v>
+        <v>0.03732518146100725</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0468679151547166</v>
+        <v>-0.02019051613562064</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.2407262669090507</v>
+        <v>-0.2421434839577393</v>
       </c>
       <c r="W27" t="n">
-        <v>0.9916527858421114</v>
+        <v>0.9915802398872094</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03827723125908924</v>
+        <v>0.0517118349644734</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.06436975764679029</v>
+        <v>-0.05765554694622187</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.02935049311001972</v>
+        <v>0.03735654370226174</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.004620073720802948</v>
+        <v>-0.002947536885901475</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.004620073720802948</v>
+        <v>-0.002947536885901475</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.004620073720802948</v>
+        <v>-0.002947536885901475</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.004620073720802948</v>
+        <v>-0.002947536885901475</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.004620073720802948</v>
+        <v>-0.002947536885901475</v>
       </c>
     </row>
     <row r="28">
@@ -3070,91 +3070,91 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.007008992728359709</v>
+        <v>-0.002532539813301592</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.008152086854083472</v>
+        <v>0.02042471112098844</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.002940729813629192</v>
+        <v>-0.002631244809249792</v>
       </c>
       <c r="F28" t="n">
-        <v>0.001561438046457521</v>
+        <v>-0.003969877694795108</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0002038813521552541</v>
+        <v>0.00640711302428452</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001382082199283288</v>
+        <v>0.008541718901668756</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.007819993752799749</v>
+        <v>0.02727157241886289</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00880146617569005</v>
+        <v>0.02433369158438817</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01404666766586671</v>
+        <v>0.01142279037691161</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01404666766586671</v>
+        <v>0.01142279037691161</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01404666766586671</v>
+        <v>0.01142279037691161</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01404666766586671</v>
+        <v>0.01142279037691161</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01404666766586671</v>
+        <v>0.01142279037691161</v>
       </c>
       <c r="P28" t="n">
-        <v>0.002977141655085665</v>
+        <v>-0.003543529869741195</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.009542341149693646</v>
+        <v>0.006676469835058792</v>
       </c>
       <c r="R28" t="n">
-        <v>0.009542341149693646</v>
+        <v>0.006676469835058792</v>
       </c>
       <c r="S28" t="n">
-        <v>0.009542341149693646</v>
+        <v>0.006676469835058792</v>
       </c>
       <c r="T28" t="n">
-        <v>0.009542341149693646</v>
+        <v>0.006676469835058792</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.004791684959667398</v>
+        <v>-0.005635049121401964</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.01035864579034583</v>
+        <v>-0.02354035063761402</v>
       </c>
       <c r="W28" t="n">
-        <v>0.01207927209917088</v>
+        <v>-0.02175192490207699</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00474211900568476</v>
+        <v>0.002300266076010643</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.01080725457629018</v>
+        <v>0.02861244239249769</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.001441282329651293</v>
+        <v>0.008067857890714314</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.0004809581952383278</v>
+        <v>0.009063766346550652</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.0004809581952383278</v>
+        <v>0.009063766346550652</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.0004809581952383278</v>
+        <v>0.009063766346550652</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.0004809581952383278</v>
+        <v>0.009063766346550652</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.0004809581952383278</v>
+        <v>0.009063766346550652</v>
       </c>
     </row>
     <row r="29">
@@ -3169,91 +3169,91 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.009217309136692364</v>
+        <v>0.001912964716518588</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01661224492048979</v>
+        <v>0.01424484632979385</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02418603687144147</v>
+        <v>-0.003114025756561029</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.02176001789440071</v>
+        <v>0.01482762174510487</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02500891636035665</v>
+        <v>-0.01490560936422437</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02448300213132008</v>
+        <v>-0.01671599932463997</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02606282177851287</v>
+        <v>0.009269969842798792</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.08420289294166006</v>
+        <v>-0.0738426547560396</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02220227196009087</v>
+        <v>0.001557707774308311</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02220227196009087</v>
+        <v>0.001557707774308311</v>
       </c>
       <c r="M29" t="n">
-        <v>0.02220227196009087</v>
+        <v>0.001557707774308311</v>
       </c>
       <c r="N29" t="n">
-        <v>0.02220227196009087</v>
+        <v>0.001557707774308311</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02220227196009087</v>
+        <v>0.001557707774308311</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.01962733672109346</v>
+        <v>0.01424715359388614</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.002892370483694819</v>
+        <v>0.008389404911576196</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.002892370483694819</v>
+        <v>0.008389404911576196</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.002892370483694819</v>
+        <v>0.008389404911576196</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.002892370483694819</v>
+        <v>0.008389404911576196</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.01548121636324865</v>
+        <v>0.01406182453047298</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01274973804598952</v>
+        <v>0.04328939472357578</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1306130205525208</v>
+        <v>0.1147372435014897</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.03289998285199931</v>
+        <v>-0.02905846157833846</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.007299384579975382</v>
+        <v>-0.021667575074703</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.01325905099436204</v>
+        <v>-0.008438052049522082</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.03186129314645172</v>
+        <v>0.01531111222844449</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.03186129314645172</v>
+        <v>0.01531111222844449</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.03186129314645172</v>
+        <v>0.01531111222844449</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.03186129314645172</v>
+        <v>0.01531111222844449</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.03186129314645172</v>
+        <v>0.01531111222844449</v>
       </c>
     </row>
     <row r="30">
@@ -3268,91 +3268,91 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005307454964298198</v>
+        <v>-0.02531084203643368</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01542497485699899</v>
+        <v>-0.03344480927379236</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.007107428348297133</v>
+        <v>-0.01300501828020073</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002351465662058626</v>
+        <v>0.01290679606827184</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.001895809323832373</v>
+        <v>-0.01283602380944095</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0007095833563833342</v>
+        <v>-0.01091786078871443</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01930139914005597</v>
+        <v>-0.03881561656062466</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01577898449918286</v>
+        <v>0.03031610804029952</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02049292661171706</v>
+        <v>-0.006924154164966165</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02049292661171706</v>
+        <v>-0.006924154164966165</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02049292661171706</v>
+        <v>-0.006924154164966165</v>
       </c>
       <c r="N30" t="n">
-        <v>0.02049292661171706</v>
+        <v>-0.006924154164966165</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02049292661171706</v>
+        <v>-0.006924154164966165</v>
       </c>
       <c r="P30" t="n">
-        <v>0.004941311717652468</v>
+        <v>0.01160745713629829</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01370144291605772</v>
+        <v>-0.0057456050298242</v>
       </c>
       <c r="R30" t="n">
-        <v>0.01370144291605772</v>
+        <v>-0.0057456050298242</v>
       </c>
       <c r="S30" t="n">
-        <v>0.01370144291605772</v>
+        <v>-0.0057456050298242</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01370144291605772</v>
+        <v>-0.0057456050298242</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02470655906826236</v>
+        <v>-0.0409077177643087</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.0217936400717456</v>
+        <v>0.006301584732063388</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01281493990459759</v>
+        <v>-0.01378236333529453</v>
       </c>
       <c r="X30" t="n">
-        <v>0.02996553076662123</v>
+        <v>-0.01028679727547189</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.008859451746378068</v>
+        <v>0.01300872167234887</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.01311404826856193</v>
+        <v>-0.02367726219509048</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.02559472460778898</v>
+        <v>0.01026752575470103</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.02559472460778898</v>
+        <v>0.01026752575470103</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.02559472460778898</v>
+        <v>0.01026752575470103</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.02559472460778898</v>
+        <v>0.01026752575470103</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.02559472460778898</v>
+        <v>0.01026752575470103</v>
       </c>
     </row>
     <row r="31">
@@ -3367,91 +3367,91 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4973303725652148</v>
+        <v>0.486677224875089</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02025557121022284</v>
+        <v>-0.02334369789374791</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9774716912908674</v>
+        <v>0.978179378167175</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9999571538542861</v>
+        <v>-0.9999565979182639</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9915449903177994</v>
+        <v>0.9915895143515804</v>
       </c>
       <c r="H31" t="n">
-        <v>0.986521855012874</v>
+        <v>0.9868460136178403</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3790263997370559</v>
+        <v>0.3749325683733027</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.5044739135069023</v>
+        <v>-0.5093894366290982</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.3014652584266103</v>
+        <v>-0.6085985802799432</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.3014652584266103</v>
+        <v>-0.6085985802799432</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.3014652584266103</v>
+        <v>-0.6085985802799432</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.3014652584266103</v>
+        <v>-0.6085985802799432</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.3014652584266103</v>
+        <v>-0.6085985802799432</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.994245954553838</v>
+        <v>-0.99816675522267</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.808925152805006</v>
+        <v>-0.6957352724054108</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.808925152805006</v>
+        <v>-0.6957352724054108</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.808925152805006</v>
+        <v>-0.6957352724054108</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.808925152805006</v>
+        <v>-0.6957352724054108</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1281064438442577</v>
+        <v>-0.1310099584883983</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.005516132956645317</v>
+        <v>0.001947532685901307</v>
       </c>
       <c r="W31" t="n">
-        <v>0.006118873492754938</v>
+        <v>-0.01332229474089179</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.4121335171893407</v>
+        <v>-0.4274872474674898</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.004067990850719633</v>
+        <v>-0.002833721489348859</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.48640125232005</v>
+        <v>-0.5077134136845364</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5065029048041161</v>
+        <v>0.5369865548874622</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.5065029048041161</v>
+        <v>0.5369865548874622</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5065029048041161</v>
+        <v>0.5369865548874622</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.5065029048041161</v>
+        <v>0.5369865548874622</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.5065029048041161</v>
+        <v>0.5369865548874622</v>
       </c>
     </row>
     <row r="32">
@@ -3466,91 +3466,91 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.003748434101937363</v>
+        <v>-0.0007691598067663922</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01117334454293378</v>
+        <v>-0.002615932040637281</v>
       </c>
       <c r="E32" t="n">
-        <v>0.02859068053562722</v>
+        <v>-0.003012502968500118</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02709254642770185</v>
+        <v>-0.001022966920918677</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02444242331369693</v>
+        <v>0.005271306546852261</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02768605598744224</v>
+        <v>0.001696603459864138</v>
       </c>
       <c r="I32" t="n">
-        <v>0.001222073712882948</v>
+        <v>-0.006966852470674099</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.002411816308756038</v>
+        <v>0.009687052673431463</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.002058335602333424</v>
+        <v>0.003699784947991397</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.002058335602333424</v>
+        <v>0.003699784947991397</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.002058335602333424</v>
+        <v>0.003699784947991397</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.002058335602333424</v>
+        <v>0.003699784947991397</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.002058335602333424</v>
+        <v>0.003699784947991397</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.02482273884890955</v>
+        <v>-0.002149207189968287</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.02088803718752149</v>
+        <v>-0.0002530373861214954</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.02088803718752149</v>
+        <v>-0.0002530373861214954</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.02088803718752149</v>
+        <v>-0.0002530373861214954</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.02088803718752149</v>
+        <v>-0.0002530373861214954</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.01253932053357282</v>
+        <v>-0.02721145174445807</v>
       </c>
       <c r="V32" t="n">
-        <v>0.006739304237572169</v>
+        <v>-0.01460429146417166</v>
       </c>
       <c r="W32" t="n">
-        <v>0.004407681200307247</v>
+        <v>-0.01127591862703674</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.001190355887614235</v>
+        <v>-0.008402590320103612</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.001241462737658509</v>
+        <v>-0.0009291966131678643</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.007472142154885684</v>
+        <v>-0.009346304341852173</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.001720714724828589</v>
+        <v>0.01654607317384292</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.001720714724828589</v>
+        <v>0.01654607317384292</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.001720714724828589</v>
+        <v>0.01654607317384292</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.001720714724828589</v>
+        <v>0.01654607317384292</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.001720714724828589</v>
+        <v>0.01654607317384292</v>
       </c>
     </row>
     <row r="33">
@@ -3565,91 +3565,91 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.03211283168451327</v>
+        <v>0.015148625021945</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.001813062024522481</v>
+        <v>0.01630701386828055</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01966086136243445</v>
+        <v>-0.02739731543189262</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02417522631100905</v>
+        <v>0.02612651634106065</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02399428684777147</v>
+        <v>-0.02498625651945026</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02335090048603602</v>
+        <v>-0.02566824889872995</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01468776874751075</v>
+        <v>0.006145840853833634</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0590261488498764</v>
+        <v>-0.06619430568709202</v>
       </c>
       <c r="K33" t="n">
-        <v>0.004146969381878775</v>
+        <v>0.03222510647300426</v>
       </c>
       <c r="L33" t="n">
-        <v>0.004146969381878775</v>
+        <v>0.03222510647300426</v>
       </c>
       <c r="M33" t="n">
-        <v>0.004146969381878775</v>
+        <v>0.03222510647300426</v>
       </c>
       <c r="N33" t="n">
-        <v>0.004146969381878775</v>
+        <v>0.03222510647300426</v>
       </c>
       <c r="O33" t="n">
-        <v>0.004146969381878775</v>
+        <v>0.03222510647300426</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.02365378318615132</v>
+        <v>0.02683449976137999</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01162267659290706</v>
+        <v>0.03291046624441864</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01162267659290706</v>
+        <v>0.03291046624441864</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01162267659290706</v>
+        <v>0.03291046624441864</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.01162267659290706</v>
+        <v>0.03291046624441864</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.02318750454350018</v>
+        <v>0.01208295398731816</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.01567911029116441</v>
+        <v>-0.008909871140394845</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02238013942320557</v>
+        <v>0.0009485292859411713</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.01699841626393665</v>
+        <v>-0.002154700790188031</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.0006461822658472905</v>
+        <v>0.002326568637062745</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.02027913306716532</v>
+        <v>0.002408300448332018</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.03353416050936642</v>
+        <v>0.01579823333592933</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.03353416050936642</v>
+        <v>0.01579823333592933</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.03353416050936642</v>
+        <v>0.01579823333592933</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.03353416050936642</v>
+        <v>0.01579823333592933</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.03353416050936642</v>
+        <v>0.01579823333592933</v>
       </c>
     </row>
     <row r="34">
@@ -3664,91 +3664,91 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.002444554177782167</v>
+        <v>-0.01526800035472001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01138237082329483</v>
+        <v>-0.0162324076572963</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.008785062783402509</v>
+        <v>-0.01615872333434893</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004982926087317043</v>
+        <v>0.01756391715055668</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.005139517453580697</v>
+        <v>-0.0180866975554679</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.0001791087431643497</v>
+        <v>-0.01574603458184138</v>
       </c>
       <c r="I34" t="n">
-        <v>0.006530188389207534</v>
+        <v>-0.01952898462115938</v>
       </c>
       <c r="J34" t="n">
-        <v>0.009444458890551715</v>
+        <v>0.02313754900682003</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9201883739915349</v>
+        <v>0.6790392045055681</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9201883739915349</v>
+        <v>0.6790392045055681</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9201883739915349</v>
+        <v>0.6790392045055681</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9201883739915349</v>
+        <v>0.6790392045055681</v>
       </c>
       <c r="O34" t="n">
-        <v>0.9201883739915349</v>
+        <v>0.6790392045055681</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0976338853133554</v>
+        <v>0.0555047051641882</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5299280937411237</v>
+        <v>0.649542977437719</v>
       </c>
       <c r="R34" t="n">
-        <v>0.5299280937411237</v>
+        <v>0.649542977437719</v>
       </c>
       <c r="S34" t="n">
-        <v>0.5299280937411237</v>
+        <v>0.649542977437719</v>
       </c>
       <c r="T34" t="n">
-        <v>0.5299280937411237</v>
+        <v>0.649542977437719</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01097320719092829</v>
+        <v>-0.01021152108046084</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.01936147488645899</v>
+        <v>0.005309474228378968</v>
       </c>
       <c r="W34" t="n">
-        <v>0.02621589685663588</v>
+        <v>0.01132585043703402</v>
       </c>
       <c r="X34" t="n">
-        <v>0.02158084377523375</v>
+        <v>0.009714752452590097</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.03202135779285431</v>
+        <v>0.01361405920056236</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.02207927521917101</v>
+        <v>0.005543444189737768</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.2769149887085995</v>
+        <v>-0.1352547264341891</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.2769149887085995</v>
+        <v>-0.1352547264341891</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.2769149887085995</v>
+        <v>-0.1352547264341891</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.2769149887085995</v>
+        <v>-0.1352547264341891</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.2769149887085995</v>
+        <v>-0.1352547264341891</v>
       </c>
     </row>
     <row r="35">
@@ -3763,91 +3763,91 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02273426231737049</v>
+        <v>0.007327396229095849</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02218259157530366</v>
+        <v>0.01363320092932804</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01495087115803484</v>
+        <v>0.02570227283609091</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01147808061912322</v>
+        <v>-0.02715575935823037</v>
       </c>
       <c r="G35" t="n">
-        <v>0.009363490550539621</v>
+        <v>0.0276170948646838</v>
       </c>
       <c r="H35" t="n">
-        <v>0.009095099403803975</v>
+        <v>0.02564831363393254</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01784798068191923</v>
+        <v>0.02228023951520958</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0200613293500821</v>
+        <v>-0.0172963922847625</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.003154868478194739</v>
+        <v>-0.02544929304997172</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.003154868478194739</v>
+        <v>-0.02544929304997172</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.003154868478194739</v>
+        <v>-0.02544929304997172</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.003154868478194739</v>
+        <v>-0.02544929304997172</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.003154868478194739</v>
+        <v>-0.02544929304997172</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.01044453968178159</v>
+        <v>-0.02826661389866455</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.01094251790970071</v>
+        <v>-0.02646471629058865</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.01094251790970071</v>
+        <v>-0.02646471629058865</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.01094251790970071</v>
+        <v>-0.02646471629058865</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.01094251790970071</v>
+        <v>-0.02646471629058865</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.01684139107365564</v>
+        <v>-0.03506018060240722</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01693082122123285</v>
+        <v>0.005329344597173783</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.004210911432436457</v>
+        <v>-0.0258790951471638</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.02909373821974953</v>
+        <v>-0.03147924039516961</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.005420779992831199</v>
+        <v>-0.004462306450492257</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.02806639533065581</v>
+        <v>-0.02229435535577421</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.02310082124403285</v>
+        <v>0.03719971003198839</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02310082124403285</v>
+        <v>0.03719971003198839</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.02310082124403285</v>
+        <v>0.03719971003198839</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.02310082124403285</v>
+        <v>0.03719971003198839</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.02310082124403285</v>
+        <v>0.03719971003198839</v>
       </c>
     </row>
     <row r="36">
@@ -3862,91 +3862,91 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04352945934117837</v>
+        <v>0.02109263095570523</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002515635364625415</v>
+        <v>-0.009484092667363705</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03050461571618463</v>
+        <v>0.01208703907548156</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.03067577633103105</v>
+        <v>-0.008601560312062412</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03049941894797675</v>
+        <v>0.009867241162689645</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02943817711352708</v>
+        <v>0.006375696063027841</v>
       </c>
       <c r="I36" t="n">
-        <v>0.008361885166475406</v>
+        <v>-0.010619800072792</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.0194495213245232</v>
+        <v>0.006142743470555289</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07459743053589721</v>
+        <v>0.06523045662521826</v>
       </c>
       <c r="L36" t="n">
-        <v>0.07459743053589721</v>
+        <v>0.06523045662521826</v>
       </c>
       <c r="M36" t="n">
-        <v>0.07459743053589721</v>
+        <v>0.06523045662521826</v>
       </c>
       <c r="N36" t="n">
-        <v>0.07459743053589721</v>
+        <v>0.06523045662521826</v>
       </c>
       <c r="O36" t="n">
-        <v>0.07459743053589721</v>
+        <v>0.06523045662521826</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.02183987156159486</v>
+        <v>-0.00464427800977112</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.02359831409593256</v>
+        <v>0.06330809878832394</v>
       </c>
       <c r="R36" t="n">
-        <v>0.02359831409593256</v>
+        <v>0.06330809878832394</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02359831409593256</v>
+        <v>0.06330809878832394</v>
       </c>
       <c r="T36" t="n">
-        <v>0.02359831409593256</v>
+        <v>0.06330809878832394</v>
       </c>
       <c r="U36" t="n">
-        <v>0.00727767177910687</v>
+        <v>0.01071370314854812</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.0008818497952739917</v>
+        <v>0.02296999608679984</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.02650900416436016</v>
+        <v>0.00869589375583575</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.006303913308156532</v>
+        <v>-0.003712686388507455</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.002575499815019992</v>
+        <v>-0.02069671858786874</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01497865979914639</v>
+        <v>-0.01099353461574138</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.1232792794911712</v>
+        <v>0.05234165930966637</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.1232792794911712</v>
+        <v>0.05234165930966637</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.1232792794911712</v>
+        <v>0.05234165930966637</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.1232792794911712</v>
+        <v>0.05234165930966637</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.1232792794911712</v>
+        <v>0.05234165930966637</v>
       </c>
     </row>
     <row r="37">
@@ -3961,91 +3961,190 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01284706332988253</v>
+        <v>-0.009609898464395939</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01464582970583318</v>
+        <v>0.0137859299274372</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01629618573984743</v>
+        <v>0.001033470953338838</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.01999151897566076</v>
+        <v>-0.004123184996927399</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02122339649693586</v>
+        <v>0.006378347871133913</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02265021402600856</v>
+        <v>0.004219940232797609</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.001597213407888536</v>
+        <v>0.01498923957556958</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.003734189915999518</v>
+        <v>-0.009197928093162139</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.01505527567421103</v>
+        <v>-0.004890734979629398</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.01505527567421103</v>
+        <v>-0.004890734979629398</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.01505527567421103</v>
+        <v>-0.004890734979629398</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.01505527567421103</v>
+        <v>-0.004890734979629398</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.01505527567421103</v>
+        <v>-0.004890734979629398</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.02132136037285441</v>
+        <v>-0.004370779374831175</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.02145098370603934</v>
+        <v>-0.007479410603176423</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.02145098370603934</v>
+        <v>-0.007479410603176423</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.02145098370603934</v>
+        <v>-0.007479410603176423</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.02145098370603934</v>
+        <v>-0.007479410603176423</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.02045462453018498</v>
+        <v>0.01289059798762392</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.01445076163403046</v>
+        <v>-0.01448053670722147</v>
       </c>
       <c r="W37" t="n">
-        <v>0.009301338132053524</v>
+        <v>-0.002585427943417117</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.003955690910227636</v>
+        <v>-0.002425889857035594</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01697723290308931</v>
+        <v>0.002704120908164836</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.01352238054089522</v>
+        <v>-0.006333806845352273</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01346501938660078</v>
+        <v>0.004948637381945495</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01346501938660078</v>
+        <v>0.004948637381945495</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01346501938660078</v>
+        <v>0.004948637381945495</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.01346501938660078</v>
+        <v>0.004948637381945495</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.01346501938660078</v>
+        <v>0.004948637381945495</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>GWP [kg*CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.02675131431805257</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.02315309036612361</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.007333465541338621</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0002887927795517111</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001982011087280443</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.001393139383725575</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.01398472587138903</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.00907020488786929</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.06546140901845636</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.06546140901845636</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06546140901845636</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06546140901845636</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.06546140901845636</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.002932499637299985</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.05784924394596975</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.05784924394596975</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.05784924394596975</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.05784924394596975</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.002122294932891797</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.03286141283445651</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.02207728216309128</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.003933455965338238</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.01053348637333945</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-0.02044910385796415</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.006897790931911636</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.006897790931911636</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.006897790931911636</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.006897790931911636</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.006897790931911636</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE38"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,91 +734,91 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.117411775576471</v>
+        <v>-0.09163689025747558</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002440304641612186</v>
+        <v>0.01257326671106692</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1447466148778646</v>
+        <v>-0.1177646069825843</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007201860096074403</v>
+        <v>-0.02338692045547681</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03226269143450765</v>
+        <v>0.06541139013645558</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1464456463698258</v>
+        <v>0.1765836888553475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02962982144119285</v>
+        <v>0.05624506429780256</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3664371487851554</v>
+        <v>0.2985007494335112</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3331667119506684</v>
+        <v>0.3168014242560569</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3331667119506684</v>
+        <v>0.3168014242560569</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3331667119506684</v>
+        <v>0.3168014242560569</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3331667119506684</v>
+        <v>0.3168014242560569</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3331667119506684</v>
+        <v>0.3168014242560569</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01385950423438017</v>
+        <v>0.005780610087224402</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2349632413345296</v>
+        <v>0.2168994680999787</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2349632413345296</v>
+        <v>0.2168994680999787</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2349632413345296</v>
+        <v>0.2168994680999787</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2349632413345296</v>
+        <v>0.2168994680999787</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.1026587771303511</v>
+        <v>-0.08836887838275512</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.6947723303508931</v>
+        <v>-0.7014339902653596</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001696016035840641</v>
+        <v>0.01958171550326862</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1782153804726152</v>
+        <v>0.1403763683990547</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9980736932029476</v>
+        <v>0.998058530770341</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1133983290479331</v>
+        <v>0.1154763872750555</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.07635104302204171</v>
+        <v>0.09118617110344683</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07635104302204171</v>
+        <v>0.09118617110344683</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.07635104302204171</v>
+        <v>0.09118617110344683</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.07635104302204171</v>
+        <v>0.09118617110344683</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.07635104302204171</v>
+        <v>0.09118617110344683</v>
       </c>
     </row>
     <row r="5">
@@ -829,877 +829,873 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06617757317510292</v>
+        <v>0.1110239632569585</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01886649176265967</v>
+        <v>0.00515702108249043</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1181464551578582</v>
+        <v>0.1433098626923945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01068294407531776</v>
+        <v>-0.01076975342279013</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09689268809970751</v>
+        <v>-0.07528345654733824</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008679857435194298</v>
+        <v>0.008470465394818614</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05328823393952935</v>
+        <v>-0.05015501931820077</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007355635312817527</v>
+        <v>0.005228501497923942</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.110275626043025</v>
+        <v>-0.165342701845708</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.110275626043025</v>
+        <v>-0.165342701845708</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.110275626043025</v>
+        <v>-0.165342701845708</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.110275626043025</v>
+        <v>-0.165342701845708</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.110275626043025</v>
+        <v>-0.165342701845708</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03487319467492778</v>
+        <v>-0.0200308874252355</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.005952322126092884</v>
+        <v>-0.05877966571118662</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.005952322126092884</v>
+        <v>-0.05877966571118662</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.005952322126092884</v>
+        <v>-0.05877966571118662</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.005952322126092884</v>
+        <v>-0.05877966571118662</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1040952692518108</v>
+        <v>0.09793932698957307</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6421477866779114</v>
+        <v>0.6536887663075507</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01549613149984526</v>
+        <v>0.002561348838453954</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1400922642596905</v>
+        <v>-0.1289522638780905</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0124590124983605</v>
+        <v>-0.0117591425183657</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.0801561950782478</v>
+        <v>-0.09654434622977384</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.07915869878234794</v>
+        <v>-0.0572481675699267</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.07915869878234794</v>
+        <v>-0.0572481675699267</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.07915869878234794</v>
+        <v>-0.0572481675699267</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.07915869878234794</v>
+        <v>-0.0572481675699267</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.07915869878234794</v>
+        <v>-0.0572481675699267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Capacity [ton/hr]</t>
+          <t>Cane operating days [day/yr]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2159320491812819</v>
+        <v>0.2071523843820954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9579101443324056</v>
+        <v>0.004988931408853536</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02501624922464996</v>
+        <v>-0.002243198393727935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02441125124845005</v>
+        <v>0.005427992185119686</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.005419568568782742</v>
+        <v>-0.03106457125858285</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.02321033171241326</v>
+        <v>-0.006998576439943056</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9106769908270795</v>
+        <v>-0.8395524605580982</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1559614125910409</v>
+        <v>0.07726727659650008</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0211006525240261</v>
+        <v>0.04475494345419773</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0211006525240261</v>
+        <v>0.04475494345419773</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0211006525240261</v>
+        <v>0.04475494345419773</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0211006525240261</v>
+        <v>0.04475494345419773</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0211006525240261</v>
+        <v>0.04475494345419773</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0136840624993625</v>
+        <v>0.01433382652535306</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.02295262527010501</v>
+        <v>0.05549288314771532</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.02295262527010501</v>
+        <v>0.05549288314771532</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.02295262527010501</v>
+        <v>0.05549288314771532</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.02295262527010501</v>
+        <v>0.05549288314771532</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.02196560401462416</v>
+        <v>0.05080747796829911</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.01423349394533976</v>
+        <v>0.02071473481258939</v>
       </c>
       <c r="W6" t="n">
-        <v>0.01112279775691191</v>
+        <v>-0.02792947849317913</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.04576994736679789</v>
+        <v>0.01403264936130597</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.0005150965646038625</v>
+        <v>-0.000991107879644315</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2939167375166695</v>
+        <v>-0.1710790801231632</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.07262543608901743</v>
+        <v>-0.03161120708844828</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.07262543608901743</v>
+        <v>-0.03161120708844828</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.07262543608901743</v>
+        <v>-0.03161120708844828</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.07262543608901743</v>
+        <v>-0.03161120708844828</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.07262543608901743</v>
+        <v>-0.03161120708844828</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Stream-ethanol</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Sorghum operating days [day/yr]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4475290304131612</v>
+        <v>0.01623137613725504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02428762417150496</v>
+        <v>-0.00393879233700317</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.003784808311392332</v>
+        <v>0.01175450811818032</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002509347940373917</v>
+        <v>-0.009328682293147291</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0003439651337586053</v>
+        <v>0.007670409234816368</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.001843476649739066</v>
+        <v>0.0088485200339408</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0207518474540739</v>
+        <v>-0.0008040662721626508</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01884492418893366</v>
+        <v>0.004811979464563304</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0112230924169237</v>
+        <v>-0.01800922708836908</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0112230924169237</v>
+        <v>-0.01800922708836908</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0112230924169237</v>
+        <v>-0.01800922708836908</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0112230924169237</v>
+        <v>-0.01800922708836908</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0112230924169237</v>
+        <v>-0.01800922708836908</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001761852358474094</v>
+        <v>-0.009396840471873617</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00906024477840979</v>
+        <v>-0.01617942947917718</v>
       </c>
       <c r="R7" t="n">
-        <v>0.00906024477840979</v>
+        <v>-0.01617942947917718</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00906024477840979</v>
+        <v>-0.01617942947917718</v>
       </c>
       <c r="T7" t="n">
-        <v>0.00906024477840979</v>
+        <v>-0.01617942947917718</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.5795931418077256</v>
+        <v>0.0227132577085303</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.001597375551895022</v>
+        <v>0.007844667961786718</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.003583922639356905</v>
+        <v>0.01723773400150936</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01594087830163513</v>
+        <v>0.008963396422535855</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.00114104874964195</v>
+        <v>-0.01073666097346644</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001969188558767542</v>
+        <v>-0.0004218908328756333</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01647301275492051</v>
+        <v>-0.01422213484088539</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01647301275492051</v>
+        <v>-0.01422213484088539</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01647301275492051</v>
+        <v>-0.01422213484088539</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01647301275492051</v>
+        <v>-0.01422213484088539</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01647301275492051</v>
+        <v>-0.01422213484088539</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Stream-biodiesel</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/gal]</t>
+          <t>Annual crushing capacity [ton/yr]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5214147662645906</v>
+        <v>0.01274832070193282</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01683367161734686</v>
+        <v>-0.0319643721674155</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006706015084240603</v>
+        <v>-0.001420882808835312</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001371344406853776</v>
+        <v>0.001363955478558219</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0001764944710597788</v>
+        <v>-0.001618944160757766</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.00197617851104714</v>
+        <v>-0.001561537790461512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01151981086079243</v>
+        <v>-0.009340559797622392</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.02147596965796418</v>
+        <v>-0.004214764927671403</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01364507459380298</v>
+        <v>0.007498105643924224</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01364507459380298</v>
+        <v>0.007498105643924224</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.01364507459380298</v>
+        <v>0.007498105643924224</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.01364507459380298</v>
+        <v>0.007498105643924224</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.01364507459380298</v>
+        <v>0.007498105643924224</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.001626225473049019</v>
+        <v>0.001629380801175232</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.00876095833443833</v>
+        <v>0.008440765297630611</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.00876095833443833</v>
+        <v>0.008440765297630611</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.00876095833443833</v>
+        <v>0.008440765297630611</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.00876095833443833</v>
+        <v>0.008440765297630611</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6564366976814677</v>
+        <v>-0.01252363739694549</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02097320234292809</v>
+        <v>-0.004322193676887747</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001454624314184972</v>
+        <v>0.009316597524663899</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.01439084822363393</v>
+        <v>-0.01823525391341015</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.02242444102497764</v>
+        <v>0.003052481210099248</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.01537462141498486</v>
+        <v>-0.01925305171412206</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.009856164106246562</v>
+        <v>0.01829583711583348</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.009856164106246562</v>
+        <v>0.01829583711583348</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.009856164106246562</v>
+        <v>0.01829583711583348</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.009856164106246562</v>
+        <v>0.01829583711583348</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.009856164106246562</v>
+        <v>0.01829583711583348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Stream-natural gas</t>
+          <t>Stream-ethanol</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/cf]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.006069559346782374</v>
+        <v>0.4769917687436707</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01662563970502559</v>
+        <v>-0.007342090472365004</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.007657822962312918</v>
+        <v>0.003303209604128384</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007594412559776501</v>
+        <v>-0.001925080877003235</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007157941342317653</v>
+        <v>0.004027413953096557</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.006328166365126654</v>
+        <v>0.000364514126580565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01565781451431258</v>
+        <v>-0.008700346620013864</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01578569297415911</v>
+        <v>0.00431074328367178</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.006782909647316386</v>
+        <v>-0.02064310479372419</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.006782909647316386</v>
+        <v>-0.02064310479372419</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.006782909647316386</v>
+        <v>-0.02064310479372419</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.006782909647316386</v>
+        <v>-0.02064310479372419</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.006782909647316386</v>
+        <v>-0.02064310479372419</v>
       </c>
       <c r="P9" t="n">
-        <v>0.006443405729736228</v>
+        <v>-0.003754429974177198</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.004307367340294693</v>
+        <v>-0.01966150725046029</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.004307367340294693</v>
+        <v>-0.01966150725046029</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.004307367340294693</v>
+        <v>-0.01966150725046029</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.004307367340294693</v>
+        <v>-0.01966150725046029</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01896404850256194</v>
+        <v>-0.543347302021892</v>
       </c>
       <c r="V9" t="n">
-        <v>0.008628550617142024</v>
+        <v>0.002256314106252564</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.00430811201232448</v>
+        <v>0.009579228287169129</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02342121424884857</v>
+        <v>-0.0236138677285547</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001866023306640932</v>
+        <v>-0.002614666376586655</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01704451796178072</v>
+        <v>-0.03144477831379113</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.01112496486099859</v>
+        <v>0.0231480175339207</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.01112496486099859</v>
+        <v>0.0231480175339207</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.01112496486099859</v>
+        <v>0.0231480175339207</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.01112496486099859</v>
+        <v>0.0231480175339207</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.01112496486099859</v>
+        <v>0.0231480175339207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>Stream-biodiesel</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Electricity price [USD/kWhr]</t>
+          <t>Price [USD/gal]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09287223942688956</v>
+        <v>0.5459362232134488</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00196987025479481</v>
+        <v>0.01409075489350435</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.007382638855305552</v>
+        <v>0.02868284956331398</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01371976038879041</v>
+        <v>-0.02962195001687799</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01591508550060342</v>
+        <v>0.02854074747762989</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01564167787366711</v>
+        <v>0.03064438672977546</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.003776089207043568</v>
+        <v>-0.001182193295287732</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02270076334071963</v>
+        <v>-0.005195749608558843</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002503632388145295</v>
+        <v>-0.0248618849624754</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002503632388145295</v>
+        <v>-0.0248618849624754</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002503632388145295</v>
+        <v>-0.0248618849624754</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002503632388145295</v>
+        <v>-0.0248618849624754</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002503632388145295</v>
+        <v>-0.0248618849624754</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01427705529108221</v>
+        <v>-0.02962275632091025</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007417001480680059</v>
+        <v>-0.02700324924012996</v>
       </c>
       <c r="R10" t="n">
-        <v>0.007417001480680059</v>
+        <v>-0.02700324924012996</v>
       </c>
       <c r="S10" t="n">
-        <v>0.007417001480680059</v>
+        <v>-0.02700324924012996</v>
       </c>
       <c r="T10" t="n">
-        <v>0.007417001480680059</v>
+        <v>-0.02700324924012996</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08005251133010045</v>
+        <v>0.6302472230978887</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03381340935253636</v>
+        <v>0.002660347114413884</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.005880048331201933</v>
+        <v>0.005813321608532864</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01899172664766906</v>
+        <v>0.01759310335972413</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01899747637589905</v>
+        <v>0.004826651809066072</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.009268010194720407</v>
+        <v>0.004451073298042931</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.002107752948310118</v>
+        <v>-0.007378179751127189</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.002107752948310118</v>
+        <v>-0.007378179751127189</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002107752948310118</v>
+        <v>-0.007378179751127189</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002107752948310118</v>
+        <v>-0.007378179751127189</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.002107752948310118</v>
+        <v>-0.007378179751127189</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Stream-natural gas</t>
+        </is>
+      </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Operating days [day/yr]</t>
+          <t>Price [USD/cf]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1352616688664668</v>
+        <v>-0.002852392434095697</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2654456043458241</v>
+        <v>-0.0002233676232909131</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00290625275625011</v>
+        <v>0.002898114931924597</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.002379306431172257</v>
+        <v>-0.001790965319638613</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00419724477588979</v>
+        <v>0.0004773739390949575</v>
       </c>
       <c r="H11" t="n">
-        <v>0.006245798361831933</v>
+        <v>-0.001071932202877288</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.008754655550186221</v>
+        <v>0.003038580889543235</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01159473955248601</v>
+        <v>-0.01182109921270341</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0005475117339004692</v>
+        <v>-0.001600549888021995</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005475117339004692</v>
+        <v>-0.001600549888021995</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0005475117339004692</v>
+        <v>-0.001600549888021995</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0005475117339004692</v>
+        <v>-0.001600549888021995</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0005475117339004692</v>
+        <v>-0.001600549888021995</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.002719709292788371</v>
+        <v>-0.001655760162230406</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.003676564371062575</v>
+        <v>-0.001153911406156456</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.003676564371062575</v>
+        <v>-0.001153911406156456</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.003676564371062575</v>
+        <v>-0.001153911406156456</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.003676564371062575</v>
+        <v>-0.001153911406156456</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0007191935327677412</v>
+        <v>-0.01486330657853226</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01903824066552963</v>
+        <v>-0.002020335824813433</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.00243140649725626</v>
+        <v>0.01833490882939635</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004653363930134557</v>
+        <v>0.004763174878526994</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01424953237798129</v>
+        <v>-0.01424349493773979</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.004502526996101079</v>
+        <v>0.01532649440505977</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.003543338061733522</v>
+        <v>-0.001944501101780044</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.003543338061733522</v>
+        <v>-0.001944501101780044</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.003543338061733522</v>
+        <v>-0.001944501101780044</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.003543338061733522</v>
+        <v>-0.001944501101780044</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.003543338061733522</v>
+        <v>-0.001944501101780044</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>biorefinery</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>IRR [%]</t>
+          <t>Electricity price [USD/kWhr]</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.3012623281464931</v>
+        <v>0.07971624654864985</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006189252727570108</v>
+        <v>-0.02899513764625851</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.004991878183675127</v>
+        <v>0.008717855484714218</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006878762195150486</v>
+        <v>-0.01178781435951257</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.006614494728579789</v>
+        <v>0.0108087149283486</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.007512838956513557</v>
+        <v>0.01309334375573375</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.004665603162624126</v>
+        <v>0.01151851802874072</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01149502622035389</v>
+        <v>0.0004756579398254229</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01127275197091008</v>
+        <v>0.004784655839386233</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01127275197091008</v>
+        <v>0.004784655839386233</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01127275197091008</v>
+        <v>0.004784655839386233</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01127275197091008</v>
+        <v>0.004784655839386233</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01127275197091008</v>
+        <v>0.004784655839386233</v>
       </c>
       <c r="P12" t="n">
-        <v>0.007157811550312461</v>
+        <v>-0.01078678919947157</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01235616433424657</v>
+        <v>0.002395167935806717</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01235616433424657</v>
+        <v>0.002395167935806717</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01235616433424657</v>
+        <v>0.002395167935806717</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01235616433424657</v>
+        <v>0.002395167935806717</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.05975524405420975</v>
+        <v>0.0669395600535824</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01035360780614431</v>
+        <v>-0.0149328974613159</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.002337832989513319</v>
+        <v>0.02830413319616532</v>
       </c>
       <c r="X12" t="n">
-        <v>0.005261246802449872</v>
+        <v>0.001164039022561561</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.006810371216414848</v>
+        <v>0.01068059668322387</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.005641588545663542</v>
+        <v>0.01001149518445981</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.009472420890896834</v>
+        <v>0.006071710706868427</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.009472420890896834</v>
+        <v>0.006071710706868427</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.009472420890896834</v>
+        <v>0.006071710706868427</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.009472420890896834</v>
+        <v>0.006071710706868427</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.009472420890896834</v>
+        <v>0.006071710706868427</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Stream-crude glycerol</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>IRR [%]</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.005393219351728773</v>
+        <v>-0.3024901039716041</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01166114235444569</v>
+        <v>0.008485149527015505</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.007661127378445094</v>
+        <v>0.0126909301716372</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005477021691080866</v>
+        <v>-0.01724975195399008</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.004585692663427706</v>
+        <v>0.0157028726921149</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.00409932726797309</v>
+        <v>0.01952371537294861</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01209705792388232</v>
+        <v>0.0106867525874701</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01326178686956845</v>
+        <v>-0.01776748826054891</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004853342114133683</v>
+        <v>0.01082051918482077</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004853342114133683</v>
+        <v>0.01082051918482077</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004853342114133683</v>
+        <v>0.01082051918482077</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004853342114133683</v>
+        <v>0.01082051918482077</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004853342114133683</v>
+        <v>0.01082051918482077</v>
       </c>
       <c r="P13" t="n">
-        <v>0.005242673969706958</v>
+        <v>-0.01562054712082188</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.003670531346821253</v>
+        <v>0.006910836372433455</v>
       </c>
       <c r="R13" t="n">
-        <v>0.003670531346821253</v>
+        <v>0.006910836372433455</v>
       </c>
       <c r="S13" t="n">
-        <v>0.003670531346821253</v>
+        <v>0.006910836372433455</v>
       </c>
       <c r="T13" t="n">
-        <v>0.003670531346821253</v>
+        <v>0.006910836372433455</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02433767482950699</v>
+        <v>-0.05555420487816819</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.008300752844030113</v>
+        <v>-0.01589750396390015</v>
       </c>
       <c r="W13" t="n">
-        <v>0.008450043890001754</v>
+        <v>-0.009640716289628651</v>
       </c>
       <c r="X13" t="n">
-        <v>0.02183964576958583</v>
+        <v>0.01005128872205155</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002480621667224866</v>
+        <v>0.0127559549102382</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01712218695688748</v>
+        <v>0.00808968877158755</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.02148924037956961</v>
+        <v>-0.005534119421364776</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.02148924037956961</v>
+        <v>-0.005534119421364776</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.02148924037956961</v>
+        <v>-0.005534119421364776</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.02148924037956961</v>
+        <v>-0.005534119421364776</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.02148924037956961</v>
+        <v>-0.005534119421364776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-crude glycerol</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1708,2053 +1704,2053 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02214849150993966</v>
+        <v>0.01139164797566592</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0008059194562367781</v>
+        <v>0.004911553736351618</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.002935915317436612</v>
+        <v>0.0045449974937999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003408293896331756</v>
+        <v>-0.007051271802050871</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0039779625271185</v>
+        <v>0.01028224725928989</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.002498331747933269</v>
+        <v>0.0074490650019626</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.004756365790254631</v>
+        <v>0.001426941081077643</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0185623939692256</v>
+        <v>-0.007498015272517276</v>
       </c>
       <c r="K14" t="n">
-        <v>0.004133503173340126</v>
+        <v>-0.0135254651170186</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004133503173340126</v>
+        <v>-0.0135254651170186</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004133503173340126</v>
+        <v>-0.0135254651170186</v>
       </c>
       <c r="N14" t="n">
-        <v>0.004133503173340126</v>
+        <v>-0.0135254651170186</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004133503173340126</v>
+        <v>-0.0135254651170186</v>
       </c>
       <c r="P14" t="n">
-        <v>0.003779827927193116</v>
+        <v>-0.008121183108847324</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.004511982228479289</v>
+        <v>-0.01486993653079746</v>
       </c>
       <c r="R14" t="n">
-        <v>0.004511982228479289</v>
+        <v>-0.01486993653079746</v>
       </c>
       <c r="S14" t="n">
-        <v>0.004511982228479289</v>
+        <v>-0.01486993653079746</v>
       </c>
       <c r="T14" t="n">
-        <v>0.004511982228479289</v>
+        <v>-0.01486993653079746</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.05622993690519747</v>
+        <v>0.002889672499586899</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.001013062792522511</v>
+        <v>-0.006572320294892811</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.007892669307706773</v>
+        <v>-0.0001333364213334568</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.01705734615429385</v>
+        <v>-0.02331483194059327</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.006229156377166254</v>
+        <v>-0.003784977943399117</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.001907085100283404</v>
+        <v>-0.03802586216103448</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01602777184111087</v>
+        <v>0.02620721423228856</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01602777184111087</v>
+        <v>0.02620721423228856</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01602777184111087</v>
+        <v>0.02620721423228856</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01602777184111087</v>
+        <v>0.02620721423228856</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01602777184111087</v>
+        <v>0.02620721423228856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Saccharification</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Reaction time [hr]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.004809214176368566</v>
+        <v>-0.03527000224280009</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.009508359644334384</v>
+        <v>-0.002626107862706374</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01252308808492352</v>
+        <v>0.005581299775251989</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01487274213090968</v>
+        <v>-0.00617431925497277</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01262217554488702</v>
+        <v>0.005513719708548788</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01677649641505985</v>
+        <v>0.005684687939387516</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.002159465942378637</v>
+        <v>0.0153628775425151</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01511432371433757</v>
+        <v>-0.01542945923509986</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01035048838201953</v>
+        <v>0.001421660408866416</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01035048838201953</v>
+        <v>0.001421660408866416</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01035048838201953</v>
+        <v>0.001421660408866416</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01035048838201953</v>
+        <v>0.001421660408866416</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.01035048838201953</v>
+        <v>0.001421660408866416</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01397911620716465</v>
+        <v>-0.006114186004567439</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.01094082898163316</v>
+        <v>0.0004584995703399827</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.01094082898163316</v>
+        <v>0.0004584995703399827</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01094082898163316</v>
+        <v>0.0004584995703399827</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.01094082898163316</v>
+        <v>0.0004584995703399827</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02482554675302187</v>
+        <v>-0.04539888335195532</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.01214515219780609</v>
+        <v>0.001012833160513326</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.01931393270855731</v>
+        <v>0.002648462409938496</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01561038340841533</v>
+        <v>-0.001743368325734733</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0208857950114318</v>
+        <v>0.001504614588184583</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.001812212520488501</v>
+        <v>0.009717311428692456</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.00782193228087729</v>
+        <v>-0.001367957814718313</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.00782193228087729</v>
+        <v>-0.001367957814718313</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.00782193228087729</v>
+        <v>-0.001367957814718313</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.00782193228087729</v>
+        <v>-0.001367957814718313</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.00782193228087729</v>
+        <v>-0.001367957814718313</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>cellulase</t>
+          <t>Saccharification</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Price [USD/kg]</t>
+          <t>Reaction time [hr]</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.005411202360448094</v>
+        <v>0.01146854359474174</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001442512665700506</v>
+        <v>0.007481086631738874</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.003754568406182736</v>
+        <v>0.003440934185637367</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004596049911841996</v>
+        <v>-0.003007523448300937</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00555531103821244</v>
+        <v>0.004414921424596856</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.00335993024639721</v>
+        <v>0.004056001122240045</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.003277478531099141</v>
+        <v>-0.02237145622285824</v>
       </c>
       <c r="J16" t="n">
-        <v>0.009436542823050334</v>
+        <v>0.0006913954848173638</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01190695583627823</v>
+        <v>0.02082689478507579</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01190695583627823</v>
+        <v>0.02082689478507579</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01190695583627823</v>
+        <v>0.02082689478507579</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01190695583627823</v>
+        <v>0.02082689478507579</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01190695583627823</v>
+        <v>0.02082689478507579</v>
       </c>
       <c r="P16" t="n">
-        <v>0.005346376533855061</v>
+        <v>-0.00223170076126803</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01257898821515953</v>
+        <v>0.01915549046221962</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01257898821515953</v>
+        <v>0.01915549046221962</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01257898821515953</v>
+        <v>0.01915549046221962</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01257898821515953</v>
+        <v>0.01915549046221962</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.002231229401249176</v>
+        <v>0.01477075038283001</v>
       </c>
       <c r="V16" t="n">
-        <v>0.00423182301727292</v>
+        <v>0.0002018855120754205</v>
       </c>
       <c r="W16" t="n">
-        <v>0.002111381460455258</v>
+        <v>0.01411772715670908</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01081280961651238</v>
+        <v>0.007523945964957838</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.0009591608063664322</v>
+        <v>0.001169066062762642</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.001940112845604514</v>
+        <v>0.01415732831029313</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.01623085120923405</v>
+        <v>-0.007639696913587876</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01623085120923405</v>
+        <v>-0.007639696913587876</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01623085120923405</v>
+        <v>-0.007639696913587876</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01623085120923405</v>
+        <v>-0.007639696913587876</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.01623085120923405</v>
+        <v>-0.007639696913587876</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>cellulase</t>
+        </is>
+      </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Cellulase loading [wt. % cellulose]</t>
+          <t>Price [USD/kg]</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.00559300678372027</v>
+        <v>-0.02331518666060746</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02845959675438387</v>
+        <v>-0.01738782480477092</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.02913028302121132</v>
+        <v>0.003722611156904446</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03075380283015211</v>
+        <v>-0.006032815345312613</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.03016047451841897</v>
+        <v>0.005956403374256135</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.03103155349726213</v>
+        <v>0.008068310050732401</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01339220232768809</v>
+        <v>-0.009090369003614759</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01732695057402883</v>
+        <v>0.007839147686735675</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02840005889600235</v>
+        <v>-0.002298518587940743</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02840005889600235</v>
+        <v>-0.002298518587940743</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02840005889600235</v>
+        <v>-0.002298518587940743</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02840005889600235</v>
+        <v>-0.002298518587940743</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02840005889600235</v>
+        <v>-0.002298518587940743</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03078168075126722</v>
+        <v>-0.00598766702350668</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02987557060302282</v>
+        <v>-0.004780452287218091</v>
       </c>
       <c r="R17" t="n">
-        <v>0.02987557060302282</v>
+        <v>-0.004780452287218091</v>
       </c>
       <c r="S17" t="n">
-        <v>0.02987557060302282</v>
+        <v>-0.004780452287218091</v>
       </c>
       <c r="T17" t="n">
-        <v>0.02987557060302282</v>
+        <v>-0.004780452287218091</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.006366132350645293</v>
+        <v>-0.0113524899580996</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.000632004601280184</v>
+        <v>-0.009309831060393242</v>
       </c>
       <c r="W17" t="n">
-        <v>-9.372288374891532e-05</v>
+        <v>0.01909355567574222</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01512565375702615</v>
+        <v>0.01306568106662724</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.001344441173777647</v>
+        <v>0.01156097153443886</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02865799036231961</v>
+        <v>0.008369377486775098</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.02182827495313099</v>
+        <v>-0.006379731231189248</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.02182827495313099</v>
+        <v>-0.006379731231189248</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.02182827495313099</v>
+        <v>-0.006379731231189248</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.02182827495313099</v>
+        <v>-0.006379731231189248</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.02182827495313099</v>
+        <v>-0.006379731231189248</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Pretreatment reactor system</t>
-        </is>
-      </c>
+      <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Base cost [million USD]</t>
+          <t>Cellulase loading [wt. % cellulose]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.005314631444585257</v>
+        <v>-0.01401319275252771</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004848441889937675</v>
+        <v>-0.02272561571059638</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01593735318149413</v>
+        <v>0.002900400980016038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01737057851882314</v>
+        <v>-0.01226151025046041</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01854850902994036</v>
+        <v>0.0153073725482949</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.01743965858558634</v>
+        <v>0.017880824971233</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.002799289167971567</v>
+        <v>0.0007723032308921291</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.002941030729876313</v>
+        <v>0.01658566312329043</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02331470954058838</v>
+        <v>0.01107373839494953</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02331470954058838</v>
+        <v>0.01107373839494953</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02331470954058838</v>
+        <v>0.01107373839494953</v>
       </c>
       <c r="N18" t="n">
-        <v>0.02331470954058838</v>
+        <v>0.01107373839494953</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02331470954058838</v>
+        <v>0.01107373839494953</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01833404943736197</v>
+        <v>-0.01063552208942088</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.02557580665503226</v>
+        <v>0.004039208705568348</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02557580665503226</v>
+        <v>0.004039208705568348</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02557580665503226</v>
+        <v>0.004039208705568348</v>
       </c>
       <c r="T18" t="n">
-        <v>0.02557580665503226</v>
+        <v>0.004039208705568348</v>
       </c>
       <c r="U18" t="n">
-        <v>0.002117515572700623</v>
+        <v>-0.003458939370357574</v>
       </c>
       <c r="V18" t="n">
-        <v>0.009961109294444369</v>
+        <v>-0.04053771522150861</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.008230252649210104</v>
+        <v>-0.01220954314438172</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01830093702003748</v>
+        <v>0.01602830982513239</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.001023923944956958</v>
+        <v>0.03970352549214102</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0251725426069017</v>
+        <v>0.01286342077053683</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.02542168469686738</v>
+        <v>-0.000451262802050512</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.02542168469686738</v>
+        <v>-0.000451262802050512</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.02542168469686738</v>
+        <v>-0.000451262802050512</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.02542168469686738</v>
+        <v>-0.000451262802050512</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.02542168469686738</v>
+        <v>-0.000451262802050512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pretreatment and saccharification</t>
+          <t>Pretreatment reactor system</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Cane glucose yield [%]</t>
+          <t>Base cost [million USD]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.0100558348982334</v>
+        <v>0.0152324874572995</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003681679443267178</v>
+        <v>0.00662679747067042</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.002832331313293252</v>
+        <v>0.01844926576197063</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004497958643918346</v>
+        <v>-0.0164820352192814</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.006728934509157379</v>
+        <v>0.01502705964108238</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.006037178545487141</v>
+        <v>0.01502727324109093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0006433757057350281</v>
+        <v>0.01609137520365501</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.005041654672926168</v>
+        <v>-0.01858663608669099</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005939690349587613</v>
+        <v>-0.03112832466913298</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005939690349587613</v>
+        <v>-0.03112832466913298</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005939690349587613</v>
+        <v>-0.03112832466913298</v>
       </c>
       <c r="N19" t="n">
-        <v>0.005939690349587613</v>
+        <v>-0.03112832466913298</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005939690349587613</v>
+        <v>-0.03112832466913298</v>
       </c>
       <c r="P19" t="n">
-        <v>0.005711451972458079</v>
+        <v>-0.01702669364106774</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.00732649104505964</v>
+        <v>-0.03017855631114225</v>
       </c>
       <c r="R19" t="n">
-        <v>0.00732649104505964</v>
+        <v>-0.03017855631114225</v>
       </c>
       <c r="S19" t="n">
-        <v>0.00732649104505964</v>
+        <v>-0.03017855631114225</v>
       </c>
       <c r="T19" t="n">
-        <v>0.00732649104505964</v>
+        <v>-0.03017855631114225</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0004002734560109382</v>
+        <v>-0.008112062628482504</v>
       </c>
       <c r="V19" t="n">
-        <v>0.007187922143516885</v>
+        <v>0.01622704192908168</v>
       </c>
       <c r="W19" t="n">
-        <v>0.002930584149223365</v>
+        <v>0.006964220438568817</v>
       </c>
       <c r="X19" t="n">
-        <v>0.007867024250680969</v>
+        <v>-0.01066821210672848</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.007840122937604915</v>
+        <v>-0.008198417895936717</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01665905394636216</v>
+        <v>-0.009776994631079785</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.01086271685050867</v>
+        <v>0.01451882477275299</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.01086271685050867</v>
+        <v>0.01451882477275299</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.01086271685050867</v>
+        <v>0.01451882477275299</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.01086271685050867</v>
+        <v>0.01451882477275299</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.01086271685050867</v>
+        <v>0.01451882477275299</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Pretreatment and saccharification</t>
+        </is>
+      </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Sorghum glucose yield [%]</t>
+          <t>Cane glucose yield [%]</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0008353422094136882</v>
+        <v>-0.01116775417471016</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001811943432477737</v>
+        <v>-0.01641246902939943</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.009808004936320195</v>
+        <v>0.01143747674549907</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01035554681422187</v>
+        <v>-0.014357974942319</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01061981956079278</v>
+        <v>0.01496644850265794</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.01020865884034635</v>
+        <v>0.01584765816990633</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.002429085697163427</v>
+        <v>0.008770324382812975</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02193541617300365</v>
+        <v>-0.007573430235660573</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01122369721694789</v>
+        <v>-0.01187579826703193</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01122369721694789</v>
+        <v>-0.01187579826703193</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01122369721694789</v>
+        <v>-0.01187579826703193</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01122369721694789</v>
+        <v>-0.01187579826703193</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01122369721694789</v>
+        <v>-0.01187579826703193</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01043286905731476</v>
+        <v>-0.01397306657492266</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0114745074029803</v>
+        <v>-0.01459622400784896</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0114745074029803</v>
+        <v>-0.01459622400784896</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0114745074029803</v>
+        <v>-0.01459622400784896</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0114745074029803</v>
+        <v>-0.01459622400784896</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01706417031456681</v>
+        <v>-0.001654457346178294</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.002254702842188113</v>
+        <v>-0.008786878719475148</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02555681737427269</v>
+        <v>0.006267924250716969</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.001947301805892072</v>
+        <v>-0.001830824521232981</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.001428171705126868</v>
+        <v>0.01457412317496492</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.002586812551472502</v>
+        <v>0.01254640811785632</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.0001767446470697859</v>
+        <v>0.008817496288699852</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.0001767446470697859</v>
+        <v>0.008817496288699852</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.0001767446470697859</v>
+        <v>0.008817496288699852</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.0001767446470697859</v>
+        <v>0.008817496288699852</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.0001767446470697859</v>
+        <v>0.008817496288699852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Cane xylose yield [%]</t>
+          <t>Sorghum glucose yield [%]</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01142714820108593</v>
+        <v>-0.006742933037717321</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.003839358873574354</v>
+        <v>-0.01393324149390013</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.007559766158390644</v>
+        <v>0.01635339934213597</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007413912776556511</v>
+        <v>-0.01573665605346624</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.005520048508801939</v>
+        <v>0.01513329065333162</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.004615055704602228</v>
+        <v>0.01596776022271041</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.005069239498769579</v>
+        <v>0.02684769419390777</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01229794250962674</v>
+        <v>-0.008943480036764246</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02219772165590887</v>
+        <v>-0.009176132623045303</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02219772165590887</v>
+        <v>-0.009176132623045303</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02219772165590887</v>
+        <v>-0.009176132623045303</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02219772165590887</v>
+        <v>-0.009176132623045303</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02219772165590887</v>
+        <v>-0.009176132623045303</v>
       </c>
       <c r="P21" t="n">
-        <v>0.007553348558133941</v>
+        <v>-0.01586525449061018</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02157097775883911</v>
+        <v>-0.01053183430927337</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02157097775883911</v>
+        <v>-0.01053183430927337</v>
       </c>
       <c r="S21" t="n">
-        <v>0.02157097775883911</v>
+        <v>-0.01053183430927337</v>
       </c>
       <c r="T21" t="n">
-        <v>0.02157097775883911</v>
+        <v>-0.01053183430927337</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.02272004366080174</v>
+        <v>-0.008869358850774353</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.002443987105759484</v>
+        <v>-0.001069568490782739</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.01008311704332468</v>
+        <v>0.003964585118583404</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.00569667152386686</v>
+        <v>-0.0122343025053721</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01517112175884487</v>
+        <v>0.01036425324657013</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.01203159532926381</v>
+        <v>-0.004056952482278099</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.003471584298863371</v>
+        <v>0.01781024461640978</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.003471584298863371</v>
+        <v>0.01781024461640978</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.003471584298863371</v>
+        <v>0.01781024461640978</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.003471584298863371</v>
+        <v>0.01781024461640978</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.003471584298863371</v>
+        <v>0.01781024461640978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Sorghum xylose yield [%]</t>
+          <t>Cane xylose yield [%]</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.0003071263802850552</v>
+        <v>-0.03065983082639323</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01242534222501369</v>
+        <v>0.005896913567785551</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.02579030522361221</v>
+        <v>-0.003770082774803311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02656138714245548</v>
+        <v>0.00241190352047614</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02789095609163824</v>
+        <v>-0.00147541724301669</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02654215219768608</v>
+        <v>-0.002924413364976535</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003814963832598552</v>
+        <v>-0.0004195899047835962</v>
       </c>
       <c r="J22" t="n">
-        <v>0.003888351905133303</v>
+        <v>-0.01320343024631897</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01009535281981411</v>
+        <v>-0.02813284346131373</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01009535281981411</v>
+        <v>-0.02813284346131373</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01009535281981411</v>
+        <v>-0.02813284346131373</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01009535281981411</v>
+        <v>-0.02813284346131373</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01009535281981411</v>
+        <v>-0.02813284346131373</v>
       </c>
       <c r="P22" t="n">
-        <v>0.02659842586393703</v>
+        <v>0.001624313632972545</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01226733677869347</v>
+        <v>-0.02719160662366426</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01226733677869347</v>
+        <v>-0.02719160662366426</v>
       </c>
       <c r="S22" t="n">
-        <v>0.01226733677869347</v>
+        <v>-0.02719160662366426</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01226733677869347</v>
+        <v>-0.02719160662366426</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01196021606240864</v>
+        <v>0.009912550572502022</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.00049737649989506</v>
+        <v>0.001886523819460952</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01400234561609382</v>
+        <v>0.001630137857205514</v>
       </c>
       <c r="X22" t="n">
-        <v>0.00666654804266192</v>
+        <v>0.002186722167468887</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.001111641644465666</v>
+        <v>-0.002329474077178963</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01936168378246735</v>
+        <v>0.009501868316074731</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.01003693691347748</v>
+        <v>-0.0027925150237006</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.01003693691347748</v>
+        <v>-0.0027925150237006</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.01003693691347748</v>
+        <v>-0.0027925150237006</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.01003693691347748</v>
+        <v>-0.0027925150237006</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.01003693691347748</v>
+        <v>-0.0027925150237006</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Cofermenation</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Glucose to ethanol yield [%]</t>
+          <t>Sorghum xylose yield [%]</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.001883896875355875</v>
+        <v>-0.01287358390694335</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.004003539328141572</v>
+        <v>-0.007886725755089615</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004385203951408158</v>
+        <v>-0.00802029228881169</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.002113632948545318</v>
+        <v>0.009168756366750254</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00102124026484961</v>
+        <v>-0.00968161181126447</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001156780942271238</v>
+        <v>-0.01048538873941555</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.001862115434484617</v>
+        <v>0.001933380557335222</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006336292198575949</v>
+        <v>-0.0289488650465887</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.02804969238598769</v>
+        <v>0.006104825716193028</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.02804969238598769</v>
+        <v>0.006104825716193028</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02804969238598769</v>
+        <v>0.006104825716193028</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.02804969238598769</v>
+        <v>0.006104825716193028</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.02804969238598769</v>
+        <v>0.006104825716193028</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.002238331481533259</v>
+        <v>0.009099106155964244</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.02453442952537718</v>
+        <v>0.00653403578136143</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.02453442952537718</v>
+        <v>0.00653403578136143</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.02453442952537718</v>
+        <v>0.00653403578136143</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.02453442952537718</v>
+        <v>0.00653403578136143</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01595701590228064</v>
+        <v>-0.007233285313331412</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01227122573884903</v>
+        <v>0.008103711492148457</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.001461445690457827</v>
+        <v>-0.002210592856423714</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.002953495990139839</v>
+        <v>0.007142461341698452</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.0008183458887338354</v>
+        <v>-0.007362783846511354</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.0137075401643016</v>
+        <v>0.008128514149140564</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0009186852847474112</v>
+        <v>-0.009603861024154439</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0009186852847474112</v>
+        <v>-0.009603861024154439</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0009186852847474112</v>
+        <v>-0.009603861024154439</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0009186852847474112</v>
+        <v>-0.009603861024154439</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0009186852847474112</v>
+        <v>-0.009603861024154439</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Cofermenation</t>
+        </is>
+      </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Xylose to ethanol yield [%]</t>
+          <t>Glucose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.008664468442578736</v>
+        <v>-0.01955512849420514</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0008729135389165415</v>
+        <v>-0.009667486086484619</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01034786537391461</v>
+        <v>0.00545126777005071</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.008310687212427488</v>
+        <v>-0.007429541097181643</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004213275912531036</v>
+        <v>0.007110610844424434</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006927661237106448</v>
+        <v>0.007708004468320179</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.003979983327199333</v>
+        <v>-0.002095004051800162</v>
       </c>
       <c r="J24" t="n">
-        <v>0.003061236558857643</v>
+        <v>-0.005333760990311158</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.019572150158886</v>
+        <v>0.01159331451173258</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.019572150158886</v>
+        <v>0.01159331451173258</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.019572150158886</v>
+        <v>0.01159331451173258</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.019572150158886</v>
+        <v>0.01159331451173258</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.019572150158886</v>
+        <v>0.01159331451173258</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.007671500754860028</v>
+        <v>-0.00621175378447015</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.01766126989045079</v>
+        <v>0.008940360261614409</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.01766126989045079</v>
+        <v>0.008940360261614409</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.01766126989045079</v>
+        <v>0.008940360261614409</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.01766126989045079</v>
+        <v>0.008940360261614409</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01253485518939421</v>
+        <v>0.02320088454403538</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.0001219924848796994</v>
+        <v>-0.01253947672557907</v>
       </c>
       <c r="W24" t="n">
-        <v>0.007374667974986719</v>
+        <v>0.006877284083091363</v>
       </c>
       <c r="X24" t="n">
-        <v>0.0115905100636204</v>
+        <v>0.02174343802173752</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.002032565649302626</v>
+        <v>0.01078285396731416</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01715249492609979</v>
+        <v>0.01840498192019928</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.008607412184296484</v>
+        <v>-0.0211162801726512</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.008607412184296484</v>
+        <v>-0.0211162801726512</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.008607412184296484</v>
+        <v>-0.0211162801726512</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.008607412184296484</v>
+        <v>-0.0211162801726512</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.008607412184296484</v>
+        <v>-0.0211162801726512</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Cofermentation</t>
-        </is>
-      </c>
+      <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Titer [g/L]</t>
+          <t>Xylose to ethanol yield [%]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01472275210891008</v>
+        <v>-0.003947834077913363</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01570372123614885</v>
+        <v>0.02266527053890152</v>
       </c>
       <c r="E25" t="n">
-        <v>0.006818230544729222</v>
+        <v>0.01686670886666835</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.007544665453786617</v>
+        <v>-0.02210724069228962</v>
       </c>
       <c r="G25" t="n">
-        <v>0.009181676719267068</v>
+        <v>0.02341849149673966</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004407878096315123</v>
+        <v>0.02447870469114818</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01744352479374099</v>
+        <v>0.0250951600758064</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002178807066289765</v>
+        <v>-0.001672099317693099</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.02696594219863768</v>
+        <v>-0.007010672056426881</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.02696594219863768</v>
+        <v>-0.007010672056426881</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.02696594219863768</v>
+        <v>-0.007010672056426881</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.02696594219863768</v>
+        <v>-0.007010672056426881</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.02696594219863768</v>
+        <v>-0.007010672056426881</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.009485696731427868</v>
+        <v>-0.02135041227801649</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.02823480832939233</v>
+        <v>-0.01256371951054878</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.02823480832939233</v>
+        <v>-0.01256371951054878</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.02823480832939233</v>
+        <v>-0.01256371951054878</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.02823480832939233</v>
+        <v>-0.01256371951054878</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.01711770548470822</v>
+        <v>-0.008290655659626224</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.0006858849874353994</v>
+        <v>-0.01986577385063095</v>
       </c>
       <c r="W25" t="n">
-        <v>0.03548642791545711</v>
+        <v>0.01788185149927406</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01005508350620334</v>
+        <v>-0.001542422845696914</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.02408105222724208</v>
+        <v>0.01503528924141157</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.01076133230245329</v>
+        <v>-0.001405460312218412</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01726235867449435</v>
+        <v>0.01164957944198318</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01726235867449435</v>
+        <v>0.01164957944198318</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01726235867449435</v>
+        <v>0.01164957944198318</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01726235867449435</v>
+        <v>0.01164957944198318</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01726235867449435</v>
+        <v>0.01164957944198318</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Cofermentation</t>
+        </is>
+      </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Productivity [g/L]</t>
+          <t>Titer [g/L]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01236151796646072</v>
+        <v>0.03011087554043502</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.009466703898668154</v>
+        <v>0.0007217295656247106</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.001954542990181719</v>
+        <v>0.01870228145209126</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001010333416413337</v>
+        <v>-0.01876104055844162</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.001737350853494034</v>
+        <v>0.01765414678616587</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0008247502409900095</v>
+        <v>0.02160733478429339</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01969548328381933</v>
+        <v>0.01022245980089839</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01165604899502667</v>
+        <v>-0.007619441885578337</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01621758852070354</v>
+        <v>-0.0208067975682719</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01621758852070354</v>
+        <v>-0.0208067975682719</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01621758852070354</v>
+        <v>-0.0208067975682719</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01621758852070354</v>
+        <v>-0.0208067975682719</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01621758852070354</v>
+        <v>-0.0208067975682719</v>
       </c>
       <c r="P26" t="n">
-        <v>0.002451532898061316</v>
+        <v>-0.01859311725572469</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.0155670526546821</v>
+        <v>-0.02200461620818465</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0155670526546821</v>
+        <v>-0.02200461620818465</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0155670526546821</v>
+        <v>-0.02200461620818465</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0155670526546821</v>
+        <v>-0.02200461620818465</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02653070112522804</v>
+        <v>-0.01016505064660202</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.00251569651662786</v>
+        <v>0.005333011605320463</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.0008475582099023284</v>
+        <v>-0.01731699803667992</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02244295462571818</v>
+        <v>-0.01421083458443338</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.004036035041441401</v>
+        <v>0.01781660586466423</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.004027860833114434</v>
+        <v>-0.01778057533522301</v>
       </c>
       <c r="AA26" t="n">
-        <v>-0.02652058694882348</v>
+        <v>0.01667033941881358</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.02652058694882348</v>
+        <v>0.01667033941881358</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.02652058694882348</v>
+        <v>0.01667033941881358</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.02652058694882348</v>
+        <v>0.01667033941881358</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.02652058694882348</v>
+        <v>0.01667033941881358</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>oilcane</t>
-        </is>
-      </c>
+      <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Cane PL content [% oil]</t>
+          <t>Productivity [g/L]</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.03996903231876129</v>
+        <v>-0.001410591032423641</v>
       </c>
       <c r="D27" t="n">
-        <v>0.007169562910782515</v>
+        <v>0.02912047080574365</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.05871824356472973</v>
+        <v>-0.01295046944601877</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01884980273799211</v>
+        <v>0.0134991350039654</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003963049598521983</v>
+        <v>-0.01252297288491891</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.02000384144015365</v>
+        <v>-0.01450509610020384</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01029051017162041</v>
+        <v>-0.007286446563457861</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01371163333621008</v>
+        <v>0.00190384692735234</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06822173332086932</v>
+        <v>0.01758556783942271</v>
       </c>
       <c r="L27" t="n">
-        <v>0.06822173332086932</v>
+        <v>0.01758556783942271</v>
       </c>
       <c r="M27" t="n">
-        <v>0.06822173332086932</v>
+        <v>0.01758556783942271</v>
       </c>
       <c r="N27" t="n">
-        <v>0.06822173332086932</v>
+        <v>0.01758556783942271</v>
       </c>
       <c r="O27" t="n">
-        <v>0.06822173332086932</v>
+        <v>0.01758556783942271</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01405930577837223</v>
+        <v>0.0133140549645622</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.03732518146100725</v>
+        <v>0.01714069191762767</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03732518146100725</v>
+        <v>0.01714069191762767</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03732518146100725</v>
+        <v>0.01714069191762767</v>
       </c>
       <c r="T27" t="n">
-        <v>0.03732518146100725</v>
+        <v>0.01714069191762767</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.02019051613562064</v>
+        <v>0.0005820834472833378</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.2421434839577393</v>
+        <v>0.000910893924435757</v>
       </c>
       <c r="W27" t="n">
-        <v>0.9915802398872094</v>
+        <v>0.01198544572741783</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0517118349644734</v>
+        <v>-0.008555103798204152</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.05765554694622187</v>
+        <v>-0.01035309151812366</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03735654370226174</v>
+        <v>0.001475990459039618</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.002947536885901475</v>
+        <v>0.001237567537502702</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.002947536885901475</v>
+        <v>0.001237567537502702</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.002947536885901475</v>
+        <v>0.001237567537502702</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.002947536885901475</v>
+        <v>0.001237567537502702</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.002947536885901475</v>
+        <v>0.001237567537502702</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Sorghum PL content [% oil]</t>
+          <t>Cane PL content [% oil]</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.002532539813301592</v>
+        <v>-0.03207238726689549</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02042471112098844</v>
+        <v>-0.005948272722312522</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.002631244809249792</v>
+        <v>-0.07310553489222139</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.003969877694795108</v>
+        <v>0.02795607039824281</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00640711302428452</v>
+        <v>-3.025257721010309e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008541718901668756</v>
+        <v>-0.02523759172950367</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02727157241886289</v>
+        <v>0.0260157151526286</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02433369158438817</v>
+        <v>0.0206125385231306</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01142279037691161</v>
+        <v>0.06798757951950317</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01142279037691161</v>
+        <v>0.06798757951950317</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01142279037691161</v>
+        <v>0.06798757951950317</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01142279037691161</v>
+        <v>0.06798757951950317</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01142279037691161</v>
+        <v>0.06798757951950317</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.003543529869741195</v>
+        <v>0.03129860035594401</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.006676469835058792</v>
+        <v>0.03668119039524761</v>
       </c>
       <c r="R28" t="n">
-        <v>0.006676469835058792</v>
+        <v>0.03668119039524761</v>
       </c>
       <c r="S28" t="n">
-        <v>0.006676469835058792</v>
+        <v>0.03668119039524761</v>
       </c>
       <c r="T28" t="n">
-        <v>0.006676469835058792</v>
+        <v>0.03668119039524761</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.005635049121401964</v>
+        <v>-0.04182262381690494</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.02354035063761402</v>
+        <v>-0.2582039162481566</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.02175192490207699</v>
+        <v>0.9915873913114955</v>
       </c>
       <c r="X28" t="n">
-        <v>0.002300266076010643</v>
+        <v>0.01553279601331184</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.02861244239249769</v>
+        <v>-0.03886076037043041</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.008067857890714314</v>
+        <v>0.02876980972679239</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.009063766346550652</v>
+        <v>0.03662231330489252</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.009063766346550652</v>
+        <v>0.03662231330489252</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.009063766346550652</v>
+        <v>0.03662231330489252</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.009063766346550652</v>
+        <v>0.03662231330489252</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.009063766346550652</v>
+        <v>0.03662231330489252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Cane FFA content [% oil]</t>
+          <t>Sorghum PL content [% oil]</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.001912964716518588</v>
+        <v>-0.01692509578100383</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01424484632979385</v>
+        <v>-0.009447588955205696</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.003114025756561029</v>
+        <v>-0.01579043487161739</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01482762174510487</v>
+        <v>0.01743231544929262</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01490560936422437</v>
+        <v>-0.01939504983180199</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01671599932463997</v>
+        <v>-0.01669819343592773</v>
       </c>
       <c r="I29" t="n">
-        <v>0.009269969842798792</v>
+        <v>-0.02193119137324765</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0738426547560396</v>
+        <v>0.03209507010572252</v>
       </c>
       <c r="K29" t="n">
-        <v>0.001557707774308311</v>
+        <v>6.265526650621064e-05</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001557707774308311</v>
+        <v>6.265526650621064e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.001557707774308311</v>
+        <v>6.265526650621064e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>0.001557707774308311</v>
+        <v>6.265526650621064e-05</v>
       </c>
       <c r="O29" t="n">
-        <v>0.001557707774308311</v>
+        <v>6.265526650621064e-05</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01424715359388614</v>
+        <v>0.01734459285378371</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.008389404911576196</v>
+        <v>0.003157154142286165</v>
       </c>
       <c r="R29" t="n">
-        <v>0.008389404911576196</v>
+        <v>0.003157154142286165</v>
       </c>
       <c r="S29" t="n">
-        <v>0.008389404911576196</v>
+        <v>0.003157154142286165</v>
       </c>
       <c r="T29" t="n">
-        <v>0.008389404911576196</v>
+        <v>0.003157154142286165</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01406182453047298</v>
+        <v>-0.005580883999235359</v>
       </c>
       <c r="V29" t="n">
-        <v>0.04328939472357578</v>
+        <v>0.001894137291765491</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1147372435014897</v>
+        <v>0.0211952775198111</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.02905846157833846</v>
+        <v>0.0285907850796314</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.021667575074703</v>
+        <v>0.001305254356210174</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.008438052049522082</v>
+        <v>0.01697722551108902</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.01531111222844449</v>
+        <v>-0.03299309373572375</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.01531111222844449</v>
+        <v>-0.03299309373572375</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.01531111222844449</v>
+        <v>-0.03299309373572375</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.01531111222844449</v>
+        <v>-0.03299309373572375</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.01531111222844449</v>
+        <v>-0.03299309373572375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Sorghum FFA content [% oil]</t>
+          <t>Cane FFA content [% oil]</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02531084203643368</v>
+        <v>-0.005406770520270819</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03344480927379236</v>
+        <v>-0.003528797212263024</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01300501828020073</v>
+        <v>-0.0006444854657794185</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01290679606827184</v>
+        <v>0.0144429126737165</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01283602380944095</v>
+        <v>-0.01642016993680679</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01091786078871443</v>
+        <v>-0.01741705836068233</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.03881561656062466</v>
+        <v>-0.01007842648313706</v>
       </c>
       <c r="J30" t="n">
-        <v>0.03031610804029952</v>
+        <v>-0.06575561611669407</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.006924154164966165</v>
+        <v>0.01491615650064626</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.006924154164966165</v>
+        <v>0.01491615650064626</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.006924154164966165</v>
+        <v>0.01491615650064626</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.006924154164966165</v>
+        <v>0.01491615650064626</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.006924154164966165</v>
+        <v>0.01491615650064626</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01160745713629829</v>
+        <v>0.01239028772761151</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.0057456050298242</v>
+        <v>0.0248938200357528</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.0057456050298242</v>
+        <v>0.0248938200357528</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.0057456050298242</v>
+        <v>0.0248938200357528</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.0057456050298242</v>
+        <v>0.0248938200357528</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.0409077177643087</v>
+        <v>0.004113822308552891</v>
       </c>
       <c r="V30" t="n">
-        <v>0.006301584732063388</v>
+        <v>0.0587889477595579</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01378236333529453</v>
+        <v>0.1101234651729386</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01028679727547189</v>
+        <v>-0.01785399681015987</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.01300872167234887</v>
+        <v>-0.02759055662362226</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.02367726219509048</v>
+        <v>-0.007464893194595727</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.01026752575470103</v>
+        <v>0.006626780233071208</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.01026752575470103</v>
+        <v>0.006626780233071208</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.01026752575470103</v>
+        <v>0.006626780233071208</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.01026752575470103</v>
+        <v>0.006626780233071208</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.01026752575470103</v>
+        <v>0.006626780233071208</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>oilcane</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Cane oil content [dry wt. %]</t>
+          <t>Sorghum FFA content [% oil]</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.486677224875089</v>
+        <v>-0.003593936207757447</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.02334369789374791</v>
+        <v>0.0001507379436330432</v>
       </c>
       <c r="E31" t="n">
-        <v>0.978179378167175</v>
+        <v>-0.004145227461809097</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9999565979182639</v>
+        <v>0.00240858950434358</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9915895143515804</v>
+        <v>-0.0004870905794836231</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9868460136178403</v>
+        <v>-0.003690063891602556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3749325683733027</v>
+        <v>0.0170208700888348</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.5093894366290982</v>
+        <v>0.008934715572398944</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.6085985802799432</v>
+        <v>0.009927263629090542</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.6085985802799432</v>
+        <v>0.009927263629090542</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.6085985802799432</v>
+        <v>0.009927263629090542</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.6085985802799432</v>
+        <v>0.009927263629090542</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.6085985802799432</v>
+        <v>0.009927263629090542</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.99816675522267</v>
+        <v>0.002854880370195214</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.6957352724054108</v>
+        <v>0.006356462942258516</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.6957352724054108</v>
+        <v>0.006356462942258516</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.6957352724054108</v>
+        <v>0.006356462942258516</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.6957352724054108</v>
+        <v>0.006356462942258516</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1310099584883983</v>
+        <v>-0.002595336199813448</v>
       </c>
       <c r="V31" t="n">
-        <v>0.001947532685901307</v>
+        <v>-0.005945448237817929</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.01332229474089179</v>
+        <v>0.01071653735666149</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.4274872474674898</v>
+        <v>0.008494713555788541</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.002833721489348859</v>
+        <v>-0.008818842688753705</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.5077134136845364</v>
+        <v>0.006588158759526349</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5369865548874622</v>
+        <v>-0.005526704189068167</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.5369865548874622</v>
+        <v>-0.005526704189068167</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.5369865548874622</v>
+        <v>-0.005526704189068167</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.5369865548874622</v>
+        <v>-0.005526704189068167</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.5369865548874622</v>
+        <v>-0.005526704189068167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>oilsorghum</t>
+          <t>oilcane</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Relative sorghum oil content [dry wt. %]</t>
+          <t>Cane oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.0007691598067663922</v>
+        <v>0.4969611466624458</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.002615932040637281</v>
+        <v>-0.01287522769627544</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.003012502968500118</v>
+        <v>0.9775172146846886</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.001022966920918677</v>
+        <v>-0.9999573445102936</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005271306546852261</v>
+        <v>0.9902566440582655</v>
       </c>
       <c r="H32" t="n">
-        <v>0.001696603459864138</v>
+        <v>0.9869956307758251</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.006966852470674099</v>
+        <v>0.5274915219636608</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009687052673431463</v>
+        <v>-0.594188916621794</v>
       </c>
       <c r="K32" t="n">
-        <v>0.003699784947991397</v>
+        <v>-0.5857186141487445</v>
       </c>
       <c r="L32" t="n">
-        <v>0.003699784947991397</v>
+        <v>-0.5857186141487445</v>
       </c>
       <c r="M32" t="n">
-        <v>0.003699784947991397</v>
+        <v>-0.5857186141487445</v>
       </c>
       <c r="N32" t="n">
-        <v>0.003699784947991397</v>
+        <v>-0.5857186141487445</v>
       </c>
       <c r="O32" t="n">
-        <v>0.003699784947991397</v>
+        <v>-0.5857186141487445</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.002149207189968287</v>
+        <v>-0.9986486444259457</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.0002530373861214954</v>
+        <v>-0.6718433084097323</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.0002530373861214954</v>
+        <v>-0.6718433084097323</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.0002530373861214954</v>
+        <v>-0.6718433084097323</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.0002530373861214954</v>
+        <v>-0.6718433084097323</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.02721145174445807</v>
+        <v>-0.1056942951397718</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.01460429146417166</v>
+        <v>-0.005861654826466192</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.01127591862703674</v>
+        <v>-0.022506200100248</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.008402590320103612</v>
+        <v>-0.3073299844851994</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.0009291966131678643</v>
+        <v>0.02857877711115108</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.009346304341852173</v>
+        <v>-0.3816893006435719</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01654607317384292</v>
+        <v>0.4225123201964927</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01654607317384292</v>
+        <v>0.4225123201964927</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01654607317384292</v>
+        <v>0.4225123201964927</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.01654607317384292</v>
+        <v>0.4225123201964927</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.01654607317384292</v>
+        <v>0.4225123201964927</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>biorefinery</t>
+          <t>oilsorghum</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>TAG to FFA conversion [% oil]</t>
+          <t>Relative sorghum oil content [dry wt. %]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.015148625021945</v>
+        <v>-0.006104488372179535</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01630701386828055</v>
+        <v>0.03040733942563852</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02739731543189262</v>
+        <v>-0.01410533173221327</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02612651634106065</v>
+        <v>0.009489530875581234</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.02498625651945026</v>
+        <v>-0.006404837632193504</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.02566824889872995</v>
+        <v>-0.006144108149764326</v>
       </c>
       <c r="I33" t="n">
-        <v>0.006145840853833634</v>
+        <v>0.009597075647883025</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.06619430568709202</v>
+        <v>0.009313924708204382</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03222510647300426</v>
+        <v>0.008417053296682131</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03222510647300426</v>
+        <v>0.008417053296682131</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03222510647300426</v>
+        <v>0.008417053296682131</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03222510647300426</v>
+        <v>0.008417053296682131</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03222510647300426</v>
+        <v>0.008417053296682131</v>
       </c>
       <c r="P33" t="n">
-        <v>0.02683449976137999</v>
+        <v>0.009789106759564268</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.03291046624441864</v>
+        <v>0.00556356924654277</v>
       </c>
       <c r="R33" t="n">
-        <v>0.03291046624441864</v>
+        <v>0.00556356924654277</v>
       </c>
       <c r="S33" t="n">
-        <v>0.03291046624441864</v>
+        <v>0.00556356924654277</v>
       </c>
       <c r="T33" t="n">
-        <v>0.03291046624441864</v>
+        <v>0.00556356924654277</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01208295398731816</v>
+        <v>0.003874653466986138</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.008909871140394845</v>
+        <v>-0.027352375142095</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0009485292859411713</v>
+        <v>0.009689830371593213</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.002154700790188031</v>
+        <v>0.01849713673988547</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.002326568637062745</v>
+        <v>0.02070682815627312</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.002408300448332018</v>
+        <v>0.02456231176649247</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.01579823333592933</v>
+        <v>-0.008862690882507632</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.01579823333592933</v>
+        <v>-0.008862690882507632</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.01579823333592933</v>
+        <v>-0.008862690882507632</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.01579823333592933</v>
+        <v>-0.008862690882507632</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.01579823333592933</v>
+        <v>-0.008862690882507632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Stream-oilcane</t>
+          <t>biorefinery</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>GWP [kg*CO2-eq/kg]</t>
+          <t>TAG to FFA conversion [% oil]</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01526800035472001</v>
+        <v>-0.001305897268235891</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0162324076572963</v>
+        <v>0.008060030219440116</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.01615872333434893</v>
+        <v>0.00220429026417161</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01756391715055668</v>
+        <v>-0.003596271887850875</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0180866975554679</v>
+        <v>0.0004051579362063175</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01574603458184138</v>
+        <v>0.00287552699502108</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.01952898462115938</v>
+        <v>0.01677953779118151</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02313754900682003</v>
+        <v>-0.07370032545582955</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6790392045055681</v>
+        <v>0.03326597470663899</v>
       </c>
       <c r="L34" t="n">
-        <v>0.6790392045055681</v>
+        <v>0.03326597470663899</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6790392045055681</v>
+        <v>0.03326597470663899</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6790392045055681</v>
+        <v>0.03326597470663899</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6790392045055681</v>
+        <v>0.03326597470663899</v>
       </c>
       <c r="P34" t="n">
-        <v>0.0555047051641882</v>
+        <v>-0.0011754349910174</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.649542977437719</v>
+        <v>0.03152225886089035</v>
       </c>
       <c r="R34" t="n">
-        <v>0.649542977437719</v>
+        <v>0.03152225886089035</v>
       </c>
       <c r="S34" t="n">
-        <v>0.649542977437719</v>
+        <v>0.03152225886089035</v>
       </c>
       <c r="T34" t="n">
-        <v>0.649542977437719</v>
+        <v>0.03152225886089035</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01021152108046084</v>
+        <v>-0.006127566485102659</v>
       </c>
       <c r="V34" t="n">
-        <v>0.005309474228378968</v>
+        <v>-0.00665778977031159</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01132585043703402</v>
+        <v>-0.01312876574115063</v>
       </c>
       <c r="X34" t="n">
-        <v>0.009714752452590097</v>
+        <v>0.009467114010684558</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.01361405920056236</v>
+        <v>0.0004189270247570809</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.005543444189737768</v>
+        <v>0.01032022956480918</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.1352547264341891</v>
+        <v>0.002745268141810725</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.1352547264341891</v>
+        <v>0.002745268141810725</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.1352547264341891</v>
+        <v>0.002745268141810725</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.1352547264341891</v>
+        <v>0.002745268141810725</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.1352547264341891</v>
+        <v>0.002745268141810725</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Stream-methanol</t>
+          <t>Stream-oilcane</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
@@ -3763,97 +3759,97 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.007327396229095849</v>
+        <v>-0.03937651914306076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01363320092932804</v>
+        <v>0.007812048268074656</v>
       </c>
       <c r="E35" t="n">
-        <v>0.02570227283609091</v>
+        <v>-0.03233770564550822</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02715575935823037</v>
+        <v>0.02715504031820161</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0276170948646838</v>
+        <v>-0.02247529424301177</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02564831363393254</v>
+        <v>-0.02476387635055505</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02228023951520958</v>
+        <v>-0.0187058449722338</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0172963922847625</v>
+        <v>0.003892802226251996</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.02544929304997172</v>
+        <v>0.6978137670485507</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.02544929304997172</v>
+        <v>0.6978137670485507</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.02544929304997172</v>
+        <v>0.6978137670485507</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.02544929304997172</v>
+        <v>0.6978137670485507</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.02544929304997172</v>
+        <v>0.6978137670485507</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.02826661389866455</v>
+        <v>0.05155584657423386</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.02646471629058865</v>
+        <v>0.6713428455097137</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.02646471629058865</v>
+        <v>0.6713428455097137</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.02646471629058865</v>
+        <v>0.6713428455097137</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.02646471629058865</v>
+        <v>0.6713428455097137</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.03506018060240722</v>
+        <v>-0.006675217707008707</v>
       </c>
       <c r="V35" t="n">
-        <v>0.005329344597173783</v>
+        <v>-0.02097465031098601</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0258790951471638</v>
+        <v>-0.0006793674511746979</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.03147924039516961</v>
+        <v>-0.009823730600949224</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.004462306450492257</v>
+        <v>0.01237775876711035</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.02229435535577421</v>
+        <v>0.00254585050183402</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.03719971003198839</v>
+        <v>-0.09288348035533919</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.03719971003198839</v>
+        <v>-0.09288348035533919</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.03719971003198839</v>
+        <v>-0.09288348035533919</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.03719971003198839</v>
+        <v>-0.09288348035533919</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.03719971003198839</v>
+        <v>-0.09288348035533919</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Stream-pure glycerine</t>
+          <t>Stream-methanol</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -3862,97 +3858,97 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02109263095570523</v>
+        <v>-0.002123189364927574</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009484092667363705</v>
+        <v>0.008368015043530923</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01208703907548156</v>
+        <v>0.0135509276780371</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.008601560312062412</v>
+        <v>-0.01397014375880575</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009867241162689645</v>
+        <v>0.01121091088043643</v>
       </c>
       <c r="H36" t="n">
-        <v>0.006375696063027841</v>
+        <v>0.0153446123897845</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.010619800072792</v>
+        <v>0.01111450527658021</v>
       </c>
       <c r="J36" t="n">
-        <v>0.006142743470555289</v>
+        <v>-0.002554833562485463</v>
       </c>
       <c r="K36" t="n">
-        <v>0.06523045662521826</v>
+        <v>-0.003432543017301721</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06523045662521826</v>
+        <v>-0.003432543017301721</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06523045662521826</v>
+        <v>-0.003432543017301721</v>
       </c>
       <c r="N36" t="n">
-        <v>0.06523045662521826</v>
+        <v>-0.003432543017301721</v>
       </c>
       <c r="O36" t="n">
-        <v>0.06523045662521826</v>
+        <v>-0.003432543017301721</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.00464427800977112</v>
+        <v>-0.01329936955597478</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.06330809878832394</v>
+        <v>-0.003072655130906205</v>
       </c>
       <c r="R36" t="n">
-        <v>0.06330809878832394</v>
+        <v>-0.003072655130906205</v>
       </c>
       <c r="S36" t="n">
-        <v>0.06330809878832394</v>
+        <v>-0.003072655130906205</v>
       </c>
       <c r="T36" t="n">
-        <v>0.06330809878832394</v>
+        <v>-0.003072655130906205</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01071370314854812</v>
+        <v>0.01767274467490978</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02296999608679984</v>
+        <v>0.003193437055737481</v>
       </c>
       <c r="W36" t="n">
-        <v>0.00869589375583575</v>
+        <v>0.01622537152901486</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.003712686388507455</v>
+        <v>-0.009454108218164326</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.02069671858786874</v>
+        <v>0.0105769200390768</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01099353461574138</v>
+        <v>-0.01000582532823301</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.05234165930966637</v>
+        <v>0.008448951601958063</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.05234165930966637</v>
+        <v>0.008448951601958063</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.05234165930966637</v>
+        <v>0.008448951601958063</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.05234165930966637</v>
+        <v>0.008448951601958063</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.05234165930966637</v>
+        <v>0.008448951601958063</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Stream-cellulase</t>
+          <t>Stream-pure glycerine</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
@@ -3961,190 +3957,289 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.009609898464395939</v>
+        <v>-0.0006581512583260502</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0137859299274372</v>
+        <v>-0.009774210359363805</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001033470953338838</v>
+        <v>0.003466995690679827</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.004123184996927399</v>
+        <v>-0.003339987109599484</v>
       </c>
       <c r="G37" t="n">
-        <v>0.006378347871133913</v>
+        <v>0.003753971382158855</v>
       </c>
       <c r="H37" t="n">
-        <v>0.004219940232797609</v>
+        <v>0.001163787598551504</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01498923957556958</v>
+        <v>0.008374168846966753</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.009197928093162139</v>
+        <v>-0.01151396519990207</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.004890734979629398</v>
+        <v>0.08205247845009912</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.004890734979629398</v>
+        <v>0.08205247845009912</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.004890734979629398</v>
+        <v>0.08205247845009912</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.004890734979629398</v>
+        <v>0.08205247845009912</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.004890734979629398</v>
+        <v>0.08205247845009912</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.004370779374831175</v>
+        <v>-0.0006069936242797449</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.007479410603176423</v>
+        <v>0.08001091481643659</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.007479410603176423</v>
+        <v>0.08001091481643659</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.007479410603176423</v>
+        <v>0.08001091481643659</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.007479410603176423</v>
+        <v>0.08001091481643659</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01289059798762392</v>
+        <v>-0.0006634003465360137</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.01448053670722147</v>
+        <v>0.005651380930055236</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.002585427943417117</v>
+        <v>-0.001547615581904623</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.002425889857035594</v>
+        <v>0.01370536739621469</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.002704120908164836</v>
+        <v>-0.01636118350244734</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.006333806845352273</v>
+        <v>0.01746880725875229</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.004948637381945495</v>
+        <v>0.03313672289346891</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.004948637381945495</v>
+        <v>0.03313672289346891</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.004948637381945495</v>
+        <v>0.03313672289346891</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.004948637381945495</v>
+        <v>0.03313672289346891</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.004948637381945495</v>
+        <v>0.03313672289346891</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
+          <t>Stream-cellulase</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>GWP [kg*CO2-eq/kg]</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.002185169367406775</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.01261079831106049</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.01580059042402361</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0146622274664891</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.01317910171116407</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.01529779539591181</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.02449234168369366</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01114787633664348</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01992421654096866</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.01992421654096866</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.01992421654096866</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01992421654096866</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.01992421654096866</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.01482197886487915</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.01988969733958789</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.01988969733958789</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.01988969733958789</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.01988969733958789</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.0005596729183869166</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-0.004906690468267618</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.001495591067823642</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-0.001219523088780924</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.008278822507152898</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0004552259702090387</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.001496999099879964</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.001496999099879964</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.001496999099879964</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.001496999099879964</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.001496999099879964</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
           <t>Stream-natural gas</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>GWP [kg*CO2-eq/kg]</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>-0.02675131431805257</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-0.02315309036612361</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.007333465541338621</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0002887927795517111</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.001982011087280443</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.001393139383725575</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-0.01398472587138903</v>
-      </c>
-      <c r="J38" t="n">
-        <v>-0.00907020488786929</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.06546140901845636</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.06546140901845636</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.06546140901845636</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.06546140901845636</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.06546140901845636</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.002932499637299985</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.05784924394596975</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.05784924394596975</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0.05784924394596975</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0.05784924394596975</v>
-      </c>
-      <c r="U38" t="n">
-        <v>-0.002122294932891797</v>
-      </c>
-      <c r="V38" t="n">
-        <v>-0.03286141283445651</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.02207728216309128</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.003933455965338238</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.01053348637333945</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>-0.02044910385796415</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0.006897790931911636</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0.006897790931911636</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.006897790931911636</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.006897790931911636</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0.006897790931911636</v>
+      <c r="C39" t="n">
+        <v>0.01262885608915424</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.003621078152624692</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.003517886540715461</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.00120057124802285</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.001290864819634593</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.00346554925862197</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.01264936130597445</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.02731440411446436</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.04440372523214901</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.04440372523214901</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.04440372523214901</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.04440372523214901</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.04440372523214901</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.0001570145342805814</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.04500367668014706</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.04500367668014706</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.04500367668014706</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.04500367668014706</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.01662841458513658</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.01925972957038918</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0066783300271332</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-0.0005848037993921518</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-0.02660794868031794</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.001571309054852362</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-0.003052426874097074</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>-0.003052426874097074</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-0.003052426874097074</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-0.003052426874097074</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-0.003052426874097074</v>
       </c>
     </row>
   </sheetData>
@@ -4153,12 +4248,12 @@
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -734,91 +734,91 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.09163689025747558</v>
+        <v>-0.08820291050411641</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01257326671106692</v>
+        <v>-0.002222304185919323</v>
       </c>
       <c r="E4" t="n">
         <v>-0.1177646069825843</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02338692045547681</v>
+        <v>-0.02338696826347873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06541139013645558</v>
+        <v>0.08419993671199746</v>
       </c>
       <c r="H4" t="n">
         <v>0.1765836888553475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05624506429780256</v>
+        <v>0.0517564951262598</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2985007494335112</v>
+        <v>0.09460332107991955</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3168014242560569</v>
+        <v>0.3218543532581741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3168014242560569</v>
+        <v>0.3218543532581741</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3168014242560569</v>
+        <v>0.3218543532581741</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3168014242560569</v>
+        <v>0.3218543532581741</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3168014242560569</v>
+        <v>0.3218543532581741</v>
       </c>
       <c r="P4" t="n">
-        <v>0.005780610087224402</v>
+        <v>0.001870421738816869</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2168994680999787</v>
+        <v>0.2157335591893423</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2168994680999787</v>
+        <v>0.2157335591893423</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2168994680999787</v>
+        <v>0.2157335591893423</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2168994680999787</v>
+        <v>0.2157335591893423</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.08836887838275512</v>
+        <v>-0.09716265364650613</v>
       </c>
       <c r="V4" t="n">
         <v>-0.7014339902653596</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01958171550326862</v>
+        <v>0.01957704481508179</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1403763683990547</v>
+        <v>0.277196949935878</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.998058530770341</v>
+        <v>0.9980585371063413</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1154763872750555</v>
+        <v>0.1876748669949946</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09118617110344683</v>
+        <v>0.1378479537059181</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.09118617110344683</v>
+        <v>0.1378479537059181</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09118617110344683</v>
+        <v>0.1378479537059181</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.09118617110344683</v>
+        <v>0.1378479537059181</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.09118617110344683</v>
+        <v>0.1378479537059181</v>
       </c>
     </row>
     <row r="5">
@@ -829,91 +829,91 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1110239632569585</v>
+        <v>0.1108973797638952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00515702108249043</v>
+        <v>0.0246776916950735</v>
       </c>
       <c r="E5" t="n">
         <v>0.1433098626923945</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01076975342279013</v>
+        <v>-0.01076986603079464</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07528345654733824</v>
+        <v>-0.08370738306029531</v>
       </c>
       <c r="H5" t="n">
         <v>0.008470465394818614</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05015501931820077</v>
+        <v>-0.04609968318798732</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005228501497923942</v>
+        <v>0.03058196907355431</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.165342701845708</v>
+        <v>-0.1744807564512302</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.165342701845708</v>
+        <v>-0.1744807564512302</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.165342701845708</v>
+        <v>-0.1744807564512302</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.165342701845708</v>
+        <v>-0.1744807564512302</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.165342701845708</v>
+        <v>-0.1744807564512302</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0200308874252355</v>
+        <v>-0.01962351803294072</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.05877966571118662</v>
+        <v>-0.06032707479708298</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.05877966571118662</v>
+        <v>-0.06032707479708298</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.05877966571118662</v>
+        <v>-0.06032707479708298</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.05877966571118662</v>
+        <v>-0.06032707479708298</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09793932698957307</v>
+        <v>0.1132901837956073</v>
       </c>
       <c r="V5" t="n">
         <v>0.6536887663075507</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002561348838453954</v>
+        <v>0.002549239589969583</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1289522638780905</v>
+        <v>-0.2094055566002223</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.0117591425183657</v>
+        <v>-0.01176007064640282</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.09654434622977384</v>
+        <v>-0.1325776770471071</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0572481675699267</v>
+        <v>-0.1189811379432455</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.0572481675699267</v>
+        <v>-0.1189811379432455</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.0572481675699267</v>
+        <v>-0.1189811379432455</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0572481675699267</v>
+        <v>-0.1189811379432455</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.0572481675699267</v>
+        <v>-0.1189811379432455</v>
       </c>
     </row>
     <row r="6">
@@ -924,91 +924,91 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2071523843820954</v>
+        <v>0.2847333148453326</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004988931408853536</v>
+        <v>-0.009671582907876218</v>
       </c>
       <c r="E6" t="n">
         <v>-0.002243198393727935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005427992185119686</v>
+        <v>0.005428281529131261</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03106457125858285</v>
+        <v>-0.02273019815720792</v>
       </c>
       <c r="H6" t="n">
         <v>-0.006998576439943056</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8395524605580982</v>
+        <v>-0.8951564883822594</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07726727659650008</v>
+        <v>-0.003808967049638495</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04475494345419773</v>
+        <v>0.03190318169212726</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04475494345419773</v>
+        <v>0.03190318169212726</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04475494345419773</v>
+        <v>0.03190318169212726</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04475494345419773</v>
+        <v>0.03190318169212726</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04475494345419773</v>
+        <v>0.03190318169212726</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01433382652535306</v>
+        <v>0.009764922822596911</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05549288314771532</v>
+        <v>0.04292297403691896</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05549288314771532</v>
+        <v>0.04292297403691896</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05549288314771532</v>
+        <v>0.04292297403691896</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05549288314771532</v>
+        <v>0.04292297403691896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05080747796829911</v>
+        <v>0.04984166215366648</v>
       </c>
       <c r="V6" t="n">
         <v>0.02071473481258939</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02792947849317913</v>
+        <v>-0.02798428825537153</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01403264936130597</v>
+        <v>0.004335077165403086</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.000991107879644315</v>
+        <v>-0.0009891643595665743</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.1710790801231632</v>
+        <v>-0.3582525850821034</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.03161120708844828</v>
+        <v>-0.02062284735291389</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.03161120708844828</v>
+        <v>-0.02062284735291389</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03161120708844828</v>
+        <v>-0.02062284735291389</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.03161120708844828</v>
+        <v>-0.02062284735291389</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.03161120708844828</v>
+        <v>-0.02062284735291389</v>
       </c>
     </row>
     <row r="7">
@@ -1019,91 +1019,91 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01623137613725504</v>
+        <v>0.01634973876598955</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.00393879233700317</v>
+        <v>0.01070557607023833</v>
       </c>
       <c r="E7" t="n">
         <v>0.01175450811818032</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.009328682293147291</v>
+        <v>-0.009329261653170464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007670409234816368</v>
+        <v>0.009486742171469685</v>
       </c>
       <c r="H7" t="n">
         <v>0.0088485200339408</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0008040662721626508</v>
+        <v>-0.001790539463621578</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004811979464563304</v>
+        <v>-0.00605698459631453</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01800922708836908</v>
+        <v>-0.01967494158699766</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01800922708836908</v>
+        <v>-0.01967494158699766</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01800922708836908</v>
+        <v>-0.01967494158699766</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01800922708836908</v>
+        <v>-0.01967494158699766</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.01800922708836908</v>
+        <v>-0.01967494158699766</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009396840471873617</v>
+        <v>-0.009933732877349314</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01617942947917718</v>
+        <v>-0.0184031150081246</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01617942947917718</v>
+        <v>-0.0184031150081246</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01617942947917718</v>
+        <v>-0.0184031150081246</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01617942947917718</v>
+        <v>-0.0184031150081246</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0227132577085303</v>
+        <v>0.01743797618551905</v>
       </c>
       <c r="V7" t="n">
         <v>0.007844667961786718</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01723773400150936</v>
+        <v>0.01725052129802085</v>
       </c>
       <c r="X7" t="n">
-        <v>0.008963396422535855</v>
+        <v>-0.0184023151360926</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.01073666097346644</v>
+        <v>-0.01073606452544258</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.0004218908328756333</v>
+        <v>-0.01233246039729841</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01422213484088539</v>
+        <v>0.01271250473250019</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.01422213484088539</v>
+        <v>0.01271250473250019</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.01422213484088539</v>
+        <v>0.01271250473250019</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01422213484088539</v>
+        <v>0.01271250473250019</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.01422213484088539</v>
+        <v>0.01271250473250019</v>
       </c>
     </row>
     <row r="8">
@@ -1114,91 +1114,91 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01274832070193282</v>
+        <v>0.01291597107663884</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0319643721674155</v>
+        <v>0.003029323358537903</v>
       </c>
       <c r="E8" t="n">
         <v>-0.001420882808835312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001363955478558219</v>
+        <v>0.001364030838561233</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.001618944160757766</v>
+        <v>-0.002908530932341237</v>
       </c>
       <c r="H8" t="n">
         <v>-0.001561537790461512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.009340559797622392</v>
+        <v>-0.01070253546810142</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.004214764927671403</v>
+        <v>-0.001695292004381298</v>
       </c>
       <c r="K8" t="n">
-        <v>0.007498105643924224</v>
+        <v>0.01009325934773037</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007498105643924224</v>
+        <v>0.01009325934773037</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007498105643924224</v>
+        <v>0.01009325934773037</v>
       </c>
       <c r="N8" t="n">
-        <v>0.007498105643924224</v>
+        <v>0.01009325934773037</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007498105643924224</v>
+        <v>0.01009325934773037</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001629380801175232</v>
+        <v>0.001727249541089981</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.008440765297630611</v>
+        <v>0.01192678598107144</v>
       </c>
       <c r="R8" t="n">
-        <v>0.008440765297630611</v>
+        <v>0.01192678598107144</v>
       </c>
       <c r="S8" t="n">
-        <v>0.008440765297630611</v>
+        <v>0.01192678598107144</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008440765297630611</v>
+        <v>0.01192678598107144</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.01252363739694549</v>
+        <v>-0.003447760553910422</v>
       </c>
       <c r="V8" t="n">
         <v>-0.004322193676887747</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009316597524663899</v>
+        <v>0.009309082260363288</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.01823525391341015</v>
+        <v>0.001610521984420879</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.003052481210099248</v>
+        <v>0.003052186202087448</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.01925305171412206</v>
+        <v>0.005145499693819987</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01829583711583348</v>
+        <v>-0.004678424347136973</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01829583711583348</v>
+        <v>-0.004678424347136973</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01829583711583348</v>
+        <v>-0.004678424347136973</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01829583711583348</v>
+        <v>-0.004678424347136973</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01829583711583348</v>
+        <v>-0.004678424347136973</v>
       </c>
     </row>
     <row r="9">
@@ -1213,91 +1213,91 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4769917687436707</v>
+        <v>0.4711520425260817</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007342090472365004</v>
+        <v>0.01333991288318761</v>
       </c>
       <c r="E9" t="n">
         <v>0.003303209604128384</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001925080877003235</v>
+        <v>-0.001924485292979411</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004027413953096557</v>
+        <v>0.000383699151347966</v>
       </c>
       <c r="H9" t="n">
         <v>0.000364514126580565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.008700346620013864</v>
+        <v>-0.01151166410846656</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00431074328367178</v>
+        <v>-0.01266347292679384</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02064310479372419</v>
+        <v>-0.01695037824601513</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.02064310479372419</v>
+        <v>-0.01695037824601513</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.02064310479372419</v>
+        <v>-0.01695037824601513</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.02064310479372419</v>
+        <v>-0.01695037824601513</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.02064310479372419</v>
+        <v>-0.01695037824601513</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.003754429974177198</v>
+        <v>-0.002520249028809961</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01966150725046029</v>
+        <v>-0.01515954771038191</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01966150725046029</v>
+        <v>-0.01515954771038191</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01966150725046029</v>
+        <v>-0.01515954771038191</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01966150725046029</v>
+        <v>-0.01515954771038191</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.543347302021892</v>
+        <v>-0.6016127738565108</v>
       </c>
       <c r="V9" t="n">
         <v>0.002256314106252564</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009579228287169129</v>
+        <v>0.009571917310876692</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.0236138677285547</v>
+        <v>-0.009597158111886323</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.002614666376586655</v>
+        <v>-0.002613878696555147</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.03144477831379113</v>
+        <v>-0.001450084666003386</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0231480175339207</v>
+        <v>0.007346808101872324</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0231480175339207</v>
+        <v>0.007346808101872324</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0231480175339207</v>
+        <v>0.007346808101872324</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0231480175339207</v>
+        <v>0.007346808101872324</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0231480175339207</v>
+        <v>0.007346808101872324</v>
       </c>
     </row>
     <row r="10">
@@ -1312,91 +1312,91 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5459362232134488</v>
+        <v>0.5412393346095733</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01409075489350435</v>
+        <v>-0.02533504719236338</v>
       </c>
       <c r="E10" t="n">
         <v>0.02868284956331398</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02962195001687799</v>
+        <v>-0.02962156313686252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02854074747762989</v>
+        <v>0.02961676649667066</v>
       </c>
       <c r="H10" t="n">
         <v>0.03064438672977546</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.001182193295287732</v>
+        <v>-0.004728405405136215</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.005195749608558843</v>
+        <v>0.01316338473895829</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0248618849624754</v>
+        <v>-0.02488873203554928</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0248618849624754</v>
+        <v>-0.02488873203554928</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0248618849624754</v>
+        <v>-0.02488873203554928</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0248618849624754</v>
+        <v>-0.02488873203554928</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0248618849624754</v>
+        <v>-0.02488873203554928</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02962275632091025</v>
+        <v>-0.03002594635303785</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02700324924012996</v>
+        <v>-0.02843166670526666</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02700324924012996</v>
+        <v>-0.02843166670526666</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02700324924012996</v>
+        <v>-0.02843166670526666</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02700324924012996</v>
+        <v>-0.02843166670526666</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6302472230978887</v>
+        <v>0.6983664156466565</v>
       </c>
       <c r="V10" t="n">
         <v>0.002660347114413884</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005813321608532864</v>
+        <v>0.005824842760993709</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01759310335972413</v>
+        <v>-0.009699288003971518</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004826651809066072</v>
+        <v>0.004826509345060373</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.004451073298042931</v>
+        <v>-0.02109401949976078</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.007378179751127189</v>
+        <v>0.01459333959173358</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.007378179751127189</v>
+        <v>0.01459333959173358</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.007378179751127189</v>
+        <v>0.01459333959173358</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.007378179751127189</v>
+        <v>0.01459333959173358</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.007378179751127189</v>
+        <v>0.01459333959173358</v>
       </c>
     </row>
     <row r="11">
@@ -1411,91 +1411,91 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.002852392434095697</v>
+        <v>-0.00231698975667959</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0002233676232909131</v>
+        <v>-0.00858675417118916</v>
       </c>
       <c r="E11" t="n">
         <v>0.002898114931924597</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001790965319638613</v>
+        <v>-0.001790596199623848</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004773739390949575</v>
+        <v>0.000446942801877712</v>
       </c>
       <c r="H11" t="n">
         <v>-0.001071932202877288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003038580889543235</v>
+        <v>0.003691442643657705</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01182109921270341</v>
+        <v>-0.01156025600229448</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001600549888021995</v>
+        <v>-0.001577854527114181</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001600549888021995</v>
+        <v>-0.001577854527114181</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001600549888021995</v>
+        <v>-0.001577854527114181</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001600549888021995</v>
+        <v>-0.001577854527114181</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001600549888021995</v>
+        <v>-0.001577854527114181</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001655760162230406</v>
+        <v>-0.001813563816542552</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.001153911406156456</v>
+        <v>-0.0006282139451285577</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.001153911406156456</v>
+        <v>-0.0006282139451285577</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.001153911406156456</v>
+        <v>-0.0006282139451285577</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.001153911406156456</v>
+        <v>-0.0006282139451285577</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01486330657853226</v>
+        <v>-0.0107901125276045</v>
       </c>
       <c r="V11" t="n">
         <v>-0.002020335824813433</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01833490882939635</v>
+        <v>0.01837746659109866</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004763174878526994</v>
+        <v>0.01064774730590989</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.01424349493773979</v>
+        <v>-0.01424356280974251</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01532649440505977</v>
+        <v>-0.005051407498056299</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.001944501101780044</v>
+        <v>-0.008439303217572127</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.001944501101780044</v>
+        <v>-0.008439303217572127</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.001944501101780044</v>
+        <v>-0.008439303217572127</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.001944501101780044</v>
+        <v>-0.008439303217572127</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.001944501101780044</v>
+        <v>-0.008439303217572127</v>
       </c>
     </row>
     <row r="12">
@@ -1510,91 +1510,91 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.07971624654864985</v>
+        <v>0.08083895891355834</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02899513764625851</v>
+        <v>-0.01914018769880638</v>
       </c>
       <c r="E12" t="n">
         <v>0.008717855484714218</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01178781435951257</v>
+        <v>-0.01178767122350685</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0108087149283486</v>
+        <v>0.01314010612560424</v>
       </c>
       <c r="H12" t="n">
         <v>0.01309334375573375</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01151851802874072</v>
+        <v>0.01171549544461981</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0004756579398254229</v>
+        <v>-0.02390575291626245</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004784655839386233</v>
+        <v>0.004082965987318639</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004784655839386233</v>
+        <v>0.004082965987318639</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004784655839386233</v>
+        <v>0.004082965987318639</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004784655839386233</v>
+        <v>0.004082965987318639</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004784655839386233</v>
+        <v>0.004082965987318639</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01078678919947157</v>
+        <v>-0.01130766928430677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002395167935806717</v>
+        <v>0.001518869916754797</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002395167935806717</v>
+        <v>0.001518869916754797</v>
       </c>
       <c r="S12" t="n">
-        <v>0.002395167935806717</v>
+        <v>0.001518869916754797</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002395167935806717</v>
+        <v>0.001518869916754797</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0669395600535824</v>
+        <v>0.07105063791402551</v>
       </c>
       <c r="V12" t="n">
         <v>-0.0149328974613159</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02830413319616532</v>
+        <v>0.0283026176441047</v>
       </c>
       <c r="X12" t="n">
-        <v>0.001164039022561561</v>
+        <v>-0.003986461599458463</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01068059668322387</v>
+        <v>0.01068090839523633</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01001149518445981</v>
+        <v>-0.02508790813951632</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.006071710706868427</v>
+        <v>0.01652115186084607</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006071710706868427</v>
+        <v>0.01652115186084607</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006071710706868427</v>
+        <v>0.01652115186084607</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006071710706868427</v>
+        <v>0.01652115186084607</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.006071710706868427</v>
+        <v>0.01652115186084607</v>
       </c>
     </row>
     <row r="13">
@@ -1605,91 +1605,91 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3024901039716041</v>
+        <v>-0.3360778912351156</v>
       </c>
       <c r="D13" t="n">
-        <v>0.008485149527015505</v>
+        <v>0.01495608251339567</v>
       </c>
       <c r="E13" t="n">
         <v>0.0126909301716372</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01724975195399008</v>
+        <v>-0.01724947172997887</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0157028726921149</v>
+        <v>0.01940617556024702</v>
       </c>
       <c r="H13" t="n">
         <v>0.01952371537294861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0106867525874701</v>
+        <v>0.009617064384682574</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01776748826054891</v>
+        <v>0.0128564434945775</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01082051918482077</v>
+        <v>0.006689155755566229</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01082051918482077</v>
+        <v>0.006689155755566229</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01082051918482077</v>
+        <v>0.006689155755566229</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01082051918482077</v>
+        <v>0.006689155755566229</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01082051918482077</v>
+        <v>0.006689155755566229</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01562054712082188</v>
+        <v>-0.01656364991054599</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.006910836372433455</v>
+        <v>0.001644503201780128</v>
       </c>
       <c r="R13" t="n">
-        <v>0.006910836372433455</v>
+        <v>0.001644503201780128</v>
       </c>
       <c r="S13" t="n">
-        <v>0.006910836372433455</v>
+        <v>0.001644503201780128</v>
       </c>
       <c r="T13" t="n">
-        <v>0.006910836372433455</v>
+        <v>0.001644503201780128</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.05555420487816819</v>
+        <v>-0.07304021572160863</v>
       </c>
       <c r="V13" t="n">
         <v>-0.01589750396390015</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009640716289628651</v>
+        <v>-0.009640837825633511</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01005128872205155</v>
+        <v>7.050153882006153e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0127559549102382</v>
+        <v>0.0127554426542177</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.00808968877158755</v>
+        <v>-0.008871034722841389</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.005534119421364776</v>
+        <v>0.009882931307317251</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.005534119421364776</v>
+        <v>0.009882931307317251</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.005534119421364776</v>
+        <v>0.009882931307317251</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.005534119421364776</v>
+        <v>0.009882931307317251</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.005534119421364776</v>
+        <v>0.009882931307317251</v>
       </c>
     </row>
     <row r="14">
@@ -1704,91 +1704,91 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01139164797566592</v>
+        <v>0.008888892643555704</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004911553736351618</v>
+        <v>-0.008997356194296082</v>
       </c>
       <c r="E14" t="n">
         <v>0.0045449974937999</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007051271802050871</v>
+        <v>-0.007051318074052722</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01028224725928989</v>
+        <v>0.008474703890988153</v>
       </c>
       <c r="H14" t="n">
         <v>0.0074490650019626</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001426941081077643</v>
+        <v>0.001016052904642116</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.007498015272517276</v>
+        <v>0.01415804466707889</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0135254651170186</v>
+        <v>-0.01020048540001941</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0135254651170186</v>
+        <v>-0.01020048540001941</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.0135254651170186</v>
+        <v>-0.01020048540001941</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.0135254651170186</v>
+        <v>-0.01020048540001941</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0135254651170186</v>
+        <v>-0.01020048540001941</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.008121183108847324</v>
+        <v>-0.007385550727422028</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01486993653079746</v>
+        <v>-0.01127541136301645</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.01486993653079746</v>
+        <v>-0.01127541136301645</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.01486993653079746</v>
+        <v>-0.01127541136301645</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01486993653079746</v>
+        <v>-0.01127541136301645</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002889672499586899</v>
+        <v>0.02041355361654214</v>
       </c>
       <c r="V14" t="n">
         <v>-0.006572320294892811</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0001333364213334568</v>
+        <v>-0.0001623593344943734</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.02331483194059327</v>
+        <v>0.007893215643728625</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.003784977943399117</v>
+        <v>-0.003784722487388899</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.03802586216103448</v>
+        <v>-0.004016935552677421</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.02620721423228856</v>
+        <v>0.0007360727334429093</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02620721423228856</v>
+        <v>0.0007360727334429093</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.02620721423228856</v>
+        <v>0.0007360727334429093</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.02620721423228856</v>
+        <v>0.0007360727334429093</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.02620721423228856</v>
+        <v>0.0007360727334429093</v>
       </c>
     </row>
     <row r="15">
@@ -1803,91 +1803,91 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.03527000224280009</v>
+        <v>-0.03621448877657955</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.002626107862706374</v>
+        <v>-0.02150100949324983</v>
       </c>
       <c r="E15" t="n">
         <v>0.005581299775251989</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.00617431925497277</v>
+        <v>-0.006174142230965689</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005513719708548788</v>
+        <v>0.005493581595743263</v>
       </c>
       <c r="H15" t="n">
         <v>0.005684687939387516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0153628775425151</v>
+        <v>0.0159771101430844</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01542945923509986</v>
+        <v>-0.01890361655449628</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001421660408866416</v>
+        <v>0.003145142909805716</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001421660408866416</v>
+        <v>0.003145142909805716</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001421660408866416</v>
+        <v>0.003145142909805716</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001421660408866416</v>
+        <v>0.003145142909805716</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001421660408866416</v>
+        <v>0.003145142909805716</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.006114186004567439</v>
+        <v>-0.006197660791906431</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0004584995703399827</v>
+        <v>0.003110477212419088</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0004584995703399827</v>
+        <v>0.003110477212419088</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0004584995703399827</v>
+        <v>0.003110477212419088</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0004584995703399827</v>
+        <v>0.003110477212419088</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.04539888335195532</v>
+        <v>-0.0531154400766176</v>
       </c>
       <c r="V15" t="n">
         <v>0.001012833160513326</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002648462409938496</v>
+        <v>0.00264778848991154</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.001743368325734733</v>
+        <v>-0.009327843829113752</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001504614588184583</v>
+        <v>0.001504486524179461</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.009717311428692456</v>
+        <v>-0.005529244733169789</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.001367957814718313</v>
+        <v>0.002140020277600811</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.001367957814718313</v>
+        <v>0.002140020277600811</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.001367957814718313</v>
+        <v>0.002140020277600811</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.001367957814718313</v>
+        <v>0.002140020277600811</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.001367957814718313</v>
+        <v>0.002140020277600811</v>
       </c>
     </row>
     <row r="16">
@@ -1902,91 +1902,91 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01146854359474174</v>
+        <v>0.01377365930294637</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007481086631738874</v>
+        <v>-0.02882205460098497</v>
       </c>
       <c r="E16" t="n">
         <v>0.003440934185637367</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.003007523448300937</v>
+        <v>-0.003007499544299982</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004414921424596856</v>
+        <v>0.005089919339596773</v>
       </c>
       <c r="H16" t="n">
         <v>0.004056001122240045</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02237145622285824</v>
+        <v>-0.02390144822005793</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0006913954848173638</v>
+        <v>0.001035991817787766</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02082689478507579</v>
+        <v>0.02383328879333155</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02082689478507579</v>
+        <v>0.02383328879333155</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02082689478507579</v>
+        <v>0.02383328879333155</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02082689478507579</v>
+        <v>0.02383328879333155</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02082689478507579</v>
+        <v>0.02383328879333155</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.00223170076126803</v>
+        <v>-0.002212480888499235</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01915549046221962</v>
+        <v>0.02306301596252064</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01915549046221962</v>
+        <v>0.02306301596252064</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01915549046221962</v>
+        <v>0.02306301596252064</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01915549046221962</v>
+        <v>0.02306301596252064</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01477075038283001</v>
+        <v>0.008962567462502697</v>
       </c>
       <c r="V16" t="n">
         <v>0.0002018855120754205</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01411772715670908</v>
+        <v>0.01410769093230763</v>
       </c>
       <c r="X16" t="n">
-        <v>0.007523945964957838</v>
+        <v>-0.009740809445632376</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001169066062762642</v>
+        <v>0.00116841326273653</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01415732831029313</v>
+        <v>-0.02589701882788075</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.007639696913587876</v>
+        <v>0.005988286223531448</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.007639696913587876</v>
+        <v>0.005988286223531448</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.007639696913587876</v>
+        <v>0.005988286223531448</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.007639696913587876</v>
+        <v>0.005988286223531448</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.007639696913587876</v>
+        <v>0.005988286223531448</v>
       </c>
     </row>
     <row r="17">
@@ -2001,91 +2001,91 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02331518666060746</v>
+        <v>-0.02116980641479226</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.01738782480477092</v>
+        <v>0.01958263626867382</v>
       </c>
       <c r="E17" t="n">
         <v>0.003722611156904446</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.006032815345312613</v>
+        <v>-0.006032465137298604</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005956403374256135</v>
+        <v>0.006389785983591439</v>
       </c>
       <c r="H17" t="n">
         <v>0.008068310050732401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.009090369003614759</v>
+        <v>-0.01130640237225609</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007839147686735675</v>
+        <v>-0.01183988730957369</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.002298518587940743</v>
+        <v>-0.001667809410712376</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.002298518587940743</v>
+        <v>-0.001667809410712376</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.002298518587940743</v>
+        <v>-0.001667809410712376</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.002298518587940743</v>
+        <v>-0.001667809410712376</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.002298518587940743</v>
+        <v>-0.001667809410712376</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.00598766702350668</v>
+        <v>-0.006066090962643638</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.004780452287218091</v>
+        <v>-0.003665225234609009</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.004780452287218091</v>
+        <v>-0.003665225234609009</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.004780452287218091</v>
+        <v>-0.003665225234609009</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.004780452287218091</v>
+        <v>-0.003665225234609009</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0113524899580996</v>
+        <v>-0.01651324050052962</v>
       </c>
       <c r="V17" t="n">
         <v>-0.009309831060393242</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01909355567574222</v>
+        <v>0.01908738479549539</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01306568106662724</v>
+        <v>0.001445365401814616</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01156097153443886</v>
+        <v>0.01156044468641779</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.008369377486775098</v>
+        <v>0.0004429572657182906</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.006379731231189248</v>
+        <v>0.007348763333950533</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.006379731231189248</v>
+        <v>0.007348763333950533</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.006379731231189248</v>
+        <v>0.007348763333950533</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.006379731231189248</v>
+        <v>0.007348763333950533</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.006379731231189248</v>
+        <v>0.007348763333950533</v>
       </c>
     </row>
     <row r="18">
@@ -2096,91 +2096,91 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01401319275252771</v>
+        <v>-0.01298631661545266</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02272561571059638</v>
+        <v>0.02385733805392157</v>
       </c>
       <c r="E18" t="n">
         <v>0.002900400980016038</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01226151025046041</v>
+        <v>-0.01226138045845522</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0153073725482949</v>
+        <v>0.01753556076542243</v>
       </c>
       <c r="H18" t="n">
         <v>0.017880824971233</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0007723032308921291</v>
+        <v>-0.001509100668364026</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01658566312329043</v>
+        <v>-0.0182047527023069</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01107373839494953</v>
+        <v>0.01201746201669848</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01107373839494953</v>
+        <v>0.01201746201669848</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01107373839494953</v>
+        <v>0.01201746201669848</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01107373839494953</v>
+        <v>0.01201746201669848</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01107373839494953</v>
+        <v>0.01201746201669848</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01063552208942088</v>
+        <v>-0.01133692797347712</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.004039208705568348</v>
+        <v>0.005411056248442249</v>
       </c>
       <c r="R18" t="n">
-        <v>0.004039208705568348</v>
+        <v>0.005411056248442249</v>
       </c>
       <c r="S18" t="n">
-        <v>0.004039208705568348</v>
+        <v>0.005411056248442249</v>
       </c>
       <c r="T18" t="n">
-        <v>0.004039208705568348</v>
+        <v>0.005411056248442249</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.003458939370357574</v>
+        <v>-0.01364175116967004</v>
       </c>
       <c r="V18" t="n">
         <v>-0.04053771522150861</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01220954314438172</v>
+        <v>-0.01218653549546142</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01602830982513239</v>
+        <v>0.006122459092898364</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03970352549214102</v>
+        <v>0.03970474469218978</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01286342077053683</v>
+        <v>0.01554156330966253</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.000451262802050512</v>
+        <v>0.01985579839423193</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.000451262802050512</v>
+        <v>0.01985579839423193</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.000451262802050512</v>
+        <v>0.01985579839423193</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.000451262802050512</v>
+        <v>0.01985579839423193</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.000451262802050512</v>
+        <v>0.01985579839423193</v>
       </c>
     </row>
     <row r="19">
@@ -2195,91 +2195,91 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0152324874572995</v>
+        <v>0.01222268295290732</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00662679747067042</v>
+        <v>0.02731273216695289</v>
       </c>
       <c r="E19" t="n">
         <v>0.01844926576197063</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0164820352192814</v>
+        <v>-0.01648252088330083</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01502705964108238</v>
+        <v>0.01491488162059526</v>
       </c>
       <c r="H19" t="n">
         <v>0.01502727324109093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01609137520365501</v>
+        <v>0.0152373050254922</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01858663608669099</v>
+        <v>0.0003724788150243055</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.03112832466913298</v>
+        <v>-0.02914314039772561</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.03112832466913298</v>
+        <v>-0.02914314039772561</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.03112832466913298</v>
+        <v>-0.02914314039772561</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.03112832466913298</v>
+        <v>-0.02914314039772561</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.03112832466913298</v>
+        <v>-0.02914314039772561</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01702669364106774</v>
+        <v>-0.01719757911990316</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.03017855631114225</v>
+        <v>-0.0277766427430657</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.03017855631114225</v>
+        <v>-0.0277766427430657</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.03017855631114225</v>
+        <v>-0.0277766427430657</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.03017855631114225</v>
+        <v>-0.0277766427430657</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.008112062628482504</v>
+        <v>-0.005419947864797913</v>
       </c>
       <c r="V19" t="n">
         <v>0.01622704192908168</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006964220438568817</v>
+        <v>0.006967646678705866</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.01066821210672848</v>
+        <v>-0.005479502331180093</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.008198417895936717</v>
+        <v>-0.008200182472007298</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.009776994631079785</v>
+        <v>0.001658465538338622</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01451882477275299</v>
+        <v>0.01364291142571646</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01451882477275299</v>
+        <v>0.01364291142571646</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01451882477275299</v>
+        <v>0.01364291142571646</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01451882477275299</v>
+        <v>0.01364291142571646</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01451882477275299</v>
+        <v>0.01364291142571646</v>
       </c>
     </row>
     <row r="20">
@@ -2294,91 +2294,91 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01116775417471016</v>
+        <v>-0.01138759696750388</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01641246902939943</v>
+        <v>0.003683503408177826</v>
       </c>
       <c r="E20" t="n">
         <v>0.01143747674549907</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.014357974942319</v>
+        <v>-0.01435764220630569</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01496644850265794</v>
+        <v>0.01439708812788352</v>
       </c>
       <c r="H20" t="n">
         <v>0.01584765816990633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.008770324382812975</v>
+        <v>0.006909315924372636</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.007573430235660573</v>
+        <v>0.01713665622722417</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01187579826703193</v>
+        <v>-0.01113558025342321</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01187579826703193</v>
+        <v>-0.01113558025342321</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01187579826703193</v>
+        <v>-0.01113558025342321</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01187579826703193</v>
+        <v>-0.01113558025342321</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01187579826703193</v>
+        <v>-0.01113558025342321</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01397306657492266</v>
+        <v>-0.01399122987164919</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01459622400784896</v>
+        <v>-0.01402435217697409</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01459622400784896</v>
+        <v>-0.01402435217697409</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01459622400784896</v>
+        <v>-0.01402435217697409</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01459622400784896</v>
+        <v>-0.01402435217697409</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.001654457346178294</v>
+        <v>0.00369821649992866</v>
       </c>
       <c r="V20" t="n">
         <v>-0.008786878719475148</v>
       </c>
       <c r="W20" t="n">
-        <v>0.006267924250716969</v>
+        <v>0.006263224090528962</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.001830824521232981</v>
+        <v>0.00537487451899498</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01457412317496492</v>
+        <v>0.014574650118986</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01254640811785632</v>
+        <v>0.001347057173882287</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.008817496288699852</v>
+        <v>0.008361808654472346</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.008817496288699852</v>
+        <v>0.008361808654472346</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.008817496288699852</v>
+        <v>0.008361808654472346</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.008817496288699852</v>
+        <v>0.008361808654472346</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.008817496288699852</v>
+        <v>0.008361808654472346</v>
       </c>
     </row>
     <row r="21">
@@ -2389,91 +2389,91 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.006742933037717321</v>
+        <v>-0.01012437218097489</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01393324149390013</v>
+        <v>-0.006715809384285626</v>
       </c>
       <c r="E21" t="n">
         <v>0.01635339934213597</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01573665605346624</v>
+        <v>-0.01573642670945707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01513329065333162</v>
+        <v>0.01407815029112601</v>
       </c>
       <c r="H21" t="n">
         <v>0.01596776022271041</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02684769419390777</v>
+        <v>0.02666384593055383</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.008943480036764246</v>
+        <v>-0.01591708576203157</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.009176132623045303</v>
+        <v>-0.004382890351315613</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.009176132623045303</v>
+        <v>-0.004382890351315613</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.009176132623045303</v>
+        <v>-0.004382890351315613</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.009176132623045303</v>
+        <v>-0.004382890351315613</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.009176132623045303</v>
+        <v>-0.004382890351315613</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01586525449061018</v>
+        <v>-0.01561179412847176</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01053183430927337</v>
+        <v>-0.00452729451709178</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01053183430927337</v>
+        <v>-0.00452729451709178</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01053183430927337</v>
+        <v>-0.00452729451709178</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01053183430927337</v>
+        <v>-0.00452729451709178</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.008869358850774353</v>
+        <v>-0.005391032087641283</v>
       </c>
       <c r="V21" t="n">
         <v>-0.001069568490782739</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003964585118583404</v>
+        <v>0.00395449177417967</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.0122343025053721</v>
+        <v>-0.01993094450923778</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01036425324657013</v>
+        <v>0.0103644024305761</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.004056952482278099</v>
+        <v>-0.01176034453441378</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01781024461640978</v>
+        <v>0.02317428361497134</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01781024461640978</v>
+        <v>0.02317428361497134</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01781024461640978</v>
+        <v>0.02317428361497134</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01781024461640978</v>
+        <v>0.02317428361497134</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01781024461640978</v>
+        <v>0.02317428361497134</v>
       </c>
     </row>
     <row r="22">
@@ -2484,91 +2484,91 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03065983082639323</v>
+        <v>-0.03008809973152398</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005896913567785551</v>
+        <v>-0.006875211222745797</v>
       </c>
       <c r="E22" t="n">
         <v>-0.003770082774803311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00241190352047614</v>
+        <v>0.002411524608460984</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00147541724301669</v>
+        <v>2.539660901586436e-05</v>
       </c>
       <c r="H22" t="n">
         <v>-0.002924413364976535</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0004195899047835962</v>
+        <v>-0.0001083964843358594</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01320343024631897</v>
+        <v>-0.00762874230771295</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.02813284346131373</v>
+        <v>-0.03361128076845122</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.02813284346131373</v>
+        <v>-0.03361128076845122</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.02813284346131373</v>
+        <v>-0.03361128076845122</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.02813284346131373</v>
+        <v>-0.03361128076845122</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.02813284346131373</v>
+        <v>-0.03361128076845122</v>
       </c>
       <c r="P22" t="n">
-        <v>0.001624313632972545</v>
+        <v>0.0009792707911708315</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.02719160662366426</v>
+        <v>-0.03466837060273482</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.02719160662366426</v>
+        <v>-0.03466837060273482</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.02719160662366426</v>
+        <v>-0.03466837060273482</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.02719160662366426</v>
+        <v>-0.03466837060273482</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009912550572502022</v>
+        <v>0.009185844175433765</v>
       </c>
       <c r="V22" t="n">
         <v>0.001886523819460952</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001630137857205514</v>
+        <v>0.001630059329202373</v>
       </c>
       <c r="X22" t="n">
-        <v>0.002186722167468887</v>
+        <v>-0.01656090411843616</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.002329474077178963</v>
+        <v>-0.002329811037192441</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.009501868316074731</v>
+        <v>-0.01386140993045639</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.0027925150237006</v>
+        <v>0.02012738787709551</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.0027925150237006</v>
+        <v>0.02012738787709551</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.0027925150237006</v>
+        <v>0.02012738787709551</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.0027925150237006</v>
+        <v>0.02012738787709551</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.0027925150237006</v>
+        <v>0.02012738787709551</v>
       </c>
     </row>
     <row r="23">
@@ -2579,91 +2579,91 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01287358390694335</v>
+        <v>-0.01217157283886291</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.007886725755089615</v>
+        <v>0.000277861652598964</v>
       </c>
       <c r="E23" t="n">
         <v>-0.00802029228881169</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009168756366750254</v>
+        <v>0.00916873428674937</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00968161181126447</v>
+        <v>-0.009682522851300914</v>
       </c>
       <c r="H23" t="n">
         <v>-0.01048538873941555</v>
       </c>
       <c r="I23" t="n">
-        <v>0.001933380557335222</v>
+        <v>0.003310613700424547</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0289488650465887</v>
+        <v>-0.004648344235495613</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006104825716193028</v>
+        <v>0.005423250168930006</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006104825716193028</v>
+        <v>0.005423250168930006</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006104825716193028</v>
+        <v>0.005423250168930006</v>
       </c>
       <c r="N23" t="n">
-        <v>0.006104825716193028</v>
+        <v>0.005423250168930006</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006104825716193028</v>
+        <v>0.005423250168930006</v>
       </c>
       <c r="P23" t="n">
-        <v>0.009099106155964244</v>
+        <v>0.008964068422562737</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.00653403578136143</v>
+        <v>0.005944524429780976</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00653403578136143</v>
+        <v>0.005944524429780976</v>
       </c>
       <c r="S23" t="n">
-        <v>0.00653403578136143</v>
+        <v>0.005944524429780976</v>
       </c>
       <c r="T23" t="n">
-        <v>0.00653403578136143</v>
+        <v>0.005944524429780976</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.007233285313331412</v>
+        <v>-0.007068435354737414</v>
       </c>
       <c r="V23" t="n">
         <v>0.008103711492148457</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.002210592856423714</v>
+        <v>-0.002220205336808213</v>
       </c>
       <c r="X23" t="n">
-        <v>0.007142461341698452</v>
+        <v>0.001332046325281853</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.007362783846511354</v>
+        <v>-0.007362674502506979</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.008128514149140564</v>
+        <v>-0.01773515149340606</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.009603861024154439</v>
+        <v>-0.004127681829107273</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.009603861024154439</v>
+        <v>-0.004127681829107273</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.009603861024154439</v>
+        <v>-0.004127681829107273</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.009603861024154439</v>
+        <v>-0.004127681829107273</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.009603861024154439</v>
+        <v>-0.004127681829107273</v>
       </c>
     </row>
     <row r="24">
@@ -2678,91 +2678,91 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01955512849420514</v>
+        <v>-0.01976033992641359</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.009667486086484619</v>
+        <v>-0.004114019652691496</v>
       </c>
       <c r="E24" t="n">
         <v>0.00545126777005071</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007429541097181643</v>
+        <v>-0.007429432425177296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007110610844424434</v>
+        <v>0.008297984587919383</v>
       </c>
       <c r="H24" t="n">
         <v>0.007708004468320179</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.002095004051800162</v>
+        <v>-0.00312340226893609</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.005333760990311158</v>
+        <v>0.004023543954293668</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01159331451173258</v>
+        <v>0.01220726688829067</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01159331451173258</v>
+        <v>0.01220726688829067</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01159331451173258</v>
+        <v>0.01220726688829067</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01159331451173258</v>
+        <v>0.01220726688829067</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01159331451173258</v>
+        <v>0.01220726688829067</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.00621175378447015</v>
+        <v>-0.006581154215246168</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.008940360261614409</v>
+        <v>0.01011881954075278</v>
       </c>
       <c r="R24" t="n">
-        <v>0.008940360261614409</v>
+        <v>0.01011881954075278</v>
       </c>
       <c r="S24" t="n">
-        <v>0.008940360261614409</v>
+        <v>0.01011881954075278</v>
       </c>
       <c r="T24" t="n">
-        <v>0.008940360261614409</v>
+        <v>0.01011881954075278</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02320088454403538</v>
+        <v>0.01421068069642723</v>
       </c>
       <c r="V24" t="n">
         <v>-0.01253947672557907</v>
       </c>
       <c r="W24" t="n">
-        <v>0.006877284083091363</v>
+        <v>0.006858790450351616</v>
       </c>
       <c r="X24" t="n">
-        <v>0.02174343802173752</v>
+        <v>-0.00840913876836555</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01078285396731416</v>
+        <v>0.01078384900735396</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01840498192019928</v>
+        <v>-0.01041320614452824</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.0211162801726512</v>
+        <v>0.01165769777830791</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.0211162801726512</v>
+        <v>0.01165769777830791</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.0211162801726512</v>
+        <v>0.01165769777830791</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.0211162801726512</v>
+        <v>0.01165769777830791</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.0211162801726512</v>
+        <v>0.01165769777830791</v>
       </c>
     </row>
     <row r="25">
@@ -2773,91 +2773,91 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.003947834077913363</v>
+        <v>-0.005754734054189361</v>
       </c>
       <c r="D25" t="n">
-        <v>0.02266527053890152</v>
+        <v>-0.01301323729658655</v>
       </c>
       <c r="E25" t="n">
         <v>0.01686670886666835</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02210724069228962</v>
+        <v>-0.02210722130028885</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02341849149673966</v>
+        <v>0.02521387934455517</v>
       </c>
       <c r="H25" t="n">
         <v>0.02447870469114818</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0250951600758064</v>
+        <v>0.02399151801566072</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.001672099317693099</v>
+        <v>0.009410846443595902</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.007010672056426881</v>
+        <v>-0.006226659609066384</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.007010672056426881</v>
+        <v>-0.006226659609066384</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.007010672056426881</v>
+        <v>-0.006226659609066384</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.007010672056426881</v>
+        <v>-0.006226659609066384</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.007010672056426881</v>
+        <v>-0.006226659609066384</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02135041227801649</v>
+        <v>-0.02170010419600417</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.01256371951054878</v>
+        <v>-0.01207992528319701</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.01256371951054878</v>
+        <v>-0.01207992528319701</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.01256371951054878</v>
+        <v>-0.01207992528319701</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.01256371951054878</v>
+        <v>-0.01207992528319701</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.008290655659626224</v>
+        <v>-0.01103578095343124</v>
       </c>
       <c r="V25" t="n">
         <v>-0.01986577385063095</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01788185149927406</v>
+        <v>0.0178840876273635</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.001542422845696914</v>
+        <v>-0.01489077313963092</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01503528924141157</v>
+        <v>0.01503481279339251</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.001405460312218412</v>
+        <v>-0.01238869643154785</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01164957944198318</v>
+        <v>0.02673374286134971</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01164957944198318</v>
+        <v>0.02673374286134971</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01164957944198318</v>
+        <v>0.02673374286134971</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01164957944198318</v>
+        <v>0.02673374286134971</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01164957944198318</v>
+        <v>0.02673374286134971</v>
       </c>
     </row>
     <row r="26">
@@ -2872,91 +2872,91 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03011087554043502</v>
+        <v>0.02919526129581045</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0007217295656247106</v>
+        <v>-0.03294570301624859</v>
       </c>
       <c r="E26" t="n">
         <v>0.01870228145209126</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01876104055844162</v>
+        <v>-0.018761150094446</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01765414678616587</v>
+        <v>0.01830001129200045</v>
       </c>
       <c r="H26" t="n">
         <v>0.02160733478429339</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01022245980089839</v>
+        <v>0.008627545881101834</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.007619441885578337</v>
+        <v>0.0009832490796603348</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0208067975682719</v>
+        <v>-0.01913315894132635</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0208067975682719</v>
+        <v>-0.01913315894132635</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0208067975682719</v>
+        <v>-0.01913315894132635</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0208067975682719</v>
+        <v>-0.01913315894132635</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.0208067975682719</v>
+        <v>-0.01913315894132635</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01859311725572469</v>
+        <v>-0.01902843407313736</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02200461620818465</v>
+        <v>-0.02083307056132282</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02200461620818465</v>
+        <v>-0.02083307056132282</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02200461620818465</v>
+        <v>-0.02083307056132282</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02200461620818465</v>
+        <v>-0.02083307056132282</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.01016505064660202</v>
+        <v>-0.006536416293456651</v>
       </c>
       <c r="V26" t="n">
         <v>0.005333011605320463</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01731699803667992</v>
+        <v>-0.01732854414914176</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.01421083458443338</v>
+        <v>-0.01698416448736658</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01781660586466423</v>
+        <v>0.01781725184869007</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.01778057533522301</v>
+        <v>-0.01527794701111788</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01667033941881358</v>
+        <v>0.02455593314223732</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01667033941881358</v>
+        <v>0.02455593314223732</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01667033941881358</v>
+        <v>0.02455593314223732</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01667033941881358</v>
+        <v>0.02455593314223732</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01667033941881358</v>
+        <v>0.02455593314223732</v>
       </c>
     </row>
     <row r="27">
@@ -2967,91 +2967,91 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.001410591032423641</v>
+        <v>-0.002022032432881297</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02912047080574365</v>
+        <v>0.01167844634436668</v>
       </c>
       <c r="E27" t="n">
         <v>-0.01295046944601877</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0134991350039654</v>
+        <v>0.01349930146797206</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01252297288491891</v>
+        <v>-0.01294772576590903</v>
       </c>
       <c r="H27" t="n">
         <v>-0.01450509610020384</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.007286446563457861</v>
+        <v>-0.005010219656408785</v>
       </c>
       <c r="J27" t="n">
-        <v>0.00190384692735234</v>
+        <v>-0.01096370506623201</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01758556783942271</v>
+        <v>0.01849347385973895</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01758556783942271</v>
+        <v>0.01849347385973895</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01758556783942271</v>
+        <v>0.01849347385973895</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01758556783942271</v>
+        <v>0.01849347385973895</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01758556783942271</v>
+        <v>0.01849347385973895</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0133140549645622</v>
+        <v>0.01370256899610276</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01714069191762767</v>
+        <v>0.01860890877635635</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01714069191762767</v>
+        <v>0.01860890877635635</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01714069191762767</v>
+        <v>0.01860890877635635</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01714069191762767</v>
+        <v>0.01860890877635635</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0005820834472833378</v>
+        <v>0.0006971986838879474</v>
       </c>
       <c r="V27" t="n">
         <v>0.000910893924435757</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01198544572741783</v>
+        <v>0.01198043875121755</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.008555103798204152</v>
+        <v>-0.01028806025152241</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.01035309151812366</v>
+        <v>-0.01035245849409834</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.001475990459039618</v>
+        <v>-0.004335349517413979</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.001237567537502702</v>
+        <v>-0.004145202693808108</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.001237567537502702</v>
+        <v>-0.004145202693808108</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.001237567537502702</v>
+        <v>-0.004145202693808108</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.001237567537502702</v>
+        <v>-0.004145202693808108</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.001237567537502702</v>
+        <v>-0.004145202693808108</v>
       </c>
     </row>
     <row r="28">
@@ -3066,91 +3066,91 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.03207238726689549</v>
+        <v>-0.03294485574979422</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.005948272722312522</v>
+        <v>0.01509571048145672</v>
       </c>
       <c r="E28" t="n">
         <v>-0.07310553489222139</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02795607039824281</v>
+        <v>0.02795559980622399</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.025257721010309e-05</v>
+        <v>-0.0005684607587384304</v>
       </c>
       <c r="H28" t="n">
         <v>-0.02523759172950367</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0260157151526286</v>
+        <v>0.02689437813177512</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0206125385231306</v>
+        <v>0.005286426405233295</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06798757951950317</v>
+        <v>0.07276661110266444</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06798757951950317</v>
+        <v>0.07276661110266444</v>
       </c>
       <c r="M28" t="n">
-        <v>0.06798757951950317</v>
+        <v>0.07276661110266444</v>
       </c>
       <c r="N28" t="n">
-        <v>0.06798757951950317</v>
+        <v>0.07276661110266444</v>
       </c>
       <c r="O28" t="n">
-        <v>0.06798757951950317</v>
+        <v>0.07276661110266444</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03129860035594401</v>
+        <v>0.03232344954893798</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03668119039524761</v>
+        <v>0.04013596461343858</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03668119039524761</v>
+        <v>0.04013596461343858</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03668119039524761</v>
+        <v>0.04013596461343858</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03668119039524761</v>
+        <v>0.04013596461343858</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.04182262381690494</v>
+        <v>-0.0421428200217128</v>
       </c>
       <c r="V28" t="n">
         <v>-0.2582039162481566</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915873913114955</v>
+        <v>0.9915875564315022</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01553279601331184</v>
+        <v>0.05908048287521931</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.03886076037043041</v>
+        <v>-0.03886075086643003</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02876980972679239</v>
+        <v>0.05882800545712021</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.03662231330489252</v>
+        <v>0.02756193307047732</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.03662231330489252</v>
+        <v>0.02756193307047732</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.03662231330489252</v>
+        <v>0.02756193307047732</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.03662231330489252</v>
+        <v>0.02756193307047732</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.03662231330489252</v>
+        <v>0.02756193307047732</v>
       </c>
     </row>
     <row r="29">
@@ -3165,91 +3165,91 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01692509578100383</v>
+        <v>-0.01631982564479302</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.009447588955205696</v>
+        <v>0.02169669253095211</v>
       </c>
       <c r="E29" t="n">
         <v>-0.01579043487161739</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01743231544929262</v>
+        <v>0.01743201228128049</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01939504983180199</v>
+        <v>-0.0187328326853133</v>
       </c>
       <c r="H29" t="n">
         <v>-0.01669819343592773</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02193119137324765</v>
+        <v>-0.0217306702132268</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03209507010572252</v>
+        <v>0.01480737021327008</v>
       </c>
       <c r="K29" t="n">
-        <v>6.265526650621064e-05</v>
+        <v>-0.003829381689175267</v>
       </c>
       <c r="L29" t="n">
-        <v>6.265526650621064e-05</v>
+        <v>-0.003829381689175267</v>
       </c>
       <c r="M29" t="n">
-        <v>6.265526650621064e-05</v>
+        <v>-0.003829381689175267</v>
       </c>
       <c r="N29" t="n">
-        <v>6.265526650621064e-05</v>
+        <v>-0.003829381689175267</v>
       </c>
       <c r="O29" t="n">
-        <v>6.265526650621064e-05</v>
+        <v>-0.003829381689175267</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01734459285378371</v>
+        <v>0.01709539172381567</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.003157154142286165</v>
+        <v>-0.001606776640271065</v>
       </c>
       <c r="R29" t="n">
-        <v>0.003157154142286165</v>
+        <v>-0.001606776640271065</v>
       </c>
       <c r="S29" t="n">
-        <v>0.003157154142286165</v>
+        <v>-0.001606776640271065</v>
       </c>
       <c r="T29" t="n">
-        <v>0.003157154142286165</v>
+        <v>-0.001606776640271065</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.005580883999235359</v>
+        <v>-0.02056057887042315</v>
       </c>
       <c r="V29" t="n">
         <v>0.001894137291765491</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0211952775198111</v>
+        <v>0.02120143592005743</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0285907850796314</v>
+        <v>0.01371350166854006</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.001305254356210174</v>
+        <v>0.001305189076207563</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01697722551108902</v>
+        <v>0.004752735166109407</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.03299309373572375</v>
+        <v>-0.01936753037470121</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.03299309373572375</v>
+        <v>-0.01936753037470121</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.03299309373572375</v>
+        <v>-0.01936753037470121</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.03299309373572375</v>
+        <v>-0.01936753037470121</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.03299309373572375</v>
+        <v>-0.01936753037470121</v>
       </c>
     </row>
     <row r="30">
@@ -3264,91 +3264,91 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005406770520270819</v>
+        <v>-0.005275888435035537</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.003528797212263024</v>
+        <v>-0.009876604242586988</v>
       </c>
       <c r="E30" t="n">
         <v>-0.0006444854657794185</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0144429126737165</v>
+        <v>0.01444326403373056</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01642016993680679</v>
+        <v>-0.01809812280392491</v>
       </c>
       <c r="H30" t="n">
         <v>-0.01741705836068233</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01007842648313706</v>
+        <v>-0.00766099979443999</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.06575561611669407</v>
+        <v>0.002509547477225107</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01491615650064626</v>
+        <v>0.01605878771435151</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01491615650064626</v>
+        <v>0.01605878771435151</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01491615650064626</v>
+        <v>0.01605878771435151</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01491615650064626</v>
+        <v>0.01605878771435151</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01491615650064626</v>
+        <v>0.01605878771435151</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01239028772761151</v>
+        <v>0.01303535581741423</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0248938200357528</v>
+        <v>0.02752155642886225</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0248938200357528</v>
+        <v>0.02752155642886225</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0248938200357528</v>
+        <v>0.02752155642886225</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0248938200357528</v>
+        <v>0.02752155642886225</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004113822308552891</v>
+        <v>0.0151290474531619</v>
       </c>
       <c r="V30" t="n">
         <v>0.0587889477595579</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1101234651729386</v>
+        <v>0.1101223529168941</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01785399681015987</v>
+        <v>-0.02076856095874244</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.02759055662362226</v>
+        <v>-0.02759040955161638</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.007464893194595727</v>
+        <v>-0.006804691664187667</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.006626780233071208</v>
+        <v>-0.003641547217661888</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.006626780233071208</v>
+        <v>-0.003641547217661888</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.006626780233071208</v>
+        <v>-0.003641547217661888</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.006626780233071208</v>
+        <v>-0.003641547217661888</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.006626780233071208</v>
+        <v>-0.003641547217661888</v>
       </c>
     </row>
     <row r="31">
@@ -3363,91 +3363,91 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.003593936207757447</v>
+        <v>-0.004021122400844895</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001507379436330432</v>
+        <v>-0.01057786368304562</v>
       </c>
       <c r="E31" t="n">
         <v>-0.004145227461809097</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00240858950434358</v>
+        <v>0.002408716320348653</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0004870905794836231</v>
+        <v>0.0006027285361091413</v>
       </c>
       <c r="H31" t="n">
         <v>-0.003690063891602556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0170208700888348</v>
+        <v>0.01975008674200347</v>
       </c>
       <c r="J31" t="n">
-        <v>0.008934715572398944</v>
+        <v>-0.01078861881916973</v>
       </c>
       <c r="K31" t="n">
-        <v>0.009927263629090542</v>
+        <v>0.009151257294050291</v>
       </c>
       <c r="L31" t="n">
-        <v>0.009927263629090542</v>
+        <v>0.009151257294050291</v>
       </c>
       <c r="M31" t="n">
-        <v>0.009927263629090542</v>
+        <v>0.009151257294050291</v>
       </c>
       <c r="N31" t="n">
-        <v>0.009927263629090542</v>
+        <v>0.009151257294050291</v>
       </c>
       <c r="O31" t="n">
-        <v>0.009927263629090542</v>
+        <v>0.009151257294050291</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002854880370195214</v>
+        <v>0.002670609226824369</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.006356462942258516</v>
+        <v>0.005971506574860262</v>
       </c>
       <c r="R31" t="n">
-        <v>0.006356462942258516</v>
+        <v>0.005971506574860262</v>
       </c>
       <c r="S31" t="n">
-        <v>0.006356462942258516</v>
+        <v>0.005971506574860262</v>
       </c>
       <c r="T31" t="n">
-        <v>0.006356462942258516</v>
+        <v>0.005971506574860262</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.002595336199813448</v>
+        <v>-0.002917972052718882</v>
       </c>
       <c r="V31" t="n">
         <v>-0.005945448237817929</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01071653735666149</v>
+        <v>0.01071685204467408</v>
       </c>
       <c r="X31" t="n">
-        <v>0.008494713555788541</v>
+        <v>0.004086961507478459</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.008818842688753705</v>
+        <v>-0.008818403392736134</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.006588158759526349</v>
+        <v>0.01566260942650437</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.005526704189068167</v>
+        <v>-0.002389504127580165</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.005526704189068167</v>
+        <v>-0.002389504127580165</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.005526704189068167</v>
+        <v>-0.002389504127580165</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.005526704189068167</v>
+        <v>-0.002389504127580165</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.005526704189068167</v>
+        <v>-0.002389504127580165</v>
       </c>
     </row>
     <row r="32">
@@ -3462,91 +3462,91 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4969611466624458</v>
+        <v>0.4481400481656019</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01287522769627544</v>
+        <v>0.01120465278121782</v>
       </c>
       <c r="E32" t="n">
         <v>0.9775172146846886</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9999573445102936</v>
+        <v>-0.9999573468142937</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9902566440582655</v>
+        <v>0.9906836372913453</v>
       </c>
       <c r="H32" t="n">
         <v>0.9869956307758251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5274915219636608</v>
+        <v>0.432798351391934</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.594188916621794</v>
+        <v>0.0653274024910461</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5857186141487445</v>
+        <v>-0.492156328134253</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.5857186141487445</v>
+        <v>-0.492156328134253</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.5857186141487445</v>
+        <v>-0.492156328134253</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5857186141487445</v>
+        <v>-0.492156328134253</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.5857186141487445</v>
+        <v>-0.492156328134253</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9986486444259457</v>
+        <v>-0.9991269221090767</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.6718433084097323</v>
+        <v>-0.5661943183597726</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.6718433084097323</v>
+        <v>-0.5661943183597726</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.6718433084097323</v>
+        <v>-0.5661943183597726</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.6718433084097323</v>
+        <v>-0.5661943183597726</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1056942951397718</v>
+        <v>-0.1241749719109989</v>
       </c>
       <c r="V32" t="n">
         <v>-0.005861654826466192</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.022506200100248</v>
+        <v>-0.02247286841891473</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.3073299844851994</v>
+        <v>-0.5920938360677533</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02857877711115108</v>
+        <v>0.02857771160710846</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.3816893006435719</v>
+        <v>-0.571453627978145</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4225123201964927</v>
+        <v>0.7441564047422561</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.4225123201964927</v>
+        <v>0.7441564047422561</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4225123201964927</v>
+        <v>0.7441564047422561</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.4225123201964927</v>
+        <v>0.7441564047422561</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.4225123201964927</v>
+        <v>0.7441564047422561</v>
       </c>
     </row>
     <row r="33">
@@ -3561,91 +3561,91 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.006104488372179535</v>
+        <v>-0.007136567901462715</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03040733942563852</v>
+        <v>-0.02036975430304045</v>
       </c>
       <c r="E33" t="n">
         <v>-0.01410533173221327</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009489530875581234</v>
+        <v>0.009489504955580196</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006404837632193504</v>
+        <v>-0.006709039852361594</v>
       </c>
       <c r="H33" t="n">
         <v>-0.006144108149764326</v>
       </c>
       <c r="I33" t="n">
-        <v>0.009597075647883025</v>
+        <v>0.01063213626528545</v>
       </c>
       <c r="J33" t="n">
-        <v>0.009313924708204382</v>
+        <v>-0.02178099635055827</v>
       </c>
       <c r="K33" t="n">
-        <v>0.008417053296682131</v>
+        <v>0.008465578706623147</v>
       </c>
       <c r="L33" t="n">
-        <v>0.008417053296682131</v>
+        <v>0.008465578706623147</v>
       </c>
       <c r="M33" t="n">
-        <v>0.008417053296682131</v>
+        <v>0.008465578706623147</v>
       </c>
       <c r="N33" t="n">
-        <v>0.008417053296682131</v>
+        <v>0.008465578706623147</v>
       </c>
       <c r="O33" t="n">
-        <v>0.008417053296682131</v>
+        <v>0.008465578706623147</v>
       </c>
       <c r="P33" t="n">
-        <v>0.009789106759564268</v>
+        <v>0.009794861863794474</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.00556356924654277</v>
+        <v>0.005647403361896133</v>
       </c>
       <c r="R33" t="n">
-        <v>0.00556356924654277</v>
+        <v>0.005647403361896133</v>
       </c>
       <c r="S33" t="n">
-        <v>0.00556356924654277</v>
+        <v>0.005647403361896133</v>
       </c>
       <c r="T33" t="n">
-        <v>0.00556356924654277</v>
+        <v>0.005647403361896133</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003874653466986138</v>
+        <v>-0.0007886527995461119</v>
       </c>
       <c r="V33" t="n">
         <v>-0.027352375142095</v>
       </c>
       <c r="W33" t="n">
-        <v>0.009689830371593213</v>
+        <v>0.009694360323774411</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01849713673988547</v>
+        <v>0.008645790201831606</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02070682815627312</v>
+        <v>0.02070782530831301</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02456231176649247</v>
+        <v>0.00959445331177813</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.008862690882507632</v>
+        <v>-0.001027793417111737</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.008862690882507632</v>
+        <v>-0.001027793417111737</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.008862690882507632</v>
+        <v>-0.001027793417111737</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.008862690882507632</v>
+        <v>-0.001027793417111737</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.008862690882507632</v>
+        <v>-0.001027793417111737</v>
       </c>
     </row>
     <row r="34">
@@ -3660,91 +3660,91 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.001305897268235891</v>
+        <v>-0.0005329734933189396</v>
       </c>
       <c r="D34" t="n">
-        <v>0.008060030219440116</v>
+        <v>0.002493713890492887</v>
       </c>
       <c r="E34" t="n">
         <v>0.00220429026417161</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003596271887850875</v>
+        <v>-0.003596190671847626</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0004051579362063175</v>
+        <v>0.002269901658796066</v>
       </c>
       <c r="H34" t="n">
         <v>0.00287552699502108</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01677953779118151</v>
+        <v>0.01860353940014157</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.07370032545582955</v>
+        <v>0.02213644538889566</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03326597470663899</v>
+        <v>0.03340589250423569</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03326597470663899</v>
+        <v>0.03340589250423569</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03326597470663899</v>
+        <v>0.03340589250423569</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03326597470663899</v>
+        <v>0.03340589250423569</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03326597470663899</v>
+        <v>0.03340589250423569</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0011754349910174</v>
+        <v>-0.001942462349698494</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03152225886089035</v>
+        <v>0.03232792161311687</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03152225886089035</v>
+        <v>0.03232792161311687</v>
       </c>
       <c r="S34" t="n">
-        <v>0.03152225886089035</v>
+        <v>0.03232792161311687</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03152225886089035</v>
+        <v>0.03232792161311687</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.006127566485102659</v>
+        <v>-0.01324678315387133</v>
       </c>
       <c r="V34" t="n">
         <v>-0.00665778977031159</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01312876574115063</v>
+        <v>-0.01312951185318047</v>
       </c>
       <c r="X34" t="n">
-        <v>0.009467114010684558</v>
+        <v>-0.00459880175195207</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0004189270247570809</v>
+        <v>0.0004177651367106054</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01032022956480918</v>
+        <v>0.008185312455412498</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.002745268141810725</v>
+        <v>0.02360878040035121</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.002745268141810725</v>
+        <v>0.02360878040035121</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.002745268141810725</v>
+        <v>0.02360878040035121</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.002745268141810725</v>
+        <v>0.02360878040035121</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.002745268141810725</v>
+        <v>0.02360878040035121</v>
       </c>
     </row>
     <row r="35">
@@ -3759,91 +3759,91 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03937651914306076</v>
+        <v>-0.03784245808969832</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007812048268074656</v>
+        <v>-0.007522902711053979</v>
       </c>
       <c r="E35" t="n">
         <v>-0.03233770564550822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02715504031820161</v>
+        <v>0.02715546444621858</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02247529424301177</v>
+        <v>-0.02417590877503635</v>
       </c>
       <c r="H35" t="n">
         <v>-0.02476387635055505</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0187058449722338</v>
+        <v>-0.01662850136914005</v>
       </c>
       <c r="J35" t="n">
-        <v>0.003892802226251996</v>
+        <v>0.0202765941138767</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6978137670485507</v>
+        <v>0.7698346114333843</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6978137670485507</v>
+        <v>0.7698346114333843</v>
       </c>
       <c r="M35" t="n">
-        <v>0.6978137670485507</v>
+        <v>0.7698346114333843</v>
       </c>
       <c r="N35" t="n">
-        <v>0.6978137670485507</v>
+        <v>0.7698346114333843</v>
       </c>
       <c r="O35" t="n">
-        <v>0.6978137670485507</v>
+        <v>0.7698346114333843</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05155584657423386</v>
+        <v>0.05230488545219542</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.6713428455097137</v>
+        <v>0.7723875800475031</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6713428455097137</v>
+        <v>0.7723875800475031</v>
       </c>
       <c r="S35" t="n">
-        <v>0.6713428455097137</v>
+        <v>0.7723875800475031</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6713428455097137</v>
+        <v>0.7723875800475031</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.006675217707008707</v>
+        <v>0.004739360157574405</v>
       </c>
       <c r="V35" t="n">
         <v>-0.02097465031098601</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006793674511746979</v>
+        <v>-0.0006555291142211645</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.009823730600949224</v>
+        <v>0.03012534590901383</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01237775876711035</v>
+        <v>0.01237743063909722</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.00254585050183402</v>
+        <v>0.01612751037310041</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.09288348035533919</v>
+        <v>-0.1989899916395996</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.09288348035533919</v>
+        <v>-0.1989899916395996</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.09288348035533919</v>
+        <v>-0.1989899916395996</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.09288348035533919</v>
+        <v>-0.1989899916395996</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.09288348035533919</v>
+        <v>-0.1989899916395996</v>
       </c>
     </row>
     <row r="36">
@@ -3858,91 +3858,91 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.002123189364927574</v>
+        <v>-0.003370788902831556</v>
       </c>
       <c r="D36" t="n">
-        <v>0.008368015043530923</v>
+        <v>-0.008551209045857705</v>
       </c>
       <c r="E36" t="n">
         <v>0.0135509276780371</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01397014375880575</v>
+        <v>-0.01396994983879799</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01121091088043643</v>
+        <v>0.011975299967012</v>
       </c>
       <c r="H36" t="n">
         <v>0.0153446123897845</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01111450527658021</v>
+        <v>0.01010472165218886</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.002554833562485463</v>
+        <v>0.003765523879886171</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.003432543017301721</v>
+        <v>-0.002919916340796654</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.003432543017301721</v>
+        <v>-0.002919916340796654</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.003432543017301721</v>
+        <v>-0.002919916340796654</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.003432543017301721</v>
+        <v>-0.002919916340796654</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.003432543017301721</v>
+        <v>-0.002919916340796654</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01329936955597478</v>
+        <v>-0.01364012838560513</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.003072655130906205</v>
+        <v>-0.001840691209627648</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.003072655130906205</v>
+        <v>-0.001840691209627648</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.003072655130906205</v>
+        <v>-0.001840691209627648</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.003072655130906205</v>
+        <v>-0.001840691209627648</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01767274467490978</v>
+        <v>0.02551849849273994</v>
       </c>
       <c r="V36" t="n">
         <v>0.003193437055737481</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01622537152901486</v>
+        <v>0.01623655332146213</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.009454108218164326</v>
+        <v>0.006782350063294001</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.0105769200390768</v>
+        <v>0.01057698138307926</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.01000582532823301</v>
+        <v>0.0002623263464930538</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.008448951601958063</v>
+        <v>0.001194354959774198</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.008448951601958063</v>
+        <v>0.001194354959774198</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.008448951601958063</v>
+        <v>0.001194354959774198</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.008448951601958063</v>
+        <v>0.001194354959774198</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.008448951601958063</v>
+        <v>0.001194354959774198</v>
       </c>
     </row>
     <row r="37">
@@ -3957,91 +3957,91 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.0006581512583260502</v>
+        <v>-0.002466315842652633</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.009774210359363805</v>
+        <v>-0.01817563616314932</v>
       </c>
       <c r="E37" t="n">
         <v>0.003466995690679827</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.003339987109599484</v>
+        <v>-0.003340448389617935</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003753971382158855</v>
+        <v>0.003657331922293276</v>
       </c>
       <c r="H37" t="n">
         <v>0.001163787598551504</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008374168846966753</v>
+        <v>0.008434503217380127</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.01151396519990207</v>
+        <v>-0.008204052474918658</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08205247845009912</v>
+        <v>0.0912124953604998</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08205247845009912</v>
+        <v>0.0912124953604998</v>
       </c>
       <c r="M37" t="n">
-        <v>0.08205247845009912</v>
+        <v>0.0912124953604998</v>
       </c>
       <c r="N37" t="n">
-        <v>0.08205247845009912</v>
+        <v>0.0912124953604998</v>
       </c>
       <c r="O37" t="n">
-        <v>0.08205247845009912</v>
+        <v>0.0912124953604998</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.0006069936242797449</v>
+        <v>-0.0007459169578366783</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08001091481643659</v>
+        <v>0.09306873473074938</v>
       </c>
       <c r="R37" t="n">
-        <v>0.08001091481643659</v>
+        <v>0.09306873473074938</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08001091481643659</v>
+        <v>0.09306873473074938</v>
       </c>
       <c r="T37" t="n">
-        <v>0.08001091481643659</v>
+        <v>0.09306873473074938</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.0006634003465360137</v>
+        <v>-0.005082317963292718</v>
       </c>
       <c r="V37" t="n">
         <v>0.005651380930055236</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001547615581904623</v>
+        <v>-0.001549531549981262</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01370536739621469</v>
+        <v>0.004658308122332325</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.01636118350244734</v>
+        <v>-0.01636277518251101</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01746880725875229</v>
+        <v>0.001380982615239304</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.03313672289346891</v>
+        <v>0.07671991919679676</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.03313672289346891</v>
+        <v>0.07671991919679676</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.03313672289346891</v>
+        <v>0.07671991919679676</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.03313672289346891</v>
+        <v>0.07671991919679676</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.03313672289346891</v>
+        <v>0.07671991919679676</v>
       </c>
     </row>
     <row r="38">
@@ -4056,91 +4056,91 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.002185169367406775</v>
+        <v>0.0009385289655411585</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01261079831106049</v>
+        <v>0.004448246416409761</v>
       </c>
       <c r="E38" t="n">
         <v>-0.01580059042402361</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0146622274664891</v>
+        <v>0.01466224061848962</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01317910171116407</v>
+        <v>-0.01340493125619725</v>
       </c>
       <c r="H38" t="n">
         <v>-0.01529779539591181</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02449234168369366</v>
+        <v>-0.02557521068700842</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01114787633664348</v>
+        <v>-0.007364111289038792</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01992421654096866</v>
+        <v>0.01900188172007527</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01992421654096866</v>
+        <v>0.01900188172007527</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01992421654096866</v>
+        <v>0.01900188172007527</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01992421654096866</v>
+        <v>0.01900188172007527</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01992421654096866</v>
+        <v>0.01900188172007527</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01482197886487915</v>
+        <v>0.01493374235734969</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01988969733958789</v>
+        <v>0.01925309846612394</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01988969733958789</v>
+        <v>0.01925309846612394</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01988969733958789</v>
+        <v>0.01925309846612394</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01988969733958789</v>
+        <v>0.01925309846612394</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.0005596729183869166</v>
+        <v>0.00889409901176396</v>
       </c>
       <c r="V38" t="n">
         <v>-0.004906690468267618</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001495591067823642</v>
+        <v>0.001505320572212823</v>
       </c>
       <c r="X38" t="n">
-        <v>-0.001219523088780924</v>
+        <v>0.01969514469180578</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.008278822507152898</v>
+        <v>-0.008279627179185086</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0004552259702090387</v>
+        <v>0.01264958805798352</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.001496999099879964</v>
+        <v>-0.0196732325949293</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.001496999099879964</v>
+        <v>-0.0196732325949293</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.001496999099879964</v>
+        <v>-0.0196732325949293</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.001496999099879964</v>
+        <v>-0.0196732325949293</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.001496999099879964</v>
+        <v>-0.0196732325949293</v>
       </c>
     </row>
     <row r="39">
@@ -4155,91 +4155,91 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01262885608915424</v>
+        <v>0.01436291558251662</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.003621078152624692</v>
+        <v>-0.02354107280193862</v>
       </c>
       <c r="E39" t="n">
         <v>0.003517886540715461</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.00120057124802285</v>
+        <v>-0.001200535152021406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.001290864819634593</v>
+        <v>-0.0006063397682535906</v>
       </c>
       <c r="H39" t="n">
         <v>-0.00346554925862197</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01264936130597445</v>
+        <v>-0.01402935684917427</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.02731440411446436</v>
+        <v>-0.001699731572560372</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04440372523214901</v>
+        <v>0.04638799231951969</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04440372523214901</v>
+        <v>0.04638799231951969</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04440372523214901</v>
+        <v>0.04638799231951969</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04440372523214901</v>
+        <v>0.04638799231951969</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04440372523214901</v>
+        <v>0.04638799231951969</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0001570145342805814</v>
+        <v>-6.698342667933706e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04500367668014706</v>
+        <v>0.04929666369986654</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04500367668014706</v>
+        <v>0.04929666369986654</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04500367668014706</v>
+        <v>0.04929666369986654</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04500367668014706</v>
+        <v>0.04929666369986654</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01662841458513658</v>
+        <v>0.01431934982077399</v>
       </c>
       <c r="V39" t="n">
         <v>0.01925972957038918</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0066783300271332</v>
+        <v>0.006667095050683801</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.0005848037993921518</v>
+        <v>-0.01812588072503523</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.02660794868031794</v>
+        <v>-0.02660734666429386</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.001571309054852362</v>
+        <v>-0.01535850608634024</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.003052426874097074</v>
+        <v>0.006397080639883226</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.003052426874097074</v>
+        <v>0.006397080639883226</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.003052426874097074</v>
+        <v>0.006397080639883226</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.003052426874097074</v>
+        <v>0.006397080639883226</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.003052426874097074</v>
+        <v>0.006397080639883226</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.08820291050411641</v>
+        <v>-0.08819368922374757</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002222304185919323</v>
+        <v>-0.0007841772737814185</v>
       </c>
       <c r="E4" t="n">
         <v>-0.1177646069825843</v>
@@ -752,10 +752,10 @@
         <v>0.1765836888553475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0517564951262598</v>
+        <v>0.05172981173319247</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09460332107991955</v>
+        <v>0.09460357039192963</v>
       </c>
       <c r="K4" t="n">
         <v>0.3218543532581741</v>
@@ -788,37 +788,37 @@
         <v>0.2157335591893423</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.09716265364650613</v>
+        <v>-0.09716239742249587</v>
       </c>
       <c r="V4" t="n">
         <v>-0.7014339902653596</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01957704481508179</v>
+        <v>0.01957573345502934</v>
       </c>
       <c r="X4" t="n">
-        <v>0.277196949935878</v>
+        <v>0.2769967113998684</v>
       </c>
       <c r="Y4" t="n">
         <v>0.9980585371063413</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1876748669949946</v>
+        <v>0.1879505613420224</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1378479537059181</v>
+        <v>0.1378275919131037</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1378479537059181</v>
+        <v>0.1378275919131037</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1378479537059181</v>
+        <v>0.1378275919131037</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1378479537059181</v>
+        <v>0.1378275919131037</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1378479537059181</v>
+        <v>0.1378275919131037</v>
       </c>
     </row>
     <row r="5">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1108973797638952</v>
+        <v>0.1108998349639934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0246776916950735</v>
+        <v>0.02235322168801487</v>
       </c>
       <c r="E5" t="n">
         <v>0.1433098626923945</v>
@@ -847,10 +847,10 @@
         <v>0.008470465394818614</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04609968318798732</v>
+        <v>-0.04609942590797703</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03058196907355431</v>
+        <v>0.03058229566556748</v>
       </c>
       <c r="K5" t="n">
         <v>-0.1744807564512302</v>
@@ -883,37 +883,37 @@
         <v>-0.06032707479708298</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1132901837956073</v>
+        <v>0.1132905333316213</v>
       </c>
       <c r="V5" t="n">
         <v>0.6536887663075507</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002549239589969583</v>
+        <v>0.002550984582039383</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2094055566002223</v>
+        <v>-0.2093316953492678</v>
       </c>
       <c r="Y5" t="n">
         <v>-0.01176007064640282</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1325776770471071</v>
+        <v>-0.1324872278594891</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1189811379432455</v>
+        <v>-0.1190020324400813</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1189811379432455</v>
+        <v>-0.1190020324400813</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1189811379432455</v>
+        <v>-0.1190020324400813</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1189811379432455</v>
+        <v>-0.1190020324400813</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.1189811379432455</v>
+        <v>-0.1190020324400813</v>
       </c>
     </row>
     <row r="6">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2847333148453326</v>
+        <v>0.28473625177345</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.009671582907876218</v>
+        <v>-0.0104059294804427</v>
       </c>
       <c r="E6" t="n">
         <v>-0.002243198393727935</v>
@@ -942,10 +942,10 @@
         <v>-0.006998576439943056</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8951564883822594</v>
+        <v>-0.8951572899822914</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.003808967049638495</v>
+        <v>-0.003808890633635412</v>
       </c>
       <c r="K6" t="n">
         <v>0.03190318169212726</v>
@@ -978,37 +978,37 @@
         <v>0.04292297403691896</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04984166215366648</v>
+        <v>0.04983527882541115</v>
       </c>
       <c r="V6" t="n">
         <v>0.02071473481258939</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02798428825537153</v>
+        <v>-0.02798221609528864</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004335077165403086</v>
+        <v>0.004546676917867076</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.0009891643595665743</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.3582525850821034</v>
+        <v>-0.3580974490758979</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.02062284735291389</v>
+        <v>-0.02062697938507917</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02062284735291389</v>
+        <v>-0.02062697938507917</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02062284735291389</v>
+        <v>-0.02062697938507917</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.02062284735291389</v>
+        <v>-0.02062697938507917</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.02062284735291389</v>
+        <v>-0.02062697938507917</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01634973876598955</v>
+        <v>0.01634850871794034</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01070557607023833</v>
+        <v>0.01237592717451917</v>
       </c>
       <c r="E7" t="n">
         <v>0.01175450811818032</v>
@@ -1037,10 +1037,10 @@
         <v>0.0088485200339408</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.001790539463621578</v>
+        <v>-0.001785953063438122</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.00605698459631453</v>
+        <v>-0.006056913076311645</v>
       </c>
       <c r="K7" t="n">
         <v>-0.01967494158699766</v>
@@ -1073,37 +1073,37 @@
         <v>-0.0184031150081246</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01743797618551905</v>
+        <v>0.01744079829763193</v>
       </c>
       <c r="V7" t="n">
         <v>0.007844667961786718</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01725052129802085</v>
+        <v>0.01725245301009812</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0184023151360926</v>
+        <v>-0.01837238943889558</v>
       </c>
       <c r="Y7" t="n">
         <v>-0.01073606452544258</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.01233246039729841</v>
+        <v>-0.01238691870347675</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01271250473250019</v>
+        <v>0.01271976041279041</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01271250473250019</v>
+        <v>0.01271976041279041</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01271250473250019</v>
+        <v>0.01271976041279041</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01271250473250019</v>
+        <v>0.01271976041279041</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01271250473250019</v>
+        <v>0.01271976041279041</v>
       </c>
     </row>
     <row r="8">
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01291597107663884</v>
+        <v>0.01291640643665625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003029323358537903</v>
+        <v>0.003168876215948515</v>
       </c>
       <c r="E8" t="n">
         <v>-0.001420882808835312</v>
@@ -1132,10 +1132,10 @@
         <v>-0.001561537790461512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01070253546810142</v>
+        <v>-0.01070332401213296</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.001695292004381298</v>
+        <v>-0.001695279428380791</v>
       </c>
       <c r="K8" t="n">
         <v>0.01009325934773037</v>
@@ -1168,37 +1168,37 @@
         <v>0.01192678598107144</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.003447760553910422</v>
+        <v>-0.003473240970929638</v>
       </c>
       <c r="V8" t="n">
         <v>-0.004322193676887747</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009309082260363288</v>
+        <v>0.00930859381234375</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001610521984420879</v>
+        <v>0.001255574834222993</v>
       </c>
       <c r="Y8" t="n">
         <v>0.003052186202087448</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.005145499693819987</v>
+        <v>0.005127576109103044</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.004678424347136973</v>
+        <v>-0.00463113301724532</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.004678424347136973</v>
+        <v>-0.00463113301724532</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.004678424347136973</v>
+        <v>-0.00463113301724532</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.004678424347136973</v>
+        <v>-0.00463113301724532</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.004678424347136973</v>
+        <v>-0.00463113301724532</v>
       </c>
     </row>
     <row r="9">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4711520425260817</v>
+        <v>0.4711518555180741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01333991288318761</v>
+        <v>0.01440663000468191</v>
       </c>
       <c r="E9" t="n">
         <v>0.003303209604128384</v>
@@ -1231,10 +1231,10 @@
         <v>0.000364514126580565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01151166410846656</v>
+        <v>-0.01151155054046202</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01266347292679384</v>
+        <v>-0.01266383091080828</v>
       </c>
       <c r="K9" t="n">
         <v>-0.01695037824601513</v>
@@ -1267,37 +1267,37 @@
         <v>-0.01515954771038191</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.6016127738565108</v>
+        <v>-0.6016135453125417</v>
       </c>
       <c r="V9" t="n">
         <v>0.002256314106252564</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009571917310876692</v>
+        <v>0.009573121438924857</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.009597158111886323</v>
+        <v>-0.01016562645462506</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.002613878696555147</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.001450084666003386</v>
+        <v>-0.001565303486612139</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.007346808101872324</v>
+        <v>0.007418466728738669</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.007346808101872324</v>
+        <v>0.007418466728738669</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.007346808101872324</v>
+        <v>0.007418466728738669</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.007346808101872324</v>
+        <v>0.007418466728738669</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.007346808101872324</v>
+        <v>0.007418466728738669</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5412393346095733</v>
+        <v>0.5412418754416749</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02533504719236338</v>
+        <v>-0.02502177167463026</v>
       </c>
       <c r="E10" t="n">
         <v>0.02868284956331398</v>
@@ -1330,10 +1330,10 @@
         <v>0.03064438672977546</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.004728405405136215</v>
+        <v>-0.004729843005193719</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01316338473895829</v>
+        <v>0.01316349974696292</v>
       </c>
       <c r="K10" t="n">
         <v>-0.02488873203554928</v>
@@ -1366,37 +1366,37 @@
         <v>-0.02843166670526666</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6983664156466565</v>
+        <v>0.6983741012149639</v>
       </c>
       <c r="V10" t="n">
         <v>0.002660347114413884</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005824842760993709</v>
+        <v>0.005826071849042874</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.009699288003971518</v>
+        <v>-0.009126661133066443</v>
       </c>
       <c r="Y10" t="n">
         <v>0.004826509345060373</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.02109401949976078</v>
+        <v>-0.02090100986004039</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01459333959173358</v>
+        <v>0.01451968205278728</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01459333959173358</v>
+        <v>0.01451968205278728</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01459333959173358</v>
+        <v>0.01451968205278728</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01459333959173358</v>
+        <v>0.01451968205278728</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01459333959173358</v>
+        <v>0.01451968205278728</v>
       </c>
     </row>
     <row r="11">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.00231698975667959</v>
+        <v>-0.002314855484594219</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.00858675417118916</v>
+        <v>-0.01004341157558213</v>
       </c>
       <c r="E11" t="n">
         <v>0.002898114931924597</v>
@@ -1429,10 +1429,10 @@
         <v>-0.001071932202877288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003691442643657705</v>
+        <v>0.00368112926724517</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01156025600229448</v>
+        <v>-0.01156008934628776</v>
       </c>
       <c r="K11" t="n">
         <v>-0.001577854527114181</v>
@@ -1465,37 +1465,37 @@
         <v>-0.0006282139451285577</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0107901125276045</v>
+        <v>-0.01079165601566624</v>
       </c>
       <c r="V11" t="n">
         <v>-0.002020335824813433</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01837746659109866</v>
+        <v>0.01837681686307267</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01064774730590989</v>
+        <v>0.01068700794748032</v>
       </c>
       <c r="Y11" t="n">
         <v>-0.01424356280974251</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.005051407498056299</v>
+        <v>-0.005130832813233312</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.008439303217572127</v>
+        <v>-0.00843379425735177</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.008439303217572127</v>
+        <v>-0.00843379425735177</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.008439303217572127</v>
+        <v>-0.00843379425735177</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.008439303217572127</v>
+        <v>-0.00843379425735177</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.008439303217572127</v>
+        <v>-0.00843379425735177</v>
       </c>
     </row>
     <row r="12">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08083895891355834</v>
+        <v>0.08084060963362437</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01914018769880638</v>
+        <v>-0.01596015271055784</v>
       </c>
       <c r="E12" t="n">
         <v>0.008717855484714218</v>
@@ -1528,10 +1528,10 @@
         <v>0.01309334375573375</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01171549544461981</v>
+        <v>0.01170848206833928</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02390575291626245</v>
+        <v>-0.02390579419626411</v>
       </c>
       <c r="K12" t="n">
         <v>0.004082965987318639</v>
@@ -1564,37 +1564,37 @@
         <v>0.001518869916754797</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07105063791402551</v>
+        <v>0.07107876677915066</v>
       </c>
       <c r="V12" t="n">
         <v>-0.0149328974613159</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0283026176441047</v>
+        <v>0.02830058071602323</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.003986461599458463</v>
+        <v>-0.003677877843115114</v>
       </c>
       <c r="Y12" t="n">
         <v>0.01068090839523633</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.02508790813951632</v>
+        <v>-0.02506821825072873</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01652115186084607</v>
+        <v>0.01646708110668324</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01652115186084607</v>
+        <v>0.01646708110668324</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01652115186084607</v>
+        <v>0.01646708110668324</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01652115186084607</v>
+        <v>0.01646708110668324</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01652115186084607</v>
+        <v>0.01646708110668324</v>
       </c>
     </row>
     <row r="13">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3360778912351156</v>
+        <v>-0.3360782448991297</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01495608251339567</v>
+        <v>0.01421524514084199</v>
       </c>
       <c r="E13" t="n">
         <v>0.0126909301716372</v>
@@ -1623,10 +1623,10 @@
         <v>0.01952371537294861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009617064384682574</v>
+        <v>0.009623351904934074</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0128564434945775</v>
+        <v>0.01285657655058287</v>
       </c>
       <c r="K13" t="n">
         <v>0.006689155755566229</v>
@@ -1659,37 +1659,37 @@
         <v>0.001644503201780128</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07304021572160863</v>
+        <v>-0.07304650957786038</v>
       </c>
       <c r="V13" t="n">
         <v>-0.01589750396390015</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009640837825633511</v>
+        <v>-0.009640773985630957</v>
       </c>
       <c r="X13" t="n">
-        <v>7.050153882006153e-05</v>
+        <v>4.36344977453799e-05</v>
       </c>
       <c r="Y13" t="n">
         <v>0.0127554426542177</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.008871034722841389</v>
+        <v>-0.008932201221288046</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.009882931307317251</v>
+        <v>0.009903543564141741</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.009882931307317251</v>
+        <v>0.009903543564141741</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.009882931307317251</v>
+        <v>0.009903543564141741</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.009882931307317251</v>
+        <v>0.009903543564141741</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.009882931307317251</v>
+        <v>0.009903543564141741</v>
       </c>
     </row>
     <row r="14">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.008888892643555704</v>
+        <v>0.008888047939521916</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.008997356194296082</v>
+        <v>-0.00607027732474943</v>
       </c>
       <c r="E14" t="n">
         <v>0.0045449974937999</v>
@@ -1722,10 +1722,10 @@
         <v>0.0074490650019626</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001016052904642116</v>
+        <v>0.001022284072891363</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01415804466707889</v>
+        <v>0.01415779189906869</v>
       </c>
       <c r="K14" t="n">
         <v>-0.01020048540001941</v>
@@ -1758,37 +1758,37 @@
         <v>-0.01127541136301645</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02041355361654214</v>
+        <v>0.02040373473614939</v>
       </c>
       <c r="V14" t="n">
         <v>-0.006572320294892811</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0001623593344943734</v>
+        <v>-0.0001610116864404674</v>
       </c>
       <c r="X14" t="n">
-        <v>0.007893215643728625</v>
+        <v>0.00813498378139935</v>
       </c>
       <c r="Y14" t="n">
         <v>-0.003784722487388899</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.004016935552677421</v>
+        <v>-0.003851766874070675</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0007360727334429093</v>
+        <v>0.0007340590373623614</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0007360727334429093</v>
+        <v>0.0007340590373623614</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0007360727334429093</v>
+        <v>0.0007340590373623614</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0007360727334429093</v>
+        <v>0.0007340590373623614</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0007360727334429093</v>
+        <v>0.0007340590373623614</v>
       </c>
     </row>
     <row r="15">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.03621448877657955</v>
+        <v>-0.0362139101845564</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02150100949324983</v>
+        <v>-0.01912815111237276</v>
       </c>
       <c r="E15" t="n">
         <v>0.005581299775251989</v>
@@ -1821,10 +1821,10 @@
         <v>0.005684687939387516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0159771101430844</v>
+        <v>0.01596955407878216</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01890361655449628</v>
+        <v>-0.01890337559448656</v>
       </c>
       <c r="K15" t="n">
         <v>0.003145142909805716</v>
@@ -1857,37 +1857,37 @@
         <v>0.003110477212419088</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.0531154400766176</v>
+        <v>-0.05311335745253429</v>
       </c>
       <c r="V15" t="n">
         <v>0.001012833160513326</v>
       </c>
       <c r="W15" t="n">
-        <v>0.00264778848991154</v>
+        <v>0.002647746921909876</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.009327843829113752</v>
+        <v>-0.009156907854276312</v>
       </c>
       <c r="Y15" t="n">
         <v>0.001504486524179461</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.005529244733169789</v>
+        <v>-0.005307383828295352</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002140020277600811</v>
+        <v>0.002119870548794821</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002140020277600811</v>
+        <v>0.002119870548794821</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.002140020277600811</v>
+        <v>0.002119870548794821</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002140020277600811</v>
+        <v>0.002119870548794821</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002140020277600811</v>
+        <v>0.002119870548794821</v>
       </c>
     </row>
     <row r="16">
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01377365930294637</v>
+        <v>0.0137726899909076</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02882205460098497</v>
+        <v>-0.02775181444280391</v>
       </c>
       <c r="E16" t="n">
         <v>0.003440934185637367</v>
@@ -1920,10 +1920,10 @@
         <v>0.004056001122240045</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02390144822005793</v>
+        <v>-0.02389937701997508</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001035991817787766</v>
+        <v>0.001036187369795654</v>
       </c>
       <c r="K16" t="n">
         <v>0.02383328879333155</v>
@@ -1956,37 +1956,37 @@
         <v>0.02306301596252064</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008962567462502697</v>
+        <v>0.008948753061950122</v>
       </c>
       <c r="V16" t="n">
         <v>0.0002018855120754205</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01410769093230763</v>
+        <v>0.01410884773235391</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.009740809445632376</v>
+        <v>-0.009977974671118986</v>
       </c>
       <c r="Y16" t="n">
         <v>0.00116841326273653</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.02589701882788075</v>
+        <v>-0.02590620055624802</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.005988286223531448</v>
+        <v>0.006021865008874598</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.005988286223531448</v>
+        <v>0.006021865008874598</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.005988286223531448</v>
+        <v>0.006021865008874598</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.005988286223531448</v>
+        <v>0.006021865008874598</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.005988286223531448</v>
+        <v>0.006021865008874598</v>
       </c>
     </row>
     <row r="17">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02116980641479226</v>
+        <v>-0.02116983790279351</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01958263626867382</v>
+        <v>0.01923196868291192</v>
       </c>
       <c r="E17" t="n">
         <v>0.003722611156904446</v>
@@ -2019,10 +2019,10 @@
         <v>0.008068310050732401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01130640237225609</v>
+        <v>-0.01131324112452964</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01183988730957369</v>
+        <v>-0.01184005454158044</v>
       </c>
       <c r="K17" t="n">
         <v>-0.001667809410712376</v>
@@ -2055,37 +2055,37 @@
         <v>-0.003665225234609009</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01651324050052962</v>
+        <v>-0.01649151051566042</v>
       </c>
       <c r="V17" t="n">
         <v>-0.009309831060393242</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01908738479549539</v>
+        <v>0.01908567618742705</v>
       </c>
       <c r="X17" t="n">
-        <v>0.001445365401814616</v>
+        <v>0.001653186114127444</v>
       </c>
       <c r="Y17" t="n">
         <v>0.01156044468641779</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0004429572657182906</v>
+        <v>0.0003579918863196754</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.007348763333950533</v>
+        <v>0.007316560132662404</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.007348763333950533</v>
+        <v>0.007316560132662404</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.007348763333950533</v>
+        <v>0.007316560132662404</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.007348763333950533</v>
+        <v>0.007316560132662404</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.007348763333950533</v>
+        <v>0.007316560132662404</v>
       </c>
     </row>
     <row r="18">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01298631661545266</v>
+        <v>-0.01298604915944196</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02385733805392157</v>
+        <v>0.02198905814405584</v>
       </c>
       <c r="E18" t="n">
         <v>0.002900400980016038</v>
@@ -2114,10 +2114,10 @@
         <v>0.017880824971233</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001509100668364026</v>
+        <v>-0.001513981308559252</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0182047527023069</v>
+        <v>-0.01820462070230158</v>
       </c>
       <c r="K18" t="n">
         <v>0.01201746201669848</v>
@@ -2150,37 +2150,37 @@
         <v>0.005411056248442249</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01364175116967004</v>
+        <v>-0.01361601702464068</v>
       </c>
       <c r="V18" t="n">
         <v>-0.04053771522150861</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01218653549546142</v>
+        <v>-0.01218734218349369</v>
       </c>
       <c r="X18" t="n">
-        <v>0.006122459092898364</v>
+        <v>0.00656860077474403</v>
       </c>
       <c r="Y18" t="n">
         <v>0.03970474469218978</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01554156330966253</v>
+        <v>0.01568793941151757</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01985579839423193</v>
+        <v>0.01978761650350466</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01985579839423193</v>
+        <v>0.01978761650350466</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01985579839423193</v>
+        <v>0.01978761650350466</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01985579839423193</v>
+        <v>0.01978761650350466</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.01985579839423193</v>
+        <v>0.01978761650350466</v>
       </c>
     </row>
     <row r="19">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01222268295290732</v>
+        <v>0.01222106036084241</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02731273216695289</v>
+        <v>0.02577546403210559</v>
       </c>
       <c r="E19" t="n">
         <v>0.01844926576197063</v>
@@ -2213,10 +2213,10 @@
         <v>0.01502727324109093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0152373050254922</v>
+        <v>0.01524797177791887</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003724788150243055</v>
+        <v>0.0003725193270259395</v>
       </c>
       <c r="K19" t="n">
         <v>-0.02914314039772561</v>
@@ -2249,37 +2249,37 @@
         <v>-0.0277766427430657</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.005419947864797913</v>
+        <v>-0.005398901687956067</v>
       </c>
       <c r="V19" t="n">
         <v>0.01622704192908168</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006967646678705866</v>
+        <v>0.006969067862762713</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.005479502331180093</v>
+        <v>-0.005058547786341911</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.008200182472007298</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.001658465538338622</v>
+        <v>0.00184601700184068</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01364291142571646</v>
+        <v>0.01358121270324851</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01364291142571646</v>
+        <v>0.01358121270324851</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01364291142571646</v>
+        <v>0.01358121270324851</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01364291142571646</v>
+        <v>0.01358121270324851</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01364291142571646</v>
+        <v>0.01358121270324851</v>
       </c>
     </row>
     <row r="20">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01138759696750388</v>
+        <v>-0.01138749328749973</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003683503408177826</v>
+        <v>0.003174243082027346</v>
       </c>
       <c r="E20" t="n">
         <v>0.01143747674549907</v>
@@ -2312,10 +2312,10 @@
         <v>0.01584765816990633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006909315924372636</v>
+        <v>0.006913265172530606</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01713665622722417</v>
+        <v>0.0171368107872304</v>
       </c>
       <c r="K20" t="n">
         <v>-0.01113558025342321</v>
@@ -2348,37 +2348,37 @@
         <v>-0.01402435217697409</v>
       </c>
       <c r="U20" t="n">
-        <v>0.00369821649992866</v>
+        <v>0.003715886164635446</v>
       </c>
       <c r="V20" t="n">
         <v>-0.008786878719475148</v>
       </c>
       <c r="W20" t="n">
-        <v>0.006263224090528962</v>
+        <v>0.00626379778655191</v>
       </c>
       <c r="X20" t="n">
-        <v>0.00537487451899498</v>
+        <v>0.005669314018772561</v>
       </c>
       <c r="Y20" t="n">
         <v>0.014574650118986</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.001347057173882287</v>
+        <v>0.001526444221057769</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.008361808654472346</v>
+        <v>0.008313374156534966</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.008361808654472346</v>
+        <v>0.008313374156534966</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.008361808654472346</v>
+        <v>0.008313374156534966</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.008361808654472346</v>
+        <v>0.008313374156534966</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.008361808654472346</v>
+        <v>0.008313374156534966</v>
       </c>
     </row>
     <row r="21">
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01012437218097489</v>
+        <v>-0.01012290894891636</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.006715809384285626</v>
+        <v>-0.007096920326507382</v>
       </c>
       <c r="E21" t="n">
         <v>0.01635339934213597</v>
@@ -2407,10 +2407,10 @@
         <v>0.01596776022271041</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02666384593055383</v>
+        <v>0.02666007101840283</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01591708576203157</v>
+        <v>-0.01591714221003385</v>
       </c>
       <c r="K21" t="n">
         <v>-0.004382890351315613</v>
@@ -2443,37 +2443,37 @@
         <v>-0.00452729451709178</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.005391032087641283</v>
+        <v>-0.005374527862981114</v>
       </c>
       <c r="V21" t="n">
         <v>-0.001069568490782739</v>
       </c>
       <c r="W21" t="n">
-        <v>0.00395449177417967</v>
+        <v>0.003953571518142861</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.01993094450923778</v>
+        <v>-0.01991072105242884</v>
       </c>
       <c r="Y21" t="n">
         <v>0.0103644024305761</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.01176034453441378</v>
+        <v>-0.01180958658438346</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02317428361497134</v>
+        <v>0.02315653935826157</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02317428361497134</v>
+        <v>0.02315653935826157</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.02317428361497134</v>
+        <v>0.02315653935826157</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02317428361497134</v>
+        <v>0.02315653935826157</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02317428361497134</v>
+        <v>0.02315653935826157</v>
       </c>
     </row>
     <row r="22">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03008809973152398</v>
+        <v>-0.03008974872358994</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.006875211222745797</v>
+        <v>-0.006688834685262137</v>
       </c>
       <c r="E22" t="n">
         <v>-0.003770082774803311</v>
@@ -2502,10 +2502,10 @@
         <v>-0.002924413364976535</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0001083964843358594</v>
+        <v>-0.0001058232042329281</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.00762874230771295</v>
+        <v>-0.007628710627711671</v>
       </c>
       <c r="K22" t="n">
         <v>-0.03361128076845122</v>
@@ -2538,37 +2538,37 @@
         <v>-0.03466837060273482</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009185844175433765</v>
+        <v>0.00917290529491621</v>
       </c>
       <c r="V22" t="n">
         <v>0.001886523819460952</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001630059329202373</v>
+        <v>0.001628181857127274</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.01656090411843616</v>
+        <v>-0.01653790798951632</v>
       </c>
       <c r="Y22" t="n">
         <v>-0.002329811037192441</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.01386140993045639</v>
+        <v>-0.01393697335747893</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02012738787709551</v>
+        <v>0.02014093568563742</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02012738787709551</v>
+        <v>0.02014093568563742</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.02012738787709551</v>
+        <v>0.02014093568563742</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.02012738787709551</v>
+        <v>0.02014093568563742</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.02012738787709551</v>
+        <v>0.02014093568563742</v>
       </c>
     </row>
     <row r="23">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01217157283886291</v>
+        <v>-0.01217308167092327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.000277861652598964</v>
+        <v>-0.0005731265125564069</v>
       </c>
       <c r="E23" t="n">
         <v>-0.00802029228881169</v>
@@ -2597,10 +2597,10 @@
         <v>-0.01048538873941555</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003310613700424547</v>
+        <v>0.003318742692749707</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.004648344235495613</v>
+        <v>-0.00464825937149219</v>
       </c>
       <c r="K23" t="n">
         <v>0.005423250168930006</v>
@@ -2633,37 +2633,37 @@
         <v>0.005944524429780976</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.007068435354737414</v>
+        <v>-0.007058065434322617</v>
       </c>
       <c r="V23" t="n">
         <v>0.008103711492148457</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.002220205336808213</v>
+        <v>-0.00221887650475506</v>
       </c>
       <c r="X23" t="n">
-        <v>0.001332046325281853</v>
+        <v>0.001100442476017699</v>
       </c>
       <c r="Y23" t="n">
         <v>-0.007362674502506979</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.01773515149340606</v>
+        <v>-0.01782086624883465</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.004127681829107273</v>
+        <v>-0.004130088645203546</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.004127681829107273</v>
+        <v>-0.004130088645203546</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.004127681829107273</v>
+        <v>-0.004130088645203546</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.004127681829107273</v>
+        <v>-0.004130088645203546</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.004127681829107273</v>
+        <v>-0.004130088645203546</v>
       </c>
     </row>
     <row r="24">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01976033992641359</v>
+        <v>-0.0197578424863137</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.004114019652691496</v>
+        <v>-0.002679691259643273</v>
       </c>
       <c r="E24" t="n">
         <v>0.00545126777005071</v>
@@ -2696,10 +2696,10 @@
         <v>0.007708004468320179</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.00312340226893609</v>
+        <v>-0.003124027228961089</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004023543954293668</v>
+        <v>0.00402374257830168</v>
       </c>
       <c r="K24" t="n">
         <v>0.01220726688829067</v>
@@ -2732,37 +2732,37 @@
         <v>0.01011881954075278</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01421068069642723</v>
+        <v>0.01421699336867973</v>
       </c>
       <c r="V24" t="n">
         <v>-0.01253947672557907</v>
       </c>
       <c r="W24" t="n">
-        <v>0.006858790450351616</v>
+        <v>0.006857633650305345</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.00840913876836555</v>
+        <v>-0.008558945718357826</v>
       </c>
       <c r="Y24" t="n">
         <v>0.01078384900735396</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.01041320614452824</v>
+        <v>-0.01029931980397279</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01165769777830791</v>
+        <v>0.01163954292958172</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01165769777830791</v>
+        <v>0.01163954292958172</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01165769777830791</v>
+        <v>0.01163954292958172</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01165769777830791</v>
+        <v>0.01163954292958172</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01165769777830791</v>
+        <v>0.01163954292958172</v>
       </c>
     </row>
     <row r="25">
@@ -2773,10 +2773,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.005754734054189361</v>
+        <v>-0.005752825574113022</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01301323729658655</v>
+        <v>-0.01027155835410732</v>
       </c>
       <c r="E25" t="n">
         <v>0.01686670886666835</v>
@@ -2791,10 +2791,10 @@
         <v>0.02447870469114818</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02399151801566072</v>
+        <v>0.02398887148755486</v>
       </c>
       <c r="J25" t="n">
-        <v>0.009410846443595902</v>
+        <v>0.009410766763592687</v>
       </c>
       <c r="K25" t="n">
         <v>-0.006226659609066384</v>
@@ -2827,37 +2827,37 @@
         <v>-0.01207992528319701</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.01103578095343124</v>
+        <v>-0.01104600456984018</v>
       </c>
       <c r="V25" t="n">
         <v>-0.01986577385063095</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0178840876273635</v>
+        <v>0.01788427713137108</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01489077313963092</v>
+        <v>-0.01539021402360856</v>
       </c>
       <c r="Y25" t="n">
         <v>0.01503481279339251</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.01238869643154785</v>
+        <v>-0.01265916770636671</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02673374286134971</v>
+        <v>0.02679402529576101</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02673374286134971</v>
+        <v>0.02679402529576101</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02673374286134971</v>
+        <v>0.02679402529576101</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02673374286134971</v>
+        <v>0.02679402529576101</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.02673374286134971</v>
+        <v>0.02679402529576101</v>
       </c>
     </row>
     <row r="26">
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02919526129581045</v>
+        <v>0.02919772446390898</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03294570301624859</v>
+        <v>-0.03293608346528963</v>
       </c>
       <c r="E26" t="n">
         <v>0.01870228145209126</v>
@@ -2890,10 +2890,10 @@
         <v>0.02160733478429339</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008627545881101834</v>
+        <v>0.008615819672632787</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0009832490796603348</v>
+        <v>0.0009833591916647761</v>
       </c>
       <c r="K26" t="n">
         <v>-0.01913315894132635</v>
@@ -2926,37 +2926,37 @@
         <v>-0.02083307056132282</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.006536416293456651</v>
+        <v>-0.006549132837965313</v>
       </c>
       <c r="V26" t="n">
         <v>0.005333011605320463</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01732854414914176</v>
+        <v>-0.01732897307715892</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.01698416448736658</v>
+        <v>-0.01663179311327172</v>
       </c>
       <c r="Y26" t="n">
         <v>0.01781725184869007</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.01527794701111788</v>
+        <v>-0.01495587602223504</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02455593314223732</v>
+        <v>0.02453764629350584</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02455593314223732</v>
+        <v>0.02453764629350584</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02455593314223732</v>
+        <v>0.02453764629350584</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.02455593314223732</v>
+        <v>0.02453764629350584</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.02455593314223732</v>
+        <v>0.02453764629350584</v>
       </c>
     </row>
     <row r="27">
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.002022032432881297</v>
+        <v>-0.002025954417038177</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01167844634436668</v>
+        <v>0.01239200902626618</v>
       </c>
       <c r="E27" t="n">
         <v>-0.01295046944601877</v>
@@ -2985,10 +2985,10 @@
         <v>-0.01450509610020384</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.005010219656408785</v>
+        <v>-0.005006923400276935</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01096370506623201</v>
+        <v>-0.01096392481024087</v>
       </c>
       <c r="K27" t="n">
         <v>0.01849347385973895</v>
@@ -3021,37 +3021,37 @@
         <v>0.01860890877635635</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0006971986838879474</v>
+        <v>0.0006835421073416841</v>
       </c>
       <c r="V27" t="n">
         <v>0.000910893924435757</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01198043875121755</v>
+        <v>0.01198194623927785</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.01028806025152241</v>
+        <v>-0.01077358622294345</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.01035245849409834</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.004335349517413979</v>
+        <v>-0.00466663852266554</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.004145202693808108</v>
+        <v>-0.004076972995078919</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.004145202693808108</v>
+        <v>-0.004076972995078919</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.004145202693808108</v>
+        <v>-0.004076972995078919</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.004145202693808108</v>
+        <v>-0.004076972995078919</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.004145202693808108</v>
+        <v>-0.004076972995078919</v>
       </c>
     </row>
     <row r="28">
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.03294485574979422</v>
+        <v>-0.0329432275897291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01509571048145672</v>
+        <v>0.01538424400415938</v>
       </c>
       <c r="E28" t="n">
         <v>-0.07310553489222139</v>
@@ -3084,10 +3084,10 @@
         <v>-0.02523759172950367</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02689437813177512</v>
+        <v>0.02689352901174116</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005286426405233295</v>
+        <v>0.005286859077250747</v>
       </c>
       <c r="K28" t="n">
         <v>0.07276661110266444</v>
@@ -3120,37 +3120,37 @@
         <v>0.04013596461343858</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.0421428200217128</v>
+        <v>-0.04212103358884134</v>
       </c>
       <c r="V28" t="n">
         <v>-0.2582039162481566</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915875564315022</v>
+        <v>0.9915875604635022</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05908048287521931</v>
+        <v>0.05943174285726971</v>
       </c>
       <c r="Y28" t="n">
         <v>-0.03886075086643003</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05882800545712021</v>
+        <v>0.05891563080462522</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.02756193307047732</v>
+        <v>0.02751529914861196</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02756193307047732</v>
+        <v>0.02751529914861196</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02756193307047732</v>
+        <v>0.02751529914861196</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02756193307047732</v>
+        <v>0.02751529914861196</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02756193307047732</v>
+        <v>0.02751529914861196</v>
       </c>
     </row>
     <row r="29">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01631982564479302</v>
+        <v>-0.01631645287665811</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02169669253095211</v>
+        <v>0.02382601537081698</v>
       </c>
       <c r="E29" t="n">
         <v>-0.01579043487161739</v>
@@ -3183,10 +3183,10 @@
         <v>-0.01669819343592773</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.0217306702132268</v>
+        <v>-0.02173889232555569</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01480737021327008</v>
+        <v>0.0148070608052576</v>
       </c>
       <c r="K29" t="n">
         <v>-0.003829381689175267</v>
@@ -3219,37 +3219,37 @@
         <v>-0.001606776640271065</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02056057887042315</v>
+        <v>-0.02056447090257884</v>
       </c>
       <c r="V29" t="n">
         <v>0.001894137291765491</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02120143592005743</v>
+        <v>0.02120265809610632</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01371350166854006</v>
+        <v>0.01333848398953936</v>
       </c>
       <c r="Y29" t="n">
         <v>0.001305189076207563</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.004752735166109407</v>
+        <v>0.004634531993381279</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01936753037470121</v>
+        <v>-0.01932930970117239</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01936753037470121</v>
+        <v>-0.01932930970117239</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01936753037470121</v>
+        <v>-0.01932930970117239</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01936753037470121</v>
+        <v>-0.01932930970117239</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.01936753037470121</v>
+        <v>-0.01932930970117239</v>
       </c>
     </row>
     <row r="30">
@@ -3264,10 +3264,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005275888435035537</v>
+        <v>-0.00527955601918224</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.009876604242586988</v>
+        <v>-0.01083571843051021</v>
       </c>
       <c r="E30" t="n">
         <v>-0.0006444854657794185</v>
@@ -3282,10 +3282,10 @@
         <v>-0.01741705836068233</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.00766099979443999</v>
+        <v>-0.007655482098219282</v>
       </c>
       <c r="J30" t="n">
-        <v>0.002509547477225107</v>
+        <v>0.002509810325235709</v>
       </c>
       <c r="K30" t="n">
         <v>0.01605878771435151</v>
@@ -3318,37 +3318,37 @@
         <v>0.02752155642886225</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0151290474531619</v>
+        <v>0.01510122550004902</v>
       </c>
       <c r="V30" t="n">
         <v>0.0587889477595579</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1101223529168941</v>
+        <v>0.1101223846928954</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.02076856095874244</v>
+        <v>-0.02120478420819136</v>
       </c>
       <c r="Y30" t="n">
         <v>-0.02759040955161638</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.006804691664187667</v>
+        <v>-0.006768186702727467</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.003641547217661888</v>
+        <v>-0.003603134160125366</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.003641547217661888</v>
+        <v>-0.003603134160125366</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.003641547217661888</v>
+        <v>-0.003603134160125366</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.003641547217661888</v>
+        <v>-0.003603134160125366</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.003641547217661888</v>
+        <v>-0.003603134160125366</v>
       </c>
     </row>
     <row r="31">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004021122400844895</v>
+        <v>-0.004021729216869168</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01057786368304562</v>
+        <v>-0.01011353770137278</v>
       </c>
       <c r="E31" t="n">
         <v>-0.004145227461809097</v>
@@ -3381,10 +3381,10 @@
         <v>-0.003690063891602556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01975008674200347</v>
+        <v>0.01975763416630536</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01078861881916973</v>
+        <v>-0.01078844265916262</v>
       </c>
       <c r="K31" t="n">
         <v>0.009151257294050291</v>
@@ -3417,37 +3417,37 @@
         <v>0.005971506574860262</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.002917972052718882</v>
+        <v>-0.002922716180908647</v>
       </c>
       <c r="V31" t="n">
         <v>-0.005945448237817929</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01071685204467408</v>
+        <v>0.01071737524469501</v>
       </c>
       <c r="X31" t="n">
-        <v>0.004086961507478459</v>
+        <v>0.003925315933012636</v>
       </c>
       <c r="Y31" t="n">
         <v>-0.008818403392736134</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01566260942650437</v>
+        <v>0.01571711582868463</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.002389504127580165</v>
+        <v>-0.002384411327376453</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.002389504127580165</v>
+        <v>-0.002384411327376453</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.002389504127580165</v>
+        <v>-0.002384411327376453</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.002389504127580165</v>
+        <v>-0.002384411327376453</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.002389504127580165</v>
+        <v>-0.002384411327376453</v>
       </c>
     </row>
     <row r="32">
@@ -3462,10 +3462,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4481400481656019</v>
+        <v>0.4481359736374389</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01120465278121782</v>
+        <v>0.01136347848734892</v>
       </c>
       <c r="E32" t="n">
         <v>0.9775172146846886</v>
@@ -3480,10 +3480,10 @@
         <v>0.9869956307758251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.432798351391934</v>
+        <v>0.4328004160640166</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0653274024910461</v>
+        <v>0.06532754389905181</v>
       </c>
       <c r="K32" t="n">
         <v>-0.492156328134253</v>
@@ -3516,37 +3516,37 @@
         <v>-0.5661943183597726</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1241749719109989</v>
+        <v>-0.1241711320068453</v>
       </c>
       <c r="V32" t="n">
         <v>-0.005861654826466192</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.02247286841891473</v>
+        <v>-0.02247092845083714</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.5920938360677533</v>
+        <v>-0.5920986247399449</v>
       </c>
       <c r="Y32" t="n">
         <v>0.02857771160710846</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.571453627978145</v>
+        <v>-0.5712066637442665</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7441564047422561</v>
+        <v>0.7441460848378434</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7441564047422561</v>
+        <v>0.7441460848378434</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.7441564047422561</v>
+        <v>0.7441460848378434</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.7441564047422561</v>
+        <v>0.7441460848378434</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.7441564047422561</v>
+        <v>0.7441460848378434</v>
       </c>
     </row>
     <row r="33">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.007136567901462715</v>
+        <v>-0.007136484861459393</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02036975430304045</v>
+        <v>-0.02111131655546207</v>
       </c>
       <c r="E33" t="n">
         <v>-0.01410533173221327</v>
@@ -3579,10 +3579,10 @@
         <v>-0.006144108149764326</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01063213626528545</v>
+        <v>0.01063592884143715</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02178099635055827</v>
+        <v>-0.02178075491054853</v>
       </c>
       <c r="K33" t="n">
         <v>0.008465578706623147</v>
@@ -3615,37 +3615,37 @@
         <v>0.005647403361896133</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.0007886527995461119</v>
+        <v>-0.0008017073600682943</v>
       </c>
       <c r="V33" t="n">
         <v>-0.027352375142095</v>
       </c>
       <c r="W33" t="n">
-        <v>0.009694360323774411</v>
+        <v>0.009696022083840882</v>
       </c>
       <c r="X33" t="n">
-        <v>0.008645790201831606</v>
+        <v>0.00879183203167328</v>
       </c>
       <c r="Y33" t="n">
         <v>0.02070782530831301</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.00959445331177813</v>
+        <v>0.009660871586434864</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.001027793417111737</v>
+        <v>-0.001018046536721861</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.001027793417111737</v>
+        <v>-0.001018046536721861</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.001027793417111737</v>
+        <v>-0.001018046536721861</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.001027793417111737</v>
+        <v>-0.001018046536721861</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.001027793417111737</v>
+        <v>-0.001018046536721861</v>
       </c>
     </row>
     <row r="34">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0005329734933189396</v>
+        <v>-0.0005344434453777377</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002493713890492887</v>
+        <v>0.004530915541276815</v>
       </c>
       <c r="E34" t="n">
         <v>0.00220429026417161</v>
@@ -3678,10 +3678,10 @@
         <v>0.00287552699502108</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01860353940014157</v>
+        <v>0.01860427063217082</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02213644538889566</v>
+        <v>0.02213655761290019</v>
       </c>
       <c r="K34" t="n">
         <v>0.03340589250423569</v>
@@ -3714,37 +3714,37 @@
         <v>0.03232792161311687</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01324678315387133</v>
+        <v>-0.01324563844982554</v>
       </c>
       <c r="V34" t="n">
         <v>-0.00665778977031159</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01312951185318047</v>
+        <v>-0.01312824782112991</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.00459880175195207</v>
+        <v>-0.004624038232961529</v>
       </c>
       <c r="Y34" t="n">
         <v>0.0004177651367106054</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.008185312455412498</v>
+        <v>0.008084604227384169</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.02360878040035121</v>
+        <v>0.0236230075049203</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02360878040035121</v>
+        <v>0.0236230075049203</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.02360878040035121</v>
+        <v>0.0236230075049203</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.02360878040035121</v>
+        <v>0.0236230075049203</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.02360878040035121</v>
+        <v>0.0236230075049203</v>
       </c>
     </row>
     <row r="35">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03784245808969832</v>
+        <v>-0.03783795415351816</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.007522902711053979</v>
+        <v>-0.007122572944598662</v>
       </c>
       <c r="E35" t="n">
         <v>-0.03233770564550822</v>
@@ -3777,10 +3777,10 @@
         <v>-0.02476387635055505</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01662850136914005</v>
+        <v>-0.01664051740162069</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0202765941138767</v>
+        <v>0.02027656790587564</v>
       </c>
       <c r="K35" t="n">
         <v>0.7698346114333843</v>
@@ -3813,37 +3813,37 @@
         <v>0.7723875800475031</v>
       </c>
       <c r="U35" t="n">
-        <v>0.004739360157574405</v>
+        <v>0.004751079358043173</v>
       </c>
       <c r="V35" t="n">
         <v>-0.02097465031098601</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006555291142211645</v>
+        <v>-0.0006572054662882185</v>
       </c>
       <c r="X35" t="n">
-        <v>0.03012534590901383</v>
+        <v>0.03044973856198954</v>
       </c>
       <c r="Y35" t="n">
         <v>0.01237743063909722</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01612751037310041</v>
+        <v>0.01603189091327563</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.1989899916395996</v>
+        <v>-0.1990154894326196</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.1989899916395996</v>
+        <v>-0.1990154894326196</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.1989899916395996</v>
+        <v>-0.1990154894326196</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1989899916395996</v>
+        <v>-0.1990154894326196</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1989899916395996</v>
+        <v>-0.1990154894326196</v>
       </c>
     </row>
     <row r="36">
@@ -3858,10 +3858,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.003370788902831556</v>
+        <v>-0.003370851974834078</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.008551209045857705</v>
+        <v>-0.009057641486250217</v>
       </c>
       <c r="E36" t="n">
         <v>0.0135509276780371</v>
@@ -3876,10 +3876,10 @@
         <v>0.0153446123897845</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01010472165218886</v>
+        <v>0.0101025349641014</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003765523879886171</v>
+        <v>0.003765316903877822</v>
       </c>
       <c r="K36" t="n">
         <v>-0.002919916340796654</v>
@@ -3912,37 +3912,37 @@
         <v>-0.001840691209627648</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02551849849273994</v>
+        <v>0.02552703970908159</v>
       </c>
       <c r="V36" t="n">
         <v>0.003193437055737481</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01623655332146213</v>
+        <v>0.01623732900149316</v>
       </c>
       <c r="X36" t="n">
-        <v>0.006782350063294001</v>
+        <v>0.006787543183501726</v>
       </c>
       <c r="Y36" t="n">
         <v>0.01057698138307926</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0002623263464930538</v>
+        <v>0.0002363343454533738</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.001194354959774198</v>
+        <v>0.001188995471559819</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.001194354959774198</v>
+        <v>0.001188995471559819</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.001194354959774198</v>
+        <v>0.001188995471559819</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.001194354959774198</v>
+        <v>0.001188995471559819</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.001194354959774198</v>
+        <v>0.001188995471559819</v>
       </c>
     </row>
     <row r="37">
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.002466315842652633</v>
+        <v>-0.002468153666726146</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01817563616314932</v>
+        <v>-0.01849655195582338</v>
       </c>
       <c r="E37" t="n">
         <v>0.003466995690679827</v>
@@ -3975,10 +3975,10 @@
         <v>0.001163787598551504</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008434503217380127</v>
+        <v>0.008439978961599157</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.008204052474918658</v>
+        <v>-0.008204083098919894</v>
       </c>
       <c r="K37" t="n">
         <v>0.0912124953604998</v>
@@ -4011,37 +4011,37 @@
         <v>0.09306873473074938</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.005082317963292718</v>
+        <v>-0.00506757927470317</v>
       </c>
       <c r="V37" t="n">
         <v>0.005651380930055236</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001549531549981262</v>
+        <v>-0.001549547965981918</v>
       </c>
       <c r="X37" t="n">
-        <v>0.004658308122332325</v>
+        <v>0.004524600756984029</v>
       </c>
       <c r="Y37" t="n">
         <v>-0.01636277518251101</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.001380982615239304</v>
+        <v>0.001376279191051168</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.07671991919679676</v>
+        <v>0.07670306956412277</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.07671991919679676</v>
+        <v>0.07670306956412277</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.07671991919679676</v>
+        <v>0.07670306956412277</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.07671991919679676</v>
+        <v>0.07670306956412277</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.07671991919679676</v>
+        <v>0.07670306956412277</v>
       </c>
     </row>
     <row r="38">
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0009385289655411585</v>
+        <v>0.0009386339895453595</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004448246416409761</v>
+        <v>0.002506160913642654</v>
       </c>
       <c r="E38" t="n">
         <v>-0.01580059042402361</v>
@@ -4074,10 +4074,10 @@
         <v>-0.01529779539591181</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02557521068700842</v>
+        <v>-0.02557195436687817</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.007364111289038792</v>
+        <v>-0.007363994937034099</v>
       </c>
       <c r="K38" t="n">
         <v>0.01900188172007527</v>
@@ -4110,37 +4110,37 @@
         <v>0.01925309846612394</v>
       </c>
       <c r="U38" t="n">
-        <v>0.00889409901176396</v>
+        <v>0.008851641954065678</v>
       </c>
       <c r="V38" t="n">
         <v>-0.004906690468267618</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001505320572212823</v>
+        <v>0.001503448284137931</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01969514469180578</v>
+        <v>0.01908037401121496</v>
       </c>
       <c r="Y38" t="n">
         <v>-0.008279627179185086</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01264958805798352</v>
+        <v>0.0125197401807896</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.0196732325949293</v>
+        <v>-0.01959914190396567</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.0196732325949293</v>
+        <v>-0.01959914190396567</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.0196732325949293</v>
+        <v>-0.01959914190396567</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.0196732325949293</v>
+        <v>-0.01959914190396567</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.0196732325949293</v>
+        <v>-0.01959914190396567</v>
       </c>
     </row>
     <row r="39">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01436291558251662</v>
+        <v>0.01436507318260292</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.02354107280193862</v>
+        <v>-0.02168263115146386</v>
       </c>
       <c r="E39" t="n">
         <v>0.003517886540715461</v>
@@ -4173,10 +4173,10 @@
         <v>-0.00346554925862197</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01402935684917427</v>
+        <v>-0.01403307310532292</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.001699731572560372</v>
+        <v>-0.001699571252553906</v>
       </c>
       <c r="K39" t="n">
         <v>0.04638799231951969</v>
@@ -4209,37 +4209,37 @@
         <v>0.04929666369986654</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431934982077399</v>
+        <v>0.01431525071661003</v>
       </c>
       <c r="V39" t="n">
         <v>0.01925972957038918</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006667095050683801</v>
+        <v>0.006669502922780115</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.01812588072503523</v>
+        <v>-0.01789422407576896</v>
       </c>
       <c r="Y39" t="n">
         <v>-0.02660734666429386</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.01535850608634024</v>
+        <v>-0.01504424719376989</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.006397080639883226</v>
+        <v>0.006371701598868063</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.006397080639883226</v>
+        <v>0.006371701598868063</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.006397080639883226</v>
+        <v>0.006371701598868063</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.006397080639883226</v>
+        <v>0.006371701598868063</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.006397080639883226</v>
+        <v>0.006371701598868063</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.08819368922374757</v>
+        <v>-0.0882356406494256</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0007841772737814185</v>
+        <v>0.009583924071904936</v>
       </c>
       <c r="E4" t="n">
         <v>-0.1177646069825843</v>
@@ -746,79 +746,79 @@
         <v>-0.02338696826347873</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08419993671199746</v>
+        <v>0.08410902125236083</v>
       </c>
       <c r="H4" t="n">
         <v>0.1765836888553475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05172981173319247</v>
+        <v>0.05159577988783119</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09460357039192963</v>
+        <v>0.09465269353682439</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3218543532581741</v>
+        <v>0.322220375256815</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3218543532581741</v>
+        <v>0.322220375256815</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3218543532581741</v>
+        <v>0.322220375256815</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3218543532581741</v>
+        <v>0.322220375256815</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3218543532581741</v>
+        <v>0.322220375256815</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001870421738816869</v>
+        <v>0.001901954668078186</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2157335591893423</v>
+        <v>0.2161345862453834</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2157335591893423</v>
+        <v>0.2161345862453834</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2157335591893423</v>
+        <v>0.2161345862453834</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2157335591893423</v>
+        <v>0.2161345862453834</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.09716239742249587</v>
+        <v>-0.096916950468678</v>
       </c>
       <c r="V4" t="n">
         <v>-0.7014339902653596</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01957573345502934</v>
+        <v>0.01957974884718995</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2769967113998684</v>
+        <v>0.2799007857240314</v>
       </c>
       <c r="Y4" t="n">
         <v>0.9980585371063413</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1879505613420224</v>
+        <v>0.1867589819343592</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1378275919131037</v>
+        <v>0.1384419136976765</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1378275919131037</v>
+        <v>0.1384419136976765</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1378275919131037</v>
+        <v>0.1384419136976765</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1378275919131037</v>
+        <v>0.1384419136976765</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1378275919131037</v>
+        <v>0.1384419136976765</v>
       </c>
     </row>
     <row r="5">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1108998349639934</v>
+        <v>0.110865050994602</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02235322168801487</v>
+        <v>0.008647030065031232</v>
       </c>
       <c r="E5" t="n">
         <v>0.1433098626923945</v>
@@ -841,79 +841,79 @@
         <v>-0.01076986603079464</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08370738306029531</v>
+        <v>-0.08368196235527849</v>
       </c>
       <c r="H5" t="n">
         <v>0.008470465394818614</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04609942590797703</v>
+        <v>-0.04600357240014289</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03058229566556748</v>
+        <v>0.03388354201947373</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1744807564512302</v>
+        <v>-0.1745369281654771</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1744807564512302</v>
+        <v>-0.1745369281654771</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1744807564512302</v>
+        <v>-0.1745369281654771</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1744807564512302</v>
+        <v>-0.1745369281654771</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1744807564512302</v>
+        <v>-0.1745369281654771</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01962351803294072</v>
+        <v>-0.01963278702531148</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.06032707479708298</v>
+        <v>-0.06039024366360973</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.06032707479708298</v>
+        <v>-0.06039024366360973</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.06032707479708298</v>
+        <v>-0.06039024366360973</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.06032707479708298</v>
+        <v>-0.06039024366360973</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1132905333316213</v>
+        <v>0.1140403770736151</v>
       </c>
       <c r="V5" t="n">
         <v>0.6536887663075507</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002550984582039383</v>
+        <v>0.002547529445901177</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2093316953492678</v>
+        <v>-0.2113432834617313</v>
       </c>
       <c r="Y5" t="n">
         <v>-0.01176007064640282</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1324872278594891</v>
+        <v>-0.1336206711048268</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1190020324400813</v>
+        <v>-0.1216993061479722</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1190020324400813</v>
+        <v>-0.1216993061479722</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1190020324400813</v>
+        <v>-0.1216993061479722</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1190020324400813</v>
+        <v>-0.1216993061479722</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.1190020324400813</v>
+        <v>-0.1216993061479722</v>
       </c>
     </row>
     <row r="6">
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.28473625177345</v>
+        <v>0.2847602979504119</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0104059294804427</v>
+        <v>-0.01694373564587792</v>
       </c>
       <c r="E6" t="n">
         <v>-0.002243198393727935</v>
@@ -936,79 +936,79 @@
         <v>0.005428281529131261</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02273019815720792</v>
+        <v>-0.02262764989710599</v>
       </c>
       <c r="H6" t="n">
         <v>-0.006998576439943056</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8951572899822914</v>
+        <v>-0.8951761096310442</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.003808890633635412</v>
+        <v>-0.004807229857442929</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03190318169212726</v>
+        <v>0.03191815385272614</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03190318169212726</v>
+        <v>0.03191815385272614</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03190318169212726</v>
+        <v>0.03191815385272614</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03190318169212726</v>
+        <v>0.03191815385272614</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03190318169212726</v>
+        <v>0.03191815385272614</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009764922822596911</v>
+        <v>0.009725053061002121</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04292297403691896</v>
+        <v>0.04294773320590932</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04292297403691896</v>
+        <v>0.04294773320590932</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04292297403691896</v>
+        <v>0.04294773320590932</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04292297403691896</v>
+        <v>0.04294773320590932</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04983527882541115</v>
+        <v>0.04866835653873425</v>
       </c>
       <c r="V6" t="n">
         <v>0.02071473481258939</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02798221609528864</v>
+        <v>-0.02798512364740494</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004546676917867076</v>
+        <v>0.001170152878806115</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.0009891643595665743</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.3580974490758979</v>
+        <v>-0.355350475686019</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.02062697938507917</v>
+        <v>-0.01903854181754167</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02062697938507917</v>
+        <v>-0.01903854181754167</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02062697938507917</v>
+        <v>-0.01903854181754167</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.02062697938507917</v>
+        <v>-0.01903854181754167</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.02062697938507917</v>
+        <v>-0.01903854181754167</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01634850871794034</v>
+        <v>0.0164012699360508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01237592717451917</v>
+        <v>0.01512140518493371</v>
       </c>
       <c r="E7" t="n">
         <v>0.01175450811818032</v>
@@ -1031,79 +1031,79 @@
         <v>-0.009329261653170464</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009486742171469685</v>
+        <v>0.00966548477061939</v>
       </c>
       <c r="H7" t="n">
         <v>0.0088485200339408</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.001785953063438122</v>
+        <v>-0.001727330085093203</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.006056913076311645</v>
+        <v>-0.006031552466709671</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01967494158699766</v>
+        <v>-0.01988025564321022</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01967494158699766</v>
+        <v>-0.01988025564321022</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01967494158699766</v>
+        <v>-0.01988025564321022</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01967494158699766</v>
+        <v>-0.01988025564321022</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.01967494158699766</v>
+        <v>-0.01988025564321022</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009933732877349314</v>
+        <v>-0.009965568974622759</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0184031150081246</v>
+        <v>-0.01868582801143312</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.0184031150081246</v>
+        <v>-0.01868582801143312</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0184031150081246</v>
+        <v>-0.01868582801143312</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0184031150081246</v>
+        <v>-0.01868582801143312</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01744079829763193</v>
+        <v>0.0172573574582943</v>
       </c>
       <c r="V7" t="n">
         <v>0.007844667961786718</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01725245301009812</v>
+        <v>0.0172510851060434</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01837238943889558</v>
+        <v>-0.02033119962924798</v>
       </c>
       <c r="Y7" t="n">
         <v>-0.01073606452544258</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.01238691870347675</v>
+        <v>-0.0144663199706528</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01271976041279041</v>
+        <v>0.01448046595521864</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01271976041279041</v>
+        <v>0.01448046595521864</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01271976041279041</v>
+        <v>0.01448046595521864</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01271976041279041</v>
+        <v>0.01448046595521864</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01271976041279041</v>
+        <v>0.01448046595521864</v>
       </c>
     </row>
     <row r="8">
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01291640643665625</v>
+        <v>0.01292364714094588</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003168876215948515</v>
+        <v>0.005557171683584237</v>
       </c>
       <c r="E8" t="n">
         <v>-0.001420882808835312</v>
@@ -1126,79 +1126,79 @@
         <v>0.001364030838561233</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.002908530932341237</v>
+        <v>-0.002873415282936611</v>
       </c>
       <c r="H8" t="n">
         <v>-0.001561537790461512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01070332401213296</v>
+        <v>-0.01063353546534142</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.001695279428380791</v>
+        <v>0.0002527009061686845</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01009325934773037</v>
+        <v>0.01000203044808122</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01009325934773037</v>
+        <v>0.01000203044808122</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01009325934773037</v>
+        <v>0.01000203044808122</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01009325934773037</v>
+        <v>0.01000203044808122</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01009325934773037</v>
+        <v>0.01000203044808122</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001727249541089981</v>
+        <v>0.001724062628962505</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01192678598107144</v>
+        <v>0.01183936991357479</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01192678598107144</v>
+        <v>0.01183936991357479</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01192678598107144</v>
+        <v>0.01183936991357479</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01192678598107144</v>
+        <v>0.01183936991357479</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.003473240970929638</v>
+        <v>-0.003803399480135979</v>
       </c>
       <c r="V8" t="n">
         <v>-0.004322193676887747</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00930859381234375</v>
+        <v>0.00931163826046553</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001255574834222993</v>
+        <v>0.00118416926336677</v>
       </c>
       <c r="Y8" t="n">
         <v>0.003052186202087448</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.005127576109103044</v>
+        <v>0.004964684550587381</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.00463113301724532</v>
+        <v>-0.00260653402426136</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.00463113301724532</v>
+        <v>-0.00260653402426136</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.00463113301724532</v>
+        <v>-0.00260653402426136</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.00463113301724532</v>
+        <v>-0.00260653402426136</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.00463113301724532</v>
+        <v>-0.00260653402426136</v>
       </c>
     </row>
     <row r="9">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4711518555180741</v>
+        <v>0.4711308177892327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01440663000468191</v>
+        <v>0.01133738131983088</v>
       </c>
       <c r="E9" t="n">
         <v>0.003303209604128384</v>
@@ -1225,79 +1225,79 @@
         <v>-0.001924485292979411</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000383699151347966</v>
+        <v>0.0004385105455404218</v>
       </c>
       <c r="H9" t="n">
         <v>0.000364514126580565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01151155054046202</v>
+        <v>-0.01158869326354773</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01266383091080828</v>
+        <v>-0.01303559505255234</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01695037824601513</v>
+        <v>-0.01709143316365732</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01695037824601513</v>
+        <v>-0.01709143316365732</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01695037824601513</v>
+        <v>-0.01709143316365732</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01695037824601513</v>
+        <v>-0.01709143316365732</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01695037824601513</v>
+        <v>-0.01709143316365732</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.002520249028809961</v>
+        <v>-0.00253677350947094</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01515954771038191</v>
+        <v>-0.01534458598978344</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01515954771038191</v>
+        <v>-0.01534458598978344</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01515954771038191</v>
+        <v>-0.01534458598978344</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01515954771038191</v>
+        <v>-0.01534458598978344</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.6016135453125417</v>
+        <v>-0.6021230366289214</v>
       </c>
       <c r="V9" t="n">
         <v>0.002256314106252564</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009573121438924857</v>
+        <v>0.009569604958784197</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01016562645462506</v>
+        <v>-0.01205707478628299</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.002613878696555147</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.001565303486612139</v>
+        <v>-0.0001620636544825461</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.007418466728738669</v>
+        <v>0.008107062084282482</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.007418466728738669</v>
+        <v>0.008107062084282482</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.007418466728738669</v>
+        <v>0.008107062084282482</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.007418466728738669</v>
+        <v>0.008107062084282482</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.007418466728738669</v>
+        <v>0.008107062084282482</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5412418754416749</v>
+        <v>0.541229677585187</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02502177167463026</v>
+        <v>-0.02043195979605658</v>
       </c>
       <c r="E10" t="n">
         <v>0.02868284956331398</v>
@@ -1324,79 +1324,79 @@
         <v>-0.02962156313686252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02961676649667066</v>
+        <v>0.02960143366405734</v>
       </c>
       <c r="H10" t="n">
         <v>0.03064438672977546</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.004729843005193719</v>
+        <v>-0.004829884705195388</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01316349974696292</v>
+        <v>0.01460195641158273</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02488873203554928</v>
+        <v>-0.02477693715107748</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02488873203554928</v>
+        <v>-0.02477693715107748</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02488873203554928</v>
+        <v>-0.02477693715107748</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02488873203554928</v>
+        <v>-0.02477693715107748</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02488873203554928</v>
+        <v>-0.02477693715107748</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.03002594635303785</v>
+        <v>-0.03002365588894623</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02843166670526666</v>
+        <v>-0.02828138714725548</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02843166670526666</v>
+        <v>-0.02828138714725548</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02843166670526666</v>
+        <v>-0.02828138714725548</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02843166670526666</v>
+        <v>-0.02828138714725548</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6983741012149639</v>
+        <v>0.698307301820292</v>
       </c>
       <c r="V10" t="n">
         <v>0.002660347114413884</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005826071849042874</v>
+        <v>0.00582450052098002</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.009126661133066443</v>
+        <v>-0.008409309744372389</v>
       </c>
       <c r="Y10" t="n">
         <v>0.004826509345060373</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.02090100986004039</v>
+        <v>-0.01856030483841219</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01451968205278728</v>
+        <v>0.01383714333748573</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01451968205278728</v>
+        <v>0.01383714333748573</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01451968205278728</v>
+        <v>0.01383714333748573</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01451968205278728</v>
+        <v>0.01383714333748573</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01451968205278728</v>
+        <v>0.01383714333748573</v>
       </c>
     </row>
     <row r="11">
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.002314855484594219</v>
+        <v>-0.002304641084185643</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.01004341157558213</v>
+        <v>0.007274178703470548</v>
       </c>
       <c r="E11" t="n">
         <v>0.002898114931924597</v>
@@ -1423,79 +1423,79 @@
         <v>-0.001790596199623848</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000446942801877712</v>
+        <v>0.0005992244399689775</v>
       </c>
       <c r="H11" t="n">
         <v>-0.001071932202877288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00368112926724517</v>
+        <v>0.003771568950862757</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01156008934628776</v>
+        <v>-0.01343152633248462</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001577854527114181</v>
+        <v>-0.001797106535884261</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001577854527114181</v>
+        <v>-0.001797106535884261</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001577854527114181</v>
+        <v>-0.001797106535884261</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001577854527114181</v>
+        <v>-0.001797106535884261</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001577854527114181</v>
+        <v>-0.001797106535884261</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001813563816542552</v>
+        <v>-0.001839806185592247</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0006282139451285577</v>
+        <v>-0.0009366149174645965</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0006282139451285577</v>
+        <v>-0.0009366149174645965</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0006282139451285577</v>
+        <v>-0.0009366149174645965</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0006282139451285577</v>
+        <v>-0.0009366149174645965</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01079165601566624</v>
+        <v>-0.01037886281515451</v>
       </c>
       <c r="V11" t="n">
         <v>-0.002020335824813433</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01837681686307267</v>
+        <v>0.01837708671908347</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01068700794748032</v>
+        <v>0.01310737127629485</v>
       </c>
       <c r="Y11" t="n">
         <v>-0.01424356280974251</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.005130832813233312</v>
+        <v>-0.003362987174519487</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.00843379425735177</v>
+        <v>-0.008879269795170791</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.00843379425735177</v>
+        <v>-0.008879269795170791</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.00843379425735177</v>
+        <v>-0.008879269795170791</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.00843379425735177</v>
+        <v>-0.008879269795170791</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.00843379425735177</v>
+        <v>-0.008879269795170791</v>
       </c>
     </row>
     <row r="12">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08084060963362437</v>
+        <v>0.08084302931372116</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01596015271055784</v>
+        <v>-0.03110618601848371</v>
       </c>
       <c r="E12" t="n">
         <v>0.008717855484714218</v>
@@ -1522,79 +1522,79 @@
         <v>-0.01178767122350685</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01314010612560424</v>
+        <v>0.01316483035059321</v>
       </c>
       <c r="H12" t="n">
         <v>0.01309334375573375</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01170848206833928</v>
+        <v>0.01165609073824363</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02390579419626411</v>
+        <v>-0.02527945935324544</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004082965987318639</v>
+        <v>0.004085094211403768</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004082965987318639</v>
+        <v>0.004085094211403768</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004082965987318639</v>
+        <v>0.004085094211403768</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004082965987318639</v>
+        <v>0.004085094211403768</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004082965987318639</v>
+        <v>0.004085094211403768</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01130766928430677</v>
+        <v>-0.01132738086909523</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001518869916754797</v>
+        <v>0.001516094076643763</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001518869916754797</v>
+        <v>0.001516094076643763</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001518869916754797</v>
+        <v>0.001516094076643763</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001518869916754797</v>
+        <v>0.001516094076643763</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07107876677915066</v>
+        <v>0.07096483570259342</v>
       </c>
       <c r="V12" t="n">
         <v>-0.0149328974613159</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02830058071602323</v>
+        <v>0.02830401425216056</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.003677877843115114</v>
+        <v>-0.007310128228405128</v>
       </c>
       <c r="Y12" t="n">
         <v>0.01068090839523633</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.02506821825072873</v>
+        <v>-0.02424317232972689</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01646708110668324</v>
+        <v>0.01831459590058383</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01646708110668324</v>
+        <v>0.01831459590058383</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01646708110668324</v>
+        <v>0.01831459590058383</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01646708110668324</v>
+        <v>0.01831459590058383</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01646708110668324</v>
+        <v>0.01831459590058383</v>
       </c>
     </row>
     <row r="13">
@@ -1605,10 +1605,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3360782448991297</v>
+        <v>-0.3360826721313068</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01421524514084199</v>
+        <v>0.05172190463410176</v>
       </c>
       <c r="E13" t="n">
         <v>0.0126909301716372</v>
@@ -1617,79 +1617,79 @@
         <v>-0.01724947172997887</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01940617556024702</v>
+        <v>0.0194537099621484</v>
       </c>
       <c r="H13" t="n">
         <v>0.01952371537294861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009623351904934074</v>
+        <v>0.009637592449503697</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01285657655058287</v>
+        <v>0.008596493193922885</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006689155755566229</v>
+        <v>0.006726846413073855</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006689155755566229</v>
+        <v>0.006726846413073855</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006689155755566229</v>
+        <v>0.006726846413073855</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006689155755566229</v>
+        <v>0.006726846413073855</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006689155755566229</v>
+        <v>0.006726846413073855</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01656364991054599</v>
+        <v>-0.01656956178278247</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001644503201780128</v>
+        <v>0.00174842176593687</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001644503201780128</v>
+        <v>0.00174842176593687</v>
       </c>
       <c r="S13" t="n">
-        <v>0.001644503201780128</v>
+        <v>0.00174842176593687</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001644503201780128</v>
+        <v>0.00174842176593687</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07304650957786038</v>
+        <v>-0.07304919738596788</v>
       </c>
       <c r="V13" t="n">
         <v>-0.01589750396390015</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009640773985630957</v>
+        <v>-0.009640943329637733</v>
       </c>
       <c r="X13" t="n">
-        <v>4.36344977453799e-05</v>
+        <v>-0.001624782976991319</v>
       </c>
       <c r="Y13" t="n">
         <v>0.0127554426542177</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.008932201221288046</v>
+        <v>-0.01310117159604686</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.009903543564141741</v>
+        <v>0.01128474688338987</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.009903543564141741</v>
+        <v>0.01128474688338987</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.009903543564141741</v>
+        <v>0.01128474688338987</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.009903543564141741</v>
+        <v>0.01128474688338987</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.009903543564141741</v>
+        <v>0.01128474688338987</v>
       </c>
     </row>
     <row r="14">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.008888047939521916</v>
+        <v>0.00892212928488517</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00607027732474943</v>
+        <v>0.004902746393623502</v>
       </c>
       <c r="E14" t="n">
         <v>0.0045449974937999</v>
@@ -1716,79 +1716,79 @@
         <v>-0.007051318074052722</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008474703890988153</v>
+        <v>0.008599781143991243</v>
       </c>
       <c r="H14" t="n">
         <v>0.0074490650019626</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001022284072891363</v>
+        <v>0.0009821721032868839</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01415779189906869</v>
+        <v>0.01413232204068464</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01020048540001941</v>
+        <v>-0.01031695202867808</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01020048540001941</v>
+        <v>-0.01031695202867808</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01020048540001941</v>
+        <v>-0.01031695202867808</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01020048540001941</v>
+        <v>-0.01031695202867808</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.01020048540001941</v>
+        <v>-0.01031695202867808</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.007385550727422028</v>
+        <v>-0.007425752649030106</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01127541136301645</v>
+        <v>-0.01145493156219726</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.01127541136301645</v>
+        <v>-0.01145493156219726</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.01127541136301645</v>
+        <v>-0.01145493156219726</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01127541136301645</v>
+        <v>-0.01145493156219726</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02040373473614939</v>
+        <v>0.01957858139114325</v>
       </c>
       <c r="V14" t="n">
         <v>-0.006572320294892811</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0001610116864404674</v>
+        <v>-0.0001635027905401116</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00813498378139935</v>
+        <v>0.00713528226941129</v>
       </c>
       <c r="Y14" t="n">
         <v>-0.003784722487388899</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.003851766874070675</v>
+        <v>-0.003578509103140364</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0007340590373623614</v>
+        <v>0.002038794417551777</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0007340590373623614</v>
+        <v>0.002038794417551777</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0007340590373623614</v>
+        <v>0.002038794417551777</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0007340590373623614</v>
+        <v>0.002038794417551777</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0007340590373623614</v>
+        <v>0.002038794417551777</v>
       </c>
     </row>
     <row r="15">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0362139101845564</v>
+        <v>-0.03619188298367531</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01912815111237276</v>
+        <v>-0.006247422713523455</v>
       </c>
       <c r="E15" t="n">
         <v>0.005581299775251989</v>
@@ -1815,79 +1815,79 @@
         <v>-0.006174142230965689</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005493581595743263</v>
+        <v>0.005570775390831014</v>
       </c>
       <c r="H15" t="n">
         <v>0.005684687939387516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01596955407878216</v>
+        <v>0.01595759939030398</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01890337559448656</v>
+        <v>-0.01106093329309196</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003145142909805716</v>
+        <v>0.002956954198278167</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003145142909805716</v>
+        <v>0.002956954198278167</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003145142909805716</v>
+        <v>0.002956954198278167</v>
       </c>
       <c r="N15" t="n">
-        <v>0.003145142909805716</v>
+        <v>0.002956954198278167</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003145142909805716</v>
+        <v>0.002956954198278167</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.006197660791906431</v>
+        <v>-0.00619432277577291</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003110477212419088</v>
+        <v>0.002888728147549125</v>
       </c>
       <c r="R15" t="n">
-        <v>0.003110477212419088</v>
+        <v>0.002888728147549125</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003110477212419088</v>
+        <v>0.002888728147549125</v>
       </c>
       <c r="T15" t="n">
-        <v>0.003110477212419088</v>
+        <v>0.002888728147549125</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05311335745253429</v>
+        <v>-0.05416101029444041</v>
       </c>
       <c r="V15" t="n">
         <v>0.001012833160513326</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002647746921909876</v>
+        <v>0.002647406217896249</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.009156907854276312</v>
+        <v>-0.01225690474627619</v>
       </c>
       <c r="Y15" t="n">
         <v>0.001504486524179461</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.005307383828295352</v>
+        <v>-0.005631413793256552</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002119870548794821</v>
+        <v>0.00692169330086773</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002119870548794821</v>
+        <v>0.00692169330086773</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.002119870548794821</v>
+        <v>0.00692169330086773</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002119870548794821</v>
+        <v>0.00692169330086773</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002119870548794821</v>
+        <v>0.00692169330086773</v>
       </c>
     </row>
     <row r="16">
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0137726899909076</v>
+        <v>0.01373251898130076</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02775181444280391</v>
+        <v>0.002723092215966276</v>
       </c>
       <c r="E16" t="n">
         <v>0.003440934185637367</v>
@@ -1914,79 +1914,79 @@
         <v>-0.003007499544299982</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005089919339596773</v>
+        <v>0.004905506980220279</v>
       </c>
       <c r="H16" t="n">
         <v>0.004056001122240045</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02389937701997508</v>
+        <v>-0.02388962111558484</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001036187369795654</v>
+        <v>-0.001920342557274584</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02383328879333155</v>
+        <v>0.02404783401791336</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02383328879333155</v>
+        <v>0.02404783401791336</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02383328879333155</v>
+        <v>0.02404783401791336</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02383328879333155</v>
+        <v>0.02404783401791336</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02383328879333155</v>
+        <v>0.02404783401791336</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.002212480888499235</v>
+        <v>-0.002190774231630969</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02306301596252064</v>
+        <v>0.02332847478913899</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02306301596252064</v>
+        <v>0.02332847478913899</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02306301596252064</v>
+        <v>0.02332847478913899</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02306301596252064</v>
+        <v>0.02332847478913899</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008948753061950122</v>
+        <v>0.008705082876203314</v>
       </c>
       <c r="V16" t="n">
         <v>0.0002018855120754205</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01410884773235391</v>
+        <v>0.0141090426123617</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.009977974671118986</v>
+        <v>-0.01054877830995113</v>
       </c>
       <c r="Y16" t="n">
         <v>0.00116841326273653</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.02590620055624802</v>
+        <v>-0.03012682085307283</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.006021865008874598</v>
+        <v>0.008230499369219973</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.006021865008874598</v>
+        <v>0.008230499369219973</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.006021865008874598</v>
+        <v>0.008230499369219973</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.006021865008874598</v>
+        <v>0.008230499369219973</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.006021865008874598</v>
+        <v>0.008230499369219973</v>
       </c>
     </row>
     <row r="17">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02116983790279351</v>
+        <v>-0.021192650095706</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01923196868291192</v>
+        <v>0.007156412236566836</v>
       </c>
       <c r="E17" t="n">
         <v>0.003722611156904446</v>
@@ -2013,79 +2013,79 @@
         <v>-0.006032465137298604</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006389785983591439</v>
+        <v>0.006397187391887495</v>
       </c>
       <c r="H17" t="n">
         <v>0.008068310050732401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01131324112452964</v>
+        <v>-0.01129031891561276</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01184005454158044</v>
+        <v>-0.007611470850285586</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001667809410712376</v>
+        <v>-0.001766017030640681</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001667809410712376</v>
+        <v>-0.001766017030640681</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001667809410712376</v>
+        <v>-0.001766017030640681</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.001667809410712376</v>
+        <v>-0.001766017030640681</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.001667809410712376</v>
+        <v>-0.001766017030640681</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.006066090962643638</v>
+        <v>-0.006067392434695697</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.003665225234609009</v>
+        <v>-0.003808280216331208</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.003665225234609009</v>
+        <v>-0.003808280216331208</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.003665225234609009</v>
+        <v>-0.003808280216331208</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.003665225234609009</v>
+        <v>-0.003808280216331208</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01649151051566042</v>
+        <v>-0.0158481026499241</v>
       </c>
       <c r="V17" t="n">
         <v>-0.009309831060393242</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01908567618742705</v>
+        <v>0.01908781631551265</v>
       </c>
       <c r="X17" t="n">
-        <v>0.001653186114127444</v>
+        <v>0.007468902346756093</v>
       </c>
       <c r="Y17" t="n">
         <v>0.01156044468641779</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0003579918863196754</v>
+        <v>0.0009678480387139214</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.007316560132662404</v>
+        <v>0.006173638422945536</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.007316560132662404</v>
+        <v>0.006173638422945536</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.007316560132662404</v>
+        <v>0.006173638422945536</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.007316560132662404</v>
+        <v>0.006173638422945536</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.007316560132662404</v>
+        <v>0.006173638422945536</v>
       </c>
     </row>
     <row r="18">
@@ -2096,10 +2096,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01298604915944196</v>
+        <v>-0.01298464477538579</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02198905814405584</v>
+        <v>0.01366162816843028</v>
       </c>
       <c r="E18" t="n">
         <v>0.002900400980016038</v>
@@ -2108,79 +2108,79 @@
         <v>-0.01226138045845522</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01753556076542243</v>
+        <v>0.01749258828370353</v>
       </c>
       <c r="H18" t="n">
         <v>0.017880824971233</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001513981308559252</v>
+        <v>-0.001494712859788514</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01820462070230158</v>
+        <v>-0.01656371313052381</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01201746201669848</v>
+        <v>0.01207477123499085</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01201746201669848</v>
+        <v>0.01207477123499085</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01201746201669848</v>
+        <v>0.01207477123499085</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01201746201669848</v>
+        <v>0.01207477123499085</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01201746201669848</v>
+        <v>0.01207477123499085</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01133692797347712</v>
+        <v>-0.0113283674611347</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005411056248442249</v>
+        <v>0.005562527550501101</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005411056248442249</v>
+        <v>0.005562527550501101</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005411056248442249</v>
+        <v>0.005562527550501101</v>
       </c>
       <c r="T18" t="n">
-        <v>0.005411056248442249</v>
+        <v>0.005562527550501101</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01361601702464068</v>
+        <v>-0.01354288738971549</v>
       </c>
       <c r="V18" t="n">
         <v>-0.04053771522150861</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01218734218349369</v>
+        <v>-0.01218677943147117</v>
       </c>
       <c r="X18" t="n">
-        <v>0.00656860077474403</v>
+        <v>0.007256257538250301</v>
       </c>
       <c r="Y18" t="n">
         <v>0.03970474469218978</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01568793941151757</v>
+        <v>0.01340942914437717</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.01978761650350466</v>
+        <v>0.02035392417415697</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.01978761650350466</v>
+        <v>0.02035392417415697</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01978761650350466</v>
+        <v>0.02035392417415697</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.01978761650350466</v>
+        <v>0.02035392417415697</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.01978761650350466</v>
+        <v>0.02035392417415697</v>
       </c>
     </row>
     <row r="19">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01222106036084241</v>
+        <v>0.01222503120900125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02577546403210559</v>
+        <v>-0.0006665809273862534</v>
       </c>
       <c r="E19" t="n">
         <v>0.01844926576197063</v>
@@ -2207,79 +2207,79 @@
         <v>-0.01648252088330083</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01491488162059526</v>
+        <v>0.01501226671249067</v>
       </c>
       <c r="H19" t="n">
         <v>0.01502727324109093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01524797177791887</v>
+        <v>0.01523394089735763</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003725193270259395</v>
+        <v>-0.001408126616663015</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02914314039772561</v>
+        <v>-0.0292105801124232</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02914314039772561</v>
+        <v>-0.0292105801124232</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02914314039772561</v>
+        <v>-0.0292105801124232</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.02914314039772561</v>
+        <v>-0.0292105801124232</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.02914314039772561</v>
+        <v>-0.0292105801124232</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01719757911990316</v>
+        <v>-0.01720328929613157</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.0277766427430657</v>
+        <v>-0.02789489401179576</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0277766427430657</v>
+        <v>-0.02789489401179576</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0277766427430657</v>
+        <v>-0.02789489401179576</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0277766427430657</v>
+        <v>-0.02789489401179576</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.005398901687956067</v>
+        <v>-0.004910335972413438</v>
       </c>
       <c r="V19" t="n">
         <v>0.01622704192908168</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006969067862762713</v>
+        <v>0.006968671382746855</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.005058547786341911</v>
+        <v>-0.002610935336437413</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.008200182472007298</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.00184601700184068</v>
+        <v>0.001376845591073823</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01358121270324851</v>
+        <v>0.01213212173328487</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01358121270324851</v>
+        <v>0.01213212173328487</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01358121270324851</v>
+        <v>0.01213212173328487</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01358121270324851</v>
+        <v>0.01213212173328487</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01358121270324851</v>
+        <v>0.01213212173328487</v>
       </c>
     </row>
     <row r="20">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01138749328749973</v>
+        <v>-0.01134584560583382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003174243082027346</v>
+        <v>0.01596421092565354</v>
       </c>
       <c r="E20" t="n">
         <v>0.01143747674549907</v>
@@ -2306,79 +2306,79 @@
         <v>-0.01435764220630569</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01439708812788352</v>
+        <v>0.01435716220628649</v>
       </c>
       <c r="H20" t="n">
         <v>0.01584765816990633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006913265172530606</v>
+        <v>0.006857044306281771</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0171368107872304</v>
+        <v>0.01628473001529754</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01113558025342321</v>
+        <v>-0.01122718883308755</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01113558025342321</v>
+        <v>-0.01122718883308755</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01113558025342321</v>
+        <v>-0.01122718883308755</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01113558025342321</v>
+        <v>-0.01122718883308755</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01113558025342321</v>
+        <v>-0.01122718883308755</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01399122987164919</v>
+        <v>-0.01400393364815734</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01402435217697409</v>
+        <v>-0.0140770174910807</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01402435217697409</v>
+        <v>-0.0140770174910807</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01402435217697409</v>
+        <v>-0.0140770174910807</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01402435217697409</v>
+        <v>-0.0140770174910807</v>
       </c>
       <c r="U20" t="n">
-        <v>0.003715886164635446</v>
+        <v>0.004616186680647467</v>
       </c>
       <c r="V20" t="n">
         <v>-0.008786878719475148</v>
       </c>
       <c r="W20" t="n">
-        <v>0.00626379778655191</v>
+        <v>0.006262752250510088</v>
       </c>
       <c r="X20" t="n">
-        <v>0.005669314018772561</v>
+        <v>0.01225794538631781</v>
       </c>
       <c r="Y20" t="n">
         <v>0.014574650118986</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.001526444221057769</v>
+        <v>0.004032275489291019</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.008313374156534966</v>
+        <v>0.003543830829753233</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.008313374156534966</v>
+        <v>0.003543830829753233</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.008313374156534966</v>
+        <v>0.003543830829753233</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.008313374156534966</v>
+        <v>0.003543830829753233</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.008313374156534966</v>
+        <v>0.003543830829753233</v>
       </c>
     </row>
     <row r="21">
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01012290894891636</v>
+        <v>-0.01015484066219362</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.007096920326507382</v>
+        <v>0.008707308651953051</v>
       </c>
       <c r="E21" t="n">
         <v>0.01635339934213597</v>
@@ -2401,79 +2401,79 @@
         <v>-0.01573642670945707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01407815029112601</v>
+        <v>0.01388488663539546</v>
       </c>
       <c r="H21" t="n">
         <v>0.01596776022271041</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02666007101840283</v>
+        <v>0.0265167149806686</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01591714221003385</v>
+        <v>-0.01752712092929135</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.004382890351315613</v>
+        <v>-0.004108333124333324</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.004382890351315613</v>
+        <v>-0.004108333124333324</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.004382890351315613</v>
+        <v>-0.004108333124333324</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.004382890351315613</v>
+        <v>-0.004108333124333324</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.004382890351315613</v>
+        <v>-0.004108333124333324</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01561179412847176</v>
+        <v>-0.01558172692726907</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.00452729451709178</v>
+        <v>-0.004121633348865333</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.00452729451709178</v>
+        <v>-0.004121633348865333</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.00452729451709178</v>
+        <v>-0.004121633348865333</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.00452729451709178</v>
+        <v>-0.004121633348865333</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.005374527862981114</v>
+        <v>-0.004173245830929833</v>
       </c>
       <c r="V21" t="n">
         <v>-0.001069568490782739</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003953571518142861</v>
+        <v>0.003955130558205222</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.01991072105242884</v>
+        <v>-0.009880566923222676</v>
       </c>
       <c r="Y21" t="n">
         <v>0.0103644024305761</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.01180958658438346</v>
+        <v>-0.004767207070688282</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02315653935826157</v>
+        <v>0.01722418561696742</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02315653935826157</v>
+        <v>0.01722418561696742</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.02315653935826157</v>
+        <v>0.01722418561696742</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02315653935826157</v>
+        <v>0.01722418561696742</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02315653935826157</v>
+        <v>0.01722418561696742</v>
       </c>
     </row>
     <row r="22">
@@ -2484,10 +2484,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03008974872358994</v>
+        <v>-0.03012999835719993</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.006688834685262137</v>
+        <v>-0.02803340712451298</v>
       </c>
       <c r="E22" t="n">
         <v>-0.003770082774803311</v>
@@ -2496,79 +2496,79 @@
         <v>0.002411524608460984</v>
       </c>
       <c r="G22" t="n">
-        <v>2.539660901586436e-05</v>
+        <v>-9.207427568297103e-05</v>
       </c>
       <c r="H22" t="n">
         <v>-0.002924413364976535</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0001058232042329281</v>
+        <v>-0.0001012679080507163</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.007628710627711671</v>
+        <v>-0.01026735679715844</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03361128076845122</v>
+        <v>-0.0335231351009254</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03361128076845122</v>
+        <v>-0.0335231351009254</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03361128076845122</v>
+        <v>-0.0335231351009254</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.03361128076845122</v>
+        <v>-0.0335231351009254</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03361128076845122</v>
+        <v>-0.0335231351009254</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0009792707911708315</v>
+        <v>0.000972398630895945</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03466837060273482</v>
+        <v>-0.03458167856726714</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03466837060273482</v>
+        <v>-0.03458167856726714</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.03466837060273482</v>
+        <v>-0.03458167856726714</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.03466837060273482</v>
+        <v>-0.03458167856726714</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00917290529491621</v>
+        <v>0.009478592251143688</v>
       </c>
       <c r="V22" t="n">
         <v>0.001886523819460952</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001628181857127274</v>
+        <v>0.00163023049720922</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.01653790798951632</v>
+        <v>-0.01640831633633265</v>
       </c>
       <c r="Y22" t="n">
         <v>-0.002329811037192441</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.01393697335747893</v>
+        <v>-0.01609040896361636</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02014093568563742</v>
+        <v>0.0190370726334829</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02014093568563742</v>
+        <v>0.0190370726334829</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.02014093568563742</v>
+        <v>0.0190370726334829</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.02014093568563742</v>
+        <v>0.0190370726334829</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.02014093568563742</v>
+        <v>0.0190370726334829</v>
       </c>
     </row>
     <row r="23">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01217308167092327</v>
+        <v>-0.01213860538154421</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0005731265125564069</v>
+        <v>0.009721522486319131</v>
       </c>
       <c r="E23" t="n">
         <v>-0.00802029228881169</v>
@@ -2591,79 +2591,79 @@
         <v>0.00916873428674937</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009682522851300914</v>
+        <v>-0.009611363040454519</v>
       </c>
       <c r="H23" t="n">
         <v>-0.01048538873941555</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003318742692749707</v>
+        <v>0.003416485576659422</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.00464825937149219</v>
+        <v>-0.0006579503784759232</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005423250168930006</v>
+        <v>0.005221393360855734</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005423250168930006</v>
+        <v>0.005221393360855734</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005423250168930006</v>
+        <v>0.005221393360855734</v>
       </c>
       <c r="N23" t="n">
-        <v>0.005423250168930006</v>
+        <v>0.005221393360855734</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005423250168930006</v>
+        <v>0.005221393360855734</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008964068422562737</v>
+        <v>0.008950071046002843</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005944524429780976</v>
+        <v>0.005829732905189317</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005944524429780976</v>
+        <v>0.005829732905189317</v>
       </c>
       <c r="S23" t="n">
-        <v>0.005944524429780976</v>
+        <v>0.005829732905189317</v>
       </c>
       <c r="T23" t="n">
-        <v>0.005944524429780976</v>
+        <v>0.005829732905189317</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.007058065434322617</v>
+        <v>-0.005902265324090611</v>
       </c>
       <c r="V23" t="n">
         <v>0.008103711492148457</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.00221887650475506</v>
+        <v>-0.00222040127281605</v>
       </c>
       <c r="X23" t="n">
-        <v>0.001100442476017699</v>
+        <v>0.007883970075358801</v>
       </c>
       <c r="Y23" t="n">
         <v>-0.007362674502506979</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.01782086624883465</v>
+        <v>-0.0116584276663371</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.004130088645203546</v>
+        <v>-0.01101926559277062</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.004130088645203546</v>
+        <v>-0.01101926559277062</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.004130088645203546</v>
+        <v>-0.01101926559277062</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.004130088645203546</v>
+        <v>-0.01101926559277062</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.004130088645203546</v>
+        <v>-0.01101926559277062</v>
       </c>
     </row>
     <row r="24">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.0197578424863137</v>
+        <v>-0.0197433575257343</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.002679691259643273</v>
+        <v>0.002289679646469643</v>
       </c>
       <c r="E24" t="n">
         <v>0.00545126777005071</v>
@@ -2690,79 +2690,79 @@
         <v>-0.007429432425177296</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008297984587919383</v>
+        <v>0.008292223339688933</v>
       </c>
       <c r="H24" t="n">
         <v>0.007708004468320179</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.003124027228961089</v>
+        <v>-0.00325378726615149</v>
       </c>
       <c r="J24" t="n">
-        <v>0.00402374257830168</v>
+        <v>0.0077340109672166</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01220726688829067</v>
+        <v>0.01218270240730809</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01220726688829067</v>
+        <v>0.01218270240730809</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01220726688829067</v>
+        <v>0.01218270240730809</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01220726688829067</v>
+        <v>0.01218270240730809</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01220726688829067</v>
+        <v>0.01218270240730809</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.006581154215246168</v>
+        <v>-0.006567158758686349</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01011881954075278</v>
+        <v>0.01012719150908766</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01011881954075278</v>
+        <v>0.01012719150908766</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01011881954075278</v>
+        <v>0.01012719150908766</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01011881954075278</v>
+        <v>0.01012719150908766</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01421699336867973</v>
+        <v>0.0140415675696627</v>
       </c>
       <c r="V24" t="n">
         <v>-0.01253947672557907</v>
       </c>
       <c r="W24" t="n">
-        <v>0.006857633650305345</v>
+        <v>0.006859593298383731</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.008558945718357826</v>
+        <v>-0.006048535729941428</v>
       </c>
       <c r="Y24" t="n">
         <v>0.01078384900735396</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.01029931980397279</v>
+        <v>-0.006276585563063422</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01163954292958172</v>
+        <v>0.01009844123593765</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01163954292958172</v>
+        <v>0.01009844123593765</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01163954292958172</v>
+        <v>0.01009844123593765</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01163954292958172</v>
+        <v>0.01009844123593765</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01163954292958172</v>
+        <v>0.01009844123593765</v>
       </c>
     </row>
     <row r="25">
@@ -2773,10 +2773,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.005752825574113022</v>
+        <v>-0.00576716202268648</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01027155835410732</v>
+        <v>-0.01545159038040122</v>
       </c>
       <c r="E25" t="n">
         <v>0.01686670886666835</v>
@@ -2785,79 +2785,79 @@
         <v>-0.02210722130028885</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02521387934455517</v>
+        <v>0.02513861946954478</v>
       </c>
       <c r="H25" t="n">
         <v>0.02447870469114818</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02398887148755486</v>
+        <v>0.0239895648955826</v>
       </c>
       <c r="J25" t="n">
-        <v>0.009410766763592687</v>
+        <v>0.005346737927152735</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.006226659609066384</v>
+        <v>-0.006207366008294639</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.006226659609066384</v>
+        <v>-0.006207366008294639</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.006226659609066384</v>
+        <v>-0.006207366008294639</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.006226659609066384</v>
+        <v>-0.006207366008294639</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.006226659609066384</v>
+        <v>-0.006207366008294639</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02170010419600417</v>
+        <v>-0.02169849225993969</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.01207992528319701</v>
+        <v>-0.012008375136335</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.01207992528319701</v>
+        <v>-0.012008375136335</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.01207992528319701</v>
+        <v>-0.012008375136335</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.01207992528319701</v>
+        <v>-0.012008375136335</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.01104600456984018</v>
+        <v>-0.01055071904602876</v>
       </c>
       <c r="V25" t="n">
         <v>-0.01986577385063095</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01788427713137108</v>
+        <v>0.01788407409136296</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01539021402360856</v>
+        <v>-0.01046175430647017</v>
       </c>
       <c r="Y25" t="n">
         <v>0.01503481279339251</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.01265916770636671</v>
+        <v>-0.008784800319392012</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02679402529576101</v>
+        <v>0.02422224106488964</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02679402529576101</v>
+        <v>0.02422224106488964</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02679402529576101</v>
+        <v>0.02422224106488964</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02679402529576101</v>
+        <v>0.02422224106488964</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.02679402529576101</v>
+        <v>0.02422224106488964</v>
       </c>
     </row>
     <row r="26">
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02919772446390898</v>
+        <v>0.02920584241623369</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03293608346528963</v>
+        <v>-0.03320134643947553</v>
       </c>
       <c r="E26" t="n">
         <v>0.01870228145209126</v>
@@ -2884,79 +2884,79 @@
         <v>-0.018761150094446</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01830001129200045</v>
+        <v>0.01833884310155372</v>
       </c>
       <c r="H26" t="n">
         <v>0.02160733478429339</v>
       </c>
       <c r="I26" t="n">
-        <v>0.008615819672632787</v>
+        <v>0.00858746031149841</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0009833591916647761</v>
+        <v>-0.003726290645945936</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.01913315894132635</v>
+        <v>-0.01913007023720281</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.01913315894132635</v>
+        <v>-0.01913007023720281</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.01913315894132635</v>
+        <v>-0.01913007023720281</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.01913315894132635</v>
+        <v>-0.01913007023720281</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.01913315894132635</v>
+        <v>-0.01913007023720281</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01902843407313736</v>
+        <v>-0.01901547676061907</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02083307056132282</v>
+        <v>-0.02078645689545827</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02083307056132282</v>
+        <v>-0.02078645689545827</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02083307056132282</v>
+        <v>-0.02078645689545827</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02083307056132282</v>
+        <v>-0.02078645689545827</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.006549132837965313</v>
+        <v>-0.007616102800644111</v>
       </c>
       <c r="V26" t="n">
         <v>0.005333011605320463</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01732897307715892</v>
+        <v>-0.01732587880503515</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.01663179311327172</v>
+        <v>-0.0210636225385449</v>
       </c>
       <c r="Y26" t="n">
         <v>0.01781725184869007</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.01495587602223504</v>
+        <v>-0.01539563648782546</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02453764629350584</v>
+        <v>0.02697924117516964</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02453764629350584</v>
+        <v>0.02697924117516964</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02453764629350584</v>
+        <v>0.02697924117516964</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.02453764629350584</v>
+        <v>0.02697924117516964</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.02453764629350584</v>
+        <v>0.02697924117516964</v>
       </c>
     </row>
     <row r="27">
@@ -2967,10 +2967,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.002025954417038177</v>
+        <v>-0.002021865392874616</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01239200902626618</v>
+        <v>0.01036598879914786</v>
       </c>
       <c r="E27" t="n">
         <v>-0.01295046944601877</v>
@@ -2979,79 +2979,79 @@
         <v>0.01349930146797206</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01294772576590903</v>
+        <v>-0.01289863971594559</v>
       </c>
       <c r="H27" t="n">
         <v>-0.01450509610020384</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.005006923400276935</v>
+        <v>-0.005071028554841142</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01096392481024087</v>
+        <v>-0.01162203627567074</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01849347385973895</v>
+        <v>0.01849337344373493</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01849347385973895</v>
+        <v>0.01849337344373493</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01849347385973895</v>
+        <v>0.01849337344373493</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01849347385973895</v>
+        <v>0.01849337344373493</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01849347385973895</v>
+        <v>0.01849337344373493</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01370256899610276</v>
+        <v>0.0136804600992184</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01860890877635635</v>
+        <v>0.01859869946394797</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01860890877635635</v>
+        <v>0.01859869946394797</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01860890877635635</v>
+        <v>0.01859869946394797</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01860890877635635</v>
+        <v>0.01859869946394797</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0006835421073416841</v>
+        <v>0.0009498069499922779</v>
       </c>
       <c r="V27" t="n">
         <v>0.000910893924435757</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01198194623927785</v>
+        <v>0.01198299215931969</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.01077358622294345</v>
+        <v>-0.01087828651513146</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.01035245849409834</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.00466663852266554</v>
+        <v>-0.004965267558610701</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.004076972995078919</v>
+        <v>-0.00444322203372888</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.004076972995078919</v>
+        <v>-0.00444322203372888</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.004076972995078919</v>
+        <v>-0.00444322203372888</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.004076972995078919</v>
+        <v>-0.00444322203372888</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.004076972995078919</v>
+        <v>-0.00444322203372888</v>
       </c>
     </row>
     <row r="28">
@@ -3066,10 +3066,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.0329432275897291</v>
+        <v>-0.03295329175013167</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01538424400415938</v>
+        <v>0.03352735633147539</v>
       </c>
       <c r="E28" t="n">
         <v>-0.07310553489222139</v>
@@ -3078,79 +3078,79 @@
         <v>0.02795559980622399</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0005684607587384304</v>
+        <v>-0.0006058515122340604</v>
       </c>
       <c r="H28" t="n">
         <v>-0.02523759172950367</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02689352901174116</v>
+        <v>0.02686753067470122</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005286859077250747</v>
+        <v>0.008417060066702496</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07276661110266444</v>
+        <v>0.07284432291377291</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07276661110266444</v>
+        <v>0.07284432291377291</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07276661110266444</v>
+        <v>0.07284432291377291</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07276661110266444</v>
+        <v>0.07284432291377291</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07276661110266444</v>
+        <v>0.07284432291377291</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03232344954893798</v>
+        <v>0.03233217172528687</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.04013596461343858</v>
+        <v>0.04027543956301758</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04013596461343858</v>
+        <v>0.04027543956301758</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04013596461343858</v>
+        <v>0.04027543956301758</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04013596461343858</v>
+        <v>0.04027543956301758</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.04212103358884134</v>
+        <v>-0.04202485896099435</v>
       </c>
       <c r="V28" t="n">
         <v>-0.2582039162481566</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915875604635022</v>
+        <v>0.9915877006235079</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05943174285726971</v>
+        <v>0.06073620578944823</v>
       </c>
       <c r="Y28" t="n">
         <v>-0.03886075086643003</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05891563080462522</v>
+        <v>0.05806934901077395</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.02751529914861196</v>
+        <v>0.02726606681864267</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02751529914861196</v>
+        <v>0.02726606681864267</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02751529914861196</v>
+        <v>0.02726606681864267</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02751529914861196</v>
+        <v>0.02726606681864267</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02751529914861196</v>
+        <v>0.02726606681864267</v>
       </c>
     </row>
     <row r="29">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01631645287665811</v>
+        <v>-0.01629381069975242</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02382601537081698</v>
+        <v>0.01526008324510068</v>
       </c>
       <c r="E29" t="n">
         <v>-0.01579043487161739</v>
@@ -3177,79 +3177,79 @@
         <v>0.01743201228128049</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0187328326853133</v>
+        <v>-0.01867959569118383</v>
       </c>
       <c r="H29" t="n">
         <v>-0.01669819343592773</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02173889232555569</v>
+        <v>-0.02175983299839332</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0148070608052576</v>
+        <v>0.01478611638699332</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.003829381689175267</v>
+        <v>-0.003933516637340665</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.003829381689175267</v>
+        <v>-0.003933516637340665</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.003829381689175267</v>
+        <v>-0.003933516637340665</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.003829381689175267</v>
+        <v>-0.003933516637340665</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.003829381689175267</v>
+        <v>-0.003933516637340665</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01709539172381567</v>
+        <v>0.01710204970808199</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.001606776640271065</v>
+        <v>-0.001681839715273588</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.001606776640271065</v>
+        <v>-0.001681839715273588</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.001606776640271065</v>
+        <v>-0.001681839715273588</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.001606776640271065</v>
+        <v>-0.001681839715273588</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02056447090257884</v>
+        <v>-0.02091781024471241</v>
       </c>
       <c r="V29" t="n">
         <v>0.001894137291765491</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02120265809610632</v>
+        <v>0.02120187377607495</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01333848398953936</v>
+        <v>0.01484272811370912</v>
       </c>
       <c r="Y29" t="n">
         <v>0.001305189076207563</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.004634531993381279</v>
+        <v>0.006409647136385884</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01932930970117239</v>
+        <v>-0.01725327966613118</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01932930970117239</v>
+        <v>-0.01725327966613118</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01932930970117239</v>
+        <v>-0.01725327966613118</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01932930970117239</v>
+        <v>-0.01725327966613118</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.01932930970117239</v>
+        <v>-0.01725327966613118</v>
       </c>
     </row>
     <row r="30">
@@ -3264,10 +3264,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.00527955601918224</v>
+        <v>-0.005282256115290244</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01083571843051021</v>
+        <v>-0.01928428821387783</v>
       </c>
       <c r="E30" t="n">
         <v>-0.0006444854657794185</v>
@@ -3276,79 +3276,79 @@
         <v>0.01444326403373056</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01809812280392491</v>
+        <v>-0.01818882562355302</v>
       </c>
       <c r="H30" t="n">
         <v>-0.01741705836068233</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.007655482098219282</v>
+        <v>-0.007618864048754561</v>
       </c>
       <c r="J30" t="n">
-        <v>0.002509810325235709</v>
+        <v>-0.0007384077897135294</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01605878771435151</v>
+        <v>0.01607724189108967</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01605878771435151</v>
+        <v>0.01607724189108967</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01605878771435151</v>
+        <v>0.01607724189108967</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01605878771435151</v>
+        <v>0.01607724189108967</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01605878771435151</v>
+        <v>0.01607724189108967</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01303535581741423</v>
+        <v>0.01306563556262542</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02752155642886225</v>
+        <v>0.02756537380661495</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02752155642886225</v>
+        <v>0.02756537380661495</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02752155642886225</v>
+        <v>0.02756537380661495</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02752155642886225</v>
+        <v>0.02756537380661495</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01510122550004902</v>
+        <v>0.01606820982672839</v>
       </c>
       <c r="V30" t="n">
         <v>0.0587889477595579</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1101223846928954</v>
+        <v>0.1101212650448506</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.02120478420819136</v>
+        <v>-0.01725430312217212</v>
       </c>
       <c r="Y30" t="n">
         <v>-0.02759040955161638</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.006768186702727467</v>
+        <v>-0.003170101854804074</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.003603134160125366</v>
+        <v>-0.009105313228212529</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.003603134160125366</v>
+        <v>-0.009105313228212529</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.003603134160125366</v>
+        <v>-0.009105313228212529</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.003603134160125366</v>
+        <v>-0.009105313228212529</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.003603134160125366</v>
+        <v>-0.009105313228212529</v>
       </c>
     </row>
     <row r="31">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004021729216869168</v>
+        <v>-0.004088161411526456</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.01011353770137278</v>
+        <v>-0.004314762125697787</v>
       </c>
       <c r="E31" t="n">
         <v>-0.004145227461809097</v>
@@ -3375,79 +3375,79 @@
         <v>0.002408716320348653</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0006027285361091413</v>
+        <v>0.0004420095536803821</v>
       </c>
       <c r="H31" t="n">
         <v>-0.003690063891602556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01975763416630536</v>
+        <v>0.01978014674320587</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01078844265916262</v>
+        <v>-0.01379477652310181</v>
       </c>
       <c r="K31" t="n">
-        <v>0.009151257294050291</v>
+        <v>0.009324514164980565</v>
       </c>
       <c r="L31" t="n">
-        <v>0.009151257294050291</v>
+        <v>0.009324514164980565</v>
       </c>
       <c r="M31" t="n">
-        <v>0.009151257294050291</v>
+        <v>0.009324514164980565</v>
       </c>
       <c r="N31" t="n">
-        <v>0.009151257294050291</v>
+        <v>0.009324514164980565</v>
       </c>
       <c r="O31" t="n">
-        <v>0.009151257294050291</v>
+        <v>0.009324514164980565</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002670609226824369</v>
+        <v>0.002704299660171986</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.005971506574860262</v>
+        <v>0.006155893878235754</v>
       </c>
       <c r="R31" t="n">
-        <v>0.005971506574860262</v>
+        <v>0.006155893878235754</v>
       </c>
       <c r="S31" t="n">
-        <v>0.005971506574860262</v>
+        <v>0.006155893878235754</v>
       </c>
       <c r="T31" t="n">
-        <v>0.005971506574860262</v>
+        <v>0.006155893878235754</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.002922716180908647</v>
+        <v>-0.001950423150016926</v>
       </c>
       <c r="V31" t="n">
         <v>-0.005945448237817929</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01071737524469501</v>
+        <v>0.01071790343671614</v>
       </c>
       <c r="X31" t="n">
-        <v>0.003925315933012636</v>
+        <v>0.008765555678622226</v>
       </c>
       <c r="Y31" t="n">
         <v>-0.008818403392736134</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01571711582868463</v>
+        <v>0.01546349697053988</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.002384411327376453</v>
+        <v>-0.003942368701694747</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.002384411327376453</v>
+        <v>-0.003942368701694747</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.002384411327376453</v>
+        <v>-0.003942368701694747</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.002384411327376453</v>
+        <v>-0.003942368701694747</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.002384411327376453</v>
+        <v>-0.003942368701694747</v>
       </c>
     </row>
     <row r="32">
@@ -3462,10 +3462,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4481359736374389</v>
+        <v>0.4481591177023647</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01136347848734892</v>
+        <v>0.01974947986413318</v>
       </c>
       <c r="E32" t="n">
         <v>0.9775172146846886</v>
@@ -3474,79 +3474,79 @@
         <v>-0.9999573468142937</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9906836372913453</v>
+        <v>0.9906959459318377</v>
       </c>
       <c r="H32" t="n">
         <v>0.9869956307758251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4328004160640166</v>
+        <v>0.4327624522864981</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06532754389905181</v>
+        <v>0.06435147302150326</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.492156328134253</v>
+        <v>-0.4922410697376427</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.492156328134253</v>
+        <v>-0.4922410697376427</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.492156328134253</v>
+        <v>-0.4922410697376427</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.492156328134253</v>
+        <v>-0.4922410697376427</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.492156328134253</v>
+        <v>-0.4922410697376427</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9991269221090767</v>
+        <v>-0.9991270964450838</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.5661943183597726</v>
+        <v>-0.5662977807319112</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.5661943183597726</v>
+        <v>-0.5662977807319112</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.5661943183597726</v>
+        <v>-0.5662977807319112</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.5661943183597726</v>
+        <v>-0.5662977807319112</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1241711320068453</v>
+        <v>-0.1237795468391819</v>
       </c>
       <c r="V32" t="n">
         <v>-0.005861654826466192</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.02247092845083714</v>
+        <v>-0.02247110969884438</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.5920986247399449</v>
+        <v>-0.5938101099284043</v>
       </c>
       <c r="Y32" t="n">
         <v>0.02857771160710846</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.5712066637442665</v>
+        <v>-0.5759351319334052</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7441460848378434</v>
+        <v>0.745735374885415</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7441460848378434</v>
+        <v>0.745735374885415</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.7441460848378434</v>
+        <v>0.745735374885415</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.7441460848378434</v>
+        <v>0.745735374885415</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.7441460848378434</v>
+        <v>0.745735374885415</v>
       </c>
     </row>
     <row r="33">
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.007136484861459393</v>
+        <v>-0.007146797853871913</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02111131655546207</v>
+        <v>-0.01057248945324983</v>
       </c>
       <c r="E33" t="n">
         <v>-0.01410533173221327</v>
@@ -3573,79 +3573,79 @@
         <v>0.009489504955580196</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006709039852361594</v>
+        <v>-0.006682936011317439</v>
       </c>
       <c r="H33" t="n">
         <v>-0.006144108149764326</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01063592884143715</v>
+        <v>0.01062621594504864</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02178075491054853</v>
+        <v>-0.02502851054314726</v>
       </c>
       <c r="K33" t="n">
-        <v>0.008465578706623147</v>
+        <v>0.008402380368095213</v>
       </c>
       <c r="L33" t="n">
-        <v>0.008465578706623147</v>
+        <v>0.008402380368095213</v>
       </c>
       <c r="M33" t="n">
-        <v>0.008465578706623147</v>
+        <v>0.008402380368095213</v>
       </c>
       <c r="N33" t="n">
-        <v>0.008465578706623147</v>
+        <v>0.008402380368095213</v>
       </c>
       <c r="O33" t="n">
-        <v>0.008465578706623147</v>
+        <v>0.008402380368095213</v>
       </c>
       <c r="P33" t="n">
-        <v>0.009794861863794474</v>
+        <v>0.009787518439500736</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005647403361896133</v>
+        <v>0.005624537984981519</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005647403361896133</v>
+        <v>0.005624537984981519</v>
       </c>
       <c r="S33" t="n">
-        <v>0.005647403361896133</v>
+        <v>0.005624537984981519</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005647403361896133</v>
+        <v>0.005624537984981519</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.0008017073600682943</v>
+        <v>-0.001812800712512028</v>
       </c>
       <c r="V33" t="n">
         <v>-0.027352375142095</v>
       </c>
       <c r="W33" t="n">
-        <v>0.009696022083840882</v>
+        <v>0.009693718659748746</v>
       </c>
       <c r="X33" t="n">
-        <v>0.00879183203167328</v>
+        <v>0.002622538952901558</v>
       </c>
       <c r="Y33" t="n">
         <v>0.02070782530831301</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.009660871586434864</v>
+        <v>0.003824163608966544</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.001018046536721861</v>
+        <v>0.003226042593041703</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.001018046536721861</v>
+        <v>0.003226042593041703</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.001018046536721861</v>
+        <v>0.003226042593041703</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.001018046536721861</v>
+        <v>0.003226042593041703</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.001018046536721861</v>
+        <v>0.003226042593041703</v>
       </c>
     </row>
     <row r="34">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0005344434453777377</v>
+        <v>-0.0005212584208503368</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004530915541276815</v>
+        <v>-0.01426105489582933</v>
       </c>
       <c r="E34" t="n">
         <v>0.00220429026417161</v>
@@ -3672,79 +3672,79 @@
         <v>-0.003596190671847626</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002269901658796066</v>
+        <v>0.002308274300330972</v>
       </c>
       <c r="H34" t="n">
         <v>0.00287552699502108</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01860427063217082</v>
+        <v>0.01859687210387488</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02213655761290019</v>
+        <v>0.02066338172749448</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03340589250423569</v>
+        <v>0.03332225288489011</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03340589250423569</v>
+        <v>0.03332225288489011</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03340589250423569</v>
+        <v>0.03332225288489011</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03340589250423569</v>
+        <v>0.03332225288489011</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03340589250423569</v>
+        <v>0.03332225288489011</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001942462349698494</v>
+        <v>-0.001935956813438272</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03232792161311687</v>
+        <v>0.03222923216916928</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03232792161311687</v>
+        <v>0.03222923216916928</v>
       </c>
       <c r="S34" t="n">
-        <v>0.03232792161311687</v>
+        <v>0.03222923216916928</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03232792161311687</v>
+        <v>0.03222923216916928</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01324563844982554</v>
+        <v>-0.0134990051159602</v>
       </c>
       <c r="V34" t="n">
         <v>-0.00665778977031159</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01312824782112991</v>
+        <v>-0.01313092794923711</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.004624038232961529</v>
+        <v>-0.004968318342732734</v>
       </c>
       <c r="Y34" t="n">
         <v>0.0004177651367106054</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.008084604227384169</v>
+        <v>0.009129910925196437</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0236230075049203</v>
+        <v>0.0247583649903346</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0236230075049203</v>
+        <v>0.0247583649903346</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0236230075049203</v>
+        <v>0.0247583649903346</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0236230075049203</v>
+        <v>0.0247583649903346</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0236230075049203</v>
+        <v>0.0247583649903346</v>
       </c>
     </row>
     <row r="35">
@@ -3759,10 +3759,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03783795415351816</v>
+        <v>-0.03776900349476013</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.007122572944598662</v>
+        <v>-0.0008982157990080747</v>
       </c>
       <c r="E35" t="n">
         <v>-0.03233770564550822</v>
@@ -3771,79 +3771,79 @@
         <v>0.02715546444621858</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02417590877503635</v>
+        <v>-0.02396277734251109</v>
       </c>
       <c r="H35" t="n">
         <v>-0.02476387635055505</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01664051740162069</v>
+        <v>-0.01657316773492671</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02027656790587564</v>
+        <v>0.02329229349728189</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7698346114333843</v>
+        <v>0.7695033596761343</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7698346114333843</v>
+        <v>0.7695033596761343</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7698346114333843</v>
+        <v>0.7695033596761343</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7698346114333843</v>
+        <v>0.7695033596761343</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7698346114333843</v>
+        <v>0.7695033596761343</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05230488545219542</v>
+        <v>0.05224695732187828</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7723875800475031</v>
+        <v>0.7720309258252369</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7723875800475031</v>
+        <v>0.7720309258252369</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7723875800475031</v>
+        <v>0.7720309258252369</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7723875800475031</v>
+        <v>0.7720309258252369</v>
       </c>
       <c r="U35" t="n">
-        <v>0.004751079358043173</v>
+        <v>0.00403432076937283</v>
       </c>
       <c r="V35" t="n">
         <v>-0.02097465031098601</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006572054662882185</v>
+        <v>-0.0006560957062438282</v>
       </c>
       <c r="X35" t="n">
-        <v>0.03044973856198954</v>
+        <v>0.02726783187471327</v>
       </c>
       <c r="Y35" t="n">
         <v>0.01237743063909722</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01603189091327563</v>
+        <v>0.01550550052422002</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.1990154894326196</v>
+        <v>-0.1990172966326919</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.1990154894326196</v>
+        <v>-0.1990172966326919</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.1990154894326196</v>
+        <v>-0.1990172966326919</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1990154894326196</v>
+        <v>-0.1990172966326919</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1990154894326196</v>
+        <v>-0.1990172966326919</v>
       </c>
     </row>
     <row r="36">
@@ -3858,10 +3858,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.003370851974834078</v>
+        <v>-0.003367834982713399</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.009057641486250217</v>
+        <v>-0.01734057197744023</v>
       </c>
       <c r="E36" t="n">
         <v>0.0135509276780371</v>
@@ -3870,79 +3870,79 @@
         <v>-0.01396994983879799</v>
       </c>
       <c r="G36" t="n">
-        <v>0.011975299967012</v>
+        <v>0.0119323700132948</v>
       </c>
       <c r="H36" t="n">
         <v>0.0153446123897845</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0101025349641014</v>
+        <v>0.01006692933067717</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003765316903877822</v>
+        <v>-0.001530683965594723</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002919916340796654</v>
+        <v>-0.002940194421607776</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.002919916340796654</v>
+        <v>-0.002940194421607776</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.002919916340796654</v>
+        <v>-0.002940194421607776</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.002919916340796654</v>
+        <v>-0.002940194421607776</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.002919916340796654</v>
+        <v>-0.002940194421607776</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01364012838560513</v>
+        <v>-0.01364363680174547</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.001840691209627648</v>
+        <v>-0.001886352267454091</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001840691209627648</v>
+        <v>-0.001886352267454091</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.001840691209627648</v>
+        <v>-0.001886352267454091</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.001840691209627648</v>
+        <v>-0.001886352267454091</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02552703970908159</v>
+        <v>0.02588458903538356</v>
       </c>
       <c r="V36" t="n">
         <v>0.003193437055737481</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01623732900149316</v>
+        <v>0.01623506215340249</v>
       </c>
       <c r="X36" t="n">
-        <v>0.006787543183501726</v>
+        <v>0.004963471878538875</v>
       </c>
       <c r="Y36" t="n">
         <v>0.01057698138307926</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.0002363343454533738</v>
+        <v>-0.001408325528333021</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.001188995471559819</v>
+        <v>-0.001465841338633654</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.001188995471559819</v>
+        <v>-0.001465841338633654</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.001188995471559819</v>
+        <v>-0.001465841338633654</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.001188995471559819</v>
+        <v>-0.001465841338633654</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.001188995471559819</v>
+        <v>-0.001465841338633654</v>
       </c>
     </row>
     <row r="37">
@@ -3957,10 +3957,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.002468153666726146</v>
+        <v>-0.002526659237066369</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.01849655195582338</v>
+        <v>-0.03572597770581333</v>
       </c>
       <c r="E37" t="n">
         <v>0.003466995690679827</v>
@@ -3969,79 +3969,79 @@
         <v>-0.003340448389617935</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003657331922293276</v>
+        <v>0.003479110699164427</v>
       </c>
       <c r="H37" t="n">
         <v>0.001163787598551504</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008439978961599157</v>
+        <v>0.008322514316900571</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.008204083098919894</v>
+        <v>-0.007533507231148331</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0912124953604998</v>
+        <v>0.09144392180175685</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0912124953604998</v>
+        <v>0.09144392180175685</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0912124953604998</v>
+        <v>0.09144392180175685</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0912124953604998</v>
+        <v>0.09144392180175685</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0912124953604998</v>
+        <v>0.09144392180175685</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.0007459169578366783</v>
+        <v>-0.0007216996128679844</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.09306873473074938</v>
+        <v>0.09344462965778519</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09306873473074938</v>
+        <v>0.09344462965778519</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09306873473074938</v>
+        <v>0.09344462965778519</v>
       </c>
       <c r="T37" t="n">
-        <v>0.09306873473074938</v>
+        <v>0.09344462965778519</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.00506757927470317</v>
+        <v>-0.004973890086955602</v>
       </c>
       <c r="V37" t="n">
         <v>0.005651380930055236</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001549547965981918</v>
+        <v>-0.001547707549908302</v>
       </c>
       <c r="X37" t="n">
-        <v>0.004524600756984029</v>
+        <v>0.005711120100444804</v>
       </c>
       <c r="Y37" t="n">
         <v>-0.01636277518251101</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.001376279191051168</v>
+        <v>0.001503138588125543</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.07670306956412277</v>
+        <v>0.07696806480672259</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.07670306956412277</v>
+        <v>0.07696806480672259</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.07670306956412277</v>
+        <v>0.07696806480672259</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.07670306956412277</v>
+        <v>0.07696806480672259</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.07670306956412277</v>
+        <v>0.07696806480672259</v>
       </c>
     </row>
     <row r="38">
@@ -4056,10 +4056,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0009386339895453595</v>
+        <v>0.0009330816373232653</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002506160913642654</v>
+        <v>0.0006148637444399865</v>
       </c>
       <c r="E38" t="n">
         <v>-0.01580059042402361</v>
@@ -4068,79 +4068,79 @@
         <v>0.01466224061848962</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01340493125619725</v>
+        <v>-0.01348712569148503</v>
       </c>
       <c r="H38" t="n">
         <v>-0.01529779539591181</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02557195436687817</v>
+        <v>-0.02556827593473103</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.007363994937034099</v>
+        <v>-0.008466435364689358</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01900188172007527</v>
+        <v>0.01900852424834097</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01900188172007527</v>
+        <v>0.01900852424834097</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01900188172007527</v>
+        <v>0.01900852424834097</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01900188172007527</v>
+        <v>0.01900852424834097</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01900188172007527</v>
+        <v>0.01900852424834097</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01493374235734969</v>
+        <v>0.01492615854904634</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01925309846612394</v>
+        <v>0.01931986541279461</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01925309846612394</v>
+        <v>0.01931986541279461</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01925309846612394</v>
+        <v>0.01931986541279461</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01925309846612394</v>
+        <v>0.01931986541279461</v>
       </c>
       <c r="U38" t="n">
-        <v>0.008851641954065678</v>
+        <v>0.008825454113018162</v>
       </c>
       <c r="V38" t="n">
         <v>-0.004906690468267618</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001503448284137931</v>
+        <v>0.001507612668304507</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01908037401121496</v>
+        <v>0.01847900070716003</v>
       </c>
       <c r="Y38" t="n">
         <v>-0.008279627179185086</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0125197401807896</v>
+        <v>0.01056948397477936</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.01959914190396567</v>
+        <v>-0.01910308175612327</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01959914190396567</v>
+        <v>-0.01910308175612327</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.01959914190396567</v>
+        <v>-0.01910308175612327</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.01959914190396567</v>
+        <v>-0.01910308175612327</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.01959914190396567</v>
+        <v>-0.01910308175612327</v>
       </c>
     </row>
     <row r="39">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01436507318260292</v>
+        <v>0.01430053842802153</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.02168263115146386</v>
+        <v>-0.004953831526939256</v>
       </c>
       <c r="E39" t="n">
         <v>0.003517886540715461</v>
@@ -4167,79 +4167,79 @@
         <v>-0.001200535152021406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0006063397682535906</v>
+        <v>-0.0007386699175467965</v>
       </c>
       <c r="H39" t="n">
         <v>-0.00346554925862197</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01403307310532292</v>
+        <v>-0.01404455326578213</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.001699571252553906</v>
+        <v>-0.00134330640605465</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04638799231951969</v>
+        <v>0.04645169139406764</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04638799231951969</v>
+        <v>0.04645169139406764</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04638799231951969</v>
+        <v>0.04645169139406764</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04638799231951969</v>
+        <v>0.04645169139406764</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04638799231951969</v>
+        <v>0.04645169139406764</v>
       </c>
       <c r="P39" t="n">
-        <v>-6.698342667933706e-05</v>
+        <v>-4.583241783329671e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04929666369986654</v>
+        <v>0.0495006903000276</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04929666369986654</v>
+        <v>0.0495006903000276</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04929666369986654</v>
+        <v>0.0495006903000276</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04929666369986654</v>
+        <v>0.0495006903000276</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431525071661003</v>
+        <v>0.01464164333766573</v>
       </c>
       <c r="V39" t="n">
         <v>0.01925972957038918</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006669502922780115</v>
+        <v>0.006666714410668576</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.01789422407576896</v>
+        <v>-0.0113861373834455</v>
       </c>
       <c r="Y39" t="n">
         <v>-0.02660734666429386</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.01504424719376989</v>
+        <v>-0.01198399967935999</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.006371701598868063</v>
+        <v>0.002509854340394173</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.006371701598868063</v>
+        <v>0.002509854340394173</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.006371701598868063</v>
+        <v>0.002509854340394173</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.006371701598868063</v>
+        <v>0.002509854340394173</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.006371701598868063</v>
+        <v>0.002509854340394173</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -734,91 +734,91 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.0882356406494256</v>
+        <v>-0.08661503184860127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009583924071904936</v>
+        <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="n">
         <v>-0.1177646069825843</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02338696826347873</v>
+        <v>-0.02338571440742857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08410902125236083</v>
+        <v>0.08268451674738064</v>
       </c>
       <c r="H4" t="n">
         <v>0.1765836888553475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05159577988783119</v>
+        <v>0.03438451548738061</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09465269353682439</v>
+        <v>0.269267024639339</v>
       </c>
       <c r="K4" t="n">
-        <v>0.322220375256815</v>
+        <v>0.3202180861847234</v>
       </c>
       <c r="L4" t="n">
-        <v>0.322220375256815</v>
+        <v>0.3202180861847234</v>
       </c>
       <c r="M4" t="n">
-        <v>0.322220375256815</v>
+        <v>0.3202180861847234</v>
       </c>
       <c r="N4" t="n">
-        <v>0.322220375256815</v>
+        <v>0.3202180861847234</v>
       </c>
       <c r="O4" t="n">
-        <v>0.322220375256815</v>
+        <v>0.3202180861847234</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001901954668078186</v>
+        <v>0.002188002423520097</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2161345862453834</v>
+        <v>0.2143755369910214</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2161345862453834</v>
+        <v>0.2143755369910214</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2161345862453834</v>
+        <v>0.2143755369910214</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2161345862453834</v>
+        <v>0.2143755369910214</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.096916950468678</v>
+        <v>-0.09835488556619541</v>
       </c>
       <c r="V4" t="n">
         <v>-0.7014339902653596</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01957974884718995</v>
+        <v>0.01956828193473128</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2799007857240314</v>
+        <v>0.2427534742221389</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9980585371063413</v>
+        <v>0.9980585269303408</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1867589819343592</v>
+        <v>0.1578339607453584</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1384419136976765</v>
+        <v>0.1508001071840042</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1384419136976765</v>
+        <v>0.1508001071840042</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1384419136976765</v>
+        <v>0.1508001071840042</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1384419136976765</v>
+        <v>0.1508001071840042</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1384419136976765</v>
+        <v>0.1508001071840042</v>
       </c>
     </row>
     <row r="5">
@@ -829,91 +829,91 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.110865050994602</v>
+        <v>0.1116507394100296</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008647030065031232</v>
+        <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="n">
         <v>0.1433098626923945</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01076986603079464</v>
+        <v>-0.01076934091077364</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08368196235527849</v>
+        <v>-0.08249621389184854</v>
       </c>
       <c r="H5" t="n">
         <v>0.008470465394818614</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04600357240014289</v>
+        <v>-0.02530495195619807</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03388354201947373</v>
+        <v>0.01105606139924438</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1745369281654771</v>
+        <v>-0.1736277661771106</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1745369281654771</v>
+        <v>-0.1736277661771106</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1745369281654771</v>
+        <v>-0.1736277661771106</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1745369281654771</v>
+        <v>-0.1736277661771106</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1745369281654771</v>
+        <v>-0.1736277661771106</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01963278702531148</v>
+        <v>-0.01966706123468245</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.06039024366360973</v>
+        <v>-0.06051702597268103</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.06039024366360973</v>
+        <v>-0.06051702597268103</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.06039024366360973</v>
+        <v>-0.06051702597268103</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.06039024366360973</v>
+        <v>-0.06051702597268103</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1140403770736151</v>
+        <v>0.1099110903164436</v>
       </c>
       <c r="V5" t="n">
         <v>0.6536887663075507</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002547529445901177</v>
+        <v>0.002569518534780741</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2113432834617313</v>
+        <v>-0.2574395560575822</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01176007064640282</v>
+        <v>-0.01175957327038293</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1336206711048268</v>
+        <v>-0.1187164147646566</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1216993061479722</v>
+        <v>-0.1092006035040241</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1216993061479722</v>
+        <v>-0.1092006035040241</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1216993061479722</v>
+        <v>-0.1092006035040241</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1216993061479722</v>
+        <v>-0.1092006035040241</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.1216993061479722</v>
+        <v>-0.1092006035040241</v>
       </c>
     </row>
     <row r="6">
@@ -924,91 +924,91 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2847602979504119</v>
+        <v>0.2770499595299983</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.01694373564587792</v>
+        <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="n">
         <v>-0.002243198393727935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005428281529131261</v>
+        <v>0.005428415353136614</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02262764989710599</v>
+        <v>-0.02222064463282578</v>
       </c>
       <c r="H6" t="n">
         <v>-0.006998576439943056</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8951761096310442</v>
+        <v>-0.5774538410501536</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.004807229857442929</v>
+        <v>0.1484767924496804</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03191815385272614</v>
+        <v>0.03141453399258135</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03191815385272614</v>
+        <v>0.03141453399258135</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03191815385272614</v>
+        <v>0.03141453399258135</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03191815385272614</v>
+        <v>0.03141453399258135</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03191815385272614</v>
+        <v>0.03141453399258135</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009725053061002121</v>
+        <v>0.009789124519564981</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04294773320590932</v>
+        <v>0.04216570421462816</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04294773320590932</v>
+        <v>0.04216570421462816</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04294773320590932</v>
+        <v>0.04216570421462816</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04294773320590932</v>
+        <v>0.04216570421462816</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04866835653873425</v>
+        <v>0.05735354898214195</v>
       </c>
       <c r="V6" t="n">
         <v>0.02071473481258939</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02798512364740494</v>
+        <v>-0.02792400063696002</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001170152878806115</v>
+        <v>0.01396848804673952</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.0009891643595665743</v>
+        <v>-0.0009923803596952143</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.355350475686019</v>
+        <v>-0.2895362787494511</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.01903854181754167</v>
+        <v>-0.02742524701700988</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.01903854181754167</v>
+        <v>-0.02742524701700988</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.01903854181754167</v>
+        <v>-0.02742524701700988</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.01903854181754167</v>
+        <v>-0.02742524701700988</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.01903854181754167</v>
+        <v>-0.02742524701700988</v>
       </c>
     </row>
     <row r="7">
@@ -1019,91 +1019,91 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0164012699360508</v>
+        <v>0.01322074824082993</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01512140518493371</v>
+        <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="n">
         <v>0.01175450811818032</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.009329261653170464</v>
+        <v>-0.009326854645074184</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00966548477061939</v>
+        <v>0.008916433028657319</v>
       </c>
       <c r="H7" t="n">
         <v>0.0088485200339408</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.001727330085093203</v>
+        <v>-0.001110164204406568</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.006031552466709671</v>
+        <v>-0.007269264011319215</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01988025564321022</v>
+        <v>-0.01971837602073504</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01988025564321022</v>
+        <v>-0.01971837602073504</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01988025564321022</v>
+        <v>-0.01971837602073504</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01988025564321022</v>
+        <v>-0.01971837602073504</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.01988025564321022</v>
+        <v>-0.01971837602073504</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009965568974622759</v>
+        <v>-0.009755469798218791</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01868582801143312</v>
+        <v>-0.01845541081821643</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01868582801143312</v>
+        <v>-0.01845541081821643</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01868582801143312</v>
+        <v>-0.01845541081821643</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01868582801143312</v>
+        <v>-0.01845541081821643</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0172573574582943</v>
+        <v>0.02060804079232163</v>
       </c>
       <c r="V7" t="n">
         <v>0.007844667961786718</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0172510851060434</v>
+        <v>0.01725476411419057</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.02033119962924798</v>
+        <v>-0.01530141373205655</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.01073606452544258</v>
+        <v>-0.01073480961339238</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.0144663199706528</v>
+        <v>-0.02482898153715925</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01448046595521864</v>
+        <v>0.01205130086605203</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01448046595521864</v>
+        <v>0.01205130086605203</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01448046595521864</v>
+        <v>0.01205130086605203</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01448046595521864</v>
+        <v>0.01205130086605203</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01448046595521864</v>
+        <v>0.01205130086605203</v>
       </c>
     </row>
     <row r="8">
@@ -1114,91 +1114,91 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01292364714094588</v>
+        <v>0.2555557270542291</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005557171683584237</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>-0.001420882808835312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001364030838561233</v>
+        <v>0.001374112278964491</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.002873415282936611</v>
+        <v>0.01595398940615957</v>
       </c>
       <c r="H8" t="n">
         <v>-0.001561537790461512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01063353546534142</v>
+        <v>0.7380518057780722</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002527009061686845</v>
+        <v>-0.1997932348986863</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01000203044808122</v>
+        <v>-0.02131284805251392</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01000203044808122</v>
+        <v>-0.02131284805251392</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01000203044808122</v>
+        <v>-0.02131284805251392</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01000203044808122</v>
+        <v>-0.02131284805251392</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01000203044808122</v>
+        <v>-0.02131284805251392</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001724062628962505</v>
+        <v>-0.004472680978907239</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01183936991357479</v>
+        <v>-0.02759540462381618</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01183936991357479</v>
+        <v>-0.02759540462381618</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01183936991357479</v>
+        <v>-0.02759540462381618</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01183936991357479</v>
+        <v>-0.02759540462381618</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.003803399480135979</v>
+        <v>0.02487107456284298</v>
       </c>
       <c r="V8" t="n">
         <v>-0.004322193676887747</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00931163826046553</v>
+        <v>0.009687751875510072</v>
       </c>
       <c r="X8" t="n">
-        <v>0.00118416926336677</v>
+        <v>-0.03478410446336418</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.003052186202087448</v>
+        <v>0.003045803641832145</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.004964684550587381</v>
+        <v>0.3550687606027504</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.00260653402426136</v>
+        <v>0.03168998488359939</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.00260653402426136</v>
+        <v>0.03168998488359939</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.00260653402426136</v>
+        <v>0.03168998488359939</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.00260653402426136</v>
+        <v>0.03168998488359939</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.00260653402426136</v>
+        <v>0.03168998488359939</v>
       </c>
     </row>
     <row r="9">
@@ -1213,91 +1213,91 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4711308177892327</v>
+        <v>0.4591266296930651</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01133738131983088</v>
+        <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="n">
         <v>0.003303209604128384</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001924485292979411</v>
+        <v>-0.00192445975697839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004385105455404218</v>
+        <v>0.0009863274634530983</v>
       </c>
       <c r="H9" t="n">
         <v>0.000364514126580565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01158869326354773</v>
+        <v>0.008838861953554478</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01303559505255234</v>
+        <v>-0.01532498352702152</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01709143316365732</v>
+        <v>-0.01689225849969034</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01709143316365732</v>
+        <v>-0.01689225849969034</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01709143316365732</v>
+        <v>-0.01689225849969034</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01709143316365732</v>
+        <v>-0.01689225849969034</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01709143316365732</v>
+        <v>-0.01689225849969034</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.00253677350947094</v>
+        <v>-0.00262149725685989</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01534458598978344</v>
+        <v>-0.01509614325984573</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01534458598978344</v>
+        <v>-0.01509614325984573</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01534458598978344</v>
+        <v>-0.01509614325984573</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01534458598978344</v>
+        <v>-0.01509614325984573</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.6021230366289214</v>
+        <v>-0.6012176477287059</v>
       </c>
       <c r="V9" t="n">
         <v>0.002256314106252564</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009569604958784197</v>
+        <v>0.009567367390694694</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01205707478628299</v>
+        <v>-0.02240047155201886</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.002613878696555147</v>
+        <v>-0.002616474632658985</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.0001620636544825461</v>
+        <v>-0.007756713238268528</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.008107062084282482</v>
+        <v>0.01970650398826015</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.008107062084282482</v>
+        <v>0.01970650398826015</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.008107062084282482</v>
+        <v>0.01970650398826015</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.008107062084282482</v>
+        <v>0.01970650398826015</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.008107062084282482</v>
+        <v>0.01970650398826015</v>
       </c>
     </row>
     <row r="10">
@@ -1312,91 +1312,91 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.541229677585187</v>
+        <v>0.5201515454140618</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02043195979605658</v>
+        <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="n">
         <v>0.02868284956331398</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02962156313686252</v>
+        <v>-0.02962203718488148</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02960143366405734</v>
+        <v>0.02938138687125547</v>
       </c>
       <c r="H10" t="n">
         <v>0.03064438672977546</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.004829884705195388</v>
+        <v>-0.002853847410153896</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01460195641158273</v>
+        <v>-0.00995070866573038</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02477693715107748</v>
+        <v>-0.02535069336602773</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02477693715107748</v>
+        <v>-0.02535069336602773</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02477693715107748</v>
+        <v>-0.02535069336602773</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02477693715107748</v>
+        <v>-0.02535069336602773</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02477693715107748</v>
+        <v>-0.02535069336602773</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.03002365588894623</v>
+        <v>-0.02994230471769218</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02828138714725548</v>
+        <v>-0.02863802034552081</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02828138714725548</v>
+        <v>-0.02863802034552081</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02828138714725548</v>
+        <v>-0.02863802034552081</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02828138714725548</v>
+        <v>-0.02863802034552081</v>
       </c>
       <c r="U10" t="n">
-        <v>0.698307301820292</v>
+        <v>0.6949789381991575</v>
       </c>
       <c r="V10" t="n">
         <v>0.002660347114413884</v>
       </c>
       <c r="W10" t="n">
-        <v>0.00582450052098002</v>
+        <v>0.005849140361965613</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.008409309744372389</v>
+        <v>-0.005950085326003413</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004826509345060373</v>
+        <v>0.004825716577028663</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01856030483841219</v>
+        <v>-0.008239143497565738</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01383714333748573</v>
+        <v>0.01379189939967597</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01383714333748573</v>
+        <v>0.01379189939967597</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01383714333748573</v>
+        <v>0.01379189939967597</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01383714333748573</v>
+        <v>0.01379189939967597</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01383714333748573</v>
+        <v>0.01379189939967597</v>
       </c>
     </row>
     <row r="11">
@@ -1411,91 +1411,91 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.002304641084185643</v>
+        <v>-0.0002334554973382198</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007274178703470548</v>
+        <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="n">
         <v>0.002898114931924597</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001790596199623848</v>
+        <v>-0.001790708231628329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005992244399689775</v>
+        <v>0.0007669742706789707</v>
       </c>
       <c r="H11" t="n">
         <v>-0.001071932202877288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003771568950862757</v>
+        <v>0.008680004219200168</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01343152633248462</v>
+        <v>-0.02625924242525057</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001797106535884261</v>
+        <v>-0.001367698710707948</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001797106535884261</v>
+        <v>-0.001367698710707948</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001797106535884261</v>
+        <v>-0.001367698710707948</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001797106535884261</v>
+        <v>-0.001367698710707948</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001797106535884261</v>
+        <v>-0.001367698710707948</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001839806185592247</v>
+        <v>-0.001735768965430759</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0009366149174645965</v>
+        <v>-0.0005191628367665135</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0009366149174645965</v>
+        <v>-0.0005191628367665135</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0009366149174645965</v>
+        <v>-0.0005191628367665135</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0009366149174645965</v>
+        <v>-0.0005191628367665135</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01037886281515451</v>
+        <v>-0.0107789099991564</v>
       </c>
       <c r="V11" t="n">
         <v>-0.002020335824813433</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01837708671908347</v>
+        <v>0.01836895081475803</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01310737127629485</v>
+        <v>0.01387481047499242</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.01424356280974251</v>
+        <v>-0.01424320290572811</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.003362987174519487</v>
+        <v>0.009902938188117527</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.008879269795170791</v>
+        <v>-0.00823992877759715</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.008879269795170791</v>
+        <v>-0.00823992877759715</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.008879269795170791</v>
+        <v>-0.00823992877759715</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.008879269795170791</v>
+        <v>-0.00823992877759715</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.008879269795170791</v>
+        <v>-0.00823992877759715</v>
       </c>
     </row>
     <row r="12">
@@ -1510,91 +1510,91 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08084302931372116</v>
+        <v>0.07458663216746526</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03110618601848371</v>
+        <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="n">
         <v>0.008717855484714218</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01178767122350685</v>
+        <v>-0.01178867298354692</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01316483035059321</v>
+        <v>0.01322201294488051</v>
       </c>
       <c r="H12" t="n">
         <v>0.01309334375573375</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01165609073824363</v>
+        <v>0.004433787345351493</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02527945935324544</v>
+        <v>-0.003194763971547602</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004085094211403768</v>
+        <v>0.004019782816791312</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004085094211403768</v>
+        <v>0.004019782816791312</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004085094211403768</v>
+        <v>0.004019782816791312</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004085094211403768</v>
+        <v>0.004019782816791312</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004085094211403768</v>
+        <v>0.004019782816791312</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01132738086909523</v>
+        <v>-0.01142051210482048</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001516094076643763</v>
+        <v>0.001634893697395748</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001516094076643763</v>
+        <v>0.001634893697395748</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001516094076643763</v>
+        <v>0.001634893697395748</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001516094076643763</v>
+        <v>0.001634893697395748</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07096483570259342</v>
+        <v>0.06697442687097707</v>
       </c>
       <c r="V12" t="n">
         <v>-0.0149328974613159</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02830401425216056</v>
+        <v>0.02836627140665085</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.007310128228405128</v>
+        <v>-0.0132038850721554</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01068090839523633</v>
+        <v>0.01067973825118953</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.02424317232972689</v>
+        <v>-0.01219441805577672</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01831459590058383</v>
+        <v>0.02146264213850568</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01831459590058383</v>
+        <v>0.02146264213850568</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01831459590058383</v>
+        <v>0.02146264213850568</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01831459590058383</v>
+        <v>0.02146264213850568</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01831459590058383</v>
+        <v>0.02146264213850568</v>
       </c>
     </row>
     <row r="13">
@@ -1605,91 +1605,91 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3360826721313068</v>
+        <v>-0.3252013666080546</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05172190463410176</v>
+        <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="n">
         <v>0.0126909301716372</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01724947172997887</v>
+        <v>-0.01724673419386937</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0194537099621484</v>
+        <v>0.0193331624693265</v>
       </c>
       <c r="H13" t="n">
         <v>0.01952371537294861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009637592449503697</v>
+        <v>0.001131852909274116</v>
       </c>
       <c r="J13" t="n">
-        <v>0.008596493193922885</v>
+        <v>-0.008172457488509111</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006726846413073855</v>
+        <v>0.006891534899661394</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006726846413073855</v>
+        <v>0.006891534899661394</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006726846413073855</v>
+        <v>0.006891534899661394</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006726846413073855</v>
+        <v>0.006891534899661394</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006726846413073855</v>
+        <v>0.006891534899661394</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01656956178278247</v>
+        <v>-0.01651333909253356</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00174842176593687</v>
+        <v>0.002004683024187321</v>
       </c>
       <c r="R13" t="n">
-        <v>0.00174842176593687</v>
+        <v>0.002004683024187321</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00174842176593687</v>
+        <v>0.002004683024187321</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00174842176593687</v>
+        <v>0.002004683024187321</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07304919738596788</v>
+        <v>-0.07770186272407449</v>
       </c>
       <c r="V13" t="n">
         <v>-0.01589750396390015</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009640943329637733</v>
+        <v>-0.009586298111451922</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.001624782976991319</v>
+        <v>-0.007119307004772278</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0127554426542177</v>
+        <v>0.01275411679816467</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.01310117159604686</v>
+        <v>-0.001702571300102852</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01128474688338987</v>
+        <v>0.01335810341432414</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01128474688338987</v>
+        <v>0.01335810341432414</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01128474688338987</v>
+        <v>0.01335810341432414</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01128474688338987</v>
+        <v>0.01335810341432414</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01128474688338987</v>
+        <v>0.01335810341432414</v>
       </c>
     </row>
     <row r="14">
@@ -1704,91 +1704,91 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.00892212928488517</v>
+        <v>1.072608042904322e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004902746393623502</v>
+        <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="n">
         <v>0.0045449974937999</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007051318074052722</v>
+        <v>-0.007051272186050886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008599781143991243</v>
+        <v>0.007492967723718707</v>
       </c>
       <c r="H14" t="n">
         <v>0.0074490650019626</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0009821721032868839</v>
+        <v>-0.01818475608739024</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01413232204068464</v>
+        <v>0.004592469165099511</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01031695202867808</v>
+        <v>-0.008540234549609381</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01031695202867808</v>
+        <v>-0.008540234549609381</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01031695202867808</v>
+        <v>-0.008540234549609381</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01031695202867808</v>
+        <v>-0.008540234549609381</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.01031695202867808</v>
+        <v>-0.008540234549609381</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.007425752649030106</v>
+        <v>-0.007066928634677144</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01145493156219726</v>
+        <v>-0.009226962417078495</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.01145493156219726</v>
+        <v>-0.009226962417078495</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.01145493156219726</v>
+        <v>-0.009226962417078495</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.01145493156219726</v>
+        <v>-0.009226962417078495</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01957858139114325</v>
+        <v>0.01977658658306346</v>
       </c>
       <c r="V14" t="n">
         <v>-0.006572320294892811</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0001635027905401116</v>
+        <v>-0.0001483543739341749</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00713528226941129</v>
+        <v>0.005543757437750296</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.003784722487388899</v>
+        <v>-0.003784385335375413</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.003578509103140364</v>
+        <v>-0.01894177285367091</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.002038794417551777</v>
+        <v>0.0002038345041533801</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002038794417551777</v>
+        <v>0.0002038345041533801</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.002038794417551777</v>
+        <v>0.0002038345041533801</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.002038794417551777</v>
+        <v>0.0002038345041533801</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.002038794417551777</v>
+        <v>0.0002038345041533801</v>
       </c>
     </row>
     <row r="15">
@@ -1803,91 +1803,91 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.03619188298367531</v>
+        <v>-0.03291506618060264</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.006247422713523455</v>
+        <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="n">
         <v>0.005581299775251989</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006174142230965689</v>
+        <v>-0.00617382725495309</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005570775390831014</v>
+        <v>0.00605418926616757</v>
       </c>
       <c r="H15" t="n">
         <v>0.005684687939387516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01595759939030398</v>
+        <v>0.01096976799079072</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01106093329309196</v>
+        <v>-0.01222951562356254</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002956954198278167</v>
+        <v>0.003297948131917925</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002956954198278167</v>
+        <v>0.003297948131917925</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002956954198278167</v>
+        <v>0.003297948131917925</v>
       </c>
       <c r="N15" t="n">
-        <v>0.002956954198278167</v>
+        <v>0.003297948131917925</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002956954198278167</v>
+        <v>0.003297948131917925</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.00619432277577291</v>
+        <v>-0.006252369466094778</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002888728147549125</v>
+        <v>0.002992058327682333</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002888728147549125</v>
+        <v>0.002992058327682333</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002888728147549125</v>
+        <v>0.002992058327682333</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002888728147549125</v>
+        <v>0.002992058327682333</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05416101029444041</v>
+        <v>-0.05145982458639297</v>
       </c>
       <c r="V15" t="n">
         <v>0.001012833160513326</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002647406217896249</v>
+        <v>0.002615175272607011</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.01225690474627619</v>
+        <v>0.00224551650582066</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001504486524179461</v>
+        <v>0.001504612284184491</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.005631413793256552</v>
+        <v>0.01012103320484133</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.00692169330086773</v>
+        <v>-0.00237535075101403</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00692169330086773</v>
+        <v>-0.00237535075101403</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.00692169330086773</v>
+        <v>-0.00237535075101403</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.00692169330086773</v>
+        <v>-0.00237535075101403</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.00692169330086773</v>
+        <v>-0.00237535075101403</v>
       </c>
     </row>
     <row r="16">
@@ -1902,91 +1902,91 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01373251898130076</v>
+        <v>0.0122334299613372</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002723092215966276</v>
+        <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="n">
         <v>0.003440934185637367</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.003007499544299982</v>
+        <v>-0.003009187128367485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004905506980220279</v>
+        <v>0.004671475866859034</v>
       </c>
       <c r="H16" t="n">
         <v>0.004056001122240045</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02388962111558484</v>
+        <v>-0.01559161675166467</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.001920342557274584</v>
+        <v>-0.007649892842991988</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02404783401791336</v>
+        <v>0.0245188676367547</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02404783401791336</v>
+        <v>0.0245188676367547</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02404783401791336</v>
+        <v>0.0245188676367547</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02404783401791336</v>
+        <v>0.0245188676367547</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02404783401791336</v>
+        <v>0.0245188676367547</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.002190774231630969</v>
+        <v>-0.002113158036526321</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02332847478913899</v>
+        <v>0.02389544937181797</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02332847478913899</v>
+        <v>0.02389544937181797</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02332847478913899</v>
+        <v>0.02389544937181797</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02332847478913899</v>
+        <v>0.02389544937181797</v>
       </c>
       <c r="U16" t="n">
-        <v>0.008705082876203314</v>
+        <v>0.004435430193417207</v>
       </c>
       <c r="V16" t="n">
         <v>0.0002018855120754205</v>
       </c>
       <c r="W16" t="n">
-        <v>0.0141090426123617</v>
+        <v>0.01412234869289395</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.01054877830995113</v>
+        <v>-0.01017999333519973</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.00116841326273653</v>
+        <v>0.001170574030822961</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.03012682085307283</v>
+        <v>-0.01405468289818731</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.008230499369219973</v>
+        <v>0.003100233244009329</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.008230499369219973</v>
+        <v>0.003100233244009329</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.008230499369219973</v>
+        <v>0.003100233244009329</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.008230499369219973</v>
+        <v>0.003100233244009329</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.008230499369219973</v>
+        <v>0.003100233244009329</v>
       </c>
     </row>
     <row r="17">
@@ -2001,91 +2001,91 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.021192650095706</v>
+        <v>-0.01763994224159769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007156412236566836</v>
+        <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="n">
         <v>0.003722611156904446</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.006032465137298604</v>
+        <v>-0.006032042929281716</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006397187391887495</v>
+        <v>0.005980368335214733</v>
       </c>
       <c r="H17" t="n">
         <v>0.008068310050732401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01129031891561276</v>
+        <v>-0.007262933090517323</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.007611470850285586</v>
+        <v>0.00392633742567087</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001766017030640681</v>
+        <v>-0.001135496205419848</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001766017030640681</v>
+        <v>-0.001135496205419848</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001766017030640681</v>
+        <v>-0.001135496205419848</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.001766017030640681</v>
+        <v>-0.001135496205419848</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.001766017030640681</v>
+        <v>-0.001135496205419848</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.006067392434695697</v>
+        <v>-0.00598146628725865</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.003808280216331208</v>
+        <v>-0.002823635248945409</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.003808280216331208</v>
+        <v>-0.002823635248945409</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.003808280216331208</v>
+        <v>-0.002823635248945409</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.003808280216331208</v>
+        <v>-0.002823635248945409</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0158481026499241</v>
+        <v>-0.01257085423083417</v>
       </c>
       <c r="V17" t="n">
         <v>-0.009309831060393242</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01908781631551265</v>
+        <v>0.01910042466801698</v>
       </c>
       <c r="X17" t="n">
-        <v>0.007468902346756093</v>
+        <v>0.01917300105492004</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01156044468641779</v>
+        <v>0.01156087102243484</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.0009678480387139214</v>
+        <v>0.005905630124225205</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.006173638422945536</v>
+        <v>-0.008585235991409439</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.006173638422945536</v>
+        <v>-0.008585235991409439</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.006173638422945536</v>
+        <v>-0.008585235991409439</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.006173638422945536</v>
+        <v>-0.008585235991409439</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.006173638422945536</v>
+        <v>-0.008585235991409439</v>
       </c>
     </row>
     <row r="18">
@@ -2096,91 +2096,91 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01298464477538579</v>
+        <v>-0.01243274238530969</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01366162816843028</v>
+        <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="n">
         <v>0.002900400980016038</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01226138045845522</v>
+        <v>-0.01226184413847376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01749258828370353</v>
+        <v>0.01719371828774873</v>
       </c>
       <c r="H18" t="n">
         <v>0.017880824971233</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001494712859788514</v>
+        <v>-0.001798846439953857</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01656371313052381</v>
+        <v>0.01532978136721908</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01207477123499085</v>
+        <v>0.01243456062538242</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01207477123499085</v>
+        <v>0.01243456062538242</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01207477123499085</v>
+        <v>0.01243456062538242</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01207477123499085</v>
+        <v>0.01243456062538242</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01207477123499085</v>
+        <v>0.01243456062538242</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0113283674611347</v>
+        <v>-0.01129110093164404</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005562527550501101</v>
+        <v>0.006180871735234869</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005562527550501101</v>
+        <v>0.006180871735234869</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005562527550501101</v>
+        <v>0.006180871735234869</v>
       </c>
       <c r="T18" t="n">
-        <v>0.005562527550501101</v>
+        <v>0.006180871735234869</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01354288738971549</v>
+        <v>-0.01273995353359814</v>
       </c>
       <c r="V18" t="n">
         <v>-0.04053771522150861</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01218677943147117</v>
+        <v>-0.01218789168751567</v>
       </c>
       <c r="X18" t="n">
-        <v>0.007256257538250301</v>
+        <v>0.005298264883930595</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03970474469218978</v>
+        <v>0.03970264718810588</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01340942914437717</v>
+        <v>0.01284446288177852</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02035392417415697</v>
+        <v>0.02136486536659461</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02035392417415697</v>
+        <v>0.02136486536659461</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.02035392417415697</v>
+        <v>0.02136486536659461</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02035392417415697</v>
+        <v>0.02136486536659461</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.02035392417415697</v>
+        <v>0.02136486536659461</v>
       </c>
     </row>
     <row r="19">
@@ -2195,91 +2195,91 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01222503120900125</v>
+        <v>0.01292317693292708</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0006665809273862534</v>
+        <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="n">
         <v>0.01844926576197063</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01648252088330083</v>
+        <v>-0.01647914897916596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01501226671249067</v>
+        <v>0.01528126045125042</v>
       </c>
       <c r="H19" t="n">
         <v>0.01502727324109093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01523394089735763</v>
+        <v>0.01857067389482695</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.001408126616663015</v>
+        <v>-0.017026860173098</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0292105801124232</v>
+        <v>-0.02965293104211724</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0292105801124232</v>
+        <v>-0.02965293104211724</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0292105801124232</v>
+        <v>-0.02965293104211724</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0292105801124232</v>
+        <v>-0.02965293104211724</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0292105801124232</v>
+        <v>-0.02965293104211724</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01720328929613157</v>
+        <v>-0.01725359589014383</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02789489401179576</v>
+        <v>-0.02850308082012323</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02789489401179576</v>
+        <v>-0.02850308082012323</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02789489401179576</v>
+        <v>-0.02850308082012323</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.02789489401179576</v>
+        <v>-0.02850308082012323</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.004910335972413438</v>
+        <v>-0.008648550105942003</v>
       </c>
       <c r="V19" t="n">
         <v>0.01622704192908168</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006968671382746855</v>
+        <v>0.006953656502146259</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.002610935336437413</v>
+        <v>-0.02029738593189544</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.008200182472007298</v>
+        <v>-0.008198073159922924</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.001376845591073823</v>
+        <v>-0.006155848854233953</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01213212173328487</v>
+        <v>0.02226894770675791</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01213212173328487</v>
+        <v>0.02226894770675791</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01213212173328487</v>
+        <v>0.02226894770675791</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01213212173328487</v>
+        <v>0.02226894770675791</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01213212173328487</v>
+        <v>0.02226894770675791</v>
       </c>
     </row>
     <row r="20">
@@ -2294,91 +2294,91 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01134584560583382</v>
+        <v>-0.01126367622654705</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01596421092565354</v>
+        <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="n">
         <v>0.01143747674549907</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01435764220630569</v>
+        <v>-0.01435866739034669</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01435716220628649</v>
+        <v>0.01474110682964427</v>
       </c>
       <c r="H20" t="n">
         <v>0.01584765816990633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.006857044306281771</v>
+        <v>0.005729902885196114</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01628473001529754</v>
+        <v>-0.01225135356046174</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01122718883308755</v>
+        <v>-0.01165777525031101</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01122718883308755</v>
+        <v>-0.01165777525031101</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01122718883308755</v>
+        <v>-0.01165777525031101</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01122718883308755</v>
+        <v>-0.01165777525031101</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01122718883308755</v>
+        <v>-0.01165777525031101</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01400393364815734</v>
+        <v>-0.01409441777977671</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0140770174910807</v>
+        <v>-0.01445570035422801</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0140770174910807</v>
+        <v>-0.01445570035422801</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0140770174910807</v>
+        <v>-0.01445570035422801</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.0140770174910807</v>
+        <v>-0.01445570035422801</v>
       </c>
       <c r="U20" t="n">
-        <v>0.004616186680647467</v>
+        <v>0.004576317111052683</v>
       </c>
       <c r="V20" t="n">
         <v>-0.008786878719475148</v>
       </c>
       <c r="W20" t="n">
-        <v>0.006262752250510088</v>
+        <v>0.006249415833976632</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01225794538631781</v>
+        <v>0.006461133378445334</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.014574650118986</v>
+        <v>0.01457264717490588</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.004032275489291019</v>
+        <v>-0.000123175300927012</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.003543830829753233</v>
+        <v>0.007973193150927725</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.003543830829753233</v>
+        <v>0.007973193150927725</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.003543830829753233</v>
+        <v>0.007973193150927725</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.003543830829753233</v>
+        <v>0.007973193150927725</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.003543830829753233</v>
+        <v>0.007973193150927725</v>
       </c>
     </row>
     <row r="21">
@@ -2389,91 +2389,91 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01015484066219362</v>
+        <v>-0.00974267578170703</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008707308651953051</v>
+        <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="n">
         <v>0.01635339934213597</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01573642670945707</v>
+        <v>-0.01573545672541827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01388488663539546</v>
+        <v>0.01431924143676966</v>
       </c>
       <c r="H21" t="n">
         <v>0.01596776022271041</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0265167149806686</v>
+        <v>0.0195246551169862</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01752712092929135</v>
+        <v>-0.03041246923626384</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.004108333124333324</v>
+        <v>-0.004968927078757083</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.004108333124333324</v>
+        <v>-0.004968927078757083</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.004108333124333324</v>
+        <v>-0.004968927078757083</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.004108333124333324</v>
+        <v>-0.004968927078757083</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.004108333124333324</v>
+        <v>-0.004968927078757083</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01558172692726907</v>
+        <v>-0.0157391900695676</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.004121633348865333</v>
+        <v>-0.005182267023290681</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.004121633348865333</v>
+        <v>-0.005182267023290681</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.004121633348865333</v>
+        <v>-0.005182267023290681</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.004121633348865333</v>
+        <v>-0.005182267023290681</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.004173245830929833</v>
+        <v>-0.007912762396510495</v>
       </c>
       <c r="V21" t="n">
         <v>-0.001069568490782739</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003955130558205222</v>
+        <v>0.003954263966170558</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.009880566923222676</v>
+        <v>-0.02341959645678385</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0103644024305761</v>
+        <v>0.01036382643055305</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.004767207070688282</v>
+        <v>0.001526551165062046</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01722418561696742</v>
+        <v>0.02470092732403709</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01722418561696742</v>
+        <v>0.02470092732403709</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01722418561696742</v>
+        <v>0.02470092732403709</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01722418561696742</v>
+        <v>0.02470092732403709</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01722418561696742</v>
+        <v>0.02470092732403709</v>
       </c>
     </row>
     <row r="22">
@@ -2484,91 +2484,91 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03012999835719993</v>
+        <v>-0.02959276476771059</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.02803340712451298</v>
+        <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="n">
         <v>-0.003770082774803311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002411524608460984</v>
+        <v>0.002413399872535995</v>
       </c>
       <c r="G22" t="n">
-        <v>-9.207427568297103e-05</v>
+        <v>0.000225660201026408</v>
       </c>
       <c r="H22" t="n">
         <v>-0.002924413364976535</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0001012679080507163</v>
+        <v>-0.008765203166608126</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01026735679715844</v>
+        <v>-0.008513235374540981</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0335231351009254</v>
+        <v>-0.03299211415168456</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0335231351009254</v>
+        <v>-0.03299211415168456</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0335231351009254</v>
+        <v>-0.03299211415168456</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0335231351009254</v>
+        <v>-0.03299211415168456</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0335231351009254</v>
+        <v>-0.03299211415168456</v>
       </c>
       <c r="P22" t="n">
-        <v>0.000972398630895945</v>
+        <v>0.0009300472692018907</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03458167856726714</v>
+        <v>-0.03379688947987557</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03458167856726714</v>
+        <v>-0.03379688947987557</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.03458167856726714</v>
+        <v>-0.03379688947987557</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.03458167856726714</v>
+        <v>-0.03379688947987557</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009478592251143688</v>
+        <v>0.006391629471665179</v>
       </c>
       <c r="V22" t="n">
         <v>0.001886523819460952</v>
       </c>
       <c r="W22" t="n">
-        <v>0.00163023049720922</v>
+        <v>0.001594332927773317</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.01640831633633265</v>
+        <v>-0.01721463400058536</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.002329811037192441</v>
+        <v>-0.002327976861119074</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.01609040896361636</v>
+        <v>-0.01253512139740485</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0190370726334829</v>
+        <v>0.02053884581355383</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.0190370726334829</v>
+        <v>0.02053884581355383</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.0190370726334829</v>
+        <v>0.02053884581355383</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.0190370726334829</v>
+        <v>0.02053884581355383</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0190370726334829</v>
+        <v>0.02053884581355383</v>
       </c>
     </row>
     <row r="23">
@@ -2579,91 +2579,91 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01213860538154421</v>
+        <v>-0.01050894099635764</v>
       </c>
       <c r="D23" t="n">
-        <v>0.009721522486319131</v>
+        <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="n">
         <v>-0.00802029228881169</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00916873428674937</v>
+        <v>0.009167024622680984</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009611363040454519</v>
+        <v>-0.009197654479906177</v>
       </c>
       <c r="H23" t="n">
         <v>-0.01048538873941555</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003416485576659422</v>
+        <v>-0.002885511859420474</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0006579503784759232</v>
+        <v>-0.006261837809837434</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005221393360855734</v>
+        <v>0.005245244369809774</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005221393360855734</v>
+        <v>0.005245244369809774</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005221393360855734</v>
+        <v>0.005245244369809774</v>
       </c>
       <c r="N23" t="n">
-        <v>0.005221393360855734</v>
+        <v>0.005245244369809774</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005221393360855734</v>
+        <v>0.005245244369809774</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008950071046002843</v>
+        <v>0.008821149856845992</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005829732905189317</v>
+        <v>0.005564568702582748</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005829732905189317</v>
+        <v>0.005564568702582748</v>
       </c>
       <c r="S23" t="n">
-        <v>0.005829732905189317</v>
+        <v>0.005564568702582748</v>
       </c>
       <c r="T23" t="n">
-        <v>0.005829732905189317</v>
+        <v>0.005564568702582748</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.005902265324090611</v>
+        <v>-0.007774887766995509</v>
       </c>
       <c r="V23" t="n">
         <v>0.008103711492148457</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.00222040127281605</v>
+        <v>-0.002247560153902406</v>
       </c>
       <c r="X23" t="n">
-        <v>0.007883970075358801</v>
+        <v>0.00256015651840626</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.007362674502506979</v>
+        <v>-0.007362892806515712</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.0116584276663371</v>
+        <v>0.01003060120122405</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.01101926559277062</v>
+        <v>-0.007371806118872243</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.01101926559277062</v>
+        <v>-0.007371806118872243</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.01101926559277062</v>
+        <v>-0.007371806118872243</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.01101926559277062</v>
+        <v>-0.007371806118872243</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.01101926559277062</v>
+        <v>-0.007371806118872243</v>
       </c>
     </row>
     <row r="24">
@@ -2678,91 +2678,91 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.0197433575257343</v>
+        <v>-0.01467150807486032</v>
       </c>
       <c r="D24" t="n">
-        <v>0.002289679646469643</v>
+        <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="n">
         <v>0.00545126777005071</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007429432425177296</v>
+        <v>-0.007428013161120526</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008292223339688933</v>
+        <v>0.008620000376800014</v>
       </c>
       <c r="H24" t="n">
         <v>0.007708004468320179</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.00325378726615149</v>
+        <v>0.01394079271763171</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0077340109672166</v>
+        <v>-0.002285622622112797</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01218270240730809</v>
+        <v>0.01114327052573082</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01218270240730809</v>
+        <v>0.01114327052573082</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01218270240730809</v>
+        <v>0.01114327052573082</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01218270240730809</v>
+        <v>0.01114327052573082</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01218270240730809</v>
+        <v>0.01114327052573082</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.006567158758686349</v>
+        <v>-0.006726492845059713</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01012719150908766</v>
+        <v>0.008999216903968673</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01012719150908766</v>
+        <v>0.008999216903968673</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01012719150908766</v>
+        <v>0.008999216903968673</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01012719150908766</v>
+        <v>0.008999216903968673</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0140415675696627</v>
+        <v>0.01807946097917843</v>
       </c>
       <c r="V24" t="n">
         <v>-0.01253947672557907</v>
       </c>
       <c r="W24" t="n">
-        <v>0.006859593298383731</v>
+        <v>0.0068610524984421</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.006048535729941428</v>
+        <v>0.005555046270201851</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01078384900735396</v>
+        <v>0.01078364145534566</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.006276585563063422</v>
+        <v>0.00938831624753265</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01009844123593765</v>
+        <v>0.001325285621011425</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01009844123593765</v>
+        <v>0.001325285621011425</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01009844123593765</v>
+        <v>0.001325285621011425</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01009844123593765</v>
+        <v>0.001325285621011425</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01009844123593765</v>
+        <v>0.001325285621011425</v>
       </c>
     </row>
     <row r="25">
@@ -2773,91 +2773,91 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.00576716202268648</v>
+        <v>-0.009737655845506232</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01545159038040122</v>
+        <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="n">
         <v>0.01686670886666835</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02210722130028885</v>
+        <v>-0.02210615282024611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02513861946954478</v>
+        <v>0.02421241498449659</v>
       </c>
       <c r="H25" t="n">
         <v>0.02447870469114818</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0239895648955826</v>
+        <v>0.0002588227303529091</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005346737927152735</v>
+        <v>-0.0003980740003910951</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.006207366008294639</v>
+        <v>-0.004323884140955365</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.006207366008294639</v>
+        <v>-0.004323884140955365</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.006207366008294639</v>
+        <v>-0.004323884140955365</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.006207366008294639</v>
+        <v>-0.004323884140955365</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.006207366008294639</v>
+        <v>-0.004323884140955365</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02169849225993969</v>
+        <v>-0.02141754872870195</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.012008375136335</v>
+        <v>-0.009695065347802612</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.012008375136335</v>
+        <v>-0.009695065347802612</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.012008375136335</v>
+        <v>-0.009695065347802612</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.012008375136335</v>
+        <v>-0.009695065347802612</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.01055071904602876</v>
+        <v>-0.00773642027745681</v>
       </c>
       <c r="V25" t="n">
         <v>-0.01986577385063095</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01788407409136296</v>
+        <v>0.01789601610784064</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01046175430647017</v>
+        <v>0.004247524777900991</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01503481279339251</v>
+        <v>0.01503642597745704</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.008784800319392012</v>
+        <v>-0.01119131190365247</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02422224106488964</v>
+        <v>0.01765310182612407</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02422224106488964</v>
+        <v>0.01765310182612407</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02422224106488964</v>
+        <v>0.01765310182612407</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02422224106488964</v>
+        <v>0.01765310182612407</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.02422224106488964</v>
+        <v>0.01765310182612407</v>
       </c>
     </row>
     <row r="26">
@@ -2872,91 +2872,91 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02920584241623369</v>
+        <v>0.02396057807842312</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.03320134643947553</v>
+        <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="n">
         <v>0.01870228145209126</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.018761150094446</v>
+        <v>-0.01876065060642602</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01833884310155372</v>
+        <v>0.01789636189985447</v>
       </c>
       <c r="H26" t="n">
         <v>0.02160733478429339</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00858746031149841</v>
+        <v>-0.006043422289736891</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.003726290645945936</v>
+        <v>-0.005501334322522942</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.01913007023720281</v>
+        <v>-0.0185191801647672</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.01913007023720281</v>
+        <v>-0.0185191801647672</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.01913007023720281</v>
+        <v>-0.0185191801647672</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.01913007023720281</v>
+        <v>-0.0185191801647672</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.01913007023720281</v>
+        <v>-0.0185191801647672</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01901547676061907</v>
+        <v>-0.01884377048175082</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02078645689545827</v>
+        <v>-0.02002481148899245</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02078645689545827</v>
+        <v>-0.02002481148899245</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02078645689545827</v>
+        <v>-0.02002481148899245</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02078645689545827</v>
+        <v>-0.02002481148899245</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.007616102800644111</v>
+        <v>-0.007114426076577043</v>
       </c>
       <c r="V26" t="n">
         <v>0.005333011605320463</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01732587880503515</v>
+        <v>-0.01733622040544881</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.0210636225385449</v>
+        <v>-0.01739898607195944</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01781725184869007</v>
+        <v>0.01781767319270693</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.01539563648782546</v>
+        <v>-0.03363360211334408</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02697924117516964</v>
+        <v>0.02223801218552048</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02697924117516964</v>
+        <v>0.02223801218552048</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02697924117516964</v>
+        <v>0.02223801218552048</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.02697924117516964</v>
+        <v>0.02223801218552048</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.02697924117516964</v>
+        <v>0.02223801218552048</v>
       </c>
     </row>
     <row r="27">
@@ -2967,91 +2967,91 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.002021865392874616</v>
+        <v>0.003776336215053448</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01036598879914786</v>
+        <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="n">
         <v>-0.01295046944601877</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01349930146797206</v>
+        <v>0.01349850399594016</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01289863971594559</v>
+        <v>-0.01247536139501446</v>
       </c>
       <c r="H27" t="n">
         <v>-0.01450509610020384</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.005071028554841142</v>
+        <v>0.01145844765833791</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01162203627567074</v>
+        <v>0.01407618422760096</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01849337344373493</v>
+        <v>0.01732195950887838</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01849337344373493</v>
+        <v>0.01732195950887838</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01849337344373493</v>
+        <v>0.01732195950887838</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01849337344373493</v>
+        <v>0.01732195950887838</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01849337344373493</v>
+        <v>0.01732195950887838</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0136804600992184</v>
+        <v>0.01356279471851179</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01859869946394797</v>
+        <v>0.017185449999418</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01859869946394797</v>
+        <v>0.017185449999418</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01859869946394797</v>
+        <v>0.017185449999418</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01859869946394797</v>
+        <v>0.017185449999418</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0009498069499922779</v>
+        <v>0.00112991399719656</v>
       </c>
       <c r="V27" t="n">
         <v>0.000910893924435757</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01198299215931969</v>
+        <v>0.01196371199854848</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.01087828651513146</v>
+        <v>-0.01568262398730496</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.01035245849409834</v>
+        <v>-0.01034929020597161</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.004965267558610701</v>
+        <v>0.007144662717786509</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.00444322203372888</v>
+        <v>-0.004383367567334702</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.00444322203372888</v>
+        <v>-0.004383367567334702</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.00444322203372888</v>
+        <v>-0.004383367567334702</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.00444322203372888</v>
+        <v>-0.004383367567334702</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.00444322203372888</v>
+        <v>-0.004383367567334702</v>
       </c>
     </row>
     <row r="28">
@@ -3066,91 +3066,91 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.03295329175013167</v>
+        <v>-0.02988674721146988</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03352735633147539</v>
+        <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="n">
         <v>-0.07310553489222139</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02795559980622399</v>
+        <v>0.02795684195027368</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0006058515122340604</v>
+        <v>-0.0001385956855438274</v>
       </c>
       <c r="H28" t="n">
         <v>-0.02523759172950367</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02686753067470122</v>
+        <v>0.02510290977211639</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008417060066702496</v>
+        <v>0.01013556963334222</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07284432291377291</v>
+        <v>0.07170493842019754</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07284432291377291</v>
+        <v>0.07170493842019754</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07284432291377291</v>
+        <v>0.07170493842019754</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07284432291377291</v>
+        <v>0.07170493842019754</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07284432291377291</v>
+        <v>0.07170493842019754</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03233217172528687</v>
+        <v>0.03204761792190471</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.04027543956301758</v>
+        <v>0.03922665968106638</v>
       </c>
       <c r="R28" t="n">
-        <v>0.04027543956301758</v>
+        <v>0.03922665968106638</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04027543956301758</v>
+        <v>0.03922665968106638</v>
       </c>
       <c r="T28" t="n">
-        <v>0.04027543956301758</v>
+        <v>0.03922665968106638</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.04202485896099435</v>
+        <v>-0.04244983446599337</v>
       </c>
       <c r="V28" t="n">
         <v>-0.2582039162481566</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915877006235079</v>
+        <v>0.9915892239515688</v>
       </c>
       <c r="X28" t="n">
-        <v>0.06073620578944823</v>
+        <v>0.07091453650058145</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.03886075086643003</v>
+        <v>-0.03886077438643097</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05806934901077395</v>
+        <v>0.06882357913694316</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.02726606681864267</v>
+        <v>0.02822761552910462</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02726606681864267</v>
+        <v>0.02822761552910462</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02726606681864267</v>
+        <v>0.02822761552910462</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02726606681864267</v>
+        <v>0.02822761552910462</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02726606681864267</v>
+        <v>0.02822761552910462</v>
       </c>
     </row>
     <row r="29">
@@ -3165,91 +3165,91 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01629381069975242</v>
+        <v>-0.01920847680033907</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01526008324510068</v>
+        <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="n">
         <v>-0.01579043487161739</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01743201228128049</v>
+        <v>0.0174313676412547</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01867959569118383</v>
+        <v>-0.01929756710790268</v>
       </c>
       <c r="H29" t="n">
         <v>-0.01669819343592773</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02175983299839332</v>
+        <v>-0.02410538947621558</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01478611638699332</v>
+        <v>0.02551996746681018</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.003933516637340665</v>
+        <v>-0.002597517127900685</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.003933516637340665</v>
+        <v>-0.002597517127900685</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.003933516637340665</v>
+        <v>-0.002597517127900685</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.003933516637340665</v>
+        <v>-0.002597517127900685</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.003933516637340665</v>
+        <v>-0.002597517127900685</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01710204970808199</v>
+        <v>0.0172989075079563</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.001681839715273588</v>
+        <v>-0.000204890600195624</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.001681839715273588</v>
+        <v>-0.000204890600195624</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.001681839715273588</v>
+        <v>-0.000204890600195624</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.001681839715273588</v>
+        <v>-0.000204890600195624</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02091781024471241</v>
+        <v>-0.02138911621556465</v>
       </c>
       <c r="V29" t="n">
         <v>0.001894137291765491</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02120187377607495</v>
+        <v>0.0212123699364948</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01484272811370912</v>
+        <v>0.02229504223580168</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.001305189076207563</v>
+        <v>0.001302889876115595</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.006409647136385884</v>
+        <v>0.01278748860749954</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01725327966613118</v>
+        <v>-0.01684097443363898</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01725327966613118</v>
+        <v>-0.01684097443363898</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01725327966613118</v>
+        <v>-0.01684097443363898</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01725327966613118</v>
+        <v>-0.01684097443363898</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.01725327966613118</v>
+        <v>-0.01684097443363898</v>
       </c>
     </row>
     <row r="30">
@@ -3264,91 +3264,91 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005282256115290244</v>
+        <v>-0.01103845656953826</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01928428821387783</v>
+        <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="n">
         <v>-0.0006444854657794185</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01444326403373056</v>
+        <v>0.01444127433765097</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01818882562355302</v>
+        <v>-0.01889220939568837</v>
       </c>
       <c r="H30" t="n">
         <v>-0.01741705836068233</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.007618864048754561</v>
+        <v>-0.02298321567132862</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0007384077897135294</v>
+        <v>-0.04424958931002109</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01607724189108967</v>
+        <v>0.01742080092083204</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01607724189108967</v>
+        <v>0.01742080092083204</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01607724189108967</v>
+        <v>0.01742080092083204</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01607724189108967</v>
+        <v>0.01742080092083204</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01607724189108967</v>
+        <v>0.01742080092083204</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01306563556262542</v>
+        <v>0.01342760540110421</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02756537380661495</v>
+        <v>0.02907276001091039</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02756537380661495</v>
+        <v>0.02907276001091039</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02756537380661495</v>
+        <v>0.02907276001091039</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02756537380661495</v>
+        <v>0.02907276001091039</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01606820982672839</v>
+        <v>0.01830851622034065</v>
       </c>
       <c r="V30" t="n">
         <v>0.0587889477595579</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1101212650448506</v>
+        <v>0.1101099917643996</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01725430312217212</v>
+        <v>-0.01010020283600811</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.02759040955161638</v>
+        <v>-0.02759121633564865</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.003170101854804074</v>
+        <v>-0.01390685335627413</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.009105313228212529</v>
+        <v>-0.00885431728217269</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.009105313228212529</v>
+        <v>-0.00885431728217269</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.009105313228212529</v>
+        <v>-0.00885431728217269</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.009105313228212529</v>
+        <v>-0.00885431728217269</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.009105313228212529</v>
+        <v>-0.00885431728217269</v>
       </c>
     </row>
     <row r="31">
@@ -3363,91 +3363,91 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004088161411526456</v>
+        <v>-0.002810782384431295</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.004314762125697787</v>
+        <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="n">
         <v>-0.004145227461809097</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002408716320348653</v>
+        <v>0.002408774976350999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0004420095536803821</v>
+        <v>0.0008502512980100518</v>
       </c>
       <c r="H31" t="n">
         <v>-0.003690063891602556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01978014674320587</v>
+        <v>0.01260401100016044</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01379477652310181</v>
+        <v>-0.01106988477581358</v>
       </c>
       <c r="K31" t="n">
-        <v>0.009324514164980565</v>
+        <v>0.008057429122297162</v>
       </c>
       <c r="L31" t="n">
-        <v>0.009324514164980565</v>
+        <v>0.008057429122297162</v>
       </c>
       <c r="M31" t="n">
-        <v>0.009324514164980565</v>
+        <v>0.008057429122297162</v>
       </c>
       <c r="N31" t="n">
-        <v>0.009324514164980565</v>
+        <v>0.008057429122297162</v>
       </c>
       <c r="O31" t="n">
-        <v>0.009324514164980565</v>
+        <v>0.008057429122297162</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002704299660171986</v>
+        <v>0.002577841735113669</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.006155893878235754</v>
+        <v>0.004429335441173418</v>
       </c>
       <c r="R31" t="n">
-        <v>0.006155893878235754</v>
+        <v>0.004429335441173418</v>
       </c>
       <c r="S31" t="n">
-        <v>0.006155893878235754</v>
+        <v>0.004429335441173418</v>
       </c>
       <c r="T31" t="n">
-        <v>0.006155893878235754</v>
+        <v>0.004429335441173418</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.001950423150016926</v>
+        <v>-0.006222582680903306</v>
       </c>
       <c r="V31" t="n">
         <v>-0.005945448237817929</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01071790343671614</v>
+        <v>0.01074921575796863</v>
       </c>
       <c r="X31" t="n">
-        <v>0.008765555678622226</v>
+        <v>-0.004020777952831118</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.008818403392736134</v>
+        <v>-0.008816976640679064</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01546349697053988</v>
+        <v>0.004542051061682041</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.003942368701694747</v>
+        <v>0.00341268052050722</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.003942368701694747</v>
+        <v>0.00341268052050722</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.003942368701694747</v>
+        <v>0.00341268052050722</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.003942368701694747</v>
+        <v>0.00341268052050722</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.003942368701694747</v>
+        <v>0.00341268052050722</v>
       </c>
     </row>
     <row r="32">
@@ -3462,91 +3462,91 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4481591177023647</v>
+        <v>0.433112725580509</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01974947986413318</v>
+        <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="n">
         <v>0.9775172146846886</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9999573468142937</v>
+        <v>-0.9999573361582933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9906959459318377</v>
+        <v>0.9907036661561465</v>
       </c>
       <c r="H32" t="n">
         <v>0.9869956307758251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4327624522864981</v>
+        <v>0.2937806976392279</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06435147302150326</v>
+        <v>-0.6929598396693144</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.4922410697376427</v>
+        <v>-0.5068393297135732</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.4922410697376427</v>
+        <v>-0.5068393297135732</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.4922410697376427</v>
+        <v>-0.5068393297135732</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.4922410697376427</v>
+        <v>-0.5068393297135732</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.4922410697376427</v>
+        <v>-0.5068393297135732</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9991270964450838</v>
+        <v>-0.9991116310364652</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.5662977807319112</v>
+        <v>-0.5823355795814231</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.5662977807319112</v>
+        <v>-0.5823355795814231</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.5662977807319112</v>
+        <v>-0.5823355795814231</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.5662977807319112</v>
+        <v>-0.5823355795814231</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1237795468391819</v>
+        <v>-0.1452013407840536</v>
       </c>
       <c r="V32" t="n">
         <v>-0.005861654826466192</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.02247110969884438</v>
+        <v>-0.0223357975014319</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.5938101099284043</v>
+        <v>-0.6209147089645882</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02857771160710846</v>
+        <v>0.02857808331912333</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.5759351319334052</v>
+        <v>-0.6008511295060451</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.745735374885415</v>
+        <v>0.7818136216085447</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.745735374885415</v>
+        <v>0.7818136216085447</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.745735374885415</v>
+        <v>0.7818136216085447</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.745735374885415</v>
+        <v>0.7818136216085447</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.745735374885415</v>
+        <v>0.7818136216085447</v>
       </c>
     </row>
     <row r="33">
@@ -3561,91 +3561,91 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.007146797853871913</v>
+        <v>-0.007695319603812784</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01057248945324983</v>
+        <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="n">
         <v>-0.01410533173221327</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009489504955580196</v>
+        <v>0.009491405371656214</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006682936011317439</v>
+        <v>-0.006808274096330964</v>
       </c>
       <c r="H33" t="n">
         <v>-0.006144108149764326</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01062621594504864</v>
+        <v>0.002100471924018877</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.02502851054314726</v>
+        <v>0.001927205839354628</v>
       </c>
       <c r="K33" t="n">
-        <v>0.008402380368095213</v>
+        <v>0.008293013611720542</v>
       </c>
       <c r="L33" t="n">
-        <v>0.008402380368095213</v>
+        <v>0.008293013611720542</v>
       </c>
       <c r="M33" t="n">
-        <v>0.008402380368095213</v>
+        <v>0.008293013611720542</v>
       </c>
       <c r="N33" t="n">
-        <v>0.008402380368095213</v>
+        <v>0.008293013611720542</v>
       </c>
       <c r="O33" t="n">
-        <v>0.008402380368095213</v>
+        <v>0.008293013611720542</v>
       </c>
       <c r="P33" t="n">
-        <v>0.009787518439500736</v>
+        <v>0.009848968905958756</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005624537984981519</v>
+        <v>0.005581339231253568</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005624537984981519</v>
+        <v>0.005581339231253568</v>
       </c>
       <c r="S33" t="n">
-        <v>0.005624537984981519</v>
+        <v>0.005581339231253568</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005624537984981519</v>
+        <v>0.005581339231253568</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.001812800712512028</v>
+        <v>-0.002192361111694444</v>
       </c>
       <c r="V33" t="n">
         <v>-0.027352375142095</v>
       </c>
       <c r="W33" t="n">
-        <v>0.009693718659748746</v>
+        <v>0.0097033675241347</v>
       </c>
       <c r="X33" t="n">
-        <v>0.002622538952901558</v>
+        <v>0.01398695585547823</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02070782530831301</v>
+        <v>0.02070782338831293</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.003824163608966544</v>
+        <v>0.02024666298586652</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.003226042593041703</v>
+        <v>-0.004564482710579309</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.003226042593041703</v>
+        <v>-0.004564482710579309</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.003226042593041703</v>
+        <v>-0.004564482710579309</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.003226042593041703</v>
+        <v>-0.004564482710579309</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.003226042593041703</v>
+        <v>-0.004564482710579309</v>
       </c>
     </row>
     <row r="34">
@@ -3660,91 +3660,91 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0005212584208503368</v>
+        <v>0.002888602291544091</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01426105489582933</v>
+        <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="n">
         <v>0.00220429026417161</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003596190671847626</v>
+        <v>-0.003597456719898268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002308274300330972</v>
+        <v>0.002529742565189703</v>
       </c>
       <c r="H34" t="n">
         <v>0.00287552699502108</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01859687210387488</v>
+        <v>0.01327982472319299</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02066338172749448</v>
+        <v>-0.0537050055393573</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03332225288489011</v>
+        <v>0.03242875598515024</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03332225288489011</v>
+        <v>0.03242875598515024</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03332225288489011</v>
+        <v>0.03242875598515024</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03332225288489011</v>
+        <v>0.03242875598515024</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03332225288489011</v>
+        <v>0.03242875598515024</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001935956813438272</v>
+        <v>-0.001972266030890641</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03222923216916928</v>
+        <v>0.03099557307982292</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03222923216916928</v>
+        <v>0.03099557307982292</v>
       </c>
       <c r="S34" t="n">
-        <v>0.03222923216916928</v>
+        <v>0.03099557307982292</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03222923216916928</v>
+        <v>0.03099557307982292</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.0134990051159602</v>
+        <v>-0.01203008236920329</v>
       </c>
       <c r="V34" t="n">
         <v>-0.00665778977031159</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01313092794923711</v>
+        <v>-0.01313522884540915</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.004968318342732734</v>
+        <v>0.001548372061934882</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0004177651367106054</v>
+        <v>0.0004204228968169158</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.009129910925196437</v>
+        <v>0.01435989494239579</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.0247583649903346</v>
+        <v>0.01645730936229237</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.0247583649903346</v>
+        <v>0.01645730936229237</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.0247583649903346</v>
+        <v>0.01645730936229237</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.0247583649903346</v>
+        <v>0.01645730936229237</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0247583649903346</v>
+        <v>0.01645730936229237</v>
       </c>
     </row>
     <row r="35">
@@ -3759,91 +3759,91 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03776900349476013</v>
+        <v>-0.03370289914011596</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0008982157990080747</v>
+        <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="n">
         <v>-0.03233770564550822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02715546444621858</v>
+        <v>0.0271571599022864</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02396277734251109</v>
+        <v>-0.02405031398601256</v>
       </c>
       <c r="H35" t="n">
         <v>-0.02476387635055505</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01657316773492671</v>
+        <v>-0.00778072850322914</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02329229349728189</v>
+        <v>0.01093524765026976</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7695033596761343</v>
+        <v>0.759080930235237</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7695033596761343</v>
+        <v>0.759080930235237</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7695033596761343</v>
+        <v>0.759080930235237</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7695033596761343</v>
+        <v>0.759080930235237</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7695033596761343</v>
+        <v>0.759080930235237</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05224695732187828</v>
+        <v>0.05202660956906437</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7720309258252369</v>
+        <v>0.7573950952878038</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7720309258252369</v>
+        <v>0.7573950952878038</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7720309258252369</v>
+        <v>0.7573950952878038</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7720309258252369</v>
+        <v>0.7573950952878038</v>
       </c>
       <c r="U35" t="n">
-        <v>0.00403432076937283</v>
+        <v>0.003342892357715694</v>
       </c>
       <c r="V35" t="n">
         <v>-0.02097465031098601</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006560957062438282</v>
+        <v>-0.0006255702010228079</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02726783187471327</v>
+        <v>0.02808708697948347</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01237743063909722</v>
+        <v>0.01237830270313211</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01550550052422002</v>
+        <v>0.02542006623280264</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.1990172966326919</v>
+        <v>-0.1991033711961348</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.1990172966326919</v>
+        <v>-0.1991033711961348</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.1990172966326919</v>
+        <v>-0.1991033711961348</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1990172966326919</v>
+        <v>-0.1991033711961348</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1990172966326919</v>
+        <v>-0.1991033711961348</v>
       </c>
     </row>
     <row r="36">
@@ -3858,91 +3858,91 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.003367834982713399</v>
+        <v>-0.005968449262737969</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.01734057197744023</v>
+        <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="n">
         <v>0.0135509276780371</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01396994983879799</v>
+        <v>-0.01397041774281671</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0119323700132948</v>
+        <v>0.01140877284035091</v>
       </c>
       <c r="H36" t="n">
         <v>0.0153446123897845</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01006692933067717</v>
+        <v>0.002854072050162882</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.001530683965594723</v>
+        <v>-0.01006315059036029</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002940194421607776</v>
+        <v>-0.002260960410438416</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.002940194421607776</v>
+        <v>-0.002260960410438416</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.002940194421607776</v>
+        <v>-0.002260960410438416</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.002940194421607776</v>
+        <v>-0.002260960410438416</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.002940194421607776</v>
+        <v>-0.002260960410438416</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01364363680174547</v>
+        <v>-0.01354606076584243</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.001886352267454091</v>
+        <v>-0.001155077710203108</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001886352267454091</v>
+        <v>-0.001155077710203108</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.001886352267454091</v>
+        <v>-0.001155077710203108</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.001886352267454091</v>
+        <v>-0.001155077710203108</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02588458903538356</v>
+        <v>0.02645724998629</v>
       </c>
       <c r="V36" t="n">
         <v>0.003193437055737481</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01623506215340249</v>
+        <v>0.01618697863147914</v>
       </c>
       <c r="X36" t="n">
-        <v>0.004963471878538875</v>
+        <v>-1.160524846420994e-05</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01057698138307926</v>
+        <v>0.01057870151114806</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.001408325528333021</v>
+        <v>-0.008264333226573328</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.001465841338633654</v>
+        <v>-0.00463796476151859</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.001465841338633654</v>
+        <v>-0.00463796476151859</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.001465841338633654</v>
+        <v>-0.00463796476151859</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.001465841338633654</v>
+        <v>-0.00463796476151859</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.001465841338633654</v>
+        <v>-0.00463796476151859</v>
       </c>
     </row>
     <row r="37">
@@ -3957,91 +3957,91 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.002526659237066369</v>
+        <v>0.003053417978136719</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.03572597770581333</v>
+        <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="n">
         <v>0.003466995690679827</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.003340448389617935</v>
+        <v>-0.003340387333615493</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003479110699164427</v>
+        <v>0.004172249542889982</v>
       </c>
       <c r="H37" t="n">
         <v>0.001163787598551504</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008322514316900571</v>
+        <v>0.01614522707780908</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.007533507231148331</v>
+        <v>-0.02389948303208511</v>
       </c>
       <c r="K37" t="n">
-        <v>0.09144392180175685</v>
+        <v>0.0888768605790744</v>
       </c>
       <c r="L37" t="n">
-        <v>0.09144392180175685</v>
+        <v>0.0888768605790744</v>
       </c>
       <c r="M37" t="n">
-        <v>0.09144392180175685</v>
+        <v>0.0888768605790744</v>
       </c>
       <c r="N37" t="n">
-        <v>0.09144392180175685</v>
+        <v>0.0888768605790744</v>
       </c>
       <c r="O37" t="n">
-        <v>0.09144392180175685</v>
+        <v>0.0888768605790744</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.0007216996128679844</v>
+        <v>-0.000937285477491419</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.09344462965778519</v>
+        <v>0.09008101579524062</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09344462965778519</v>
+        <v>0.09008101579524062</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09344462965778519</v>
+        <v>0.09008101579524062</v>
       </c>
       <c r="T37" t="n">
-        <v>0.09344462965778519</v>
+        <v>0.09008101579524062</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.004973890086955602</v>
+        <v>-0.007588438575537542</v>
       </c>
       <c r="V37" t="n">
         <v>0.005651380930055236</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001547707549908302</v>
+        <v>-0.001486169915446797</v>
       </c>
       <c r="X37" t="n">
-        <v>0.005711120100444804</v>
+        <v>0.00339223175168927</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.01636277518251101</v>
+        <v>-0.01636385777455431</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.001503138588125543</v>
+        <v>0.01706926225077049</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.07696806480672259</v>
+        <v>0.07498958066358322</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.07696806480672259</v>
+        <v>0.07498958066358322</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.07696806480672259</v>
+        <v>0.07498958066358322</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.07696806480672259</v>
+        <v>0.07498958066358322</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.07696806480672259</v>
+        <v>0.07498958066358322</v>
       </c>
     </row>
     <row r="38">
@@ -4056,91 +4056,91 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.0009330816373232653</v>
+        <v>0.00711334281253371</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0006148637444399865</v>
+        <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="n">
         <v>-0.01580059042402361</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01466224061848962</v>
+        <v>0.01466136452245458</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01348712569148503</v>
+        <v>-0.01289543734781749</v>
       </c>
       <c r="H38" t="n">
         <v>-0.01529779539591181</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.02556827593473103</v>
+        <v>0.001778353703134148</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.008466435364689358</v>
+        <v>0.01139932587737864</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01900852424834097</v>
+        <v>0.01848313408332536</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01900852424834097</v>
+        <v>0.01848313408332536</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01900852424834097</v>
+        <v>0.01848313408332536</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01900852424834097</v>
+        <v>0.01848313408332536</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01900852424834097</v>
+        <v>0.01848313408332536</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01492615854904634</v>
+        <v>0.01479584948783398</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01931986541279461</v>
+        <v>0.01880543777621751</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01931986541279461</v>
+        <v>0.01880543777621751</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01931986541279461</v>
+        <v>0.01880543777621751</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01931986541279461</v>
+        <v>0.01880543777621751</v>
       </c>
       <c r="U38" t="n">
-        <v>0.008825454113018162</v>
+        <v>0.005399692727987709</v>
       </c>
       <c r="V38" t="n">
         <v>-0.004906690468267618</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001507612668304507</v>
+        <v>0.00150422799616912</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01847900070716003</v>
+        <v>0.006963701942548076</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.008279627179185086</v>
+        <v>-0.008281740811269632</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.01056948397477936</v>
+        <v>0.006404412256176489</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.01910308175612327</v>
+        <v>-0.005617275488691019</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01910308175612327</v>
+        <v>-0.005617275488691019</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.01910308175612327</v>
+        <v>-0.005617275488691019</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.01910308175612327</v>
+        <v>-0.005617275488691019</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.01910308175612327</v>
+        <v>-0.005617275488691019</v>
       </c>
     </row>
     <row r="39">
@@ -4155,91 +4155,91 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01430053842802153</v>
+        <v>0.01798528967941158</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.004953831526939256</v>
+        <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="n">
         <v>0.003517886540715461</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.001200535152021406</v>
+        <v>-0.001200285552011422</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0007386699175467965</v>
+        <v>-0.0002069208082768323</v>
       </c>
       <c r="H39" t="n">
         <v>-0.00346554925862197</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01404455326578213</v>
+        <v>-0.001608921952356878</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.00134330640605465</v>
+        <v>-0.000136490309620125</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04645169139406764</v>
+        <v>0.04529150533166021</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04645169139406764</v>
+        <v>0.04529150533166021</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04645169139406764</v>
+        <v>0.04529150533166021</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04645169139406764</v>
+        <v>0.04529150533166021</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04645169139406764</v>
+        <v>0.04529150533166021</v>
       </c>
       <c r="P39" t="n">
-        <v>-4.583241783329671e-05</v>
+        <v>-0.0002375272415010897</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.0495006903000276</v>
+        <v>0.04800416044816641</v>
       </c>
       <c r="R39" t="n">
-        <v>0.0495006903000276</v>
+        <v>0.04800416044816641</v>
       </c>
       <c r="S39" t="n">
-        <v>0.0495006903000276</v>
+        <v>0.04800416044816641</v>
       </c>
       <c r="T39" t="n">
-        <v>0.0495006903000276</v>
+        <v>0.04800416044816641</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01464164333766573</v>
+        <v>0.01160407889616315</v>
       </c>
       <c r="V39" t="n">
         <v>0.01925972957038918</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006666714410668576</v>
+        <v>0.006676763691070547</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.0113861373834455</v>
+        <v>-0.01741416847256674</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.02660734666429386</v>
+        <v>-0.02661168144846725</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.01198399967935999</v>
+        <v>-0.007813551384542053</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.002509854340394173</v>
+        <v>0.007733189493327579</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.002509854340394173</v>
+        <v>0.007733189493327579</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.002509854340394173</v>
+        <v>0.007733189493327579</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.002509854340394173</v>
+        <v>0.007733189493327579</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.002509854340394173</v>
+        <v>0.007733189493327579</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -730,95 +730,95 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil extraction efficiency [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.08661503184860127</v>
+        <v>0.4784948368677934</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1177646069825843</v>
+        <v>0.7002276000731038</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02338571440742857</v>
+        <v>-0.0233856950154278</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08268451674738064</v>
+        <v>-0.3224830387553215</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1765836888553475</v>
+        <v>-0.29173399963736</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03438451548738061</v>
+        <v>-0.1166261792250472</v>
       </c>
       <c r="J4" t="n">
-        <v>0.269267024639339</v>
+        <v>-0.5098925581360121</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3202180861847234</v>
+        <v>-0.8215454420458175</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3202180861847234</v>
+        <v>-0.8215454420458175</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3202180861847234</v>
+        <v>-0.8215454420458175</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3202180861847234</v>
+        <v>-0.8215454420458175</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3202180861847234</v>
+        <v>-0.8215454420458175</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002188002423520097</v>
+        <v>-0.09541890583275621</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2143755369910214</v>
+        <v>-0.4938893368115734</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2143755369910214</v>
+        <v>-0.4938893368115734</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2143755369910214</v>
+        <v>-0.4938893368115734</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2143755369910214</v>
+        <v>-0.4938893368115734</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.09835488556619541</v>
+        <v>0.5246782361871293</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.7014339902653596</v>
+        <v>0.9984003378240133</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01956828193473128</v>
+        <v>0.01957804071912162</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2427534742221389</v>
+        <v>-0.7565348363733934</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9980585269303408</v>
+        <v>-0.9994968521718739</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1578339607453584</v>
+        <v>-0.5664983113959324</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1508001071840042</v>
+        <v>-0.5276373039214921</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1508001071840042</v>
+        <v>-0.5276373039214921</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1508001071840042</v>
+        <v>-0.5276373039214921</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1508001071840042</v>
+        <v>-0.5276373039214921</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1508001071840042</v>
+        <v>-0.5276373039214921</v>
       </c>
     </row>
     <row r="5">
@@ -829,91 +829,91 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1116507394100296</v>
+        <v>0.0146877324595093</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1433098626923945</v>
+        <v>-0.005444507737780309</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01076934091077364</v>
+        <v>-0.01076943047877722</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08249621389184854</v>
+        <v>0.01196201443048058</v>
       </c>
       <c r="H5" t="n">
-        <v>0.008470465394818614</v>
+        <v>0.01323383601735344</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02530495195619807</v>
+        <v>0.002154241142169645</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01105606139924438</v>
+        <v>0.009109459236030314</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1736277661771106</v>
+        <v>0.0001795934471837378</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1736277661771106</v>
+        <v>0.0001795934471837378</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1736277661771106</v>
+        <v>0.0001795934471837378</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1736277661771106</v>
+        <v>0.0001795934471837378</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1736277661771106</v>
+        <v>0.0001795934471837378</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01966706123468245</v>
+        <v>-0.01022714988108599</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.06051702597268103</v>
+        <v>-0.01153022426920897</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.06051702597268103</v>
+        <v>-0.01153022426920897</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.06051702597268103</v>
+        <v>-0.01153022426920897</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.06051702597268103</v>
+        <v>-0.01153022426920897</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1099110903164436</v>
+        <v>-0.008121533412861336</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6536887663075507</v>
+        <v>-0.01152822401312896</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002569518534780741</v>
+        <v>0.002570434662817386</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2574395560575822</v>
+        <v>0.009688433379537334</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01175957327038293</v>
+        <v>0.01176799381471975</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1187164147646566</v>
+        <v>0.002570808966832358</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1092006035040241</v>
+        <v>0.01591773481270939</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1092006035040241</v>
+        <v>0.01591773481270939</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1092006035040241</v>
+        <v>0.01591773481270939</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1092006035040241</v>
+        <v>0.01591773481270939</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.1092006035040241</v>
+        <v>0.01591773481270939</v>
       </c>
     </row>
     <row r="6">
@@ -924,91 +924,91 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2770499595299983</v>
+        <v>0.2521845556873822</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.002243198393727935</v>
+        <v>-0.005461516154460645</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005428415353136614</v>
+        <v>0.00542875048915002</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02222064463282578</v>
+        <v>-0.01727051646682066</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.006998576439943056</v>
+        <v>-0.005183865231354608</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5774538410501536</v>
+        <v>-0.5695250052770001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1484767924496804</v>
+        <v>0.124344832742243</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03141453399258135</v>
+        <v>0.01868322324332893</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03141453399258135</v>
+        <v>0.01868322324332893</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03141453399258135</v>
+        <v>0.01868322324332893</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03141453399258135</v>
+        <v>0.01868322324332893</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03141453399258135</v>
+        <v>0.01868322324332893</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009789124519564981</v>
+        <v>0.01019629691985188</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04216570421462816</v>
+        <v>0.03469703341988133</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04216570421462816</v>
+        <v>0.03469703341988133</v>
       </c>
       <c r="S6" t="n">
-        <v>0.04216570421462816</v>
+        <v>0.03469703341988133</v>
       </c>
       <c r="T6" t="n">
-        <v>0.04216570421462816</v>
+        <v>0.03469703341988133</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05735354898214195</v>
+        <v>0.04343190586527623</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02071473481258939</v>
+        <v>-0.001405186328207453</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02792400063696002</v>
+        <v>-0.02792373558094942</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01396848804673952</v>
+        <v>0.03241753828870152</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.0009923803596952143</v>
+        <v>0.003553035310121412</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.2895362787494511</v>
+        <v>-0.2266887487155499</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.02742524701700988</v>
+        <v>-0.03543787456951497</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02742524701700988</v>
+        <v>-0.03543787456951497</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02742524701700988</v>
+        <v>-0.03543787456951497</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.02742524701700988</v>
+        <v>-0.03543787456951497</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.02742524701700988</v>
+        <v>-0.03543787456951497</v>
       </c>
     </row>
     <row r="7">
@@ -1019,91 +1019,91 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01322074824082993</v>
+        <v>-0.001467351994694079</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01175450811818032</v>
+        <v>0.001410016472400659</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.009326854645074184</v>
+        <v>-0.009327200629088024</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008916433028657319</v>
+        <v>0.01447553021102121</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0088485200339408</v>
+        <v>0.01335968559038742</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.001110164204406568</v>
+        <v>-0.001090583083623323</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.007269264011319215</v>
+        <v>-0.004767013922684847</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.01971837602073504</v>
+        <v>0.001428265209130608</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.01971837602073504</v>
+        <v>0.001428265209130608</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.01971837602073504</v>
+        <v>0.001428265209130608</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.01971837602073504</v>
+        <v>0.001428265209130608</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.01971837602073504</v>
+        <v>0.001428265209130608</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009755469798218791</v>
+        <v>-0.009061684106467363</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01845541081821643</v>
+        <v>-0.007114375580575022</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01845541081821643</v>
+        <v>-0.007114375580575022</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01845541081821643</v>
+        <v>-0.007114375580575022</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01845541081821643</v>
+        <v>-0.007114375580575022</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02060804079232163</v>
+        <v>0.007485989291439571</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007844667961786718</v>
+        <v>-0.0103853400314136</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01725476411419057</v>
+        <v>0.01726398097855924</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01530141373205655</v>
+        <v>0.007549956781998271</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.01073480961339238</v>
+        <v>0.009252419698096787</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02482898153715925</v>
+        <v>-0.008165943302637731</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01205130086605203</v>
+        <v>0.009093449163737966</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01205130086605203</v>
+        <v>0.009093449163737966</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01205130086605203</v>
+        <v>0.009093449163737966</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01205130086605203</v>
+        <v>0.009093449163737966</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01205130086605203</v>
+        <v>0.009093449163737966</v>
       </c>
     </row>
     <row r="8">
@@ -1114,91 +1114,91 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2555557270542291</v>
+        <v>0.2593495089659804</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001420882808835312</v>
+        <v>-0.002867273202690927</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001374112278964491</v>
+        <v>0.001373806038952241</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01595398940615957</v>
+        <v>0.009271515826860631</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.001561537790461512</v>
+        <v>-0.00241470576058823</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7380518057780722</v>
+        <v>0.7276707611708303</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1997932348986863</v>
+        <v>-0.1447639052721579</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.02131284805251392</v>
+        <v>-0.01532250646890026</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02131284805251392</v>
+        <v>-0.01532250646890026</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.02131284805251392</v>
+        <v>-0.01532250646890026</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.02131284805251392</v>
+        <v>-0.01532250646890026</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.02131284805251392</v>
+        <v>-0.01532250646890026</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.004472680978907239</v>
+        <v>-0.003540313965612558</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.02759540462381618</v>
+        <v>-0.02173258051730322</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02759540462381618</v>
+        <v>-0.02173258051730322</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.02759540462381618</v>
+        <v>-0.02173258051730322</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.02759540462381618</v>
+        <v>-0.02173258051730322</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02487107456284298</v>
+        <v>0.03469959441198377</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.004322193676887747</v>
+        <v>0.002577751783110071</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009687751875510072</v>
+        <v>0.009685204227408168</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.03478410446336418</v>
+        <v>-0.01994440226977609</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.003045803641832145</v>
+        <v>-0.003815855384634215</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3550687606027504</v>
+        <v>0.2906373682654947</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03168998488359939</v>
+        <v>0.0232323148492926</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.03168998488359939</v>
+        <v>0.0232323148492926</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.03168998488359939</v>
+        <v>0.0232323148492926</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.03168998488359939</v>
+        <v>0.0232323148492926</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.03168998488359939</v>
+        <v>0.0232323148492926</v>
       </c>
     </row>
     <row r="9">
@@ -1213,91 +1213,91 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4591266296930651</v>
+        <v>0.4635557895502315</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003303209604128384</v>
+        <v>-0.003382252455290097</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00192445975697839</v>
+        <v>-0.001924443724977749</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0009863274634530983</v>
+        <v>0.00535854952634198</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000364514126580565</v>
+        <v>0.004290691275627651</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008838861953554478</v>
+        <v>0.008833890209355608</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01532498352702152</v>
+        <v>0.001139660782543746</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01689225849969034</v>
+        <v>-0.007178218655128746</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01689225849969034</v>
+        <v>-0.007178218655128746</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01689225849969034</v>
+        <v>-0.007178218655128746</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01689225849969034</v>
+        <v>-0.007178218655128746</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01689225849969034</v>
+        <v>-0.007178218655128746</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.00262149725685989</v>
+        <v>-0.002157969206318768</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01509614325984573</v>
+        <v>-0.01170023720400949</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01509614325984573</v>
+        <v>-0.01170023720400949</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01509614325984573</v>
+        <v>-0.01170023720400949</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01509614325984573</v>
+        <v>-0.01170023720400949</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.6012176477287059</v>
+        <v>-0.5733622912224916</v>
       </c>
       <c r="V9" t="n">
-        <v>0.002256314106252564</v>
+        <v>-0.00275896676635867</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009567367390694694</v>
+        <v>0.00955655203026208</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.02240047155201886</v>
+        <v>0.005500317532012701</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.002616474632658985</v>
+        <v>0.001487734523509381</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.007756713238268528</v>
+        <v>0.02008775245151009</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01970650398826015</v>
+        <v>0.0002549236901969476</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01970650398826015</v>
+        <v>0.0002549236901969476</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01970650398826015</v>
+        <v>0.0002549236901969476</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01970650398826015</v>
+        <v>0.0002549236901969476</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01970650398826015</v>
+        <v>0.0002549236901969476</v>
       </c>
     </row>
     <row r="10">
@@ -1312,91 +1312,91 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5201515454140618</v>
+        <v>0.39668050178722</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02868284956331398</v>
+        <v>0.02498125165525006</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02962203718488148</v>
+        <v>-0.02962235283289411</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02938138687125547</v>
+        <v>0.02112105281284211</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03064438672977546</v>
+        <v>0.02368953464358138</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002853847410153896</v>
+        <v>-0.00455586651823466</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.00995070866573038</v>
+        <v>-0.02265774265334221</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02535069336602773</v>
+        <v>-0.01641916875276675</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02535069336602773</v>
+        <v>-0.01641916875276675</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02535069336602773</v>
+        <v>-0.01641916875276675</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02535069336602773</v>
+        <v>-0.01641916875276675</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02535069336602773</v>
+        <v>-0.01641916875276675</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02994230471769218</v>
+        <v>-0.02978987543159501</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02863802034552081</v>
+        <v>-0.0247721476148859</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02863802034552081</v>
+        <v>-0.0247721476148859</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02863802034552081</v>
+        <v>-0.0247721476148859</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02863802034552081</v>
+        <v>-0.0247721476148859</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6949789381991575</v>
+        <v>0.5098506160740245</v>
       </c>
       <c r="V10" t="n">
-        <v>0.002660347114413884</v>
+        <v>0.004523423412936936</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005849140361965613</v>
+        <v>0.005852239146089565</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.005950085326003413</v>
+        <v>-0.01233925153357006</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004825716577028663</v>
+        <v>-0.004994718247788729</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.008239143497565738</v>
+        <v>-0.02280606897624276</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01379189939967597</v>
+        <v>0.001579195839167834</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01379189939967597</v>
+        <v>0.001579195839167834</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01379189939967597</v>
+        <v>0.001579195839167834</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01379189939967597</v>
+        <v>0.001579195839167834</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01379189939967597</v>
+        <v>0.001579195839167834</v>
       </c>
     </row>
     <row r="11">
@@ -1411,91 +1411,91 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.0002334554973382198</v>
+        <v>-0.02983696660147866</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002898114931924597</v>
+        <v>-0.01033549318141973</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001790708231628329</v>
+        <v>-0.001790833415633336</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0007669742706789707</v>
+        <v>0.009969195182767806</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.001071932202877288</v>
+        <v>0.008729415901176634</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008680004219200168</v>
+        <v>0.008992957223718288</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.02625924242525057</v>
+        <v>0.006462468215927201</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001367698710707948</v>
+        <v>0.01328318462732738</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001367698710707948</v>
+        <v>0.01328318462732738</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001367698710707948</v>
+        <v>0.01328318462732738</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001367698710707948</v>
+        <v>0.01328318462732738</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001367698710707948</v>
+        <v>0.01328318462732738</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001735768965430759</v>
+        <v>-0.001034461097378444</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0005191628367665135</v>
+        <v>0.008242779401711175</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0005191628367665135</v>
+        <v>0.008242779401711175</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0005191628367665135</v>
+        <v>0.008242779401711175</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0005191628367665135</v>
+        <v>0.008242779401711175</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0107789099991564</v>
+        <v>-0.02911212202848488</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.002020335824813433</v>
+        <v>-0.01368592470743699</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01836895081475803</v>
+        <v>0.01837671155106846</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01387481047499242</v>
+        <v>0.006535809093432363</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.01424320290572811</v>
+        <v>0.01256552450262098</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.009902938188117527</v>
+        <v>-0.0004794278591771143</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.00823992877759715</v>
+        <v>0.02071997794879911</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.00823992877759715</v>
+        <v>0.02071997794879911</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.00823992877759715</v>
+        <v>0.02071997794879911</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.00823992877759715</v>
+        <v>0.02071997794879911</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.00823992877759715</v>
+        <v>0.02071997794879911</v>
       </c>
     </row>
     <row r="12">
@@ -1510,91 +1510,91 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.07458663216746526</v>
+        <v>0.0876427801457112</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008717855484714218</v>
+        <v>0.01451082941243317</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01178867298354692</v>
+        <v>-0.01178900187956007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01322201294488051</v>
+        <v>0.006207143480285739</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01309334375573375</v>
+        <v>0.006775875055035002</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004433787345351493</v>
+        <v>0.00388742674749707</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.003194763971547602</v>
+        <v>-0.0272971549068158</v>
       </c>
       <c r="K12" t="n">
-        <v>0.004019782816791312</v>
+        <v>-0.008638840569553621</v>
       </c>
       <c r="L12" t="n">
-        <v>0.004019782816791312</v>
+        <v>-0.008638840569553621</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004019782816791312</v>
+        <v>-0.008638840569553621</v>
       </c>
       <c r="N12" t="n">
-        <v>0.004019782816791312</v>
+        <v>-0.008638840569553621</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004019782816791312</v>
+        <v>-0.008638840569553621</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01142051210482048</v>
+        <v>-0.01245565297822612</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001634893697395748</v>
+        <v>-0.005559072894362915</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001634893697395748</v>
+        <v>-0.005559072894362915</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001634893697395748</v>
+        <v>-0.005559072894362915</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001634893697395748</v>
+        <v>-0.005559072894362915</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06697442687097707</v>
+        <v>0.07972555643702225</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0149328974613159</v>
+        <v>0.01059026125561045</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02836627140665085</v>
+        <v>0.02836826599873064</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.0132038850721554</v>
+        <v>-0.01207620105904804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01067973825118953</v>
+        <v>-0.01330150421206017</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.01219441805577672</v>
+        <v>-0.01913736930949477</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.02146264213850568</v>
+        <v>-0.003042154681686186</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02146264213850568</v>
+        <v>-0.003042154681686186</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.02146264213850568</v>
+        <v>-0.003042154681686186</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.02146264213850568</v>
+        <v>-0.003042154681686186</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02146264213850568</v>
+        <v>-0.003042154681686186</v>
       </c>
     </row>
     <row r="13">
@@ -1605,91 +1605,91 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3252013666080546</v>
+        <v>-0.3103176784607071</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0126909301716372</v>
+        <v>0.01860748788029951</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01724673419386937</v>
+        <v>-0.0172467076018683</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0193331624693265</v>
+        <v>0.009007542120301684</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01952371537294861</v>
+        <v>0.01084540478581619</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001131852909274116</v>
+        <v>-0.00206358401854336</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.008172457488509111</v>
+        <v>-0.01155887188006433</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006891534899661394</v>
+        <v>-0.01138173127126925</v>
       </c>
       <c r="L13" t="n">
-        <v>0.006891534899661394</v>
+        <v>-0.01138173127126925</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006891534899661394</v>
+        <v>-0.01138173127126925</v>
       </c>
       <c r="N13" t="n">
-        <v>0.006891534899661394</v>
+        <v>-0.01138173127126925</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006891534899661394</v>
+        <v>-0.01138173127126925</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01651333909253356</v>
+        <v>-0.01765990390639615</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002004683024187321</v>
+        <v>-0.01177420962296838</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002004683024187321</v>
+        <v>-0.01177420962296838</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002004683024187321</v>
+        <v>-0.01177420962296838</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002004683024187321</v>
+        <v>-0.01177420962296838</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07770186272407449</v>
+        <v>-0.06193577201343087</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01589750396390015</v>
+        <v>0.01252028622881145</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009586298111451922</v>
+        <v>-0.009592642463705697</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.007119307004772278</v>
+        <v>-0.007491089579643583</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01275411679816467</v>
+        <v>-0.01195741295829652</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.001702571300102852</v>
+        <v>0.001496499803859992</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01335810341432414</v>
+        <v>-0.012223950056958</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01335810341432414</v>
+        <v>-0.012223950056958</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01335810341432414</v>
+        <v>-0.012223950056958</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01335810341432414</v>
+        <v>-0.012223950056958</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01335810341432414</v>
+        <v>-0.012223950056958</v>
       </c>
     </row>
     <row r="14">
@@ -1704,91 +1704,91 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.072608042904322e-06</v>
+        <v>0.0006802945232117808</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0045449974937999</v>
+        <v>0.001380725143229006</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007051272186050886</v>
+        <v>-0.007051139418045575</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007492967723718707</v>
+        <v>0.005847048809881952</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0074490650019626</v>
+        <v>0.006836234097449364</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01818475608739024</v>
+        <v>-0.01889695467587818</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004592469165099511</v>
+        <v>0.006322265778201334</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.008540234549609381</v>
+        <v>-0.004507049460281977</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.008540234549609381</v>
+        <v>-0.004507049460281977</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008540234549609381</v>
+        <v>-0.004507049460281977</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.008540234549609381</v>
+        <v>-0.004507049460281977</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.008540234549609381</v>
+        <v>-0.004507049460281977</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.007066928634677144</v>
+        <v>-0.006505588964223557</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.009226962417078495</v>
+        <v>-0.003392380167695207</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.009226962417078495</v>
+        <v>-0.003392380167695207</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.009226962417078495</v>
+        <v>-0.003392380167695207</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.009226962417078495</v>
+        <v>-0.003392380167695207</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01977658658306346</v>
+        <v>0.009306276180251045</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.006572320294892811</v>
+        <v>-0.003844958841798353</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0001483543739341749</v>
+        <v>-0.0001376634295065372</v>
       </c>
       <c r="X14" t="n">
-        <v>0.005543757437750296</v>
+        <v>-0.007087711195508447</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.003784385335375413</v>
+        <v>0.003769554198782167</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.01894177285367091</v>
+        <v>-0.01541815520872621</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0002038345041533801</v>
+        <v>0.00960873052834922</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0002038345041533801</v>
+        <v>0.00960873052834922</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.0002038345041533801</v>
+        <v>0.00960873052834922</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0002038345041533801</v>
+        <v>0.00960873052834922</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0002038345041533801</v>
+        <v>0.00960873052834922</v>
       </c>
     </row>
     <row r="15">
@@ -1803,91 +1803,91 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.03291506618060264</v>
+        <v>-0.02184835200993408</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005581299775251989</v>
+        <v>-0.00289639950785598</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.00617382725495309</v>
+        <v>-0.006173563638942545</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00605418926616757</v>
+        <v>0.001719542852781714</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005684687939387516</v>
+        <v>0.004069676034787041</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01096976799079072</v>
+        <v>0.01029558290782331</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01222951562356254</v>
+        <v>6.660259472004996e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003297948131917925</v>
+        <v>0.001703479172139167</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003297948131917925</v>
+        <v>0.001703479172139167</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003297948131917925</v>
+        <v>0.001703479172139167</v>
       </c>
       <c r="N15" t="n">
-        <v>0.003297948131917925</v>
+        <v>0.001703479172139167</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003297948131917925</v>
+        <v>0.001703479172139167</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.006252369466094778</v>
+        <v>-0.005719880676795226</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002992058327682333</v>
+        <v>0.003655588658223546</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002992058327682333</v>
+        <v>0.003655588658223546</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002992058327682333</v>
+        <v>0.003655588658223546</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002992058327682333</v>
+        <v>0.003655588658223546</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05145982458639297</v>
+        <v>-0.03772100925284037</v>
       </c>
       <c r="V15" t="n">
-        <v>0.001012833160513326</v>
+        <v>0.0009207853808314152</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002615175272607011</v>
+        <v>0.002624165864966634</v>
       </c>
       <c r="X15" t="n">
-        <v>0.00224551650582066</v>
+        <v>0.009393146775725869</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001504612284184491</v>
+        <v>-0.001627282049091282</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01012103320484133</v>
+        <v>0.004993680199747207</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.00237535075101403</v>
+        <v>-0.009668580098743202</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.00237535075101403</v>
+        <v>-0.009668580098743202</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.00237535075101403</v>
+        <v>-0.009668580098743202</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.00237535075101403</v>
+        <v>-0.009668580098743202</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.00237535075101403</v>
+        <v>-0.009668580098743202</v>
       </c>
     </row>
     <row r="16">
@@ -1902,91 +1902,91 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0122334299613372</v>
+        <v>0.01043262310530492</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003440934185637367</v>
+        <v>0.005666173570646941</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.003009187128367485</v>
+        <v>-0.003008998872359955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004671475866859034</v>
+        <v>0.004548816277952651</v>
       </c>
       <c r="H16" t="n">
-        <v>0.004056001122240045</v>
+        <v>0.003858265402330615</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01559161675166467</v>
+        <v>-0.01513814614152584</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.007649892842991988</v>
+        <v>-0.009881960467579266</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0245188676367547</v>
+        <v>0.01503224632928985</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0245188676367547</v>
+        <v>0.01503224632928985</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0245188676367547</v>
+        <v>0.01503224632928985</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0245188676367547</v>
+        <v>0.01503224632928985</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0245188676367547</v>
+        <v>0.01503224632928985</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.002113158036526321</v>
+        <v>-0.002069260594770423</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02389544937181797</v>
+        <v>0.02215323458212938</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02389544937181797</v>
+        <v>0.02215323458212938</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02389544937181797</v>
+        <v>0.02215323458212938</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02389544937181797</v>
+        <v>0.02215323458212938</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004435430193417207</v>
+        <v>0.009171252846850114</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0002018855120754205</v>
+        <v>0.001908069196322768</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01412234869289395</v>
+        <v>0.01412229426089177</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.01017999333519973</v>
+        <v>-0.009742189733687588</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001170574030822961</v>
+        <v>-0.002302434908097396</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01405468289818731</v>
+        <v>-0.007588605039544201</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.003100233244009329</v>
+        <v>0.005032686921307476</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.003100233244009329</v>
+        <v>0.005032686921307476</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.003100233244009329</v>
+        <v>0.005032686921307476</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.003100233244009329</v>
+        <v>0.005032686921307476</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.003100233244009329</v>
+        <v>0.005032686921307476</v>
       </c>
     </row>
     <row r="17">
@@ -2001,91 +2001,91 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01763994224159769</v>
+        <v>-0.00534160802166432</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003722611156904446</v>
+        <v>0.01034420959776838</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.006032042929281716</v>
+        <v>-0.006032180401287215</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005980368335214733</v>
+        <v>-0.002293595131743805</v>
       </c>
       <c r="H17" t="n">
-        <v>0.008068310050732401</v>
+        <v>-7.648992305959692e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.007262933090517323</v>
+        <v>-0.0095770075190803</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00392633742567087</v>
+        <v>-0.008562490429692109</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001135496205419848</v>
+        <v>-0.01581954879278195</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001135496205419848</v>
+        <v>-0.01581954879278195</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001135496205419848</v>
+        <v>-0.01581954879278195</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.001135496205419848</v>
+        <v>-0.01581954879278195</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.001135496205419848</v>
+        <v>-0.01581954879278195</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.00598146628725865</v>
+        <v>-0.006775664719026587</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.002823635248945409</v>
+        <v>-0.0150809799632392</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.002823635248945409</v>
+        <v>-0.0150809799632392</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.002823635248945409</v>
+        <v>-0.0150809799632392</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.002823635248945409</v>
+        <v>-0.0150809799632392</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01257085423083417</v>
+        <v>0.0004627153145086126</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.009309831060393242</v>
+        <v>0.01134153338166133</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01910042466801698</v>
+        <v>0.0190915826836633</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01917300105492004</v>
+        <v>-0.004250555402022215</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01156087102243484</v>
+        <v>-0.01323909854556394</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.005905630124225205</v>
+        <v>-0.003721698580867943</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.008585235991409439</v>
+        <v>-0.01024685032987401</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.008585235991409439</v>
+        <v>-0.01024685032987401</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.008585235991409439</v>
+        <v>-0.01024685032987401</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.008585235991409439</v>
+        <v>-0.01024685032987401</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.008585235991409439</v>
+        <v>-0.01024685032987401</v>
       </c>
     </row>
     <row r="18">
@@ -2096,91 +2096,91 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01243274238530969</v>
+        <v>0.01499533567181342</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002900400980016038</v>
+        <v>0.03228419207536768</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01226184413847376</v>
+        <v>-0.01226178365847134</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01719371828774873</v>
+        <v>-0.004891340259653609</v>
       </c>
       <c r="H18" t="n">
-        <v>0.017880824971233</v>
+        <v>-0.001663084866523394</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001798846439953857</v>
+        <v>-0.007414298120571924</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01532978136721908</v>
+        <v>-0.005545319170470834</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01243456062538242</v>
+        <v>-0.0324538575861543</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01243456062538242</v>
+        <v>-0.0324538575861543</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01243456062538242</v>
+        <v>-0.0324538575861543</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01243456062538242</v>
+        <v>-0.0324538575861543</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01243456062538242</v>
+        <v>-0.0324538575861543</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01129110093164404</v>
+        <v>-0.01503417266536691</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.006180871735234869</v>
+        <v>-0.02213672478946899</v>
       </c>
       <c r="R18" t="n">
-        <v>0.006180871735234869</v>
+        <v>-0.02213672478946899</v>
       </c>
       <c r="S18" t="n">
-        <v>0.006180871735234869</v>
+        <v>-0.02213672478946899</v>
       </c>
       <c r="T18" t="n">
-        <v>0.006180871735234869</v>
+        <v>-0.02213672478946899</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01273995353359814</v>
+        <v>0.01708535693941428</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.04053771522150861</v>
+        <v>0.03964476158579046</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01218789168751567</v>
+        <v>-0.01219186771967471</v>
       </c>
       <c r="X18" t="n">
-        <v>0.005298264883930595</v>
+        <v>-0.02768981150759245</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03970264718810588</v>
+        <v>-0.03853205990928239</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01284446288177852</v>
+        <v>-0.0171048926521957</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02136486536659461</v>
+        <v>-0.02490207622808304</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02136486536659461</v>
+        <v>-0.02490207622808304</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.02136486536659461</v>
+        <v>-0.02490207622808304</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02136486536659461</v>
+        <v>-0.02490207622808304</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.02136486536659461</v>
+        <v>-0.02490207622808304</v>
       </c>
     </row>
     <row r="19">
@@ -2195,91 +2195,91 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01292317693292708</v>
+        <v>0.01024775839391034</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01844926576197063</v>
+        <v>0.003959581598383263</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01647914897916596</v>
+        <v>-0.01647921195516847</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01528126045125042</v>
+        <v>0.01721762363270494</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01502727324109093</v>
+        <v>0.01751913132476525</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01857067389482695</v>
+        <v>0.01939172947966918</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.017026860173098</v>
+        <v>0.007612435894891881</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02965293104211724</v>
+        <v>-0.007996985119879405</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02965293104211724</v>
+        <v>-0.007996985119879405</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02965293104211724</v>
+        <v>-0.007996985119879405</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.02965293104211724</v>
+        <v>-0.007996985119879405</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.02965293104211724</v>
+        <v>-0.007996985119879405</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01725359589014383</v>
+        <v>-0.01594232166169286</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02850308082012323</v>
+        <v>-0.01733109822924393</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02850308082012323</v>
+        <v>-0.01733109822924393</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02850308082012323</v>
+        <v>-0.01733109822924393</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.02850308082012323</v>
+        <v>-0.01733109822924393</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.008648550105942003</v>
+        <v>-0.01194599807783992</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01622704192908168</v>
+        <v>-0.008573514294940571</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006953656502146259</v>
+        <v>0.006965662358626492</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.02029738593189544</v>
+        <v>0.004715507996620319</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.008198073159922924</v>
+        <v>0.007936001981440078</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.006155848854233953</v>
+        <v>0.004951222470048898</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02226894770675791</v>
+        <v>0.01464268714570748</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02226894770675791</v>
+        <v>0.01464268714570748</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02226894770675791</v>
+        <v>0.01464268714570748</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02226894770675791</v>
+        <v>0.01464268714570748</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02226894770675791</v>
+        <v>0.01464268714570748</v>
       </c>
     </row>
     <row r="20">
@@ -2294,91 +2294,91 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01126367622654705</v>
+        <v>-0.007265123906604955</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01143747674549907</v>
+        <v>0.01772904099716164</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01435866739034669</v>
+        <v>-0.01435849209433968</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01474110682964427</v>
+        <v>0.007428472809138911</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01584765816990633</v>
+        <v>0.008583849463353978</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005729902885196114</v>
+        <v>0.003328045957121837</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.01225135356046174</v>
+        <v>-0.02517497205214586</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01165777525031101</v>
+        <v>-0.02137478312699132</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01165777525031101</v>
+        <v>-0.02137478312699132</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01165777525031101</v>
+        <v>-0.02137478312699132</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01165777525031101</v>
+        <v>-0.02137478312699132</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01165777525031101</v>
+        <v>-0.02137478312699132</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01409441777977671</v>
+        <v>-0.01572164462886578</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01445570035422801</v>
+        <v>-0.02385524044220961</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01445570035422801</v>
+        <v>-0.02385524044220961</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01445570035422801</v>
+        <v>-0.02385524044220961</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01445570035422801</v>
+        <v>-0.02385524044220961</v>
       </c>
       <c r="U20" t="n">
-        <v>0.004576317111052683</v>
+        <v>0.00735458602218344</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.008786878719475148</v>
+        <v>0.01477397195095887</v>
       </c>
       <c r="W20" t="n">
-        <v>0.006249415833976632</v>
+        <v>0.00624857352994294</v>
       </c>
       <c r="X20" t="n">
-        <v>0.006461133378445334</v>
+        <v>-0.02505022151400886</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01457264717490588</v>
+        <v>-0.01521820659272826</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.000123175300927012</v>
+        <v>-0.03570575922023037</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.007973193150927725</v>
+        <v>0.01330806466032258</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.007973193150927725</v>
+        <v>0.01330806466032258</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.007973193150927725</v>
+        <v>0.01330806466032258</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.007973193150927725</v>
+        <v>0.01330806466032258</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.007973193150927725</v>
+        <v>0.01330806466032258</v>
       </c>
     </row>
     <row r="21">
@@ -2389,91 +2389,91 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.00974267578170703</v>
+        <v>-0.01072745159709806</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01635339934213597</v>
+        <v>0.01112924694116988</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01573545672541827</v>
+        <v>-0.01573559054942362</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01431924143676966</v>
+        <v>0.01156498731059949</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01596776022271041</v>
+        <v>0.01178756159150246</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0195246551169862</v>
+        <v>0.01914957714998308</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.03041246923626384</v>
+        <v>-0.02165349803632886</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.004968927078757083</v>
+        <v>-0.005851853610074145</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.004968927078757083</v>
+        <v>-0.005851853610074145</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.004968927078757083</v>
+        <v>-0.005851853610074145</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.004968927078757083</v>
+        <v>-0.005851853610074145</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.004968927078757083</v>
+        <v>-0.005851853610074145</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.0157391900695676</v>
+        <v>-0.01700237040809481</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.005182267023290681</v>
+        <v>-0.01068831690753267</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.005182267023290681</v>
+        <v>-0.01068831690753267</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.005182267023290681</v>
+        <v>-0.01068831690753267</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.005182267023290681</v>
+        <v>-0.01068831690753267</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.007912762396510495</v>
+        <v>0.004283138379325534</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.001069568490782739</v>
+        <v>0.01025252815410112</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003954263966170558</v>
+        <v>0.003944160157766405</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.02341959645678385</v>
+        <v>-0.02328991485159659</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.01036382643055305</v>
+        <v>-0.0108184824487393</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.001526551165062046</v>
+        <v>-0.004793073695722947</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02470092732403709</v>
+        <v>0.02129868305994732</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02470092732403709</v>
+        <v>0.02129868305994732</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.02470092732403709</v>
+        <v>0.02129868305994732</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02470092732403709</v>
+        <v>0.02129868305994732</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02470092732403709</v>
+        <v>0.02129868305994732</v>
       </c>
     </row>
     <row r="22">
@@ -2484,91 +2484,91 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02959276476771059</v>
+        <v>-0.02413690301347612</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.003770082774803311</v>
+        <v>-0.002862700818508032</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002413399872535995</v>
+        <v>0.002413654080546163</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000225660201026408</v>
+        <v>-0.001129346733173869</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.002924413364976535</v>
+        <v>-0.0004510623540424941</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.008765203166608126</v>
+        <v>-0.009349732213989288</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.008513235374540981</v>
+        <v>0.0003571110865844167</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03299211415168456</v>
+        <v>-0.02199722843188913</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03299211415168456</v>
+        <v>-0.02199722843188913</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03299211415168456</v>
+        <v>-0.02199722843188913</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.03299211415168456</v>
+        <v>-0.02199722843188913</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03299211415168456</v>
+        <v>-0.02199722843188913</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0009300472692018907</v>
+        <v>0.001519618524784741</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03379688947987557</v>
+        <v>-0.02766689150667566</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03379688947987557</v>
+        <v>-0.02766689150667566</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.03379688947987557</v>
+        <v>-0.02766689150667566</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.03379688947987557</v>
+        <v>-0.02766689150667566</v>
       </c>
       <c r="U22" t="n">
-        <v>0.006391629471665179</v>
+        <v>0.003358220390328815</v>
       </c>
       <c r="V22" t="n">
-        <v>0.001886523819460952</v>
+        <v>-0.002201414200056568</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001594332927773317</v>
+        <v>0.001595695167827807</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.01721463400058536</v>
+        <v>-0.009183231247329249</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.002327976861119074</v>
+        <v>0.002089561619582465</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.01253512139740485</v>
+        <v>0.003409355560374222</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02053884581355383</v>
+        <v>0.01576294171851767</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02053884581355383</v>
+        <v>0.01576294171851767</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.02053884581355383</v>
+        <v>0.01576294171851767</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.02053884581355383</v>
+        <v>0.01576294171851767</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.02053884581355383</v>
+        <v>0.01576294171851767</v>
       </c>
     </row>
     <row r="23">
@@ -2579,91 +2579,91 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01050894099635764</v>
+        <v>-0.009877819787112789</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.00802029228881169</v>
+        <v>-0.01108589333943573</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009167024622680984</v>
+        <v>0.009167159022686359</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009197654479906177</v>
+        <v>-0.008414337264573489</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01048538873941555</v>
+        <v>-0.006894243443769737</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.002885511859420474</v>
+        <v>-0.003590737967629519</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.006261837809837434</v>
+        <v>0.006369276404121248</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005245244369809774</v>
+        <v>0.007505763180230526</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005245244369809774</v>
+        <v>0.007505763180230526</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005245244369809774</v>
+        <v>0.007505763180230526</v>
       </c>
       <c r="N23" t="n">
-        <v>0.005245244369809774</v>
+        <v>0.007505763180230526</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005245244369809774</v>
+        <v>0.007505763180230526</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008821149856845992</v>
+        <v>0.009510280892411233</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005564568702582748</v>
+        <v>0.008247009833880391</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005564568702582748</v>
+        <v>0.008247009833880391</v>
       </c>
       <c r="S23" t="n">
-        <v>0.005564568702582748</v>
+        <v>0.008247009833880391</v>
       </c>
       <c r="T23" t="n">
-        <v>0.005564568702582748</v>
+        <v>0.008247009833880391</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.007774887766995509</v>
+        <v>-0.009447301817892072</v>
       </c>
       <c r="V23" t="n">
-        <v>0.008103711492148457</v>
+        <v>-0.007367286342691452</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.002247560153902406</v>
+        <v>-0.002250618330024733</v>
       </c>
       <c r="X23" t="n">
-        <v>0.00256015651840626</v>
+        <v>0.01578001704720068</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.007362892806515712</v>
+        <v>0.007451189386047575</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.01003060120122405</v>
+        <v>0.01222065476082619</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.007371806118872243</v>
+        <v>-0.00493288176531527</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.007371806118872243</v>
+        <v>-0.00493288176531527</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.007371806118872243</v>
+        <v>-0.00493288176531527</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.007371806118872243</v>
+        <v>-0.00493288176531527</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.007371806118872243</v>
+        <v>-0.00493288176531527</v>
       </c>
     </row>
     <row r="24">
@@ -2678,91 +2678,91 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01467150807486032</v>
+        <v>-0.00626048300241932</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00545126777005071</v>
+        <v>0.01219878039195121</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007428013161120526</v>
+        <v>-0.00742803600912144</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008620000376800014</v>
+        <v>0.005864938314597531</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007708004468320179</v>
+        <v>0.005357057494282299</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01394079271763171</v>
+        <v>0.01286813878672555</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.002285622622112797</v>
+        <v>-0.006226070942272737</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01114327052573082</v>
+        <v>-0.002168367830734713</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01114327052573082</v>
+        <v>-0.002168367830734713</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01114327052573082</v>
+        <v>-0.002168367830734713</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01114327052573082</v>
+        <v>-0.002168367830734713</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01114327052573082</v>
+        <v>-0.002168367830734713</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.006726492845059713</v>
+        <v>-0.007634081681363266</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.008999216903968673</v>
+        <v>0.001397516983900679</v>
       </c>
       <c r="R24" t="n">
-        <v>0.008999216903968673</v>
+        <v>0.001397516983900679</v>
       </c>
       <c r="S24" t="n">
-        <v>0.008999216903968673</v>
+        <v>0.001397516983900679</v>
       </c>
       <c r="T24" t="n">
-        <v>0.008999216903968673</v>
+        <v>0.001397516983900679</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01807946097917843</v>
+        <v>0.0194440974817639</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.01253947672557907</v>
+        <v>0.01037021916680876</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0068610524984421</v>
+        <v>0.006854667250186689</v>
       </c>
       <c r="X24" t="n">
-        <v>0.005555046270201851</v>
+        <v>-0.005322273236890929</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01078364145534566</v>
+        <v>-0.01123124051324962</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.00938831624753265</v>
+        <v>0.001247295121891805</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.001325285621011425</v>
+        <v>-0.006523810340952413</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.001325285621011425</v>
+        <v>-0.006523810340952413</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.001325285621011425</v>
+        <v>-0.006523810340952413</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.001325285621011425</v>
+        <v>-0.006523810340952413</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.001325285621011425</v>
+        <v>-0.006523810340952413</v>
       </c>
     </row>
     <row r="25">
@@ -2773,91 +2773,91 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.009737655845506232</v>
+        <v>-0.004567328246693129</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01686670886666835</v>
+        <v>0.02396355590254223</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02210615282024611</v>
+        <v>-0.02210635048425402</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02421241498449659</v>
+        <v>0.01397057364682294</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02447870469114818</v>
+        <v>0.01570300162012006</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002588227303529091</v>
+        <v>-0.001415581976623279</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.0003980740003910951</v>
+        <v>-0.008401681735124681</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.004323884140955365</v>
+        <v>-0.01799428238377129</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.004323884140955365</v>
+        <v>-0.01799428238377129</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.004323884140955365</v>
+        <v>-0.01799428238377129</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.004323884140955365</v>
+        <v>-0.01799428238377129</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.004323884140955365</v>
+        <v>-0.01799428238377129</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02141754872870195</v>
+        <v>-0.02285394878615795</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.009695065347802612</v>
+        <v>-0.01836871571074863</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.009695065347802612</v>
+        <v>-0.01836871571074863</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.009695065347802612</v>
+        <v>-0.01836871571074863</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.009695065347802612</v>
+        <v>-0.01836871571074863</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.00773642027745681</v>
+        <v>0.004767600958704037</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.01986577385063095</v>
+        <v>0.01500218124008725</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01789601610784064</v>
+        <v>0.01788949050757962</v>
       </c>
       <c r="X25" t="n">
-        <v>0.004247524777900991</v>
+        <v>-0.01332552734902109</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01503642597745704</v>
+        <v>-0.01662157487286299</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.01119131190365247</v>
+        <v>-0.03018595119143804</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01765310182612407</v>
+        <v>-0.001449586905983476</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01765310182612407</v>
+        <v>-0.001449586905983476</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01765310182612407</v>
+        <v>-0.001449586905983476</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01765310182612407</v>
+        <v>-0.001449586905983476</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01765310182612407</v>
+        <v>-0.001449586905983476</v>
       </c>
     </row>
     <row r="26">
@@ -2872,91 +2872,91 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02396057807842312</v>
+        <v>0.03468976113159044</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01870228145209126</v>
+        <v>0.02801218979248759</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01876065060642602</v>
+        <v>-0.01876078942243158</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01789636189985447</v>
+        <v>0.008324075660963026</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02160733478429339</v>
+        <v>0.01154787818991513</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.006043422289736891</v>
+        <v>-0.00939673179986927</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.005501334322522942</v>
+        <v>-0.01773990226049761</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0185191801647672</v>
+        <v>-0.02573641619745665</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0185191801647672</v>
+        <v>-0.02573641619745665</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0185191801647672</v>
+        <v>-0.02573641619745665</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0185191801647672</v>
+        <v>-0.02573641619745665</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.0185191801647672</v>
+        <v>-0.02573641619745665</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01884377048175082</v>
+        <v>-0.0191821375672855</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02002481148899245</v>
+        <v>-0.02436565729462629</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02002481148899245</v>
+        <v>-0.02436565729462629</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02002481148899245</v>
+        <v>-0.02436565729462629</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02002481148899245</v>
+        <v>-0.02436565729462629</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.007114426076577043</v>
+        <v>0.003257378146295125</v>
       </c>
       <c r="V26" t="n">
-        <v>0.005333011605320463</v>
+        <v>0.01757409689496387</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01733622040544881</v>
+        <v>-0.01733189781327591</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.01739898607195944</v>
+        <v>-0.01981355522454221</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01781767319270693</v>
+        <v>-0.01623140704925628</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.03363360211334408</v>
+        <v>-0.02707404655496186</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02223801218552048</v>
+        <v>0.001507740444309618</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02223801218552048</v>
+        <v>0.001507740444309618</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02223801218552048</v>
+        <v>0.001507740444309618</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.02223801218552048</v>
+        <v>0.001507740444309618</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.02223801218552048</v>
+        <v>0.001507740444309618</v>
       </c>
     </row>
     <row r="27">
@@ -2967,91 +2967,91 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.003776336215053448</v>
+        <v>-0.006175048951001957</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01295046944601877</v>
+        <v>-0.01641820712072828</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01349850399594016</v>
+        <v>0.01349851100394044</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01247536139501446</v>
+        <v>-0.00871007074840283</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.01450509610020384</v>
+        <v>-0.01073190926127637</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01145844765833791</v>
+        <v>0.01381380160855206</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01407618422760096</v>
+        <v>0.01008174785173858</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01732195950887838</v>
+        <v>0.01359644857585794</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01732195950887838</v>
+        <v>0.01359644857585794</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01732195950887838</v>
+        <v>0.01359644857585794</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01732195950887838</v>
+        <v>0.01359644857585794</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01732195950887838</v>
+        <v>0.01359644857585794</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01356279471851179</v>
+        <v>0.0141322274772891</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.017185449999418</v>
+        <v>0.01516839363073574</v>
       </c>
       <c r="R27" t="n">
-        <v>0.017185449999418</v>
+        <v>0.01516839363073574</v>
       </c>
       <c r="S27" t="n">
-        <v>0.017185449999418</v>
+        <v>0.01516839363073574</v>
       </c>
       <c r="T27" t="n">
-        <v>0.017185449999418</v>
+        <v>0.01516839363073574</v>
       </c>
       <c r="U27" t="n">
-        <v>0.00112991399719656</v>
+        <v>-0.004548218869928755</v>
       </c>
       <c r="V27" t="n">
-        <v>0.000910893924435757</v>
+        <v>-0.01033058614122344</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01196371199854848</v>
+        <v>0.0119607974384319</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.01568262398730496</v>
+        <v>-4.022179360887174e-05</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.01034929020597161</v>
+        <v>0.009045571561822861</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.007144662717786509</v>
+        <v>0.005686880099475203</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.004383367567334702</v>
+        <v>0.007594300239772009</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.004383367567334702</v>
+        <v>0.007594300239772009</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.004383367567334702</v>
+        <v>0.007594300239772009</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.004383367567334702</v>
+        <v>0.007594300239772009</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.004383367567334702</v>
+        <v>0.007594300239772009</v>
       </c>
     </row>
     <row r="28">
@@ -3066,91 +3066,91 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.02988674721146988</v>
+        <v>-0.004526067061042682</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.07310553489222139</v>
+        <v>-0.03310681668427266</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02795684195027368</v>
+        <v>0.02795665398226616</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0001385956855438274</v>
+        <v>-0.01909566277982651</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.02523759172950367</v>
+        <v>-0.03676161430246457</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02510290977211639</v>
+        <v>0.01893907880556315</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01013556963334222</v>
+        <v>0.003692363430796122</v>
       </c>
       <c r="K28" t="n">
-        <v>0.07170493842019754</v>
+        <v>0.01336561906262476</v>
       </c>
       <c r="L28" t="n">
-        <v>0.07170493842019754</v>
+        <v>0.01336561906262476</v>
       </c>
       <c r="M28" t="n">
-        <v>0.07170493842019754</v>
+        <v>0.01336561906262476</v>
       </c>
       <c r="N28" t="n">
-        <v>0.07170493842019754</v>
+        <v>0.01336561906262476</v>
       </c>
       <c r="O28" t="n">
-        <v>0.07170493842019754</v>
+        <v>0.01336561906262476</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03204761792190471</v>
+        <v>0.02911777969271118</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03922665968106638</v>
+        <v>0.01405555928222237</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03922665968106638</v>
+        <v>0.01405555928222237</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03922665968106638</v>
+        <v>0.01405555928222237</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03922665968106638</v>
+        <v>0.01405555928222237</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.04244983446599337</v>
+        <v>-0.01614933395797336</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.2582039162481566</v>
+        <v>-0.03121263446450537</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915892239515688</v>
+        <v>0.9915876767195069</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07091453650058145</v>
+        <v>0.01086930638677225</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.03886077438643097</v>
+        <v>-0.05333909051756362</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.06882357913694316</v>
+        <v>0.03369812621192504</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.02822761552910462</v>
+        <v>-0.0006491359939654397</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02822761552910462</v>
+        <v>-0.0006491359939654397</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.02822761552910462</v>
+        <v>-0.0006491359939654397</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.02822761552910462</v>
+        <v>-0.0006491359939654397</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02822761552910462</v>
+        <v>-0.0006491359939654397</v>
       </c>
     </row>
     <row r="29">
@@ -3165,91 +3165,91 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01920847680033907</v>
+        <v>-0.01797223137488925</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.01579043487161739</v>
+        <v>-0.009973654094946162</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0174313676412547</v>
+        <v>0.01743116700124668</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01929756710790268</v>
+        <v>-0.01499456709578268</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.01669819343592773</v>
+        <v>-0.01660893964035758</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02410538947621558</v>
+        <v>-0.02441663848066553</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02551996746681018</v>
+        <v>0.004440733237359545</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.002597517127900685</v>
+        <v>-0.008409233808369353</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.002597517127900685</v>
+        <v>-0.008409233808369353</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.002597517127900685</v>
+        <v>-0.008409233808369353</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.002597517127900685</v>
+        <v>-0.008409233808369353</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.002597517127900685</v>
+        <v>-0.008409233808369353</v>
       </c>
       <c r="P29" t="n">
-        <v>0.0172989075079563</v>
+        <v>0.01679103494364139</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.000204890600195624</v>
+        <v>-0.007257309122292365</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.000204890600195624</v>
+        <v>-0.007257309122292365</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.000204890600195624</v>
+        <v>-0.007257309122292365</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.000204890600195624</v>
+        <v>-0.007257309122292365</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02138911621556465</v>
+        <v>-0.02417623459904938</v>
       </c>
       <c r="V29" t="n">
-        <v>0.001894137291765491</v>
+        <v>0.001533487741339509</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0212123699364948</v>
+        <v>0.02120944241637769</v>
       </c>
       <c r="X29" t="n">
-        <v>0.02229504223580168</v>
+        <v>0.003796036375841454</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.001302889876115595</v>
+        <v>-0.00334486026179441</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01278748860749954</v>
+        <v>-0.000703255228130209</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01684097443363898</v>
+        <v>-0.004603036408121455</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01684097443363898</v>
+        <v>-0.004603036408121455</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01684097443363898</v>
+        <v>-0.004603036408121455</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01684097443363898</v>
+        <v>-0.004603036408121455</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.01684097443363898</v>
+        <v>-0.004603036408121455</v>
       </c>
     </row>
     <row r="30">
@@ -3264,91 +3264,91 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01103845656953826</v>
+        <v>-0.02322643619305744</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0006444854657794185</v>
+        <v>-0.01647920321916813</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01444127433765097</v>
+        <v>0.01444122489764899</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01889220939568837</v>
+        <v>-0.009870038410801535</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01741705836068233</v>
+        <v>-0.009210446384417856</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02298321567132862</v>
+        <v>-0.01915791551831662</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04424958931002109</v>
+        <v>-0.01489663918437874</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01742080092083204</v>
+        <v>0.02726190646647625</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01742080092083204</v>
+        <v>0.02726190646647625</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01742080092083204</v>
+        <v>0.02726190646647625</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01742080092083204</v>
+        <v>0.02726190646647625</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01742080092083204</v>
+        <v>0.02726190646647625</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01342760540110421</v>
+        <v>0.01551985156479406</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02907276001091039</v>
+        <v>0.03291801338072053</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02907276001091039</v>
+        <v>0.03291801338072053</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02907276001091039</v>
+        <v>0.03291801338072053</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02907276001091039</v>
+        <v>0.03291801338072053</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01830851622034065</v>
+        <v>0.0004960942278437691</v>
       </c>
       <c r="V30" t="n">
-        <v>0.0587889477595579</v>
+        <v>-0.01115431071817243</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1101099917643996</v>
+        <v>0.1101205965968239</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01010020283600811</v>
+        <v>0.01719665915186636</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.02759121633564865</v>
+        <v>0.01629138295565532</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01390685335627413</v>
+        <v>0.003814071320562852</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.00885431728217269</v>
+        <v>-0.001035255209410208</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.00885431728217269</v>
+        <v>-0.001035255209410208</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.00885431728217269</v>
+        <v>-0.001035255209410208</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.00885431728217269</v>
+        <v>-0.001035255209410208</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.00885431728217269</v>
+        <v>-0.001035255209410208</v>
       </c>
     </row>
     <row r="31">
@@ -3363,91 +3363,91 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.002810782384431295</v>
+        <v>-0.006835144305405771</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.004145227461809097</v>
+        <v>-0.00627365477894619</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002408774976350999</v>
+        <v>0.002409016032360641</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0008502512980100518</v>
+        <v>0.00478613875144555</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.003690063891602556</v>
+        <v>0.002361668542466742</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01260401100016044</v>
+        <v>0.01350558668422347</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01106988477581358</v>
+        <v>-0.0001037621802376474</v>
       </c>
       <c r="K31" t="n">
-        <v>0.008057429122297162</v>
+        <v>0.00994063105362524</v>
       </c>
       <c r="L31" t="n">
-        <v>0.008057429122297162</v>
+        <v>0.00994063105362524</v>
       </c>
       <c r="M31" t="n">
-        <v>0.008057429122297162</v>
+        <v>0.00994063105362524</v>
       </c>
       <c r="N31" t="n">
-        <v>0.008057429122297162</v>
+        <v>0.00994063105362524</v>
       </c>
       <c r="O31" t="n">
-        <v>0.008057429122297162</v>
+        <v>0.00994063105362524</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002577841735113669</v>
+        <v>0.003259913698396548</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.004429335441173418</v>
+        <v>0.007464330346573213</v>
       </c>
       <c r="R31" t="n">
-        <v>0.004429335441173418</v>
+        <v>0.007464330346573213</v>
       </c>
       <c r="S31" t="n">
-        <v>0.004429335441173418</v>
+        <v>0.007464330346573213</v>
       </c>
       <c r="T31" t="n">
-        <v>0.004429335441173418</v>
+        <v>0.007464330346573213</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.006222582680903306</v>
+        <v>-0.01083217627328705</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.005945448237817929</v>
+        <v>-0.00842309025692361</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01074921575796863</v>
+        <v>0.01073888270155531</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.004020777952831118</v>
+        <v>0.004093200931728037</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.008816976640679064</v>
+        <v>0.007738250133530004</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.004542051061682041</v>
+        <v>0.007922375068895001</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.00341268052050722</v>
+        <v>0.002840851409634056</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.00341268052050722</v>
+        <v>0.002840851409634056</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.00341268052050722</v>
+        <v>0.002840851409634056</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.00341268052050722</v>
+        <v>0.002840851409634056</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.00341268052050722</v>
+        <v>0.002840851409634056</v>
       </c>
     </row>
     <row r="32">
@@ -3462,91 +3462,91 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.433112725580509</v>
+        <v>0.3038963947798557</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9775172146846886</v>
+        <v>0.7059016380600653</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9999573361582933</v>
+        <v>-0.9999573380782933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9907036661561465</v>
+        <v>0.9228081670563265</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9869956307758251</v>
+        <v>0.9435930520477219</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2937806976392279</v>
+        <v>0.306401326048053</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.6929598396693144</v>
+        <v>-0.6386596082588584</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5068393297135732</v>
+        <v>-0.2116959222918369</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.5068393297135732</v>
+        <v>-0.2116959222918369</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.5068393297135732</v>
+        <v>-0.2116959222918369</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5068393297135732</v>
+        <v>-0.2116959222918369</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.5068393297135732</v>
+        <v>-0.2116959222918369</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9991116310364652</v>
+        <v>-0.9967774252150968</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.5823355795814231</v>
+        <v>-0.4755769570710782</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.5823355795814231</v>
+        <v>-0.4755769570710782</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.5823355795814231</v>
+        <v>-0.4755769570710782</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.5823355795814231</v>
+        <v>-0.4755769570710782</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1452013407840536</v>
+        <v>-0.1128851046754042</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.005861654826466192</v>
+        <v>0.02474288182171527</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.0223357975014319</v>
+        <v>-0.0223291975971679</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.6209147089645882</v>
+        <v>-0.473461625594465</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02857808331912333</v>
+        <v>-0.02130840603633624</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.6008511295060451</v>
+        <v>-0.54333350326934</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7818136216085447</v>
+        <v>0.6059126802685072</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7818136216085447</v>
+        <v>0.6059126802685072</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.7818136216085447</v>
+        <v>0.6059126802685072</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.7818136216085447</v>
+        <v>0.6059126802685072</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.7818136216085447</v>
+        <v>0.6059126802685072</v>
       </c>
     </row>
     <row r="33">
@@ -3561,91 +3561,91 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.007695319603812784</v>
+        <v>0.00363365851334634</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.01410533173221327</v>
+        <v>0.00286986625879465</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009491405371656214</v>
+        <v>0.009491199355647973</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006808274096330964</v>
+        <v>-0.01404250616170024</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.006144108149764326</v>
+        <v>-0.01434435455777418</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002100471924018877</v>
+        <v>-0.001656497826259913</v>
       </c>
       <c r="J33" t="n">
-        <v>0.001927205839354628</v>
+        <v>0.01030501410085678</v>
       </c>
       <c r="K33" t="n">
-        <v>0.008293013611720542</v>
+        <v>-0.01411185416447417</v>
       </c>
       <c r="L33" t="n">
-        <v>0.008293013611720542</v>
+        <v>-0.01411185416447417</v>
       </c>
       <c r="M33" t="n">
-        <v>0.008293013611720542</v>
+        <v>-0.01411185416447417</v>
       </c>
       <c r="N33" t="n">
-        <v>0.008293013611720542</v>
+        <v>-0.01411185416447417</v>
       </c>
       <c r="O33" t="n">
-        <v>0.008293013611720542</v>
+        <v>-0.01411185416447417</v>
       </c>
       <c r="P33" t="n">
-        <v>0.009848968905958756</v>
+        <v>0.008106127236245087</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005581339231253568</v>
+        <v>-0.003793545463741818</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005581339231253568</v>
+        <v>-0.003793545463741818</v>
       </c>
       <c r="S33" t="n">
-        <v>0.005581339231253568</v>
+        <v>-0.003793545463741818</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005581339231253568</v>
+        <v>-0.003793545463741818</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.002192361111694444</v>
+        <v>0.01275949567837983</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.027352375142095</v>
+        <v>0.02053182898127315</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0097033675241347</v>
+        <v>0.009698693091947722</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01398695585547823</v>
+        <v>-0.01529406694776268</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02070782338831293</v>
+        <v>-0.02171892701275708</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.02024666298586652</v>
+        <v>0.004415577008623079</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.004564482710579309</v>
+        <v>-0.01279148691165947</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.004564482710579309</v>
+        <v>-0.01279148691165947</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.004564482710579309</v>
+        <v>-0.01279148691165947</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.004564482710579309</v>
+        <v>-0.01279148691165947</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.004564482710579309</v>
+        <v>-0.01279148691165947</v>
       </c>
     </row>
     <row r="34">
@@ -3660,91 +3660,91 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.002888602291544091</v>
+        <v>-0.00361656302466252</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00220429026417161</v>
+        <v>0.002046969681878787</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003597456719898268</v>
+        <v>-0.003597801455912058</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002529742565189703</v>
+        <v>0.00169069024362761</v>
       </c>
       <c r="H34" t="n">
-        <v>0.00287552699502108</v>
+        <v>0.003871858138874325</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01327982472319299</v>
+        <v>0.01362599401703976</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0537050055393573</v>
+        <v>-0.06003480302782135</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03242875598515024</v>
+        <v>0.0296578599703144</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03242875598515024</v>
+        <v>0.0296578599703144</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03242875598515024</v>
+        <v>0.0296578599703144</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03242875598515024</v>
+        <v>0.0296578599703144</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03242875598515024</v>
+        <v>0.0296578599703144</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001972266030890641</v>
+        <v>-0.001759279846371193</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.03099557307982292</v>
+        <v>0.04020852612034104</v>
       </c>
       <c r="R34" t="n">
-        <v>0.03099557307982292</v>
+        <v>0.04020852612034104</v>
       </c>
       <c r="S34" t="n">
-        <v>0.03099557307982292</v>
+        <v>0.04020852612034104</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03099557307982292</v>
+        <v>0.04020852612034104</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01203008236920329</v>
+        <v>-0.003819201080768043</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.00665778977031159</v>
+        <v>0.0002957865718314628</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01313522884540915</v>
+        <v>-0.01313500180540007</v>
       </c>
       <c r="X34" t="n">
-        <v>0.001548372061934882</v>
+        <v>0.003126927485077099</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0004204228968169158</v>
+        <v>0.0006658713866348553</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01435989494239579</v>
+        <v>0.01685504112220164</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.01645730936229237</v>
+        <v>0.01884193985767759</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01645730936229237</v>
+        <v>0.01884193985767759</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01645730936229237</v>
+        <v>0.01884193985767759</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.01645730936229237</v>
+        <v>0.01884193985767759</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.01645730936229237</v>
+        <v>0.01884193985767759</v>
       </c>
     </row>
     <row r="35">
@@ -3759,91 +3759,91 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.03370289914011596</v>
+        <v>-0.01886351125054045</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.03233770564550822</v>
+        <v>-0.008315046668601866</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0271571599022864</v>
+        <v>0.02715698825427952</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02405031398601256</v>
+        <v>-0.0328460224978409</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.02476387635055505</v>
+        <v>-0.03164759041790361</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.00778072850322914</v>
+        <v>-0.009788382055535281</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01093524765026976</v>
+        <v>0.004976594555244121</v>
       </c>
       <c r="K35" t="n">
-        <v>0.759080930235237</v>
+        <v>0.485282875507315</v>
       </c>
       <c r="L35" t="n">
-        <v>0.759080930235237</v>
+        <v>0.485282875507315</v>
       </c>
       <c r="M35" t="n">
-        <v>0.759080930235237</v>
+        <v>0.485282875507315</v>
       </c>
       <c r="N35" t="n">
-        <v>0.759080930235237</v>
+        <v>0.485282875507315</v>
       </c>
       <c r="O35" t="n">
-        <v>0.759080930235237</v>
+        <v>0.485282875507315</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05202660956906437</v>
+        <v>0.05040985708839428</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7573950952878038</v>
+        <v>0.7003405666376226</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7573950952878038</v>
+        <v>0.7003405666376226</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7573950952878038</v>
+        <v>0.7003405666376226</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7573950952878038</v>
+        <v>0.7003405666376226</v>
       </c>
       <c r="U35" t="n">
-        <v>0.003342892357715694</v>
+        <v>0.01218144730325789</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.02097465031098601</v>
+        <v>0.01282074195282968</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006255702010228079</v>
+        <v>-0.0006341535613661424</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02808708697948347</v>
+        <v>0.001723632644945306</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01237830270313211</v>
+        <v>-0.01232569470102779</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02542006623280264</v>
+        <v>0.006851394898055795</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.1991033711961348</v>
+        <v>-0.1375054810842192</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.1991033711961348</v>
+        <v>-0.1375054810842192</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.1991033711961348</v>
+        <v>-0.1375054810842192</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1991033711961348</v>
+        <v>-0.1375054810842192</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1991033711961348</v>
+        <v>-0.1375054810842192</v>
       </c>
     </row>
     <row r="36">
@@ -3858,91 +3858,91 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.005968449262737969</v>
+        <v>-0.006386396031455841</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0135509276780371</v>
+        <v>0.01665868156234726</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01397041774281671</v>
+        <v>-0.01397060964682438</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01140877284035091</v>
+        <v>0.006074252114970084</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0153446123897845</v>
+        <v>0.008229684233187368</v>
       </c>
       <c r="I36" t="n">
-        <v>0.002854072050162882</v>
+        <v>-0.0001198347887933915</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01006315059036029</v>
+        <v>-0.01408659335929647</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.002260960410438416</v>
+        <v>-0.011683899923356</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.002260960410438416</v>
+        <v>-0.011683899923356</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.002260960410438416</v>
+        <v>-0.011683899923356</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.002260960410438416</v>
+        <v>-0.011683899923356</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.002260960410438416</v>
+        <v>-0.011683899923356</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01354606076584243</v>
+        <v>-0.01467018557880742</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.001155077710203108</v>
+        <v>-0.01217138890285555</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.001155077710203108</v>
+        <v>-0.01217138890285555</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.001155077710203108</v>
+        <v>-0.01217138890285555</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.001155077710203108</v>
+        <v>-0.01217138890285555</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02645724998629</v>
+        <v>0.02451285419651416</v>
       </c>
       <c r="V36" t="n">
-        <v>0.003193437055737481</v>
+        <v>0.01080051652802066</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01618697863147914</v>
+        <v>0.01618756173550247</v>
       </c>
       <c r="X36" t="n">
-        <v>-1.160524846420994e-05</v>
+        <v>-0.01813086581323463</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01057870151114806</v>
+        <v>-0.01202572137702885</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.008264333226573328</v>
+        <v>-0.01937912890316515</v>
       </c>
       <c r="AA36" t="n">
-        <v>-0.00463796476151859</v>
+        <v>0.006454343106173724</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.00463796476151859</v>
+        <v>0.006454343106173724</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.00463796476151859</v>
+        <v>0.006454343106173724</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.00463796476151859</v>
+        <v>0.006454343106173724</v>
       </c>
       <c r="AE36" t="n">
-        <v>-0.00463796476151859</v>
+        <v>0.006454343106173724</v>
       </c>
     </row>
     <row r="37">
@@ -3957,91 +3957,91 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003053417978136719</v>
+        <v>0.0003751985430079417</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003466995690679827</v>
+        <v>-0.01254636424585457</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.003340387333615493</v>
+        <v>-0.003340665733626629</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004172249542889982</v>
+        <v>0.004255225994209039</v>
       </c>
       <c r="H37" t="n">
-        <v>0.001163787598551504</v>
+        <v>0.006142388597695543</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01614522707780908</v>
+        <v>0.0186752899950116</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.02389948303208511</v>
+        <v>0.01396975645852485</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0888768605790744</v>
+        <v>0.06050264901210595</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0888768605790744</v>
+        <v>0.06050264901210595</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0888768605790744</v>
+        <v>0.06050264901210595</v>
       </c>
       <c r="N37" t="n">
-        <v>0.0888768605790744</v>
+        <v>0.06050264901210595</v>
       </c>
       <c r="O37" t="n">
-        <v>0.0888768605790744</v>
+        <v>0.06050264901210595</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.000937285477491419</v>
+        <v>0.0004970504838820193</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.09008101579524062</v>
+        <v>0.07686215827448632</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09008101579524062</v>
+        <v>0.07686215827448632</v>
       </c>
       <c r="S37" t="n">
-        <v>0.09008101579524062</v>
+        <v>0.07686215827448632</v>
       </c>
       <c r="T37" t="n">
-        <v>0.09008101579524062</v>
+        <v>0.07686215827448632</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.007588438575537542</v>
+        <v>-0.01263412812136512</v>
       </c>
       <c r="V37" t="n">
-        <v>0.005651380930055236</v>
+        <v>-0.01615309696612388</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001486169915446797</v>
+        <v>-0.001489531451581258</v>
       </c>
       <c r="X37" t="n">
-        <v>0.00339223175168927</v>
+        <v>0.01357625919905036</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.01636385777455431</v>
+        <v>0.01659259736770389</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01706926225077049</v>
+        <v>0.0163568151182726</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.07498958066358322</v>
+        <v>0.06054390760575629</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.07498958066358322</v>
+        <v>0.06054390760575629</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.07498958066358322</v>
+        <v>0.06054390760575629</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.07498958066358322</v>
+        <v>0.06054390760575629</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.07498958066358322</v>
+        <v>0.06054390760575629</v>
       </c>
     </row>
     <row r="38">
@@ -4056,91 +4056,91 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.00711334281253371</v>
+        <v>0.00648243952329758</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.01580059042402361</v>
+        <v>-0.0126991475799659</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01466136452245458</v>
+        <v>0.01466128177045127</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01289543734781749</v>
+        <v>-0.01157520123100805</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.01529779539591181</v>
+        <v>-0.01166055233842209</v>
       </c>
       <c r="I38" t="n">
-        <v>0.001778353703134148</v>
+        <v>0.002447002465880098</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01139932587737864</v>
+        <v>0.01306574813360515</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01848313408332536</v>
+        <v>0.01214771232590849</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01848313408332536</v>
+        <v>0.01214771232590849</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01848313408332536</v>
+        <v>0.01214771232590849</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01848313408332536</v>
+        <v>0.01214771232590849</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01848313408332536</v>
+        <v>0.01214771232590849</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01479584948783398</v>
+        <v>0.01549233191569327</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01880543777621751</v>
+        <v>0.01644947115397884</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01880543777621751</v>
+        <v>0.01644947115397884</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01880543777621751</v>
+        <v>0.01644947115397884</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01880543777621751</v>
+        <v>0.01644947115397884</v>
       </c>
       <c r="U38" t="n">
-        <v>0.005399692727987709</v>
+        <v>-0.003356364230254569</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.004906690468267618</v>
+        <v>-0.008162066630482663</v>
       </c>
       <c r="W38" t="n">
-        <v>0.00150422799616912</v>
+        <v>0.001503782556151302</v>
       </c>
       <c r="X38" t="n">
-        <v>0.006963701942548076</v>
+        <v>0.01449596669183866</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.008281740811269632</v>
+        <v>0.007915548316621931</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.006404412256176489</v>
+        <v>0.01576625909465036</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.005617275488691019</v>
+        <v>-0.007707215156288605</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.005617275488691019</v>
+        <v>-0.007707215156288605</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.005617275488691019</v>
+        <v>-0.007707215156288605</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.005617275488691019</v>
+        <v>-0.007707215156288605</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.005617275488691019</v>
+        <v>-0.007707215156288605</v>
       </c>
     </row>
     <row r="39">
@@ -4155,91 +4155,91 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01798528967941158</v>
+        <v>-0.00365195400207816</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003517886540715461</v>
+        <v>-0.01837069494282779</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.001200285552011422</v>
+        <v>-0.001200047184001887</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0002069208082768323</v>
+        <v>0.006311851644474066</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.00346554925862197</v>
+        <v>0.006974427830977112</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.001608921952356878</v>
+        <v>0.0001489910459596418</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.000136490309620125</v>
+        <v>0.01159387396149381</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04529150533166021</v>
+        <v>0.06066963871478554</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04529150533166021</v>
+        <v>0.06066963871478554</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04529150533166021</v>
+        <v>0.06066963871478554</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04529150533166021</v>
+        <v>0.06066963871478554</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04529150533166021</v>
+        <v>0.06066963871478554</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.0002375272415010897</v>
+        <v>0.002892153907686156</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04800416044816641</v>
+        <v>0.06667305089092203</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04800416044816641</v>
+        <v>0.06667305089092203</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04800416044816641</v>
+        <v>0.06667305089092203</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04800416044816641</v>
+        <v>0.06667305089092203</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01160407889616315</v>
+        <v>-0.004456063186242527</v>
       </c>
       <c r="V39" t="n">
-        <v>0.01925972957038918</v>
+        <v>-0.02614864990994599</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006676763691070547</v>
+        <v>0.006680948043237921</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.01741416847256674</v>
+        <v>0.01991196166047847</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.02661168144846725</v>
+        <v>0.02592968878118755</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.007813551384542053</v>
+        <v>0.01191602332464093</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.007733189493327579</v>
+        <v>0.0188761600190464</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.007733189493327579</v>
+        <v>0.0188761600190464</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.007733189493327579</v>
+        <v>0.0188761600190464</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.007733189493327579</v>
+        <v>0.0188761600190464</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.007733189493327579</v>
+        <v>0.0188761600190464</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -730,190 +730,182 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil extraction efficiency [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4784948368677934</v>
+        <v>0.289680400675216</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7002276000731038</v>
+        <v>0.4004945681157827</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0233856950154278</v>
+        <v>-0.02338571440742857</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3224830387553215</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.29173399963736</v>
-      </c>
+        <v>-0.2536378195855127</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.1166261792250472</v>
+        <v>-0.08189522871580913</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.5098925581360121</v>
+        <v>-0.2293027920582293</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.8215454420458175</v>
+        <v>-0.2436114122404565</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.8215454420458175</v>
+        <v>-0.2436114122404565</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.8215454420458175</v>
+        <v>-0.2436114122404565</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.8215454420458175</v>
+        <v>-0.2436114122404565</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.8215454420458175</v>
+        <v>-0.2436114122404565</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.09541890583275621</v>
+        <v>-0.0606906551316262</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.4938893368115734</v>
+        <v>-0.02566517805060712</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.4938893368115734</v>
+        <v>-0.02566517805060712</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.4938893368115734</v>
+        <v>-0.02566517805060712</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.4938893368115734</v>
+        <v>-0.02566517805060712</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5246782361871293</v>
+        <v>0.3118361962494478</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9984003378240133</v>
+        <v>0.992739079165563</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01957804071912162</v>
+        <v>0.01957182519887301</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.7565348363733934</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>-0.9994968521718739</v>
-      </c>
+        <v>-0.6910615414024615</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>-0.5664983113959324</v>
+        <v>-0.3948661191866447</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.5276373039214921</v>
+        <v>-0.1795915071196603</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.5276373039214921</v>
+        <v>-0.1795915071196603</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.5276373039214921</v>
+        <v>-0.1795915071196603</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.5276373039214921</v>
+        <v>-0.1795915071196603</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.5276373039214921</v>
+        <v>-0.1795915071196603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0146877324595093</v>
+        <v>0.0215214575968583</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.005444507737780309</v>
+        <v>0.002924601044984041</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01076943047877722</v>
+        <v>-0.01076934091077364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01196201443048058</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01323383601735344</v>
-      </c>
+        <v>0.01192227551689102</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.002154241142169645</v>
+        <v>0.001497682139907285</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009109459236030314</v>
+        <v>-0.009796423552321052</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001795934471837378</v>
+        <v>-0.02007309651492386</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001795934471837378</v>
+        <v>-0.02007309651492386</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001795934471837378</v>
+        <v>-0.02007309651492386</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0001795934471837378</v>
+        <v>-0.02007309651492386</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001795934471837378</v>
+        <v>-0.02007309651492386</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01022714988108599</v>
+        <v>-0.0107576875663075</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.01153022426920897</v>
+        <v>-0.02364582363383294</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.01153022426920897</v>
+        <v>-0.02364582363383294</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.01153022426920897</v>
+        <v>-0.02364582363383294</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.01153022426920897</v>
+        <v>-0.02364582363383294</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.008121533412861336</v>
+        <v>-0.006536632581465303</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.01152822401312896</v>
+        <v>-0.01138057600722304</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002570434662817386</v>
+        <v>0.002574767910990716</v>
       </c>
       <c r="X5" t="n">
-        <v>0.009688433379537334</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.01176799381471975</v>
-      </c>
+        <v>0.009164915598596625</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>0.002570808966832358</v>
+        <v>0.006241236633649465</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01591773481270939</v>
+        <v>0.01231078388443135</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01591773481270939</v>
+        <v>0.01231078388443135</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01591773481270939</v>
+        <v>0.01231078388443135</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01591773481270939</v>
+        <v>0.01231078388443135</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01591773481270939</v>
+        <v>0.01231078388443135</v>
       </c>
     </row>
     <row r="6">
@@ -924,91 +916,87 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2521845556873822</v>
+        <v>0.2293911710956468</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.005461516154460645</v>
+        <v>-0.007040758649630345</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00542875048915002</v>
+        <v>0.005428415353136614</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01727051646682066</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.005183865231354608</v>
-      </c>
+        <v>-0.01414266344570653</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.5695250052770001</v>
+        <v>-0.5764127826405112</v>
       </c>
       <c r="J6" t="n">
-        <v>0.124344832742243</v>
+        <v>0.1449504066432534</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01868322324332893</v>
+        <v>0.01841437820857513</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01868322324332893</v>
+        <v>0.01841437820857513</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01868322324332893</v>
+        <v>0.01841437820857513</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01868322324332893</v>
+        <v>0.01841437820857513</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01868322324332893</v>
+        <v>0.01841437820857513</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01019629691985188</v>
+        <v>0.007866152090646084</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03469703341988133</v>
+        <v>0.02219300805572032</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03469703341988133</v>
+        <v>0.02219300805572032</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03469703341988133</v>
+        <v>0.02219300805572032</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03469703341988133</v>
+        <v>0.02219300805572032</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04343190586527623</v>
+        <v>0.03830029420401176</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.001405186328207453</v>
+        <v>0.0001492015739680629</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02792373558094942</v>
+        <v>-0.02792360569294422</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03241753828870152</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.003553035310121412</v>
-      </c>
+        <v>0.0329354675254187</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>-0.2266887487155499</v>
+        <v>-0.2093340027093601</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.03543787456951497</v>
+        <v>-0.03500326709613067</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.03543787456951497</v>
+        <v>-0.03500326709613067</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03543787456951497</v>
+        <v>-0.03500326709613067</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.03543787456951497</v>
+        <v>-0.03500326709613067</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.03543787456951497</v>
+        <v>-0.03500326709613067</v>
       </c>
     </row>
     <row r="7">
@@ -1019,91 +1007,87 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.001467351994694079</v>
+        <v>0.006091383315655331</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001410016472400659</v>
+        <v>0.006990547863621913</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.009327200629088024</v>
+        <v>-0.009326854645074184</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01447553021102121</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.01335968559038742</v>
-      </c>
+        <v>0.01346121577044863</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.001090583083623323</v>
+        <v>-0.001350972630038905</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.004767013922684847</v>
+        <v>-0.0169263116836768</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001428265209130608</v>
+        <v>-0.009054511466180457</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001428265209130608</v>
+        <v>-0.009054511466180457</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001428265209130608</v>
+        <v>-0.009054511466180457</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001428265209130608</v>
+        <v>-0.009054511466180457</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001428265209130608</v>
+        <v>-0.009054511466180457</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009061684106467363</v>
+        <v>-0.009326221141048844</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.007114375580575022</v>
+        <v>-0.01294499024579961</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.007114375580575022</v>
+        <v>-0.01294499024579961</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.007114375580575022</v>
+        <v>-0.01294499024579961</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.007114375580575022</v>
+        <v>-0.01294499024579961</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007485989291439571</v>
+        <v>0.009307808724312349</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.0103853400314136</v>
+        <v>-0.01129215136368605</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01726398097855924</v>
+        <v>0.01726239361849574</v>
       </c>
       <c r="X7" t="n">
-        <v>0.007549956781998271</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.009252419698096787</v>
-      </c>
+        <v>-0.009413182744527309</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>-0.008165943302637731</v>
+        <v>-0.01960800654432026</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009093449163737966</v>
+        <v>0.01793427143737086</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009093449163737966</v>
+        <v>0.01793427143737086</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.009093449163737966</v>
+        <v>0.01793427143737086</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.009093449163737966</v>
+        <v>0.01793427143737086</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.009093449163737966</v>
+        <v>0.01793427143737086</v>
       </c>
     </row>
     <row r="8">
@@ -1114,91 +1098,87 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2593495089659804</v>
+        <v>0.2277479877019195</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.002867273202690927</v>
+        <v>-0.002497081539883261</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001373806038952241</v>
+        <v>0.001374112278964491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009271515826860631</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.00241470576058823</v>
-      </c>
+        <v>0.006478940611157624</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.7276707611708303</v>
+        <v>0.7371658027346321</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1447639052721579</v>
+        <v>-0.1769784191360461</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01532250646890026</v>
+        <v>-0.001446961209878448</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01532250646890026</v>
+        <v>-0.001446961209878448</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.01532250646890026</v>
+        <v>-0.001446961209878448</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.01532250646890026</v>
+        <v>-0.001446961209878448</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.01532250646890026</v>
+        <v>-0.001446961209878448</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.003540313965612558</v>
+        <v>-0.001379976823199073</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.02173258051730322</v>
+        <v>-0.002943256917730276</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.02173258051730322</v>
+        <v>-0.002943256917730276</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.02173258051730322</v>
+        <v>-0.002943256917730276</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.02173258051730322</v>
+        <v>-0.002943256917730276</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03469959441198377</v>
+        <v>0.02654493782979751</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002577751783110071</v>
+        <v>0.0015441424937657</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009685204227408168</v>
+        <v>0.009686567715462707</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.01994440226977609</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>-0.003815855384634215</v>
-      </c>
+        <v>-0.02166127699445108</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2906373682654947</v>
+        <v>0.2671156077406243</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0232323148492926</v>
+        <v>0.02537955211918208</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0232323148492926</v>
+        <v>0.02537955211918208</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0232323148492926</v>
+        <v>0.02537955211918208</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0232323148492926</v>
+        <v>0.02537955211918208</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0232323148492926</v>
+        <v>0.02537955211918208</v>
       </c>
     </row>
     <row r="9">
@@ -1213,91 +1193,87 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4635557895502315</v>
+        <v>0.4699076134843045</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.003382252455290097</v>
+        <v>-0.002101372980054919</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001924443724977749</v>
+        <v>-0.00192445975697839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00535854952634198</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.004290691275627651</v>
-      </c>
+        <v>0.005908470380338814</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.008833890209355608</v>
+        <v>0.008662806874512274</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001139660782543746</v>
+        <v>-0.003152521424824635</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.007178218655128746</v>
+        <v>-0.01307783802711352</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.007178218655128746</v>
+        <v>-0.01307783802711352</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.007178218655128746</v>
+        <v>-0.01307783802711352</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.007178218655128746</v>
+        <v>-0.01307783802711352</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.007178218655128746</v>
+        <v>-0.01307783802711352</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.002157969206318768</v>
+        <v>-0.002461519202460768</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01170023720400949</v>
+        <v>-0.01444405910576236</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01170023720400949</v>
+        <v>-0.01444405910576236</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01170023720400949</v>
+        <v>-0.01444405910576236</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01170023720400949</v>
+        <v>-0.01444405910576236</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5733622912224916</v>
+        <v>-0.5827041883001673</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.00275896676635867</v>
+        <v>-0.003769652598786104</v>
       </c>
       <c r="W9" t="n">
-        <v>0.00955655203026208</v>
+        <v>0.009554303230172128</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005500317532012701</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.001487734523509381</v>
-      </c>
+        <v>0.005493220827728832</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.02008775245151009</v>
+        <v>0.02978246855129874</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0002549236901969476</v>
+        <v>0.01025423589816944</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0002549236901969476</v>
+        <v>0.01025423589816944</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0002549236901969476</v>
+        <v>0.01025423589816944</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.0002549236901969476</v>
+        <v>0.01025423589816944</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0002549236901969476</v>
+        <v>0.01025423589816944</v>
       </c>
     </row>
     <row r="10">
@@ -1312,91 +1288,87 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.39668050178722</v>
+        <v>0.5241831497673259</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02498125165525006</v>
+        <v>0.03045029017801161</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02962235283289411</v>
+        <v>-0.02962203718488148</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02112105281284211</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.02368953464358138</v>
-      </c>
+        <v>0.02199837803193512</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.00455586651823466</v>
+        <v>-0.004569046934761877</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02265774265334221</v>
+        <v>-0.02044262281936734</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01641916875276675</v>
+        <v>-0.02837363489494539</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01641916875276675</v>
+        <v>-0.02837363489494539</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.01641916875276675</v>
+        <v>-0.02837363489494539</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.01641916875276675</v>
+        <v>-0.02837363489494539</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.01641916875276675</v>
+        <v>-0.02837363489494539</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02978987543159501</v>
+        <v>-0.02966437577857503</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0247721476148859</v>
+        <v>-0.02800340550413621</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0247721476148859</v>
+        <v>-0.02800340550413621</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0247721476148859</v>
+        <v>-0.02800340550413621</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.0247721476148859</v>
+        <v>-0.02800340550413621</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5098506160740245</v>
+        <v>0.6665046421161855</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004523423412936936</v>
+        <v>0.00368580427543217</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005852239146089565</v>
+        <v>0.0058541450341658</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01233925153357006</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>-0.004994718247788729</v>
-      </c>
+        <v>-0.01401609800064392</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-0.02280606897624276</v>
+        <v>-0.02131627400465096</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001579195839167834</v>
+        <v>0.01427517570700703</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.001579195839167834</v>
+        <v>0.01427517570700703</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001579195839167834</v>
+        <v>0.01427517570700703</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.001579195839167834</v>
+        <v>0.01427517570700703</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.001579195839167834</v>
+        <v>0.01427517570700703</v>
       </c>
     </row>
     <row r="11">
@@ -1411,91 +1383,87 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.02983696660147866</v>
+        <v>-0.006541736037669441</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01033549318141973</v>
+        <v>-0.00631786278071451</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001790833415633336</v>
+        <v>-0.001790708231628329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.009969195182767806</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.008729415901176634</v>
-      </c>
+        <v>0.008355439726217589</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.008992957223718288</v>
+        <v>0.009176801935072075</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006462468215927201</v>
+        <v>-0.0006793369237604241</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01328318462732738</v>
+        <v>0.004916143300645731</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01328318462732738</v>
+        <v>0.004916143300645731</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01328318462732738</v>
+        <v>0.004916143300645731</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01328318462732738</v>
+        <v>0.004916143300645731</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01328318462732738</v>
+        <v>0.004916143300645731</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001034461097378444</v>
+        <v>-0.001304201236168049</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.008242779401711175</v>
+        <v>0.001535980189439208</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008242779401711175</v>
+        <v>0.001535980189439208</v>
       </c>
       <c r="S11" t="n">
-        <v>0.008242779401711175</v>
+        <v>0.001535980189439208</v>
       </c>
       <c r="T11" t="n">
-        <v>0.008242779401711175</v>
+        <v>0.001535980189439208</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.02911212202848488</v>
+        <v>-0.0176034549441382</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01368592470743699</v>
+        <v>-0.01463933597757344</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01837671155106846</v>
+        <v>0.01837813590312543</v>
       </c>
       <c r="X11" t="n">
-        <v>0.006535809093432363</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.01256552450262098</v>
-      </c>
+        <v>0.01173064866122595</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>-0.0004794278591771143</v>
+        <v>-0.00187949949917998</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02071997794879911</v>
+        <v>0.01072190702087628</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02071997794879911</v>
+        <v>0.01072190702087628</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.02071997794879911</v>
+        <v>0.01072190702087628</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02071997794879911</v>
+        <v>0.01072190702087628</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.02071997794879911</v>
+        <v>0.01072190702087628</v>
       </c>
     </row>
     <row r="12">
@@ -1510,91 +1478,87 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0876427801457112</v>
+        <v>0.06378179093527164</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01451082941243317</v>
+        <v>0.01368025696321028</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01178900187956007</v>
+        <v>-0.01178867298354692</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006207143480285739</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.006775875055035002</v>
-      </c>
+        <v>0.007999422943976917</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.00388742674749707</v>
+        <v>0.004087869955514798</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0272971549068158</v>
+        <v>-0.0050064726845845</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.008638840569553621</v>
+        <v>-0.0007690329907613196</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.008638840569553621</v>
+        <v>-0.0007690329907613196</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.008638840569553621</v>
+        <v>-0.0007690329907613196</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.008638840569553621</v>
+        <v>-0.0007690329907613196</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.008638840569553621</v>
+        <v>-0.0007690329907613196</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01245565297822612</v>
+        <v>-0.01190946086037843</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.005559072894362915</v>
+        <v>0.00103335200933408</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.005559072894362915</v>
+        <v>0.00103335200933408</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.005559072894362915</v>
+        <v>0.00103335200933408</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.005559072894362915</v>
+        <v>0.00103335200933408</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07972555643702225</v>
+        <v>0.06009472627578905</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01059026125561045</v>
+        <v>0.008309428652377146</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02836826599873064</v>
+        <v>0.02836769604670784</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01207620105904804</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-0.01330150421206017</v>
-      </c>
+        <v>-0.01320931032037241</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>-0.01913736930949477</v>
+        <v>-0.01429601221984049</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.003042154681686186</v>
+        <v>0.006004332336173293</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.003042154681686186</v>
+        <v>0.006004332336173293</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.003042154681686186</v>
+        <v>0.006004332336173293</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.003042154681686186</v>
+        <v>0.006004332336173293</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.003042154681686186</v>
+        <v>0.006004332336173293</v>
       </c>
     </row>
     <row r="13">
@@ -1605,91 +1569,87 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3103176784607071</v>
+        <v>-0.2733594994463799</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01860748788029951</v>
+        <v>0.0204715048828602</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0172467076018683</v>
+        <v>-0.01724673419386937</v>
       </c>
       <c r="G13" t="n">
-        <v>0.009007542120301684</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01084540478581619</v>
-      </c>
+        <v>0.01197673737506949</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.00206358401854336</v>
+        <v>-0.001433212953328518</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01155887188006433</v>
+        <v>-0.004604109116142314</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01138173127126925</v>
+        <v>-0.008012837120513483</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.01138173127126925</v>
+        <v>-0.008012837120513483</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.01138173127126925</v>
+        <v>-0.008012837120513483</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.01138173127126925</v>
+        <v>-0.008012837120513483</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.01138173127126925</v>
+        <v>-0.008012837120513483</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01765990390639615</v>
+        <v>-0.01756769158270766</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.01177420962296838</v>
+        <v>-0.004902705220108209</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.01177420962296838</v>
+        <v>-0.004902705220108209</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.01177420962296838</v>
+        <v>-0.004902705220108209</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.01177420962296838</v>
+        <v>-0.004902705220108209</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.06193577201343087</v>
+        <v>-0.06175324259812969</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01252028622881145</v>
+        <v>0.01277570854302834</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009592642463705697</v>
+        <v>-0.009595073663802946</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.007491089579643583</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>-0.01195741295829652</v>
-      </c>
+        <v>-0.02004674336186973</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>0.001496499803859992</v>
+        <v>-0.01034304665372186</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.012223950056958</v>
+        <v>0.008915092484603699</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.012223950056958</v>
+        <v>0.008915092484603699</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.012223950056958</v>
+        <v>0.008915092484603699</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.012223950056958</v>
+        <v>0.008915092484603699</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.012223950056958</v>
+        <v>0.008915092484603699</v>
       </c>
     </row>
     <row r="14">
@@ -1704,91 +1664,87 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0006802945232117808</v>
+        <v>0.006102638740105549</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001380725143229006</v>
+        <v>0.00566938477077539</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007051139418045575</v>
+        <v>-0.007051272186050886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005847048809881952</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.006836234097449364</v>
-      </c>
+        <v>0.005050133194005327</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.01889695467587818</v>
+        <v>-0.01937697965507918</v>
       </c>
       <c r="J14" t="n">
-        <v>0.006322265778201334</v>
+        <v>0.005762658619485282</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.004507049460281977</v>
+        <v>-0.005992677743707108</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004507049460281977</v>
+        <v>-0.005992677743707108</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.004507049460281977</v>
+        <v>-0.005992677743707108</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.004507049460281977</v>
+        <v>-0.005992677743707108</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.004507049460281977</v>
+        <v>-0.005992677743707108</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.006505588964223557</v>
+        <v>-0.006545258565810342</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.003392380167695207</v>
+        <v>-0.006711615052464601</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.003392380167695207</v>
+        <v>-0.006711615052464601</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.003392380167695207</v>
+        <v>-0.006711615052464601</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.003392380167695207</v>
+        <v>-0.006711615052464601</v>
       </c>
       <c r="U14" t="n">
-        <v>0.009306276180251045</v>
+        <v>0.02192586865303475</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.003844958841798353</v>
+        <v>-0.003951624158064966</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.0001376634295065372</v>
+        <v>-0.000139222949568918</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.007087711195508447</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.003769554198782167</v>
-      </c>
+        <v>0.002084287859371514</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>-0.01541815520872621</v>
+        <v>-0.007814862840594513</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.00960873052834922</v>
+        <v>0.001248330673933227</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00960873052834922</v>
+        <v>0.001248330673933227</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.00960873052834922</v>
+        <v>0.001248330673933227</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.00960873052834922</v>
+        <v>0.001248330673933227</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.00960873052834922</v>
+        <v>0.001248330673933227</v>
       </c>
     </row>
     <row r="15">
@@ -1803,91 +1759,87 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02184835200993408</v>
+        <v>-0.03082585064103402</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.00289639950785598</v>
+        <v>0.00242521401700856</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006173563638942545</v>
+        <v>-0.00617382725495309</v>
       </c>
       <c r="G15" t="n">
-        <v>0.001719542852781714</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.004069676034787041</v>
-      </c>
+        <v>0.003639137809565512</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.01029558290782331</v>
+        <v>0.01078286462331458</v>
       </c>
       <c r="J15" t="n">
-        <v>6.660259472004996e-05</v>
+        <v>0.002298140445911211</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001703479172139167</v>
+        <v>0.001767552742702109</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001703479172139167</v>
+        <v>0.001767552742702109</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001703479172139167</v>
+        <v>0.001767552742702109</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001703479172139167</v>
+        <v>0.001767552742702109</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001703479172139167</v>
+        <v>0.001767552742702109</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.005719880676795226</v>
+        <v>-0.00620365052014602</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.003655588658223546</v>
+        <v>0.002230852793234112</v>
       </c>
       <c r="R15" t="n">
-        <v>0.003655588658223546</v>
+        <v>0.002230852793234112</v>
       </c>
       <c r="S15" t="n">
-        <v>0.003655588658223546</v>
+        <v>0.002230852793234112</v>
       </c>
       <c r="T15" t="n">
-        <v>0.003655588658223546</v>
+        <v>0.002230852793234112</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.03772100925284037</v>
+        <v>-0.04950223657208946</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0009207853808314152</v>
+        <v>0.0008905608356224332</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002624165864966634</v>
+        <v>0.002622357128894285</v>
       </c>
       <c r="X15" t="n">
-        <v>0.009393146775725869</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>-0.001627282049091282</v>
-      </c>
+        <v>-0.002049558609982344</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>0.004993680199747207</v>
+        <v>-0.007776996887079875</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.009668580098743202</v>
+        <v>-0.0008701343388053735</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.009668580098743202</v>
+        <v>-0.0008701343388053735</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.009668580098743202</v>
+        <v>-0.0008701343388053735</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.009668580098743202</v>
+        <v>-0.0008701343388053735</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.009668580098743202</v>
+        <v>-0.0008701343388053735</v>
       </c>
     </row>
     <row r="16">
@@ -1902,91 +1854,87 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01043262310530492</v>
+        <v>0.01053483363739335</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005666173570646941</v>
+        <v>0.004566293462651738</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.003008998872359955</v>
+        <v>-0.003009187128367485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004548816277952651</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.003858265402330615</v>
-      </c>
+        <v>0.003224195456967818</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.01513814614152584</v>
+        <v>-0.01540507722420309</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.009881960467579266</v>
+        <v>0.002651042844332215</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01503224632928985</v>
+        <v>0.02611886542875461</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01503224632928985</v>
+        <v>0.02611886542875461</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01503224632928985</v>
+        <v>0.02611886542875461</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01503224632928985</v>
+        <v>0.02611886542875461</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01503224632928985</v>
+        <v>0.02611886542875461</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.002069260594770423</v>
+        <v>-0.002000278352011134</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02215323458212938</v>
+        <v>0.02765884949035398</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02215323458212938</v>
+        <v>0.02765884949035398</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02215323458212938</v>
+        <v>0.02765884949035398</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02215323458212938</v>
+        <v>0.02765884949035398</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009171252846850114</v>
+        <v>0.01186886044275442</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001908069196322768</v>
+        <v>0.001317159604686384</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01412229426089177</v>
+        <v>0.01412165854886634</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.009742189733687588</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>-0.002302434908097396</v>
-      </c>
+        <v>-0.005468189306727571</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>-0.007588605039544201</v>
+        <v>-0.01565412869016514</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.005032686921307476</v>
+        <v>-0.01081302724852109</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.005032686921307476</v>
+        <v>-0.01081302724852109</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.005032686921307476</v>
+        <v>-0.01081302724852109</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.005032686921307476</v>
+        <v>-0.01081302724852109</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.005032686921307476</v>
+        <v>-0.01081302724852109</v>
       </c>
     </row>
     <row r="17">
@@ -2001,91 +1949,87 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.00534160802166432</v>
+        <v>-0.01382391732095669</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01034420959776838</v>
+        <v>0.008550467670018705</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.006032180401287215</v>
+        <v>-0.006032042929281716</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.002293595131743805</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-7.648992305959692e-05</v>
-      </c>
+        <v>0.0004285562091422483</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.0095770075190803</v>
+        <v>-0.008861223906448954</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.008562490429692109</v>
+        <v>0.006734077139181328</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01581954879278195</v>
+        <v>-0.01260402780016111</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01581954879278195</v>
+        <v>-0.01260402780016111</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01581954879278195</v>
+        <v>-0.01260402780016111</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01581954879278195</v>
+        <v>-0.01260402780016111</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01581954879278195</v>
+        <v>-0.01260402780016111</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.006775664719026587</v>
+        <v>-0.006776681167067247</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0150809799632392</v>
+        <v>-0.009017961672718466</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0150809799632392</v>
+        <v>-0.009017961672718466</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0150809799632392</v>
+        <v>-0.009017961672718466</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0150809799632392</v>
+        <v>-0.009017961672718466</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0004627153145086126</v>
+        <v>-0.01677733151909326</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01134153338166133</v>
+        <v>0.009923799948951996</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0190915826836633</v>
+        <v>0.01908773135550925</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.004250555402022215</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>-0.01323909854556394</v>
-      </c>
+        <v>-0.01701796973671878</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>-0.003721698580867943</v>
+        <v>-0.01710655393226216</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.01024685032987401</v>
+        <v>0.01590029458801178</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.01024685032987401</v>
+        <v>0.01590029458801178</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.01024685032987401</v>
+        <v>0.01590029458801178</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.01024685032987401</v>
+        <v>0.01590029458801178</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.01024685032987401</v>
+        <v>0.01590029458801178</v>
       </c>
     </row>
     <row r="18">
@@ -2096,91 +2040,87 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01499533567181342</v>
+        <v>0.004277501931100076</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03228419207536768</v>
+        <v>0.0253988300719532</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01226178365847134</v>
+        <v>-0.01226184413847376</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.004891340259653609</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-0.001663084866523394</v>
-      </c>
+        <v>-0.001816637352665494</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.007414298120571924</v>
+        <v>-0.006847699281907971</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.005545319170470834</v>
+        <v>-0.02240751509166069</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0324538575861543</v>
+        <v>-0.01241510603260424</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0324538575861543</v>
+        <v>-0.01241510603260424</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.0324538575861543</v>
+        <v>-0.01241510603260424</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0324538575861543</v>
+        <v>-0.01241510603260424</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0324538575861543</v>
+        <v>-0.01241510603260424</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01503417266536691</v>
+        <v>-0.01363892867355714</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.02213672478946899</v>
+        <v>-0.00356797876671915</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.02213672478946899</v>
+        <v>-0.00356797876671915</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.02213672478946899</v>
+        <v>-0.00356797876671915</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.02213672478946899</v>
+        <v>-0.00356797876671915</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01708535693941428</v>
+        <v>0.007794812855792513</v>
       </c>
       <c r="V18" t="n">
-        <v>0.03964476158579046</v>
+        <v>0.03987132025085281</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01219186771967471</v>
+        <v>-0.0121925124557005</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.02768981150759245</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>-0.03853205990928239</v>
-      </c>
+        <v>-0.02151685938867437</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>-0.0171048926521957</v>
+        <v>-0.00995809777432391</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.02490207622808304</v>
+        <v>0.004747759101910364</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.02490207622808304</v>
+        <v>0.004747759101910364</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.02490207622808304</v>
+        <v>0.004747759101910364</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.02490207622808304</v>
+        <v>0.004747759101910364</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.02490207622808304</v>
+        <v>0.004747759101910364</v>
       </c>
     </row>
     <row r="19">
@@ -2195,91 +2135,87 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01024775839391034</v>
+        <v>0.0153436826297473</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003959581598383263</v>
+        <v>0.01152495972499839</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01647921195516847</v>
+        <v>-0.01647914897916596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01721762363270494</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.01751913132476525</v>
-      </c>
+        <v>0.01704614928984597</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01939172947966918</v>
+        <v>0.01931742374869695</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007612435894891881</v>
+        <v>0.002303180494117167</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.007996985119879405</v>
+        <v>-0.02136511141460445</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.007996985119879405</v>
+        <v>-0.02136511141460445</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.007996985119879405</v>
+        <v>-0.02136511141460445</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.007996985119879405</v>
+        <v>-0.02136511141460445</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.007996985119879405</v>
+        <v>-0.02136511141460445</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01594232166169286</v>
+        <v>-0.01627027898681116</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.01733109822924393</v>
+        <v>-0.02438591396743656</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.01733109822924393</v>
+        <v>-0.02438591396743656</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01733109822924393</v>
+        <v>-0.02438591396743656</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01733109822924393</v>
+        <v>-0.02438591396743656</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.01194599807783992</v>
+        <v>-0.007861664858466594</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.008573514294940571</v>
+        <v>-0.00875637452625498</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006965662358626492</v>
+        <v>0.006965317238612688</v>
       </c>
       <c r="X19" t="n">
-        <v>0.004715507996620319</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.007936001981440078</v>
-      </c>
+        <v>0.001788234983529399</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>0.004951222470048898</v>
+        <v>-0.006644443753777749</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01464268714570748</v>
+        <v>0.02357737447909498</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01464268714570748</v>
+        <v>0.02357737447909498</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01464268714570748</v>
+        <v>0.02357737447909498</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01464268714570748</v>
+        <v>0.02357737447909498</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01464268714570748</v>
+        <v>0.02357737447909498</v>
       </c>
     </row>
     <row r="20">
@@ -2294,91 +2230,87 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.007265123906604955</v>
+        <v>-0.009303958452158336</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01772904099716164</v>
+        <v>0.0173944450797778</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01435849209433968</v>
+        <v>-0.01435866739034669</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007428472809138911</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.008583849463353978</v>
-      </c>
+        <v>0.009169001166760046</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.003328045957121837</v>
+        <v>0.003620457936818317</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.02517497205214586</v>
+        <v>-0.002668274317036362</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.02137478312699132</v>
+        <v>-0.0199871801594872</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.02137478312699132</v>
+        <v>-0.0199871801594872</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.02137478312699132</v>
+        <v>-0.0199871801594872</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.02137478312699132</v>
+        <v>-0.0199871801594872</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.02137478312699132</v>
+        <v>-0.0199871801594872</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01572164462886578</v>
+        <v>-0.0150744050189762</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.02385524044220961</v>
+        <v>-0.0178441075617643</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.02385524044220961</v>
+        <v>-0.0178441075617643</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.02385524044220961</v>
+        <v>-0.0178441075617643</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.02385524044220961</v>
+        <v>-0.0178441075617643</v>
       </c>
       <c r="U20" t="n">
-        <v>0.00735458602218344</v>
+        <v>0.005513502844540112</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01477397195095887</v>
+        <v>0.01428251308330052</v>
       </c>
       <c r="W20" t="n">
-        <v>0.00624857352994294</v>
+        <v>0.006247902201916087</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.02505022151400886</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>-0.01521820659272826</v>
-      </c>
+        <v>-0.01142167668086707</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>-0.03570575922023037</v>
+        <v>-0.017147875021915</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01330806466032258</v>
+        <v>0.01105565957822638</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01330806466032258</v>
+        <v>0.01105565957822638</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01330806466032258</v>
+        <v>0.01105565957822638</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01330806466032258</v>
+        <v>0.01105565957822638</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.01330806466032258</v>
+        <v>0.01105565957822638</v>
       </c>
     </row>
     <row r="21">
@@ -2389,91 +2321,87 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01072745159709806</v>
+        <v>-0.01094732578189303</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01112924694116988</v>
+        <v>0.01461249552849982</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01573559054942362</v>
+        <v>-0.01573545672541827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01156498731059949</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.01178756159150246</v>
-      </c>
+        <v>0.01204911456196458</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01914957714998308</v>
+        <v>0.01912325193293007</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02165349803632886</v>
+        <v>-0.006477492360696248</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.005851853610074145</v>
+        <v>-0.009078312171132485</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.005851853610074145</v>
+        <v>-0.009078312171132485</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.005851853610074145</v>
+        <v>-0.009078312171132485</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.005851853610074145</v>
+        <v>-0.009078312171132485</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.005851853610074145</v>
+        <v>-0.009078312171132485</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01700237040809481</v>
+        <v>-0.01603813216152528</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.01068831690753267</v>
+        <v>-0.007686899155475965</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.01068831690753267</v>
+        <v>-0.007686899155475965</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.01068831690753267</v>
+        <v>-0.007686899155475965</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01068831690753267</v>
+        <v>-0.007686899155475965</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004283138379325534</v>
+        <v>0.009762515430500615</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01025252815410112</v>
+        <v>0.009137561645502465</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003944160157766405</v>
+        <v>0.003942888829715553</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.02328991485159659</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>-0.0108184824487393</v>
-      </c>
+        <v>0.002502957796118312</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>-0.004793073695722947</v>
+        <v>0.004025958209038328</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02129868305994732</v>
+        <v>0.01212436954097478</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02129868305994732</v>
+        <v>0.01212436954097478</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.02129868305994732</v>
+        <v>0.01212436954097478</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02129868305994732</v>
+        <v>0.01212436954097478</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02129868305994732</v>
+        <v>0.01212436954097478</v>
       </c>
     </row>
     <row r="22">
@@ -2484,91 +2412,87 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02413690301347612</v>
+        <v>-0.02815333437413337</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.002862700818508032</v>
+        <v>-0.002627224617088984</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002413654080546163</v>
+        <v>0.002413399872535995</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001129346733173869</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.0004510623540424941</v>
-      </c>
+        <v>-0.001649933537997341</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.009349732213989288</v>
+        <v>-0.009595958207838326</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003571110865844167</v>
+        <v>0.01740255119113785</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.02199722843188913</v>
+        <v>-0.03228081959523278</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.02199722843188913</v>
+        <v>-0.03228081959523278</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.02199722843188913</v>
+        <v>-0.03228081959523278</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.02199722843188913</v>
+        <v>-0.03228081959523278</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.02199722843188913</v>
+        <v>-0.03228081959523278</v>
       </c>
       <c r="P22" t="n">
-        <v>0.001519618524784741</v>
+        <v>0.00162536924901477</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.02766689150667566</v>
+        <v>-0.03270595858823833</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.02766689150667566</v>
+        <v>-0.03270595858823833</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.02766689150667566</v>
+        <v>-0.03270595858823833</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.02766689150667566</v>
+        <v>-0.03270595858823833</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003358220390328815</v>
+        <v>0.0136266701450668</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.002201414200056568</v>
+        <v>-0.002096326451853058</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001595695167827807</v>
+        <v>0.001597171359886854</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.009183231247329249</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.002089561619582465</v>
-      </c>
+        <v>0.008261840586473624</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>0.003409355560374222</v>
+        <v>0.001767994726719789</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01576294171851767</v>
+        <v>-0.003788952151558085</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01576294171851767</v>
+        <v>-0.003788952151558085</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.01576294171851767</v>
+        <v>-0.003788952151558085</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.01576294171851767</v>
+        <v>-0.003788952151558085</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.01576294171851767</v>
+        <v>-0.003788952151558085</v>
       </c>
     </row>
     <row r="23">
@@ -2579,91 +2503,87 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.009877819787112789</v>
+        <v>-0.01514772050990882</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.01108589333943573</v>
+        <v>-0.01268503269940131</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009167159022686359</v>
+        <v>0.009167024622680984</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.008414337264573489</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.006894243443769737</v>
-      </c>
+        <v>-0.007940351837614072</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.003590737967629519</v>
+        <v>-0.003197732959909318</v>
       </c>
       <c r="J23" t="n">
-        <v>0.006369276404121248</v>
+        <v>0.02410108735286683</v>
       </c>
       <c r="K23" t="n">
-        <v>0.007505763180230526</v>
+        <v>0.00592851729314069</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007505763180230526</v>
+        <v>0.00592851729314069</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007505763180230526</v>
+        <v>0.00592851729314069</v>
       </c>
       <c r="N23" t="n">
-        <v>0.007505763180230526</v>
+        <v>0.00592851729314069</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007505763180230526</v>
+        <v>0.00592851729314069</v>
       </c>
       <c r="P23" t="n">
-        <v>0.009510280892411233</v>
+        <v>0.009356300438252016</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.008247009833880391</v>
+        <v>0.005269983570799342</v>
       </c>
       <c r="R23" t="n">
-        <v>0.008247009833880391</v>
+        <v>0.005269983570799342</v>
       </c>
       <c r="S23" t="n">
-        <v>0.008247009833880391</v>
+        <v>0.005269983570799342</v>
       </c>
       <c r="T23" t="n">
-        <v>0.008247009833880391</v>
+        <v>0.005269983570799342</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.009447301817892072</v>
+        <v>-0.01264264437770577</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.007367286342691452</v>
+        <v>-0.006956431862257274</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.002250618330024733</v>
+        <v>-0.002253813978152559</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01578001704720068</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.007451189386047575</v>
-      </c>
+        <v>0.01096394386255775</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>0.01222065476082619</v>
+        <v>0.007814529336581173</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.00493288176531527</v>
+        <v>0.003057084794283392</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.00493288176531527</v>
+        <v>0.003057084794283392</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.00493288176531527</v>
+        <v>0.003057084794283392</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.00493288176531527</v>
+        <v>0.003057084794283392</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.00493288176531527</v>
+        <v>0.003057084794283392</v>
       </c>
     </row>
     <row r="24">
@@ -2678,91 +2598,87 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.00626048300241932</v>
+        <v>-0.01085057841802313</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01219878039195121</v>
+        <v>0.009319922772796909</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00742803600912144</v>
+        <v>-0.007428013161120526</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005864938314597531</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.005357057494282299</v>
-      </c>
+        <v>0.006745765517830619</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01286813878672555</v>
+        <v>0.01330532328421293</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.006226070942272737</v>
+        <v>-0.01044280708273487</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.002168367830734713</v>
+        <v>0.006913270740530829</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.002168367830734713</v>
+        <v>0.006913270740530829</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.002168367830734713</v>
+        <v>0.006913270740530829</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.002168367830734713</v>
+        <v>0.006913270740530829</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.002168367830734713</v>
+        <v>0.006913270740530829</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.007634081681363266</v>
+        <v>-0.007261966562478662</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.001397516983900679</v>
+        <v>0.007975296127011844</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001397516983900679</v>
+        <v>0.007975296127011844</v>
       </c>
       <c r="S24" t="n">
-        <v>0.001397516983900679</v>
+        <v>0.007975296127011844</v>
       </c>
       <c r="T24" t="n">
-        <v>0.001397516983900679</v>
+        <v>0.007975296127011844</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0194440974817639</v>
+        <v>0.0202212125208485</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01037021916680876</v>
+        <v>0.009648685057947401</v>
       </c>
       <c r="W24" t="n">
-        <v>0.006854667250186689</v>
+        <v>0.006853682866147314</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.005322273236890929</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>-0.01123124051324962</v>
-      </c>
+        <v>-0.001820273160810926</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>0.001247295121891805</v>
+        <v>-0.008872695618907824</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.006523810340952413</v>
+        <v>-0.002558150790326031</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.006523810340952413</v>
+        <v>-0.002558150790326031</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.006523810340952413</v>
+        <v>-0.002558150790326031</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.006523810340952413</v>
+        <v>-0.002558150790326031</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.006523810340952413</v>
+        <v>-0.002558150790326031</v>
       </c>
     </row>
     <row r="25">
@@ -2773,91 +2689,87 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.004567328246693129</v>
+        <v>-0.003715862644634505</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02396355590254223</v>
+        <v>0.02488608166744326</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02210635048425402</v>
+        <v>-0.02210615282024611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01397057364682294</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.01570300162012006</v>
-      </c>
+        <v>0.01682344137693765</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.001415581976623279</v>
+        <v>-0.001326755957070238</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.008401681735124681</v>
+        <v>-0.01735157475705475</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01799428238377129</v>
+        <v>-0.01748256194730248</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01799428238377129</v>
+        <v>-0.01748256194730248</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01799428238377129</v>
+        <v>-0.01748256194730248</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.01799428238377129</v>
+        <v>-0.01748256194730248</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.01799428238377129</v>
+        <v>-0.01748256194730248</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02285394878615795</v>
+        <v>-0.02252051802082072</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.01836871571074863</v>
+        <v>-0.01468407303536292</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.01836871571074863</v>
+        <v>-0.01468407303536292</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.01836871571074863</v>
+        <v>-0.01468407303536292</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.01836871571074863</v>
+        <v>-0.01468407303536292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004767600958704037</v>
+        <v>-0.001748508933940357</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01500218124008725</v>
+        <v>0.01380079216803169</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01788949050757962</v>
+        <v>0.01789418721176748</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01332552734902109</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>-0.01662157487286299</v>
-      </c>
+        <v>-0.01388457569138303</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>-0.03018595119143804</v>
+        <v>-0.01335313954212558</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.001449586905983476</v>
+        <v>0.01415201384608055</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.001449586905983476</v>
+        <v>0.01415201384608055</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.001449586905983476</v>
+        <v>0.01415201384608055</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.001449586905983476</v>
+        <v>0.01415201384608055</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.001449586905983476</v>
+        <v>0.01415201384608055</v>
       </c>
     </row>
     <row r="26">
@@ -2872,91 +2784,87 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03468976113159044</v>
+        <v>0.03432719676508787</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02801218979248759</v>
+        <v>0.02532112594084504</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01876078942243158</v>
+        <v>-0.01876065060642602</v>
       </c>
       <c r="G26" t="n">
-        <v>0.008324075660963026</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.01154787818991513</v>
-      </c>
+        <v>0.01117140668685627</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.00939673179986927</v>
+        <v>-0.008941041477641657</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01773990226049761</v>
+        <v>-0.01874433095796834</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02573641619745665</v>
+        <v>-0.02630785929231437</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.02573641619745665</v>
+        <v>-0.02630785929231437</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.02573641619745665</v>
+        <v>-0.02630785929231437</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.02573641619745665</v>
+        <v>-0.02630785929231437</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.02573641619745665</v>
+        <v>-0.02630785929231437</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.0191821375672855</v>
+        <v>-0.01933226870929074</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02436565729462629</v>
+        <v>-0.02336354301454172</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02436565729462629</v>
+        <v>-0.02336354301454172</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02436565729462629</v>
+        <v>-0.02336354301454172</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02436565729462629</v>
+        <v>-0.02336354301454172</v>
       </c>
       <c r="U26" t="n">
-        <v>0.003257378146295125</v>
+        <v>-0.0003218797568751902</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01757409689496387</v>
+        <v>0.01899256866370274</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01733189781327591</v>
+        <v>-0.01733453138138125</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.01981355522454221</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>-0.01623140704925628</v>
-      </c>
+        <v>-0.02832308820492352</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>-0.02707404655496186</v>
+        <v>-0.03055314429412577</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.001507740444309618</v>
+        <v>0.01607214880288595</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.001507740444309618</v>
+        <v>0.01607214880288595</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.001507740444309618</v>
+        <v>0.01607214880288595</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.001507740444309618</v>
+        <v>0.01607214880288595</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.001507740444309618</v>
+        <v>0.01607214880288595</v>
       </c>
     </row>
     <row r="27">
@@ -2967,91 +2875,87 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.006175048951001957</v>
+        <v>-0.002597834983913399</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01641820712072828</v>
+        <v>-0.01575174975006999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01349851100394044</v>
+        <v>0.01349850399594016</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.00871007074840283</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.01073190926127637</v>
-      </c>
+        <v>-0.009533471325338851</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.01381380160855206</v>
+        <v>0.01369805181192207</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01008174785173858</v>
+        <v>0.02486148077593955</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01359644857585794</v>
+        <v>0.0204764774910591</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01359644857585794</v>
+        <v>0.0204764774910591</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01359644857585794</v>
+        <v>0.0204764774910591</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01359644857585794</v>
+        <v>0.0204764774910591</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01359644857585794</v>
+        <v>0.0204764774910591</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0141322274772891</v>
+        <v>0.01416639416665576</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01516839363073574</v>
+        <v>0.02016929543077181</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01516839363073574</v>
+        <v>0.02016929543077181</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01516839363073574</v>
+        <v>0.02016929543077181</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01516839363073574</v>
+        <v>0.02016929543077181</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.004548218869928755</v>
+        <v>0.002598498631939945</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.01033058614122344</v>
+        <v>-0.01125317478612699</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0119607974384319</v>
+        <v>0.01195829087833163</v>
       </c>
       <c r="X27" t="n">
-        <v>-4.022179360887174e-05</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.009045571561822861</v>
-      </c>
+        <v>0.0162529601061184</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>0.005686880099475203</v>
+        <v>0.00395228175809127</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.007594300239772009</v>
+        <v>-0.02513077214123088</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.007594300239772009</v>
+        <v>-0.02513077214123088</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.007594300239772009</v>
+        <v>-0.02513077214123088</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.007594300239772009</v>
+        <v>-0.02513077214123088</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.007594300239772009</v>
+        <v>-0.02513077214123088</v>
       </c>
     </row>
     <row r="28">
@@ -3066,91 +2970,87 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.004526067061042682</v>
+        <v>-0.01937211514288461</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.03310681668427266</v>
+        <v>-0.05473687975747518</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02795665398226616</v>
+        <v>0.02795684195027368</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01909566277982651</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-0.03676161430246457</v>
-      </c>
+        <v>-0.006047818897912755</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.01893907880556315</v>
+        <v>0.02567529673901187</v>
       </c>
       <c r="J28" t="n">
-        <v>0.003692363430796122</v>
+        <v>0.01484643411068468</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01336561906262476</v>
+        <v>0.03455301315812052</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01336561906262476</v>
+        <v>0.03455301315812052</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01336561906262476</v>
+        <v>0.03455301315812052</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01336561906262476</v>
+        <v>0.03455301315812052</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01336561906262476</v>
+        <v>0.03455301315812052</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02911777969271118</v>
+        <v>0.03083077150523086</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01405555928222237</v>
+        <v>0.01910861442834457</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01405555928222237</v>
+        <v>0.01910861442834457</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01405555928222237</v>
+        <v>0.01910861442834457</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01405555928222237</v>
+        <v>0.01910861442834457</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.01614933395797336</v>
+        <v>-0.02680802142432085</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.03121263446450537</v>
+        <v>-0.09462936743317468</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915876767195069</v>
+        <v>0.9915872814874912</v>
       </c>
       <c r="X28" t="n">
-        <v>0.01086930638677225</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-0.05333909051756362</v>
-      </c>
+        <v>0.04803076588923063</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>0.03369812621192504</v>
+        <v>0.05366767088270683</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.0006491359939654397</v>
+        <v>0.005908837484353499</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.0006491359939654397</v>
+        <v>0.005908837484353499</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.0006491359939654397</v>
+        <v>0.005908837484353499</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.0006491359939654397</v>
+        <v>0.005908837484353499</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.0006491359939654397</v>
+        <v>0.005908837484353499</v>
       </c>
     </row>
     <row r="29">
@@ -3165,91 +3065,87 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01797223137488925</v>
+        <v>-0.01981299660051986</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.009973654094946162</v>
+        <v>-0.01495918955836758</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01743116700124668</v>
+        <v>0.0174313676412547</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01499456709578268</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.01660893964035758</v>
-      </c>
+        <v>-0.01544269146570766</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02441663848066553</v>
+        <v>-0.02394744124589765</v>
       </c>
       <c r="J29" t="n">
-        <v>0.004440733237359545</v>
+        <v>-0.005313085801113938</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.008409233808369353</v>
+        <v>-0.006445296833811873</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.008409233808369353</v>
+        <v>-0.006445296833811873</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.008409233808369353</v>
+        <v>-0.006445296833811873</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.008409233808369353</v>
+        <v>-0.006445296833811873</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.008409233808369353</v>
+        <v>-0.006445296833811873</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01679103494364139</v>
+        <v>0.01676085811043432</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.007257309122292365</v>
+        <v>-0.005318337620733504</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.007257309122292365</v>
+        <v>-0.005318337620733504</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.007257309122292365</v>
+        <v>-0.005318337620733504</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.007257309122292365</v>
+        <v>-0.005318337620733504</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.02417623459904938</v>
+        <v>-0.03018468043938721</v>
       </c>
       <c r="V29" t="n">
-        <v>0.001533487741339509</v>
+        <v>0.000130008677200347</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02120944241637769</v>
+        <v>0.02121050321642013</v>
       </c>
       <c r="X29" t="n">
-        <v>0.003796036375841454</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>-0.00334486026179441</v>
-      </c>
+        <v>-0.002846409041856362</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
-        <v>-0.000703255228130209</v>
+        <v>0.005241668369666734</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.004603036408121455</v>
+        <v>-0.004459534642381385</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.004603036408121455</v>
+        <v>-0.004459534642381385</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.004603036408121455</v>
+        <v>-0.004459534642381385</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.004603036408121455</v>
+        <v>-0.004459534642381385</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.004603036408121455</v>
+        <v>-0.004459534642381385</v>
       </c>
     </row>
     <row r="30">
@@ -3264,91 +3160,87 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02322643619305744</v>
+        <v>-0.01884627521785101</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01647920321916813</v>
+        <v>-0.01210153795606152</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01444122489764899</v>
+        <v>0.01444127433765097</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.009870038410801535</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-0.009210446384417856</v>
-      </c>
+        <v>-0.0121350375414015</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.01915791551831662</v>
+        <v>-0.01987548780301951</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01489663918437874</v>
+        <v>0.0101443470545386</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02726190646647625</v>
+        <v>0.03480848894433955</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02726190646647625</v>
+        <v>0.03480848894433955</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02726190646647625</v>
+        <v>0.03480848894433955</v>
       </c>
       <c r="N30" t="n">
-        <v>0.02726190646647625</v>
+        <v>0.03480848894433955</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02726190646647625</v>
+        <v>0.03480848894433955</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01551985156479406</v>
+        <v>0.01449021475560859</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03291801338072053</v>
+        <v>0.03659542120781684</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03291801338072053</v>
+        <v>0.03659542120781684</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03291801338072053</v>
+        <v>0.03659542120781684</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03291801338072053</v>
+        <v>0.03659542120781684</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0004960942278437691</v>
+        <v>0.007929410621176424</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.01115431071817243</v>
+        <v>-0.0005780161191206447</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1101205965968239</v>
+        <v>0.110123625780945</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01719665915186636</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.01629138295565532</v>
-      </c>
+        <v>0.006356146622245864</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>0.003814071320562852</v>
+        <v>-0.0001989456079578243</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.001035255209410208</v>
+        <v>0.002017600112704004</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.001035255209410208</v>
+        <v>0.002017600112704004</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.001035255209410208</v>
+        <v>0.002017600112704004</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.001035255209410208</v>
+        <v>0.002017600112704004</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.001035255209410208</v>
+        <v>0.002017600112704004</v>
       </c>
     </row>
     <row r="31">
@@ -3363,91 +3255,87 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.006835144305405771</v>
+        <v>-0.001979758447190338</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.00627365477894619</v>
+        <v>-0.004969240038769601</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002409016032360641</v>
+        <v>0.002408774976350999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00478613875144555</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.002361668542466742</v>
-      </c>
+        <v>0.003783258295330332</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.01350558668422347</v>
+        <v>0.01374954410198176</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0001037621802376474</v>
+        <v>-0.0114375954593859</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00994063105362524</v>
+        <v>0.01060968916038757</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00994063105362524</v>
+        <v>0.01060968916038757</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00994063105362524</v>
+        <v>0.01060968916038757</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00994063105362524</v>
+        <v>0.01060968916038757</v>
       </c>
       <c r="O31" t="n">
-        <v>0.00994063105362524</v>
+        <v>0.01060968916038757</v>
       </c>
       <c r="P31" t="n">
-        <v>0.003259913698396548</v>
+        <v>0.003082304187292167</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.007464330346573213</v>
+        <v>0.008679887675195506</v>
       </c>
       <c r="R31" t="n">
-        <v>0.007464330346573213</v>
+        <v>0.008679887675195506</v>
       </c>
       <c r="S31" t="n">
-        <v>0.007464330346573213</v>
+        <v>0.008679887675195506</v>
       </c>
       <c r="T31" t="n">
-        <v>0.007464330346573213</v>
+        <v>0.008679887675195506</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.01083217627328705</v>
+        <v>-0.009964560878582433</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.00842309025692361</v>
+        <v>-0.008622378584895143</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01073888270155531</v>
+        <v>0.01073849687753987</v>
       </c>
       <c r="X31" t="n">
-        <v>0.004093200931728037</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.007738250133530004</v>
-      </c>
+        <v>0.002820353200814128</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>0.007922375068895001</v>
+        <v>0.004457360818294432</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.002840851409634056</v>
+        <v>0.002162981654519266</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.002840851409634056</v>
+        <v>0.002162981654519266</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.002840851409634056</v>
+        <v>0.002162981654519266</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.002840851409634056</v>
+        <v>0.002162981654519266</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.002840851409634056</v>
+        <v>0.002162981654519266</v>
       </c>
     </row>
     <row r="32">
@@ -3462,91 +3350,87 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3038963947798557</v>
+        <v>0.4167392717415708</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7059016380600653</v>
+        <v>0.9168485400019415</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9999573380782933</v>
+        <v>-0.9999573361582933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9228081670563265</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9435930520477219</v>
-      </c>
+        <v>0.9498110149204405</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.306401326048053</v>
+        <v>0.2844371146094845</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.6386596082588584</v>
+        <v>-0.5878406387255198</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.2116959222918369</v>
+        <v>-0.5218472033698881</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.2116959222918369</v>
+        <v>-0.5218472033698881</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.2116959222918369</v>
+        <v>-0.5218472033698881</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.2116959222918369</v>
+        <v>-0.5218472033698881</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.2116959222918369</v>
+        <v>-0.5218472033698881</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9967774252150968</v>
+        <v>-0.9988157454886297</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.4755769570710782</v>
+        <v>-0.5522733881389356</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.4755769570710782</v>
+        <v>-0.5522733881389356</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.4755769570710782</v>
+        <v>-0.5522733881389356</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.4755769570710782</v>
+        <v>-0.5522733881389356</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1128851046754042</v>
+        <v>-0.1047161056926442</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02474288182171527</v>
+        <v>0.02563296131331845</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.0223291975971679</v>
+        <v>-0.02232755110110204</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.473461625594465</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>-0.02130840603633624</v>
-      </c>
+        <v>-0.4902352944254117</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>-0.54333350326934</v>
+        <v>-0.5916489248179569</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.6059126802685072</v>
+        <v>0.7800721368988854</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.6059126802685072</v>
+        <v>0.7800721368988854</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.6059126802685072</v>
+        <v>0.7800721368988854</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.6059126802685072</v>
+        <v>0.7800721368988854</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.6059126802685072</v>
+        <v>0.7800721368988854</v>
       </c>
     </row>
     <row r="33">
@@ -3561,91 +3445,87 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.00363365851334634</v>
+        <v>0.0004761871870474874</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00286986625879465</v>
+        <v>-0.003373169222926768</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009491199355647973</v>
+        <v>0.009491405371656214</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01404250616170024</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-0.01434435455777418</v>
-      </c>
+        <v>-0.01338251131930045</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>-0.001656497826259913</v>
+        <v>-0.0005639680545587221</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01030501410085678</v>
+        <v>0.002390223793674105</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01411185416447417</v>
+        <v>-0.001247766673910667</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01411185416447417</v>
+        <v>-0.001247766673910667</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.01411185416447417</v>
+        <v>-0.001247766673910667</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01411185416447417</v>
+        <v>-0.001247766673910667</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.01411185416447417</v>
+        <v>-0.001247766673910667</v>
       </c>
       <c r="P33" t="n">
-        <v>0.008106127236245087</v>
+        <v>0.008621289080851561</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.003793545463741818</v>
+        <v>0.002768775086751003</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.003793545463741818</v>
+        <v>0.002768775086751003</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.003793545463741818</v>
+        <v>0.002768775086751003</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.003793545463741818</v>
+        <v>0.002768775086751003</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01275949567837983</v>
+        <v>0.01051874902874996</v>
       </c>
       <c r="V33" t="n">
-        <v>0.02053182898127315</v>
+        <v>0.01956286148651445</v>
       </c>
       <c r="W33" t="n">
-        <v>0.009698693091947722</v>
+        <v>0.009695793027831719</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.01529406694776268</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>-0.02171892701275708</v>
-      </c>
+        <v>-0.0146331300573252</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>0.004415577008623079</v>
+        <v>-0.004805151552206061</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.01279148691165947</v>
+        <v>-0.005942612685704507</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.01279148691165947</v>
+        <v>-0.005942612685704507</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.01279148691165947</v>
+        <v>-0.005942612685704507</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.01279148691165947</v>
+        <v>-0.005942612685704507</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.01279148691165947</v>
+        <v>-0.005942612685704507</v>
       </c>
     </row>
     <row r="34">
@@ -3660,91 +3540,87 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.00361656302466252</v>
+        <v>-0.002577482311099292</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002046969681878787</v>
+        <v>0.002375721887028875</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003597801455912058</v>
+        <v>-0.003597456719898268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00169069024362761</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.003871858138874325</v>
-      </c>
+        <v>0.001317707956708318</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.01362599401703976</v>
+        <v>0.01338868344754734</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.06003480302782135</v>
+        <v>-0.03241864212475539</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0296578599703144</v>
+        <v>0.04928003217920128</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0296578599703144</v>
+        <v>0.04928003217920128</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0296578599703144</v>
+        <v>0.04928003217920128</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0296578599703144</v>
+        <v>0.04928003217920128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.0296578599703144</v>
+        <v>0.04928003217920128</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001759279846371193</v>
+        <v>-0.001418082872723315</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04020852612034104</v>
+        <v>0.04949410460376418</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04020852612034104</v>
+        <v>0.04949410460376418</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04020852612034104</v>
+        <v>0.04949410460376418</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04020852612034104</v>
+        <v>0.04949410460376418</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.003819201080768043</v>
+        <v>-0.006963141494525659</v>
       </c>
       <c r="V34" t="n">
-        <v>0.0002957865718314628</v>
+        <v>0.000801173600046944</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01313500180540007</v>
+        <v>-0.01313164631726585</v>
       </c>
       <c r="X34" t="n">
-        <v>0.003126927485077099</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.0006658713866348553</v>
-      </c>
+        <v>0.0005936666157466646</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
-        <v>0.01685504112220164</v>
+        <v>0.01633141274925651</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.01884193985767759</v>
+        <v>0.06673961777358471</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01884193985767759</v>
+        <v>0.06673961777358471</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01884193985767759</v>
+        <v>0.06673961777358471</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.01884193985767759</v>
+        <v>0.06673961777358471</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.01884193985767759</v>
+        <v>0.06673961777358471</v>
       </c>
     </row>
     <row r="35">
@@ -3759,91 +3635,87 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01886351125054045</v>
+        <v>-0.02653967942958717</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.008315046668601866</v>
+        <v>-0.01849541881981675</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02715698825427952</v>
+        <v>0.0271571599022864</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.0328460224978409</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-0.03164759041790361</v>
-      </c>
+        <v>-0.03171732693269307</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>-0.009788382055535281</v>
+        <v>-0.00892359654894386</v>
       </c>
       <c r="J35" t="n">
-        <v>0.004976594555244121</v>
+        <v>-0.0006861343960381959</v>
       </c>
       <c r="K35" t="n">
-        <v>0.485282875507315</v>
+        <v>0.8056378093135123</v>
       </c>
       <c r="L35" t="n">
-        <v>0.485282875507315</v>
+        <v>0.8056378093135123</v>
       </c>
       <c r="M35" t="n">
-        <v>0.485282875507315</v>
+        <v>0.8056378093135123</v>
       </c>
       <c r="N35" t="n">
-        <v>0.485282875507315</v>
+        <v>0.8056378093135123</v>
       </c>
       <c r="O35" t="n">
-        <v>0.485282875507315</v>
+        <v>0.8056378093135123</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05040985708839428</v>
+        <v>0.05094247854969913</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7003405666376226</v>
+        <v>0.8209335577013422</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7003405666376226</v>
+        <v>0.8209335577013422</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7003405666376226</v>
+        <v>0.8209335577013422</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7003405666376226</v>
+        <v>0.8209335577013422</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01218144730325789</v>
+        <v>0.0101791724391669</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01282074195282968</v>
+        <v>0.01372411082096443</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006341535613661424</v>
+        <v>-0.0006391162815646512</v>
       </c>
       <c r="X35" t="n">
-        <v>0.001723632644945306</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>-0.01232569470102779</v>
-      </c>
+        <v>0.008283552907342116</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>0.006851394898055795</v>
+        <v>0.01689966643598665</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.1375054810842192</v>
+        <v>-0.3330570345382813</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.1375054810842192</v>
+        <v>-0.3330570345382813</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.1375054810842192</v>
+        <v>-0.3330570345382813</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1375054810842192</v>
+        <v>-0.3330570345382813</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1375054810842192</v>
+        <v>-0.3330570345382813</v>
       </c>
     </row>
     <row r="36">
@@ -3858,91 +3730,87 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.006386396031455841</v>
+        <v>-0.001560486398419456</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01665868156234726</v>
+        <v>0.01593882639755305</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01397060964682438</v>
+        <v>-0.01397041774281671</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006074252114970084</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.008229684233187368</v>
-      </c>
+        <v>0.007661817810472711</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>-0.0001198347887933915</v>
+        <v>0.0006619164744766588</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01408659335929647</v>
+        <v>-0.01052468947008091</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.011683899923356</v>
+        <v>-0.009578642879145715</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.011683899923356</v>
+        <v>-0.009578642879145715</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.011683899923356</v>
+        <v>-0.009578642879145715</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.011683899923356</v>
+        <v>-0.009578642879145715</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.011683899923356</v>
+        <v>-0.009578642879145715</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01467018557880742</v>
+        <v>-0.01421957452078298</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.01217138890285555</v>
+        <v>-0.005959850158394005</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01217138890285555</v>
+        <v>-0.005959850158394005</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.01217138890285555</v>
+        <v>-0.005959850158394005</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.01217138890285555</v>
+        <v>-0.005959850158394005</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02451285419651416</v>
+        <v>0.02778633394345335</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01080051652802066</v>
+        <v>0.009697163139886524</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01618756173550247</v>
+        <v>0.01618659770346391</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.01813086581323463</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>-0.01202572137702885</v>
-      </c>
+        <v>-0.002457058850282353</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>-0.01937912890316515</v>
+        <v>-0.007444234377769374</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.006454343106173724</v>
+        <v>0.001130995437239817</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.006454343106173724</v>
+        <v>0.001130995437239817</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.006454343106173724</v>
+        <v>0.001130995437239817</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.006454343106173724</v>
+        <v>0.001130995437239817</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.006454343106173724</v>
+        <v>0.001130995437239817</v>
       </c>
     </row>
     <row r="37">
@@ -3957,91 +3825,87 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0003751985430079417</v>
+        <v>0.002683130795325232</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.01254636424585457</v>
+        <v>-0.004320095788803831</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.003340665733626629</v>
+        <v>-0.003340387333615493</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004255225994209039</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.006142388597695543</v>
-      </c>
+        <v>0.003612709488508379</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.0186752899950116</v>
+        <v>0.01798467489538699</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01396975645852485</v>
+        <v>0.004741704529765014</v>
       </c>
       <c r="K37" t="n">
-        <v>0.06050264901210595</v>
+        <v>0.107971450654858</v>
       </c>
       <c r="L37" t="n">
-        <v>0.06050264901210595</v>
+        <v>0.107971450654858</v>
       </c>
       <c r="M37" t="n">
-        <v>0.06050264901210595</v>
+        <v>0.107971450654858</v>
       </c>
       <c r="N37" t="n">
-        <v>0.06050264901210595</v>
+        <v>0.107971450654858</v>
       </c>
       <c r="O37" t="n">
-        <v>0.06050264901210595</v>
+        <v>0.107971450654858</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0004970504838820193</v>
+        <v>0.0006395014335800573</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.07686215827448632</v>
+        <v>0.1090378121695125</v>
       </c>
       <c r="R37" t="n">
-        <v>0.07686215827448632</v>
+        <v>0.1090378121695125</v>
       </c>
       <c r="S37" t="n">
-        <v>0.07686215827448632</v>
+        <v>0.1090378121695125</v>
       </c>
       <c r="T37" t="n">
-        <v>0.07686215827448632</v>
+        <v>0.1090378121695125</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.01263412812136512</v>
+        <v>-0.006985718295428731</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.01615309696612388</v>
+        <v>-0.01602950521718021</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001489531451581258</v>
+        <v>-0.001486947707477908</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01357625919905036</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.01659259736770389</v>
-      </c>
+        <v>0.008546857397874294</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>0.0163568151182726</v>
+        <v>0.006271358074854322</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.06054390760575629</v>
+        <v>0.1688007737600309</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.06054390760575629</v>
+        <v>0.1688007737600309</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06054390760575629</v>
+        <v>0.1688007737600309</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.06054390760575629</v>
+        <v>0.1688007737600309</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.06054390760575629</v>
+        <v>0.1688007737600309</v>
       </c>
     </row>
     <row r="38">
@@ -4056,91 +3920,87 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.00648243952329758</v>
+        <v>0.003883071899322875</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0126991475799659</v>
+        <v>-0.01484719902588796</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01466128177045127</v>
+        <v>0.01466136452245458</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01157520123100805</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0.01166055233842209</v>
-      </c>
+        <v>-0.01218250311130012</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.002447002465880098</v>
+        <v>0.002532732677309307</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01306574813360515</v>
+        <v>0.007649495496588984</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01214771232590849</v>
+        <v>0.01715005451000218</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01214771232590849</v>
+        <v>0.01715005451000218</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01214771232590849</v>
+        <v>0.01715005451000218</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01214771232590849</v>
+        <v>0.01715005451000218</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01214771232590849</v>
+        <v>0.01715005451000218</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01549233191569327</v>
+        <v>0.01527822387512895</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01644947115397884</v>
+        <v>0.01774124490164979</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01644947115397884</v>
+        <v>0.01774124490164979</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01644947115397884</v>
+        <v>0.01774124490164979</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01644947115397884</v>
+        <v>0.01774124490164979</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.003356364230254569</v>
+        <v>0.0007878222075128881</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.008162066630482663</v>
+        <v>-0.008187359559494381</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001503782556151302</v>
+        <v>0.001503013788120551</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01449596669183866</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.007915548316621931</v>
-      </c>
+        <v>0.01375286627811465</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>0.01576625909465036</v>
+        <v>0.009077090379083613</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.007707215156288605</v>
+        <v>-0.02523493896139755</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.007707215156288605</v>
+        <v>-0.02523493896139755</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.007707215156288605</v>
+        <v>-0.02523493896139755</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.007707215156288605</v>
+        <v>-0.02523493896139755</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.007707215156288605</v>
+        <v>-0.02523493896139755</v>
       </c>
     </row>
     <row r="39">
@@ -4155,91 +4015,87 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.00365195400207816</v>
+        <v>0.004597816215912648</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.01837069494282779</v>
+        <v>-0.01011929282077171</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.001200047184001887</v>
+        <v>-0.001200285552011422</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006311851644474066</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.006974427830977112</v>
-      </c>
+        <v>0.005613386720535469</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.0001489910459596418</v>
+        <v>-0.0004888781955551277</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01159387396149381</v>
+        <v>0.01775523859755007</v>
       </c>
       <c r="K39" t="n">
-        <v>0.06066963871478554</v>
+        <v>-0.002072399026895961</v>
       </c>
       <c r="L39" t="n">
-        <v>0.06066963871478554</v>
+        <v>-0.002072399026895961</v>
       </c>
       <c r="M39" t="n">
-        <v>0.06066963871478554</v>
+        <v>-0.002072399026895961</v>
       </c>
       <c r="N39" t="n">
-        <v>0.06066963871478554</v>
+        <v>-0.002072399026895961</v>
       </c>
       <c r="O39" t="n">
-        <v>0.06066963871478554</v>
+        <v>-0.002072399026895961</v>
       </c>
       <c r="P39" t="n">
-        <v>0.002892153907686156</v>
+        <v>-0.0005522328220893128</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.06667305089092203</v>
+        <v>-0.008733030205321207</v>
       </c>
       <c r="R39" t="n">
-        <v>0.06667305089092203</v>
+        <v>-0.008733030205321207</v>
       </c>
       <c r="S39" t="n">
-        <v>0.06667305089092203</v>
+        <v>-0.008733030205321207</v>
       </c>
       <c r="T39" t="n">
-        <v>0.06667305089092203</v>
+        <v>-0.008733030205321207</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.004456063186242527</v>
+        <v>0.004101252068050082</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.02614864990994599</v>
+        <v>-0.02640842092833683</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006680948043237921</v>
+        <v>0.006680920875236833</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01991196166047847</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0.02592968878118755</v>
-      </c>
+        <v>0.01259759704790388</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>0.01191602332464093</v>
+        <v>0.01528749872349995</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.0188761600190464</v>
+        <v>0.00551900402876016</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.0188761600190464</v>
+        <v>0.00551900402876016</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.0188761600190464</v>
+        <v>0.00551900402876016</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.0188761600190464</v>
+        <v>0.00551900402876016</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.0188761600190464</v>
+        <v>0.00551900402876016</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.289680400675216</v>
+        <v>0.2896798453151938</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
@@ -746,75 +746,75 @@
         <v>-0.02338571440742857</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2536378195855127</v>
+        <v>-0.2534820424912817</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.08189522871580913</v>
+        <v>-0.08176979175079166</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2293027920582293</v>
+        <v>-0.2257577256519455</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2436114122404565</v>
+        <v>-0.2437313372692535</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2436114122404565</v>
+        <v>-0.2437313372692535</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2436114122404565</v>
+        <v>-0.2437313372692535</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2436114122404565</v>
+        <v>-0.2437313372692535</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2436114122404565</v>
+        <v>-0.2437313372692535</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0606906551316262</v>
+        <v>-0.06072333737293348</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.02566517805060712</v>
+        <v>-0.02585586823423473</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02566517805060712</v>
+        <v>-0.02585586823423473</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.02566517805060712</v>
+        <v>-0.02585586823423473</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.02566517805060712</v>
+        <v>-0.02585586823423473</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3118361962494478</v>
+        <v>0.3118661590986463</v>
       </c>
       <c r="V4" t="n">
         <v>0.992739079165563</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01957182519887301</v>
+        <v>0.01957413524696541</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.6910615414024615</v>
+        <v>-0.6913742682309706</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>-0.3948661191866447</v>
+        <v>-0.3949153295566131</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1795915071196603</v>
+        <v>-0.1795237667329506</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.1795915071196603</v>
+        <v>-0.1795237667329506</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.1795915071196603</v>
+        <v>-0.1795237667329506</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1795915071196603</v>
+        <v>-0.1795237667329506</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1795915071196603</v>
+        <v>-0.1795237667329506</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0215214575968583</v>
+        <v>0.0215125050205002</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
@@ -837,75 +837,75 @@
         <v>-0.01076934091077364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01192227551689102</v>
+        <v>0.01188086073123443</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.001497682139907285</v>
+        <v>0.001487754491510179</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.009796423552321052</v>
+        <v>-0.01077693658413009</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02007309651492386</v>
+        <v>-0.02002054496082179</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02007309651492386</v>
+        <v>-0.02002054496082179</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.02007309651492386</v>
+        <v>-0.02002054496082179</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02007309651492386</v>
+        <v>-0.02002054496082179</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.02007309651492386</v>
+        <v>-0.02002054496082179</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0107576875663075</v>
+        <v>-0.01074608606184344</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.02364582363383294</v>
+        <v>-0.02356980449479218</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.02364582363383294</v>
+        <v>-0.02356980449479218</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02364582363383294</v>
+        <v>-0.02356980449479218</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.02364582363383294</v>
+        <v>-0.02356980449479218</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.006536632581465303</v>
+        <v>-0.006473625762945029</v>
       </c>
       <c r="V5" t="n">
         <v>-0.01138057600722304</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002574767910990716</v>
+        <v>0.002574676806987072</v>
       </c>
       <c r="X5" t="n">
-        <v>0.009164915598596625</v>
+        <v>0.009584666399386654</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>0.006241236633649465</v>
+        <v>0.006420215200808607</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01231078388443135</v>
+        <v>0.01175406536616261</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01231078388443135</v>
+        <v>0.01175406536616261</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01231078388443135</v>
+        <v>0.01175406536616261</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01231078388443135</v>
+        <v>0.01175406536616261</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01231078388443135</v>
+        <v>0.01175406536616261</v>
       </c>
     </row>
     <row r="6">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2293911710956468</v>
+        <v>0.229386225559449</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
@@ -928,75 +928,75 @@
         <v>0.005428415353136614</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01414266344570653</v>
+        <v>-0.0141654074786163</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.5764127826405112</v>
+        <v>-0.5764248778729951</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1449504066432534</v>
+        <v>0.145529776167436</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01841437820857513</v>
+        <v>0.01841774185670967</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01841437820857513</v>
+        <v>0.01841774185670967</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01841437820857513</v>
+        <v>0.01841774185670967</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01841437820857513</v>
+        <v>0.01841774185670967</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01841437820857513</v>
+        <v>0.01841774185670967</v>
       </c>
       <c r="P6" t="n">
-        <v>0.007866152090646084</v>
+        <v>0.007867894874715795</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02219300805572032</v>
+        <v>0.02219912296796491</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02219300805572032</v>
+        <v>0.02219912296796491</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02219300805572032</v>
+        <v>0.02219912296796491</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02219300805572032</v>
+        <v>0.02219912296796491</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03830029420401176</v>
+        <v>0.03822871650514865</v>
       </c>
       <c r="V6" t="n">
         <v>0.0001492015739680629</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02792360569294422</v>
+        <v>-0.02792244908489796</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0329354675254187</v>
+        <v>0.0327025050841002</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>-0.2093340027093601</v>
+        <v>-0.2093977549679102</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.03500326709613067</v>
+        <v>-0.03459000695160027</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.03500326709613067</v>
+        <v>-0.03459000695160027</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03500326709613067</v>
+        <v>-0.03459000695160027</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.03500326709613067</v>
+        <v>-0.03459000695160027</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.03500326709613067</v>
+        <v>-0.03459000695160027</v>
       </c>
     </row>
     <row r="7">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.006091383315655331</v>
+        <v>0.006087753651510145</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
@@ -1019,75 +1019,75 @@
         <v>-0.009326854645074184</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01346121577044863</v>
+        <v>0.01342956149718246</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.001350972630038905</v>
+        <v>-0.001364237526569501</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0169263116836768</v>
+        <v>-0.01663109314321384</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.009054511466180457</v>
+        <v>-0.009033404617336184</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.009054511466180457</v>
+        <v>-0.009033404617336184</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.009054511466180457</v>
+        <v>-0.009033404617336184</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.009054511466180457</v>
+        <v>-0.009033404617336184</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.009054511466180457</v>
+        <v>-0.009033404617336184</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009326221141048844</v>
+        <v>-0.009317512404700495</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01294499024579961</v>
+        <v>-0.01290738915629557</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01294499024579961</v>
+        <v>-0.01290738915629557</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01294499024579961</v>
+        <v>-0.01290738915629557</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01294499024579961</v>
+        <v>-0.01290738915629557</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009307808724312349</v>
+        <v>0.009349188661967546</v>
       </c>
       <c r="V7" t="n">
         <v>-0.01129215136368605</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01726239361849574</v>
+        <v>0.01726215813048633</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.009413182744527309</v>
+        <v>-0.009400479160019164</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>-0.01960800654432026</v>
+        <v>-0.01962094091283764</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01793427143737086</v>
+        <v>0.01767823107512924</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01793427143737086</v>
+        <v>0.01767823107512924</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01793427143737086</v>
+        <v>0.01767823107512924</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01793427143737086</v>
+        <v>0.01767823107512924</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01793427143737086</v>
+        <v>0.01767823107512924</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2277479877019195</v>
+        <v>0.2277485108059404</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
@@ -1110,75 +1110,75 @@
         <v>0.001374112278964491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006478940611157624</v>
+        <v>0.006429516833180673</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.7371658027346321</v>
+        <v>0.7371660932306436</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1769784191360461</v>
+        <v>-0.178506659610212</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001446961209878448</v>
+        <v>-0.001402496888099875</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.001446961209878448</v>
+        <v>-0.001402496888099875</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.001446961209878448</v>
+        <v>-0.001402496888099875</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.001446961209878448</v>
+        <v>-0.001402496888099875</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.001446961209878448</v>
+        <v>-0.001402496888099875</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.001379976823199073</v>
+        <v>-0.001366252374650095</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.002943256917730276</v>
+        <v>-0.002876307571052302</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.002943256917730276</v>
+        <v>-0.002876307571052302</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.002943256917730276</v>
+        <v>-0.002876307571052302</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.002943256917730276</v>
+        <v>-0.002876307571052302</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02654493782979751</v>
+        <v>0.0265784276231371</v>
       </c>
       <c r="V8" t="n">
         <v>0.0015441424937657</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009686567715462707</v>
+        <v>0.009686452515458098</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.02166127699445108</v>
+        <v>-0.02122723851308954</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2671156077406243</v>
+        <v>0.2673625219585009</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.02537955211918208</v>
+        <v>0.02500057194402287</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02537955211918208</v>
+        <v>0.02500057194402287</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.02537955211918208</v>
+        <v>0.02500057194402287</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.02537955211918208</v>
+        <v>0.02500057194402287</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.02537955211918208</v>
+        <v>0.02500057194402287</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4699076134843045</v>
+        <v>0.4699109346044373</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
@@ -1205,75 +1205,75 @@
         <v>-0.00192445975697839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005908470380338814</v>
+        <v>0.005883849355353973</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.008662806874512274</v>
+        <v>0.00863670053746802</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.003152521424824635</v>
+        <v>-0.003654650789255938</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01307783802711352</v>
+        <v>-0.0130470700258828</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01307783802711352</v>
+        <v>-0.0130470700258828</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01307783802711352</v>
+        <v>-0.0130470700258828</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01307783802711352</v>
+        <v>-0.0130470700258828</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01307783802711352</v>
+        <v>-0.0130470700258828</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.002461519202460768</v>
+        <v>-0.002454850658194026</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01444405910576236</v>
+        <v>-0.01440951484838059</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01444405910576236</v>
+        <v>-0.01440951484838059</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01444405910576236</v>
+        <v>-0.01440951484838059</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01444405910576236</v>
+        <v>-0.01440951484838059</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5827041883001673</v>
+        <v>-0.5827222136448884</v>
       </c>
       <c r="V9" t="n">
         <v>-0.003769652598786104</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009554303230172128</v>
+        <v>0.009553007134120285</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005493220827728832</v>
+        <v>0.005985709871428393</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.02978246855129874</v>
+        <v>0.02990036682801467</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01025423589816944</v>
+        <v>0.01015284386211375</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01025423589816944</v>
+        <v>0.01015284386211375</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01025423589816944</v>
+        <v>0.01015284386211375</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01025423589816944</v>
+        <v>0.01015284386211375</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01025423589816944</v>
+        <v>0.01015284386211375</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5241831497673259</v>
+        <v>0.5241746221829849</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
@@ -1300,75 +1300,75 @@
         <v>-0.02962203718488148</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02199837803193512</v>
+        <v>0.02200039787201591</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.004569046934761877</v>
+        <v>-0.004549398421975936</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02044262281936734</v>
+        <v>-0.02001468955339992</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02837363489494539</v>
+        <v>-0.02838174987126999</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02837363489494539</v>
+        <v>-0.02838174987126999</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02837363489494539</v>
+        <v>-0.02838174987126999</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02837363489494539</v>
+        <v>-0.02838174987126999</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02837363489494539</v>
+        <v>-0.02838174987126999</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02966437577857503</v>
+        <v>-0.02966141878645675</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02800340550413621</v>
+        <v>-0.02800022915200916</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02800340550413621</v>
+        <v>-0.02800022915200916</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02800340550413621</v>
+        <v>-0.02800022915200916</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02800340550413621</v>
+        <v>-0.02800022915200916</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6665046421161855</v>
+        <v>0.6664803442272137</v>
       </c>
       <c r="V10" t="n">
         <v>0.00368580427543217</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0058541450341658</v>
+        <v>0.005854869546194781</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01401609800064392</v>
+        <v>-0.01449356832374273</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-0.02131627400465096</v>
+        <v>-0.02152748994909959</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01427517570700703</v>
+        <v>0.0145165626286625</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01427517570700703</v>
+        <v>0.0145165626286625</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01427517570700703</v>
+        <v>0.0145165626286625</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01427517570700703</v>
+        <v>0.0145165626286625</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01427517570700703</v>
+        <v>0.0145165626286625</v>
       </c>
     </row>
     <row r="11">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.006541736037669441</v>
+        <v>-0.00654342102973684</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
@@ -1395,75 +1395,75 @@
         <v>-0.001790708231628329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.008355439726217589</v>
+        <v>0.00829585876383435</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.009176801935072075</v>
+        <v>0.009155607726224309</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0006793369237604241</v>
+        <v>-0.002290478541543144</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004916143300645731</v>
+        <v>0.004964143782565751</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004916143300645731</v>
+        <v>0.004964143782565751</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004916143300645731</v>
+        <v>0.004964143782565751</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004916143300645731</v>
+        <v>0.004964143782565751</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004916143300645731</v>
+        <v>0.004964143782565751</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001304201236168049</v>
+        <v>-0.001288697619547905</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001535980189439208</v>
+        <v>0.001604927968197119</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001535980189439208</v>
+        <v>0.001604927968197119</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001535980189439208</v>
+        <v>0.001604927968197119</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001535980189439208</v>
+        <v>0.001604927968197119</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0176034549441382</v>
+        <v>-0.01764465382578615</v>
       </c>
       <c r="V11" t="n">
         <v>-0.01463933597757344</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01837813590312543</v>
+        <v>0.01837861167914447</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01173064866122595</v>
+        <v>0.01220676538427061</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>-0.00187949949917998</v>
+        <v>-0.001829412937176517</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01072190702087628</v>
+        <v>0.01079528923181157</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01072190702087628</v>
+        <v>0.01079528923181157</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01072190702087628</v>
+        <v>0.01079528923181157</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01072190702087628</v>
+        <v>0.01079528923181157</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01072190702087628</v>
+        <v>0.01079528923181157</v>
       </c>
     </row>
     <row r="12">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06378179093527164</v>
+        <v>0.06378018648720744</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
@@ -1490,75 +1490,75 @@
         <v>-0.01178867298354692</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007999422943976917</v>
+        <v>0.008006128640245145</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.004087869955514798</v>
+        <v>0.004083919555356781</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0050064726845845</v>
+        <v>-0.005113499632835325</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0007690329907613196</v>
+        <v>-0.0007634860145394405</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0007690329907613196</v>
+        <v>-0.0007634860145394405</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0007690329907613196</v>
+        <v>-0.0007634860145394405</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0007690329907613196</v>
+        <v>-0.0007634860145394405</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0007690329907613196</v>
+        <v>-0.0007634860145394405</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01190946086037843</v>
+        <v>-0.01190941526037661</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.00103335200933408</v>
+        <v>0.001039108457564338</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00103335200933408</v>
+        <v>0.001039108457564338</v>
       </c>
       <c r="S12" t="n">
-        <v>0.00103335200933408</v>
+        <v>0.001039108457564338</v>
       </c>
       <c r="T12" t="n">
-        <v>0.00103335200933408</v>
+        <v>0.001039108457564338</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06009472627578905</v>
+        <v>0.06006033638641345</v>
       </c>
       <c r="V12" t="n">
         <v>0.008309428652377146</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02836769604670784</v>
+        <v>0.02836750721470029</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01320931032037241</v>
+        <v>-0.01312008561280342</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>-0.01429601221984049</v>
+        <v>-0.01454771654990866</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.006004332336173293</v>
+        <v>0.006176165815046631</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006004332336173293</v>
+        <v>0.006176165815046631</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006004332336173293</v>
+        <v>0.006176165815046631</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006004332336173293</v>
+        <v>0.006176165815046631</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.006004332336173293</v>
+        <v>0.006176165815046631</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2733594994463799</v>
+        <v>-0.2733596349983853</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
@@ -1581,75 +1581,75 @@
         <v>-0.01724673419386937</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01197673737506949</v>
+        <v>0.01198221849528874</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.001433212953328518</v>
+        <v>-0.00143801650552066</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.004604109116142314</v>
+        <v>-0.004295864671443113</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.008012837120513483</v>
+        <v>-0.008023557248942289</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.008012837120513483</v>
+        <v>-0.008023557248942289</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.008012837120513483</v>
+        <v>-0.008023557248942289</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.008012837120513483</v>
+        <v>-0.008023557248942289</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.008012837120513483</v>
+        <v>-0.008023557248942289</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01756769158270766</v>
+        <v>-0.01756987577479503</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.004902705220108209</v>
+        <v>-0.004916539588661583</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.004902705220108209</v>
+        <v>-0.004916539588661583</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.004902705220108209</v>
+        <v>-0.004916539588661583</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.004902705220108209</v>
+        <v>-0.004916539588661583</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.06175324259812969</v>
+        <v>-0.06169880896395236</v>
       </c>
       <c r="V13" t="n">
         <v>0.01277570854302834</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009595073663802946</v>
+        <v>-0.009595909055836361</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.02004674336186973</v>
+        <v>-0.01990045894001835</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>-0.01034304665372186</v>
+        <v>-0.01022572888902915</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.008915092484603699</v>
+        <v>0.008580188407207534</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.008915092484603699</v>
+        <v>0.008580188407207534</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.008915092484603699</v>
+        <v>0.008580188407207534</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.008915092484603699</v>
+        <v>0.008580188407207534</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.008915092484603699</v>
+        <v>0.008580188407207534</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.006102638740105549</v>
+        <v>0.006106674964266998</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
@@ -1676,75 +1676,75 @@
         <v>-0.007051272186050886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005050133194005327</v>
+        <v>0.005015223176608926</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.01937697965507918</v>
+        <v>-0.01940885290435411</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005762658619485282</v>
+        <v>0.005671759191634646</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.005992677743707108</v>
+        <v>-0.005980178639207144</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.005992677743707108</v>
+        <v>-0.005980178639207144</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.005992677743707108</v>
+        <v>-0.005980178639207144</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.005992677743707108</v>
+        <v>-0.005980178639207144</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.005992677743707108</v>
+        <v>-0.005980178639207144</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.006545258565810342</v>
+        <v>-0.006540421125616844</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.006711615052464601</v>
+        <v>-0.006680167947206717</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.006711615052464601</v>
+        <v>-0.006680167947206717</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.006711615052464601</v>
+        <v>-0.006680167947206717</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.006711615052464601</v>
+        <v>-0.006680167947206717</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02192586865303475</v>
+        <v>0.02197702302308092</v>
       </c>
       <c r="V14" t="n">
         <v>-0.003951624158064966</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.000139222949568918</v>
+        <v>-0.0001386528055461122</v>
       </c>
       <c r="X14" t="n">
-        <v>0.002084287859371514</v>
+        <v>0.002198373783934951</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>-0.007814862840594513</v>
+        <v>-0.007708261460330457</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.001248330673933227</v>
+        <v>0.0008608640984345638</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.001248330673933227</v>
+        <v>0.0008608640984345638</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.001248330673933227</v>
+        <v>0.0008608640984345638</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.001248330673933227</v>
+        <v>0.0008608640984345638</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.001248330673933227</v>
+        <v>0.0008608640984345638</v>
       </c>
     </row>
     <row r="15">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.03082585064103402</v>
+        <v>-0.03082691892907675</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
@@ -1771,75 +1771,75 @@
         <v>-0.00617382725495309</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003639137809565512</v>
+        <v>0.003670280690811227</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.01078286462331458</v>
+        <v>0.01079997777599911</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002298140445911211</v>
+        <v>0.003276997573832581</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001767552742702109</v>
+        <v>0.00172885101315404</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001767552742702109</v>
+        <v>0.00172885101315404</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001767552742702109</v>
+        <v>0.00172885101315404</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001767552742702109</v>
+        <v>0.00172885101315404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001767552742702109</v>
+        <v>0.00172885101315404</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.00620365052014602</v>
+        <v>-0.006213228440529137</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002230852793234112</v>
+        <v>0.002173874390954976</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002230852793234112</v>
+        <v>0.002173874390954976</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002230852793234112</v>
+        <v>0.002173874390954976</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002230852793234112</v>
+        <v>0.002173874390954976</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.04950223657208946</v>
+        <v>-0.04950170674806826</v>
       </c>
       <c r="V15" t="n">
         <v>0.0008905608356224332</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002622357128894285</v>
+        <v>0.002622294536891781</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.002049558609982344</v>
+        <v>-0.002370453406818136</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>-0.007776996887079875</v>
+        <v>-0.007871299610851984</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.0008701343388053735</v>
+        <v>-0.000712442524497701</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0008701343388053735</v>
+        <v>-0.000712442524497701</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.0008701343388053735</v>
+        <v>-0.000712442524497701</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.0008701343388053735</v>
+        <v>-0.000712442524497701</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.0008701343388053735</v>
+        <v>-0.000712442524497701</v>
       </c>
     </row>
     <row r="16">
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01053483363739335</v>
+        <v>0.01054607859784314</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
@@ -1866,75 +1866,75 @@
         <v>-0.003009187128367485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003224195456967818</v>
+        <v>0.003225896289035851</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.01540507722420309</v>
+        <v>-0.01541931469677258</v>
       </c>
       <c r="J16" t="n">
-        <v>0.002651042844332215</v>
+        <v>0.002781671777603475</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02611886542875461</v>
+        <v>0.02610840306033612</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02611886542875461</v>
+        <v>0.02610840306033612</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02611886542875461</v>
+        <v>0.02610840306033612</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02611886542875461</v>
+        <v>0.02610840306033612</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02611886542875461</v>
+        <v>0.02610840306033612</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.002000278352011134</v>
+        <v>-0.002000222480008899</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02765884949035398</v>
+        <v>0.02764525521781021</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02765884949035398</v>
+        <v>0.02764525521781021</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02765884949035398</v>
+        <v>0.02764525521781021</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02765884949035398</v>
+        <v>0.02764525521781021</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01186886044275442</v>
+        <v>0.01184449727377989</v>
       </c>
       <c r="V16" t="n">
         <v>0.001317159604686384</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01412165854886634</v>
+        <v>0.01412077707683108</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.005468189306727571</v>
+        <v>-0.005994181967767277</v>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>-0.01565412869016514</v>
+        <v>-0.01582608101704324</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.01081302724852109</v>
+        <v>-0.01059765143190605</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01081302724852109</v>
+        <v>-0.01059765143190605</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01081302724852109</v>
+        <v>-0.01059765143190605</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01081302724852109</v>
+        <v>-0.01059765143190605</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.01081302724852109</v>
+        <v>-0.01059765143190605</v>
       </c>
     </row>
     <row r="17">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01382391732095669</v>
+        <v>-0.01381753236070129</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
@@ -1961,75 +1961,75 @@
         <v>-0.006032042929281716</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004285562091422483</v>
+        <v>0.0004621112824844512</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.008861223906448954</v>
+        <v>-0.008853711426148455</v>
       </c>
       <c r="J17" t="n">
-        <v>0.006734077139181328</v>
+        <v>0.007180639781257328</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01260402780016111</v>
+        <v>-0.01263398191335927</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01260402780016111</v>
+        <v>-0.01263398191335927</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01260402780016111</v>
+        <v>-0.01263398191335927</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01260402780016111</v>
+        <v>-0.01263398191335927</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01260402780016111</v>
+        <v>-0.01263398191335927</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.006776681167067247</v>
+        <v>-0.006783199951327997</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.009017961672718466</v>
+        <v>-0.009070583402823336</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.009017961672718466</v>
+        <v>-0.009070583402823336</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.009017961672718466</v>
+        <v>-0.009070583402823336</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.009017961672718466</v>
+        <v>-0.009070583402823336</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01677733151909326</v>
+        <v>-0.01671748588469944</v>
       </c>
       <c r="V17" t="n">
         <v>0.009923799948951996</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01908773135550925</v>
+        <v>0.01908661564346462</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.01701796973671878</v>
+        <v>-0.01675369939014797</v>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>-0.01710655393226216</v>
+        <v>-0.01691640211665608</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.01590029458801178</v>
+        <v>0.01560201844808073</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01590029458801178</v>
+        <v>0.01560201844808073</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.01590029458801178</v>
+        <v>0.01560201844808073</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.01590029458801178</v>
+        <v>0.01560201844808073</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.01590029458801178</v>
+        <v>0.01560201844808073</v>
       </c>
     </row>
     <row r="18">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.004277501931100076</v>
+        <v>0.004276202187048087</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
@@ -2052,75 +2052,75 @@
         <v>-0.01226184413847376</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.001816637352665494</v>
+        <v>-0.001770983686839347</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.006847699281907971</v>
+        <v>-0.006819451088778042</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.02240751509166069</v>
+        <v>-0.02153981828768618</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01241510603260424</v>
+        <v>-0.01243700929748037</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01241510603260424</v>
+        <v>-0.01243700929748037</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.01241510603260424</v>
+        <v>-0.01243700929748037</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.01241510603260424</v>
+        <v>-0.01243700929748037</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.01241510603260424</v>
+        <v>-0.01243700929748037</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01363892867355714</v>
+        <v>-0.01364899129795965</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.00356797876671915</v>
+        <v>-0.003609735600389423</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.00356797876671915</v>
+        <v>-0.003609735600389423</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.00356797876671915</v>
+        <v>-0.003609735600389423</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.00356797876671915</v>
+        <v>-0.003609735600389423</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007794812855792513</v>
+        <v>0.007812965880518634</v>
       </c>
       <c r="V18" t="n">
         <v>0.03987132025085281</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.0121925124557005</v>
+        <v>-0.01219200442368018</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.02151685938867437</v>
+        <v>-0.02163164323326573</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>-0.00995809777432391</v>
+        <v>-0.009963792878551713</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.004747759101910364</v>
+        <v>0.00472580351703214</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.004747759101910364</v>
+        <v>0.00472580351703214</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.004747759101910364</v>
+        <v>0.00472580351703214</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.004747759101910364</v>
+        <v>0.00472580351703214</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.004747759101910364</v>
+        <v>0.00472580351703214</v>
       </c>
     </row>
     <row r="19">
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0153436826297473</v>
+        <v>0.01533288426131537</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
@@ -2147,75 +2147,75 @@
         <v>-0.01647914897916596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01704614928984597</v>
+        <v>0.01702967309718692</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01931742374869695</v>
+        <v>0.01931093376443735</v>
       </c>
       <c r="J19" t="n">
-        <v>0.002303180494117167</v>
+        <v>0.001733859814810835</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02136511141460445</v>
+        <v>-0.0213555126622205</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02136511141460445</v>
+        <v>-0.0213555126622205</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02136511141460445</v>
+        <v>-0.0213555126622205</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.02136511141460445</v>
+        <v>-0.0213555126622205</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.02136511141460445</v>
+        <v>-0.0213555126622205</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01627027898681116</v>
+        <v>-0.01626414333856573</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02438591396743656</v>
+        <v>-0.02436177486247099</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02438591396743656</v>
+        <v>-0.02436177486247099</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02438591396743656</v>
+        <v>-0.02436177486247099</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.02438591396743656</v>
+        <v>-0.02436177486247099</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.007861664858466594</v>
+        <v>-0.007829355865174234</v>
       </c>
       <c r="V19" t="n">
         <v>-0.00875637452625498</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006965317238612688</v>
+        <v>0.006963892982555718</v>
       </c>
       <c r="X19" t="n">
-        <v>0.001788234983529399</v>
+        <v>0.001453621882144875</v>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>-0.006644443753777749</v>
+        <v>-0.006761068014442719</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02357737447909498</v>
+        <v>0.02353029329321173</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02357737447909498</v>
+        <v>0.02353029329321173</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02357737447909498</v>
+        <v>0.02353029329321173</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02357737447909498</v>
+        <v>0.02353029329321173</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02357737447909498</v>
+        <v>0.02353029329321173</v>
       </c>
     </row>
     <row r="20">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.009303958452158336</v>
+        <v>-0.009303143604125744</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
@@ -2242,75 +2242,75 @@
         <v>-0.01435866739034669</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009169001166760046</v>
+        <v>0.009207871568314862</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.003620457936818317</v>
+        <v>0.003637295953491838</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.002668274317036362</v>
+        <v>-0.00261902449096096</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0199871801594872</v>
+        <v>-0.02001970947278838</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0199871801594872</v>
+        <v>-0.02001970947278838</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0199871801594872</v>
+        <v>-0.02001970947278838</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.0199871801594872</v>
+        <v>-0.02001970947278838</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.0199871801594872</v>
+        <v>-0.02001970947278838</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0150744050189762</v>
+        <v>-0.01508197173927887</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0178441075617643</v>
+        <v>-0.01788953860358154</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0178441075617643</v>
+        <v>-0.01788953860358154</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0178441075617643</v>
+        <v>-0.01788953860358154</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.0178441075617643</v>
+        <v>-0.01788953860358154</v>
       </c>
       <c r="U20" t="n">
-        <v>0.005513502844540112</v>
+        <v>0.005488986651559465</v>
       </c>
       <c r="V20" t="n">
         <v>0.01428251308330052</v>
       </c>
       <c r="W20" t="n">
-        <v>0.006247902201916087</v>
+        <v>0.006246938841877553</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.01142167668086707</v>
+        <v>-0.01124939891397595</v>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>-0.017147875021915</v>
+        <v>-0.01710603783624151</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01105565957822638</v>
+        <v>0.01124502352180094</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01105565957822638</v>
+        <v>0.01124502352180094</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01105565957822638</v>
+        <v>0.01124502352180094</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01105565957822638</v>
+        <v>0.01124502352180094</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.01105565957822638</v>
+        <v>0.01124502352180094</v>
       </c>
     </row>
     <row r="21">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01094732578189303</v>
+        <v>-0.01094645112585804</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
@@ -2333,75 +2333,75 @@
         <v>-0.01573545672541827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01204911456196458</v>
+        <v>0.01206910089876403</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01912325193293007</v>
+        <v>0.01912531382101255</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.006477492360696248</v>
+        <v>-0.006018976517815001</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.009078312171132485</v>
+        <v>-0.009075908523036341</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.009078312171132485</v>
+        <v>-0.009075908523036341</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.009078312171132485</v>
+        <v>-0.009075908523036341</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.009078312171132485</v>
+        <v>-0.009075908523036341</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.009078312171132485</v>
+        <v>-0.009075908523036341</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01603813216152528</v>
+        <v>-0.01603954652958186</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.007686899155475965</v>
+        <v>-0.007685471923418876</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.007686899155475965</v>
+        <v>-0.007685471923418876</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.007686899155475965</v>
+        <v>-0.007685471923418876</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.007686899155475965</v>
+        <v>-0.007685471923418876</v>
       </c>
       <c r="U21" t="n">
-        <v>0.009762515430500615</v>
+        <v>0.009799262983970519</v>
       </c>
       <c r="V21" t="n">
         <v>0.009137561645502465</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003942888829715553</v>
+        <v>0.003943324669732986</v>
       </c>
       <c r="X21" t="n">
-        <v>0.002502957796118312</v>
+        <v>0.002597265223890608</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>0.004025958209038328</v>
+        <v>0.004067429442697178</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01212436954097478</v>
+        <v>0.01187402639496105</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01212436954097478</v>
+        <v>0.01187402639496105</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01212436954097478</v>
+        <v>0.01187402639496105</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01212436954097478</v>
+        <v>0.01187402639496105</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01212436954097478</v>
+        <v>0.01187402639496105</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02815333437413337</v>
+        <v>-0.02815685671027426</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
@@ -2424,75 +2424,75 @@
         <v>0.002413399872535995</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001649933537997341</v>
+        <v>-0.001649547713981908</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.009595958207838326</v>
+        <v>-0.009583801535352059</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01740255119113785</v>
+        <v>0.01773358891623977</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03228081959523278</v>
+        <v>-0.03228565089142604</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03228081959523278</v>
+        <v>-0.03228565089142604</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03228081959523278</v>
+        <v>-0.03228565089142604</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.03228081959523278</v>
+        <v>-0.03228565089142604</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03228081959523278</v>
+        <v>-0.03228565089142604</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00162536924901477</v>
+        <v>0.001625883905035356</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03270595858823833</v>
+        <v>-0.03271497654059905</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03270595858823833</v>
+        <v>-0.03271497654059905</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.03270595858823833</v>
+        <v>-0.03271497654059905</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.03270595858823833</v>
+        <v>-0.03271497654059905</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0136266701450668</v>
+        <v>0.01368259408330376</v>
       </c>
       <c r="V22" t="n">
         <v>-0.002096326451853058</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001597171359886854</v>
+        <v>0.001597297983891919</v>
       </c>
       <c r="X22" t="n">
-        <v>0.008261840586473624</v>
+        <v>0.008281445131257805</v>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>0.001767994726719789</v>
+        <v>0.001846852297874092</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.003788952151558085</v>
+        <v>-0.004063642338545693</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.003788952151558085</v>
+        <v>-0.004063642338545693</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.003788952151558085</v>
+        <v>-0.004063642338545693</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.003788952151558085</v>
+        <v>-0.004063642338545693</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.003788952151558085</v>
+        <v>-0.004063642338545693</v>
       </c>
     </row>
     <row r="23">
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01514772050990882</v>
+        <v>-0.01514578937383157</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
@@ -2515,75 +2515,75 @@
         <v>0.009167024622680984</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.007940351837614072</v>
+        <v>-0.007933087229323487</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.003197732959909318</v>
+        <v>-0.003192092959683718</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02410108735286683</v>
+        <v>0.02367973901508054</v>
       </c>
       <c r="K23" t="n">
-        <v>0.00592851729314069</v>
+        <v>0.00594171978966879</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00592851729314069</v>
+        <v>0.00594171978966879</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00592851729314069</v>
+        <v>0.00594171978966879</v>
       </c>
       <c r="N23" t="n">
-        <v>0.00592851729314069</v>
+        <v>0.00594171978966879</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00592851729314069</v>
+        <v>0.00594171978966879</v>
       </c>
       <c r="P23" t="n">
-        <v>0.009356300438252016</v>
+        <v>0.00936126978245079</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005269983570799342</v>
+        <v>0.005280935155237405</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005269983570799342</v>
+        <v>0.005280935155237405</v>
       </c>
       <c r="S23" t="n">
-        <v>0.005269983570799342</v>
+        <v>0.005280935155237405</v>
       </c>
       <c r="T23" t="n">
-        <v>0.005269983570799342</v>
+        <v>0.005280935155237405</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01264264437770577</v>
+        <v>-0.01260653378426135</v>
       </c>
       <c r="V23" t="n">
         <v>-0.006956431862257274</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.002253813978152559</v>
+        <v>-0.002253813402152536</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01096394386255775</v>
+        <v>0.01140679293627172</v>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>0.007814529336581173</v>
+        <v>0.008067941026717641</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.003057084794283392</v>
+        <v>0.002718116076724643</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.003057084794283392</v>
+        <v>0.002718116076724643</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.003057084794283392</v>
+        <v>0.002718116076724643</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.003057084794283392</v>
+        <v>0.002718116076724643</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.003057084794283392</v>
+        <v>0.002718116076724643</v>
       </c>
     </row>
     <row r="24">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01085057841802313</v>
+        <v>-0.01084051368162055</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
@@ -2610,75 +2610,75 @@
         <v>-0.007428013161120526</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006745765517830619</v>
+        <v>0.006766389870655594</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01330532328421293</v>
+        <v>0.01328884555555382</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01044280708273487</v>
+        <v>-0.01053884371040638</v>
       </c>
       <c r="K24" t="n">
-        <v>0.006913270740530829</v>
+        <v>0.006910313940412557</v>
       </c>
       <c r="L24" t="n">
-        <v>0.006913270740530829</v>
+        <v>0.006910313940412557</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006913270740530829</v>
+        <v>0.006910313940412557</v>
       </c>
       <c r="N24" t="n">
-        <v>0.006913270740530829</v>
+        <v>0.006910313940412557</v>
       </c>
       <c r="O24" t="n">
-        <v>0.006913270740530829</v>
+        <v>0.006910313940412557</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.007261966562478662</v>
+        <v>-0.00726193728247749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007975296127011844</v>
+        <v>0.007964651646586066</v>
       </c>
       <c r="R24" t="n">
-        <v>0.007975296127011844</v>
+        <v>0.007964651646586066</v>
       </c>
       <c r="S24" t="n">
-        <v>0.007975296127011844</v>
+        <v>0.007964651646586066</v>
       </c>
       <c r="T24" t="n">
-        <v>0.007975296127011844</v>
+        <v>0.007964651646586066</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0202212125208485</v>
+        <v>0.02020665613626624</v>
       </c>
       <c r="V24" t="n">
         <v>0.009648685057947401</v>
       </c>
       <c r="W24" t="n">
-        <v>0.006853682866147314</v>
+        <v>0.00685285678611427</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.001820273160810926</v>
+        <v>-0.001432420665296826</v>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>-0.008872695618907824</v>
+        <v>-0.008872671810906872</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.002558150790326031</v>
+        <v>-0.00259791725591669</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.002558150790326031</v>
+        <v>-0.00259791725591669</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.002558150790326031</v>
+        <v>-0.00259791725591669</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.002558150790326031</v>
+        <v>-0.00259791725591669</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.002558150790326031</v>
+        <v>-0.00259791725591669</v>
       </c>
     </row>
     <row r="25">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.003715862644634505</v>
+        <v>-0.003716859124674364</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
@@ -2701,75 +2701,75 @@
         <v>-0.02210615282024611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01682344137693765</v>
+        <v>0.01679606169584246</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.001326755957070238</v>
+        <v>-0.001337812949512518</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01735157475705475</v>
+        <v>-0.01767818726597717</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01748256194730248</v>
+        <v>-0.01744276600971064</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01748256194730248</v>
+        <v>-0.01744276600971064</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01748256194730248</v>
+        <v>-0.01744276600971064</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.01748256194730248</v>
+        <v>-0.01744276600971064</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.01748256194730248</v>
+        <v>-0.01744276600971064</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02252051802082072</v>
+        <v>-0.02251418614856744</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.01468407303536292</v>
+        <v>-0.01463901792956072</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.01468407303536292</v>
+        <v>-0.01463901792956072</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.01468407303536292</v>
+        <v>-0.01463901792956072</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.01468407303536292</v>
+        <v>-0.01463901792956072</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.001748508933940357</v>
+        <v>-0.001750453990018159</v>
       </c>
       <c r="V25" t="n">
         <v>0.01380079216803169</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01789418721176748</v>
+        <v>0.0178968075318723</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01388457569138303</v>
+        <v>-0.0138618200424728</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>-0.01335313954212558</v>
+        <v>-0.01350619321224773</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01415201384608055</v>
+        <v>0.01409031195561248</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01415201384608055</v>
+        <v>0.01409031195561248</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01415201384608055</v>
+        <v>0.01409031195561248</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01415201384608055</v>
+        <v>0.01409031195561248</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01415201384608055</v>
+        <v>0.01409031195561248</v>
       </c>
     </row>
     <row r="26">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03432719676508787</v>
+        <v>0.03431571622062864</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
@@ -2796,75 +2796,75 @@
         <v>-0.01876065060642602</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01117140668685627</v>
+        <v>0.01108443365937734</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.008941041477641657</v>
+        <v>-0.008977332935093316</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01874433095796834</v>
+        <v>-0.02009825386081268</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02630785929231437</v>
+        <v>-0.02623666722546669</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.02630785929231437</v>
+        <v>-0.02623666722546669</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.02630785929231437</v>
+        <v>-0.02623666722546669</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.02630785929231437</v>
+        <v>-0.02623666722546669</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.02630785929231437</v>
+        <v>-0.02623666722546669</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01933226870929074</v>
+        <v>-0.01931407594056304</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02336354301454172</v>
+        <v>-0.02325713661028546</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02336354301454172</v>
+        <v>-0.02325713661028546</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02336354301454172</v>
+        <v>-0.02325713661028546</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02336354301454172</v>
+        <v>-0.02325713661028546</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.0003218797568751902</v>
+        <v>-0.0003783655831346233</v>
       </c>
       <c r="V26" t="n">
         <v>0.01899256866370274</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01733453138138125</v>
+        <v>-0.01733309378132375</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.02832308820492352</v>
+        <v>-0.02805361955414478</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>-0.03055314429412577</v>
+        <v>-0.0305141375725655</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01607214880288595</v>
+        <v>0.01621709930468397</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01607214880288595</v>
+        <v>0.01621709930468397</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01607214880288595</v>
+        <v>0.01621709930468397</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01607214880288595</v>
+        <v>0.01621709930468397</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01607214880288595</v>
+        <v>0.01621709930468397</v>
       </c>
     </row>
     <row r="27">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.002597834983913399</v>
+        <v>-0.00260756276030251</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
@@ -2887,75 +2887,75 @@
         <v>0.01349850399594016</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.009533471325338851</v>
+        <v>-0.009583961471358458</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.01369805181192207</v>
+        <v>0.01368006717120268</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02486148077593955</v>
+        <v>0.02418745073181549</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0204764774910591</v>
+        <v>0.02052375029295001</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0204764774910591</v>
+        <v>0.02052375029295001</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0204764774910591</v>
+        <v>0.02052375029295001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0204764774910591</v>
+        <v>0.02052375029295001</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0204764774910591</v>
+        <v>0.02052375029295001</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01416639416665576</v>
+        <v>0.01417529576701183</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02016929543077181</v>
+        <v>0.0202340125853605</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02016929543077181</v>
+        <v>0.0202340125853605</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02016929543077181</v>
+        <v>0.0202340125853605</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02016929543077181</v>
+        <v>0.0202340125853605</v>
       </c>
       <c r="U27" t="n">
-        <v>0.002598498631939945</v>
+        <v>0.002590202791608111</v>
       </c>
       <c r="V27" t="n">
         <v>-0.01125317478612699</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01195829087833163</v>
+        <v>0.01196004278240171</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0162529601061184</v>
+        <v>0.01609669523586781</v>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>0.00395228175809127</v>
+        <v>0.003886546139461845</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.02513077214123088</v>
+        <v>-0.02506843540273741</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.02513077214123088</v>
+        <v>-0.02506843540273741</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.02513077214123088</v>
+        <v>-0.02506843540273741</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.02513077214123088</v>
+        <v>-0.02506843540273741</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.02513077214123088</v>
+        <v>-0.02506843540273741</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.01937211514288461</v>
+        <v>-0.01936543834261753</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
@@ -2982,75 +2982,75 @@
         <v>0.02795684195027368</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.006047818897912755</v>
+        <v>-0.006017656656706265</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.02567529673901187</v>
+        <v>0.0256815826272633</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01484643411068468</v>
+        <v>0.01576361195578591</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03455301315812052</v>
+        <v>0.03453463558938542</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03455301315812052</v>
+        <v>0.03453463558938542</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03455301315812052</v>
+        <v>0.03453463558938542</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03455301315812052</v>
+        <v>0.03453463558938542</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03455301315812052</v>
+        <v>0.03453463558938542</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03083077150523086</v>
+        <v>0.03082536334501453</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01910861442834457</v>
+        <v>0.01907660130706405</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01910861442834457</v>
+        <v>0.01907660130706405</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01910861442834457</v>
+        <v>0.01907660130706405</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01910861442834457</v>
+        <v>0.01907660130706405</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.02680802142432085</v>
+        <v>-0.02682281444891257</v>
       </c>
       <c r="V28" t="n">
         <v>-0.09462936743317468</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915872814874912</v>
+        <v>0.9915873808474951</v>
       </c>
       <c r="X28" t="n">
-        <v>0.04803076588923063</v>
+        <v>0.04746418721056748</v>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>0.05366767088270683</v>
+        <v>0.05334166869366674</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.005908837484353499</v>
+        <v>0.006262617466504698</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.005908837484353499</v>
+        <v>0.006262617466504698</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.005908837484353499</v>
+        <v>0.006262617466504698</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.005908837484353499</v>
+        <v>0.006262617466504698</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.005908837484353499</v>
+        <v>0.006262617466504698</v>
       </c>
     </row>
     <row r="29">
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01981299660051986</v>
+        <v>-0.01980532399221296</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
@@ -3077,75 +3077,75 @@
         <v>0.0174313676412547</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01544269146570766</v>
+        <v>-0.01542254567290182</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02394744124589765</v>
+        <v>-0.02394142118165684</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.005313085801113938</v>
+        <v>-0.004845079349873041</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.006445296833811873</v>
+        <v>-0.00645851977834079</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.006445296833811873</v>
+        <v>-0.00645851977834079</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.006445296833811873</v>
+        <v>-0.00645851977834079</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.006445296833811873</v>
+        <v>-0.00645851977834079</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.006445296833811873</v>
+        <v>-0.00645851977834079</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01676085811043432</v>
+        <v>0.0167552674542107</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.005318337620733504</v>
+        <v>-0.00535001925400077</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.005318337620733504</v>
+        <v>-0.00535001925400077</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.005318337620733504</v>
+        <v>-0.00535001925400077</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.005318337620733504</v>
+        <v>-0.00535001925400077</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.03018468043938721</v>
+        <v>-0.03017035887081435</v>
       </c>
       <c r="V29" t="n">
         <v>0.000130008677200347</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02121050321642013</v>
+        <v>0.02121162708846508</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.002846409041856362</v>
+        <v>-0.002897873875914955</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
-        <v>0.005241668369666734</v>
+        <v>0.005309727668389106</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.004459534642381385</v>
+        <v>-0.004537749013509959</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.004459534642381385</v>
+        <v>-0.004537749013509959</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.004459534642381385</v>
+        <v>-0.004537749013509959</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.004459534642381385</v>
+        <v>-0.004537749013509959</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.004459534642381385</v>
+        <v>-0.004537749013509959</v>
       </c>
     </row>
     <row r="30">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01884627521785101</v>
+        <v>-0.01884030046561202</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
@@ -3172,75 +3172,75 @@
         <v>0.01444127433765097</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0121350375414015</v>
+        <v>-0.01211656973266279</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.01987548780301951</v>
+        <v>-0.01986230191449207</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0101443470545386</v>
+        <v>0.01112840459848405</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03480848894433955</v>
+        <v>0.03479840817593632</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03480848894433955</v>
+        <v>0.03479840817593632</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03480848894433955</v>
+        <v>0.03479840817593632</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03480848894433955</v>
+        <v>0.03479840817593632</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03480848894433955</v>
+        <v>0.03479840817593632</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01449021475560859</v>
+        <v>0.01448636880345475</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03659542120781684</v>
+        <v>0.03658118987924759</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03659542120781684</v>
+        <v>0.03658118987924759</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03659542120781684</v>
+        <v>0.03658118987924759</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03659542120781684</v>
+        <v>0.03658118987924759</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007929410621176424</v>
+        <v>0.007949801309992051</v>
       </c>
       <c r="V30" t="n">
         <v>-0.0005780161191206447</v>
       </c>
       <c r="W30" t="n">
-        <v>0.110123625780945</v>
+        <v>0.1101229157649166</v>
       </c>
       <c r="X30" t="n">
-        <v>0.006356146622245864</v>
+        <v>0.005889961867598473</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>-0.0001989456079578243</v>
+        <v>-0.000265451050618042</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.002017600112704004</v>
+        <v>0.0019445275017811</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.002017600112704004</v>
+        <v>0.0019445275017811</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.002017600112704004</v>
+        <v>0.0019445275017811</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.002017600112704004</v>
+        <v>0.0019445275017811</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.002017600112704004</v>
+        <v>0.0019445275017811</v>
       </c>
     </row>
     <row r="31">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.001979758447190338</v>
+        <v>-0.001978883695155348</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
@@ -3267,75 +3267,75 @@
         <v>0.002408774976350999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003783258295330332</v>
+        <v>0.003811106168444246</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.01374954410198176</v>
+        <v>0.01375912125436485</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0114375954593859</v>
+        <v>-0.01070520739720067</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01060968916038757</v>
+        <v>0.01059458807178352</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01060968916038757</v>
+        <v>0.01059458807178352</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01060968916038757</v>
+        <v>0.01059458807178352</v>
       </c>
       <c r="N31" t="n">
-        <v>0.01060968916038757</v>
+        <v>0.01059458807178352</v>
       </c>
       <c r="O31" t="n">
-        <v>0.01060968916038757</v>
+        <v>0.01059458807178352</v>
       </c>
       <c r="P31" t="n">
-        <v>0.003082304187292167</v>
+        <v>0.003080782107231284</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.008679887675195506</v>
+        <v>0.008663836474553457</v>
       </c>
       <c r="R31" t="n">
-        <v>0.008679887675195506</v>
+        <v>0.008663836474553457</v>
       </c>
       <c r="S31" t="n">
-        <v>0.008679887675195506</v>
+        <v>0.008663836474553457</v>
       </c>
       <c r="T31" t="n">
-        <v>0.008679887675195506</v>
+        <v>0.008663836474553457</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.009964560878582433</v>
+        <v>-0.009949128973965157</v>
       </c>
       <c r="V31" t="n">
         <v>-0.008622378584895143</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01073849687753987</v>
+        <v>0.01073764362950574</v>
       </c>
       <c r="X31" t="n">
-        <v>0.002820353200814128</v>
+        <v>0.002594099047763962</v>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>0.004457360818294432</v>
+        <v>0.004332971405318856</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.002162981654519266</v>
+        <v>0.002084977331399093</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.002162981654519266</v>
+        <v>0.002084977331399093</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.002162981654519266</v>
+        <v>0.002084977331399093</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.002162981654519266</v>
+        <v>0.002084977331399093</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.002162981654519266</v>
+        <v>0.002084977331399093</v>
       </c>
     </row>
     <row r="32">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4167392717415708</v>
+        <v>0.4167525054381002</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
@@ -3362,75 +3362,75 @@
         <v>-0.9999573361582933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9498110149204405</v>
+        <v>0.9498708495148338</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.2844371146094845</v>
+        <v>0.2844536166261447</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.5878406387255198</v>
+        <v>-0.5882343593034912</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5218472033698881</v>
+        <v>-0.521862852426514</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.5218472033698881</v>
+        <v>-0.521862852426514</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.5218472033698881</v>
+        <v>-0.521862852426514</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5218472033698881</v>
+        <v>-0.521862852426514</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.5218472033698881</v>
+        <v>-0.521862852426514</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9988157454886297</v>
+        <v>-0.9988149835365993</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.5522733881389356</v>
+        <v>-0.552320603916824</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.5522733881389356</v>
+        <v>-0.552320603916824</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.5522733881389356</v>
+        <v>-0.552320603916824</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.5522733881389356</v>
+        <v>-0.552320603916824</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1047161056926442</v>
+        <v>-0.104700374748015</v>
       </c>
       <c r="V32" t="n">
         <v>0.02563296131331845</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.02232755110110204</v>
+        <v>-0.02232609535704381</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.4902352944254117</v>
+        <v>-0.4901677573667102</v>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>-0.5916489248179569</v>
+        <v>-0.5915164845566594</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7800721368988854</v>
+        <v>0.7799934658557385</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7800721368988854</v>
+        <v>0.7799934658557385</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.7800721368988854</v>
+        <v>0.7799934658557385</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.7800721368988854</v>
+        <v>0.7799934658557385</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.7800721368988854</v>
+        <v>0.7799934658557385</v>
       </c>
     </row>
     <row r="33">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0004761871870474874</v>
+        <v>0.000471921426876857</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
@@ -3457,75 +3457,75 @@
         <v>0.009491405371656214</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01338251131930045</v>
+        <v>-0.01342168719286749</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>-0.0005639680545587221</v>
+        <v>-0.0005592405343696213</v>
       </c>
       <c r="J33" t="n">
-        <v>0.002390223793674105</v>
+        <v>0.001600891937380427</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001247766673910667</v>
+        <v>-0.001231816273272651</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.001247766673910667</v>
+        <v>-0.001231816273272651</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.001247766673910667</v>
+        <v>-0.001231816273272651</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.001247766673910667</v>
+        <v>-0.001231816273272651</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.001247766673910667</v>
+        <v>-0.001231816273272651</v>
       </c>
       <c r="P33" t="n">
-        <v>0.008621289080851561</v>
+        <v>0.008624040056961602</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.002768775086751003</v>
+        <v>0.002799382671975307</v>
       </c>
       <c r="R33" t="n">
-        <v>0.002768775086751003</v>
+        <v>0.002799382671975307</v>
       </c>
       <c r="S33" t="n">
-        <v>0.002768775086751003</v>
+        <v>0.002799382671975307</v>
       </c>
       <c r="T33" t="n">
-        <v>0.002768775086751003</v>
+        <v>0.002799382671975307</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01051874902874996</v>
+        <v>0.01058975274359011</v>
       </c>
       <c r="V33" t="n">
         <v>0.01956286148651445</v>
       </c>
       <c r="W33" t="n">
-        <v>0.009695793027831719</v>
+        <v>0.009697119075884763</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.0146331300573252</v>
+        <v>-0.01416813090272523</v>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>-0.004805151552206061</v>
+        <v>-0.004434772785390911</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.005942612685704507</v>
+        <v>-0.006513998756559949</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.005942612685704507</v>
+        <v>-0.006513998756559949</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.005942612685704507</v>
+        <v>-0.006513998756559949</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.005942612685704507</v>
+        <v>-0.006513998756559949</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.005942612685704507</v>
+        <v>-0.006513998756559949</v>
       </c>
     </row>
     <row r="34">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.002577482311099292</v>
+        <v>-0.002568629958745198</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
@@ -3552,75 +3552,75 @@
         <v>-0.003597456719898268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001317707956708318</v>
+        <v>0.001344359669774387</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.01338868344754734</v>
+        <v>0.01339938303197532</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.03241864212475539</v>
+        <v>-0.03215772976132168</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04928003217920128</v>
+        <v>0.04923520948940837</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04928003217920128</v>
+        <v>0.04923520948940837</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04928003217920128</v>
+        <v>0.04923520948940837</v>
       </c>
       <c r="N34" t="n">
-        <v>0.04928003217920128</v>
+        <v>0.04923520948940837</v>
       </c>
       <c r="O34" t="n">
-        <v>0.04928003217920128</v>
+        <v>0.04923520948940837</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001418082872723315</v>
+        <v>-0.001426676889067075</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04949410460376418</v>
+        <v>0.04944388460175538</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04949410460376418</v>
+        <v>0.04944388460175538</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04949410460376418</v>
+        <v>0.04944388460175538</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04949410460376418</v>
+        <v>0.04944388460175538</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.006963141494525659</v>
+        <v>-0.007009483672379347</v>
       </c>
       <c r="V34" t="n">
         <v>0.000801173600046944</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01313164631726585</v>
+        <v>-0.01313257194930288</v>
       </c>
       <c r="X34" t="n">
-        <v>0.0005936666157466646</v>
+        <v>0.0003681046227241848</v>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
-        <v>0.01633141274925651</v>
+        <v>0.01615893424635737</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.06673961777358471</v>
+        <v>0.06705299932211997</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.06673961777358471</v>
+        <v>0.06705299932211997</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.06673961777358471</v>
+        <v>0.06705299932211997</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.06673961777358471</v>
+        <v>0.06705299932211997</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.06673961777358471</v>
+        <v>0.06705299932211997</v>
       </c>
     </row>
     <row r="35">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.02653967942958717</v>
+        <v>-0.02654972189398887</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
@@ -3647,75 +3647,75 @@
         <v>0.0271571599022864</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.03171732693269307</v>
+        <v>-0.03171131771645271</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>-0.00892359654894386</v>
+        <v>-0.008904156740166268</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.0006861343960381959</v>
+        <v>-0.001165529711600233</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8056378093135123</v>
+        <v>0.805596627039865</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8056378093135123</v>
+        <v>0.805596627039865</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8056378093135123</v>
+        <v>0.805596627039865</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8056378093135123</v>
+        <v>0.805596627039865</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8056378093135123</v>
+        <v>0.805596627039865</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05094247854969913</v>
+        <v>0.05093760942950437</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8209335577013422</v>
+        <v>0.8209143078765722</v>
       </c>
       <c r="R35" t="n">
-        <v>0.8209335577013422</v>
+        <v>0.8209143078765722</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8209335577013422</v>
+        <v>0.8209143078765722</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8209335577013422</v>
+        <v>0.8209143078765722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0101791724391669</v>
+        <v>0.01023819957752798</v>
       </c>
       <c r="V35" t="n">
         <v>0.01372411082096443</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006391162815646512</v>
+        <v>-0.0006392631615705264</v>
       </c>
       <c r="X35" t="n">
-        <v>0.008283552907342116</v>
+        <v>0.008181677415267097</v>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>0.01689966643598665</v>
+        <v>0.01699682784787311</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.3330570345382813</v>
+        <v>-0.3333634099105364</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.3330570345382813</v>
+        <v>-0.3333634099105364</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.3330570345382813</v>
+        <v>-0.3333634099105364</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.3330570345382813</v>
+        <v>-0.3333634099105364</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.3330570345382813</v>
+        <v>-0.3333634099105364</v>
       </c>
     </row>
     <row r="36">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.001560486398419456</v>
+        <v>-0.001558306814332273</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
@@ -3742,75 +3742,75 @@
         <v>-0.01397041774281671</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007661817810472711</v>
+        <v>0.007652625042105001</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.0006619164744766588</v>
+        <v>0.0006609571464382858</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01052468947008091</v>
+        <v>-0.01055999927927037</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.009578642879145715</v>
+        <v>-0.009565977310639092</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.009578642879145715</v>
+        <v>-0.009565977310639092</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.009578642879145715</v>
+        <v>-0.009565977310639092</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.009578642879145715</v>
+        <v>-0.009565977310639092</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.009578642879145715</v>
+        <v>-0.009565977310639092</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01421957452078298</v>
+        <v>-0.01421667896866716</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.005959850158394005</v>
+        <v>-0.005950820590032823</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.005959850158394005</v>
+        <v>-0.005950820590032823</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.005959850158394005</v>
+        <v>-0.005950820590032823</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.005959850158394005</v>
+        <v>-0.005950820590032823</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02778633394345335</v>
+        <v>0.0277850976554039</v>
       </c>
       <c r="V36" t="n">
         <v>0.009697163139886524</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01618659770346391</v>
+        <v>0.01618657149546286</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.002457058850282353</v>
+        <v>-0.002342882781715311</v>
       </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>-0.007444234377769374</v>
+        <v>-0.007302416068096642</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.001130995437239817</v>
+        <v>0.001167882286715291</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.001130995437239817</v>
+        <v>0.001167882286715291</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.001130995437239817</v>
+        <v>0.001167882286715291</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.001130995437239817</v>
+        <v>0.001167882286715291</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.001130995437239817</v>
+        <v>0.001167882286715291</v>
       </c>
     </row>
     <row r="37">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002683130795325232</v>
+        <v>0.002701191948047678</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
@@ -3837,75 +3837,75 @@
         <v>-0.003340387333615493</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003612709488508379</v>
+        <v>0.003672622898904915</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.01798467489538699</v>
+        <v>0.01799721979188879</v>
       </c>
       <c r="J37" t="n">
-        <v>0.004741704529765014</v>
+        <v>0.004962391354664063</v>
       </c>
       <c r="K37" t="n">
-        <v>0.107971450654858</v>
+        <v>0.1079460772778431</v>
       </c>
       <c r="L37" t="n">
-        <v>0.107971450654858</v>
+        <v>0.1079460772778431</v>
       </c>
       <c r="M37" t="n">
-        <v>0.107971450654858</v>
+        <v>0.1079460772778431</v>
       </c>
       <c r="N37" t="n">
-        <v>0.107971450654858</v>
+        <v>0.1079460772778431</v>
       </c>
       <c r="O37" t="n">
-        <v>0.107971450654858</v>
+        <v>0.1079460772778431</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0006395014335800573</v>
+        <v>0.0006308002812320111</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1090378121695125</v>
+        <v>0.1089963983438559</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1090378121695125</v>
+        <v>0.1089963983438559</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1090378121695125</v>
+        <v>0.1089963983438559</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1090378121695125</v>
+        <v>0.1089963983438559</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.006985718295428731</v>
+        <v>-0.00701688450467538</v>
       </c>
       <c r="V37" t="n">
         <v>-0.01602950521718021</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001486947707477908</v>
+        <v>-0.001486702523468101</v>
       </c>
       <c r="X37" t="n">
-        <v>0.008546857397874294</v>
+        <v>0.008469101234764048</v>
       </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>0.006271358074854322</v>
+        <v>0.006304583580183342</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1688007737600309</v>
+        <v>0.1689838046793522</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.1688007737600309</v>
+        <v>0.1689838046793522</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1688007737600309</v>
+        <v>0.1689838046793522</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.1688007737600309</v>
+        <v>0.1689838046793522</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.1688007737600309</v>
+        <v>0.1689838046793522</v>
       </c>
     </row>
     <row r="38">
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003883071899322875</v>
+        <v>0.003892347131693885</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
@@ -3932,75 +3932,75 @@
         <v>0.01466136452245458</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01218250311130012</v>
+        <v>-0.01218478339939133</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.002532732677309307</v>
+        <v>0.002527425221097009</v>
       </c>
       <c r="J38" t="n">
-        <v>0.007649495496588984</v>
+        <v>0.007763668733068231</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01715005451000218</v>
+        <v>0.01715930555037222</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01715005451000218</v>
+        <v>0.01715930555037222</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01715005451000218</v>
+        <v>0.01715930555037222</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01715005451000218</v>
+        <v>0.01715930555037222</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01715005451000218</v>
+        <v>0.01715930555037222</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01527822387512895</v>
+        <v>0.0152793449631738</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01774124490164979</v>
+        <v>0.01774424029376961</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01774124490164979</v>
+        <v>0.01774424029376961</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01774124490164979</v>
+        <v>0.01774424029376961</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01774124490164979</v>
+        <v>0.01774424029376961</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0007878222075128881</v>
+        <v>0.0007384572775382909</v>
       </c>
       <c r="V38" t="n">
         <v>-0.008187359559494381</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001503013788120551</v>
+        <v>0.001503543420141736</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01375286627811465</v>
+        <v>0.01369221568368863</v>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>0.009077090379083613</v>
+        <v>0.008980274759210989</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.02523493896139755</v>
+        <v>-0.0249599476223979</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.02523493896139755</v>
+        <v>-0.0249599476223979</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.02523493896139755</v>
+        <v>-0.0249599476223979</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.02523493896139755</v>
+        <v>-0.0249599476223979</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.02523493896139755</v>
+        <v>-0.0249599476223979</v>
       </c>
     </row>
     <row r="39">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.004597816215912648</v>
+        <v>0.004598558103942323</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
@@ -4027,75 +4027,75 @@
         <v>-0.001200285552011422</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005613386720535469</v>
+        <v>0.0056071900162876</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>-0.0004888781955551277</v>
+        <v>-0.0004931918597276743</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01775523859755007</v>
+        <v>0.01790709893932592</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.002072399026895961</v>
+        <v>-0.002063334802533392</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.002072399026895961</v>
+        <v>-0.002063334802533392</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.002072399026895961</v>
+        <v>-0.002063334802533392</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.002072399026895961</v>
+        <v>-0.002063334802533392</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.002072399026895961</v>
+        <v>-0.002063334802533392</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.0005522328220893128</v>
+        <v>-0.0005505521500220858</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.008733030205321207</v>
+        <v>-0.008722032924881315</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.008733030205321207</v>
+        <v>-0.008722032924881315</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.008733030205321207</v>
+        <v>-0.008722032924881315</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.008733030205321207</v>
+        <v>-0.008722032924881315</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004101252068050082</v>
+        <v>0.004134032325361293</v>
       </c>
       <c r="V39" t="n">
         <v>-0.02640842092833683</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006680920875236833</v>
+        <v>0.006683000811320033</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01259759704790388</v>
+        <v>0.01249107179564287</v>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>0.01528749872349995</v>
+        <v>0.01526711475468459</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.00551900402876016</v>
+        <v>0.005303165684126626</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.00551900402876016</v>
+        <v>0.005303165684126626</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.00551900402876016</v>
+        <v>0.005303165684126626</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.00551900402876016</v>
+        <v>0.005303165684126626</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.00551900402876016</v>
+        <v>0.005303165684126626</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1.xlsx
@@ -734,87 +734,87 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3148684708987388</v>
+        <v>0.2584491368444913</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003529454733178189</v>
+        <v>0.001789453229894532</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4004945681157827</v>
+        <v>0.3414113851621139</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0233856950154278</v>
+        <v>0.007533272559332726</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2539803429912137</v>
+        <v>-0.2433585721415857</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.08191965303678611</v>
+        <v>-0.08367413208874132</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2216859846484509</v>
+        <v>-0.1928029307475361</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2434329719453188</v>
+        <v>-0.2111844371398444</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2434329719453188</v>
+        <v>-0.2111844371398444</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2434329719453188</v>
+        <v>-0.2111844371398444</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2434329719453188</v>
+        <v>-0.2111844371398444</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2434329719453188</v>
+        <v>-0.2111844371398444</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.06060347282413889</v>
+        <v>-0.02474667493946675</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.02531872680474907</v>
+        <v>-0.01437918938379189</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02531872680474907</v>
+        <v>-0.01437918938379189</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.02531872680474907</v>
+        <v>-0.01437918938379189</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.02531872680474907</v>
+        <v>-0.01437918938379189</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3593215241968609</v>
+        <v>0.3235582307475823</v>
       </c>
       <c r="V4" t="n">
-        <v>0.992739079165563</v>
+        <v>0.9909640826136409</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01957182519887301</v>
+        <v>-0.00190356802303568</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.6915219125888764</v>
+        <v>-0.6760934269489343</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>-0.3989419890456795</v>
+        <v>-0.3436857230208572</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1824863134114525</v>
+        <v>-0.2285754852897549</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.1824863134114525</v>
+        <v>-0.2285754852897549</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.1824863134114525</v>
+        <v>-0.2285754852897549</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1824863134114525</v>
+        <v>-0.2285754852897549</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1824863134114525</v>
+        <v>-0.2285754852897549</v>
       </c>
     </row>
     <row r="5">
@@ -825,87 +825,87 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02016210301448412</v>
+        <v>-0.009887562818875628</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007570266830810672</v>
+        <v>0.01479471410794714</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002924601044984041</v>
+        <v>-0.01327045288870453</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01076943047877722</v>
+        <v>0.01576195702961957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01205332896213316</v>
+        <v>-0.01402088892820889</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.001522668732906749</v>
+        <v>0.008087677736876778</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002232693930647373</v>
+        <v>0.00153685157798633</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02014327894973116</v>
+        <v>0.01629695086296951</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02014327894973116</v>
+        <v>0.01629695086296951</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.02014327894973116</v>
+        <v>0.01629695086296951</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02014327894973116</v>
+        <v>0.01629695086296951</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.02014327894973116</v>
+        <v>0.01629695086296951</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01082552347302094</v>
+        <v>0.01595837367958373</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.02371502840460113</v>
+        <v>0.01762525679625257</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.02371502840460113</v>
+        <v>0.01762525679625257</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02371502840460113</v>
+        <v>0.01762525679625257</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.02371502840460113</v>
+        <v>0.01762525679625257</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.007316637028665481</v>
+        <v>-0.009438379054383789</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.01138057600722304</v>
+        <v>0.0009526840295268403</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002574767910990716</v>
+        <v>0.008192001345920014</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01182949890517996</v>
+        <v>-0.001116179183161792</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>0.007266504866660193</v>
+        <v>0.003498893710988937</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.009863292970531718</v>
+        <v>-0.01243221590832216</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.009863292970531718</v>
+        <v>-0.01243221590832216</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.009863292970531718</v>
+        <v>-0.01243221590832216</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.009863292970531718</v>
+        <v>-0.01243221590832216</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.009863292970531718</v>
+        <v>-0.01243221590832216</v>
       </c>
     </row>
     <row r="6">
@@ -916,87 +916,87 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2173998835759953</v>
+        <v>0.2198368375463684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0108233524329341</v>
+        <v>-0.001058172670581727</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.007040758649630345</v>
+        <v>-0.01347952935879529</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00542875048915002</v>
+        <v>0.0173366500133665</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01417117698284708</v>
+        <v>-0.02430134601901346</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.5764290446571617</v>
+        <v>-0.5817314375133145</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1486818405004827</v>
+        <v>0.148733316089124</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0184355425614217</v>
+        <v>0.0139230498072305</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0184355425614217</v>
+        <v>0.0139230498072305</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0184355425614217</v>
+        <v>0.0139230498072305</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0184355425614217</v>
+        <v>0.0139230498072305</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0184355425614217</v>
+        <v>0.0139230498072305</v>
       </c>
       <c r="P6" t="n">
-        <v>0.00787626780305071</v>
+        <v>0.01943867060638671</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.022331300093252</v>
+        <v>0.01809019878090199</v>
       </c>
       <c r="R6" t="n">
-        <v>0.022331300093252</v>
+        <v>0.01809019878090199</v>
       </c>
       <c r="S6" t="n">
-        <v>0.022331300093252</v>
+        <v>0.01809019878090199</v>
       </c>
       <c r="T6" t="n">
-        <v>0.022331300093252</v>
+        <v>0.01809019878090199</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03805823787432951</v>
+        <v>0.04518954739989547</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0001492015739680629</v>
+        <v>0.006539055185390552</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.02792360569294422</v>
+        <v>0.009763488133634882</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03412677064507082</v>
+        <v>0.03118366630783666</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>-0.2075266666050666</v>
+        <v>-0.2284811776248118</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.03801208971248358</v>
+        <v>-0.03348307322283074</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.03801208971248358</v>
+        <v>-0.03348307322283074</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.03801208971248358</v>
+        <v>-0.03348307322283074</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.03801208971248358</v>
+        <v>-0.03348307322283074</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.03801208971248358</v>
+        <v>-0.03348307322283074</v>
       </c>
     </row>
     <row r="7">
@@ -1007,87 +1007,87 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.006546987141879485</v>
+        <v>2.314357223143572e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.004311911308476452</v>
+        <v>0.001575581331755813</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006990547863621913</v>
+        <v>0.0127688497036885</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.009327200629088024</v>
+        <v>-0.008455620624556206</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01337955096718204</v>
+        <v>0.002830639096306391</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.00131412101256484</v>
+        <v>0.001448781374487814</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.007770078027465167</v>
+        <v>0.001578789508422568</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.008982044519281779</v>
+        <v>0.002705699463056995</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.008982044519281779</v>
+        <v>0.002705699463056995</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.008982044519281779</v>
+        <v>0.002705699463056995</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.008982044519281779</v>
+        <v>0.002705699463056995</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.008982044519281779</v>
+        <v>0.002705699463056995</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009299328179973126</v>
+        <v>-0.00806204304862043</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.01283498124939925</v>
+        <v>0.004480872656808727</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.01283498124939925</v>
+        <v>0.004480872656808727</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.01283498124939925</v>
+        <v>0.004480872656808727</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.01283498124939925</v>
+        <v>0.004480872656808727</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009435687929427516</v>
+        <v>-0.01233841248338412</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.01129215136368605</v>
+        <v>0.006285175718851756</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01726239361849574</v>
+        <v>0.001584168279841683</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.008446272241850888</v>
+        <v>-0.004555789617557896</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>-0.0201542550141702</v>
+        <v>-0.004704218711042187</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01542859520914381</v>
+        <v>-0.001401228830012289</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01542859520914381</v>
+        <v>-0.001401228830012289</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01542859520914381</v>
+        <v>-0.001401228830012289</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01542859520914381</v>
+        <v>-0.001401228830012289</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01542859520914381</v>
+        <v>-0.001401228830012289</v>
       </c>
     </row>
     <row r="8">
@@ -1098,87 +1098,87 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2151598376303935</v>
+        <v>0.228106904113069</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.002497081539883261</v>
+        <v>0.0001967123539671236</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001373806038952241</v>
+        <v>-0.001325922445259224</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006540489573619582</v>
+        <v>0.0121195598651956</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.7371692974227718</v>
+        <v>0.7387668636556686</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1754619527717553</v>
+        <v>-0.17392328129715</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001449065241962609</v>
+        <v>-0.001348506637485066</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.001449065241962609</v>
+        <v>-0.001348506637485066</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.001449065241962609</v>
+        <v>-0.001348506637485066</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.001449065241962609</v>
+        <v>-0.001348506637485066</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.001449065241962609</v>
+        <v>-0.001348506637485066</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.001387390519495621</v>
+        <v>-0.0041544600175446</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.002980250423210016</v>
+        <v>-0.00399600399996004</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.002980250423210016</v>
+        <v>-0.00399600399996004</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.002980250423210016</v>
+        <v>-0.00399600399996004</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.002980250423210016</v>
+        <v>-0.00399600399996004</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02718920585556823</v>
+        <v>0.02532846379328463</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0015441424937657</v>
+        <v>0.002842947676429476</v>
       </c>
       <c r="W8" t="n">
-        <v>0.009686567715462707</v>
+        <v>-0.009368683353686834</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.01646559089862363</v>
+        <v>-0.03278930897189309</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2683861461914458</v>
+        <v>0.2979607756716078</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01947355949894238</v>
+        <v>0.02338651547386516</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01947355949894238</v>
+        <v>0.02338651547386516</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01947355949894238</v>
+        <v>0.02338651547386516</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01947355949894238</v>
+        <v>0.02338651547386516</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01947355949894238</v>
+        <v>0.02338651547386516</v>
       </c>
     </row>
     <row r="9">
@@ -1193,87 +1193,87 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4439209638688385</v>
+        <v>0.4677734152657341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01752971628518865</v>
+        <v>0.01021959223819592</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002101372980054919</v>
+        <v>0.004893393576933936</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001924443724977749</v>
+        <v>-0.007854870510548704</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006022136208885448</v>
+        <v>0.009152646475526466</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.008708796252351849</v>
+        <v>0.006877417940774179</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.003912473486846423</v>
+        <v>-0.007902384244200599</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01307308036292321</v>
+        <v>-0.007774171469741714</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01307308036292321</v>
+        <v>-0.007774171469741714</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01307308036292321</v>
+        <v>-0.007774171469741714</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01307308036292321</v>
+        <v>-0.007774171469741714</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01307308036292321</v>
+        <v>-0.007774171469741714</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.002479019523160781</v>
+        <v>-0.007637976880379769</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01452431069297242</v>
+        <v>-0.009888807734888079</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01452431069297242</v>
+        <v>-0.009888807734888079</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01452431069297242</v>
+        <v>-0.009888807734888079</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01452431069297242</v>
+        <v>-0.009888807734888079</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5726323119932925</v>
+        <v>-0.5847312581073126</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.003769652598786104</v>
+        <v>-0.006666332526663325</v>
       </c>
       <c r="W9" t="n">
-        <v>0.009554303230172128</v>
+        <v>0.004797985523979855</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.001708825124353005</v>
+        <v>0.001275962160759622</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.03026309189852367</v>
+        <v>0.003810099770100998</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01661386693655468</v>
+        <v>0.008419779504197795</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01661386693655468</v>
+        <v>0.008419779504197795</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01661386693655468</v>
+        <v>0.008419779504197795</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01661386693655468</v>
+        <v>0.008419779504197795</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01661386693655468</v>
+        <v>0.008419779504197795</v>
       </c>
     </row>
     <row r="10">
@@ -1288,87 +1288,87 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4978360314654412</v>
+        <v>0.4922994698549947</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003197859583914383</v>
+        <v>0.01053641204136412</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03045029017801161</v>
+        <v>-0.01187979281879793</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02962235283289411</v>
+        <v>0.01261544794215448</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02229719445988778</v>
+        <v>-0.01114463207144632</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.004501876884075075</v>
+        <v>0.002445254412452544</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01625807758807795</v>
+        <v>0.003325714972594087</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02850081781203271</v>
+        <v>0.01280234634802346</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02850081781203271</v>
+        <v>0.01280234634802346</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02850081781203271</v>
+        <v>0.01280234634802346</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02850081781203271</v>
+        <v>0.01280234634802346</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02850081781203271</v>
+        <v>0.01280234634802346</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02971133581245343</v>
+        <v>0.0127216200192162</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02819986346399454</v>
+        <v>0.01267760584277606</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02819986346399454</v>
+        <v>0.01267760584277606</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02819986346399454</v>
+        <v>0.01267760584277606</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02819986346399454</v>
+        <v>0.01267760584277606</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6523711317908452</v>
+        <v>0.6522877711748777</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00368580427543217</v>
+        <v>-0.0003301312233013122</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0058541450341658</v>
+        <v>-0.01869746295097463</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01881276680051067</v>
+        <v>0.008604670694046706</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-0.0220396875055875</v>
+        <v>0.01761591736415917</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01647329720293188</v>
+        <v>-0.01321069280410693</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01647329720293188</v>
+        <v>-0.01321069280410693</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01647329720293188</v>
+        <v>-0.01321069280410693</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01647329720293188</v>
+        <v>-0.01321069280410693</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01647329720293188</v>
+        <v>-0.01321069280410693</v>
       </c>
     </row>
     <row r="11">
@@ -1383,87 +1383,87 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.007723081844923273</v>
+        <v>0.003195743047957431</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007627171025086841</v>
+        <v>0.01945835063058351</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00631786278071451</v>
+        <v>0.01333993064539931</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001790833415633336</v>
+        <v>-0.01639912063999121</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00798285852731434</v>
+        <v>0.01765165887251659</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.009157606542304261</v>
+        <v>0.02580081640200816</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.004857621125219417</v>
+        <v>-0.01979485189390605</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005290763251630529</v>
+        <v>-0.0002550261265502613</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005290763251630529</v>
+        <v>-0.0002550261265502613</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005290763251630529</v>
+        <v>-0.0002550261265502613</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005290763251630529</v>
+        <v>-0.0002550261265502613</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005290763251630529</v>
+        <v>-0.0002550261265502613</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001219079088763164</v>
+        <v>-0.01625681880656819</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001967157870686314</v>
+        <v>-0.001602637288026373</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001967157870686314</v>
+        <v>-0.001602637288026373</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001967157870686314</v>
+        <v>-0.001602637288026373</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001967157870686314</v>
+        <v>-0.001602637288026373</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0191018726360749</v>
+        <v>0.0002863651708636517</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.01463933597757344</v>
+        <v>-0.001184755859847559</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01837813590312543</v>
+        <v>-0.001159878263598783</v>
       </c>
       <c r="X11" t="n">
-        <v>0.008480437875217513</v>
+        <v>-0.00351231197912312</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>-0.006595901927836077</v>
+        <v>-0.00645186396451864</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01402755953710238</v>
+        <v>0.01693616271736163</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01402755953710238</v>
+        <v>0.01693616271736163</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01402755953710238</v>
+        <v>0.01693616271736163</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.01402755953710238</v>
+        <v>0.01693616271736163</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01402755953710238</v>
+        <v>0.01693616271736163</v>
       </c>
     </row>
     <row r="12">
@@ -1478,87 +1478,87 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06160941971237678</v>
+        <v>0.05900357930603579</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.004942293317691732</v>
+        <v>0.00673698087136981</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01368025696321028</v>
+        <v>-0.01828027926280279</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01178900187956007</v>
+        <v>0.01434854548748546</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007786338167453525</v>
+        <v>-0.01066607901466079</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.00401328227253129</v>
+        <v>-0.001814564838145648</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01005048789604981</v>
+        <v>0.004837149884316033</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0005913171116526843</v>
+        <v>0.01280199114801991</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0005913171116526843</v>
+        <v>0.01280199114801991</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0005913171116526843</v>
+        <v>0.01280199114801991</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0005913171116526843</v>
+        <v>0.01280199114801991</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0005913171116526843</v>
+        <v>0.01280199114801991</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01187500578700023</v>
+        <v>0.0147292799672928</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001272230642889226</v>
+        <v>0.0104008900760089</v>
       </c>
       <c r="R12" t="n">
-        <v>0.001272230642889226</v>
+        <v>0.0104008900760089</v>
       </c>
       <c r="S12" t="n">
-        <v>0.001272230642889226</v>
+        <v>0.0104008900760089</v>
       </c>
       <c r="T12" t="n">
-        <v>0.001272230642889226</v>
+        <v>0.0104008900760089</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05874501729380069</v>
+        <v>0.04638511635185116</v>
       </c>
       <c r="V12" t="n">
-        <v>0.008309428652377146</v>
+        <v>-0.01017478306174783</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02836769604670784</v>
+        <v>0.005808668458086684</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01483818040152721</v>
+        <v>0.006183487477834874</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>-0.01537133946285358</v>
+        <v>0.02222106241821063</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.004826472481058898</v>
+        <v>-0.006050512584505127</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.004826472481058898</v>
+        <v>-0.006050512584505127</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.004826472481058898</v>
+        <v>-0.006050512584505127</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.004826472481058898</v>
+        <v>-0.006050512584505127</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.004826472481058898</v>
+        <v>-0.006050512584505127</v>
       </c>
     </row>
     <row r="13">
@@ -1569,87 +1569,87 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2565862554154502</v>
+        <v>-0.279171090115711</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.002908193588327743</v>
+        <v>-0.01037112565971126</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0204715048828602</v>
+        <v>0.008757589551575896</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0172467076018683</v>
+        <v>-0.01010473643304736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01153587319743493</v>
+        <v>0.008976166541761664</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.00151921926076877</v>
+        <v>-0.01094310693743107</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01204472967301602</v>
+        <v>-0.0066438570271094</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.007749774837990992</v>
+        <v>-0.01408099725280997</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.007749774837990992</v>
+        <v>-0.01408099725280997</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.007749774837990992</v>
+        <v>-0.01408099725280997</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.007749774837990992</v>
+        <v>-0.01408099725280997</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.007749774837990992</v>
+        <v>-0.01408099725280997</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01751076348443054</v>
+        <v>-0.01013991865739919</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.004469840626793624</v>
+        <v>-0.01495161146951612</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.004469840626793624</v>
+        <v>-0.01495161146951612</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.004469840626793624</v>
+        <v>-0.01495161146951612</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.004469840626793624</v>
+        <v>-0.01495161146951612</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0607234851169394</v>
+        <v>-0.04366801300068013</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01277570854302834</v>
+        <v>-0.004903452241034522</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.009595073663802946</v>
+        <v>0.004284217362842174</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.02320644908825796</v>
+        <v>0.003575904455759045</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>-0.01435301462212058</v>
+        <v>-0.01048813614888136</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01186328735453149</v>
+        <v>0.00459555606995556</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01186328735453149</v>
+        <v>0.00459555606995556</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.01186328735453149</v>
+        <v>0.00459555606995556</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.01186328735453149</v>
+        <v>0.00459555606995556</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01186328735453149</v>
+        <v>0.00459555606995556</v>
       </c>
     </row>
     <row r="14">
@@ -1664,87 +1664,87 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.007006991992279678</v>
+        <v>0.02806537720065377</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03053229702929188</v>
+        <v>0.002183270469832705</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00566938477077539</v>
+        <v>0.01759061585590616</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.007051139418045575</v>
+        <v>-0.01894033230940332</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004769573374782935</v>
+        <v>0.01800211354802114</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.01937159367086374</v>
+        <v>0.004384195267841953</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01176262886156273</v>
+        <v>-0.01174137355413377</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.005868386730735469</v>
+        <v>-0.008026715072267151</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.005868386730735469</v>
+        <v>-0.008026715072267151</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.005868386730735469</v>
+        <v>-0.008026715072267151</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.005868386730735469</v>
+        <v>-0.008026715072267151</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.005868386730735469</v>
+        <v>-0.008026715072267151</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.006517765316710612</v>
+        <v>-0.0186452703664527</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.00649736829189473</v>
+        <v>-0.007375155001751549</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.00649736829189473</v>
+        <v>-0.007375155001751549</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.00649736829189473</v>
+        <v>-0.007375155001751549</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.00649736829189473</v>
+        <v>-0.007375155001751549</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02118199332727973</v>
+        <v>0.01934014874540149</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.003951624158064966</v>
+        <v>-0.003850262174502622</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.000139222949568918</v>
+        <v>-0.009477585730775857</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00487886400315456</v>
+        <v>-0.004899339756993397</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>-0.006434339969373599</v>
+        <v>-0.01067225330272253</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.001973310414932416</v>
+        <v>0.01068995306289953</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.001973310414932416</v>
+        <v>0.01068995306289953</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.001973310414932416</v>
+        <v>0.01068995306289953</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.001973310414932416</v>
+        <v>0.01068995306289953</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.001973310414932416</v>
+        <v>0.01068995306289953</v>
       </c>
     </row>
     <row r="15">
@@ -1759,87 +1759,87 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.02909735645989426</v>
+        <v>-0.02020277693802777</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002746113805844552</v>
+        <v>0.00652977293329773</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00242521401700856</v>
+        <v>0.00377281605772816</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006173563638942545</v>
+        <v>-0.003774106429741064</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003405718696228747</v>
+        <v>0.005165962563659626</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.01074530068581203</v>
+        <v>0.01002938161629382</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004659849213189878</v>
+        <v>-0.005871130345071498</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001847036329881453</v>
+        <v>-0.003863620874636209</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001847036329881453</v>
+        <v>-0.003863620874636209</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001847036329881453</v>
+        <v>-0.003863620874636209</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001847036329881453</v>
+        <v>-0.003863620874636209</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001847036329881453</v>
+        <v>-0.003863620874636209</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.006159086550363462</v>
+        <v>-0.003755210629552106</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.002357822302312892</v>
+        <v>-0.00413177090931771</v>
       </c>
       <c r="R15" t="n">
-        <v>0.002357822302312892</v>
+        <v>-0.00413177090931771</v>
       </c>
       <c r="S15" t="n">
-        <v>0.002357822302312892</v>
+        <v>-0.00413177090931771</v>
       </c>
       <c r="T15" t="n">
-        <v>0.002357822302312892</v>
+        <v>-0.00413177090931771</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.04929061387562454</v>
+        <v>-0.04658248400182485</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0008905608356224332</v>
+        <v>-0.0022862099988621</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002622357128894285</v>
+        <v>0.001104206663042067</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.004717097660683906</v>
+        <v>-0.004908083785080839</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>-0.004293566667742665</v>
+        <v>-0.008265072742650729</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.002038503057540122</v>
+        <v>0.006989646753896467</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002038503057540122</v>
+        <v>0.006989646753896467</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.002038503057540122</v>
+        <v>0.006989646753896467</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.002038503057540122</v>
+        <v>0.006989646753896467</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002038503057540122</v>
+        <v>0.006989646753896467</v>
       </c>
     </row>
     <row r="16">
@@ -1854,87 +1854,87 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01076010839840433</v>
+        <v>0.001408179806081798</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.004229653321186132</v>
+        <v>-0.01031616768716168</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004566293462651738</v>
+        <v>-0.0005441217054412171</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.003008998872359955</v>
+        <v>0.001620770536207706</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003620724528828981</v>
+        <v>-0.003041538318415383</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.01537903597516144</v>
+        <v>-0.01569332288493323</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.001545459326745648</v>
+        <v>0.01391356644672892</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02589810967592438</v>
+        <v>0.003045122838451229</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02589810967592438</v>
+        <v>0.003045122838451229</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02589810967592438</v>
+        <v>0.003045122838451229</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02589810967592438</v>
+        <v>0.003045122838451229</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02589810967592438</v>
+        <v>0.003045122838451229</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.002072153554886142</v>
+        <v>0.001855291938552919</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02730346544413861</v>
+        <v>0.00449774694897747</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02730346544413861</v>
+        <v>0.00449774694897747</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02730346544413861</v>
+        <v>0.00449774694897747</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02730346544413861</v>
+        <v>0.00449774694897747</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01225099047403962</v>
+        <v>-0.0111777398677774</v>
       </c>
       <c r="V16" t="n">
-        <v>0.001317159604686384</v>
+        <v>0.001414849070148491</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01412165854886634</v>
+        <v>-0.0005203887292038874</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.005618743808749751</v>
+        <v>-0.004798828235988283</v>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>-0.0157299575571983</v>
+        <v>-0.01344022571040226</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.01404508462580338</v>
+        <v>0.0005774513217745132</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01404508462580338</v>
+        <v>0.0005774513217745132</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01404508462580338</v>
+        <v>0.0005774513217745132</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01404508462580338</v>
+        <v>0.0005774513217745132</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.01404508462580338</v>
+        <v>0.0005774513217745132</v>
       </c>
     </row>
     <row r="17">
@@ -1949,87 +1949,87 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01232108516484341</v>
+        <v>-0.01542637388226374</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001087392523495701</v>
+        <v>-0.0139102100951021</v>
       </c>
       <c r="E17" t="n">
-        <v>0.008550467670018705</v>
+        <v>0.01010432944104329</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.006032180401287215</v>
+        <v>-0.01054206052542061</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004324502572980102</v>
+        <v>0.009141367171413672</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.008857690338307612</v>
+        <v>-0.004587043809870438</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.007332001161679246</v>
+        <v>0.009389214937666614</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01250570306022812</v>
+        <v>0.002483050896830509</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01250570306022812</v>
+        <v>0.002483050896830509</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01250570306022812</v>
+        <v>0.002483050896830509</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01250570306022812</v>
+        <v>0.002483050896830509</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01250570306022812</v>
+        <v>0.002483050896830509</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.00675180353407214</v>
+        <v>-0.01028034379880344</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.009013214088528562</v>
+        <v>0.003749093245490932</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.009013214088528562</v>
+        <v>0.003749093245490932</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.009013214088528562</v>
+        <v>0.003749093245490932</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.009013214088528562</v>
+        <v>0.003749093245490932</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01501455660058226</v>
+        <v>-0.004703560487035604</v>
       </c>
       <c r="V17" t="n">
-        <v>0.009923799948951996</v>
+        <v>0.0003802903838029039</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01908773135550925</v>
+        <v>-0.01349721464697215</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0137430951097238</v>
+        <v>-0.002798370315983703</v>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>-0.01489715521988621</v>
+        <v>-0.01579442215394422</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0129827474313099</v>
+        <v>0.001820752818207528</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0129827474313099</v>
+        <v>0.001820752818207528</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0129827474313099</v>
+        <v>0.001820752818207528</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0129827474313099</v>
+        <v>0.001820752818207528</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0129827474313099</v>
+        <v>0.001820752818207528</v>
       </c>
     </row>
     <row r="18">
@@ -2040,87 +2040,87 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.006876298163051926</v>
+        <v>-0.0006669837546698375</v>
       </c>
       <c r="D18" t="n">
-        <v>1.123824044952962e-05</v>
+        <v>0.001603574320035743</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0253988300719532</v>
+        <v>0.01127796624477966</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01226178365847134</v>
+        <v>-0.01097990179379902</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00176165325446613</v>
+        <v>0.01044801170048012</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.006738374093534963</v>
+        <v>0.01100409851004099</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.008772381044158669</v>
+        <v>-0.003416200025535312</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01248864309154572</v>
+        <v>0.004387427119874271</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01248864309154572</v>
+        <v>0.004387427119874271</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.01248864309154572</v>
+        <v>0.004387427119874271</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.01248864309154572</v>
+        <v>0.004387427119874271</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.01248864309154572</v>
+        <v>0.004387427119874271</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01365054880202195</v>
+        <v>-0.01083773515237735</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.003551112526044501</v>
+        <v>0.003933052659330526</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.003551112526044501</v>
+        <v>0.003933052659330526</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.003551112526044501</v>
+        <v>0.003933052659330526</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.003551112526044501</v>
+        <v>0.003933052659330526</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01048587737943509</v>
+        <v>0.005480935938809359</v>
       </c>
       <c r="V18" t="n">
-        <v>0.03987132025085281</v>
+        <v>0.003483227470832275</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.0121925124557005</v>
+        <v>-0.008943118397431185</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01920388070415522</v>
+        <v>-0.008385993227859932</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>-0.009319666452786656</v>
+        <v>-0.01271536527115365</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0002145333205813328</v>
+        <v>-0.0008789972487899724</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0002145333205813328</v>
+        <v>-0.0008789972487899724</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0002145333205813328</v>
+        <v>-0.0008789972487899724</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0002145333205813328</v>
+        <v>-0.0008789972487899724</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.0002145333205813328</v>
+        <v>-0.0008789972487899724</v>
       </c>
     </row>
     <row r="19">
@@ -2135,87 +2135,87 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01544362362574494</v>
+        <v>0.01184293763842937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.005544996989799878</v>
+        <v>0.001712198849121988</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01152495972499839</v>
+        <v>0.01029983526699835</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01647921195516847</v>
+        <v>-0.009218683448186833</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01677392044695682</v>
+        <v>0.008995663181956631</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01926178627447145</v>
+        <v>-0.003988740327887403</v>
       </c>
       <c r="J19" t="n">
-        <v>0.003182636145215027</v>
+        <v>0.002425527073230333</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02125330097813204</v>
+        <v>-0.005264395900643959</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02125330097813204</v>
+        <v>-0.005264395900643959</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02125330097813204</v>
+        <v>-0.005264395900643959</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.02125330097813204</v>
+        <v>-0.005264395900643959</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.02125330097813204</v>
+        <v>-0.005264395900643959</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01624903946596158</v>
+        <v>-0.009064993374649935</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02421790301671612</v>
+        <v>-0.005264764396647644</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02421790301671612</v>
+        <v>-0.005264764396647644</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02421790301671612</v>
+        <v>-0.005264764396647644</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.02421790301671612</v>
+        <v>-0.005264764396647644</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.00916514580660583</v>
+        <v>0.006487952452879524</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.00875637452625498</v>
+        <v>0.001548837231488372</v>
       </c>
       <c r="W19" t="n">
-        <v>0.006965317238612688</v>
+        <v>-0.008028721640287216</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.001940033741601349</v>
+        <v>-0.01020821543408216</v>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>-0.01200107308804292</v>
+        <v>-0.01562054587220546</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02803929452957178</v>
+        <v>0.01172793291327933</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02803929452957178</v>
+        <v>0.01172793291327933</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02803929452957178</v>
+        <v>0.01172793291327933</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02803929452957178</v>
+        <v>0.01172793291327933</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02803929452957178</v>
+        <v>0.01172793291327933</v>
       </c>
     </row>
     <row r="20">
@@ -2230,87 +2230,87 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.007807594296303771</v>
+        <v>0.001840747278407473</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0007818678072747121</v>
+        <v>-0.00401278603612786</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0173944450797778</v>
+        <v>0.004430812256308122</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01435849209433968</v>
+        <v>-0.00476184799161848</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009159522894380915</v>
+        <v>0.005588005519880055</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.003588392975535719</v>
+        <v>-0.01068039359880394</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.003683599109554124</v>
+        <v>-0.0003849830380045935</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01993441462137658</v>
+        <v>0.007407664886076649</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01993441462137658</v>
+        <v>0.007407664886076649</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01993441462137658</v>
+        <v>0.007407664886076649</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01993441462137658</v>
+        <v>0.007407664886076649</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01993441462137658</v>
+        <v>0.007407664886076649</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01509803522792141</v>
+        <v>-0.004227878958278791</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01784109076164363</v>
+        <v>0.007159776155597762</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01784109076164363</v>
+        <v>0.007159776155597762</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01784109076164363</v>
+        <v>0.007159776155597762</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01784109076164363</v>
+        <v>0.007159776155597762</v>
       </c>
       <c r="U20" t="n">
-        <v>0.006581043623241745</v>
+        <v>-0.004484168732841688</v>
       </c>
       <c r="V20" t="n">
-        <v>0.01428251308330052</v>
+        <v>-0.006330670839306708</v>
       </c>
       <c r="W20" t="n">
-        <v>0.006247902201916087</v>
+        <v>0.01711651668316517</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.00742152279286091</v>
+        <v>-0.001347274525472745</v>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>-0.01240154526406181</v>
+        <v>-0.01648616678086167</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.007463390602535622</v>
+        <v>-0.007460419682604197</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.007463390602535622</v>
+        <v>-0.007460419682604197</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.007463390602535622</v>
+        <v>-0.007460419682604197</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.007463390602535622</v>
+        <v>-0.007460419682604197</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.007463390602535622</v>
+        <v>-0.007460419682604197</v>
       </c>
     </row>
     <row r="21">
@@ -2321,87 +2321,87 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.008511471604458863</v>
+        <v>0.01096826521368265</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002703635724145429</v>
+        <v>-0.007862050398620504</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01461249552849982</v>
+        <v>0.01738239246582392</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01573559054942362</v>
+        <v>-0.01523187650031877</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01202836723313469</v>
+        <v>0.01179350240193502</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01909987833199513</v>
+        <v>-0.003878819402788194</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003811799674759067</v>
+        <v>-0.02079791103633987</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.009179782255191289</v>
+        <v>-0.02522524582825246</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.009179782255191289</v>
+        <v>-0.02522524582825246</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.009179782255191289</v>
+        <v>-0.02522524582825246</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.009179782255191289</v>
+        <v>-0.02522524582825246</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.009179782255191289</v>
+        <v>-0.02522524582825246</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01604276617771064</v>
+        <v>-0.01582701699827017</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.007781410871256434</v>
+        <v>-0.02363357645633576</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.007781410871256434</v>
+        <v>-0.02363357645633576</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.007781410871256434</v>
+        <v>-0.02363357645633576</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.007781410871256434</v>
+        <v>-0.02363357645633576</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0111133426205337</v>
+        <v>0.00895856699358567</v>
       </c>
       <c r="V21" t="n">
-        <v>0.009137561645502465</v>
+        <v>0.004087080940870809</v>
       </c>
       <c r="W21" t="n">
-        <v>0.003942888829715553</v>
+        <v>0.01178559784585598</v>
       </c>
       <c r="X21" t="n">
-        <v>0.005611030016441199</v>
+        <v>-0.01388399591483996</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>0.007033042937321717</v>
+        <v>-0.02104484629844846</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.009354549974181997</v>
+        <v>0.02389421695094217</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.009354549974181997</v>
+        <v>0.02389421695094217</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.009354549974181997</v>
+        <v>0.02389421695094217</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.009354549974181997</v>
+        <v>0.02389421695094217</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.009354549974181997</v>
+        <v>0.02389421695094217</v>
       </c>
     </row>
     <row r="22">
@@ -2412,87 +2412,87 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02615351845414074</v>
+        <v>-0.009528128927281289</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.007685123731404949</v>
+        <v>0.00468928199889282</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.002627224617088984</v>
+        <v>0.0009210419492104195</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002413654080546163</v>
+        <v>0.003814184162141842</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.001869237674769506</v>
+        <v>-0.007032572962325729</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.009641352865654111</v>
+        <v>0.006779018059790181</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005454167165439186</v>
+        <v>-0.01161484414281761</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03210427069217082</v>
+        <v>0.01161278133212781</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03210427069217082</v>
+        <v>0.01161278133212781</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03210427069217082</v>
+        <v>0.01161278133212781</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.03210427069217082</v>
+        <v>0.01161278133212781</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03210427069217082</v>
+        <v>0.01161278133212781</v>
       </c>
       <c r="P22" t="n">
-        <v>0.001665224994608999</v>
+        <v>0.003410680222106803</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03248066616322665</v>
+        <v>0.01428223599482236</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03248066616322665</v>
+        <v>0.01428223599482236</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.03248066616322665</v>
+        <v>0.01428223599482236</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.03248066616322665</v>
+        <v>0.01428223599482236</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01219092394363696</v>
+        <v>0.004531608153316082</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.002096326451853058</v>
+        <v>0.01060197737801977</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001597171359886854</v>
+        <v>-0.003374405853744059</v>
       </c>
       <c r="X22" t="n">
-        <v>0.003062990138519605</v>
+        <v>-0.01423652402236524</v>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>-0.001706295716251828</v>
+        <v>-0.003414140122141401</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.002036702769468111</v>
+        <v>-0.01072014368320144</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.002036702769468111</v>
+        <v>-0.01072014368320144</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.002036702769468111</v>
+        <v>-0.01072014368320144</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.002036702769468111</v>
+        <v>-0.01072014368320144</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.002036702769468111</v>
+        <v>-0.01072014368320144</v>
       </c>
     </row>
     <row r="23">
@@ -2503,87 +2503,87 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.0153749400389976</v>
+        <v>-0.0004429842404298424</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.001372140150885606</v>
+        <v>-0.01844395220843952</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.01268503269940131</v>
+        <v>0.0009952688259526881</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009167159022686359</v>
+        <v>-0.003875135810751358</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.00777701877508075</v>
+        <v>0.003800611346006113</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.003078681723147268</v>
+        <v>-0.003686071032860711</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02292064264257809</v>
+        <v>-0.0006123813363699906</v>
       </c>
       <c r="K23" t="n">
-        <v>0.005895475819819032</v>
+        <v>-0.0007503829755038297</v>
       </c>
       <c r="L23" t="n">
-        <v>0.005895475819819032</v>
+        <v>-0.0007503829755038297</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005895475819819032</v>
+        <v>-0.0007503829755038297</v>
       </c>
       <c r="N23" t="n">
-        <v>0.005895475819819032</v>
+        <v>-0.0007503829755038297</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005895475819819032</v>
+        <v>-0.0007503829755038297</v>
       </c>
       <c r="P23" t="n">
-        <v>0.009335874421434975</v>
+        <v>-0.003659240304592403</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005140935853637433</v>
+        <v>-0.001475069534750695</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005140935853637433</v>
+        <v>-0.001475069534750695</v>
       </c>
       <c r="S23" t="n">
-        <v>0.005140935853637433</v>
+        <v>-0.001475069534750695</v>
       </c>
       <c r="T23" t="n">
-        <v>0.005140935853637433</v>
+        <v>-0.001475069534750695</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01228591930743677</v>
+        <v>0.003382681677826817</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.006956431862257274</v>
+        <v>-0.007045253518452535</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.002253813978152559</v>
+        <v>0.003054469794544698</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01146000525840021</v>
+        <v>0.01112278181122782</v>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>0.004147194309887772</v>
+        <v>-0.00822515905025159</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0002227143449085738</v>
+        <v>0.0004952996209529962</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.0002227143449085738</v>
+        <v>0.0004952996209529962</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.0002227143449085738</v>
+        <v>0.0004952996209529962</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.0002227143449085738</v>
+        <v>0.0004952996209529962</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0002227143449085738</v>
+        <v>0.0004952996209529962</v>
       </c>
     </row>
     <row r="24">
@@ -2598,87 +2598,87 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.009221209424848376</v>
+        <v>-0.008487195960871958</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01651558885262355</v>
+        <v>-0.005501041267010413</v>
       </c>
       <c r="E24" t="n">
-        <v>0.009319922772796909</v>
+        <v>-0.007924022803240227</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.00742803600912144</v>
+        <v>0.00922331404423314</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006505976804239072</v>
+        <v>-0.009122055271220553</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01322000577680023</v>
+        <v>-0.01241714189217142</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01595409299973618</v>
+        <v>0.01393445440294619</v>
       </c>
       <c r="K24" t="n">
-        <v>0.007130312541212501</v>
+        <v>0.003189026347890263</v>
       </c>
       <c r="L24" t="n">
-        <v>0.007130312541212501</v>
+        <v>0.003189026347890263</v>
       </c>
       <c r="M24" t="n">
-        <v>0.007130312541212501</v>
+        <v>0.003189026347890263</v>
       </c>
       <c r="N24" t="n">
-        <v>0.007130312541212501</v>
+        <v>0.003189026347890263</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007130312541212501</v>
+        <v>0.003189026347890263</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.007188348959533957</v>
+        <v>0.009045949938459499</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.008259486570379462</v>
+        <v>0.00381550400615504</v>
       </c>
       <c r="R24" t="n">
-        <v>0.008259486570379462</v>
+        <v>0.00381550400615504</v>
       </c>
       <c r="S24" t="n">
-        <v>0.008259486570379462</v>
+        <v>0.00381550400615504</v>
       </c>
       <c r="T24" t="n">
-        <v>0.008259486570379462</v>
+        <v>0.00381550400615504</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01958919361556774</v>
+        <v>-0.004591951005919509</v>
       </c>
       <c r="V24" t="n">
-        <v>0.009648685057947401</v>
+        <v>0.003053454522534545</v>
       </c>
       <c r="W24" t="n">
-        <v>0.006853682866147314</v>
+        <v>-0.01782023281020233</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.003677663187106527</v>
+        <v>0.001673028904730289</v>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>-0.007463171434526856</v>
+        <v>-0.002628239366282393</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.002632858569314343</v>
+        <v>-0.006437429716374296</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.002632858569314343</v>
+        <v>-0.006437429716374296</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.002632858569314343</v>
+        <v>-0.006437429716374296</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.002632858569314343</v>
+        <v>-0.006437429716374296</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.002632858569314343</v>
+        <v>-0.006437429716374296</v>
       </c>
     </row>
     <row r="25">
@@ -2689,87 +2689,87 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.001438319385532775</v>
+        <v>-0.01416082656960827</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.02022354388094175</v>
+        <v>-0.01448291794882918</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02488608166744326</v>
+        <v>-0.003593991359939914</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02210635048425402</v>
+        <v>0.0007856034318560343</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01686775805071032</v>
+        <v>0.001455603890556039</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.001367454198698168</v>
+        <v>-0.005526353827263538</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.02161731068566281</v>
+        <v>0.007908988096269295</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0174691774347671</v>
+        <v>0.005029548266295483</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0174691774347671</v>
+        <v>0.005029548266295483</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0174691774347671</v>
+        <v>0.005029548266295483</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.0174691774347671</v>
+        <v>0.005029548266295483</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.0174691774347671</v>
+        <v>0.005029548266295483</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02252356323694252</v>
+        <v>0.00129665198496652</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.01464578468183138</v>
+        <v>0.003097394370973944</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.01464578468183138</v>
+        <v>0.003097394370973944</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.01464578468183138</v>
+        <v>0.003097394370973944</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.01464578468183138</v>
+        <v>0.003097394370973944</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.001934403821376153</v>
+        <v>-0.007023443506234434</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01380079216803169</v>
+        <v>-0.009904383255043833</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01789418721176748</v>
+        <v>-0.007590402687904028</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01497917330316693</v>
+        <v>0.006156984949569849</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>-0.01489844027593761</v>
+        <v>-0.004413986960139869</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01387491482699659</v>
+        <v>0.000700174111001741</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01387491482699659</v>
+        <v>0.000700174111001741</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01387491482699659</v>
+        <v>0.000700174111001741</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01387491482699659</v>
+        <v>0.000700174111001741</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01387491482699659</v>
+        <v>0.000700174111001741</v>
       </c>
     </row>
     <row r="26">
@@ -2784,87 +2784,87 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03475410043016402</v>
+        <v>-0.01547470185474702</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01490230658009226</v>
+        <v>-0.002760156939601569</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02532112594084504</v>
+        <v>-0.0004496322044963221</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01876078942243158</v>
+        <v>0.007472223278722234</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01095279519011181</v>
+        <v>-0.0104843296048433</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.008960922118436883</v>
+        <v>-0.003778593805785938</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.01198683471066549</v>
+        <v>0.0006089639403344429</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0261891075755643</v>
+        <v>-0.01139288516992885</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0261891075755643</v>
+        <v>-0.01139288516992885</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0261891075755643</v>
+        <v>-0.01139288516992885</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0261891075755643</v>
+        <v>-0.01139288516992885</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.0261891075755643</v>
+        <v>-0.01139288516992885</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01934346163773846</v>
+        <v>0.006669875586698756</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02321398720055948</v>
+        <v>-0.008527158409271585</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02321398720055948</v>
+        <v>-0.008527158409271585</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02321398720055948</v>
+        <v>-0.008527158409271585</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02321398720055948</v>
+        <v>-0.008527158409271585</v>
       </c>
       <c r="U26" t="n">
-        <v>0.00125148600205944</v>
+        <v>0.004851212424512125</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01899256866370274</v>
+        <v>0.01983033549030335</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01733453138138125</v>
+        <v>-0.008751312267513122</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.02506337831453513</v>
+        <v>-0.007611969376119693</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>-0.02381673541666942</v>
+        <v>-0.001714167581141676</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01022373141694926</v>
+        <v>0.0001515398175153982</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01022373141694926</v>
+        <v>0.0001515398175153982</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01022373141694926</v>
+        <v>0.0001515398175153982</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01022373141694926</v>
+        <v>0.0001515398175153982</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01022373141694926</v>
+        <v>0.0001515398175153982</v>
       </c>
     </row>
     <row r="27">
@@ -2875,87 +2875,87 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.004261906634476265</v>
+        <v>-0.009743708329437084</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01960177316807092</v>
+        <v>0.01302708817027088</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01575174975006999</v>
+        <v>0.009866044502660445</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01349851100394044</v>
+        <v>-0.01511736621117366</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.009631414753256589</v>
+        <v>0.01589840442298404</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.01368109561924382</v>
+        <v>0.01405902942859029</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02259862195750405</v>
+        <v>-0.01209236353178476</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02034640593385623</v>
+        <v>-0.01656607551366076</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02034640593385623</v>
+        <v>-0.01656607551366076</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02034640593385623</v>
+        <v>-0.01656607551366076</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02034640593385623</v>
+        <v>-0.01656607551366076</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02034640593385623</v>
+        <v>-0.01656607551366076</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01416726383069055</v>
+        <v>-0.0152430494844305</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.02011756285270251</v>
+        <v>-0.01853633945336339</v>
       </c>
       <c r="R27" t="n">
-        <v>0.02011756285270251</v>
+        <v>-0.01853633945336339</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02011756285270251</v>
+        <v>-0.01853633945336339</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02011756285270251</v>
+        <v>-0.01853633945336339</v>
       </c>
       <c r="U27" t="n">
-        <v>0.002037280305491212</v>
+        <v>-0.01554224067542241</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.01125317478612699</v>
+        <v>-0.008878894852788949</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01195829087833163</v>
+        <v>0.008820931360209314</v>
       </c>
       <c r="X27" t="n">
-        <v>0.01300643792825752</v>
+        <v>-0.007332216901322169</v>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>0.00049754325190173</v>
+        <v>-0.002986472381864724</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.02504000932160037</v>
+        <v>0.006442374688423748</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.02504000932160037</v>
+        <v>0.006442374688423748</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.02504000932160037</v>
+        <v>0.006442374688423748</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.02504000932160037</v>
+        <v>0.006442374688423748</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.02504000932160037</v>
+        <v>0.006442374688423748</v>
       </c>
     </row>
     <row r="28">
@@ -2970,87 +2970,87 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.0238650851466034</v>
+        <v>-0.04384217008242169</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01176916271076651</v>
+        <v>-0.008556807913568078</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.05473687975747518</v>
+        <v>-0.0530053203740532</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02795665398226616</v>
+        <v>0.01463402270634023</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.00615975202239008</v>
+        <v>0.01327049397670494</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.02571725162069006</v>
+        <v>-0.009222716732227167</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01558470600873906</v>
+        <v>0.01999049351794111</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03456271731850868</v>
+        <v>0.03527815574878156</v>
       </c>
       <c r="L28" t="n">
-        <v>0.03456271731850868</v>
+        <v>0.03527815574878156</v>
       </c>
       <c r="M28" t="n">
-        <v>0.03456271731850868</v>
+        <v>0.03527815574878156</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03456271731850868</v>
+        <v>0.03527815574878156</v>
       </c>
       <c r="O28" t="n">
-        <v>0.03456271731850868</v>
+        <v>0.03527815574878156</v>
       </c>
       <c r="P28" t="n">
-        <v>0.03083478728139149</v>
+        <v>0.01803676714836767</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01916567462262699</v>
+        <v>0.01296027359760274</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01916567462262699</v>
+        <v>0.01296027359760274</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01916567462262699</v>
+        <v>0.01296027359760274</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01916567462262699</v>
+        <v>0.01296027359760274</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.03151319972452798</v>
+        <v>-0.06282493588024936</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.09462936743317468</v>
+        <v>-0.130159803713598</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9915872814874912</v>
+        <v>0.9886617600226175</v>
       </c>
       <c r="X28" t="n">
-        <v>0.04419212787968511</v>
+        <v>0.04910449659504496</v>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>0.0491284674691387</v>
+        <v>0.03259940080999401</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.008797658847906353</v>
+        <v>0.03716773403967735</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.008797658847906353</v>
+        <v>0.03716773403967735</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.008797658847906353</v>
+        <v>0.03716773403967735</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.008797658847906353</v>
+        <v>0.03716773403967735</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.008797658847906353</v>
+        <v>0.03716773403967735</v>
       </c>
     </row>
     <row r="29">
@@ -3065,87 +3065,87 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.01967588142703525</v>
+        <v>-0.000901852401018524</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.01346903641076145</v>
+        <v>-0.01368191365681914</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.01495918955836758</v>
+        <v>0.005688761552887616</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01743116700124668</v>
+        <v>-0.003266390804663909</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01570740494829619</v>
+        <v>0.003150193699501937</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02400141312005652</v>
+        <v>-0.004875479760754798</v>
       </c>
       <c r="J29" t="n">
-        <v>0.002747981391568044</v>
+        <v>-0.002465842363649692</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.006351633950065357</v>
+        <v>-0.0001469142494691425</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.006351633950065357</v>
+        <v>-0.0001469142494691425</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.006351633950065357</v>
+        <v>-0.0001469142494691425</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.006351633950065357</v>
+        <v>-0.0001469142494691425</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.006351633950065357</v>
+        <v>-0.0001469142494691425</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01679831932793277</v>
+        <v>-0.003260382176603822</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.00511230702049228</v>
+        <v>0.0008009075120090751</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.00511230702049228</v>
+        <v>0.0008009075120090751</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.00511230702049228</v>
+        <v>0.0008009075120090751</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.00511230702049228</v>
+        <v>0.0008009075120090751</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.03010134360405374</v>
+        <v>-0.006782686231826862</v>
       </c>
       <c r="V29" t="n">
-        <v>0.000130008677200347</v>
+        <v>0.007633321804333218</v>
       </c>
       <c r="W29" t="n">
-        <v>0.02121050321642013</v>
+        <v>-0.002275189882751899</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.006880330163213206</v>
+        <v>-0.008100188637001886</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
-        <v>0.003784583383383335</v>
+        <v>-0.008775846699758467</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.001342630325705213</v>
+        <v>-0.001616874652168746</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.001342630325705213</v>
+        <v>-0.001616874652168746</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.001342630325705213</v>
+        <v>-0.001616874652168746</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.001342630325705213</v>
+        <v>-0.001616874652168746</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.001342630325705213</v>
+        <v>-0.001616874652168746</v>
       </c>
     </row>
     <row r="30">
@@ -3160,87 +3160,87 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01883886036955441</v>
+        <v>-0.007366744189667442</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.02053317413332696</v>
+        <v>-0.0008846248528462487</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01210153795606152</v>
+        <v>-0.002345548211455482</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01444122489764899</v>
+        <v>0.003678975720789757</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01225696100227844</v>
+        <v>0.0008164970361649704</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.01989254229970169</v>
+        <v>-0.004058920588589207</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008492738840805194</v>
+        <v>-0.009971838799727066</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0350324977532999</v>
+        <v>0.03276749599567496</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0350324977532999</v>
+        <v>0.03276749599567496</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0350324977532999</v>
+        <v>0.03276749599567496</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0350324977532999</v>
+        <v>0.03276749599567496</v>
       </c>
       <c r="O30" t="n">
-        <v>0.0350324977532999</v>
+        <v>0.03276749599567496</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01455255677410227</v>
+        <v>0.00349672094296721</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.0368548650581946</v>
+        <v>0.03104959168649592</v>
       </c>
       <c r="R30" t="n">
-        <v>0.0368548650581946</v>
+        <v>0.03104959168649592</v>
       </c>
       <c r="S30" t="n">
-        <v>0.0368548650581946</v>
+        <v>0.03104959168649592</v>
       </c>
       <c r="T30" t="n">
-        <v>0.0368548650581946</v>
+        <v>0.03104959168649592</v>
       </c>
       <c r="U30" t="n">
-        <v>0.008347917645916704</v>
+        <v>-0.005673159440731594</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.0005780161191206447</v>
+        <v>-0.0005596940095969401</v>
       </c>
       <c r="W30" t="n">
-        <v>0.110123625780945</v>
+        <v>0.132685094898851</v>
       </c>
       <c r="X30" t="n">
-        <v>0.01247714229108569</v>
+        <v>0.002165436105654361</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>0.002244224537768981</v>
+        <v>0.001486422422864224</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.004975936423037456</v>
+        <v>0.02544008203440082</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.004975936423037456</v>
+        <v>0.02544008203440082</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.004975936423037456</v>
+        <v>0.02544008203440082</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.004975936423037456</v>
+        <v>0.02544008203440082</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.004975936423037456</v>
+        <v>0.02544008203440082</v>
       </c>
     </row>
     <row r="31">
@@ -3255,87 +3255,87 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.002335601373424054</v>
+        <v>0.005048932502489325</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.002391382367655294</v>
+        <v>-0.009459942286599422</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.004969240038769601</v>
+        <v>0.002869984192699842</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002409016032360641</v>
+        <v>-0.002149586097495861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003663047474521898</v>
+        <v>0.0008105087241050872</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.013666849986674</v>
+        <v>-0.01067700938277009</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.01615041103970669</v>
+        <v>0.001511934573727143</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0107724801108992</v>
+        <v>0.007802686182026861</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0107724801108992</v>
+        <v>0.007802686182026861</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0107724801108992</v>
+        <v>0.007802686182026861</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0107724801108992</v>
+        <v>0.007802686182026861</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0107724801108992</v>
+        <v>0.007802686182026861</v>
       </c>
       <c r="P31" t="n">
-        <v>0.003102398812095952</v>
+        <v>-0.002103273765032738</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.008929032741161308</v>
+        <v>0.007630063828300638</v>
       </c>
       <c r="R31" t="n">
-        <v>0.008929032741161308</v>
+        <v>0.007630063828300638</v>
       </c>
       <c r="S31" t="n">
-        <v>0.008929032741161308</v>
+        <v>0.007630063828300638</v>
       </c>
       <c r="T31" t="n">
-        <v>0.008929032741161308</v>
+        <v>0.007630063828300638</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.01092744370109775</v>
+        <v>0.00266815806268158</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.008622378584895143</v>
+        <v>0.005059672910596729</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01073849687753987</v>
+        <v>-0.005439628290396283</v>
       </c>
       <c r="X31" t="n">
-        <v>0.0009447501497900059</v>
+        <v>-0.006961491129614911</v>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>0.004190607527624301</v>
+        <v>-0.01893174126931741</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.00141512674460507</v>
+        <v>-0.002336975735369758</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.00141512674460507</v>
+        <v>-0.002336975735369758</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.00141512674460507</v>
+        <v>-0.002336975735369758</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.00141512674460507</v>
+        <v>-0.002336975735369758</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.00141512674460507</v>
+        <v>-0.002336975735369758</v>
       </c>
     </row>
     <row r="32">
@@ -3350,87 +3350,87 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.485548725437949</v>
+        <v>0.4467442600354426</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001273986386959456</v>
+        <v>0.00124858795248588</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9168485400019415</v>
+        <v>0.9298455925304558</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9999573380782933</v>
+        <v>-0.9999568030115681</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9496655602266222</v>
+        <v>0.9642030564300307</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.2843792138391685</v>
+        <v>0.2993447863014479</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.5944760778637287</v>
+        <v>-0.6329754568822107</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5218203698328148</v>
+        <v>-0.4979802184798022</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.5218203698328148</v>
+        <v>-0.4979802184798022</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.5218203698328148</v>
+        <v>-0.4979802184798022</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5218203698328148</v>
+        <v>-0.4979802184798022</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.5218203698328148</v>
+        <v>-0.4979802184798022</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9988197316967892</v>
+        <v>-0.9990041752500417</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.5521485457019417</v>
+        <v>-0.5431717081397172</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.5521485457019417</v>
+        <v>-0.5431717081397172</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.5521485457019417</v>
+        <v>-0.5431717081397172</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.5521485457019417</v>
+        <v>-0.5431717081397172</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1013497725339909</v>
+        <v>-0.1397778684297787</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02563296131331845</v>
+        <v>-0.006626256846262567</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.02232755110110204</v>
+        <v>-0.01892440785324408</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.4890189870487595</v>
+        <v>-0.4348499348084994</v>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>-0.5943433686377347</v>
+        <v>-0.5635694570836945</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7791847309113892</v>
+        <v>0.7481711187657112</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7791847309113892</v>
+        <v>0.7481711187657112</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.7791847309113892</v>
+        <v>0.7481711187657112</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.7791847309113892</v>
+        <v>0.7481711187657112</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.7791847309113892</v>
+        <v>0.7481711187657112</v>
       </c>
     </row>
     <row r="33">
@@ -3445,87 +3445,87 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.0002902758836110353</v>
+        <v>-0.002405679480056795</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.003106481884259275</v>
+        <v>-0.006331396299313964</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.003373169222926768</v>
+        <v>0.01228421900684219</v>
       </c>
       <c r="F33" t="n">
-        <v>0.009491199355647973</v>
+        <v>-0.005302518929025189</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.01344161420166457</v>
+        <v>0.002000274512002745</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>-0.000476281651051266</v>
+        <v>0.003975463899754638</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.004388605810177395</v>
+        <v>-0.02544069367863409</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001225958449038338</v>
+        <v>-0.02428430047484301</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.001225958449038338</v>
+        <v>-0.02428430047484301</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.001225958449038338</v>
+        <v>-0.02428430047484301</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.001225958449038338</v>
+        <v>-0.02428430047484301</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.001225958449038338</v>
+        <v>-0.02428430047484301</v>
       </c>
       <c r="P33" t="n">
-        <v>0.008620831544833261</v>
+        <v>-0.006143265565432655</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.002820915856836634</v>
+        <v>-0.02213005723730057</v>
       </c>
       <c r="R33" t="n">
-        <v>0.002820915856836634</v>
+        <v>-0.02213005723730057</v>
       </c>
       <c r="S33" t="n">
-        <v>0.002820915856836634</v>
+        <v>-0.02213005723730057</v>
       </c>
       <c r="T33" t="n">
-        <v>0.002820915856836634</v>
+        <v>-0.02213005723730057</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01130990771639631</v>
+        <v>-0.006246990338469903</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01956286148651445</v>
+        <v>0.01461606723816067</v>
       </c>
       <c r="W33" t="n">
-        <v>0.009695793027831719</v>
+        <v>-0.0006383307063833071</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.01657426683897067</v>
+        <v>-0.018520199945202</v>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>-0.006942244981689798</v>
+        <v>-0.01700420316204203</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.005005634024225361</v>
+        <v>0.01829412288294123</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.005005634024225361</v>
+        <v>0.01829412288294123</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.005005634024225361</v>
+        <v>0.01829412288294123</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.005005634024225361</v>
+        <v>0.01829412288294123</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.005005634024225361</v>
+        <v>0.01829412288294123</v>
       </c>
     </row>
     <row r="34">
@@ -3540,87 +3540,87 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.003175826911033076</v>
+        <v>0.01389086362290864</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002479635075185403</v>
+        <v>0.004483056152830561</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002375721887028875</v>
+        <v>-0.0124141900481419</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003597801455912058</v>
+        <v>0.007973027875730281</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001358630358345214</v>
+        <v>-0.006619775154197751</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.01337793135111725</v>
+        <v>-0.002672600222726002</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.02623013357694342</v>
+        <v>-0.02505775616665078</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04930643563625742</v>
+        <v>0.04591829826318298</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04930643563625742</v>
+        <v>0.04591829826318298</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04930643563625742</v>
+        <v>0.04591829826318298</v>
       </c>
       <c r="N34" t="n">
-        <v>0.04930643563625742</v>
+        <v>0.04591829826318298</v>
       </c>
       <c r="O34" t="n">
-        <v>0.04930643563625742</v>
+        <v>0.04591829826318298</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001458995194359808</v>
+        <v>0.01008299152082992</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04949633295585331</v>
+        <v>0.04477248678372486</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04949633295585331</v>
+        <v>0.04477248678372486</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04949633295585331</v>
+        <v>0.04477248678372486</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04949633295585331</v>
+        <v>0.04477248678372486</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.005443843417753736</v>
+        <v>0.01170585826505858</v>
       </c>
       <c r="V34" t="n">
-        <v>0.000801173600046944</v>
+        <v>-0.01104594693845947</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.01313164631726585</v>
+        <v>0.0004606879486068795</v>
       </c>
       <c r="X34" t="n">
-        <v>0.006012605040504201</v>
+        <v>0.008143190301431904</v>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
-        <v>0.01983517884140715</v>
+        <v>0.006399807303998073</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.06054755301390211</v>
+        <v>0.07141206689412068</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.06054755301390211</v>
+        <v>0.07141206689412068</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.06054755301390211</v>
+        <v>0.07141206689412068</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.06054755301390211</v>
+        <v>0.07141206689412068</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.06054755301390211</v>
+        <v>0.07141206689412068</v>
       </c>
     </row>
     <row r="35">
@@ -3635,87 +3635,87 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.02630190431607617</v>
+        <v>0.008703791487037914</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007347835109913403</v>
+        <v>0.01449544677695447</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.01849541881981675</v>
+        <v>0.002725254435252544</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02715698825427952</v>
+        <v>-0.002398271423982714</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.03154259310170372</v>
+        <v>-0.0003171329551713295</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>-0.008897764771910588</v>
+        <v>0.012446899972469</v>
       </c>
       <c r="J35" t="n">
-        <v>0.008026536517877382</v>
+        <v>-0.008792832529463045</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8057211444208456</v>
+        <v>0.8146929093349291</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8057211444208456</v>
+        <v>0.8146929093349291</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8057211444208456</v>
+        <v>0.8146929093349291</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8057211444208456</v>
+        <v>0.8146929093349291</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8057211444208456</v>
+        <v>0.8146929093349291</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05088866565154662</v>
+        <v>0.02212525670925257</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.820994077447763</v>
+        <v>0.8131046102350461</v>
       </c>
       <c r="R35" t="n">
-        <v>0.820994077447763</v>
+        <v>0.8131046102350461</v>
       </c>
       <c r="S35" t="n">
-        <v>0.820994077447763</v>
+        <v>0.8131046102350461</v>
       </c>
       <c r="T35" t="n">
-        <v>0.820994077447763</v>
+        <v>0.8131046102350461</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01053491955739678</v>
+        <v>0.01385253072652531</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01372411082096443</v>
+        <v>0.00306054904260549</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.0006391162815646512</v>
+        <v>0.006968232165682322</v>
       </c>
       <c r="X35" t="n">
-        <v>0.007980105055204202</v>
+        <v>-0.0007303181113031812</v>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>0.01768407814736312</v>
+        <v>0.004951073629510736</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.3304607904664316</v>
+        <v>-0.3604944490369446</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.3304607904664316</v>
+        <v>-0.3604944490369446</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.3304607904664316</v>
+        <v>-0.3604944490369446</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.3304607904664316</v>
+        <v>-0.3604944490369446</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.3304607904664316</v>
+        <v>-0.3604944490369446</v>
       </c>
     </row>
     <row r="36">
@@ -3730,87 +3730,87 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.0001273383410935336</v>
+        <v>0.01155475245154752</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.005466936218677448</v>
+        <v>-0.009237210692372107</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01593882639755305</v>
+        <v>0.006129569389295693</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01397060964682438</v>
+        <v>-0.002878068796780688</v>
       </c>
       <c r="G36" t="n">
-        <v>0.007715911412636455</v>
+        <v>0.0008220642322206423</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.0006936620437464816</v>
+        <v>-0.01158774485587745</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00332004090279366</v>
+        <v>-0.004408840275860757</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.009611667840466713</v>
+        <v>-0.01314369711543697</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.009611667840466713</v>
+        <v>-0.01314369711543697</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.009611667840466713</v>
+        <v>-0.01314369711543697</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.009611667840466713</v>
+        <v>-0.01314369711543697</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.009611667840466713</v>
+        <v>-0.01314369711543697</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01424369279374771</v>
+        <v>-0.003255992108559921</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.006017602896704115</v>
+        <v>-0.01166593356865934</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.006017602896704115</v>
+        <v>-0.01166593356865934</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.006017602896704115</v>
+        <v>-0.01166593356865934</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.006017602896704115</v>
+        <v>-0.01166593356865934</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02828149188325967</v>
+        <v>-0.004172916233729162</v>
       </c>
       <c r="V36" t="n">
-        <v>0.009697163139886524</v>
+        <v>0.008302456331024565</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01618659770346391</v>
+        <v>0.005554088419540883</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.002919066932762677</v>
+        <v>-0.01896835672568357</v>
       </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>-0.009356222486248898</v>
+        <v>-0.01234552543545525</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.0007212152928486117</v>
+        <v>0.01124688224846882</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.0007212152928486117</v>
+        <v>0.01124688224846882</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.0007212152928486117</v>
+        <v>0.01124688224846882</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.0007212152928486117</v>
+        <v>0.01124688224846882</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.0007212152928486117</v>
+        <v>0.01124688224846882</v>
       </c>
     </row>
     <row r="37">
@@ -3825,87 +3825,87 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002029107729164309</v>
+        <v>-0.01831992234319922</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01341683295267332</v>
+        <v>-7.766462477664625e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.004320095788803831</v>
+        <v>-0.0150142702261427</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.003340665733626629</v>
+        <v>0.01707239580272396</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003702013492080539</v>
+        <v>-0.01774008094540081</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.017988150191526</v>
+        <v>-0.006940760865407608</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01215390500544854</v>
+        <v>0.007166211980542936</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1079753768630151</v>
+        <v>0.1187755543797555</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1079753768630151</v>
+        <v>0.1187755543797555</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1079753768630151</v>
+        <v>0.1187755543797555</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1079753768630151</v>
+        <v>0.1187755543797555</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1079753768630151</v>
+        <v>0.1187755543797555</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0006282900731316029</v>
+        <v>0.02024438156244381</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1090393290655731</v>
+        <v>0.1206498153304982</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1090393290655731</v>
+        <v>0.1206498153304982</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1090393290655731</v>
+        <v>0.1206498153304982</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1090393290655731</v>
+        <v>0.1206498153304982</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.007730561397222455</v>
+        <v>-0.0002495411304954113</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.01602950521718021</v>
+        <v>0.00375545701355457</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.001486947707477908</v>
+        <v>-0.008915760497157603</v>
       </c>
       <c r="X37" t="n">
-        <v>0.008412467760498711</v>
+        <v>0.006624265170242652</v>
       </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>0.004041018209640728</v>
+        <v>0.002912376173123762</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1695250114210004</v>
+        <v>0.1762658785666588</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.1695250114210004</v>
+        <v>0.1762658785666588</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1695250114210004</v>
+        <v>0.1762658785666588</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.1695250114210004</v>
+        <v>0.1762658785666588</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.1695250114210004</v>
+        <v>0.1762658785666588</v>
       </c>
     </row>
     <row r="38">
@@ -3920,87 +3920,87 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002205086392203455</v>
+        <v>0.0007783914917839148</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02909218925968757</v>
+        <v>0.001264681932646819</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.01484719902588796</v>
+        <v>0.008073184664731848</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01466128177045127</v>
+        <v>-0.00385502504655025</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01221568340062733</v>
+        <v>-0.001144202759442027</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.002477818659112746</v>
+        <v>-0.003564965303649653</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.006752422738148362</v>
+        <v>0.006959436588392059</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01720155188806207</v>
+        <v>0.001318603813186038</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01720155188806207</v>
+        <v>0.001318603813186038</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01720155188806207</v>
+        <v>0.001318603813186038</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01720155188806207</v>
+        <v>0.001318603813186038</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01720155188806207</v>
+        <v>0.001318603813186038</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01528446665937866</v>
+        <v>-0.004100304137003042</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01782355520894221</v>
+        <v>0.004624166038241661</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01782355520894221</v>
+        <v>0.004624166038241661</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01782355520894221</v>
+        <v>0.004624166038241661</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01782355520894221</v>
+        <v>0.004624166038241661</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.002668524874740994</v>
+        <v>0.002468379048683791</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.008187359559494381</v>
+        <v>0.01463697444236974</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001503013788120551</v>
+        <v>0.00816556612565566</v>
       </c>
       <c r="X38" t="n">
-        <v>0.00777534050301362</v>
+        <v>0.004024198804241988</v>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>0.004271202410848095</v>
+        <v>-0.01418817892588179</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.01582571026502841</v>
+        <v>-0.01044364641243646</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01582571026502841</v>
+        <v>-0.01044364641243646</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.01582571026502841</v>
+        <v>-0.01044364641243646</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.01582571026502841</v>
+        <v>-0.01044364641243646</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.01582571026502841</v>
+        <v>-0.01044364641243646</v>
       </c>
     </row>
     <row r="39">
@@ -4015,87 +4015,87 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.002925086805003472</v>
+        <v>-0.009060764850607649</v>
       </c>
       <c r="D39" t="n">
-        <v>0.009771227334849092</v>
+        <v>-0.01164289128842891</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.01011929282077171</v>
+        <v>0.005095958426959584</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.001200047184001887</v>
+        <v>-0.002984683757846837</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005122036716881468</v>
+        <v>0.002013941576139416</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>-0.0005785672551426902</v>
+        <v>-0.005501075059010751</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.003322976630912851</v>
+        <v>-0.005421246650391807</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.001735256229410249</v>
+        <v>-0.009606668352066684</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.001735256229410249</v>
+        <v>-0.009606668352066684</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.001735256229410249</v>
+        <v>-0.009606668352066684</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.001735256229410249</v>
+        <v>-0.009606668352066684</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.001735256229410249</v>
+        <v>-0.009606668352066684</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.0004862551874502074</v>
+        <v>-0.003444942802449428</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.008289872587594904</v>
+        <v>-0.007995237667952378</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.008289872587594904</v>
+        <v>-0.007995237667952378</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.008289872587594904</v>
+        <v>-0.007995237667952378</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.008289872587594904</v>
+        <v>-0.007995237667952378</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003129102173164087</v>
+        <v>-0.001496247902962479</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.02640842092833683</v>
+        <v>0.005114139879141399</v>
       </c>
       <c r="W39" t="n">
-        <v>0.006680920875236833</v>
+        <v>-0.01245756918457569</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01690052467602099</v>
+        <v>-0.005752990353529904</v>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>0.01319751719990069</v>
+        <v>-0.01442315103623151</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.0008009000000359999</v>
+        <v>0.002677182794771828</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.0008009000000359999</v>
+        <v>0.002677182794771828</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.0008009000000359999</v>
+        <v>0.002677182794771828</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.0008009000000359999</v>
+        <v>0.002677182794771828</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.0008009000000359999</v>
+        <v>0.002677182794771828</v>
       </c>
     </row>
   </sheetData>
